--- a/api/2/xlsx/en/SectorCOFOG.xlsx
+++ b/api/2/xlsx/en/SectorCOFOG.xlsx
@@ -28,27 +28,27 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-name</t>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-group</t>
   </si>
   <si>
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
-    <t>codeforiati:cofog-group</t>
+    <t>codeforiati:cofog-division</t>
   </si>
   <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>active</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>Education</t>
+    <t>111</t>
+  </si>
+  <si>
+    <t>09.8 - Education n.e.c.</t>
   </si>
   <si>
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
-    <t>09.8 - Education n.e.c.</t>
+    <t>09 - Education</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Educational buildings, equipment, materials; subsidiary services to education (boarding facilities, staff housing); language training; colloquia, seminars, lectures, etc.</t>
   </si>
   <si>
+    <t>09.6 - Subsidiary services to education</t>
+  </si>
+  <si>
     <t>09.6.0 - Subsidiary services to education (IS)</t>
   </si>
   <si>
-    <t>09.6 - Subsidiary services to education</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Research and studies on education effectiveness, relevance and quality; systematic evaluation and monitoring.</t>
   </si>
   <si>
+    <t>09.7 - R&amp;D Education</t>
+  </si>
+  <si>
     <t>09.7.0 - R&amp;D Education (CS)</t>
   </si>
   <si>
-    <t>09.7 - R&amp;D Education</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
@@ -133,15 +133,15 @@
     <t>Basic Education</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>09.1 - Pre‐primary and primary education</t>
+  </si>
+  <si>
     <t>09.1.2 - Primary education (IS)</t>
   </si>
   <si>
-    <t>09.1 - Pre‐primary and primary education</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Provision of meals or snacks at school; other uses of food for the achievement of educational outcomes including 'take-home' food rations provided as economic incentives to families (or foster families, or other child care institutions) in return for a child's regular attendance at school; food provided to adults or youth who attend literacy or vocational training programmes; food for pre-school activities with an educational component. These activities may help reduce children's hunger during the school day if provision of food/meals contains bioavailable nutrients to address specific nutrition needs and have nutrition expected outcomes in school children, or if the rationale mainstream nutrition or expected outcome is nutrition-linked.</t>
   </si>
   <si>
+    <t>07.4 - Public health services</t>
+  </si>
+  <si>
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
-    <t>07.4 - Public health services</t>
-  </si>
-  <si>
     <t>07 - Health</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Second cycle systematic instruction at junior level.</t>
   </si>
   <si>
+    <t>09.2 - Secondary education</t>
+  </si>
+  <si>
     <t>09.2.1 - Lower‐secondary education (IS)</t>
   </si>
   <si>
-    <t>09.2 - Secondary education</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Secondary Education</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>09.2.2 - Upper‐secondary education (IS)</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Elementary vocational training and secondary level technical education; on-the job training; apprenticeships; including informal vocational training.</t>
   </si>
   <si>
+    <t>09.5 - Education not definable by level</t>
+  </si>
+  <si>
     <t>09.5.0 - Education not definable by level (IS)</t>
   </si>
   <si>
-    <t>09.5 - Education not definable by level</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>Post-Secondary Education</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>09.4 - Tertiary education</t>
+  </si>
+  <si>
     <t>09.4.1 - First stage of tertiary education (IS)</t>
   </si>
   <si>
-    <t>09.4 - Tertiary education</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Professional-level vocational training programmes and in-service training.</t>
   </si>
   <si>
+    <t>09.3 - Post‐secondary non‐tertiary education</t>
+  </si>
+  <si>
     <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
   </si>
   <si>
-    <t>09.3 - Post‐secondary non‐tertiary education</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
@@ -292,24 +292,24 @@
     <t>Health sector policy, planning and programmes; aid to health ministries, public health administration; institution capacity building and advice; medical insurance programmes; including health system strengthening and health governance; unspecified health activities.</t>
   </si>
   <si>
+    <t>Health</t>
+  </si>
+  <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>Health</t>
+    <t>121</t>
+  </si>
+  <si>
+    <t>07.6 - Health n.e.c.</t>
   </si>
   <si>
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>General medical research (excluding basic health research and research for prevention and control of NCDs (12382)).</t>
   </si>
   <si>
+    <t>07.5 - R&amp;D Health</t>
+  </si>
+  <si>
     <t>07.5.0 - R&amp;D Health (CS)</t>
   </si>
   <si>
-    <t>07.5 - R&amp;D Health</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Laboratories, specialised clinics and hospitals (including equipment and supplies); ambulances; dental services; medical rehabilitation. Excludes noncommunicable diseases (123xx).</t>
   </si>
   <si>
+    <t>07.2 - Outpatient services</t>
+  </si>
+  <si>
     <t>07.2.1 - General medical services (IS)</t>
   </si>
   <si>
-    <t>07.2 - Outpatient services</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>District-level hospitals, clinics and dispensaries and related medical equipment; excluding specialised hospitals and clinics (12191).</t>
   </si>
   <si>
+    <t>07.3 - Hospital services</t>
+  </si>
+  <si>
     <t>07.3.1 - General hospital services (IS)</t>
   </si>
   <si>
-    <t>07.3 - Hospital services</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -583,18 +583,18 @@
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
+    <t>06.3 - Water supply</t>
+  </si>
+  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
-    <t>06.3 - Water supply</t>
+    <t>06 - Housing and community amenities</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -604,12 +604,12 @@
     <t>Collection and usage of quantitative and qualitative data on water resources; creation and sharing of water knowledge; conservation and rehabilitation of inland surface waters (rivers, lakes etc.), ground water and coastal waters; prevention of water contamination.</t>
   </si>
   <si>
+    <t>05.6 - Environmental protection n.e.c.</t>
+  </si>
+  <si>
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>05.6 - Environmental protection n.e.c.</t>
-  </si>
-  <si>
     <t>05 - Environmental protection</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>Large scale sewerage including trunk sewers and sewage pumping stations; domestic and industrial waste water treatment plants.</t>
   </si>
   <si>
+    <t>05.2 - Waste water management</t>
+  </si>
+  <si>
     <t>05.2.0 - Waste water management (CS)</t>
   </si>
   <si>
-    <t>05.2 - Waste water management</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -691,12 +691,12 @@
     <t>Municipal and industrial solid waste management, including hazardous and toxic waste; collection, disposal and treatment; landfill areas; composting and reuse.</t>
   </si>
   <si>
+    <t>05.1 - Waste management</t>
+  </si>
+  <si>
     <t>05.1.0 - Waste management (CS)</t>
   </si>
   <si>
-    <t>05.1 - Waste management</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
@@ -715,27 +715,27 @@
     <t>Institution-building assistance to strengthen core public sector management systems and capacities. This includes general public policy management, co-ordination, planning and reform; human resource management; organisational development; civil service reform; e-government; development planning, monitoring and evaluation; support to ministries involved in aid co-ordination; other ministries and government departments when sector cannot be specified. (Use specific sector codes for development of systems and capacities in sector ministries. For macro-economic policy use code 15142. For public procurement use code 15125.)</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society</t>
+    <t>151</t>
+  </si>
+  <si>
+    <t>01.3 - General services</t>
   </si>
   <si>
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
-    <t>01.3 - General services</t>
+    <t>01 - General public services</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Fiscal policy and planning; support to ministries of finance; strengthening financial and managerial accountability; public expenditure management; improving financial management systems; budget drafting; inter-governmental fiscal relations, public audit, public debt. (Use code 15114 for domestic revenue mobilisation and code 33120 for customs).</t>
   </si>
   <si>
+    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
+  </si>
+  <si>
     <t>01.1.2 - Financial and fiscal affairs (CS)</t>
   </si>
   <si>
-    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
@@ -760,12 +760,12 @@
     <t>Decentralisation processes (including political, administrative and fiscal dimensions); intergovernmental relations and federalism; strengthening departments of regional and local government, regional and local authorities and their national associations. (Use specific sector codes for decentralisation of sector management and services.)</t>
   </si>
   <si>
+    <t>01.8 - Transfers of a general character between different levels of government</t>
+  </si>
+  <si>
     <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
   </si>
   <si>
-    <t>01.8 - Transfers of a general character between different levels of government</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
@@ -775,12 +775,12 @@
     <t>Specialised organisations, institutions and frameworks for the prevention of and combat against corruption, bribery, money-laundering and other aspects of organised crime, with or without law enforcement powers, e.g. anti-corruption commissions and monitoring bodies, special investigation services, institutions and initiatives of integrity and ethics oversight, specialised NGOs, other civil society and citizens' organisations directly concerned with corruption.</t>
   </si>
   <si>
+    <t>03.6 - Public order and safety n.e.c.</t>
+  </si>
+  <si>
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
-    <t>03.6 - Public order and safety n.e.c.</t>
-  </si>
-  <si>
     <t>03 - Public order and safety</t>
   </si>
   <si>
@@ -859,12 +859,12 @@
     <t>Support to administration of developing countries' foreign aid (including triangular and south-south cooperation).</t>
   </si>
   <si>
+    <t>01.2 - Foreign economic aid</t>
+  </si>
+  <si>
     <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
   </si>
   <si>
-    <t>01.2 - Foreign economic aid</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -943,12 +943,12 @@
     <t>Judicial law and order sectors; policy development within ministries of justice or equivalents.</t>
   </si>
   <si>
+    <t>03.3 - Law courts</t>
+  </si>
+  <si>
     <t>03.3.0 - Law courts (CS)</t>
   </si>
   <si>
-    <t>03.3 - Law courts</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
@@ -958,12 +958,12 @@
     <t>Police affairs and services.</t>
   </si>
   <si>
+    <t>03.1 - Police services</t>
+  </si>
+  <si>
     <t>03.1.0 - Police services (CS)</t>
   </si>
   <si>
-    <t>03.1 - Police services</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
@@ -973,12 +973,12 @@
     <t>Fire-prevention and fire-fighting affairs and services.</t>
   </si>
   <si>
+    <t>03.2 - Fire‐protection services</t>
+  </si>
+  <si>
     <t>03.2.0 - Fire‐protection services (CS)</t>
   </si>
   <si>
-    <t>03.2 - Fire‐protection services</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -1012,12 +1012,12 @@
     <t>Prisons</t>
   </si>
   <si>
+    <t>03.4 - Prisons</t>
+  </si>
+  <si>
     <t>03.4.0 - Prisons (CS)</t>
   </si>
   <si>
-    <t>03.4 - Prisons</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
@@ -1027,12 +1027,12 @@
     <t>Support to macroeconomic stability, debt sustainability and structural reforms. Includes technical assistance for strategic formulation of policies, laws and regulation; capacity building to enhance public sector development; policy-based funding. For fiscal policy and domestic revenue mobilisation use codes 15111 and 15114.</t>
   </si>
   <si>
+    <t>04.1 - General economic, commercial and labour affairs</t>
+  </si>
+  <si>
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
-    <t>04.1 - General economic, commercial and labour affairs</t>
-  </si>
-  <si>
     <t>04 - Economic affairs</t>
   </si>
   <si>
@@ -1072,12 +1072,12 @@
     <t>Electoral management bodies and processes, election observation, voters' education. (Use code 15230 when in the context of an international peacekeeping operation.)</t>
   </si>
   <si>
+    <t>01.6 - General public services n.e.c.</t>
+  </si>
+  <si>
     <t>01.6.0 - General public services n.e.c. (CS)</t>
   </si>
   <si>
-    <t>01.6 - General public services n.e.c.</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -1099,12 +1099,12 @@
     <t>Activities that support free and uncensored flow of information on public issues; activities that increase the editorial and technical skills and the integrity of the print and broadcast media, e.g. training of journalists. (Use codes 22010-22040 for provision of equipment and capital assistance to media.)</t>
   </si>
   <si>
+    <t>04.6 - Communication</t>
+  </si>
+  <si>
     <t>04.6.0 - Communication (CS)</t>
   </si>
   <si>
-    <t>04.6 - Communication</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -1147,12 +1147,12 @@
     <t>Support for feminist, women-led and women's rights organisations and movements, and institutions (governmental and non-govermental) at all levels to enhance their effectiveness, influence and substainability (activities and core-funding). These organisations exist to bring about transformative change for gender equality and/or the rights of women and girls in developing countries. Their activities include agenda-setting, advocacy, policy dialogue, capacity development, awareness raising and prevention, service provision, conflict-prevention and peacebuilding, research, organising, and alliance and network building</t>
   </si>
   <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
-    <t>10.7 - Social exclusion n.e.c.</t>
-  </si>
-  <si>
     <t>10 - Social protection</t>
   </si>
   <si>
@@ -1192,12 +1192,12 @@
     <t>Collection, production, management and dissemination of statistics and data related to Government &amp; Civil Society. Includes macroeconomic statistics, government finance, fiscal and public sector statistics, support to development of administrative data infrastructure, civil society surveys.</t>
   </si>
   <si>
+    <t>01.5 - R&amp;D General public services</t>
+  </si>
+  <si>
     <t>01.5.0 - R&amp;D General public services (CS)</t>
   </si>
   <si>
-    <t>01.5 - R&amp;D General public services</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -1231,12 +1231,12 @@
     <t>Bilateral participation in peacekeeping operations mandated or authorised by the United Nations (UN) through Security Council resolutions, and conducted by international organisations, e.g. UN, NATO, the European Union (Security and Defence Policy security-related operations), or regional groupings of developing countries. Direct contributions to the UN Department for Peacekeeping Operations (UNDPKO) budget are excluded from bilateral ODA (they are reportable in part as multilateral ODA, see Annex 9). The activities that can be reported as bilateral ODA under this code are limited to: human rights and election monitoring; reintegration of demobilised soldiers; rehabilitation of basic national infrastructure; monitoring or retraining of civil administrators and police forces; security sector reform and other rule of law-related activities; training in customs and border control procedures; advice or training in fiscal or macroeconomic stabilisation policy; repatriation and demobilisation of armed factions, and disposal of their weapons; explosive mine removal. The enforcement aspects of international peacekeeping operations are not reportable as ODA. ODA-eligible bilateral participation in peacekeeping operations can take the form of financing or provision of equipment or military or civilian personnel (e.g. police officers). The reportable cost is calculated as the excess over what the personnel and equipment would have cost to maintain had they not been assigned to take part in a peace operation. Costs for military contingents participating in UNDPKO peacekeeping operations are not reportable as ODA. International peacekeeping operations may include humanitarian-type activities (contributions to the form of equipment or personnel), as described in codes 7xxxx. These should be included under code 15230 if they are an integrated part of the activities above, otherwise they should be reported as humanitarian aid. NB: When using this code, indicate the name of the operation in the short description of the activity reported.</t>
   </si>
   <si>
+    <t>02.3 - Foreign military aid</t>
+  </si>
+  <si>
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
-    <t>02.3 - Foreign military aid</t>
-  </si>
-  <si>
     <t>02 - Defence</t>
   </si>
   <si>
@@ -1279,12 +1279,12 @@
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
+    <t>10.9 - Social protection n.e.c.</t>
+  </si>
+  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>10.9 - Social protection n.e.c.</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Social protection schemes in the form of cash or in-kind benefits, including pensions, against the risks linked to old age.</t>
   </si>
   <si>
+    <t>10.2 - Old age</t>
+  </si>
+  <si>
     <t>10.2.0 - Old age (IS)</t>
   </si>
   <si>
-    <t>10.2 - Old age</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -1348,12 +1348,12 @@
     <t>Employment policy and planning; institution capacity building and advice; employment creation and income generation programmes; including activities specifically designed for the needs of vulnerable groups.</t>
   </si>
   <si>
+    <t>10.5 - Unemployment</t>
+  </si>
+  <si>
     <t>10.5.0 - Unemployment (IS)</t>
   </si>
   <si>
-    <t>10.5 - Unemployment</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
@@ -1363,12 +1363,12 @@
     <t>Housing sector policy, planning and programmes; excluding low-cost housing and slum clearance (16040).</t>
   </si>
   <si>
+    <t>06.6 - Housing and community amenities n.e.c.</t>
+  </si>
+  <si>
     <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
   </si>
   <si>
-    <t>06.6 - Housing and community amenities n.e.c.</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
@@ -1378,12 +1378,12 @@
     <t>Including slum clearance.</t>
   </si>
   <si>
+    <t>06.1 - Housing development</t>
+  </si>
+  <si>
     <t>06.1.0 - Housing development (CS)</t>
   </si>
   <si>
-    <t>06.1 - Housing development</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
@@ -1402,12 +1402,12 @@
     <t>Including libraries and museums.</t>
   </si>
   <si>
+    <t>08.2 - Cultural services</t>
+  </si>
+  <si>
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
-    <t>08.2 - Cultural services</t>
-  </si>
-  <si>
     <t>08 - Recreation, culture and religion</t>
   </si>
   <si>
@@ -1444,12 +1444,12 @@
     <t>Recreation and sport</t>
   </si>
   <si>
+    <t>08.1 - Recreational and sporting services</t>
+  </si>
+  <si>
     <t>08.1.0 - Recreational and sporting services (IS)</t>
   </si>
   <si>
-    <t>08.1 - Recreational and sporting services</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -1528,12 +1528,12 @@
     <t>Road infrastructure, road vehicles; passenger road transport, motor passenger cars.</t>
   </si>
   <si>
+    <t>04.5 - Transport</t>
+  </si>
+  <si>
     <t>04.5.1 - Road transport (CS)</t>
   </si>
   <si>
-    <t>04.5 - Transport</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -1615,12 +1615,12 @@
     <t>Whether or not related to transportation. Whenever possible, report storage projects under the sector of the resource being stored.</t>
   </si>
   <si>
+    <t>04.7 - Other industries</t>
+  </si>
+  <si>
     <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
   </si>
   <si>
-    <t>04.7 - Other industries</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -1684,12 +1684,12 @@
     <t>Radio and TV links, equipment; newspapers; printing and publishing.</t>
   </si>
   <si>
+    <t>08.3 - Broadcasting and publishing services</t>
+  </si>
+  <si>
     <t>08.3.0 - Broadcasting and publishing services (CS)</t>
   </si>
   <si>
-    <t>08.3 - Broadcasting and publishing services</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
@@ -1708,24 +1708,24 @@
     <t>Energy sector policy, planning; aid to energy ministries and other governmental or nongovernmental institutions for activities related to the SDG7; institution capacity building and advice; tariffs, market building, unspecified energy activities; energy activities for which a more specific code cannot be assigned.</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>231</t>
+  </si>
+  <si>
+    <t>04.3 - Fuel and energy</t>
   </si>
   <si>
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -1741,12 +1741,12 @@
     <t>Regulation of the energy sector, including wholesale and retail electricity provision.</t>
   </si>
   <si>
+    <t>04.8 - R&amp;D Economic affairs</t>
+  </si>
+  <si>
     <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
   </si>
   <si>
-    <t>04.8 - R&amp;D Economic affairs</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>See note regarding ODA eligibility of nuclear energy.</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>04.3.3 - Nuclear fuel (CS)</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
@@ -2131,24 +2131,24 @@
     <t>Agricultural sector policy, planning and programmes; aid to agricultural ministries; institution capacity building and advice; unspecified agriculture.</t>
   </si>
   <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>Agriculture, Forestry, Fishing</t>
+    <t>311</t>
+  </si>
+  <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
     <t>310</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -2314,12 +2314,12 @@
     <t>Forestry</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>04.2.2 - Forestry (CS)</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -2371,12 +2371,12 @@
     <t>Fishing</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>04.2.3 - Fishing and hunting (CS)</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -2419,24 +2419,24 @@
     <t>Industrial sector policy, planning and programmes; institution capacity building and advice; unspecified industrial activities; manufacturing of goods not specified below.</t>
   </si>
   <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>Industry, Mining, Construction</t>
+    <t>321</t>
+  </si>
+  <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
   </si>
   <si>
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -2596,12 +2596,12 @@
     <t>Mineral Resources &amp; Mining</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -2695,12 +2695,12 @@
     <t>Construction</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>04.4.3 - Construction (CS)</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
@@ -2713,12 +2713,12 @@
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>330</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -2773,12 +2773,12 @@
     <t>Tourism</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>04.7.3 - Tourism (CS)</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -2812,12 +2812,12 @@
     <t>Including natural reserves and actions in the surrounding areas; other measures to protect endangered or vulnerable species and their habitats (e.g. wetlands preservation).</t>
   </si>
   <si>
+    <t>05.4 - Protection of biodiversity and landscape</t>
+  </si>
+  <si>
     <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
   </si>
   <si>
-    <t>05.4 - Protection of biodiversity and landscape</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -2851,12 +2851,12 @@
     <t>Other Multisector</t>
   </si>
   <si>
+    <t>04.9 - Economic affairs n.e.c.</t>
+  </si>
+  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
-    <t>04.9 - Economic affairs n.e.c.</t>
-  </si>
-  <si>
     <t>430</t>
   </si>
   <si>
@@ -2878,12 +2878,12 @@
     <t>Urban development and planning; urban management, land information systems.</t>
   </si>
   <si>
+    <t>06.2 - Community development</t>
+  </si>
+  <si>
     <t>06.2.0 - Community development (CS)</t>
   </si>
   <si>
-    <t>06.2 - Community development</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -2935,12 +2935,12 @@
     <t>Disaster risk reduction activities if not sector specific. Comprises risk assessments, structural prevention measures (e.g. flood prevention infrastructure), preparedness measures (e.g. early warning systems) normative prevention measures (e.g. building codes, land-use planning), and risk transfer systems (e.g. insurance schemes, risk funds). Also includes building local and national capacities and supporting the establishment of efficient and sustainable national structures able to promote disaster risk reduction.</t>
   </si>
   <si>
+    <t>02.2 - Civil defence</t>
+  </si>
+  <si>
     <t>02.2.0 - Civil defence (CS)</t>
   </si>
   <si>
-    <t>02.2 - Civil defence</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
@@ -2959,12 +2959,12 @@
     <t>Short or longer term household food security programmes and activities that improve the access of households to nutritionally adequate diets (excluding any cash transfers within broader social welfare programmes that do not have a specific food security, food acquisition or nutrition focus which should be reported under code 16010).</t>
   </si>
   <si>
+    <t>10.4 - Family and children</t>
+  </si>
+  <si>
     <t>10.4.0 - Family and children (IS)</t>
   </si>
   <si>
-    <t>10.4 - Family and children</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -2992,12 +2992,12 @@
     <t>When sector cannot be identified.</t>
   </si>
   <si>
+    <t>01.4 - Basic research</t>
+  </si>
+  <si>
     <t>01.4.0 - Basic research (CS)</t>
   </si>
   <si>
-    <t>01.4 - Basic research</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -3064,10 +3064,10 @@
     <t>Action Relating to Debt</t>
   </si>
   <si>
+    <t>01.7 - Public debt transactions</t>
+  </si>
+  <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
-    <t>01.7 - Public debt transactions</t>
   </si>
   <si>
     <t>600</t>
@@ -3750,13 +3750,13 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -3820,13 +3820,13 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -3849,10 +3849,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>39</v>
@@ -3861,13 +3861,13 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3884,13 +3884,13 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -3902,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3919,10 +3919,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
@@ -3931,13 +3931,13 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3954,10 +3954,10 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -3966,13 +3966,13 @@
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3989,25 +3989,25 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4024,25 +4024,25 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
       </c>
       <c r="J11" t="s">
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4059,25 +4059,25 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>65</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4094,25 +4094,25 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4129,25 +4129,25 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4164,10 +4164,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>81</v>
@@ -4176,13 +4176,13 @@
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4199,25 +4199,25 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
       <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
         <v>87</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4310,13 +4310,13 @@
         <v>93</v>
       </c>
       <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
         <v>104</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>105</v>
-      </c>
-      <c r="I19" t="s">
-        <v>96</v>
       </c>
       <c r="J19" t="s">
         <v>60</v>
@@ -4345,13 +4345,13 @@
         <v>93</v>
       </c>
       <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
         <v>109</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>96</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
@@ -4409,25 +4409,25 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
       <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
         <v>58</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>59</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
       </c>
       <c r="J22" t="s">
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4444,25 +4444,25 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
       <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
         <v>122</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>123</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4479,25 +4479,25 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
         <v>117</v>
       </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
       <c r="G24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" t="s">
         <v>58</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>59</v>
-      </c>
-      <c r="I24" t="s">
-        <v>96</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4514,25 +4514,25 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
       <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>59</v>
-      </c>
-      <c r="I25" t="s">
-        <v>96</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4549,25 +4549,25 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
         <v>117</v>
       </c>
-      <c r="F26" t="s">
-        <v>93</v>
-      </c>
       <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
         <v>58</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>59</v>
-      </c>
-      <c r="I26" t="s">
-        <v>96</v>
       </c>
       <c r="J26" t="s">
         <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4584,25 +4584,25 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
       <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" t="s">
         <v>58</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>59</v>
-      </c>
-      <c r="I27" t="s">
-        <v>96</v>
       </c>
       <c r="J27" t="s">
         <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4619,25 +4619,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
         <v>117</v>
       </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
       <c r="G28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" t="s">
         <v>58</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>59</v>
-      </c>
-      <c r="I28" t="s">
-        <v>96</v>
       </c>
       <c r="J28" t="s">
         <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4654,25 +4654,25 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
       <c r="G29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" t="s">
         <v>58</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>59</v>
-      </c>
-      <c r="I29" t="s">
-        <v>96</v>
       </c>
       <c r="J29" t="s">
         <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4689,13 +4689,13 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
         <v>117</v>
       </c>
-      <c r="F30" t="s">
-        <v>93</v>
-      </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="H30" t="s">
         <v>95</v>
@@ -4707,7 +4707,7 @@
         <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4724,25 +4724,25 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
         <v>148</v>
       </c>
-      <c r="F31" t="s">
-        <v>93</v>
-      </c>
       <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
         <v>58</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>59</v>
-      </c>
-      <c r="I31" t="s">
-        <v>96</v>
       </c>
       <c r="J31" t="s">
         <v>60</v>
       </c>
       <c r="K31" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4759,25 +4759,25 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
         <v>148</v>
       </c>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
       <c r="G32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" t="s">
         <v>58</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>59</v>
-      </c>
-      <c r="I32" t="s">
-        <v>96</v>
       </c>
       <c r="J32" t="s">
         <v>60</v>
       </c>
       <c r="K32" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4794,25 +4794,25 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
       <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" t="s">
         <v>58</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>59</v>
-      </c>
-      <c r="I33" t="s">
-        <v>96</v>
       </c>
       <c r="J33" t="s">
         <v>60</v>
       </c>
       <c r="K33" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4829,25 +4829,25 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
         <v>148</v>
       </c>
-      <c r="F34" t="s">
-        <v>93</v>
-      </c>
       <c r="G34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" t="s">
         <v>58</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>59</v>
-      </c>
-      <c r="I34" t="s">
-        <v>96</v>
       </c>
       <c r="J34" t="s">
         <v>60</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4864,25 +4864,25 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
         <v>148</v>
       </c>
-      <c r="F35" t="s">
-        <v>93</v>
-      </c>
       <c r="G35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
         <v>58</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>59</v>
-      </c>
-      <c r="I35" t="s">
-        <v>96</v>
       </c>
       <c r="J35" t="s">
         <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4899,25 +4899,25 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
         <v>148</v>
       </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
       <c r="G36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" t="s">
         <v>104</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>105</v>
-      </c>
-      <c r="I36" t="s">
-        <v>96</v>
       </c>
       <c r="J36" t="s">
         <v>60</v>
       </c>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4933,20 +4933,20 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>168</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>58</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>59</v>
-      </c>
-      <c r="I37" t="s">
-        <v>169</v>
       </c>
       <c r="J37" t="s">
         <v>60</v>
+      </c>
+      <c r="K37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4962,20 +4962,20 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>168</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>58</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>59</v>
-      </c>
-      <c r="I38" t="s">
-        <v>169</v>
       </c>
       <c r="J38" t="s">
         <v>60</v>
+      </c>
+      <c r="K38" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4991,20 +4991,20 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
         <v>168</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>58</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>59</v>
-      </c>
-      <c r="I39" t="s">
-        <v>169</v>
       </c>
       <c r="J39" t="s">
         <v>60</v>
+      </c>
+      <c r="K39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5020,20 +5020,20 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
         <v>168</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>58</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>59</v>
-      </c>
-      <c r="I40" t="s">
-        <v>169</v>
       </c>
       <c r="J40" t="s">
         <v>60</v>
+      </c>
+      <c r="K40" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5049,20 +5049,20 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
         <v>168</v>
-      </c>
-      <c r="G41" t="s">
-        <v>94</v>
       </c>
       <c r="H41" t="s">
         <v>95</v>
       </c>
       <c r="I41" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
         <v>60</v>
+      </c>
+      <c r="K41" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5078,20 +5078,20 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
         <v>168</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>104</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>105</v>
-      </c>
-      <c r="I42" t="s">
-        <v>169</v>
       </c>
       <c r="J42" t="s">
         <v>60</v>
+      </c>
+      <c r="K42" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5107,19 +5107,19 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>188</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>189</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>190</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>191</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5136,20 +5136,20 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
         <v>188</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>196</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>197</v>
-      </c>
-      <c r="I44" t="s">
-        <v>191</v>
       </c>
       <c r="J44" t="s">
         <v>198</v>
+      </c>
+      <c r="K44" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5165,19 +5165,19 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
         <v>188</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>189</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>190</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>191</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5194,19 +5194,19 @@
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
         <v>188</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>189</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>190</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>191</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5223,20 +5223,20 @@
       <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
         <v>188</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>208</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>209</v>
-      </c>
-      <c r="I47" t="s">
-        <v>191</v>
       </c>
       <c r="J47" t="s">
         <v>198</v>
+      </c>
+      <c r="K47" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5252,19 +5252,19 @@
       <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>188</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>189</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>190</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>191</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5281,19 +5281,19 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>188</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>189</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>190</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>191</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5310,20 +5310,20 @@
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" t="s">
         <v>188</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>208</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>209</v>
-      </c>
-      <c r="I50" t="s">
-        <v>191</v>
       </c>
       <c r="J50" t="s">
         <v>198</v>
+      </c>
+      <c r="K50" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5339,19 +5339,19 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" t="s">
         <v>188</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>189</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>190</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>191</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5368,20 +5368,20 @@
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" t="s">
         <v>188</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>225</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>226</v>
-      </c>
-      <c r="I52" t="s">
-        <v>191</v>
       </c>
       <c r="J52" t="s">
         <v>198</v>
+      </c>
+      <c r="K52" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5397,20 +5397,20 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" t="s">
         <v>188</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s">
         <v>20</v>
+      </c>
+      <c r="K53" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5468,13 +5468,13 @@
         <v>234</v>
       </c>
       <c r="G55" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" t="s">
         <v>243</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>244</v>
-      </c>
-      <c r="I55" t="s">
-        <v>237</v>
       </c>
       <c r="J55" t="s">
         <v>238</v>
@@ -5503,13 +5503,13 @@
         <v>234</v>
       </c>
       <c r="G56" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" t="s">
         <v>248</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>249</v>
-      </c>
-      <c r="I56" t="s">
-        <v>237</v>
       </c>
       <c r="J56" t="s">
         <v>238</v>
@@ -5538,13 +5538,13 @@
         <v>234</v>
       </c>
       <c r="G57" t="s">
+        <v>235</v>
+      </c>
+      <c r="H57" t="s">
         <v>253</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>254</v>
-      </c>
-      <c r="I57" t="s">
-        <v>237</v>
       </c>
       <c r="J57" t="s">
         <v>255</v>
@@ -5573,13 +5573,13 @@
         <v>234</v>
       </c>
       <c r="G58" t="s">
+        <v>235</v>
+      </c>
+      <c r="H58" t="s">
         <v>243</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>244</v>
-      </c>
-      <c r="I58" t="s">
-        <v>237</v>
       </c>
       <c r="J58" t="s">
         <v>238</v>
@@ -5608,13 +5608,13 @@
         <v>234</v>
       </c>
       <c r="G59" t="s">
+        <v>235</v>
+      </c>
+      <c r="H59" t="s">
         <v>243</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>244</v>
-      </c>
-      <c r="I59" t="s">
-        <v>237</v>
       </c>
       <c r="J59" t="s">
         <v>238</v>
@@ -5643,13 +5643,13 @@
         <v>234</v>
       </c>
       <c r="G60" t="s">
+        <v>235</v>
+      </c>
+      <c r="H60" t="s">
         <v>243</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>244</v>
-      </c>
-      <c r="I60" t="s">
-        <v>237</v>
       </c>
       <c r="J60" t="s">
         <v>238</v>
@@ -5678,13 +5678,13 @@
         <v>234</v>
       </c>
       <c r="G61" t="s">
+        <v>235</v>
+      </c>
+      <c r="H61" t="s">
         <v>243</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>244</v>
-      </c>
-      <c r="I61" t="s">
-        <v>237</v>
       </c>
       <c r="J61" t="s">
         <v>238</v>
@@ -5713,13 +5713,13 @@
         <v>234</v>
       </c>
       <c r="G62" t="s">
+        <v>235</v>
+      </c>
+      <c r="H62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>244</v>
-      </c>
-      <c r="I62" t="s">
-        <v>237</v>
       </c>
       <c r="J62" t="s">
         <v>238</v>
@@ -5748,13 +5748,13 @@
         <v>234</v>
       </c>
       <c r="G63" t="s">
+        <v>235</v>
+      </c>
+      <c r="H63" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" t="s">
         <v>274</v>
-      </c>
-      <c r="H63" t="s">
-        <v>244</v>
-      </c>
-      <c r="I63" t="s">
-        <v>237</v>
       </c>
       <c r="J63" t="s">
         <v>238</v>
@@ -5783,13 +5783,13 @@
         <v>234</v>
       </c>
       <c r="G64" t="s">
+        <v>235</v>
+      </c>
+      <c r="H64" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" t="s">
         <v>274</v>
-      </c>
-      <c r="H64" t="s">
-        <v>244</v>
-      </c>
-      <c r="I64" t="s">
-        <v>237</v>
       </c>
       <c r="J64" t="s">
         <v>238</v>
@@ -5818,13 +5818,13 @@
         <v>234</v>
       </c>
       <c r="G65" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" t="s">
         <v>281</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>282</v>
-      </c>
-      <c r="I65" t="s">
-        <v>237</v>
       </c>
       <c r="J65" t="s">
         <v>238</v>
@@ -5888,13 +5888,13 @@
         <v>234</v>
       </c>
       <c r="G67" t="s">
+        <v>235</v>
+      </c>
+      <c r="H67" t="s">
         <v>243</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>244</v>
-      </c>
-      <c r="I67" t="s">
-        <v>237</v>
       </c>
       <c r="J67" t="s">
         <v>238</v>
@@ -5923,13 +5923,13 @@
         <v>234</v>
       </c>
       <c r="G68" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="H68" t="s">
         <v>236</v>
       </c>
       <c r="I68" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="J68" t="s">
         <v>238</v>
@@ -5958,13 +5958,13 @@
         <v>234</v>
       </c>
       <c r="G69" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="H69" t="s">
         <v>236</v>
       </c>
       <c r="I69" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="J69" t="s">
         <v>238</v>
@@ -5993,13 +5993,13 @@
         <v>234</v>
       </c>
       <c r="G70" t="s">
+        <v>235</v>
+      </c>
+      <c r="H70" t="s">
         <v>248</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>249</v>
-      </c>
-      <c r="I70" t="s">
-        <v>237</v>
       </c>
       <c r="J70" t="s">
         <v>238</v>
@@ -6028,13 +6028,13 @@
         <v>234</v>
       </c>
       <c r="G71" t="s">
+        <v>235</v>
+      </c>
+      <c r="H71" t="s">
         <v>248</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>249</v>
-      </c>
-      <c r="I71" t="s">
-        <v>237</v>
       </c>
       <c r="J71" t="s">
         <v>238</v>
@@ -6098,13 +6098,13 @@
         <v>234</v>
       </c>
       <c r="G73" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" t="s">
         <v>309</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>310</v>
-      </c>
-      <c r="I73" t="s">
-        <v>237</v>
       </c>
       <c r="J73" t="s">
         <v>255</v>
@@ -6133,13 +6133,13 @@
         <v>234</v>
       </c>
       <c r="G74" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" t="s">
         <v>314</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>315</v>
-      </c>
-      <c r="I74" t="s">
-        <v>237</v>
       </c>
       <c r="J74" t="s">
         <v>255</v>
@@ -6168,13 +6168,13 @@
         <v>234</v>
       </c>
       <c r="G75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H75" t="s">
         <v>319</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>320</v>
-      </c>
-      <c r="I75" t="s">
-        <v>237</v>
       </c>
       <c r="J75" t="s">
         <v>255</v>
@@ -6203,13 +6203,13 @@
         <v>234</v>
       </c>
       <c r="G76" t="s">
+        <v>235</v>
+      </c>
+      <c r="H76" t="s">
         <v>309</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>310</v>
-      </c>
-      <c r="I76" t="s">
-        <v>237</v>
       </c>
       <c r="J76" t="s">
         <v>255</v>
@@ -6238,13 +6238,13 @@
         <v>234</v>
       </c>
       <c r="G77" t="s">
+        <v>235</v>
+      </c>
+      <c r="H77" t="s">
         <v>309</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>310</v>
-      </c>
-      <c r="I77" t="s">
-        <v>237</v>
       </c>
       <c r="J77" t="s">
         <v>255</v>
@@ -6273,13 +6273,13 @@
         <v>234</v>
       </c>
       <c r="G78" t="s">
+        <v>235</v>
+      </c>
+      <c r="H78" t="s">
         <v>314</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>315</v>
-      </c>
-      <c r="I78" t="s">
-        <v>237</v>
       </c>
       <c r="J78" t="s">
         <v>255</v>
@@ -6305,13 +6305,13 @@
         <v>234</v>
       </c>
       <c r="G79" t="s">
+        <v>235</v>
+      </c>
+      <c r="H79" t="s">
         <v>332</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>333</v>
-      </c>
-      <c r="I79" t="s">
-        <v>237</v>
       </c>
       <c r="J79" t="s">
         <v>255</v>
@@ -6340,13 +6340,13 @@
         <v>234</v>
       </c>
       <c r="G80" t="s">
+        <v>235</v>
+      </c>
+      <c r="H80" t="s">
         <v>337</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>338</v>
-      </c>
-      <c r="I80" t="s">
-        <v>237</v>
       </c>
       <c r="J80" t="s">
         <v>339</v>
@@ -6375,13 +6375,13 @@
         <v>234</v>
       </c>
       <c r="G81" t="s">
+        <v>235</v>
+      </c>
+      <c r="H81" t="s">
         <v>337</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>338</v>
-      </c>
-      <c r="I81" t="s">
-        <v>237</v>
       </c>
       <c r="J81" t="s">
         <v>339</v>
@@ -6410,13 +6410,13 @@
         <v>234</v>
       </c>
       <c r="G82" t="s">
+        <v>235</v>
+      </c>
+      <c r="H82" t="s">
         <v>337</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>338</v>
-      </c>
-      <c r="I82" t="s">
-        <v>237</v>
       </c>
       <c r="J82" t="s">
         <v>339</v>
@@ -6445,13 +6445,13 @@
         <v>234</v>
       </c>
       <c r="G83" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="H83" t="s">
         <v>236</v>
       </c>
       <c r="I83" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="J83" t="s">
         <v>238</v>
@@ -6480,13 +6480,13 @@
         <v>234</v>
       </c>
       <c r="G84" t="s">
+        <v>235</v>
+      </c>
+      <c r="H84" t="s">
         <v>352</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>353</v>
-      </c>
-      <c r="I84" t="s">
-        <v>237</v>
       </c>
       <c r="J84" t="s">
         <v>238</v>
@@ -6515,13 +6515,13 @@
         <v>234</v>
       </c>
       <c r="G85" t="s">
+        <v>235</v>
+      </c>
+      <c r="H85" t="s">
+        <v>243</v>
+      </c>
+      <c r="I85" t="s">
         <v>357</v>
-      </c>
-      <c r="H85" t="s">
-        <v>244</v>
-      </c>
-      <c r="I85" t="s">
-        <v>237</v>
       </c>
       <c r="J85" t="s">
         <v>238</v>
@@ -6550,13 +6550,13 @@
         <v>234</v>
       </c>
       <c r="G86" t="s">
+        <v>235</v>
+      </c>
+      <c r="H86" t="s">
         <v>361</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>362</v>
-      </c>
-      <c r="I86" t="s">
-        <v>237</v>
       </c>
       <c r="J86" t="s">
         <v>339</v>
@@ -6585,13 +6585,13 @@
         <v>234</v>
       </c>
       <c r="G87" t="s">
+        <v>235</v>
+      </c>
+      <c r="H87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" t="s">
         <v>357</v>
-      </c>
-      <c r="H87" t="s">
-        <v>244</v>
-      </c>
-      <c r="I87" t="s">
-        <v>237</v>
       </c>
       <c r="J87" t="s">
         <v>238</v>
@@ -6617,13 +6617,13 @@
         <v>234</v>
       </c>
       <c r="G88" t="s">
+        <v>235</v>
+      </c>
+      <c r="H88" t="s">
         <v>243</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>244</v>
-      </c>
-      <c r="I88" t="s">
-        <v>237</v>
       </c>
       <c r="J88" t="s">
         <v>238</v>
@@ -6652,13 +6652,13 @@
         <v>234</v>
       </c>
       <c r="G89" t="s">
+        <v>235</v>
+      </c>
+      <c r="H89" t="s">
         <v>243</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>244</v>
-      </c>
-      <c r="I89" t="s">
-        <v>237</v>
       </c>
       <c r="J89" t="s">
         <v>238</v>
@@ -6687,13 +6687,13 @@
         <v>234</v>
       </c>
       <c r="G90" t="s">
+        <v>235</v>
+      </c>
+      <c r="H90" t="s">
         <v>253</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>254</v>
-      </c>
-      <c r="I90" t="s">
-        <v>237</v>
       </c>
       <c r="J90" t="s">
         <v>255</v>
@@ -6722,13 +6722,13 @@
         <v>234</v>
       </c>
       <c r="G91" t="s">
+        <v>235</v>
+      </c>
+      <c r="H91" t="s">
         <v>377</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>378</v>
-      </c>
-      <c r="I91" t="s">
-        <v>237</v>
       </c>
       <c r="J91" t="s">
         <v>379</v>
@@ -6757,13 +6757,13 @@
         <v>234</v>
       </c>
       <c r="G92" t="s">
+        <v>235</v>
+      </c>
+      <c r="H92" t="s">
         <v>253</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>254</v>
-      </c>
-      <c r="I92" t="s">
-        <v>237</v>
       </c>
       <c r="J92" t="s">
         <v>255</v>
@@ -6792,13 +6792,13 @@
         <v>234</v>
       </c>
       <c r="G93" t="s">
+        <v>235</v>
+      </c>
+      <c r="H93" t="s">
         <v>248</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>249</v>
-      </c>
-      <c r="I93" t="s">
-        <v>237</v>
       </c>
       <c r="J93" t="s">
         <v>238</v>
@@ -6827,13 +6827,13 @@
         <v>234</v>
       </c>
       <c r="G94" t="s">
+        <v>235</v>
+      </c>
+      <c r="H94" t="s">
         <v>253</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>254</v>
-      </c>
-      <c r="I94" t="s">
-        <v>237</v>
       </c>
       <c r="J94" t="s">
         <v>255</v>
@@ -6862,13 +6862,13 @@
         <v>234</v>
       </c>
       <c r="G95" t="s">
+        <v>235</v>
+      </c>
+      <c r="H95" t="s">
         <v>392</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>393</v>
-      </c>
-      <c r="I95" t="s">
-        <v>237</v>
       </c>
       <c r="J95" t="s">
         <v>238</v>
@@ -6891,25 +6891,25 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" t="s">
         <v>397</v>
       </c>
-      <c r="F96" t="s">
-        <v>234</v>
-      </c>
       <c r="G96" t="s">
+        <v>398</v>
+      </c>
+      <c r="H96" t="s">
         <v>253</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>254</v>
-      </c>
-      <c r="I96" t="s">
-        <v>237</v>
       </c>
       <c r="J96" t="s">
         <v>255</v>
       </c>
       <c r="K96" t="s">
-        <v>398</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6926,25 +6926,25 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
+        <v>233</v>
+      </c>
+      <c r="F97" t="s">
         <v>397</v>
       </c>
-      <c r="F97" t="s">
-        <v>234</v>
-      </c>
       <c r="G97" t="s">
+        <v>398</v>
+      </c>
+      <c r="H97" t="s">
         <v>253</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>254</v>
-      </c>
-      <c r="I97" t="s">
-        <v>237</v>
       </c>
       <c r="J97" t="s">
         <v>255</v>
       </c>
       <c r="K97" t="s">
-        <v>398</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6961,25 +6961,25 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
+        <v>233</v>
+      </c>
+      <c r="F98" t="s">
         <v>397</v>
       </c>
-      <c r="F98" t="s">
-        <v>234</v>
-      </c>
       <c r="G98" t="s">
+        <v>398</v>
+      </c>
+      <c r="H98" t="s">
         <v>405</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>406</v>
-      </c>
-      <c r="I98" t="s">
-        <v>237</v>
       </c>
       <c r="J98" t="s">
         <v>407</v>
       </c>
       <c r="K98" t="s">
-        <v>398</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6996,25 +6996,25 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
+        <v>233</v>
+      </c>
+      <c r="F99" t="s">
         <v>397</v>
       </c>
-      <c r="F99" t="s">
-        <v>234</v>
-      </c>
       <c r="G99" t="s">
+        <v>398</v>
+      </c>
+      <c r="H99" t="s">
         <v>253</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>254</v>
-      </c>
-      <c r="I99" t="s">
-        <v>237</v>
       </c>
       <c r="J99" t="s">
         <v>255</v>
       </c>
       <c r="K99" t="s">
-        <v>398</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7031,25 +7031,25 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" t="s">
         <v>397</v>
       </c>
-      <c r="F100" t="s">
-        <v>234</v>
-      </c>
       <c r="G100" t="s">
+        <v>398</v>
+      </c>
+      <c r="H100" t="s">
         <v>319</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>320</v>
-      </c>
-      <c r="I100" t="s">
-        <v>237</v>
       </c>
       <c r="J100" t="s">
         <v>255</v>
       </c>
       <c r="K100" t="s">
-        <v>398</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7066,25 +7066,25 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
+        <v>233</v>
+      </c>
+      <c r="F101" t="s">
         <v>397</v>
       </c>
-      <c r="F101" t="s">
-        <v>234</v>
-      </c>
       <c r="G101" t="s">
+        <v>398</v>
+      </c>
+      <c r="H101" t="s">
         <v>253</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>254</v>
-      </c>
-      <c r="I101" t="s">
-        <v>237</v>
       </c>
       <c r="J101" t="s">
         <v>255</v>
       </c>
       <c r="K101" t="s">
-        <v>398</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7100,20 +7100,20 @@
       <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="F102" t="s">
+      <c r="E102" t="s">
         <v>420</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>421</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>422</v>
-      </c>
-      <c r="I102" t="s">
-        <v>423</v>
       </c>
       <c r="J102" t="s">
         <v>379</v>
+      </c>
+      <c r="K102" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -7129,20 +7129,20 @@
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="F103" t="s">
+      <c r="E103" t="s">
         <v>420</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>421</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>422</v>
-      </c>
-      <c r="I103" t="s">
-        <v>423</v>
       </c>
       <c r="J103" t="s">
         <v>379</v>
+      </c>
+      <c r="K103" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -7158,20 +7158,20 @@
       <c r="D104" t="s">
         <v>14</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E104" t="s">
         <v>420</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>421</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>422</v>
-      </c>
-      <c r="I104" t="s">
-        <v>423</v>
       </c>
       <c r="J104" t="s">
         <v>379</v>
+      </c>
+      <c r="K104" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -7187,20 +7187,20 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-      <c r="F105" t="s">
+      <c r="E105" t="s">
         <v>420</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>433</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>434</v>
-      </c>
-      <c r="I105" t="s">
-        <v>423</v>
       </c>
       <c r="J105" t="s">
         <v>379</v>
+      </c>
+      <c r="K105" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7216,20 +7216,20 @@
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="F106" t="s">
+      <c r="E106" t="s">
         <v>420</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>421</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>422</v>
-      </c>
-      <c r="I106" t="s">
-        <v>423</v>
       </c>
       <c r="J106" t="s">
         <v>379</v>
+      </c>
+      <c r="K106" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -7245,20 +7245,20 @@
       <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="F107" t="s">
+      <c r="E107" t="s">
         <v>420</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>377</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>378</v>
-      </c>
-      <c r="I107" t="s">
-        <v>423</v>
       </c>
       <c r="J107" t="s">
         <v>379</v>
+      </c>
+      <c r="K107" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7274,20 +7274,20 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-      <c r="F108" t="s">
+      <c r="E108" t="s">
         <v>420</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>444</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>445</v>
-      </c>
-      <c r="I108" t="s">
-        <v>423</v>
       </c>
       <c r="J108" t="s">
         <v>379</v>
+      </c>
+      <c r="K108" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7303,20 +7303,20 @@
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="F109" t="s">
+      <c r="E109" t="s">
         <v>420</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>449</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>450</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
+        <v>191</v>
+      </c>
+      <c r="K109" t="s">
         <v>423</v>
-      </c>
-      <c r="J109" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7332,20 +7332,20 @@
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="F110" t="s">
+      <c r="E110" t="s">
         <v>420</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>454</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>455</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
+        <v>191</v>
+      </c>
+      <c r="K110" t="s">
         <v>423</v>
-      </c>
-      <c r="J110" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7361,20 +7361,20 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="F111" t="s">
+      <c r="E111" t="s">
         <v>420</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>421</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>422</v>
-      </c>
-      <c r="I111" t="s">
-        <v>423</v>
       </c>
       <c r="J111" t="s">
         <v>379</v>
+      </c>
+      <c r="K111" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -7390,23 +7390,23 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="F112" t="s">
+      <c r="E112" t="s">
         <v>420</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>462</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>463</v>
-      </c>
-      <c r="I112" t="s">
-        <v>423</v>
       </c>
       <c r="J112" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>465</v>
       </c>
@@ -7419,23 +7419,23 @@
       <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="F113" t="s">
+      <c r="E113" t="s">
         <v>420</v>
-      </c>
-      <c r="G113" t="s">
-        <v>296</v>
       </c>
       <c r="H113" t="s">
         <v>236</v>
       </c>
       <c r="I113" t="s">
-        <v>423</v>
+        <v>296</v>
       </c>
       <c r="J113" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>468</v>
       </c>
@@ -7448,23 +7448,23 @@
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="F114" t="s">
+      <c r="E114" t="s">
         <v>420</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>314</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>315</v>
-      </c>
-      <c r="I114" t="s">
-        <v>423</v>
       </c>
       <c r="J114" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>471</v>
       </c>
@@ -7477,23 +7477,23 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="F115" t="s">
+      <c r="E115" t="s">
         <v>420</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>377</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>378</v>
-      </c>
-      <c r="I115" t="s">
-        <v>423</v>
       </c>
       <c r="J115" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>474</v>
       </c>
@@ -7503,23 +7503,23 @@
       <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="F116" t="s">
+      <c r="E116" t="s">
         <v>420</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>476</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>477</v>
-      </c>
-      <c r="I116" t="s">
-        <v>423</v>
       </c>
       <c r="J116" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>478</v>
       </c>
@@ -7529,23 +7529,23 @@
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="F117" t="s">
+      <c r="E117" t="s">
         <v>420</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>462</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>463</v>
-      </c>
-      <c r="I117" t="s">
-        <v>423</v>
       </c>
       <c r="J117" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>480</v>
       </c>
@@ -7558,23 +7558,23 @@
       <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="F118" t="s">
+      <c r="E118" t="s">
         <v>420</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
+        <v>337</v>
+      </c>
+      <c r="I118" t="s">
         <v>483</v>
-      </c>
-      <c r="H118" t="s">
-        <v>338</v>
-      </c>
-      <c r="I118" t="s">
-        <v>423</v>
       </c>
       <c r="J118" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>484</v>
       </c>
@@ -7587,23 +7587,23 @@
       <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="F119" t="s">
+      <c r="E119" t="s">
         <v>420</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>377</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>378</v>
-      </c>
-      <c r="I119" t="s">
-        <v>423</v>
       </c>
       <c r="J119" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>487</v>
       </c>
@@ -7616,23 +7616,23 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="F120" t="s">
+      <c r="E120" t="s">
         <v>490</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>352</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>353</v>
-      </c>
-      <c r="I120" t="s">
-        <v>491</v>
       </c>
       <c r="J120" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>492</v>
       </c>
@@ -7645,23 +7645,23 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="F121" t="s">
+      <c r="E121" t="s">
         <v>490</v>
-      </c>
-      <c r="G121" t="s">
-        <v>296</v>
       </c>
       <c r="H121" t="s">
         <v>236</v>
       </c>
       <c r="I121" t="s">
-        <v>491</v>
+        <v>296</v>
       </c>
       <c r="J121" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>495</v>
       </c>
@@ -7674,23 +7674,23 @@
       <c r="D122" t="s">
         <v>14</v>
       </c>
-      <c r="F122" t="s">
+      <c r="E122" t="s">
         <v>490</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>352</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>353</v>
-      </c>
-      <c r="I122" t="s">
-        <v>491</v>
       </c>
       <c r="J122" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>498</v>
       </c>
@@ -7703,23 +7703,23 @@
       <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="F123" t="s">
+      <c r="E123" t="s">
         <v>490</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>352</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>353</v>
-      </c>
-      <c r="I123" t="s">
-        <v>491</v>
       </c>
       <c r="J123" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>501</v>
       </c>
@@ -7732,23 +7732,23 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="F124" t="s">
+      <c r="E124" t="s">
         <v>490</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>504</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>505</v>
-      </c>
-      <c r="I124" t="s">
-        <v>491</v>
       </c>
       <c r="J124" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>506</v>
       </c>
@@ -7761,23 +7761,23 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="F125" t="s">
+      <c r="E125" t="s">
         <v>490</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>504</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>505</v>
-      </c>
-      <c r="I125" t="s">
-        <v>491</v>
       </c>
       <c r="J125" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>509</v>
       </c>
@@ -7790,23 +7790,23 @@
       <c r="D126" t="s">
         <v>14</v>
       </c>
-      <c r="F126" t="s">
+      <c r="E126" t="s">
         <v>490</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>504</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>505</v>
-      </c>
-      <c r="I126" t="s">
-        <v>491</v>
       </c>
       <c r="J126" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>512</v>
       </c>
@@ -7819,23 +7819,23 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
-      <c r="F127" t="s">
+      <c r="E127" t="s">
         <v>490</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>504</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>505</v>
-      </c>
-      <c r="I127" t="s">
-        <v>491</v>
       </c>
       <c r="J127" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>515</v>
       </c>
@@ -7848,20 +7848,20 @@
       <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="F128" t="s">
+      <c r="E128" t="s">
         <v>490</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>504</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>505</v>
-      </c>
-      <c r="I128" t="s">
-        <v>491</v>
       </c>
       <c r="J128" t="s">
         <v>339</v>
+      </c>
+      <c r="K128" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -7877,20 +7877,20 @@
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="F129" t="s">
+      <c r="E129" t="s">
         <v>490</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
+        <v>504</v>
+      </c>
+      <c r="I129" t="s">
         <v>521</v>
-      </c>
-      <c r="H129" t="s">
-        <v>505</v>
-      </c>
-      <c r="I129" t="s">
-        <v>491</v>
       </c>
       <c r="J129" t="s">
         <v>339</v>
+      </c>
+      <c r="K129" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7906,20 +7906,20 @@
       <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="F130" t="s">
+      <c r="E130" t="s">
         <v>490</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
+        <v>504</v>
+      </c>
+      <c r="I130" t="s">
         <v>525</v>
-      </c>
-      <c r="H130" t="s">
-        <v>505</v>
-      </c>
-      <c r="I130" t="s">
-        <v>491</v>
       </c>
       <c r="J130" t="s">
         <v>339</v>
+      </c>
+      <c r="K130" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7935,20 +7935,20 @@
       <c r="D131" t="s">
         <v>14</v>
       </c>
-      <c r="F131" t="s">
+      <c r="E131" t="s">
         <v>490</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
+        <v>504</v>
+      </c>
+      <c r="I131" t="s">
         <v>529</v>
-      </c>
-      <c r="H131" t="s">
-        <v>505</v>
-      </c>
-      <c r="I131" t="s">
-        <v>491</v>
       </c>
       <c r="J131" t="s">
         <v>339</v>
+      </c>
+      <c r="K131" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7964,20 +7964,20 @@
       <c r="D132" t="s">
         <v>14</v>
       </c>
-      <c r="F132" t="s">
+      <c r="E132" t="s">
         <v>490</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>533</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>534</v>
-      </c>
-      <c r="I132" t="s">
-        <v>491</v>
       </c>
       <c r="J132" t="s">
         <v>339</v>
+      </c>
+      <c r="K132" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7990,20 +7990,20 @@
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="F133" t="s">
+      <c r="E133" t="s">
         <v>490</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>392</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>393</v>
-      </c>
-      <c r="I133" t="s">
-        <v>491</v>
       </c>
       <c r="J133" t="s">
         <v>238</v>
+      </c>
+      <c r="K133" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8019,20 +8019,20 @@
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="F134" t="s">
+      <c r="E134" t="s">
         <v>540</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>361</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>362</v>
-      </c>
-      <c r="I134" t="s">
-        <v>541</v>
       </c>
       <c r="J134" t="s">
         <v>339</v>
+      </c>
+      <c r="K134" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8045,20 +8045,20 @@
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="F135" t="s">
+      <c r="E135" t="s">
         <v>540</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>361</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>362</v>
-      </c>
-      <c r="I135" t="s">
-        <v>541</v>
       </c>
       <c r="J135" t="s">
         <v>339</v>
+      </c>
+      <c r="K135" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8074,20 +8074,20 @@
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="F136" t="s">
+      <c r="E136" t="s">
         <v>540</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>361</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>362</v>
-      </c>
-      <c r="I136" t="s">
-        <v>541</v>
       </c>
       <c r="J136" t="s">
         <v>339</v>
+      </c>
+      <c r="K136" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8103,20 +8103,20 @@
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="F137" t="s">
+      <c r="E137" t="s">
         <v>540</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>361</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>362</v>
-      </c>
-      <c r="I137" t="s">
-        <v>541</v>
       </c>
       <c r="J137" t="s">
         <v>339</v>
+      </c>
+      <c r="K137" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8132,20 +8132,20 @@
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="F138" t="s">
+      <c r="E138" t="s">
         <v>540</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>361</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>362</v>
-      </c>
-      <c r="I138" t="s">
-        <v>541</v>
       </c>
       <c r="J138" t="s">
         <v>339</v>
+      </c>
+      <c r="K138" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8161,20 +8161,20 @@
       <c r="D139" t="s">
         <v>14</v>
       </c>
-      <c r="F139" t="s">
+      <c r="E139" t="s">
         <v>540</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>556</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>557</v>
-      </c>
-      <c r="I139" t="s">
-        <v>541</v>
       </c>
       <c r="J139" t="s">
         <v>464</v>
+      </c>
+      <c r="K139" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8190,20 +8190,20 @@
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="F140" t="s">
+      <c r="E140" t="s">
         <v>540</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>361</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>362</v>
-      </c>
-      <c r="I140" t="s">
-        <v>541</v>
       </c>
       <c r="J140" t="s">
         <v>339</v>
+      </c>
+      <c r="K140" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8293,13 +8293,13 @@
         <v>565</v>
       </c>
       <c r="G143" t="s">
+        <v>566</v>
+      </c>
+      <c r="H143" t="s">
         <v>575</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>576</v>
-      </c>
-      <c r="I143" t="s">
-        <v>568</v>
       </c>
       <c r="J143" t="s">
         <v>339</v>
@@ -8328,13 +8328,13 @@
         <v>565</v>
       </c>
       <c r="G144" t="s">
+        <v>566</v>
+      </c>
+      <c r="H144" t="s">
         <v>575</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>576</v>
-      </c>
-      <c r="I144" t="s">
-        <v>568</v>
       </c>
       <c r="J144" t="s">
         <v>339</v>
@@ -8363,13 +8363,13 @@
         <v>565</v>
       </c>
       <c r="G145" t="s">
+        <v>566</v>
+      </c>
+      <c r="H145" t="s">
         <v>575</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>576</v>
-      </c>
-      <c r="I145" t="s">
-        <v>568</v>
       </c>
       <c r="J145" t="s">
         <v>339</v>
@@ -8427,13 +8427,13 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
+        <v>564</v>
+      </c>
+      <c r="F147" t="s">
         <v>589</v>
       </c>
-      <c r="F147" t="s">
-        <v>565</v>
-      </c>
       <c r="G147" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H147" t="s">
         <v>567</v>
@@ -8445,7 +8445,7 @@
         <v>339</v>
       </c>
       <c r="K147" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -8462,13 +8462,13 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
+        <v>564</v>
+      </c>
+      <c r="F148" t="s">
         <v>589</v>
       </c>
-      <c r="F148" t="s">
-        <v>565</v>
-      </c>
       <c r="G148" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H148" t="s">
         <v>567</v>
@@ -8480,7 +8480,7 @@
         <v>339</v>
       </c>
       <c r="K148" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -8497,13 +8497,13 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
+        <v>564</v>
+      </c>
+      <c r="F149" t="s">
         <v>589</v>
       </c>
-      <c r="F149" t="s">
-        <v>565</v>
-      </c>
       <c r="G149" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H149" t="s">
         <v>567</v>
@@ -8515,7 +8515,7 @@
         <v>339</v>
       </c>
       <c r="K149" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -8532,13 +8532,13 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
+        <v>564</v>
+      </c>
+      <c r="F150" t="s">
         <v>589</v>
       </c>
-      <c r="F150" t="s">
-        <v>565</v>
-      </c>
       <c r="G150" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H150" t="s">
         <v>567</v>
@@ -8550,7 +8550,7 @@
         <v>339</v>
       </c>
       <c r="K150" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -8567,13 +8567,13 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
+        <v>564</v>
+      </c>
+      <c r="F151" t="s">
         <v>589</v>
       </c>
-      <c r="F151" t="s">
-        <v>565</v>
-      </c>
       <c r="G151" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H151" t="s">
         <v>567</v>
@@ -8585,7 +8585,7 @@
         <v>339</v>
       </c>
       <c r="K151" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -8602,13 +8602,13 @@
         <v>14</v>
       </c>
       <c r="E152" t="s">
+        <v>564</v>
+      </c>
+      <c r="F152" t="s">
         <v>589</v>
       </c>
-      <c r="F152" t="s">
-        <v>565</v>
-      </c>
       <c r="G152" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H152" t="s">
         <v>567</v>
@@ -8620,7 +8620,7 @@
         <v>339</v>
       </c>
       <c r="K152" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -8637,13 +8637,13 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
+        <v>564</v>
+      </c>
+      <c r="F153" t="s">
         <v>589</v>
       </c>
-      <c r="F153" t="s">
-        <v>565</v>
-      </c>
       <c r="G153" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H153" t="s">
         <v>567</v>
@@ -8655,7 +8655,7 @@
         <v>339</v>
       </c>
       <c r="K153" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -8672,13 +8672,13 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
+        <v>564</v>
+      </c>
+      <c r="F154" t="s">
         <v>589</v>
       </c>
-      <c r="F154" t="s">
-        <v>565</v>
-      </c>
       <c r="G154" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H154" t="s">
         <v>567</v>
@@ -8690,7 +8690,7 @@
         <v>339</v>
       </c>
       <c r="K154" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -8707,13 +8707,13 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
+        <v>564</v>
+      </c>
+      <c r="F155" t="s">
         <v>589</v>
       </c>
-      <c r="F155" t="s">
-        <v>565</v>
-      </c>
       <c r="G155" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H155" t="s">
         <v>567</v>
@@ -8725,7 +8725,7 @@
         <v>339</v>
       </c>
       <c r="K155" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -8742,13 +8742,13 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
+        <v>564</v>
+      </c>
+      <c r="F156" t="s">
         <v>618</v>
       </c>
-      <c r="F156" t="s">
-        <v>565</v>
-      </c>
       <c r="G156" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="H156" t="s">
         <v>567</v>
@@ -8760,7 +8760,7 @@
         <v>339</v>
       </c>
       <c r="K156" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -8777,25 +8777,25 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
+        <v>564</v>
+      </c>
+      <c r="F157" t="s">
         <v>618</v>
       </c>
-      <c r="F157" t="s">
-        <v>565</v>
-      </c>
       <c r="G157" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H157" t="s">
         <v>567</v>
       </c>
       <c r="I157" t="s">
-        <v>568</v>
+        <v>623</v>
       </c>
       <c r="J157" t="s">
         <v>339</v>
       </c>
       <c r="K157" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -8812,13 +8812,13 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
+        <v>564</v>
+      </c>
+      <c r="F158" t="s">
         <v>618</v>
       </c>
-      <c r="F158" t="s">
-        <v>565</v>
-      </c>
       <c r="G158" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="H158" t="s">
         <v>567</v>
@@ -8830,7 +8830,7 @@
         <v>339</v>
       </c>
       <c r="K158" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -8847,13 +8847,13 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
+        <v>564</v>
+      </c>
+      <c r="F159" t="s">
         <v>618</v>
       </c>
-      <c r="F159" t="s">
-        <v>565</v>
-      </c>
       <c r="G159" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="H159" t="s">
         <v>567</v>
@@ -8865,7 +8865,7 @@
         <v>339</v>
       </c>
       <c r="K159" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -8882,13 +8882,13 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
+        <v>564</v>
+      </c>
+      <c r="F160" t="s">
         <v>618</v>
       </c>
-      <c r="F160" t="s">
-        <v>565</v>
-      </c>
       <c r="G160" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="H160" t="s">
         <v>567</v>
@@ -8900,7 +8900,7 @@
         <v>339</v>
       </c>
       <c r="K160" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -8917,13 +8917,13 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
+        <v>564</v>
+      </c>
+      <c r="F161" t="s">
         <v>618</v>
       </c>
-      <c r="F161" t="s">
-        <v>565</v>
-      </c>
       <c r="G161" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="H161" t="s">
         <v>567</v>
@@ -8935,7 +8935,7 @@
         <v>339</v>
       </c>
       <c r="K161" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -8952,13 +8952,13 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
+        <v>564</v>
+      </c>
+      <c r="F162" t="s">
         <v>639</v>
       </c>
-      <c r="F162" t="s">
-        <v>565</v>
-      </c>
       <c r="G162" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="H162" t="s">
         <v>567</v>
@@ -8970,7 +8970,7 @@
         <v>339</v>
       </c>
       <c r="K162" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -8987,10 +8987,10 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
+        <v>564</v>
+      </c>
+      <c r="F163" t="s">
         <v>642</v>
-      </c>
-      <c r="F163" t="s">
-        <v>565</v>
       </c>
       <c r="G163" t="s">
         <v>644</v>
@@ -8999,13 +8999,13 @@
         <v>567</v>
       </c>
       <c r="I163" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="J163" t="s">
         <v>339</v>
       </c>
       <c r="K163" t="s">
-        <v>645</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -9022,13 +9022,13 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
+        <v>564</v>
+      </c>
+      <c r="F164" t="s">
         <v>649</v>
       </c>
-      <c r="F164" t="s">
-        <v>565</v>
-      </c>
       <c r="G164" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="H164" t="s">
         <v>567</v>
@@ -9040,7 +9040,7 @@
         <v>339</v>
       </c>
       <c r="K164" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -9057,13 +9057,13 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
+        <v>564</v>
+      </c>
+      <c r="F165" t="s">
         <v>649</v>
       </c>
-      <c r="F165" t="s">
-        <v>565</v>
-      </c>
       <c r="G165" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="H165" t="s">
         <v>567</v>
@@ -9075,7 +9075,7 @@
         <v>339</v>
       </c>
       <c r="K165" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -9092,13 +9092,13 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
+        <v>564</v>
+      </c>
+      <c r="F166" t="s">
         <v>649</v>
       </c>
-      <c r="F166" t="s">
-        <v>565</v>
-      </c>
       <c r="G166" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="H166" t="s">
         <v>567</v>
@@ -9110,7 +9110,7 @@
         <v>339</v>
       </c>
       <c r="K166" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -9127,13 +9127,13 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
+        <v>564</v>
+      </c>
+      <c r="F167" t="s">
         <v>649</v>
       </c>
-      <c r="F167" t="s">
-        <v>565</v>
-      </c>
       <c r="G167" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="H167" t="s">
         <v>567</v>
@@ -9145,7 +9145,7 @@
         <v>339</v>
       </c>
       <c r="K167" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -9162,25 +9162,25 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
+        <v>564</v>
+      </c>
+      <c r="F168" t="s">
         <v>649</v>
       </c>
-      <c r="F168" t="s">
-        <v>565</v>
-      </c>
       <c r="G168" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="H168" t="s">
         <v>567</v>
       </c>
       <c r="I168" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="J168" t="s">
         <v>339</v>
       </c>
       <c r="K168" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -9194,25 +9194,25 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
+        <v>564</v>
+      </c>
+      <c r="F169" t="s">
         <v>649</v>
       </c>
-      <c r="F169" t="s">
-        <v>565</v>
-      </c>
       <c r="G169" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="H169" t="s">
         <v>567</v>
       </c>
       <c r="I169" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="J169" t="s">
         <v>339</v>
       </c>
       <c r="K169" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -9229,13 +9229,13 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
+        <v>564</v>
+      </c>
+      <c r="F170" t="s">
         <v>649</v>
       </c>
-      <c r="F170" t="s">
-        <v>565</v>
-      </c>
       <c r="G170" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="H170" t="s">
         <v>567</v>
@@ -9247,7 +9247,7 @@
         <v>339</v>
       </c>
       <c r="K170" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -9263,20 +9263,20 @@
       <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="F171" t="s">
+      <c r="E171" t="s">
         <v>672</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>337</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>338</v>
-      </c>
-      <c r="I171" t="s">
-        <v>673</v>
       </c>
       <c r="J171" t="s">
         <v>339</v>
+      </c>
+      <c r="K171" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9292,20 +9292,20 @@
       <c r="D172" t="s">
         <v>14</v>
       </c>
-      <c r="F172" t="s">
+      <c r="E172" t="s">
         <v>672</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>243</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>244</v>
-      </c>
-      <c r="I172" t="s">
-        <v>673</v>
       </c>
       <c r="J172" t="s">
         <v>238</v>
+      </c>
+      <c r="K172" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9321,20 +9321,20 @@
       <c r="D173" t="s">
         <v>14</v>
       </c>
-      <c r="F173" t="s">
+      <c r="E173" t="s">
         <v>672</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>337</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>338</v>
-      </c>
-      <c r="I173" t="s">
-        <v>673</v>
       </c>
       <c r="J173" t="s">
         <v>339</v>
+      </c>
+      <c r="K173" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9350,20 +9350,20 @@
       <c r="D174" t="s">
         <v>14</v>
       </c>
-      <c r="F174" t="s">
+      <c r="E174" t="s">
         <v>672</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>337</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>338</v>
-      </c>
-      <c r="I174" t="s">
-        <v>673</v>
       </c>
       <c r="J174" t="s">
         <v>339</v>
+      </c>
+      <c r="K174" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9379,20 +9379,20 @@
       <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="F175" t="s">
+      <c r="E175" t="s">
         <v>672</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>337</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>338</v>
-      </c>
-      <c r="I175" t="s">
-        <v>673</v>
       </c>
       <c r="J175" t="s">
         <v>339</v>
+      </c>
+      <c r="K175" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9405,20 +9405,20 @@
       <c r="D176" t="s">
         <v>14</v>
       </c>
-      <c r="F176" t="s">
+      <c r="E176" t="s">
         <v>672</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>337</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>338</v>
-      </c>
-      <c r="I176" t="s">
-        <v>673</v>
       </c>
       <c r="J176" t="s">
         <v>339</v>
+      </c>
+      <c r="K176" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9434,20 +9434,20 @@
       <c r="D177" t="s">
         <v>14</v>
       </c>
-      <c r="F177" t="s">
+      <c r="E177" t="s">
         <v>691</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>337</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>338</v>
-      </c>
-      <c r="I177" t="s">
-        <v>692</v>
       </c>
       <c r="J177" t="s">
         <v>339</v>
+      </c>
+      <c r="K177" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9463,20 +9463,20 @@
       <c r="D178" t="s">
         <v>14</v>
       </c>
-      <c r="F178" t="s">
+      <c r="E178" t="s">
         <v>691</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>337</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>338</v>
-      </c>
-      <c r="I178" t="s">
-        <v>692</v>
       </c>
       <c r="J178" t="s">
         <v>339</v>
+      </c>
+      <c r="K178" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -9492,20 +9492,20 @@
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="F179" t="s">
+      <c r="E179" t="s">
         <v>691</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>337</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>338</v>
-      </c>
-      <c r="I179" t="s">
-        <v>692</v>
       </c>
       <c r="J179" t="s">
         <v>339</v>
+      </c>
+      <c r="K179" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -9521,20 +9521,20 @@
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="F180" t="s">
+      <c r="E180" t="s">
         <v>691</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>337</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>338</v>
-      </c>
-      <c r="I180" t="s">
-        <v>692</v>
       </c>
       <c r="J180" t="s">
         <v>339</v>
+      </c>
+      <c r="K180" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -9974,13 +9974,13 @@
         <v>706</v>
       </c>
       <c r="G193" t="s">
+        <v>707</v>
+      </c>
+      <c r="H193" t="s">
+        <v>575</v>
+      </c>
+      <c r="I193" t="s">
         <v>746</v>
-      </c>
-      <c r="H193" t="s">
-        <v>576</v>
-      </c>
-      <c r="I193" t="s">
-        <v>709</v>
       </c>
       <c r="J193" t="s">
         <v>339</v>
@@ -10178,10 +10178,10 @@
         <v>14</v>
       </c>
       <c r="E199" t="s">
+        <v>705</v>
+      </c>
+      <c r="F199" t="s">
         <v>765</v>
-      </c>
-      <c r="F199" t="s">
-        <v>706</v>
       </c>
       <c r="G199" t="s">
         <v>766</v>
@@ -10190,13 +10190,13 @@
         <v>708</v>
       </c>
       <c r="I199" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="J199" t="s">
         <v>339</v>
       </c>
       <c r="K199" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -10213,10 +10213,10 @@
         <v>14</v>
       </c>
       <c r="E200" t="s">
+        <v>705</v>
+      </c>
+      <c r="F200" t="s">
         <v>765</v>
-      </c>
-      <c r="F200" t="s">
-        <v>706</v>
       </c>
       <c r="G200" t="s">
         <v>766</v>
@@ -10225,13 +10225,13 @@
         <v>708</v>
       </c>
       <c r="I200" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="J200" t="s">
         <v>339</v>
       </c>
       <c r="K200" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -10248,10 +10248,10 @@
         <v>14</v>
       </c>
       <c r="E201" t="s">
+        <v>705</v>
+      </c>
+      <c r="F201" t="s">
         <v>765</v>
-      </c>
-      <c r="F201" t="s">
-        <v>706</v>
       </c>
       <c r="G201" t="s">
         <v>766</v>
@@ -10260,13 +10260,13 @@
         <v>708</v>
       </c>
       <c r="I201" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="J201" t="s">
         <v>339</v>
       </c>
       <c r="K201" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -10280,10 +10280,10 @@
         <v>14</v>
       </c>
       <c r="E202" t="s">
+        <v>705</v>
+      </c>
+      <c r="F202" t="s">
         <v>765</v>
-      </c>
-      <c r="F202" t="s">
-        <v>706</v>
       </c>
       <c r="G202" t="s">
         <v>766</v>
@@ -10292,13 +10292,13 @@
         <v>708</v>
       </c>
       <c r="I202" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="J202" t="s">
         <v>339</v>
       </c>
       <c r="K202" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -10315,25 +10315,25 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
+        <v>705</v>
+      </c>
+      <c r="F203" t="s">
         <v>765</v>
       </c>
-      <c r="F203" t="s">
-        <v>706</v>
-      </c>
       <c r="G203" t="s">
+        <v>766</v>
+      </c>
+      <c r="H203" t="s">
+        <v>575</v>
+      </c>
+      <c r="I203" t="s">
         <v>746</v>
-      </c>
-      <c r="H203" t="s">
-        <v>576</v>
-      </c>
-      <c r="I203" t="s">
-        <v>709</v>
       </c>
       <c r="J203" t="s">
         <v>339</v>
       </c>
       <c r="K203" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10347,10 +10347,10 @@
         <v>14</v>
       </c>
       <c r="E204" t="s">
+        <v>705</v>
+      </c>
+      <c r="F204" t="s">
         <v>765</v>
-      </c>
-      <c r="F204" t="s">
-        <v>706</v>
       </c>
       <c r="G204" t="s">
         <v>766</v>
@@ -10359,13 +10359,13 @@
         <v>708</v>
       </c>
       <c r="I204" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="J204" t="s">
         <v>339</v>
       </c>
       <c r="K204" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -10382,10 +10382,10 @@
         <v>14</v>
       </c>
       <c r="E205" t="s">
+        <v>705</v>
+      </c>
+      <c r="F205" t="s">
         <v>784</v>
-      </c>
-      <c r="F205" t="s">
-        <v>706</v>
       </c>
       <c r="G205" t="s">
         <v>785</v>
@@ -10394,13 +10394,13 @@
         <v>708</v>
       </c>
       <c r="I205" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="J205" t="s">
         <v>339</v>
       </c>
       <c r="K205" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -10417,10 +10417,10 @@
         <v>14</v>
       </c>
       <c r="E206" t="s">
+        <v>705</v>
+      </c>
+      <c r="F206" t="s">
         <v>784</v>
-      </c>
-      <c r="F206" t="s">
-        <v>706</v>
       </c>
       <c r="G206" t="s">
         <v>785</v>
@@ -10429,13 +10429,13 @@
         <v>708</v>
       </c>
       <c r="I206" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="J206" t="s">
         <v>339</v>
       </c>
       <c r="K206" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -10449,10 +10449,10 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
+        <v>705</v>
+      </c>
+      <c r="F207" t="s">
         <v>784</v>
-      </c>
-      <c r="F207" t="s">
-        <v>706</v>
       </c>
       <c r="G207" t="s">
         <v>785</v>
@@ -10461,13 +10461,13 @@
         <v>708</v>
       </c>
       <c r="I207" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="J207" t="s">
         <v>339</v>
       </c>
       <c r="K207" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -10484,25 +10484,25 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
+        <v>705</v>
+      </c>
+      <c r="F208" t="s">
         <v>784</v>
       </c>
-      <c r="F208" t="s">
-        <v>706</v>
-      </c>
       <c r="G208" t="s">
+        <v>785</v>
+      </c>
+      <c r="H208" t="s">
+        <v>575</v>
+      </c>
+      <c r="I208" t="s">
         <v>746</v>
-      </c>
-      <c r="H208" t="s">
-        <v>576</v>
-      </c>
-      <c r="I208" t="s">
-        <v>709</v>
       </c>
       <c r="J208" t="s">
         <v>339</v>
       </c>
       <c r="K208" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -10519,10 +10519,10 @@
         <v>14</v>
       </c>
       <c r="E209" t="s">
+        <v>705</v>
+      </c>
+      <c r="F209" t="s">
         <v>784</v>
-      </c>
-      <c r="F209" t="s">
-        <v>706</v>
       </c>
       <c r="G209" t="s">
         <v>785</v>
@@ -10531,13 +10531,13 @@
         <v>708</v>
       </c>
       <c r="I209" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="J209" t="s">
         <v>339</v>
       </c>
       <c r="K209" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -10729,13 +10729,13 @@
         <v>802</v>
       </c>
       <c r="G215" t="s">
-        <v>766</v>
+        <v>803</v>
       </c>
       <c r="H215" t="s">
         <v>708</v>
       </c>
       <c r="I215" t="s">
-        <v>805</v>
+        <v>767</v>
       </c>
       <c r="J215" t="s">
         <v>339</v>
@@ -10898,13 +10898,13 @@
         <v>802</v>
       </c>
       <c r="G220" t="s">
-        <v>663</v>
+        <v>803</v>
       </c>
       <c r="H220" t="s">
         <v>567</v>
       </c>
       <c r="I220" t="s">
-        <v>805</v>
+        <v>663</v>
       </c>
       <c r="J220" t="s">
         <v>339</v>
@@ -11105,13 +11105,13 @@
         <v>802</v>
       </c>
       <c r="G226" t="s">
+        <v>803</v>
+      </c>
+      <c r="H226" t="s">
         <v>575</v>
       </c>
-      <c r="H226" t="s">
+      <c r="I226" t="s">
         <v>576</v>
-      </c>
-      <c r="I226" t="s">
-        <v>805</v>
       </c>
       <c r="J226" t="s">
         <v>339</v>
@@ -11175,13 +11175,13 @@
         <v>802</v>
       </c>
       <c r="G228" t="s">
+        <v>803</v>
+      </c>
+      <c r="H228" t="s">
         <v>337</v>
       </c>
-      <c r="H228" t="s">
+      <c r="I228" t="s">
         <v>338</v>
-      </c>
-      <c r="I228" t="s">
-        <v>805</v>
       </c>
       <c r="J228" t="s">
         <v>339</v>
@@ -11204,10 +11204,10 @@
         <v>14</v>
       </c>
       <c r="E229" t="s">
+        <v>801</v>
+      </c>
+      <c r="F229" t="s">
         <v>859</v>
-      </c>
-      <c r="F229" t="s">
-        <v>802</v>
       </c>
       <c r="G229" t="s">
         <v>860</v>
@@ -11216,13 +11216,13 @@
         <v>804</v>
       </c>
       <c r="I229" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J229" t="s">
         <v>339</v>
       </c>
       <c r="K229" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -11239,10 +11239,10 @@
         <v>14</v>
       </c>
       <c r="E230" t="s">
+        <v>801</v>
+      </c>
+      <c r="F230" t="s">
         <v>859</v>
-      </c>
-      <c r="F230" t="s">
-        <v>802</v>
       </c>
       <c r="G230" t="s">
         <v>860</v>
@@ -11251,13 +11251,13 @@
         <v>804</v>
       </c>
       <c r="I230" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J230" t="s">
         <v>339</v>
       </c>
       <c r="K230" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -11274,25 +11274,25 @@
         <v>14</v>
       </c>
       <c r="E231" t="s">
+        <v>801</v>
+      </c>
+      <c r="F231" t="s">
         <v>859</v>
       </c>
-      <c r="F231" t="s">
-        <v>802</v>
-      </c>
       <c r="G231" t="s">
-        <v>623</v>
+        <v>860</v>
       </c>
       <c r="H231" t="s">
         <v>567</v>
       </c>
       <c r="I231" t="s">
-        <v>805</v>
+        <v>623</v>
       </c>
       <c r="J231" t="s">
         <v>339</v>
       </c>
       <c r="K231" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11309,25 +11309,25 @@
         <v>14</v>
       </c>
       <c r="E232" t="s">
+        <v>801</v>
+      </c>
+      <c r="F232" t="s">
         <v>859</v>
       </c>
-      <c r="F232" t="s">
-        <v>802</v>
-      </c>
       <c r="G232" t="s">
-        <v>663</v>
+        <v>860</v>
       </c>
       <c r="H232" t="s">
         <v>567</v>
       </c>
       <c r="I232" t="s">
-        <v>805</v>
+        <v>663</v>
       </c>
       <c r="J232" t="s">
         <v>339</v>
       </c>
       <c r="K232" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -11344,10 +11344,10 @@
         <v>14</v>
       </c>
       <c r="E233" t="s">
+        <v>801</v>
+      </c>
+      <c r="F233" t="s">
         <v>859</v>
-      </c>
-      <c r="F233" t="s">
-        <v>802</v>
       </c>
       <c r="G233" t="s">
         <v>860</v>
@@ -11356,13 +11356,13 @@
         <v>804</v>
       </c>
       <c r="I233" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J233" t="s">
         <v>339</v>
       </c>
       <c r="K233" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -11379,10 +11379,10 @@
         <v>14</v>
       </c>
       <c r="E234" t="s">
+        <v>801</v>
+      </c>
+      <c r="F234" t="s">
         <v>859</v>
-      </c>
-      <c r="F234" t="s">
-        <v>802</v>
       </c>
       <c r="G234" t="s">
         <v>860</v>
@@ -11391,13 +11391,13 @@
         <v>804</v>
       </c>
       <c r="I234" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J234" t="s">
         <v>339</v>
       </c>
       <c r="K234" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -11414,10 +11414,10 @@
         <v>14</v>
       </c>
       <c r="E235" t="s">
+        <v>801</v>
+      </c>
+      <c r="F235" t="s">
         <v>859</v>
-      </c>
-      <c r="F235" t="s">
-        <v>802</v>
       </c>
       <c r="G235" t="s">
         <v>860</v>
@@ -11426,13 +11426,13 @@
         <v>804</v>
       </c>
       <c r="I235" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J235" t="s">
         <v>339</v>
       </c>
       <c r="K235" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -11449,10 +11449,10 @@
         <v>14</v>
       </c>
       <c r="E236" t="s">
+        <v>801</v>
+      </c>
+      <c r="F236" t="s">
         <v>859</v>
-      </c>
-      <c r="F236" t="s">
-        <v>802</v>
       </c>
       <c r="G236" t="s">
         <v>860</v>
@@ -11461,13 +11461,13 @@
         <v>804</v>
       </c>
       <c r="I236" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J236" t="s">
         <v>339</v>
       </c>
       <c r="K236" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -11484,10 +11484,10 @@
         <v>14</v>
       </c>
       <c r="E237" t="s">
+        <v>801</v>
+      </c>
+      <c r="F237" t="s">
         <v>859</v>
-      </c>
-      <c r="F237" t="s">
-        <v>802</v>
       </c>
       <c r="G237" t="s">
         <v>860</v>
@@ -11496,13 +11496,13 @@
         <v>804</v>
       </c>
       <c r="I237" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J237" t="s">
         <v>339</v>
       </c>
       <c r="K237" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -11519,10 +11519,10 @@
         <v>14</v>
       </c>
       <c r="E238" t="s">
+        <v>801</v>
+      </c>
+      <c r="F238" t="s">
         <v>859</v>
-      </c>
-      <c r="F238" t="s">
-        <v>802</v>
       </c>
       <c r="G238" t="s">
         <v>860</v>
@@ -11531,13 +11531,13 @@
         <v>804</v>
       </c>
       <c r="I238" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="J238" t="s">
         <v>339</v>
       </c>
       <c r="K238" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -11554,10 +11554,10 @@
         <v>14</v>
       </c>
       <c r="E239" t="s">
+        <v>801</v>
+      </c>
+      <c r="F239" t="s">
         <v>892</v>
-      </c>
-      <c r="F239" t="s">
-        <v>802</v>
       </c>
       <c r="G239" t="s">
         <v>893</v>
@@ -11566,13 +11566,13 @@
         <v>804</v>
       </c>
       <c r="I239" t="s">
-        <v>805</v>
+        <v>894</v>
       </c>
       <c r="J239" t="s">
         <v>339</v>
       </c>
       <c r="K239" t="s">
-        <v>894</v>
+        <v>806</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -11595,13 +11595,13 @@
         <v>898</v>
       </c>
       <c r="G240" t="s">
+        <v>899</v>
+      </c>
+      <c r="H240" t="s">
         <v>337</v>
       </c>
-      <c r="H240" t="s">
+      <c r="I240" t="s">
         <v>338</v>
-      </c>
-      <c r="I240" t="s">
-        <v>899</v>
       </c>
       <c r="J240" t="s">
         <v>339</v>
@@ -11630,13 +11630,13 @@
         <v>898</v>
       </c>
       <c r="G241" t="s">
+        <v>899</v>
+      </c>
+      <c r="H241" t="s">
         <v>337</v>
       </c>
-      <c r="H241" t="s">
+      <c r="I241" t="s">
         <v>338</v>
-      </c>
-      <c r="I241" t="s">
-        <v>899</v>
       </c>
       <c r="J241" t="s">
         <v>339</v>
@@ -11665,13 +11665,13 @@
         <v>898</v>
       </c>
       <c r="G242" t="s">
+        <v>899</v>
+      </c>
+      <c r="H242" t="s">
         <v>337</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>338</v>
-      </c>
-      <c r="I242" t="s">
-        <v>899</v>
       </c>
       <c r="J242" t="s">
         <v>339</v>
@@ -11700,13 +11700,13 @@
         <v>898</v>
       </c>
       <c r="G243" t="s">
+        <v>899</v>
+      </c>
+      <c r="H243" t="s">
         <v>337</v>
       </c>
-      <c r="H243" t="s">
+      <c r="I243" t="s">
         <v>338</v>
-      </c>
-      <c r="I243" t="s">
-        <v>899</v>
       </c>
       <c r="J243" t="s">
         <v>339</v>
@@ -11735,13 +11735,13 @@
         <v>898</v>
       </c>
       <c r="G244" t="s">
+        <v>899</v>
+      </c>
+      <c r="H244" t="s">
         <v>337</v>
       </c>
-      <c r="H244" t="s">
+      <c r="I244" t="s">
         <v>338</v>
-      </c>
-      <c r="I244" t="s">
-        <v>899</v>
       </c>
       <c r="J244" t="s">
         <v>339</v>
@@ -11770,13 +11770,13 @@
         <v>898</v>
       </c>
       <c r="G245" t="s">
+        <v>899</v>
+      </c>
+      <c r="H245" t="s">
         <v>337</v>
       </c>
-      <c r="H245" t="s">
+      <c r="I245" t="s">
         <v>338</v>
-      </c>
-      <c r="I245" t="s">
-        <v>899</v>
       </c>
       <c r="J245" t="s">
         <v>339</v>
@@ -11796,25 +11796,25 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
+        <v>898</v>
+      </c>
+      <c r="F246" t="s">
         <v>918</v>
-      </c>
-      <c r="F246" t="s">
-        <v>898</v>
       </c>
       <c r="G246" t="s">
         <v>919</v>
       </c>
       <c r="H246" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I246" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
       <c r="J246" t="s">
         <v>339</v>
       </c>
       <c r="K246" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -11830,20 +11830,20 @@
       <c r="D247" t="s">
         <v>14</v>
       </c>
-      <c r="F247" t="s">
+      <c r="E247" t="s">
         <v>924</v>
       </c>
-      <c r="G247" t="s">
+      <c r="H247" t="s">
         <v>196</v>
       </c>
-      <c r="H247" t="s">
+      <c r="I247" t="s">
         <v>197</v>
-      </c>
-      <c r="I247" t="s">
-        <v>925</v>
       </c>
       <c r="J247" t="s">
         <v>198</v>
+      </c>
+      <c r="K247" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -11859,20 +11859,20 @@
       <c r="D248" t="s">
         <v>14</v>
       </c>
-      <c r="F248" t="s">
+      <c r="E248" t="s">
         <v>924</v>
       </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>196</v>
       </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
         <v>197</v>
-      </c>
-      <c r="I248" t="s">
-        <v>925</v>
       </c>
       <c r="J248" t="s">
         <v>198</v>
+      </c>
+      <c r="K248" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -11888,20 +11888,20 @@
       <c r="D249" t="s">
         <v>14</v>
       </c>
-      <c r="F249" t="s">
+      <c r="E249" t="s">
         <v>924</v>
       </c>
-      <c r="G249" t="s">
+      <c r="H249" t="s">
         <v>932</v>
       </c>
-      <c r="H249" t="s">
+      <c r="I249" t="s">
         <v>933</v>
-      </c>
-      <c r="I249" t="s">
-        <v>925</v>
       </c>
       <c r="J249" t="s">
         <v>198</v>
+      </c>
+      <c r="K249" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -11917,20 +11917,20 @@
       <c r="D250" t="s">
         <v>14</v>
       </c>
-      <c r="F250" t="s">
+      <c r="E250" t="s">
         <v>924</v>
       </c>
-      <c r="G250" t="s">
+      <c r="H250" t="s">
         <v>196</v>
       </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>197</v>
-      </c>
-      <c r="I250" t="s">
-        <v>925</v>
       </c>
       <c r="J250" t="s">
         <v>198</v>
+      </c>
+      <c r="K250" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -11943,20 +11943,20 @@
       <c r="D251" t="s">
         <v>14</v>
       </c>
-      <c r="F251" t="s">
+      <c r="E251" t="s">
         <v>924</v>
       </c>
-      <c r="G251" t="s">
+      <c r="H251" t="s">
         <v>196</v>
       </c>
-      <c r="H251" t="s">
+      <c r="I251" t="s">
         <v>197</v>
-      </c>
-      <c r="I251" t="s">
-        <v>925</v>
       </c>
       <c r="J251" t="s">
         <v>198</v>
+      </c>
+      <c r="K251" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -11972,20 +11972,20 @@
       <c r="D252" t="s">
         <v>14</v>
       </c>
-      <c r="F252" t="s">
+      <c r="E252" t="s">
         <v>924</v>
       </c>
-      <c r="G252" t="s">
+      <c r="H252" t="s">
         <v>196</v>
       </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
         <v>197</v>
-      </c>
-      <c r="I252" t="s">
-        <v>925</v>
       </c>
       <c r="J252" t="s">
         <v>198</v>
+      </c>
+      <c r="K252" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -11998,20 +11998,20 @@
       <c r="D253" t="s">
         <v>14</v>
       </c>
-      <c r="F253" t="s">
+      <c r="E253" t="s">
         <v>944</v>
       </c>
-      <c r="G253" t="s">
+      <c r="H253" t="s">
         <v>945</v>
       </c>
-      <c r="H253" t="s">
+      <c r="I253" t="s">
         <v>946</v>
-      </c>
-      <c r="I253" t="s">
-        <v>947</v>
       </c>
       <c r="J253" t="s">
         <v>339</v>
+      </c>
+      <c r="K253" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -12027,20 +12027,20 @@
       <c r="D254" t="s">
         <v>14</v>
       </c>
-      <c r="F254" t="s">
+      <c r="E254" t="s">
         <v>944</v>
       </c>
-      <c r="G254" t="s">
+      <c r="H254" t="s">
         <v>454</v>
       </c>
-      <c r="H254" t="s">
+      <c r="I254" t="s">
         <v>455</v>
       </c>
-      <c r="I254" t="s">
+      <c r="J254" t="s">
+        <v>191</v>
+      </c>
+      <c r="K254" t="s">
         <v>947</v>
-      </c>
-      <c r="J254" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -12056,20 +12056,20 @@
       <c r="D255" t="s">
         <v>14</v>
       </c>
-      <c r="F255" t="s">
+      <c r="E255" t="s">
         <v>944</v>
       </c>
-      <c r="G255" t="s">
+      <c r="H255" t="s">
         <v>954</v>
       </c>
-      <c r="H255" t="s">
+      <c r="I255" t="s">
         <v>955</v>
       </c>
-      <c r="I255" t="s">
+      <c r="J255" t="s">
+        <v>191</v>
+      </c>
+      <c r="K255" t="s">
         <v>947</v>
-      </c>
-      <c r="J255" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -12085,23 +12085,23 @@
       <c r="D256" t="s">
         <v>14</v>
       </c>
-      <c r="F256" t="s">
+      <c r="E256" t="s">
         <v>944</v>
       </c>
-      <c r="G256" t="s">
+      <c r="H256" t="s">
         <v>954</v>
       </c>
-      <c r="H256" t="s">
+      <c r="I256" t="s">
         <v>955</v>
       </c>
-      <c r="I256" t="s">
+      <c r="J256" t="s">
+        <v>191</v>
+      </c>
+      <c r="K256" t="s">
         <v>947</v>
       </c>
-      <c r="J256" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
         <v>959</v>
       </c>
@@ -12114,23 +12114,23 @@
       <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="F257" t="s">
+      <c r="E257" t="s">
         <v>944</v>
       </c>
-      <c r="G257" t="s">
+      <c r="H257" t="s">
         <v>954</v>
       </c>
-      <c r="H257" t="s">
+      <c r="I257" t="s">
         <v>955</v>
       </c>
-      <c r="I257" t="s">
+      <c r="J257" t="s">
+        <v>191</v>
+      </c>
+      <c r="K257" t="s">
         <v>947</v>
       </c>
-      <c r="J257" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>962</v>
       </c>
@@ -12143,23 +12143,23 @@
       <c r="D258" t="s">
         <v>14</v>
       </c>
-      <c r="F258" t="s">
+      <c r="E258" t="s">
         <v>944</v>
-      </c>
-      <c r="G258" t="s">
-        <v>707</v>
       </c>
       <c r="H258" t="s">
         <v>708</v>
       </c>
       <c r="I258" t="s">
-        <v>947</v>
+        <v>709</v>
       </c>
       <c r="J258" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>965</v>
       </c>
@@ -12172,23 +12172,23 @@
       <c r="D259" t="s">
         <v>14</v>
       </c>
-      <c r="F259" t="s">
+      <c r="E259" t="s">
         <v>944</v>
       </c>
-      <c r="G259" t="s">
+      <c r="H259" t="s">
         <v>954</v>
       </c>
-      <c r="H259" t="s">
+      <c r="I259" t="s">
         <v>955</v>
       </c>
-      <c r="I259" t="s">
+      <c r="J259" t="s">
+        <v>191</v>
+      </c>
+      <c r="K259" t="s">
         <v>947</v>
       </c>
-      <c r="J259" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>967</v>
       </c>
@@ -12201,23 +12201,23 @@
       <c r="D260" t="s">
         <v>14</v>
       </c>
-      <c r="F260" t="s">
+      <c r="E260" t="s">
         <v>944</v>
       </c>
-      <c r="G260" t="s">
+      <c r="H260" t="s">
         <v>337</v>
       </c>
-      <c r="H260" t="s">
+      <c r="I260" t="s">
         <v>338</v>
-      </c>
-      <c r="I260" t="s">
-        <v>947</v>
       </c>
       <c r="J260" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
         <v>970</v>
       </c>
@@ -12230,23 +12230,23 @@
       <c r="D261" t="s">
         <v>14</v>
       </c>
-      <c r="F261" t="s">
+      <c r="E261" t="s">
         <v>944</v>
       </c>
-      <c r="G261" t="s">
+      <c r="H261" t="s">
         <v>973</v>
       </c>
-      <c r="H261" t="s">
+      <c r="I261" t="s">
         <v>974</v>
-      </c>
-      <c r="I261" t="s">
-        <v>947</v>
       </c>
       <c r="J261" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
         <v>975</v>
       </c>
@@ -12259,23 +12259,23 @@
       <c r="D262" t="s">
         <v>14</v>
       </c>
-      <c r="F262" t="s">
+      <c r="E262" t="s">
         <v>944</v>
       </c>
-      <c r="G262" t="s">
+      <c r="H262" t="s">
         <v>337</v>
       </c>
-      <c r="H262" t="s">
+      <c r="I262" t="s">
         <v>338</v>
-      </c>
-      <c r="I262" t="s">
-        <v>947</v>
       </c>
       <c r="J262" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
         <v>978</v>
       </c>
@@ -12288,23 +12288,23 @@
       <c r="D263" t="s">
         <v>14</v>
       </c>
-      <c r="F263" t="s">
+      <c r="E263" t="s">
         <v>944</v>
       </c>
-      <c r="G263" t="s">
+      <c r="H263" t="s">
         <v>981</v>
       </c>
-      <c r="H263" t="s">
+      <c r="I263" t="s">
         <v>982</v>
-      </c>
-      <c r="I263" t="s">
-        <v>947</v>
       </c>
       <c r="J263" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
         <v>983</v>
       </c>
@@ -12317,23 +12317,23 @@
       <c r="D264" t="s">
         <v>14</v>
       </c>
-      <c r="F264" t="s">
+      <c r="E264" t="s">
         <v>944</v>
       </c>
-      <c r="G264" t="s">
+      <c r="H264" t="s">
         <v>58</v>
       </c>
-      <c r="H264" t="s">
+      <c r="I264" t="s">
         <v>59</v>
-      </c>
-      <c r="I264" t="s">
-        <v>947</v>
       </c>
       <c r="J264" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
         <v>986</v>
       </c>
@@ -12346,23 +12346,23 @@
       <c r="D265" t="s">
         <v>14</v>
       </c>
-      <c r="F265" t="s">
+      <c r="E265" t="s">
         <v>944</v>
-      </c>
-      <c r="G265" t="s">
-        <v>17</v>
       </c>
       <c r="H265" t="s">
         <v>18</v>
       </c>
       <c r="I265" t="s">
-        <v>947</v>
+        <v>19</v>
       </c>
       <c r="J265" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" t="s">
         <v>989</v>
       </c>
@@ -12375,23 +12375,23 @@
       <c r="D266" t="s">
         <v>14</v>
       </c>
-      <c r="F266" t="s">
+      <c r="E266" t="s">
         <v>944</v>
       </c>
-      <c r="G266" t="s">
+      <c r="H266" t="s">
         <v>992</v>
       </c>
-      <c r="H266" t="s">
+      <c r="I266" t="s">
         <v>993</v>
-      </c>
-      <c r="I266" t="s">
-        <v>947</v>
       </c>
       <c r="J266" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" t="s">
         <v>994</v>
       </c>
@@ -12404,23 +12404,23 @@
       <c r="D267" t="s">
         <v>14</v>
       </c>
-      <c r="F267" t="s">
+      <c r="E267" t="s">
         <v>997</v>
       </c>
-      <c r="G267" t="s">
+      <c r="H267" t="s">
         <v>243</v>
       </c>
-      <c r="H267" t="s">
+      <c r="I267" t="s">
         <v>244</v>
-      </c>
-      <c r="I267" t="s">
-        <v>998</v>
       </c>
       <c r="J267" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" t="s">
         <v>999</v>
       </c>
@@ -12433,23 +12433,23 @@
       <c r="D268" t="s">
         <v>14</v>
       </c>
-      <c r="F268" t="s">
+      <c r="E268" t="s">
         <v>1002</v>
       </c>
-      <c r="G268" t="s">
+      <c r="H268" t="s">
         <v>421</v>
       </c>
-      <c r="H268" t="s">
+      <c r="I268" t="s">
         <v>422</v>
-      </c>
-      <c r="I268" t="s">
-        <v>1003</v>
       </c>
       <c r="J268" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" t="s">
         <v>1004</v>
       </c>
@@ -12462,23 +12462,23 @@
       <c r="D269" t="s">
         <v>14</v>
       </c>
-      <c r="F269" t="s">
+      <c r="E269" t="s">
         <v>1007</v>
       </c>
-      <c r="G269" t="s">
+      <c r="H269" t="s">
         <v>243</v>
       </c>
-      <c r="H269" t="s">
+      <c r="I269" t="s">
         <v>244</v>
-      </c>
-      <c r="I269" t="s">
-        <v>1008</v>
       </c>
       <c r="J269" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" t="s">
         <v>1009</v>
       </c>
@@ -12491,23 +12491,23 @@
       <c r="D270" t="s">
         <v>14</v>
       </c>
-      <c r="F270" t="s">
+      <c r="E270" t="s">
         <v>1007</v>
       </c>
-      <c r="G270" t="s">
+      <c r="H270" t="s">
         <v>243</v>
       </c>
-      <c r="H270" t="s">
+      <c r="I270" t="s">
         <v>244</v>
-      </c>
-      <c r="I270" t="s">
-        <v>1008</v>
       </c>
       <c r="J270" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" t="s">
         <v>1012</v>
       </c>
@@ -12520,23 +12520,23 @@
       <c r="D271" t="s">
         <v>14</v>
       </c>
-      <c r="F271" t="s">
+      <c r="E271" t="s">
         <v>1015</v>
       </c>
-      <c r="G271" t="s">
+      <c r="H271" t="s">
         <v>1016</v>
       </c>
-      <c r="H271" t="s">
+      <c r="I271" t="s">
         <v>1017</v>
-      </c>
-      <c r="I271" t="s">
-        <v>1018</v>
       </c>
       <c r="J271" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
         <v>1019</v>
       </c>
@@ -12546,23 +12546,23 @@
       <c r="D272" t="s">
         <v>14</v>
       </c>
-      <c r="F272" t="s">
+      <c r="E272" t="s">
         <v>1015</v>
       </c>
-      <c r="G272" t="s">
+      <c r="H272" t="s">
         <v>1016</v>
       </c>
-      <c r="H272" t="s">
+      <c r="I272" t="s">
         <v>1017</v>
-      </c>
-      <c r="I272" t="s">
-        <v>1018</v>
       </c>
       <c r="J272" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
         <v>1021</v>
       </c>
@@ -12575,23 +12575,23 @@
       <c r="D273" t="s">
         <v>14</v>
       </c>
-      <c r="F273" t="s">
+      <c r="E273" t="s">
         <v>1015</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="s">
         <v>1016</v>
       </c>
-      <c r="H273" t="s">
+      <c r="I273" t="s">
         <v>1017</v>
-      </c>
-      <c r="I273" t="s">
-        <v>1018</v>
       </c>
       <c r="J273" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
         <v>1024</v>
       </c>
@@ -12601,23 +12601,23 @@
       <c r="D274" t="s">
         <v>14</v>
       </c>
-      <c r="F274" t="s">
+      <c r="E274" t="s">
         <v>1015</v>
       </c>
-      <c r="G274" t="s">
+      <c r="H274" t="s">
         <v>1016</v>
       </c>
-      <c r="H274" t="s">
+      <c r="I274" t="s">
         <v>1017</v>
-      </c>
-      <c r="I274" t="s">
-        <v>1018</v>
       </c>
       <c r="J274" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
         <v>1026</v>
       </c>
@@ -12630,23 +12630,23 @@
       <c r="D275" t="s">
         <v>14</v>
       </c>
-      <c r="F275" t="s">
+      <c r="E275" t="s">
         <v>1015</v>
       </c>
-      <c r="G275" t="s">
+      <c r="H275" t="s">
         <v>1016</v>
       </c>
-      <c r="H275" t="s">
+      <c r="I275" t="s">
         <v>1017</v>
-      </c>
-      <c r="I275" t="s">
-        <v>1018</v>
       </c>
       <c r="J275" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
         <v>1029</v>
       </c>
@@ -12659,23 +12659,23 @@
       <c r="D276" t="s">
         <v>14</v>
       </c>
-      <c r="F276" t="s">
+      <c r="E276" t="s">
         <v>1015</v>
       </c>
-      <c r="G276" t="s">
+      <c r="H276" t="s">
         <v>1016</v>
       </c>
-      <c r="H276" t="s">
+      <c r="I276" t="s">
         <v>1017</v>
-      </c>
-      <c r="I276" t="s">
-        <v>1018</v>
       </c>
       <c r="J276" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
         <v>1032</v>
       </c>
@@ -12688,23 +12688,23 @@
       <c r="D277" t="s">
         <v>14</v>
       </c>
-      <c r="F277" t="s">
+      <c r="E277" t="s">
         <v>1015</v>
       </c>
-      <c r="G277" t="s">
+      <c r="H277" t="s">
         <v>1016</v>
       </c>
-      <c r="H277" t="s">
+      <c r="I277" t="s">
         <v>1017</v>
-      </c>
-      <c r="I277" t="s">
-        <v>1018</v>
       </c>
       <c r="J277" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>1035</v>
       </c>
@@ -12717,23 +12717,23 @@
       <c r="D278" t="s">
         <v>14</v>
       </c>
-      <c r="F278" t="s">
+      <c r="E278" t="s">
         <v>1038</v>
       </c>
-      <c r="G278" t="s">
+      <c r="H278" t="s">
         <v>421</v>
       </c>
-      <c r="H278" t="s">
+      <c r="I278" t="s">
         <v>422</v>
-      </c>
-      <c r="I278" t="s">
-        <v>1039</v>
       </c>
       <c r="J278" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>1040</v>
       </c>
@@ -12746,23 +12746,23 @@
       <c r="D279" t="s">
         <v>14</v>
       </c>
-      <c r="F279" t="s">
+      <c r="E279" t="s">
         <v>1038</v>
-      </c>
-      <c r="G279" t="s">
-        <v>94</v>
       </c>
       <c r="H279" t="s">
         <v>95</v>
       </c>
       <c r="I279" t="s">
-        <v>1039</v>
+        <v>96</v>
       </c>
       <c r="J279" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>1043</v>
       </c>
@@ -12775,23 +12775,23 @@
       <c r="D280" t="s">
         <v>14</v>
       </c>
-      <c r="F280" t="s">
+      <c r="E280" t="s">
         <v>1038</v>
-      </c>
-      <c r="G280" t="s">
-        <v>17</v>
       </c>
       <c r="H280" t="s">
         <v>18</v>
       </c>
       <c r="I280" t="s">
-        <v>1039</v>
+        <v>19</v>
       </c>
       <c r="J280" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>1046</v>
       </c>
@@ -12804,23 +12804,23 @@
       <c r="D281" t="s">
         <v>14</v>
       </c>
-      <c r="F281" t="s">
+      <c r="E281" t="s">
         <v>1038</v>
       </c>
-      <c r="G281" t="s">
+      <c r="H281" t="s">
         <v>352</v>
       </c>
-      <c r="H281" t="s">
+      <c r="I281" t="s">
         <v>353</v>
-      </c>
-      <c r="I281" t="s">
-        <v>1039</v>
       </c>
       <c r="J281" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>1049</v>
       </c>
@@ -12833,23 +12833,23 @@
       <c r="D282" t="s">
         <v>14</v>
       </c>
-      <c r="F282" t="s">
+      <c r="E282" t="s">
         <v>1038</v>
       </c>
-      <c r="G282" t="s">
+      <c r="H282" t="s">
         <v>253</v>
       </c>
-      <c r="H282" t="s">
+      <c r="I282" t="s">
         <v>254</v>
-      </c>
-      <c r="I282" t="s">
-        <v>1039</v>
       </c>
       <c r="J282" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>1052</v>
       </c>
@@ -12862,23 +12862,23 @@
       <c r="D283" t="s">
         <v>14</v>
       </c>
-      <c r="F283" t="s">
+      <c r="E283" t="s">
         <v>1055</v>
-      </c>
-      <c r="G283" t="s">
-        <v>893</v>
       </c>
       <c r="H283" t="s">
         <v>804</v>
       </c>
       <c r="I283" t="s">
-        <v>1056</v>
+        <v>894</v>
       </c>
       <c r="J283" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>1057</v>
       </c>
@@ -12891,23 +12891,23 @@
       <c r="D284" t="s">
         <v>14</v>
       </c>
-      <c r="F284" t="s">
+      <c r="E284" t="s">
         <v>1060</v>
       </c>
-      <c r="G284" t="s">
+      <c r="H284" t="s">
         <v>253</v>
       </c>
-      <c r="H284" t="s">
+      <c r="I284" t="s">
         <v>254</v>
-      </c>
-      <c r="I284" t="s">
-        <v>1061</v>
       </c>
       <c r="J284" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>1062</v>
       </c>
@@ -12917,23 +12917,23 @@
       <c r="D285" t="s">
         <v>14</v>
       </c>
-      <c r="F285" t="s">
+      <c r="E285" t="s">
         <v>1064</v>
       </c>
-      <c r="G285" t="s">
+      <c r="H285" t="s">
         <v>352</v>
       </c>
-      <c r="H285" t="s">
+      <c r="I285" t="s">
         <v>353</v>
-      </c>
-      <c r="I285" t="s">
-        <v>1065</v>
       </c>
       <c r="J285" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>1066</v>
       </c>
@@ -12946,23 +12946,23 @@
       <c r="D286" t="s">
         <v>14</v>
       </c>
-      <c r="F286" t="s">
+      <c r="E286" t="s">
         <v>1069</v>
       </c>
-      <c r="G286" t="s">
+      <c r="H286" t="s">
         <v>981</v>
       </c>
-      <c r="H286" t="s">
+      <c r="I286" t="s">
         <v>982</v>
-      </c>
-      <c r="I286" t="s">
-        <v>1070</v>
       </c>
       <c r="J286" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>1071</v>
       </c>
@@ -12975,23 +12975,23 @@
       <c r="D287" t="s">
         <v>14</v>
       </c>
-      <c r="F287" t="s">
+      <c r="E287" t="s">
         <v>1069</v>
       </c>
-      <c r="G287" t="s">
+      <c r="H287" t="s">
         <v>981</v>
       </c>
-      <c r="H287" t="s">
+      <c r="I287" t="s">
         <v>982</v>
-      </c>
-      <c r="I287" t="s">
-        <v>1070</v>
       </c>
       <c r="J287" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>1074</v>
       </c>
@@ -13004,23 +13004,23 @@
       <c r="D288" t="s">
         <v>14</v>
       </c>
-      <c r="F288" t="s">
+      <c r="E288" t="s">
         <v>1069</v>
       </c>
-      <c r="G288" t="s">
+      <c r="H288" t="s">
         <v>75</v>
       </c>
-      <c r="H288" t="s">
+      <c r="I288" t="s">
         <v>76</v>
-      </c>
-      <c r="I288" t="s">
-        <v>1070</v>
       </c>
       <c r="J288" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>1077</v>
       </c>
@@ -13033,23 +13033,23 @@
       <c r="D289" t="s">
         <v>14</v>
       </c>
-      <c r="F289" t="s">
+      <c r="E289" t="s">
         <v>1069</v>
       </c>
-      <c r="G289" t="s">
+      <c r="H289" t="s">
         <v>58</v>
       </c>
-      <c r="H289" t="s">
+      <c r="I289" t="s">
         <v>59</v>
-      </c>
-      <c r="I289" t="s">
-        <v>1070</v>
       </c>
       <c r="J289" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>1080</v>
       </c>
@@ -13062,23 +13062,23 @@
       <c r="D290" t="s">
         <v>14</v>
       </c>
-      <c r="F290" t="s">
+      <c r="E290" t="s">
         <v>1069</v>
       </c>
-      <c r="G290" t="s">
+      <c r="H290" t="s">
         <v>58</v>
       </c>
-      <c r="H290" t="s">
+      <c r="I290" t="s">
         <v>59</v>
-      </c>
-      <c r="I290" t="s">
-        <v>1070</v>
       </c>
       <c r="J290" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>1083</v>
       </c>
@@ -13091,23 +13091,23 @@
       <c r="D291" t="s">
         <v>14</v>
       </c>
-      <c r="F291" t="s">
+      <c r="E291" t="s">
         <v>1069</v>
       </c>
-      <c r="G291" t="s">
+      <c r="H291" t="s">
         <v>352</v>
       </c>
-      <c r="H291" t="s">
+      <c r="I291" t="s">
         <v>353</v>
-      </c>
-      <c r="I291" t="s">
-        <v>1070</v>
       </c>
       <c r="J291" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>1086</v>
       </c>
@@ -13120,23 +13120,23 @@
       <c r="D292" t="s">
         <v>14</v>
       </c>
-      <c r="F292" t="s">
+      <c r="E292" t="s">
         <v>1069</v>
       </c>
-      <c r="G292" t="s">
+      <c r="H292" t="s">
         <v>352</v>
       </c>
-      <c r="H292" t="s">
+      <c r="I292" t="s">
         <v>353</v>
-      </c>
-      <c r="I292" t="s">
-        <v>1070</v>
       </c>
       <c r="J292" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>1089</v>
       </c>
@@ -13149,23 +13149,23 @@
       <c r="D293" t="s">
         <v>14</v>
       </c>
-      <c r="F293" t="s">
+      <c r="E293" t="s">
         <v>1069</v>
       </c>
-      <c r="G293" t="s">
+      <c r="H293" t="s">
         <v>352</v>
       </c>
-      <c r="H293" t="s">
+      <c r="I293" t="s">
         <v>353</v>
-      </c>
-      <c r="I293" t="s">
-        <v>1070</v>
       </c>
       <c r="J293" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>1092</v>
       </c>
@@ -13178,23 +13178,23 @@
       <c r="D294" t="s">
         <v>14</v>
       </c>
-      <c r="F294" t="s">
+      <c r="E294" t="s">
         <v>1069</v>
       </c>
-      <c r="G294" t="s">
+      <c r="H294" t="s">
         <v>352</v>
       </c>
-      <c r="H294" t="s">
+      <c r="I294" t="s">
         <v>353</v>
-      </c>
-      <c r="I294" t="s">
-        <v>1070</v>
       </c>
       <c r="J294" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>1095</v>
       </c>
@@ -13207,23 +13207,23 @@
       <c r="D295" t="s">
         <v>14</v>
       </c>
-      <c r="F295" t="s">
+      <c r="E295" t="s">
         <v>1098</v>
       </c>
-      <c r="G295" t="s">
+      <c r="H295" t="s">
         <v>352</v>
       </c>
-      <c r="H295" t="s">
+      <c r="I295" t="s">
         <v>353</v>
-      </c>
-      <c r="I295" t="s">
-        <v>1099</v>
       </c>
       <c r="J295" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>1100</v>
       </c>
@@ -13236,20 +13236,20 @@
       <c r="D296" t="s">
         <v>14</v>
       </c>
-      <c r="F296" t="s">
+      <c r="E296" t="s">
         <v>1098</v>
       </c>
-      <c r="G296" t="s">
+      <c r="H296" t="s">
         <v>352</v>
       </c>
-      <c r="H296" t="s">
+      <c r="I296" t="s">
         <v>353</v>
-      </c>
-      <c r="I296" t="s">
-        <v>1099</v>
       </c>
       <c r="J296" t="s">
         <v>238</v>
+      </c>
+      <c r="K296" t="s">
+        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/en/SectorCOFOG.xlsx
+++ b/api/2/xlsx/en/SectorCOFOG.xlsx
@@ -28,27 +28,27 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
+    <t>codeforiati:cofog-division</t>
   </si>
   <si>
     <t>codeforiati:cofog-group</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>111</t>
+    <t>09 - Education</t>
   </si>
   <si>
     <t>09.8 - Education n.e.c.</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Formal and non-formal primary education for children; all elementary and first cycle systematic instruction; provision of learning materials.</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Basic Education</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>09.1 - Pre‐primary and primary education</t>
   </si>
   <si>
@@ -190,15 +190,15 @@
     <t>Provision of meals or snacks at school; other uses of food for the achievement of educational outcomes including 'take-home' food rations provided as economic incentives to families (or foster families, or other child care institutions) in return for a child's regular attendance at school; food provided to adults or youth who attend literacy or vocational training programmes; food for pre-school activities with an educational component. These activities may help reduce children's hunger during the school day if provision of food/meals contains bioavailable nutrients to address specific nutrition needs and have nutrition expected outcomes in school children, or if the rationale mainstream nutrition or expected outcome is nutrition-linked.</t>
   </si>
   <si>
+    <t>07 - Health</t>
+  </si>
+  <si>
     <t>07.4 - Public health services</t>
   </si>
   <si>
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
-    <t>07 - Health</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>Second cycle systematic instruction at senior levels.</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Secondary Education</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>09.2.2 - Upper‐secondary education (IS)</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>Degree and diploma programmes at universities, colleges and polytechnics; scholarships.</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Post-Secondary Education</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>09.4 - Tertiary education</t>
   </si>
   <si>
@@ -292,24 +292,24 @@
     <t>Health sector policy, planning and programmes; aid to health ministries, public health administration; institution capacity building and advice; medical insurance programmes; including health system strengthening and health governance; unspecified health activities.</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>07.6 - Health n.e.c.</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -367,12 +367,12 @@
     <t>Basic and primary health care programmes; paramedical and nursing care programmes; supply of drugs, medicines and vaccines related to basic health care; activities aimed at achieving universal health coverage.</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Basic Health</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -460,12 +460,12 @@
     <t>Programmes for the prevention and control of NCDs which cannot be broken down into the codes below.</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Non-communicable diseases (NCDs)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -583,18 +583,18 @@
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
     <t>06.3 - Water supply</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -604,15 +604,15 @@
     <t>Collection and usage of quantitative and qualitative data on water resources; creation and sharing of water knowledge; conservation and rehabilitation of inland surface waters (rivers, lakes etc.), ground water and coastal waters; prevention of water contamination.</t>
   </si>
   <si>
+    <t>05 - Environmental protection</t>
+  </si>
+  <si>
     <t>05.6 - Environmental protection n.e.c.</t>
   </si>
   <si>
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>05 - Environmental protection</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -715,27 +715,27 @@
     <t>Institution-building assistance to strengthen core public sector management systems and capacities. This includes general public policy management, co-ordination, planning and reform; human resource management; organisational development; civil service reform; e-government; development planning, monitoring and evaluation; support to ministries involved in aid co-ordination; other ministries and government departments when sector cannot be specified. (Use specific sector codes for development of systems and capacities in sector ministries. For macro-economic policy use code 15142. For public procurement use code 15125.)</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>151</t>
+    <t>01 - General public services</t>
   </si>
   <si>
     <t>01.3 - General services</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -775,15 +775,15 @@
     <t>Specialised organisations, institutions and frameworks for the prevention of and combat against corruption, bribery, money-laundering and other aspects of organised crime, with or without law enforcement powers, e.g. anti-corruption commissions and monitoring bodies, special investigation services, institutions and initiatives of integrity and ethics oversight, specialised NGOs, other civil society and citizens' organisations directly concerned with corruption.</t>
   </si>
   <si>
+    <t>03 - Public order and safety</t>
+  </si>
+  <si>
     <t>03.6 - Public order and safety n.e.c.</t>
   </si>
   <si>
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
-    <t>03 - Public order and safety</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -1027,15 +1027,15 @@
     <t>Support to macroeconomic stability, debt sustainability and structural reforms. Includes technical assistance for strategic formulation of policies, laws and regulation; capacity building to enhance public sector development; policy-based funding. For fiscal policy and domestic revenue mobilisation use codes 15111 and 15114.</t>
   </si>
   <si>
+    <t>04 - Economic affairs</t>
+  </si>
+  <si>
     <t>04.1 - General economic, commercial and labour affairs</t>
   </si>
   <si>
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
-    <t>04 - Economic affairs</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -1147,15 +1147,15 @@
     <t>Support for feminist, women-led and women's rights organisations and movements, and institutions (governmental and non-govermental) at all levels to enhance their effectiveness, influence and substainability (activities and core-funding). These organisations exist to bring about transformative change for gender equality and/or the rights of women and girls in developing countries. Their activities include agenda-setting, advocacy, policy dialogue, capacity development, awareness raising and prevention, service provision, conflict-prevention and peacebuilding, research, organising, and alliance and network building</t>
   </si>
   <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
     <t>10.7 - Social exclusion n.e.c.</t>
   </si>
   <si>
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
-    <t>10 - Social protection</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -1207,12 +1207,12 @@
     <t>Technical co-operation provided to parliament, government ministries, law enforcement agencies and the judiciary to assist review and reform of the security system to improve democratic governance and civilian control; technical co-operation provided to government to improve civilian oversight and democratic control of budgeting, management, accountability and auditing of security expenditure, including military budgets, as part of a public expenditure management programme; assistance to civil society to enhance its competence and capacity to scrutinise the security system so that it is managed in accordance with democratic norms and principles of accountability, transparency and good governance. [Other than in the context of an international peacekeeping operation (15230)].</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflict, Peace &amp; Security</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -1231,15 +1231,15 @@
     <t>Bilateral participation in peacekeeping operations mandated or authorised by the United Nations (UN) through Security Council resolutions, and conducted by international organisations, e.g. UN, NATO, the European Union (Security and Defence Policy security-related operations), or regional groupings of developing countries. Direct contributions to the UN Department for Peacekeeping Operations (UNDPKO) budget are excluded from bilateral ODA (they are reportable in part as multilateral ODA, see Annex 9). The activities that can be reported as bilateral ODA under this code are limited to: human rights and election monitoring; reintegration of demobilised soldiers; rehabilitation of basic national infrastructure; monitoring or retraining of civil administrators and police forces; security sector reform and other rule of law-related activities; training in customs and border control procedures; advice or training in fiscal or macroeconomic stabilisation policy; repatriation and demobilisation of armed factions, and disposal of their weapons; explosive mine removal. The enforcement aspects of international peacekeeping operations are not reportable as ODA. ODA-eligible bilateral participation in peacekeeping operations can take the form of financing or provision of equipment or military or civilian personnel (e.g. police officers). The reportable cost is calculated as the excess over what the personnel and equipment would have cost to maintain had they not been assigned to take part in a peace operation. Costs for military contingents participating in UNDPKO peacekeeping operations are not reportable as ODA. International peacekeeping operations may include humanitarian-type activities (contributions to the form of equipment or personnel), as described in codes 7xxxx. These should be included under code 15230 if they are an integrated part of the activities above, otherwise they should be reported as humanitarian aid. NB: When using this code, indicate the name of the operation in the short description of the activity reported.</t>
   </si>
   <si>
+    <t>02 - Defence</t>
+  </si>
+  <si>
     <t>02.3 - Foreign military aid</t>
   </si>
   <si>
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
-    <t>02 - Defence</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -1282,12 +1282,12 @@
     <t>10.9 - Social protection n.e.c.</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -1402,15 +1402,15 @@
     <t>Including libraries and museums.</t>
   </si>
   <si>
+    <t>08 - Recreation, culture and religion</t>
+  </si>
+  <si>
     <t>08.2 - Cultural services</t>
   </si>
   <si>
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
-    <t>08 - Recreation, culture and religion</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -1708,24 +1708,24 @@
     <t>Energy sector policy, planning; aid to energy ministries and other governmental or nongovernmental institutions for activities related to the SDG7; institution capacity building and advice; tariffs, market building, unspecified energy activities; energy activities for which a more specific code cannot be assigned.</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>04.3 - Fuel and energy</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -1783,12 +1783,12 @@
     <t>Renewable energy generation programmes that cannot be attributed to one single technology (codes 23220 through 23280 below). Fuelwood/charcoal production should be included under forestry 31261.</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Energy generation, renewable sources</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -1870,12 +1870,12 @@
     <t>Thermal power plants including when energy source cannot be determined; combined gas-coal power plants.</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Energy generation, non-renewable sources</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -1933,12 +1933,12 @@
     <t>Electric power plants that make use of both non-renewable and renewable energy sources.</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Hybrid energy plants</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
@@ -1963,12 +1963,12 @@
     <t>Power plants which are designed to produce heat only.</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Energy distribution</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -2131,24 +2131,24 @@
     <t>Agricultural sector policy, planning and programmes; aid to agricultural ministries; institution capacity building and advice; unspecified agriculture.</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>04.2 - Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -2311,12 +2311,12 @@
     <t>Forestry sector policy, planning and programmes; institution capacity building and advice; forest surveys; unspecified forestry and agro-forestry activities.</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Forestry</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>04.2.2 - Forestry (CS)</t>
   </si>
   <si>
@@ -2368,12 +2368,12 @@
     <t>Fishing sector policy, planning and programmes; institution capacity building and advice; ocean and coastal fishing; marine and freshwater fish surveys and prospecting; fishing boats/equipment; unspecified fishing activities.</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>04.2.3 - Fishing and hunting (CS)</t>
   </si>
   <si>
@@ -2419,24 +2419,24 @@
     <t>Industrial sector policy, planning and programmes; institution capacity building and advice; unspecified industrial activities; manufacturing of goods not specified below.</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>04.4 - Mining, manufacturing and construction</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -2593,12 +2593,12 @@
     <t>Mineral and mining sector policy, planning and programmes; mining legislation, mining cadastre, mineral resources inventory, information systems, institution capacity building and advice; unspecified mineral resources exploitation.</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Mineral Resources &amp; Mining</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
   </si>
   <si>
@@ -2692,12 +2692,12 @@
     <t>Construction sector policy and planning; excluding construction activities within specific sectors (e.g., hospital or school construction).</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>04.4.3 - Construction (CS)</t>
   </si>
   <si>
@@ -2710,12 +2710,12 @@
     <t>Trade policy and planning; support to ministries and departments responsible for trade policy; trade-related legislation and regulatory reforms; policy analysis and implementation of multilateral trade agreements e.g. technical barriers to trade and sanitary and phytosanitary measures (TBT/SPS) except at regional level (see 33130); mainstreaming trade in national development strategies (e.g. poverty reduction strategy papers); wholesale/retail trade; unspecified trade and trade promotion activities.</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>330</t>
   </si>
   <si>
@@ -2770,12 +2770,12 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>04.7.3 - Tourism (CS)</t>
   </si>
   <si>
@@ -2854,12 +2854,12 @@
     <t>04.9 - Economic affairs n.e.c.</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -3067,10 +3067,10 @@
     <t>01.7 - Public debt transactions</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
-    <t>600</t>
   </si>
   <si>
     <t>60020</t>
@@ -3753,16 +3753,16 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3823,16 +3823,16 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3849,25 +3849,25 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>39</v>
       </c>
       <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3884,10 +3884,10 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>39</v>
@@ -3919,25 +3919,25 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>39</v>
       </c>
       <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3954,25 +3954,25 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
       </c>
       <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3989,25 +3989,25 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
       </c>
       <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4024,10 +4024,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -4039,10 +4039,10 @@
         <v>59</v>
       </c>
       <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4059,25 +4059,25 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>39</v>
       </c>
       <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
         <v>64</v>
-      </c>
-      <c r="I12" t="s">
-        <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4094,25 +4094,25 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
       </c>
       <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
         <v>64</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4129,25 +4129,25 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>70</v>
       </c>
       <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
         <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4164,25 +4164,25 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>81</v>
       </c>
       <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
         <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4199,25 +4199,25 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>81</v>
       </c>
       <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
         <v>87</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4243,13 +4243,13 @@
         <v>94</v>
       </c>
       <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
         <v>95</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>96</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
       </c>
       <c r="K17" t="s">
         <v>97</v>
@@ -4278,13 +4278,13 @@
         <v>94</v>
       </c>
       <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
         <v>95</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>96</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
       </c>
       <c r="K18" t="s">
         <v>97</v>
@@ -4313,16 +4313,16 @@
         <v>94</v>
       </c>
       <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
         <v>104</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" t="s">
         <v>105</v>
-      </c>
-      <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4348,16 +4348,16 @@
         <v>94</v>
       </c>
       <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
         <v>109</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" t="s">
         <v>110</v>
-      </c>
-      <c r="J20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4383,13 +4383,13 @@
         <v>94</v>
       </c>
       <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
         <v>95</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>96</v>
-      </c>
-      <c r="J21" t="s">
-        <v>60</v>
       </c>
       <c r="K21" t="s">
         <v>97</v>
@@ -4409,10 +4409,10 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
         <v>118</v>
@@ -4424,10 +4424,10 @@
         <v>59</v>
       </c>
       <c r="J22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
         <v>60</v>
-      </c>
-      <c r="K22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4444,25 +4444,25 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
         <v>118</v>
       </c>
       <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
         <v>122</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
         <v>123</v>
-      </c>
-      <c r="J23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4479,10 +4479,10 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
         <v>118</v>
@@ -4494,10 +4494,10 @@
         <v>59</v>
       </c>
       <c r="J24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s">
         <v>60</v>
-      </c>
-      <c r="K24" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4514,10 +4514,10 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
         <v>118</v>
@@ -4529,10 +4529,10 @@
         <v>59</v>
       </c>
       <c r="J25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" t="s">
         <v>60</v>
-      </c>
-      <c r="K25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4549,10 +4549,10 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
         <v>118</v>
@@ -4564,10 +4564,10 @@
         <v>59</v>
       </c>
       <c r="J26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" t="s">
         <v>60</v>
-      </c>
-      <c r="K26" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4584,10 +4584,10 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
         <v>118</v>
@@ -4599,10 +4599,10 @@
         <v>59</v>
       </c>
       <c r="J27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" t="s">
         <v>60</v>
-      </c>
-      <c r="K27" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4619,10 +4619,10 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
         <v>118</v>
@@ -4634,10 +4634,10 @@
         <v>59</v>
       </c>
       <c r="J28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" t="s">
         <v>60</v>
-      </c>
-      <c r="K28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4654,10 +4654,10 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
         <v>118</v>
@@ -4669,10 +4669,10 @@
         <v>59</v>
       </c>
       <c r="J29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" t="s">
         <v>60</v>
-      </c>
-      <c r="K29" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4689,22 +4689,22 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
         <v>118</v>
       </c>
       <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" t="s">
         <v>95</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>96</v>
-      </c>
-      <c r="J30" t="s">
-        <v>60</v>
       </c>
       <c r="K30" t="s">
         <v>97</v>
@@ -4724,10 +4724,10 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
         <v>149</v>
@@ -4739,10 +4739,10 @@
         <v>59</v>
       </c>
       <c r="J31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" t="s">
         <v>60</v>
-      </c>
-      <c r="K31" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4759,10 +4759,10 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
         <v>149</v>
@@ -4774,10 +4774,10 @@
         <v>59</v>
       </c>
       <c r="J32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" t="s">
         <v>60</v>
-      </c>
-      <c r="K32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4794,10 +4794,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
         <v>149</v>
@@ -4809,10 +4809,10 @@
         <v>59</v>
       </c>
       <c r="J33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" t="s">
         <v>60</v>
-      </c>
-      <c r="K33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4829,10 +4829,10 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
         <v>149</v>
@@ -4844,10 +4844,10 @@
         <v>59</v>
       </c>
       <c r="J34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s">
         <v>60</v>
-      </c>
-      <c r="K34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4864,10 +4864,10 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
         <v>149</v>
@@ -4879,10 +4879,10 @@
         <v>59</v>
       </c>
       <c r="J35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" t="s">
         <v>60</v>
-      </c>
-      <c r="K35" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4899,25 +4899,25 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
         <v>149</v>
       </c>
       <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s">
         <v>104</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" t="s">
         <v>105</v>
-      </c>
-      <c r="J36" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4933,7 +4933,7 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>168</v>
       </c>
       <c r="H37" t="s">
@@ -4943,10 +4943,10 @@
         <v>59</v>
       </c>
       <c r="J37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s">
         <v>60</v>
-      </c>
-      <c r="K37" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4962,7 +4962,7 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>168</v>
       </c>
       <c r="H38" t="s">
@@ -4972,10 +4972,10 @@
         <v>59</v>
       </c>
       <c r="J38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
         <v>60</v>
-      </c>
-      <c r="K38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4991,7 +4991,7 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>168</v>
       </c>
       <c r="H39" t="s">
@@ -5001,10 +5001,10 @@
         <v>59</v>
       </c>
       <c r="J39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" t="s">
         <v>60</v>
-      </c>
-      <c r="K39" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5020,7 +5020,7 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>168</v>
       </c>
       <c r="H40" t="s">
@@ -5030,10 +5030,10 @@
         <v>59</v>
       </c>
       <c r="J40" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" t="s">
         <v>60</v>
-      </c>
-      <c r="K40" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5049,20 +5049,20 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>168</v>
       </c>
       <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
         <v>95</v>
       </c>
-      <c r="I41" t="s">
-        <v>96</v>
-      </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5078,20 +5078,20 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>168</v>
       </c>
       <c r="H42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" t="s">
         <v>104</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s">
         <v>105</v>
-      </c>
-      <c r="J42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5107,7 +5107,7 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>188</v>
       </c>
       <c r="H43" t="s">
@@ -5136,7 +5136,7 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>188</v>
       </c>
       <c r="H44" t="s">
@@ -5146,10 +5146,10 @@
         <v>197</v>
       </c>
       <c r="J44" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" t="s">
         <v>198</v>
-      </c>
-      <c r="K44" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5165,7 +5165,7 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>188</v>
       </c>
       <c r="H45" t="s">
@@ -5194,7 +5194,7 @@
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>188</v>
       </c>
       <c r="H46" t="s">
@@ -5223,20 +5223,20 @@
       <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>188</v>
       </c>
       <c r="H47" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" t="s">
         <v>208</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
+        <v>191</v>
+      </c>
+      <c r="K47" t="s">
         <v>209</v>
-      </c>
-      <c r="J47" t="s">
-        <v>198</v>
-      </c>
-      <c r="K47" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5252,7 +5252,7 @@
       <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>188</v>
       </c>
       <c r="H48" t="s">
@@ -5281,7 +5281,7 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>188</v>
       </c>
       <c r="H49" t="s">
@@ -5310,20 +5310,20 @@
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>188</v>
       </c>
       <c r="H50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" t="s">
         <v>208</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" t="s">
         <v>209</v>
-      </c>
-      <c r="J50" t="s">
-        <v>198</v>
-      </c>
-      <c r="K50" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5339,7 +5339,7 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>188</v>
       </c>
       <c r="H51" t="s">
@@ -5368,20 +5368,20 @@
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>188</v>
       </c>
       <c r="H52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" t="s">
         <v>225</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" t="s">
         <v>226</v>
-      </c>
-      <c r="J52" t="s">
-        <v>198</v>
-      </c>
-      <c r="K52" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5397,7 +5397,7 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>188</v>
       </c>
       <c r="H53" t="s">
@@ -5407,10 +5407,10 @@
         <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="K53" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5471,16 +5471,16 @@
         <v>235</v>
       </c>
       <c r="H55" t="s">
+        <v>236</v>
+      </c>
+      <c r="I55" t="s">
         <v>243</v>
-      </c>
-      <c r="I55" t="s">
-        <v>244</v>
       </c>
       <c r="J55" t="s">
         <v>238</v>
       </c>
       <c r="K55" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5506,16 +5506,16 @@
         <v>235</v>
       </c>
       <c r="H56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I56" t="s">
         <v>248</v>
-      </c>
-      <c r="I56" t="s">
-        <v>249</v>
       </c>
       <c r="J56" t="s">
         <v>238</v>
       </c>
       <c r="K56" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5547,10 +5547,10 @@
         <v>254</v>
       </c>
       <c r="J57" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" t="s">
         <v>255</v>
-      </c>
-      <c r="K57" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5576,16 +5576,16 @@
         <v>235</v>
       </c>
       <c r="H58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I58" t="s">
         <v>243</v>
-      </c>
-      <c r="I58" t="s">
-        <v>244</v>
       </c>
       <c r="J58" t="s">
         <v>238</v>
       </c>
       <c r="K58" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5611,16 +5611,16 @@
         <v>235</v>
       </c>
       <c r="H59" t="s">
+        <v>236</v>
+      </c>
+      <c r="I59" t="s">
         <v>243</v>
-      </c>
-      <c r="I59" t="s">
-        <v>244</v>
       </c>
       <c r="J59" t="s">
         <v>238</v>
       </c>
       <c r="K59" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5646,16 +5646,16 @@
         <v>235</v>
       </c>
       <c r="H60" t="s">
+        <v>236</v>
+      </c>
+      <c r="I60" t="s">
         <v>243</v>
-      </c>
-      <c r="I60" t="s">
-        <v>244</v>
       </c>
       <c r="J60" t="s">
         <v>238</v>
       </c>
       <c r="K60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5681,16 +5681,16 @@
         <v>235</v>
       </c>
       <c r="H61" t="s">
+        <v>236</v>
+      </c>
+      <c r="I61" t="s">
         <v>243</v>
-      </c>
-      <c r="I61" t="s">
-        <v>244</v>
       </c>
       <c r="J61" t="s">
         <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5716,16 +5716,16 @@
         <v>235</v>
       </c>
       <c r="H62" t="s">
+        <v>236</v>
+      </c>
+      <c r="I62" t="s">
         <v>243</v>
-      </c>
-      <c r="I62" t="s">
-        <v>244</v>
       </c>
       <c r="J62" t="s">
         <v>238</v>
       </c>
       <c r="K62" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5751,16 +5751,16 @@
         <v>235</v>
       </c>
       <c r="H63" t="s">
+        <v>236</v>
+      </c>
+      <c r="I63" t="s">
         <v>243</v>
-      </c>
-      <c r="I63" t="s">
-        <v>274</v>
       </c>
       <c r="J63" t="s">
         <v>238</v>
       </c>
       <c r="K63" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5786,16 +5786,16 @@
         <v>235</v>
       </c>
       <c r="H64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I64" t="s">
         <v>243</v>
-      </c>
-      <c r="I64" t="s">
-        <v>274</v>
       </c>
       <c r="J64" t="s">
         <v>238</v>
       </c>
       <c r="K64" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5821,16 +5821,16 @@
         <v>235</v>
       </c>
       <c r="H65" t="s">
+        <v>236</v>
+      </c>
+      <c r="I65" t="s">
         <v>281</v>
-      </c>
-      <c r="I65" t="s">
-        <v>282</v>
       </c>
       <c r="J65" t="s">
         <v>238</v>
       </c>
       <c r="K65" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5891,16 +5891,16 @@
         <v>235</v>
       </c>
       <c r="H67" t="s">
+        <v>236</v>
+      </c>
+      <c r="I67" t="s">
         <v>243</v>
-      </c>
-      <c r="I67" t="s">
-        <v>244</v>
       </c>
       <c r="J67" t="s">
         <v>238</v>
       </c>
       <c r="K67" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5929,13 +5929,13 @@
         <v>236</v>
       </c>
       <c r="I68" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="J68" t="s">
         <v>238</v>
       </c>
       <c r="K68" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -5964,13 +5964,13 @@
         <v>236</v>
       </c>
       <c r="I69" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="J69" t="s">
         <v>238</v>
       </c>
       <c r="K69" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -5996,16 +5996,16 @@
         <v>235</v>
       </c>
       <c r="H70" t="s">
+        <v>236</v>
+      </c>
+      <c r="I70" t="s">
         <v>248</v>
-      </c>
-      <c r="I70" t="s">
-        <v>249</v>
       </c>
       <c r="J70" t="s">
         <v>238</v>
       </c>
       <c r="K70" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6031,16 +6031,16 @@
         <v>235</v>
       </c>
       <c r="H71" t="s">
+        <v>236</v>
+      </c>
+      <c r="I71" t="s">
         <v>248</v>
-      </c>
-      <c r="I71" t="s">
-        <v>249</v>
       </c>
       <c r="J71" t="s">
         <v>238</v>
       </c>
       <c r="K71" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6101,16 +6101,16 @@
         <v>235</v>
       </c>
       <c r="H73" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73" t="s">
         <v>309</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
+        <v>238</v>
+      </c>
+      <c r="K73" t="s">
         <v>310</v>
-      </c>
-      <c r="J73" t="s">
-        <v>255</v>
-      </c>
-      <c r="K73" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6136,16 +6136,16 @@
         <v>235</v>
       </c>
       <c r="H74" t="s">
+        <v>253</v>
+      </c>
+      <c r="I74" t="s">
         <v>314</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
+        <v>238</v>
+      </c>
+      <c r="K74" t="s">
         <v>315</v>
-      </c>
-      <c r="J74" t="s">
-        <v>255</v>
-      </c>
-      <c r="K74" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6171,16 +6171,16 @@
         <v>235</v>
       </c>
       <c r="H75" t="s">
+        <v>253</v>
+      </c>
+      <c r="I75" t="s">
         <v>319</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
+        <v>238</v>
+      </c>
+      <c r="K75" t="s">
         <v>320</v>
-      </c>
-      <c r="J75" t="s">
-        <v>255</v>
-      </c>
-      <c r="K75" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6206,16 +6206,16 @@
         <v>235</v>
       </c>
       <c r="H76" t="s">
+        <v>253</v>
+      </c>
+      <c r="I76" t="s">
         <v>309</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
+        <v>238</v>
+      </c>
+      <c r="K76" t="s">
         <v>310</v>
-      </c>
-      <c r="J76" t="s">
-        <v>255</v>
-      </c>
-      <c r="K76" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6241,16 +6241,16 @@
         <v>235</v>
       </c>
       <c r="H77" t="s">
+        <v>253</v>
+      </c>
+      <c r="I77" t="s">
         <v>309</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
+        <v>238</v>
+      </c>
+      <c r="K77" t="s">
         <v>310</v>
-      </c>
-      <c r="J77" t="s">
-        <v>255</v>
-      </c>
-      <c r="K77" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6276,16 +6276,16 @@
         <v>235</v>
       </c>
       <c r="H78" t="s">
+        <v>253</v>
+      </c>
+      <c r="I78" t="s">
         <v>314</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
+        <v>238</v>
+      </c>
+      <c r="K78" t="s">
         <v>315</v>
-      </c>
-      <c r="J78" t="s">
-        <v>255</v>
-      </c>
-      <c r="K78" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6308,16 +6308,16 @@
         <v>235</v>
       </c>
       <c r="H79" t="s">
+        <v>253</v>
+      </c>
+      <c r="I79" t="s">
         <v>332</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
+        <v>238</v>
+      </c>
+      <c r="K79" t="s">
         <v>333</v>
-      </c>
-      <c r="J79" t="s">
-        <v>255</v>
-      </c>
-      <c r="K79" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6349,10 +6349,10 @@
         <v>338</v>
       </c>
       <c r="J80" t="s">
+        <v>238</v>
+      </c>
+      <c r="K80" t="s">
         <v>339</v>
-      </c>
-      <c r="K80" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6384,10 +6384,10 @@
         <v>338</v>
       </c>
       <c r="J81" t="s">
+        <v>238</v>
+      </c>
+      <c r="K81" t="s">
         <v>339</v>
-      </c>
-      <c r="K81" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6419,10 +6419,10 @@
         <v>338</v>
       </c>
       <c r="J82" t="s">
+        <v>238</v>
+      </c>
+      <c r="K82" t="s">
         <v>339</v>
-      </c>
-      <c r="K82" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6451,13 +6451,13 @@
         <v>236</v>
       </c>
       <c r="I83" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="J83" t="s">
         <v>238</v>
       </c>
       <c r="K83" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -6483,16 +6483,16 @@
         <v>235</v>
       </c>
       <c r="H84" t="s">
+        <v>236</v>
+      </c>
+      <c r="I84" t="s">
         <v>352</v>
-      </c>
-      <c r="I84" t="s">
-        <v>353</v>
       </c>
       <c r="J84" t="s">
         <v>238</v>
       </c>
       <c r="K84" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6518,16 +6518,16 @@
         <v>235</v>
       </c>
       <c r="H85" t="s">
+        <v>236</v>
+      </c>
+      <c r="I85" t="s">
         <v>243</v>
-      </c>
-      <c r="I85" t="s">
-        <v>357</v>
       </c>
       <c r="J85" t="s">
         <v>238</v>
       </c>
       <c r="K85" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6553,16 +6553,16 @@
         <v>235</v>
       </c>
       <c r="H86" t="s">
+        <v>337</v>
+      </c>
+      <c r="I86" t="s">
         <v>361</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
+        <v>238</v>
+      </c>
+      <c r="K86" t="s">
         <v>362</v>
-      </c>
-      <c r="J86" t="s">
-        <v>339</v>
-      </c>
-      <c r="K86" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6588,16 +6588,16 @@
         <v>235</v>
       </c>
       <c r="H87" t="s">
+        <v>236</v>
+      </c>
+      <c r="I87" t="s">
         <v>243</v>
-      </c>
-      <c r="I87" t="s">
-        <v>357</v>
       </c>
       <c r="J87" t="s">
         <v>238</v>
       </c>
       <c r="K87" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6620,16 +6620,16 @@
         <v>235</v>
       </c>
       <c r="H88" t="s">
+        <v>236</v>
+      </c>
+      <c r="I88" t="s">
         <v>243</v>
-      </c>
-      <c r="I88" t="s">
-        <v>244</v>
       </c>
       <c r="J88" t="s">
         <v>238</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6655,16 +6655,16 @@
         <v>235</v>
       </c>
       <c r="H89" t="s">
+        <v>236</v>
+      </c>
+      <c r="I89" t="s">
         <v>243</v>
-      </c>
-      <c r="I89" t="s">
-        <v>244</v>
       </c>
       <c r="J89" t="s">
         <v>238</v>
       </c>
       <c r="K89" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6696,10 +6696,10 @@
         <v>254</v>
       </c>
       <c r="J90" t="s">
+        <v>238</v>
+      </c>
+      <c r="K90" t="s">
         <v>255</v>
-      </c>
-      <c r="K90" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6731,10 +6731,10 @@
         <v>378</v>
       </c>
       <c r="J91" t="s">
+        <v>238</v>
+      </c>
+      <c r="K91" t="s">
         <v>379</v>
-      </c>
-      <c r="K91" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6766,10 +6766,10 @@
         <v>254</v>
       </c>
       <c r="J92" t="s">
+        <v>238</v>
+      </c>
+      <c r="K92" t="s">
         <v>255</v>
-      </c>
-      <c r="K92" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -6795,16 +6795,16 @@
         <v>235</v>
       </c>
       <c r="H93" t="s">
+        <v>236</v>
+      </c>
+      <c r="I93" t="s">
         <v>248</v>
-      </c>
-      <c r="I93" t="s">
-        <v>249</v>
       </c>
       <c r="J93" t="s">
         <v>238</v>
       </c>
       <c r="K93" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -6836,10 +6836,10 @@
         <v>254</v>
       </c>
       <c r="J94" t="s">
+        <v>238</v>
+      </c>
+      <c r="K94" t="s">
         <v>255</v>
-      </c>
-      <c r="K94" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -6865,16 +6865,16 @@
         <v>235</v>
       </c>
       <c r="H95" t="s">
+        <v>236</v>
+      </c>
+      <c r="I95" t="s">
         <v>392</v>
-      </c>
-      <c r="I95" t="s">
-        <v>393</v>
       </c>
       <c r="J95" t="s">
         <v>238</v>
       </c>
       <c r="K95" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -6891,10 +6891,10 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="F96" t="s">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="G96" t="s">
         <v>398</v>
@@ -6906,10 +6906,10 @@
         <v>254</v>
       </c>
       <c r="J96" t="s">
+        <v>238</v>
+      </c>
+      <c r="K96" t="s">
         <v>255</v>
-      </c>
-      <c r="K96" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6926,10 +6926,10 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="F97" t="s">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="G97" t="s">
         <v>398</v>
@@ -6941,10 +6941,10 @@
         <v>254</v>
       </c>
       <c r="J97" t="s">
+        <v>238</v>
+      </c>
+      <c r="K97" t="s">
         <v>255</v>
-      </c>
-      <c r="K97" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6961,10 +6961,10 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="F98" t="s">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="G98" t="s">
         <v>398</v>
@@ -6976,10 +6976,10 @@
         <v>406</v>
       </c>
       <c r="J98" t="s">
+        <v>238</v>
+      </c>
+      <c r="K98" t="s">
         <v>407</v>
-      </c>
-      <c r="K98" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6996,10 +6996,10 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="F99" t="s">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="G99" t="s">
         <v>398</v>
@@ -7011,10 +7011,10 @@
         <v>254</v>
       </c>
       <c r="J99" t="s">
+        <v>238</v>
+      </c>
+      <c r="K99" t="s">
         <v>255</v>
-      </c>
-      <c r="K99" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7031,25 +7031,25 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="F100" t="s">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="G100" t="s">
         <v>398</v>
       </c>
       <c r="H100" t="s">
+        <v>253</v>
+      </c>
+      <c r="I100" t="s">
         <v>319</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
+        <v>238</v>
+      </c>
+      <c r="K100" t="s">
         <v>320</v>
-      </c>
-      <c r="J100" t="s">
-        <v>255</v>
-      </c>
-      <c r="K100" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7066,10 +7066,10 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="F101" t="s">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
         <v>398</v>
@@ -7081,10 +7081,10 @@
         <v>254</v>
       </c>
       <c r="J101" t="s">
+        <v>238</v>
+      </c>
+      <c r="K101" t="s">
         <v>255</v>
-      </c>
-      <c r="K101" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7100,17 +7100,17 @@
       <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>420</v>
       </c>
       <c r="H102" t="s">
+        <v>377</v>
+      </c>
+      <c r="I102" t="s">
         <v>421</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>422</v>
-      </c>
-      <c r="J102" t="s">
-        <v>379</v>
       </c>
       <c r="K102" t="s">
         <v>423</v>
@@ -7129,17 +7129,17 @@
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>420</v>
       </c>
       <c r="H103" t="s">
+        <v>377</v>
+      </c>
+      <c r="I103" t="s">
         <v>421</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>422</v>
-      </c>
-      <c r="J103" t="s">
-        <v>379</v>
       </c>
       <c r="K103" t="s">
         <v>423</v>
@@ -7158,17 +7158,17 @@
       <c r="D104" t="s">
         <v>14</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>420</v>
       </c>
       <c r="H104" t="s">
+        <v>377</v>
+      </c>
+      <c r="I104" t="s">
         <v>421</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>422</v>
-      </c>
-      <c r="J104" t="s">
-        <v>379</v>
       </c>
       <c r="K104" t="s">
         <v>423</v>
@@ -7187,20 +7187,20 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>420</v>
       </c>
       <c r="H105" t="s">
+        <v>377</v>
+      </c>
+      <c r="I105" t="s">
         <v>433</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
+        <v>422</v>
+      </c>
+      <c r="K105" t="s">
         <v>434</v>
-      </c>
-      <c r="J105" t="s">
-        <v>379</v>
-      </c>
-      <c r="K105" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7216,17 +7216,17 @@
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>420</v>
       </c>
       <c r="H106" t="s">
+        <v>377</v>
+      </c>
+      <c r="I106" t="s">
         <v>421</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>422</v>
-      </c>
-      <c r="J106" t="s">
-        <v>379</v>
       </c>
       <c r="K106" t="s">
         <v>423</v>
@@ -7245,7 +7245,7 @@
       <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>420</v>
       </c>
       <c r="H107" t="s">
@@ -7255,10 +7255,10 @@
         <v>378</v>
       </c>
       <c r="J107" t="s">
+        <v>422</v>
+      </c>
+      <c r="K107" t="s">
         <v>379</v>
-      </c>
-      <c r="K107" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7274,20 +7274,20 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>420</v>
       </c>
       <c r="H108" t="s">
+        <v>377</v>
+      </c>
+      <c r="I108" t="s">
         <v>444</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
+        <v>422</v>
+      </c>
+      <c r="K108" t="s">
         <v>445</v>
-      </c>
-      <c r="J108" t="s">
-        <v>379</v>
-      </c>
-      <c r="K108" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7303,20 +7303,20 @@
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>420</v>
       </c>
       <c r="H109" t="s">
+        <v>189</v>
+      </c>
+      <c r="I109" t="s">
         <v>449</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
+        <v>422</v>
+      </c>
+      <c r="K109" t="s">
         <v>450</v>
-      </c>
-      <c r="J109" t="s">
-        <v>191</v>
-      </c>
-      <c r="K109" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7332,20 +7332,20 @@
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>420</v>
       </c>
       <c r="H110" t="s">
+        <v>189</v>
+      </c>
+      <c r="I110" t="s">
         <v>454</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
+        <v>422</v>
+      </c>
+      <c r="K110" t="s">
         <v>455</v>
-      </c>
-      <c r="J110" t="s">
-        <v>191</v>
-      </c>
-      <c r="K110" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7361,17 +7361,17 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>420</v>
       </c>
       <c r="H111" t="s">
+        <v>377</v>
+      </c>
+      <c r="I111" t="s">
         <v>421</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>422</v>
-      </c>
-      <c r="J111" t="s">
-        <v>379</v>
       </c>
       <c r="K111" t="s">
         <v>423</v>
@@ -7390,7 +7390,7 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>420</v>
       </c>
       <c r="H112" t="s">
@@ -7400,10 +7400,10 @@
         <v>463</v>
       </c>
       <c r="J112" t="s">
+        <v>422</v>
+      </c>
+      <c r="K112" t="s">
         <v>464</v>
-      </c>
-      <c r="K112" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -7419,20 +7419,20 @@
       <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>420</v>
       </c>
       <c r="H113" t="s">
         <v>236</v>
       </c>
       <c r="I113" t="s">
+        <v>237</v>
+      </c>
+      <c r="J113" t="s">
+        <v>422</v>
+      </c>
+      <c r="K113" t="s">
         <v>296</v>
-      </c>
-      <c r="J113" t="s">
-        <v>238</v>
-      </c>
-      <c r="K113" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -7448,20 +7448,20 @@
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>420</v>
       </c>
       <c r="H114" t="s">
+        <v>253</v>
+      </c>
+      <c r="I114" t="s">
         <v>314</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
+        <v>422</v>
+      </c>
+      <c r="K114" t="s">
         <v>315</v>
-      </c>
-      <c r="J114" t="s">
-        <v>255</v>
-      </c>
-      <c r="K114" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -7477,7 +7477,7 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>420</v>
       </c>
       <c r="H115" t="s">
@@ -7487,10 +7487,10 @@
         <v>378</v>
       </c>
       <c r="J115" t="s">
+        <v>422</v>
+      </c>
+      <c r="K115" t="s">
         <v>379</v>
-      </c>
-      <c r="K115" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -7503,20 +7503,20 @@
       <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>420</v>
       </c>
       <c r="H116" t="s">
+        <v>462</v>
+      </c>
+      <c r="I116" t="s">
         <v>476</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
+        <v>422</v>
+      </c>
+      <c r="K116" t="s">
         <v>477</v>
-      </c>
-      <c r="J116" t="s">
-        <v>464</v>
-      </c>
-      <c r="K116" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -7529,7 +7529,7 @@
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>420</v>
       </c>
       <c r="H117" t="s">
@@ -7539,10 +7539,10 @@
         <v>463</v>
       </c>
       <c r="J117" t="s">
+        <v>422</v>
+      </c>
+      <c r="K117" t="s">
         <v>464</v>
-      </c>
-      <c r="K117" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -7558,20 +7558,20 @@
       <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>420</v>
       </c>
       <c r="H118" t="s">
         <v>337</v>
       </c>
       <c r="I118" t="s">
+        <v>338</v>
+      </c>
+      <c r="J118" t="s">
+        <v>422</v>
+      </c>
+      <c r="K118" t="s">
         <v>483</v>
-      </c>
-      <c r="J118" t="s">
-        <v>339</v>
-      </c>
-      <c r="K118" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -7587,7 +7587,7 @@
       <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>420</v>
       </c>
       <c r="H119" t="s">
@@ -7597,10 +7597,10 @@
         <v>378</v>
       </c>
       <c r="J119" t="s">
+        <v>422</v>
+      </c>
+      <c r="K119" t="s">
         <v>379</v>
-      </c>
-      <c r="K119" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -7616,20 +7616,20 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>490</v>
       </c>
       <c r="H120" t="s">
+        <v>236</v>
+      </c>
+      <c r="I120" t="s">
         <v>352</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
+        <v>491</v>
+      </c>
+      <c r="K120" t="s">
         <v>353</v>
-      </c>
-      <c r="J120" t="s">
-        <v>238</v>
-      </c>
-      <c r="K120" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -7645,20 +7645,20 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>490</v>
       </c>
       <c r="H121" t="s">
         <v>236</v>
       </c>
       <c r="I121" t="s">
+        <v>237</v>
+      </c>
+      <c r="J121" t="s">
+        <v>491</v>
+      </c>
+      <c r="K121" t="s">
         <v>296</v>
-      </c>
-      <c r="J121" t="s">
-        <v>238</v>
-      </c>
-      <c r="K121" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -7674,20 +7674,20 @@
       <c r="D122" t="s">
         <v>14</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>490</v>
       </c>
       <c r="H122" t="s">
+        <v>236</v>
+      </c>
+      <c r="I122" t="s">
         <v>352</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
+        <v>491</v>
+      </c>
+      <c r="K122" t="s">
         <v>353</v>
-      </c>
-      <c r="J122" t="s">
-        <v>238</v>
-      </c>
-      <c r="K122" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -7703,20 +7703,20 @@
       <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>490</v>
       </c>
       <c r="H123" t="s">
+        <v>236</v>
+      </c>
+      <c r="I123" t="s">
         <v>352</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
+        <v>491</v>
+      </c>
+      <c r="K123" t="s">
         <v>353</v>
-      </c>
-      <c r="J123" t="s">
-        <v>238</v>
-      </c>
-      <c r="K123" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -7732,20 +7732,20 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>490</v>
       </c>
       <c r="H124" t="s">
+        <v>337</v>
+      </c>
+      <c r="I124" t="s">
         <v>504</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
+        <v>491</v>
+      </c>
+      <c r="K124" t="s">
         <v>505</v>
-      </c>
-      <c r="J124" t="s">
-        <v>339</v>
-      </c>
-      <c r="K124" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -7761,20 +7761,20 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>490</v>
       </c>
       <c r="H125" t="s">
+        <v>337</v>
+      </c>
+      <c r="I125" t="s">
         <v>504</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
+        <v>491</v>
+      </c>
+      <c r="K125" t="s">
         <v>505</v>
-      </c>
-      <c r="J125" t="s">
-        <v>339</v>
-      </c>
-      <c r="K125" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -7790,20 +7790,20 @@
       <c r="D126" t="s">
         <v>14</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>490</v>
       </c>
       <c r="H126" t="s">
+        <v>337</v>
+      </c>
+      <c r="I126" t="s">
         <v>504</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
+        <v>491</v>
+      </c>
+      <c r="K126" t="s">
         <v>505</v>
-      </c>
-      <c r="J126" t="s">
-        <v>339</v>
-      </c>
-      <c r="K126" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -7819,20 +7819,20 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>490</v>
       </c>
       <c r="H127" t="s">
+        <v>337</v>
+      </c>
+      <c r="I127" t="s">
         <v>504</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
+        <v>491</v>
+      </c>
+      <c r="K127" t="s">
         <v>505</v>
-      </c>
-      <c r="J127" t="s">
-        <v>339</v>
-      </c>
-      <c r="K127" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -7848,20 +7848,20 @@
       <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>490</v>
       </c>
       <c r="H128" t="s">
+        <v>337</v>
+      </c>
+      <c r="I128" t="s">
         <v>504</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
+        <v>491</v>
+      </c>
+      <c r="K128" t="s">
         <v>505</v>
-      </c>
-      <c r="J128" t="s">
-        <v>339</v>
-      </c>
-      <c r="K128" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -7877,20 +7877,20 @@
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>490</v>
       </c>
       <c r="H129" t="s">
+        <v>337</v>
+      </c>
+      <c r="I129" t="s">
         <v>504</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
+        <v>491</v>
+      </c>
+      <c r="K129" t="s">
         <v>521</v>
-      </c>
-      <c r="J129" t="s">
-        <v>339</v>
-      </c>
-      <c r="K129" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7906,20 +7906,20 @@
       <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>490</v>
       </c>
       <c r="H130" t="s">
+        <v>337</v>
+      </c>
+      <c r="I130" t="s">
         <v>504</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
+        <v>491</v>
+      </c>
+      <c r="K130" t="s">
         <v>525</v>
-      </c>
-      <c r="J130" t="s">
-        <v>339</v>
-      </c>
-      <c r="K130" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7935,20 +7935,20 @@
       <c r="D131" t="s">
         <v>14</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>490</v>
       </c>
       <c r="H131" t="s">
+        <v>337</v>
+      </c>
+      <c r="I131" t="s">
         <v>504</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
+        <v>491</v>
+      </c>
+      <c r="K131" t="s">
         <v>529</v>
-      </c>
-      <c r="J131" t="s">
-        <v>339</v>
-      </c>
-      <c r="K131" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7964,20 +7964,20 @@
       <c r="D132" t="s">
         <v>14</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>490</v>
       </c>
       <c r="H132" t="s">
+        <v>337</v>
+      </c>
+      <c r="I132" t="s">
         <v>533</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
+        <v>491</v>
+      </c>
+      <c r="K132" t="s">
         <v>534</v>
-      </c>
-      <c r="J132" t="s">
-        <v>339</v>
-      </c>
-      <c r="K132" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7990,20 +7990,20 @@
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>490</v>
       </c>
       <c r="H133" t="s">
+        <v>236</v>
+      </c>
+      <c r="I133" t="s">
         <v>392</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
+        <v>491</v>
+      </c>
+      <c r="K133" t="s">
         <v>393</v>
-      </c>
-      <c r="J133" t="s">
-        <v>238</v>
-      </c>
-      <c r="K133" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8019,20 +8019,20 @@
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>540</v>
       </c>
       <c r="H134" t="s">
+        <v>337</v>
+      </c>
+      <c r="I134" t="s">
         <v>361</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
+        <v>541</v>
+      </c>
+      <c r="K134" t="s">
         <v>362</v>
-      </c>
-      <c r="J134" t="s">
-        <v>339</v>
-      </c>
-      <c r="K134" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8045,20 +8045,20 @@
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>540</v>
       </c>
       <c r="H135" t="s">
+        <v>337</v>
+      </c>
+      <c r="I135" t="s">
         <v>361</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
+        <v>541</v>
+      </c>
+      <c r="K135" t="s">
         <v>362</v>
-      </c>
-      <c r="J135" t="s">
-        <v>339</v>
-      </c>
-      <c r="K135" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8074,20 +8074,20 @@
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>540</v>
       </c>
       <c r="H136" t="s">
+        <v>337</v>
+      </c>
+      <c r="I136" t="s">
         <v>361</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
+        <v>541</v>
+      </c>
+      <c r="K136" t="s">
         <v>362</v>
-      </c>
-      <c r="J136" t="s">
-        <v>339</v>
-      </c>
-      <c r="K136" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8103,20 +8103,20 @@
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>540</v>
       </c>
       <c r="H137" t="s">
+        <v>337</v>
+      </c>
+      <c r="I137" t="s">
         <v>361</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
+        <v>541</v>
+      </c>
+      <c r="K137" t="s">
         <v>362</v>
-      </c>
-      <c r="J137" t="s">
-        <v>339</v>
-      </c>
-      <c r="K137" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8132,20 +8132,20 @@
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>540</v>
       </c>
       <c r="H138" t="s">
+        <v>337</v>
+      </c>
+      <c r="I138" t="s">
         <v>361</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
+        <v>541</v>
+      </c>
+      <c r="K138" t="s">
         <v>362</v>
-      </c>
-      <c r="J138" t="s">
-        <v>339</v>
-      </c>
-      <c r="K138" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8161,20 +8161,20 @@
       <c r="D139" t="s">
         <v>14</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>540</v>
       </c>
       <c r="H139" t="s">
+        <v>462</v>
+      </c>
+      <c r="I139" t="s">
         <v>556</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
+        <v>541</v>
+      </c>
+      <c r="K139" t="s">
         <v>557</v>
-      </c>
-      <c r="J139" t="s">
-        <v>464</v>
-      </c>
-      <c r="K139" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8190,20 +8190,20 @@
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>540</v>
       </c>
       <c r="H140" t="s">
+        <v>337</v>
+      </c>
+      <c r="I140" t="s">
         <v>361</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
+        <v>541</v>
+      </c>
+      <c r="K140" t="s">
         <v>362</v>
-      </c>
-      <c r="J140" t="s">
-        <v>339</v>
-      </c>
-      <c r="K140" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8229,13 +8229,13 @@
         <v>566</v>
       </c>
       <c r="H141" t="s">
+        <v>337</v>
+      </c>
+      <c r="I141" t="s">
         <v>567</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>568</v>
-      </c>
-      <c r="J141" t="s">
-        <v>339</v>
       </c>
       <c r="K141" t="s">
         <v>569</v>
@@ -8261,13 +8261,13 @@
         <v>566</v>
       </c>
       <c r="H142" t="s">
+        <v>337</v>
+      </c>
+      <c r="I142" t="s">
         <v>567</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>568</v>
-      </c>
-      <c r="J142" t="s">
-        <v>339</v>
       </c>
       <c r="K142" t="s">
         <v>569</v>
@@ -8296,16 +8296,16 @@
         <v>566</v>
       </c>
       <c r="H143" t="s">
+        <v>337</v>
+      </c>
+      <c r="I143" t="s">
         <v>575</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
+        <v>568</v>
+      </c>
+      <c r="K143" t="s">
         <v>576</v>
-      </c>
-      <c r="J143" t="s">
-        <v>339</v>
-      </c>
-      <c r="K143" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -8331,16 +8331,16 @@
         <v>566</v>
       </c>
       <c r="H144" t="s">
+        <v>337</v>
+      </c>
+      <c r="I144" t="s">
         <v>575</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
+        <v>568</v>
+      </c>
+      <c r="K144" t="s">
         <v>576</v>
-      </c>
-      <c r="J144" t="s">
-        <v>339</v>
-      </c>
-      <c r="K144" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8366,16 +8366,16 @@
         <v>566</v>
       </c>
       <c r="H145" t="s">
+        <v>337</v>
+      </c>
+      <c r="I145" t="s">
         <v>575</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
+        <v>568</v>
+      </c>
+      <c r="K145" t="s">
         <v>576</v>
-      </c>
-      <c r="J145" t="s">
-        <v>339</v>
-      </c>
-      <c r="K145" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -8401,13 +8401,13 @@
         <v>566</v>
       </c>
       <c r="H146" t="s">
+        <v>337</v>
+      </c>
+      <c r="I146" t="s">
         <v>567</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>568</v>
-      </c>
-      <c r="J146" t="s">
-        <v>339</v>
       </c>
       <c r="K146" t="s">
         <v>569</v>
@@ -8427,22 +8427,22 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F147" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G147" t="s">
         <v>590</v>
       </c>
       <c r="H147" t="s">
+        <v>337</v>
+      </c>
+      <c r="I147" t="s">
         <v>567</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>568</v>
-      </c>
-      <c r="J147" t="s">
-        <v>339</v>
       </c>
       <c r="K147" t="s">
         <v>569</v>
@@ -8462,22 +8462,22 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F148" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G148" t="s">
         <v>590</v>
       </c>
       <c r="H148" t="s">
+        <v>337</v>
+      </c>
+      <c r="I148" t="s">
         <v>567</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>568</v>
-      </c>
-      <c r="J148" t="s">
-        <v>339</v>
       </c>
       <c r="K148" t="s">
         <v>569</v>
@@ -8497,22 +8497,22 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F149" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G149" t="s">
         <v>590</v>
       </c>
       <c r="H149" t="s">
+        <v>337</v>
+      </c>
+      <c r="I149" t="s">
         <v>567</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>568</v>
-      </c>
-      <c r="J149" t="s">
-        <v>339</v>
       </c>
       <c r="K149" t="s">
         <v>569</v>
@@ -8532,22 +8532,22 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F150" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G150" t="s">
         <v>590</v>
       </c>
       <c r="H150" t="s">
+        <v>337</v>
+      </c>
+      <c r="I150" t="s">
         <v>567</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>568</v>
-      </c>
-      <c r="J150" t="s">
-        <v>339</v>
       </c>
       <c r="K150" t="s">
         <v>569</v>
@@ -8567,22 +8567,22 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F151" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G151" t="s">
         <v>590</v>
       </c>
       <c r="H151" t="s">
+        <v>337</v>
+      </c>
+      <c r="I151" t="s">
         <v>567</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>568</v>
-      </c>
-      <c r="J151" t="s">
-        <v>339</v>
       </c>
       <c r="K151" t="s">
         <v>569</v>
@@ -8602,22 +8602,22 @@
         <v>14</v>
       </c>
       <c r="E152" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F152" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G152" t="s">
         <v>590</v>
       </c>
       <c r="H152" t="s">
+        <v>337</v>
+      </c>
+      <c r="I152" t="s">
         <v>567</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>568</v>
-      </c>
-      <c r="J152" t="s">
-        <v>339</v>
       </c>
       <c r="K152" t="s">
         <v>569</v>
@@ -8637,22 +8637,22 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F153" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G153" t="s">
         <v>590</v>
       </c>
       <c r="H153" t="s">
+        <v>337</v>
+      </c>
+      <c r="I153" t="s">
         <v>567</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>568</v>
-      </c>
-      <c r="J153" t="s">
-        <v>339</v>
       </c>
       <c r="K153" t="s">
         <v>569</v>
@@ -8672,22 +8672,22 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F154" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G154" t="s">
         <v>590</v>
       </c>
       <c r="H154" t="s">
+        <v>337</v>
+      </c>
+      <c r="I154" t="s">
         <v>567</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>568</v>
-      </c>
-      <c r="J154" t="s">
-        <v>339</v>
       </c>
       <c r="K154" t="s">
         <v>569</v>
@@ -8707,22 +8707,22 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F155" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G155" t="s">
         <v>590</v>
       </c>
       <c r="H155" t="s">
+        <v>337</v>
+      </c>
+      <c r="I155" t="s">
         <v>567</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>568</v>
-      </c>
-      <c r="J155" t="s">
-        <v>339</v>
       </c>
       <c r="K155" t="s">
         <v>569</v>
@@ -8742,22 +8742,22 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F156" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G156" t="s">
         <v>619</v>
       </c>
       <c r="H156" t="s">
+        <v>337</v>
+      </c>
+      <c r="I156" t="s">
         <v>567</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>568</v>
-      </c>
-      <c r="J156" t="s">
-        <v>339</v>
       </c>
       <c r="K156" t="s">
         <v>569</v>
@@ -8777,25 +8777,25 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F157" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G157" t="s">
         <v>619</v>
       </c>
       <c r="H157" t="s">
+        <v>337</v>
+      </c>
+      <c r="I157" t="s">
         <v>567</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
+        <v>568</v>
+      </c>
+      <c r="K157" t="s">
         <v>623</v>
-      </c>
-      <c r="J157" t="s">
-        <v>339</v>
-      </c>
-      <c r="K157" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -8812,22 +8812,22 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F158" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G158" t="s">
         <v>619</v>
       </c>
       <c r="H158" t="s">
+        <v>337</v>
+      </c>
+      <c r="I158" t="s">
         <v>567</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>568</v>
-      </c>
-      <c r="J158" t="s">
-        <v>339</v>
       </c>
       <c r="K158" t="s">
         <v>569</v>
@@ -8847,22 +8847,22 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F159" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G159" t="s">
         <v>619</v>
       </c>
       <c r="H159" t="s">
+        <v>337</v>
+      </c>
+      <c r="I159" t="s">
         <v>567</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>568</v>
-      </c>
-      <c r="J159" t="s">
-        <v>339</v>
       </c>
       <c r="K159" t="s">
         <v>569</v>
@@ -8882,22 +8882,22 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F160" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G160" t="s">
         <v>619</v>
       </c>
       <c r="H160" t="s">
+        <v>337</v>
+      </c>
+      <c r="I160" t="s">
         <v>567</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>568</v>
-      </c>
-      <c r="J160" t="s">
-        <v>339</v>
       </c>
       <c r="K160" t="s">
         <v>569</v>
@@ -8917,22 +8917,22 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F161" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G161" t="s">
         <v>619</v>
       </c>
       <c r="H161" t="s">
+        <v>337</v>
+      </c>
+      <c r="I161" t="s">
         <v>567</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>568</v>
-      </c>
-      <c r="J161" t="s">
-        <v>339</v>
       </c>
       <c r="K161" t="s">
         <v>569</v>
@@ -8952,22 +8952,22 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="F162" t="s">
-        <v>639</v>
+        <v>565</v>
       </c>
       <c r="G162" t="s">
         <v>640</v>
       </c>
       <c r="H162" t="s">
+        <v>337</v>
+      </c>
+      <c r="I162" t="s">
         <v>567</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>568</v>
-      </c>
-      <c r="J162" t="s">
-        <v>339</v>
       </c>
       <c r="K162" t="s">
         <v>569</v>
@@ -8987,25 +8987,25 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="F163" t="s">
+        <v>565</v>
+      </c>
+      <c r="G163" t="s">
         <v>642</v>
       </c>
-      <c r="G163" t="s">
-        <v>644</v>
-      </c>
       <c r="H163" t="s">
+        <v>337</v>
+      </c>
+      <c r="I163" t="s">
         <v>567</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
+        <v>568</v>
+      </c>
+      <c r="K163" t="s">
         <v>645</v>
-      </c>
-      <c r="J163" t="s">
-        <v>339</v>
-      </c>
-      <c r="K163" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -9022,22 +9022,22 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F164" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G164" t="s">
         <v>650</v>
       </c>
       <c r="H164" t="s">
+        <v>337</v>
+      </c>
+      <c r="I164" t="s">
         <v>567</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>568</v>
-      </c>
-      <c r="J164" t="s">
-        <v>339</v>
       </c>
       <c r="K164" t="s">
         <v>569</v>
@@ -9057,22 +9057,22 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F165" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G165" t="s">
         <v>650</v>
       </c>
       <c r="H165" t="s">
+        <v>337</v>
+      </c>
+      <c r="I165" t="s">
         <v>567</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>568</v>
-      </c>
-      <c r="J165" t="s">
-        <v>339</v>
       </c>
       <c r="K165" t="s">
         <v>569</v>
@@ -9092,22 +9092,22 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F166" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G166" t="s">
         <v>650</v>
       </c>
       <c r="H166" t="s">
+        <v>337</v>
+      </c>
+      <c r="I166" t="s">
         <v>567</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>568</v>
-      </c>
-      <c r="J166" t="s">
-        <v>339</v>
       </c>
       <c r="K166" t="s">
         <v>569</v>
@@ -9127,22 +9127,22 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F167" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G167" t="s">
         <v>650</v>
       </c>
       <c r="H167" t="s">
+        <v>337</v>
+      </c>
+      <c r="I167" t="s">
         <v>567</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>568</v>
-      </c>
-      <c r="J167" t="s">
-        <v>339</v>
       </c>
       <c r="K167" t="s">
         <v>569</v>
@@ -9162,25 +9162,25 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F168" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G168" t="s">
         <v>650</v>
       </c>
       <c r="H168" t="s">
+        <v>337</v>
+      </c>
+      <c r="I168" t="s">
         <v>567</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
+        <v>568</v>
+      </c>
+      <c r="K168" t="s">
         <v>663</v>
-      </c>
-      <c r="J168" t="s">
-        <v>339</v>
-      </c>
-      <c r="K168" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -9194,25 +9194,25 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F169" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G169" t="s">
         <v>650</v>
       </c>
       <c r="H169" t="s">
+        <v>337</v>
+      </c>
+      <c r="I169" t="s">
         <v>567</v>
       </c>
-      <c r="I169" t="s">
+      <c r="J169" t="s">
+        <v>568</v>
+      </c>
+      <c r="K169" t="s">
         <v>663</v>
-      </c>
-      <c r="J169" t="s">
-        <v>339</v>
-      </c>
-      <c r="K169" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -9229,22 +9229,22 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F170" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G170" t="s">
         <v>650</v>
       </c>
       <c r="H170" t="s">
+        <v>337</v>
+      </c>
+      <c r="I170" t="s">
         <v>567</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>568</v>
-      </c>
-      <c r="J170" t="s">
-        <v>339</v>
       </c>
       <c r="K170" t="s">
         <v>569</v>
@@ -9263,7 +9263,7 @@
       <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>672</v>
       </c>
       <c r="H171" t="s">
@@ -9273,10 +9273,10 @@
         <v>338</v>
       </c>
       <c r="J171" t="s">
+        <v>673</v>
+      </c>
+      <c r="K171" t="s">
         <v>339</v>
-      </c>
-      <c r="K171" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9292,20 +9292,20 @@
       <c r="D172" t="s">
         <v>14</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>672</v>
       </c>
       <c r="H172" t="s">
+        <v>236</v>
+      </c>
+      <c r="I172" t="s">
         <v>243</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
+        <v>673</v>
+      </c>
+      <c r="K172" t="s">
         <v>244</v>
-      </c>
-      <c r="J172" t="s">
-        <v>238</v>
-      </c>
-      <c r="K172" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9321,7 +9321,7 @@
       <c r="D173" t="s">
         <v>14</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>672</v>
       </c>
       <c r="H173" t="s">
@@ -9331,10 +9331,10 @@
         <v>338</v>
       </c>
       <c r="J173" t="s">
+        <v>673</v>
+      </c>
+      <c r="K173" t="s">
         <v>339</v>
-      </c>
-      <c r="K173" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9350,7 +9350,7 @@
       <c r="D174" t="s">
         <v>14</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>672</v>
       </c>
       <c r="H174" t="s">
@@ -9360,10 +9360,10 @@
         <v>338</v>
       </c>
       <c r="J174" t="s">
+        <v>673</v>
+      </c>
+      <c r="K174" t="s">
         <v>339</v>
-      </c>
-      <c r="K174" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9379,7 +9379,7 @@
       <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>672</v>
       </c>
       <c r="H175" t="s">
@@ -9389,10 +9389,10 @@
         <v>338</v>
       </c>
       <c r="J175" t="s">
+        <v>673</v>
+      </c>
+      <c r="K175" t="s">
         <v>339</v>
-      </c>
-      <c r="K175" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9405,7 +9405,7 @@
       <c r="D176" t="s">
         <v>14</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>672</v>
       </c>
       <c r="H176" t="s">
@@ -9415,10 +9415,10 @@
         <v>338</v>
       </c>
       <c r="J176" t="s">
+        <v>673</v>
+      </c>
+      <c r="K176" t="s">
         <v>339</v>
-      </c>
-      <c r="K176" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9434,7 +9434,7 @@
       <c r="D177" t="s">
         <v>14</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>691</v>
       </c>
       <c r="H177" t="s">
@@ -9444,10 +9444,10 @@
         <v>338</v>
       </c>
       <c r="J177" t="s">
+        <v>692</v>
+      </c>
+      <c r="K177" t="s">
         <v>339</v>
-      </c>
-      <c r="K177" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9463,7 +9463,7 @@
       <c r="D178" t="s">
         <v>14</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>691</v>
       </c>
       <c r="H178" t="s">
@@ -9473,10 +9473,10 @@
         <v>338</v>
       </c>
       <c r="J178" t="s">
+        <v>692</v>
+      </c>
+      <c r="K178" t="s">
         <v>339</v>
-      </c>
-      <c r="K178" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -9492,7 +9492,7 @@
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>691</v>
       </c>
       <c r="H179" t="s">
@@ -9502,10 +9502,10 @@
         <v>338</v>
       </c>
       <c r="J179" t="s">
+        <v>692</v>
+      </c>
+      <c r="K179" t="s">
         <v>339</v>
-      </c>
-      <c r="K179" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -9521,7 +9521,7 @@
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>691</v>
       </c>
       <c r="H180" t="s">
@@ -9531,10 +9531,10 @@
         <v>338</v>
       </c>
       <c r="J180" t="s">
+        <v>692</v>
+      </c>
+      <c r="K180" t="s">
         <v>339</v>
-      </c>
-      <c r="K180" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -9560,13 +9560,13 @@
         <v>707</v>
       </c>
       <c r="H181" t="s">
+        <v>337</v>
+      </c>
+      <c r="I181" t="s">
         <v>708</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181" t="s">
         <v>709</v>
-      </c>
-      <c r="J181" t="s">
-        <v>339</v>
       </c>
       <c r="K181" t="s">
         <v>710</v>
@@ -9595,13 +9595,13 @@
         <v>707</v>
       </c>
       <c r="H182" t="s">
+        <v>337</v>
+      </c>
+      <c r="I182" t="s">
         <v>708</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182" t="s">
         <v>709</v>
-      </c>
-      <c r="J182" t="s">
-        <v>339</v>
       </c>
       <c r="K182" t="s">
         <v>710</v>
@@ -9630,13 +9630,13 @@
         <v>707</v>
       </c>
       <c r="H183" t="s">
+        <v>337</v>
+      </c>
+      <c r="I183" t="s">
         <v>708</v>
       </c>
-      <c r="I183" t="s">
+      <c r="J183" t="s">
         <v>709</v>
-      </c>
-      <c r="J183" t="s">
-        <v>339</v>
       </c>
       <c r="K183" t="s">
         <v>710</v>
@@ -9665,13 +9665,13 @@
         <v>707</v>
       </c>
       <c r="H184" t="s">
+        <v>337</v>
+      </c>
+      <c r="I184" t="s">
         <v>708</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184" t="s">
         <v>709</v>
-      </c>
-      <c r="J184" t="s">
-        <v>339</v>
       </c>
       <c r="K184" t="s">
         <v>710</v>
@@ -9700,13 +9700,13 @@
         <v>707</v>
       </c>
       <c r="H185" t="s">
+        <v>337</v>
+      </c>
+      <c r="I185" t="s">
         <v>708</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>709</v>
-      </c>
-      <c r="J185" t="s">
-        <v>339</v>
       </c>
       <c r="K185" t="s">
         <v>710</v>
@@ -9735,13 +9735,13 @@
         <v>707</v>
       </c>
       <c r="H186" t="s">
+        <v>337</v>
+      </c>
+      <c r="I186" t="s">
         <v>708</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>709</v>
-      </c>
-      <c r="J186" t="s">
-        <v>339</v>
       </c>
       <c r="K186" t="s">
         <v>710</v>
@@ -9770,13 +9770,13 @@
         <v>707</v>
       </c>
       <c r="H187" t="s">
+        <v>337</v>
+      </c>
+      <c r="I187" t="s">
         <v>708</v>
       </c>
-      <c r="I187" t="s">
+      <c r="J187" t="s">
         <v>709</v>
-      </c>
-      <c r="J187" t="s">
-        <v>339</v>
       </c>
       <c r="K187" t="s">
         <v>710</v>
@@ -9805,13 +9805,13 @@
         <v>707</v>
       </c>
       <c r="H188" t="s">
+        <v>337</v>
+      </c>
+      <c r="I188" t="s">
         <v>708</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
         <v>709</v>
-      </c>
-      <c r="J188" t="s">
-        <v>339</v>
       </c>
       <c r="K188" t="s">
         <v>710</v>
@@ -9840,13 +9840,13 @@
         <v>707</v>
       </c>
       <c r="H189" t="s">
+        <v>337</v>
+      </c>
+      <c r="I189" t="s">
         <v>708</v>
       </c>
-      <c r="I189" t="s">
+      <c r="J189" t="s">
         <v>709</v>
-      </c>
-      <c r="J189" t="s">
-        <v>339</v>
       </c>
       <c r="K189" t="s">
         <v>710</v>
@@ -9875,13 +9875,13 @@
         <v>707</v>
       </c>
       <c r="H190" t="s">
+        <v>337</v>
+      </c>
+      <c r="I190" t="s">
         <v>708</v>
       </c>
-      <c r="I190" t="s">
+      <c r="J190" t="s">
         <v>709</v>
-      </c>
-      <c r="J190" t="s">
-        <v>339</v>
       </c>
       <c r="K190" t="s">
         <v>710</v>
@@ -9910,13 +9910,13 @@
         <v>707</v>
       </c>
       <c r="H191" t="s">
+        <v>337</v>
+      </c>
+      <c r="I191" t="s">
         <v>708</v>
       </c>
-      <c r="I191" t="s">
+      <c r="J191" t="s">
         <v>709</v>
-      </c>
-      <c r="J191" t="s">
-        <v>339</v>
       </c>
       <c r="K191" t="s">
         <v>710</v>
@@ -9942,13 +9942,13 @@
         <v>707</v>
       </c>
       <c r="H192" t="s">
+        <v>337</v>
+      </c>
+      <c r="I192" t="s">
         <v>708</v>
       </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
         <v>709</v>
-      </c>
-      <c r="J192" t="s">
-        <v>339</v>
       </c>
       <c r="K192" t="s">
         <v>710</v>
@@ -9977,16 +9977,16 @@
         <v>707</v>
       </c>
       <c r="H193" t="s">
+        <v>337</v>
+      </c>
+      <c r="I193" t="s">
         <v>575</v>
       </c>
-      <c r="I193" t="s">
+      <c r="J193" t="s">
+        <v>709</v>
+      </c>
+      <c r="K193" t="s">
         <v>746</v>
-      </c>
-      <c r="J193" t="s">
-        <v>339</v>
-      </c>
-      <c r="K193" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -10012,13 +10012,13 @@
         <v>707</v>
       </c>
       <c r="H194" t="s">
+        <v>337</v>
+      </c>
+      <c r="I194" t="s">
         <v>708</v>
       </c>
-      <c r="I194" t="s">
+      <c r="J194" t="s">
         <v>709</v>
-      </c>
-      <c r="J194" t="s">
-        <v>339</v>
       </c>
       <c r="K194" t="s">
         <v>710</v>
@@ -10047,13 +10047,13 @@
         <v>707</v>
       </c>
       <c r="H195" t="s">
+        <v>337</v>
+      </c>
+      <c r="I195" t="s">
         <v>708</v>
       </c>
-      <c r="I195" t="s">
+      <c r="J195" t="s">
         <v>709</v>
-      </c>
-      <c r="J195" t="s">
-        <v>339</v>
       </c>
       <c r="K195" t="s">
         <v>710</v>
@@ -10082,13 +10082,13 @@
         <v>707</v>
       </c>
       <c r="H196" t="s">
+        <v>337</v>
+      </c>
+      <c r="I196" t="s">
         <v>708</v>
       </c>
-      <c r="I196" t="s">
+      <c r="J196" t="s">
         <v>709</v>
-      </c>
-      <c r="J196" t="s">
-        <v>339</v>
       </c>
       <c r="K196" t="s">
         <v>710</v>
@@ -10117,13 +10117,13 @@
         <v>707</v>
       </c>
       <c r="H197" t="s">
+        <v>337</v>
+      </c>
+      <c r="I197" t="s">
         <v>708</v>
       </c>
-      <c r="I197" t="s">
+      <c r="J197" t="s">
         <v>709</v>
-      </c>
-      <c r="J197" t="s">
-        <v>339</v>
       </c>
       <c r="K197" t="s">
         <v>710</v>
@@ -10152,13 +10152,13 @@
         <v>707</v>
       </c>
       <c r="H198" t="s">
+        <v>337</v>
+      </c>
+      <c r="I198" t="s">
         <v>708</v>
       </c>
-      <c r="I198" t="s">
+      <c r="J198" t="s">
         <v>709</v>
-      </c>
-      <c r="J198" t="s">
-        <v>339</v>
       </c>
       <c r="K198" t="s">
         <v>710</v>
@@ -10178,25 +10178,25 @@
         <v>14</v>
       </c>
       <c r="E199" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="F199" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G199" t="s">
         <v>766</v>
       </c>
       <c r="H199" t="s">
+        <v>337</v>
+      </c>
+      <c r="I199" t="s">
         <v>708</v>
       </c>
-      <c r="I199" t="s">
+      <c r="J199" t="s">
+        <v>709</v>
+      </c>
+      <c r="K199" t="s">
         <v>767</v>
-      </c>
-      <c r="J199" t="s">
-        <v>339</v>
-      </c>
-      <c r="K199" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -10213,25 +10213,25 @@
         <v>14</v>
       </c>
       <c r="E200" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="F200" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G200" t="s">
         <v>766</v>
       </c>
       <c r="H200" t="s">
+        <v>337</v>
+      </c>
+      <c r="I200" t="s">
         <v>708</v>
       </c>
-      <c r="I200" t="s">
+      <c r="J200" t="s">
+        <v>709</v>
+      </c>
+      <c r="K200" t="s">
         <v>767</v>
-      </c>
-      <c r="J200" t="s">
-        <v>339</v>
-      </c>
-      <c r="K200" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -10248,25 +10248,25 @@
         <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="F201" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G201" t="s">
         <v>766</v>
       </c>
       <c r="H201" t="s">
+        <v>337</v>
+      </c>
+      <c r="I201" t="s">
         <v>708</v>
       </c>
-      <c r="I201" t="s">
+      <c r="J201" t="s">
+        <v>709</v>
+      </c>
+      <c r="K201" t="s">
         <v>767</v>
-      </c>
-      <c r="J201" t="s">
-        <v>339</v>
-      </c>
-      <c r="K201" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -10280,25 +10280,25 @@
         <v>14</v>
       </c>
       <c r="E202" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="F202" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G202" t="s">
         <v>766</v>
       </c>
       <c r="H202" t="s">
+        <v>337</v>
+      </c>
+      <c r="I202" t="s">
         <v>708</v>
       </c>
-      <c r="I202" t="s">
+      <c r="J202" t="s">
+        <v>709</v>
+      </c>
+      <c r="K202" t="s">
         <v>767</v>
-      </c>
-      <c r="J202" t="s">
-        <v>339</v>
-      </c>
-      <c r="K202" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -10315,25 +10315,25 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="F203" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G203" t="s">
         <v>766</v>
       </c>
       <c r="H203" t="s">
+        <v>337</v>
+      </c>
+      <c r="I203" t="s">
         <v>575</v>
       </c>
-      <c r="I203" t="s">
+      <c r="J203" t="s">
+        <v>709</v>
+      </c>
+      <c r="K203" t="s">
         <v>746</v>
-      </c>
-      <c r="J203" t="s">
-        <v>339</v>
-      </c>
-      <c r="K203" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10347,25 +10347,25 @@
         <v>14</v>
       </c>
       <c r="E204" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="F204" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G204" t="s">
         <v>766</v>
       </c>
       <c r="H204" t="s">
+        <v>337</v>
+      </c>
+      <c r="I204" t="s">
         <v>708</v>
       </c>
-      <c r="I204" t="s">
+      <c r="J204" t="s">
+        <v>709</v>
+      </c>
+      <c r="K204" t="s">
         <v>767</v>
-      </c>
-      <c r="J204" t="s">
-        <v>339</v>
-      </c>
-      <c r="K204" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -10382,25 +10382,25 @@
         <v>14</v>
       </c>
       <c r="E205" t="s">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="F205" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G205" t="s">
         <v>785</v>
       </c>
       <c r="H205" t="s">
+        <v>337</v>
+      </c>
+      <c r="I205" t="s">
         <v>708</v>
       </c>
-      <c r="I205" t="s">
+      <c r="J205" t="s">
+        <v>709</v>
+      </c>
+      <c r="K205" t="s">
         <v>786</v>
-      </c>
-      <c r="J205" t="s">
-        <v>339</v>
-      </c>
-      <c r="K205" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -10417,25 +10417,25 @@
         <v>14</v>
       </c>
       <c r="E206" t="s">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="F206" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G206" t="s">
         <v>785</v>
       </c>
       <c r="H206" t="s">
+        <v>337</v>
+      </c>
+      <c r="I206" t="s">
         <v>708</v>
       </c>
-      <c r="I206" t="s">
+      <c r="J206" t="s">
+        <v>709</v>
+      </c>
+      <c r="K206" t="s">
         <v>786</v>
-      </c>
-      <c r="J206" t="s">
-        <v>339</v>
-      </c>
-      <c r="K206" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -10449,25 +10449,25 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="F207" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G207" t="s">
         <v>785</v>
       </c>
       <c r="H207" t="s">
+        <v>337</v>
+      </c>
+      <c r="I207" t="s">
         <v>708</v>
       </c>
-      <c r="I207" t="s">
+      <c r="J207" t="s">
+        <v>709</v>
+      </c>
+      <c r="K207" t="s">
         <v>786</v>
-      </c>
-      <c r="J207" t="s">
-        <v>339</v>
-      </c>
-      <c r="K207" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -10484,25 +10484,25 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="F208" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G208" t="s">
         <v>785</v>
       </c>
       <c r="H208" t="s">
+        <v>337</v>
+      </c>
+      <c r="I208" t="s">
         <v>575</v>
       </c>
-      <c r="I208" t="s">
+      <c r="J208" t="s">
+        <v>709</v>
+      </c>
+      <c r="K208" t="s">
         <v>746</v>
-      </c>
-      <c r="J208" t="s">
-        <v>339</v>
-      </c>
-      <c r="K208" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -10519,25 +10519,25 @@
         <v>14</v>
       </c>
       <c r="E209" t="s">
-        <v>705</v>
+        <v>784</v>
       </c>
       <c r="F209" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G209" t="s">
         <v>785</v>
       </c>
       <c r="H209" t="s">
+        <v>337</v>
+      </c>
+      <c r="I209" t="s">
         <v>708</v>
       </c>
-      <c r="I209" t="s">
+      <c r="J209" t="s">
+        <v>709</v>
+      </c>
+      <c r="K209" t="s">
         <v>786</v>
-      </c>
-      <c r="J209" t="s">
-        <v>339</v>
-      </c>
-      <c r="K209" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -10563,13 +10563,13 @@
         <v>803</v>
       </c>
       <c r="H210" t="s">
+        <v>337</v>
+      </c>
+      <c r="I210" t="s">
         <v>804</v>
       </c>
-      <c r="I210" t="s">
+      <c r="J210" t="s">
         <v>805</v>
-      </c>
-      <c r="J210" t="s">
-        <v>339</v>
       </c>
       <c r="K210" t="s">
         <v>806</v>
@@ -10595,13 +10595,13 @@
         <v>803</v>
       </c>
       <c r="H211" t="s">
+        <v>337</v>
+      </c>
+      <c r="I211" t="s">
         <v>804</v>
       </c>
-      <c r="I211" t="s">
+      <c r="J211" t="s">
         <v>805</v>
-      </c>
-      <c r="J211" t="s">
-        <v>339</v>
       </c>
       <c r="K211" t="s">
         <v>806</v>
@@ -10630,13 +10630,13 @@
         <v>803</v>
       </c>
       <c r="H212" t="s">
+        <v>337</v>
+      </c>
+      <c r="I212" t="s">
         <v>804</v>
       </c>
-      <c r="I212" t="s">
+      <c r="J212" t="s">
         <v>805</v>
-      </c>
-      <c r="J212" t="s">
-        <v>339</v>
       </c>
       <c r="K212" t="s">
         <v>806</v>
@@ -10662,13 +10662,13 @@
         <v>803</v>
       </c>
       <c r="H213" t="s">
+        <v>337</v>
+      </c>
+      <c r="I213" t="s">
         <v>804</v>
       </c>
-      <c r="I213" t="s">
+      <c r="J213" t="s">
         <v>805</v>
-      </c>
-      <c r="J213" t="s">
-        <v>339</v>
       </c>
       <c r="K213" t="s">
         <v>806</v>
@@ -10697,13 +10697,13 @@
         <v>803</v>
       </c>
       <c r="H214" t="s">
+        <v>337</v>
+      </c>
+      <c r="I214" t="s">
         <v>804</v>
       </c>
-      <c r="I214" t="s">
+      <c r="J214" t="s">
         <v>805</v>
-      </c>
-      <c r="J214" t="s">
-        <v>339</v>
       </c>
       <c r="K214" t="s">
         <v>806</v>
@@ -10732,16 +10732,16 @@
         <v>803</v>
       </c>
       <c r="H215" t="s">
+        <v>337</v>
+      </c>
+      <c r="I215" t="s">
         <v>708</v>
       </c>
-      <c r="I215" t="s">
+      <c r="J215" t="s">
+        <v>805</v>
+      </c>
+      <c r="K215" t="s">
         <v>767</v>
-      </c>
-      <c r="J215" t="s">
-        <v>339</v>
-      </c>
-      <c r="K215" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -10767,13 +10767,13 @@
         <v>803</v>
       </c>
       <c r="H216" t="s">
+        <v>337</v>
+      </c>
+      <c r="I216" t="s">
         <v>804</v>
       </c>
-      <c r="I216" t="s">
+      <c r="J216" t="s">
         <v>805</v>
-      </c>
-      <c r="J216" t="s">
-        <v>339</v>
       </c>
       <c r="K216" t="s">
         <v>806</v>
@@ -10802,13 +10802,13 @@
         <v>803</v>
       </c>
       <c r="H217" t="s">
+        <v>337</v>
+      </c>
+      <c r="I217" t="s">
         <v>804</v>
       </c>
-      <c r="I217" t="s">
+      <c r="J217" t="s">
         <v>805</v>
-      </c>
-      <c r="J217" t="s">
-        <v>339</v>
       </c>
       <c r="K217" t="s">
         <v>806</v>
@@ -10834,13 +10834,13 @@
         <v>803</v>
       </c>
       <c r="H218" t="s">
+        <v>337</v>
+      </c>
+      <c r="I218" t="s">
         <v>804</v>
       </c>
-      <c r="I218" t="s">
+      <c r="J218" t="s">
         <v>805</v>
-      </c>
-      <c r="J218" t="s">
-        <v>339</v>
       </c>
       <c r="K218" t="s">
         <v>806</v>
@@ -10866,13 +10866,13 @@
         <v>803</v>
       </c>
       <c r="H219" t="s">
+        <v>337</v>
+      </c>
+      <c r="I219" t="s">
         <v>804</v>
       </c>
-      <c r="I219" t="s">
+      <c r="J219" t="s">
         <v>805</v>
-      </c>
-      <c r="J219" t="s">
-        <v>339</v>
       </c>
       <c r="K219" t="s">
         <v>806</v>
@@ -10901,16 +10901,16 @@
         <v>803</v>
       </c>
       <c r="H220" t="s">
+        <v>337</v>
+      </c>
+      <c r="I220" t="s">
         <v>567</v>
       </c>
-      <c r="I220" t="s">
+      <c r="J220" t="s">
+        <v>805</v>
+      </c>
+      <c r="K220" t="s">
         <v>663</v>
-      </c>
-      <c r="J220" t="s">
-        <v>339</v>
-      </c>
-      <c r="K220" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -10936,13 +10936,13 @@
         <v>803</v>
       </c>
       <c r="H221" t="s">
+        <v>337</v>
+      </c>
+      <c r="I221" t="s">
         <v>804</v>
       </c>
-      <c r="I221" t="s">
+      <c r="J221" t="s">
         <v>805</v>
-      </c>
-      <c r="J221" t="s">
-        <v>339</v>
       </c>
       <c r="K221" t="s">
         <v>806</v>
@@ -10971,13 +10971,13 @@
         <v>803</v>
       </c>
       <c r="H222" t="s">
+        <v>337</v>
+      </c>
+      <c r="I222" t="s">
         <v>804</v>
       </c>
-      <c r="I222" t="s">
+      <c r="J222" t="s">
         <v>805</v>
-      </c>
-      <c r="J222" t="s">
-        <v>339</v>
       </c>
       <c r="K222" t="s">
         <v>806</v>
@@ -11003,13 +11003,13 @@
         <v>803</v>
       </c>
       <c r="H223" t="s">
+        <v>337</v>
+      </c>
+      <c r="I223" t="s">
         <v>804</v>
       </c>
-      <c r="I223" t="s">
+      <c r="J223" t="s">
         <v>805</v>
-      </c>
-      <c r="J223" t="s">
-        <v>339</v>
       </c>
       <c r="K223" t="s">
         <v>806</v>
@@ -11038,13 +11038,13 @@
         <v>803</v>
       </c>
       <c r="H224" t="s">
+        <v>337</v>
+      </c>
+      <c r="I224" t="s">
         <v>804</v>
       </c>
-      <c r="I224" t="s">
+      <c r="J224" t="s">
         <v>805</v>
-      </c>
-      <c r="J224" t="s">
-        <v>339</v>
       </c>
       <c r="K224" t="s">
         <v>806</v>
@@ -11073,13 +11073,13 @@
         <v>803</v>
       </c>
       <c r="H225" t="s">
+        <v>337</v>
+      </c>
+      <c r="I225" t="s">
         <v>804</v>
       </c>
-      <c r="I225" t="s">
+      <c r="J225" t="s">
         <v>805</v>
-      </c>
-      <c r="J225" t="s">
-        <v>339</v>
       </c>
       <c r="K225" t="s">
         <v>806</v>
@@ -11108,16 +11108,16 @@
         <v>803</v>
       </c>
       <c r="H226" t="s">
+        <v>337</v>
+      </c>
+      <c r="I226" t="s">
         <v>575</v>
       </c>
-      <c r="I226" t="s">
+      <c r="J226" t="s">
+        <v>805</v>
+      </c>
+      <c r="K226" t="s">
         <v>576</v>
-      </c>
-      <c r="J226" t="s">
-        <v>339</v>
-      </c>
-      <c r="K226" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -11143,13 +11143,13 @@
         <v>803</v>
       </c>
       <c r="H227" t="s">
+        <v>337</v>
+      </c>
+      <c r="I227" t="s">
         <v>804</v>
       </c>
-      <c r="I227" t="s">
+      <c r="J227" t="s">
         <v>805</v>
-      </c>
-      <c r="J227" t="s">
-        <v>339</v>
       </c>
       <c r="K227" t="s">
         <v>806</v>
@@ -11184,10 +11184,10 @@
         <v>338</v>
       </c>
       <c r="J228" t="s">
+        <v>805</v>
+      </c>
+      <c r="K228" t="s">
         <v>339</v>
-      </c>
-      <c r="K228" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -11204,25 +11204,25 @@
         <v>14</v>
       </c>
       <c r="E229" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F229" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G229" t="s">
         <v>860</v>
       </c>
       <c r="H229" t="s">
+        <v>337</v>
+      </c>
+      <c r="I229" t="s">
         <v>804</v>
       </c>
-      <c r="I229" t="s">
+      <c r="J229" t="s">
+        <v>805</v>
+      </c>
+      <c r="K229" t="s">
         <v>861</v>
-      </c>
-      <c r="J229" t="s">
-        <v>339</v>
-      </c>
-      <c r="K229" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -11239,25 +11239,25 @@
         <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F230" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G230" t="s">
         <v>860</v>
       </c>
       <c r="H230" t="s">
+        <v>337</v>
+      </c>
+      <c r="I230" t="s">
         <v>804</v>
       </c>
-      <c r="I230" t="s">
+      <c r="J230" t="s">
+        <v>805</v>
+      </c>
+      <c r="K230" t="s">
         <v>861</v>
-      </c>
-      <c r="J230" t="s">
-        <v>339</v>
-      </c>
-      <c r="K230" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -11274,25 +11274,25 @@
         <v>14</v>
       </c>
       <c r="E231" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F231" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G231" t="s">
         <v>860</v>
       </c>
       <c r="H231" t="s">
+        <v>337</v>
+      </c>
+      <c r="I231" t="s">
         <v>567</v>
       </c>
-      <c r="I231" t="s">
+      <c r="J231" t="s">
+        <v>805</v>
+      </c>
+      <c r="K231" t="s">
         <v>623</v>
-      </c>
-      <c r="J231" t="s">
-        <v>339</v>
-      </c>
-      <c r="K231" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11309,25 +11309,25 @@
         <v>14</v>
       </c>
       <c r="E232" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F232" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G232" t="s">
         <v>860</v>
       </c>
       <c r="H232" t="s">
+        <v>337</v>
+      </c>
+      <c r="I232" t="s">
         <v>567</v>
       </c>
-      <c r="I232" t="s">
+      <c r="J232" t="s">
+        <v>805</v>
+      </c>
+      <c r="K232" t="s">
         <v>663</v>
-      </c>
-      <c r="J232" t="s">
-        <v>339</v>
-      </c>
-      <c r="K232" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -11344,25 +11344,25 @@
         <v>14</v>
       </c>
       <c r="E233" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F233" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G233" t="s">
         <v>860</v>
       </c>
       <c r="H233" t="s">
+        <v>337</v>
+      </c>
+      <c r="I233" t="s">
         <v>804</v>
       </c>
-      <c r="I233" t="s">
+      <c r="J233" t="s">
+        <v>805</v>
+      </c>
+      <c r="K233" t="s">
         <v>861</v>
-      </c>
-      <c r="J233" t="s">
-        <v>339</v>
-      </c>
-      <c r="K233" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -11379,25 +11379,25 @@
         <v>14</v>
       </c>
       <c r="E234" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F234" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G234" t="s">
         <v>860</v>
       </c>
       <c r="H234" t="s">
+        <v>337</v>
+      </c>
+      <c r="I234" t="s">
         <v>804</v>
       </c>
-      <c r="I234" t="s">
+      <c r="J234" t="s">
+        <v>805</v>
+      </c>
+      <c r="K234" t="s">
         <v>861</v>
-      </c>
-      <c r="J234" t="s">
-        <v>339</v>
-      </c>
-      <c r="K234" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -11414,25 +11414,25 @@
         <v>14</v>
       </c>
       <c r="E235" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F235" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G235" t="s">
         <v>860</v>
       </c>
       <c r="H235" t="s">
+        <v>337</v>
+      </c>
+      <c r="I235" t="s">
         <v>804</v>
       </c>
-      <c r="I235" t="s">
+      <c r="J235" t="s">
+        <v>805</v>
+      </c>
+      <c r="K235" t="s">
         <v>861</v>
-      </c>
-      <c r="J235" t="s">
-        <v>339</v>
-      </c>
-      <c r="K235" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -11449,25 +11449,25 @@
         <v>14</v>
       </c>
       <c r="E236" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F236" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G236" t="s">
         <v>860</v>
       </c>
       <c r="H236" t="s">
+        <v>337</v>
+      </c>
+      <c r="I236" t="s">
         <v>804</v>
       </c>
-      <c r="I236" t="s">
+      <c r="J236" t="s">
+        <v>805</v>
+      </c>
+      <c r="K236" t="s">
         <v>861</v>
-      </c>
-      <c r="J236" t="s">
-        <v>339</v>
-      </c>
-      <c r="K236" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -11484,25 +11484,25 @@
         <v>14</v>
       </c>
       <c r="E237" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F237" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G237" t="s">
         <v>860</v>
       </c>
       <c r="H237" t="s">
+        <v>337</v>
+      </c>
+      <c r="I237" t="s">
         <v>804</v>
       </c>
-      <c r="I237" t="s">
+      <c r="J237" t="s">
+        <v>805</v>
+      </c>
+      <c r="K237" t="s">
         <v>861</v>
-      </c>
-      <c r="J237" t="s">
-        <v>339</v>
-      </c>
-      <c r="K237" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -11519,25 +11519,25 @@
         <v>14</v>
       </c>
       <c r="E238" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="F238" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G238" t="s">
         <v>860</v>
       </c>
       <c r="H238" t="s">
+        <v>337</v>
+      </c>
+      <c r="I238" t="s">
         <v>804</v>
       </c>
-      <c r="I238" t="s">
+      <c r="J238" t="s">
+        <v>805</v>
+      </c>
+      <c r="K238" t="s">
         <v>861</v>
-      </c>
-      <c r="J238" t="s">
-        <v>339</v>
-      </c>
-      <c r="K238" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -11554,25 +11554,25 @@
         <v>14</v>
       </c>
       <c r="E239" t="s">
-        <v>801</v>
+        <v>892</v>
       </c>
       <c r="F239" t="s">
-        <v>892</v>
+        <v>802</v>
       </c>
       <c r="G239" t="s">
         <v>893</v>
       </c>
       <c r="H239" t="s">
+        <v>337</v>
+      </c>
+      <c r="I239" t="s">
         <v>804</v>
       </c>
-      <c r="I239" t="s">
+      <c r="J239" t="s">
+        <v>805</v>
+      </c>
+      <c r="K239" t="s">
         <v>894</v>
-      </c>
-      <c r="J239" t="s">
-        <v>339</v>
-      </c>
-      <c r="K239" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -11592,7 +11592,7 @@
         <v>898</v>
       </c>
       <c r="F240" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G240" t="s">
         <v>899</v>
@@ -11604,10 +11604,10 @@
         <v>338</v>
       </c>
       <c r="J240" t="s">
+        <v>900</v>
+      </c>
+      <c r="K240" t="s">
         <v>339</v>
-      </c>
-      <c r="K240" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -11627,7 +11627,7 @@
         <v>898</v>
       </c>
       <c r="F241" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G241" t="s">
         <v>899</v>
@@ -11639,10 +11639,10 @@
         <v>338</v>
       </c>
       <c r="J241" t="s">
+        <v>900</v>
+      </c>
+      <c r="K241" t="s">
         <v>339</v>
-      </c>
-      <c r="K241" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -11662,7 +11662,7 @@
         <v>898</v>
       </c>
       <c r="F242" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G242" t="s">
         <v>899</v>
@@ -11674,10 +11674,10 @@
         <v>338</v>
       </c>
       <c r="J242" t="s">
+        <v>900</v>
+      </c>
+      <c r="K242" t="s">
         <v>339</v>
-      </c>
-      <c r="K242" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -11697,7 +11697,7 @@
         <v>898</v>
       </c>
       <c r="F243" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G243" t="s">
         <v>899</v>
@@ -11709,10 +11709,10 @@
         <v>338</v>
       </c>
       <c r="J243" t="s">
+        <v>900</v>
+      </c>
+      <c r="K243" t="s">
         <v>339</v>
-      </c>
-      <c r="K243" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -11732,7 +11732,7 @@
         <v>898</v>
       </c>
       <c r="F244" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G244" t="s">
         <v>899</v>
@@ -11744,10 +11744,10 @@
         <v>338</v>
       </c>
       <c r="J244" t="s">
+        <v>900</v>
+      </c>
+      <c r="K244" t="s">
         <v>339</v>
-      </c>
-      <c r="K244" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -11767,7 +11767,7 @@
         <v>898</v>
       </c>
       <c r="F245" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G245" t="s">
         <v>899</v>
@@ -11779,10 +11779,10 @@
         <v>338</v>
       </c>
       <c r="J245" t="s">
+        <v>900</v>
+      </c>
+      <c r="K245" t="s">
         <v>339</v>
-      </c>
-      <c r="K245" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -11796,25 +11796,25 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="F246" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="G246" t="s">
         <v>919</v>
       </c>
       <c r="H246" t="s">
+        <v>337</v>
+      </c>
+      <c r="I246" t="s">
         <v>533</v>
       </c>
-      <c r="I246" t="s">
+      <c r="J246" t="s">
+        <v>900</v>
+      </c>
+      <c r="K246" t="s">
         <v>920</v>
-      </c>
-      <c r="J246" t="s">
-        <v>339</v>
-      </c>
-      <c r="K246" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -11830,7 +11830,7 @@
       <c r="D247" t="s">
         <v>14</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>924</v>
       </c>
       <c r="H247" t="s">
@@ -11840,10 +11840,10 @@
         <v>197</v>
       </c>
       <c r="J247" t="s">
+        <v>925</v>
+      </c>
+      <c r="K247" t="s">
         <v>198</v>
-      </c>
-      <c r="K247" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -11859,7 +11859,7 @@
       <c r="D248" t="s">
         <v>14</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>924</v>
       </c>
       <c r="H248" t="s">
@@ -11869,10 +11869,10 @@
         <v>197</v>
       </c>
       <c r="J248" t="s">
+        <v>925</v>
+      </c>
+      <c r="K248" t="s">
         <v>198</v>
-      </c>
-      <c r="K248" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -11888,20 +11888,20 @@
       <c r="D249" t="s">
         <v>14</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>924</v>
       </c>
       <c r="H249" t="s">
+        <v>196</v>
+      </c>
+      <c r="I249" t="s">
         <v>932</v>
       </c>
-      <c r="I249" t="s">
+      <c r="J249" t="s">
+        <v>925</v>
+      </c>
+      <c r="K249" t="s">
         <v>933</v>
-      </c>
-      <c r="J249" t="s">
-        <v>198</v>
-      </c>
-      <c r="K249" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -11917,7 +11917,7 @@
       <c r="D250" t="s">
         <v>14</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>924</v>
       </c>
       <c r="H250" t="s">
@@ -11927,10 +11927,10 @@
         <v>197</v>
       </c>
       <c r="J250" t="s">
+        <v>925</v>
+      </c>
+      <c r="K250" t="s">
         <v>198</v>
-      </c>
-      <c r="K250" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -11943,7 +11943,7 @@
       <c r="D251" t="s">
         <v>14</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>924</v>
       </c>
       <c r="H251" t="s">
@@ -11953,10 +11953,10 @@
         <v>197</v>
       </c>
       <c r="J251" t="s">
+        <v>925</v>
+      </c>
+      <c r="K251" t="s">
         <v>198</v>
-      </c>
-      <c r="K251" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -11972,7 +11972,7 @@
       <c r="D252" t="s">
         <v>14</v>
       </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>924</v>
       </c>
       <c r="H252" t="s">
@@ -11982,10 +11982,10 @@
         <v>197</v>
       </c>
       <c r="J252" t="s">
+        <v>925</v>
+      </c>
+      <c r="K252" t="s">
         <v>198</v>
-      </c>
-      <c r="K252" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -11998,17 +11998,17 @@
       <c r="D253" t="s">
         <v>14</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>944</v>
       </c>
       <c r="H253" t="s">
+        <v>337</v>
+      </c>
+      <c r="I253" t="s">
         <v>945</v>
       </c>
-      <c r="I253" t="s">
+      <c r="J253" t="s">
         <v>946</v>
-      </c>
-      <c r="J253" t="s">
-        <v>339</v>
       </c>
       <c r="K253" t="s">
         <v>947</v>
@@ -12027,20 +12027,20 @@
       <c r="D254" t="s">
         <v>14</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>944</v>
       </c>
       <c r="H254" t="s">
+        <v>189</v>
+      </c>
+      <c r="I254" t="s">
         <v>454</v>
       </c>
-      <c r="I254" t="s">
+      <c r="J254" t="s">
+        <v>946</v>
+      </c>
+      <c r="K254" t="s">
         <v>455</v>
-      </c>
-      <c r="J254" t="s">
-        <v>191</v>
-      </c>
-      <c r="K254" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -12056,20 +12056,20 @@
       <c r="D255" t="s">
         <v>14</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>944</v>
       </c>
       <c r="H255" t="s">
+        <v>189</v>
+      </c>
+      <c r="I255" t="s">
         <v>954</v>
       </c>
-      <c r="I255" t="s">
+      <c r="J255" t="s">
+        <v>946</v>
+      </c>
+      <c r="K255" t="s">
         <v>955</v>
-      </c>
-      <c r="J255" t="s">
-        <v>191</v>
-      </c>
-      <c r="K255" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -12085,20 +12085,20 @@
       <c r="D256" t="s">
         <v>14</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
         <v>944</v>
       </c>
       <c r="H256" t="s">
+        <v>189</v>
+      </c>
+      <c r="I256" t="s">
         <v>954</v>
       </c>
-      <c r="I256" t="s">
+      <c r="J256" t="s">
+        <v>946</v>
+      </c>
+      <c r="K256" t="s">
         <v>955</v>
-      </c>
-      <c r="J256" t="s">
-        <v>191</v>
-      </c>
-      <c r="K256" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -12114,20 +12114,20 @@
       <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>944</v>
       </c>
       <c r="H257" t="s">
+        <v>189</v>
+      </c>
+      <c r="I257" t="s">
         <v>954</v>
       </c>
-      <c r="I257" t="s">
+      <c r="J257" t="s">
+        <v>946</v>
+      </c>
+      <c r="K257" t="s">
         <v>955</v>
-      </c>
-      <c r="J257" t="s">
-        <v>191</v>
-      </c>
-      <c r="K257" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -12143,20 +12143,20 @@
       <c r="D258" t="s">
         <v>14</v>
       </c>
-      <c r="E258" t="s">
+      <c r="F258" t="s">
         <v>944</v>
       </c>
       <c r="H258" t="s">
+        <v>337</v>
+      </c>
+      <c r="I258" t="s">
         <v>708</v>
       </c>
-      <c r="I258" t="s">
-        <v>709</v>
-      </c>
       <c r="J258" t="s">
-        <v>339</v>
+        <v>946</v>
       </c>
       <c r="K258" t="s">
-        <v>947</v>
+        <v>710</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -12172,20 +12172,20 @@
       <c r="D259" t="s">
         <v>14</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>944</v>
       </c>
       <c r="H259" t="s">
+        <v>189</v>
+      </c>
+      <c r="I259" t="s">
         <v>954</v>
       </c>
-      <c r="I259" t="s">
+      <c r="J259" t="s">
+        <v>946</v>
+      </c>
+      <c r="K259" t="s">
         <v>955</v>
-      </c>
-      <c r="J259" t="s">
-        <v>191</v>
-      </c>
-      <c r="K259" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -12201,7 +12201,7 @@
       <c r="D260" t="s">
         <v>14</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>944</v>
       </c>
       <c r="H260" t="s">
@@ -12211,10 +12211,10 @@
         <v>338</v>
       </c>
       <c r="J260" t="s">
+        <v>946</v>
+      </c>
+      <c r="K260" t="s">
         <v>339</v>
-      </c>
-      <c r="K260" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -12230,20 +12230,20 @@
       <c r="D261" t="s">
         <v>14</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>944</v>
       </c>
       <c r="H261" t="s">
+        <v>405</v>
+      </c>
+      <c r="I261" t="s">
         <v>973</v>
       </c>
-      <c r="I261" t="s">
+      <c r="J261" t="s">
+        <v>946</v>
+      </c>
+      <c r="K261" t="s">
         <v>974</v>
-      </c>
-      <c r="J261" t="s">
-        <v>407</v>
-      </c>
-      <c r="K261" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -12259,7 +12259,7 @@
       <c r="D262" t="s">
         <v>14</v>
       </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>944</v>
       </c>
       <c r="H262" t="s">
@@ -12269,10 +12269,10 @@
         <v>338</v>
       </c>
       <c r="J262" t="s">
+        <v>946</v>
+      </c>
+      <c r="K262" t="s">
         <v>339</v>
-      </c>
-      <c r="K262" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -12288,20 +12288,20 @@
       <c r="D263" t="s">
         <v>14</v>
       </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>944</v>
       </c>
       <c r="H263" t="s">
+        <v>377</v>
+      </c>
+      <c r="I263" t="s">
         <v>981</v>
       </c>
-      <c r="I263" t="s">
+      <c r="J263" t="s">
+        <v>946</v>
+      </c>
+      <c r="K263" t="s">
         <v>982</v>
-      </c>
-      <c r="J263" t="s">
-        <v>379</v>
-      </c>
-      <c r="K263" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -12317,7 +12317,7 @@
       <c r="D264" t="s">
         <v>14</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>944</v>
       </c>
       <c r="H264" t="s">
@@ -12327,10 +12327,10 @@
         <v>59</v>
       </c>
       <c r="J264" t="s">
+        <v>946</v>
+      </c>
+      <c r="K264" t="s">
         <v>60</v>
-      </c>
-      <c r="K264" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -12346,7 +12346,7 @@
       <c r="D265" t="s">
         <v>14</v>
       </c>
-      <c r="E265" t="s">
+      <c r="F265" t="s">
         <v>944</v>
       </c>
       <c r="H265" t="s">
@@ -12356,10 +12356,10 @@
         <v>19</v>
       </c>
       <c r="J265" t="s">
-        <v>20</v>
+        <v>946</v>
       </c>
       <c r="K265" t="s">
-        <v>947</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -12375,20 +12375,20 @@
       <c r="D266" t="s">
         <v>14</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>944</v>
       </c>
       <c r="H266" t="s">
+        <v>236</v>
+      </c>
+      <c r="I266" t="s">
         <v>992</v>
       </c>
-      <c r="I266" t="s">
+      <c r="J266" t="s">
+        <v>946</v>
+      </c>
+      <c r="K266" t="s">
         <v>993</v>
-      </c>
-      <c r="J266" t="s">
-        <v>238</v>
-      </c>
-      <c r="K266" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -12404,20 +12404,20 @@
       <c r="D267" t="s">
         <v>14</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>997</v>
       </c>
       <c r="H267" t="s">
+        <v>236</v>
+      </c>
+      <c r="I267" t="s">
         <v>243</v>
       </c>
-      <c r="I267" t="s">
+      <c r="J267" t="s">
+        <v>998</v>
+      </c>
+      <c r="K267" t="s">
         <v>244</v>
-      </c>
-      <c r="J267" t="s">
-        <v>238</v>
-      </c>
-      <c r="K267" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -12433,20 +12433,20 @@
       <c r="D268" t="s">
         <v>14</v>
       </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>1002</v>
       </c>
       <c r="H268" t="s">
+        <v>377</v>
+      </c>
+      <c r="I268" t="s">
         <v>421</v>
       </c>
-      <c r="I268" t="s">
-        <v>422</v>
-      </c>
       <c r="J268" t="s">
-        <v>379</v>
+        <v>1003</v>
       </c>
       <c r="K268" t="s">
-        <v>1003</v>
+        <v>423</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -12462,20 +12462,20 @@
       <c r="D269" t="s">
         <v>14</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>1007</v>
       </c>
       <c r="H269" t="s">
+        <v>236</v>
+      </c>
+      <c r="I269" t="s">
         <v>243</v>
       </c>
-      <c r="I269" t="s">
+      <c r="J269" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K269" t="s">
         <v>244</v>
-      </c>
-      <c r="J269" t="s">
-        <v>238</v>
-      </c>
-      <c r="K269" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -12491,20 +12491,20 @@
       <c r="D270" t="s">
         <v>14</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>1007</v>
       </c>
       <c r="H270" t="s">
+        <v>236</v>
+      </c>
+      <c r="I270" t="s">
         <v>243</v>
       </c>
-      <c r="I270" t="s">
+      <c r="J270" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K270" t="s">
         <v>244</v>
-      </c>
-      <c r="J270" t="s">
-        <v>238</v>
-      </c>
-      <c r="K270" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -12520,17 +12520,17 @@
       <c r="D271" t="s">
         <v>14</v>
       </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>1015</v>
       </c>
       <c r="H271" t="s">
+        <v>236</v>
+      </c>
+      <c r="I271" t="s">
         <v>1016</v>
       </c>
-      <c r="I271" t="s">
+      <c r="J271" t="s">
         <v>1017</v>
-      </c>
-      <c r="J271" t="s">
-        <v>238</v>
       </c>
       <c r="K271" t="s">
         <v>1018</v>
@@ -12546,17 +12546,17 @@
       <c r="D272" t="s">
         <v>14</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>1015</v>
       </c>
       <c r="H272" t="s">
+        <v>236</v>
+      </c>
+      <c r="I272" t="s">
         <v>1016</v>
       </c>
-      <c r="I272" t="s">
+      <c r="J272" t="s">
         <v>1017</v>
-      </c>
-      <c r="J272" t="s">
-        <v>238</v>
       </c>
       <c r="K272" t="s">
         <v>1018</v>
@@ -12575,17 +12575,17 @@
       <c r="D273" t="s">
         <v>14</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>1015</v>
       </c>
       <c r="H273" t="s">
+        <v>236</v>
+      </c>
+      <c r="I273" t="s">
         <v>1016</v>
       </c>
-      <c r="I273" t="s">
+      <c r="J273" t="s">
         <v>1017</v>
-      </c>
-      <c r="J273" t="s">
-        <v>238</v>
       </c>
       <c r="K273" t="s">
         <v>1018</v>
@@ -12601,17 +12601,17 @@
       <c r="D274" t="s">
         <v>14</v>
       </c>
-      <c r="E274" t="s">
+      <c r="F274" t="s">
         <v>1015</v>
       </c>
       <c r="H274" t="s">
+        <v>236</v>
+      </c>
+      <c r="I274" t="s">
         <v>1016</v>
       </c>
-      <c r="I274" t="s">
+      <c r="J274" t="s">
         <v>1017</v>
-      </c>
-      <c r="J274" t="s">
-        <v>238</v>
       </c>
       <c r="K274" t="s">
         <v>1018</v>
@@ -12630,17 +12630,17 @@
       <c r="D275" t="s">
         <v>14</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>1015</v>
       </c>
       <c r="H275" t="s">
+        <v>236</v>
+      </c>
+      <c r="I275" t="s">
         <v>1016</v>
       </c>
-      <c r="I275" t="s">
+      <c r="J275" t="s">
         <v>1017</v>
-      </c>
-      <c r="J275" t="s">
-        <v>238</v>
       </c>
       <c r="K275" t="s">
         <v>1018</v>
@@ -12659,17 +12659,17 @@
       <c r="D276" t="s">
         <v>14</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>1015</v>
       </c>
       <c r="H276" t="s">
+        <v>236</v>
+      </c>
+      <c r="I276" t="s">
         <v>1016</v>
       </c>
-      <c r="I276" t="s">
+      <c r="J276" t="s">
         <v>1017</v>
-      </c>
-      <c r="J276" t="s">
-        <v>238</v>
       </c>
       <c r="K276" t="s">
         <v>1018</v>
@@ -12688,17 +12688,17 @@
       <c r="D277" t="s">
         <v>14</v>
       </c>
-      <c r="E277" t="s">
+      <c r="F277" t="s">
         <v>1015</v>
       </c>
       <c r="H277" t="s">
+        <v>236</v>
+      </c>
+      <c r="I277" t="s">
         <v>1016</v>
       </c>
-      <c r="I277" t="s">
+      <c r="J277" t="s">
         <v>1017</v>
-      </c>
-      <c r="J277" t="s">
-        <v>238</v>
       </c>
       <c r="K277" t="s">
         <v>1018</v>
@@ -12717,20 +12717,20 @@
       <c r="D278" t="s">
         <v>14</v>
       </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>1038</v>
       </c>
       <c r="H278" t="s">
+        <v>377</v>
+      </c>
+      <c r="I278" t="s">
         <v>421</v>
       </c>
-      <c r="I278" t="s">
-        <v>422</v>
-      </c>
       <c r="J278" t="s">
-        <v>379</v>
+        <v>1039</v>
       </c>
       <c r="K278" t="s">
-        <v>1039</v>
+        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -12746,20 +12746,20 @@
       <c r="D279" t="s">
         <v>14</v>
       </c>
-      <c r="E279" t="s">
+      <c r="F279" t="s">
         <v>1038</v>
       </c>
       <c r="H279" t="s">
+        <v>58</v>
+      </c>
+      <c r="I279" t="s">
         <v>95</v>
       </c>
-      <c r="I279" t="s">
-        <v>96</v>
-      </c>
       <c r="J279" t="s">
-        <v>60</v>
+        <v>1039</v>
       </c>
       <c r="K279" t="s">
-        <v>1039</v>
+        <v>97</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -12775,7 +12775,7 @@
       <c r="D280" t="s">
         <v>14</v>
       </c>
-      <c r="E280" t="s">
+      <c r="F280" t="s">
         <v>1038</v>
       </c>
       <c r="H280" t="s">
@@ -12785,10 +12785,10 @@
         <v>19</v>
       </c>
       <c r="J280" t="s">
-        <v>20</v>
+        <v>1039</v>
       </c>
       <c r="K280" t="s">
-        <v>1039</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -12804,20 +12804,20 @@
       <c r="D281" t="s">
         <v>14</v>
       </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
         <v>1038</v>
       </c>
       <c r="H281" t="s">
+        <v>236</v>
+      </c>
+      <c r="I281" t="s">
         <v>352</v>
       </c>
-      <c r="I281" t="s">
+      <c r="J281" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K281" t="s">
         <v>353</v>
-      </c>
-      <c r="J281" t="s">
-        <v>238</v>
-      </c>
-      <c r="K281" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -12833,7 +12833,7 @@
       <c r="D282" t="s">
         <v>14</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>1038</v>
       </c>
       <c r="H282" t="s">
@@ -12843,10 +12843,10 @@
         <v>254</v>
       </c>
       <c r="J282" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K282" t="s">
         <v>255</v>
-      </c>
-      <c r="K282" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -12862,20 +12862,20 @@
       <c r="D283" t="s">
         <v>14</v>
       </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
         <v>1055</v>
       </c>
       <c r="H283" t="s">
+        <v>337</v>
+      </c>
+      <c r="I283" t="s">
         <v>804</v>
       </c>
-      <c r="I283" t="s">
+      <c r="J283" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K283" t="s">
         <v>894</v>
-      </c>
-      <c r="J283" t="s">
-        <v>339</v>
-      </c>
-      <c r="K283" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -12891,7 +12891,7 @@
       <c r="D284" t="s">
         <v>14</v>
       </c>
-      <c r="E284" t="s">
+      <c r="F284" t="s">
         <v>1060</v>
       </c>
       <c r="H284" t="s">
@@ -12901,10 +12901,10 @@
         <v>254</v>
       </c>
       <c r="J284" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K284" t="s">
         <v>255</v>
-      </c>
-      <c r="K284" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -12917,20 +12917,20 @@
       <c r="D285" t="s">
         <v>14</v>
       </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
         <v>1064</v>
       </c>
       <c r="H285" t="s">
+        <v>236</v>
+      </c>
+      <c r="I285" t="s">
         <v>352</v>
       </c>
-      <c r="I285" t="s">
+      <c r="J285" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K285" t="s">
         <v>353</v>
-      </c>
-      <c r="J285" t="s">
-        <v>238</v>
-      </c>
-      <c r="K285" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12946,20 +12946,20 @@
       <c r="D286" t="s">
         <v>14</v>
       </c>
-      <c r="E286" t="s">
+      <c r="F286" t="s">
         <v>1069</v>
       </c>
       <c r="H286" t="s">
+        <v>377</v>
+      </c>
+      <c r="I286" t="s">
         <v>981</v>
       </c>
-      <c r="I286" t="s">
+      <c r="J286" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K286" t="s">
         <v>982</v>
-      </c>
-      <c r="J286" t="s">
-        <v>379</v>
-      </c>
-      <c r="K286" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12975,20 +12975,20 @@
       <c r="D287" t="s">
         <v>14</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>1069</v>
       </c>
       <c r="H287" t="s">
+        <v>377</v>
+      </c>
+      <c r="I287" t="s">
         <v>981</v>
       </c>
-      <c r="I287" t="s">
+      <c r="J287" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K287" t="s">
         <v>982</v>
-      </c>
-      <c r="J287" t="s">
-        <v>379</v>
-      </c>
-      <c r="K287" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -13004,20 +13004,20 @@
       <c r="D288" t="s">
         <v>14</v>
       </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>1069</v>
       </c>
       <c r="H288" t="s">
+        <v>18</v>
+      </c>
+      <c r="I288" t="s">
         <v>75</v>
       </c>
-      <c r="I288" t="s">
+      <c r="J288" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K288" t="s">
         <v>76</v>
-      </c>
-      <c r="J288" t="s">
-        <v>20</v>
-      </c>
-      <c r="K288" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -13033,7 +13033,7 @@
       <c r="D289" t="s">
         <v>14</v>
       </c>
-      <c r="E289" t="s">
+      <c r="F289" t="s">
         <v>1069</v>
       </c>
       <c r="H289" t="s">
@@ -13043,10 +13043,10 @@
         <v>59</v>
       </c>
       <c r="J289" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K289" t="s">
         <v>60</v>
-      </c>
-      <c r="K289" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -13062,7 +13062,7 @@
       <c r="D290" t="s">
         <v>14</v>
       </c>
-      <c r="E290" t="s">
+      <c r="F290" t="s">
         <v>1069</v>
       </c>
       <c r="H290" t="s">
@@ -13072,10 +13072,10 @@
         <v>59</v>
       </c>
       <c r="J290" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K290" t="s">
         <v>60</v>
-      </c>
-      <c r="K290" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -13091,20 +13091,20 @@
       <c r="D291" t="s">
         <v>14</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>1069</v>
       </c>
       <c r="H291" t="s">
+        <v>236</v>
+      </c>
+      <c r="I291" t="s">
         <v>352</v>
       </c>
-      <c r="I291" t="s">
+      <c r="J291" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K291" t="s">
         <v>353</v>
-      </c>
-      <c r="J291" t="s">
-        <v>238</v>
-      </c>
-      <c r="K291" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -13120,20 +13120,20 @@
       <c r="D292" t="s">
         <v>14</v>
       </c>
-      <c r="E292" t="s">
+      <c r="F292" t="s">
         <v>1069</v>
       </c>
       <c r="H292" t="s">
+        <v>236</v>
+      </c>
+      <c r="I292" t="s">
         <v>352</v>
       </c>
-      <c r="I292" t="s">
+      <c r="J292" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K292" t="s">
         <v>353</v>
-      </c>
-      <c r="J292" t="s">
-        <v>238</v>
-      </c>
-      <c r="K292" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -13149,20 +13149,20 @@
       <c r="D293" t="s">
         <v>14</v>
       </c>
-      <c r="E293" t="s">
+      <c r="F293" t="s">
         <v>1069</v>
       </c>
       <c r="H293" t="s">
+        <v>236</v>
+      </c>
+      <c r="I293" t="s">
         <v>352</v>
       </c>
-      <c r="I293" t="s">
+      <c r="J293" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K293" t="s">
         <v>353</v>
-      </c>
-      <c r="J293" t="s">
-        <v>238</v>
-      </c>
-      <c r="K293" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -13178,20 +13178,20 @@
       <c r="D294" t="s">
         <v>14</v>
       </c>
-      <c r="E294" t="s">
+      <c r="F294" t="s">
         <v>1069</v>
       </c>
       <c r="H294" t="s">
+        <v>236</v>
+      </c>
+      <c r="I294" t="s">
         <v>352</v>
       </c>
-      <c r="I294" t="s">
+      <c r="J294" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K294" t="s">
         <v>353</v>
-      </c>
-      <c r="J294" t="s">
-        <v>238</v>
-      </c>
-      <c r="K294" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -13207,20 +13207,20 @@
       <c r="D295" t="s">
         <v>14</v>
       </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
         <v>1098</v>
       </c>
       <c r="H295" t="s">
+        <v>236</v>
+      </c>
+      <c r="I295" t="s">
         <v>352</v>
       </c>
-      <c r="I295" t="s">
+      <c r="J295" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K295" t="s">
         <v>353</v>
-      </c>
-      <c r="J295" t="s">
-        <v>238</v>
-      </c>
-      <c r="K295" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -13236,20 +13236,20 @@
       <c r="D296" t="s">
         <v>14</v>
       </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
         <v>1098</v>
       </c>
       <c r="H296" t="s">
+        <v>236</v>
+      </c>
+      <c r="I296" t="s">
         <v>352</v>
       </c>
-      <c r="I296" t="s">
+      <c r="J296" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K296" t="s">
         <v>353</v>
-      </c>
-      <c r="J296" t="s">
-        <v>238</v>
-      </c>
-      <c r="K296" t="s">
-        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/en/SectorCOFOG.xlsx
+++ b/api/2/xlsx/en/SectorCOFOG.xlsx
@@ -28,27 +28,27 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
+    <t>codeforiati:cofog-group</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-class</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-group</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-class</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>active</t>
   </si>
   <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
+    <t>09.8 - Education n.e.c.</t>
+  </si>
+  <si>
+    <t>09.8.0 - Education n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>09.8 - Education n.e.c.</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>09.8.0 - Education n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -133,15 +133,15 @@
     <t>112</t>
   </si>
   <si>
+    <t>09.1 - Pre‐primary and primary education</t>
+  </si>
+  <si>
+    <t>09.1.2 - Primary education (IS)</t>
+  </si>
+  <si>
     <t>Basic Education</t>
   </si>
   <si>
-    <t>09.1 - Pre‐primary and primary education</t>
-  </si>
-  <si>
-    <t>09.1.2 - Primary education (IS)</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>113</t>
   </si>
   <si>
+    <t>09.2.2 - Upper‐secondary education (IS)</t>
+  </si>
+  <si>
     <t>Secondary Education</t>
   </si>
   <si>
-    <t>09.2.2 - Upper‐secondary education (IS)</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>114</t>
   </si>
   <si>
+    <t>09.4 - Tertiary education</t>
+  </si>
+  <si>
+    <t>09.4.1 - First stage of tertiary education (IS)</t>
+  </si>
+  <si>
     <t>Post-Secondary Education</t>
   </si>
   <si>
-    <t>09.4 - Tertiary education</t>
-  </si>
-  <si>
-    <t>09.4.1 - First stage of tertiary education (IS)</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -295,21 +295,21 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
+    <t>07.6 - Health n.e.c.</t>
+  </si>
+  <si>
+    <t>07.6.0 - Health n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>07.6.0 - Health n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Population/development policies; demographic research/analysis; reproductive health research; unspecified population activities. (Use purpose code 15190 for data on migration and refugees. Use code 13096 for census work, vital registration and migration data collection.)</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Population Policies/Programmes &amp; Reproductive Health</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -580,18 +580,18 @@
     <t>Water sector policy and governance, including legislation, regulation, planning and management as well as transboundary management of water; institutional capacity development; activities supporting the Integrated Water Resource Management approach (IWRM: see box below).</t>
   </si>
   <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
     <t>06.3 - Water supply</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
@@ -715,27 +715,27 @@
     <t>Institution-building assistance to strengthen core public sector management systems and capacities. This includes general public policy management, co-ordination, planning and reform; human resource management; organisational development; civil service reform; e-government; development planning, monitoring and evaluation; support to ministries involved in aid co-ordination; other ministries and government departments when sector cannot be specified. (Use specific sector codes for development of systems and capacities in sector ministries. For macro-economic policy use code 15142. For public procurement use code 15125.)</t>
   </si>
   <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
+    <t>01.3 - General services</t>
+  </si>
+  <si>
+    <t>01.3.1 - General personnel services (CS)</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>01.3 - General services</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>01.3.1 - General personnel services (CS)</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -1276,15 +1276,15 @@
     <t>Social protection or social security strategies, legislation and administration; institution capacity building and advice; social security and other social schemes; support programmes, cash benefits, pensions and special programmes for older persons, orphans, persons with disabilities, children, mothers with newborns, those living in poverty, without jobs and other vulnerable groups; social dimensions of structural adjustment.</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
     <t>10.9 - Social protection n.e.c.</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
@@ -1486,12 +1486,12 @@
     <t>Transport sector policy, planning and programmes; aid to transport ministries; institution capacity building and advice; unspecified transport; activities that combine road, rail, water and/or air transport. Includes prevention of road accidents. Whenever possible, report transport of goods under the sector of the good being transported.</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transport &amp; Storage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21011</t>
   </si>
   <si>
@@ -1636,12 +1636,12 @@
     <t>Communications sector policy, planning and programmes; institution capacity building and advice; including postal services development; unspecified communications activities.</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22011</t>
   </si>
   <si>
@@ -1711,21 +1711,21 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
+    <t>04.3 - Fuel and energy</t>
+  </si>
+  <si>
+    <t>04.3.5 - Electricity (CS)</t>
+  </si>
+  <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>04.3.5 - Electricity (CS)</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -2032,12 +2032,12 @@
     <t>Finance sector policy, planning and programmes; institution capacity building and advice; financial markets and systems.</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banking &amp; Financial Services</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -2089,12 +2089,12 @@
     <t>Public sector policies and institution support to the business environment and investment climate, including business regulations, property rights, non-discrimination, investment promotion, competition policy, enterprises law, private-public partnerships.</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Business &amp; Other Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -2134,21 +2134,21 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>04.2.1 - Agriculture (CS)</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>04.2.1 - Agriculture (CS)</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -2314,12 +2314,12 @@
     <t>312</t>
   </si>
   <si>
+    <t>04.2.2 - Forestry (CS)</t>
+  </si>
+  <si>
     <t>Forestry</t>
   </si>
   <si>
-    <t>04.2.2 - Forestry (CS)</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -2371,12 +2371,12 @@
     <t>313</t>
   </si>
   <si>
+    <t>04.2.3 - Fishing and hunting (CS)</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
-    <t>04.2.3 - Fishing and hunting (CS)</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -2422,21 +2422,21 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
+  </si>
+  <si>
+    <t>04.4.2 - Manufacturing (CS)</t>
+  </si>
+  <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>04.4.2 - Manufacturing (CS)</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -2596,12 +2596,12 @@
     <t>322</t>
   </si>
   <si>
+    <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
+  </si>
+  <si>
     <t>Mineral Resources &amp; Mining</t>
   </si>
   <si>
-    <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -2695,12 +2695,12 @@
     <t>323</t>
   </si>
   <si>
+    <t>04.4.3 - Construction (CS)</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>04.4.3 - Construction (CS)</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
@@ -2713,12 +2713,12 @@
     <t>331</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -2773,12 +2773,12 @@
     <t>332</t>
   </si>
   <si>
+    <t>04.7.3 - Tourism (CS)</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>04.7.3 - Tourism (CS)</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -2788,12 +2788,12 @@
     <t>Environmental policy, laws, regulations and economic instruments; administrational institutions and practices; environmental and land use planning and decision-making procedures; seminars, meetings; miscellaneous conservation and protection measures not specified below.</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>General Environment Protection</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -2848,15 +2848,15 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Other Multisector</t>
   </si>
   <si>
     <t>04.9 - Economic affairs n.e.c.</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
@@ -3007,12 +3007,12 @@
     <t>Unearmarked contributions to the government budget; support for the implementation of macroeconomic reforms (structural adjustment programmes, poverty reduction strategies); general programme assistance (when not allocable by sector).</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>General Budget Support</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
@@ -3022,12 +3022,12 @@
     <t>Supply of edible human food under national or international programmes including transport costs, cash payments made for food supplies; project food assistance aid and food assistance aid for market sales when benefiting sector not specified. Excludes food security policy and administrative management (43071), household food security programmes (43072) and emergency food assistance aid (72040). Report as multilateral: i) food assistance aid by EU financed out of its budget and allocated pro rata to EU member countries; and ii) core contributions to the World Food Programme.</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Development Food Assistance</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
@@ -3037,12 +3037,12 @@
     <t>Capital goods and services; lines of credit.</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Other Commodity Assistance</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -3061,15 +3061,15 @@
     <t>Actions falling outside the code headings below.</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Action Relating to Debt</t>
   </si>
   <si>
     <t>01.7 - Public debt transactions</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
   </si>
   <si>
@@ -3130,12 +3130,12 @@
     <t>Shelter, water, sanitation, education, health services including supply of medicines and malnutrition management, including medical nutrition management; supply of other nonfood relief items (including cash and voucher delivery modalities) for the benefit of crisisaffected people, including refugees and internally displaced people in developing countries, Includes assistance delivered by or coordinated by international civil protection units in the immediate aftermath of a disaster (in-kind assistance, deployment of specially-equipped teams, logistics and transportation, or assessment and coordination by experts sent to the field). Also includes measures to promote and protect the safety, well-being, dignity and integrity of crisis-affected people including refugees and internally displaced persons in developing countries. (Activities designed to protect the security of persons or properties through the use or display of force are not reportable as ODA.)</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Emergency Response</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72011</t>
   </si>
   <si>
@@ -3181,12 +3181,12 @@
     <t>Social and economic rehabilitation in the aftermath of emergencies to facilitate recovery and resilience building and enable populations to restore their livelihoods in the wake of an emergency situation (e.g. trauma counselling and treatment, employment programmes). Includes infrastructure necessary for the delivery of humanitarian aid; restoring pre-existing essential infrastructure and facilities (e.g. water and sanitation, shelter, health care services, education); rehabilitation of basic agricultural inputs and livestock. Excludes longer-term reconstruction ('build back better') which is reportable against relevant sectors.</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction Relief &amp; Rehabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
@@ -3196,24 +3196,24 @@
     <t>Building the responsiveness, capability and capacity of international, regional and national humanitarian actors to disasters. Support to the institutional capacities of national and local government, specialised humanitarian bodies, and civil society organisations to anticipate, respond and recover from the impact of potential, imminent and current hazardous events and emergency situations that pose humanitarian threats and could call for a humanitarian response. This includes risk analysis and assessment, mitigation, preparedness, such as stockpiling of emergency items and training and capacity building aimed to increase the speed and effectiveness of lifesaving assistance delivered in the occurrence of crisis.</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Disaster Prevention &amp; Preparedness</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Administrative Costs of Donors</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
@@ -3223,12 +3223,12 @@
     <t>Costs incurred in donor countries for basic assistance to asylum seekers and refugees from developing countries, up to 12 months, when costs cannot be disaggregated. See section II.6 and Annex 17.</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugees in Donor Countries</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>93011</t>
   </si>
   <si>
@@ -3310,10 +3310,10 @@
     <t>Contributions to general development of the recipient should be included under programme assistance (51010).</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Unallocated / Unspecified</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -3759,10 +3759,10 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3829,10 +3829,10 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3849,22 +3849,22 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>41</v>
@@ -3884,13 +3884,13 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -3902,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3919,22 +3919,22 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
         <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>41</v>
@@ -3954,22 +3954,22 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
         <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>41</v>
@@ -3989,25 +3989,25 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4024,25 +4024,25 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4059,13 +4059,13 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -4074,10 +4074,10 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4094,13 +4094,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -4109,7 +4109,7 @@
         <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -4129,13 +4129,13 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -4144,10 +4144,10 @@
         <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4164,22 +4164,22 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
       <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
         <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
       </c>
       <c r="K15" t="s">
         <v>83</v>
@@ -4199,13 +4199,13 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -4214,10 +4214,10 @@
         <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4234,16 +4234,16 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>94</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
       </c>
       <c r="I17" t="s">
         <v>95</v>
@@ -4269,16 +4269,16 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>93</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>94</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
       </c>
       <c r="I18" t="s">
         <v>95</v>
@@ -4304,25 +4304,25 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>92</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>93</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>94</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
       </c>
       <c r="I19" t="s">
         <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4339,25 +4339,25 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>94</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
       </c>
       <c r="I20" t="s">
         <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4374,16 +4374,16 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
         <v>92</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>93</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>94</v>
-      </c>
-      <c r="H21" t="s">
-        <v>58</v>
       </c>
       <c r="I21" t="s">
         <v>95</v>
@@ -4409,25 +4409,25 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>93</v>
       </c>
-      <c r="G22" t="s">
-        <v>118</v>
-      </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4444,25 +4444,25 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>93</v>
       </c>
-      <c r="G23" t="s">
-        <v>118</v>
-      </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
         <v>122</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4479,25 +4479,25 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
         <v>117</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>93</v>
       </c>
-      <c r="G24" t="s">
-        <v>118</v>
-      </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
         <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4514,25 +4514,25 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>93</v>
       </c>
-      <c r="G25" t="s">
-        <v>118</v>
-      </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
         <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4549,25 +4549,25 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
         <v>117</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>93</v>
       </c>
-      <c r="G26" t="s">
-        <v>118</v>
-      </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4584,25 +4584,25 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>93</v>
       </c>
-      <c r="G27" t="s">
-        <v>118</v>
-      </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
         <v>59</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4619,25 +4619,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
         <v>117</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>93</v>
       </c>
-      <c r="G28" t="s">
-        <v>118</v>
-      </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
         <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4654,25 +4654,25 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>93</v>
       </c>
-      <c r="G29" t="s">
-        <v>118</v>
-      </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
         <v>59</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4689,16 +4689,16 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>117</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>93</v>
       </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
         <v>95</v>
@@ -4707,7 +4707,7 @@
         <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4724,25 +4724,25 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>148</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>93</v>
       </c>
-      <c r="G31" t="s">
-        <v>149</v>
-      </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
         <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K31" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4759,25 +4759,25 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>148</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>93</v>
       </c>
-      <c r="G32" t="s">
-        <v>149</v>
-      </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K32" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4794,25 +4794,25 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>93</v>
       </c>
-      <c r="G33" t="s">
-        <v>149</v>
-      </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
         <v>59</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4829,25 +4829,25 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
         <v>148</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>93</v>
       </c>
-      <c r="G34" t="s">
-        <v>149</v>
-      </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K34" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4864,25 +4864,25 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
         <v>148</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>93</v>
       </c>
-      <c r="G35" t="s">
-        <v>149</v>
-      </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
         <v>59</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4899,25 +4899,25 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
         <v>148</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>93</v>
       </c>
-      <c r="G36" t="s">
-        <v>149</v>
-      </c>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
         <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4933,19 +4933,19 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
         <v>168</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I37" t="s">
         <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>169</v>
-      </c>
-      <c r="K37" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4962,19 +4962,19 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
         <v>168</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
       </c>
       <c r="J38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4991,19 +4991,19 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
         <v>168</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I39" t="s">
         <v>59</v>
       </c>
       <c r="J39" t="s">
-        <v>169</v>
-      </c>
-      <c r="K39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5020,19 +5020,19 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
         <v>168</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I40" t="s">
         <v>59</v>
       </c>
       <c r="J40" t="s">
-        <v>169</v>
-      </c>
-      <c r="K40" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5049,20 +5049,20 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
         <v>168</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I41" t="s">
         <v>95</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
-      </c>
-      <c r="K41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5078,19 +5078,19 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
         <v>168</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="I42" t="s">
         <v>104</v>
       </c>
       <c r="J42" t="s">
-        <v>169</v>
-      </c>
-      <c r="K42" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5107,19 +5107,19 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>188</v>
       </c>
+      <c r="G43" t="s">
+        <v>189</v>
+      </c>
       <c r="H43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J43" t="s">
-        <v>191</v>
-      </c>
-      <c r="K43" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5136,19 +5136,19 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
-        <v>188</v>
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" t="s">
+        <v>189</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I44" t="s">
         <v>197</v>
       </c>
       <c r="J44" t="s">
-        <v>191</v>
-      </c>
-      <c r="K44" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5165,19 +5165,19 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
         <v>188</v>
       </c>
+      <c r="G45" t="s">
+        <v>189</v>
+      </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J45" t="s">
-        <v>191</v>
-      </c>
-      <c r="K45" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5194,19 +5194,19 @@
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
         <v>188</v>
       </c>
+      <c r="G46" t="s">
+        <v>189</v>
+      </c>
       <c r="H46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K46" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5223,19 +5223,19 @@
       <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
-        <v>188</v>
+      <c r="E47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" t="s">
+        <v>189</v>
       </c>
       <c r="H47" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
         <v>208</v>
       </c>
       <c r="J47" t="s">
-        <v>191</v>
-      </c>
-      <c r="K47" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5252,19 +5252,19 @@
       <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>188</v>
       </c>
+      <c r="G48" t="s">
+        <v>189</v>
+      </c>
       <c r="H48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J48" t="s">
-        <v>191</v>
-      </c>
-      <c r="K48" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5281,19 +5281,19 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>188</v>
       </c>
+      <c r="G49" t="s">
+        <v>189</v>
+      </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K49" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5310,19 +5310,19 @@
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
-        <v>188</v>
+      <c r="E50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" t="s">
+        <v>189</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
         <v>208</v>
       </c>
       <c r="J50" t="s">
-        <v>191</v>
-      </c>
-      <c r="K50" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5339,19 +5339,19 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" t="s">
         <v>188</v>
       </c>
+      <c r="G51" t="s">
+        <v>189</v>
+      </c>
       <c r="H51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J51" t="s">
-        <v>191</v>
-      </c>
-      <c r="K51" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5368,19 +5368,19 @@
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="F52" t="s">
-        <v>188</v>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" t="s">
+        <v>189</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I52" t="s">
         <v>225</v>
       </c>
       <c r="J52" t="s">
-        <v>191</v>
-      </c>
-      <c r="K52" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5397,20 +5397,20 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="F53" t="s">
-        <v>188</v>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>189</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I53" t="s">
         <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>191</v>
-      </c>
-      <c r="K53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5477,10 +5477,10 @@
         <v>243</v>
       </c>
       <c r="J55" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5512,10 +5512,10 @@
         <v>248</v>
       </c>
       <c r="J56" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K56" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5532,7 +5532,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F57" t="s">
         <v>234</v>
@@ -5541,16 +5541,16 @@
         <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I57" t="s">
         <v>254</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K57" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5582,10 +5582,10 @@
         <v>243</v>
       </c>
       <c r="J58" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K58" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5617,10 +5617,10 @@
         <v>243</v>
       </c>
       <c r="J59" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K59" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5652,10 +5652,10 @@
         <v>243</v>
       </c>
       <c r="J60" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K60" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5687,10 +5687,10 @@
         <v>243</v>
       </c>
       <c r="J61" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K61" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5722,10 +5722,10 @@
         <v>243</v>
       </c>
       <c r="J62" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K62" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5757,10 +5757,10 @@
         <v>243</v>
       </c>
       <c r="J63" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="K63" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5792,10 +5792,10 @@
         <v>243</v>
       </c>
       <c r="J64" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="K64" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5827,10 +5827,10 @@
         <v>281</v>
       </c>
       <c r="J65" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="K65" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5897,10 +5897,10 @@
         <v>243</v>
       </c>
       <c r="J67" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5932,10 +5932,10 @@
         <v>237</v>
       </c>
       <c r="J68" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="K68" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -5967,10 +5967,10 @@
         <v>237</v>
       </c>
       <c r="J69" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="K69" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6002,10 +6002,10 @@
         <v>248</v>
       </c>
       <c r="J70" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K70" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6037,10 +6037,10 @@
         <v>248</v>
       </c>
       <c r="J71" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K71" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6092,7 +6092,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F73" t="s">
         <v>234</v>
@@ -6101,16 +6101,16 @@
         <v>235</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I73" t="s">
         <v>309</v>
       </c>
       <c r="J73" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="K73" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6127,7 +6127,7 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F74" t="s">
         <v>234</v>
@@ -6136,16 +6136,16 @@
         <v>235</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I74" t="s">
         <v>314</v>
       </c>
       <c r="J74" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="K74" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6162,7 +6162,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
         <v>234</v>
@@ -6171,16 +6171,16 @@
         <v>235</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I75" t="s">
         <v>319</v>
       </c>
       <c r="J75" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="K75" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6197,7 +6197,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F76" t="s">
         <v>234</v>
@@ -6206,16 +6206,16 @@
         <v>235</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I76" t="s">
         <v>309</v>
       </c>
       <c r="J76" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="K76" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6232,7 +6232,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
         <v>234</v>
@@ -6241,16 +6241,16 @@
         <v>235</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I77" t="s">
         <v>309</v>
       </c>
       <c r="J77" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="K77" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6267,7 +6267,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F78" t="s">
         <v>234</v>
@@ -6276,16 +6276,16 @@
         <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I78" t="s">
         <v>314</v>
       </c>
       <c r="J78" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="K78" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6299,7 +6299,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F79" t="s">
         <v>234</v>
@@ -6308,16 +6308,16 @@
         <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I79" t="s">
         <v>332</v>
       </c>
       <c r="J79" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="K79" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6334,7 +6334,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F80" t="s">
         <v>234</v>
@@ -6343,16 +6343,16 @@
         <v>235</v>
       </c>
       <c r="H80" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="I80" t="s">
         <v>338</v>
       </c>
       <c r="J80" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="K80" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6369,7 +6369,7 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F81" t="s">
         <v>234</v>
@@ -6378,16 +6378,16 @@
         <v>235</v>
       </c>
       <c r="H81" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="I81" t="s">
         <v>338</v>
       </c>
       <c r="J81" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="K81" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6404,7 +6404,7 @@
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F82" t="s">
         <v>234</v>
@@ -6413,16 +6413,16 @@
         <v>235</v>
       </c>
       <c r="H82" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="I82" t="s">
         <v>338</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="K82" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6454,10 +6454,10 @@
         <v>237</v>
       </c>
       <c r="J83" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="K83" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -6489,10 +6489,10 @@
         <v>352</v>
       </c>
       <c r="J84" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="K84" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6524,10 +6524,10 @@
         <v>243</v>
       </c>
       <c r="J85" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="K85" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6544,7 +6544,7 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F86" t="s">
         <v>234</v>
@@ -6553,16 +6553,16 @@
         <v>235</v>
       </c>
       <c r="H86" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="I86" t="s">
         <v>361</v>
       </c>
       <c r="J86" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
       <c r="K86" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6594,10 +6594,10 @@
         <v>243</v>
       </c>
       <c r="J87" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="K87" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6626,10 +6626,10 @@
         <v>243</v>
       </c>
       <c r="J88" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K88" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6661,10 +6661,10 @@
         <v>243</v>
       </c>
       <c r="J89" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K89" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6681,7 +6681,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F90" t="s">
         <v>234</v>
@@ -6690,16 +6690,16 @@
         <v>235</v>
       </c>
       <c r="H90" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I90" t="s">
         <v>254</v>
       </c>
       <c r="J90" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K90" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6716,7 +6716,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="F91" t="s">
         <v>234</v>
@@ -6725,16 +6725,16 @@
         <v>235</v>
       </c>
       <c r="H91" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="I91" t="s">
         <v>378</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>379</v>
       </c>
       <c r="K91" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6751,7 +6751,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F92" t="s">
         <v>234</v>
@@ -6760,16 +6760,16 @@
         <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I92" t="s">
         <v>254</v>
       </c>
       <c r="J92" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K92" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -6801,10 +6801,10 @@
         <v>248</v>
       </c>
       <c r="J93" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K93" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -6821,7 +6821,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F94" t="s">
         <v>234</v>
@@ -6830,16 +6830,16 @@
         <v>235</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I94" t="s">
         <v>254</v>
       </c>
       <c r="J94" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K94" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -6871,10 +6871,10 @@
         <v>392</v>
       </c>
       <c r="J95" t="s">
-        <v>238</v>
+        <v>393</v>
       </c>
       <c r="K95" t="s">
-        <v>393</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -6891,25 +6891,25 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" t="s">
         <v>397</v>
       </c>
-      <c r="F96" t="s">
-        <v>234</v>
-      </c>
       <c r="G96" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="H96" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I96" t="s">
         <v>254</v>
       </c>
       <c r="J96" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K96" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6926,25 +6926,25 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" t="s">
         <v>397</v>
       </c>
-      <c r="F97" t="s">
-        <v>234</v>
-      </c>
       <c r="G97" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="H97" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I97" t="s">
         <v>254</v>
       </c>
       <c r="J97" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K97" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6961,25 +6961,25 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
+        <v>405</v>
+      </c>
+      <c r="F98" t="s">
         <v>397</v>
       </c>
-      <c r="F98" t="s">
-        <v>234</v>
-      </c>
       <c r="G98" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="H98" t="s">
-        <v>405</v>
+        <v>236</v>
       </c>
       <c r="I98" t="s">
         <v>406</v>
       </c>
       <c r="J98" t="s">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="K98" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6996,25 +6996,25 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" t="s">
         <v>397</v>
       </c>
-      <c r="F99" t="s">
-        <v>234</v>
-      </c>
       <c r="G99" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="H99" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I99" t="s">
         <v>254</v>
       </c>
       <c r="J99" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K99" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7031,25 +7031,25 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" t="s">
         <v>397</v>
       </c>
-      <c r="F100" t="s">
-        <v>234</v>
-      </c>
       <c r="G100" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="H100" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I100" t="s">
         <v>319</v>
       </c>
       <c r="J100" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="K100" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7066,25 +7066,25 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" t="s">
         <v>397</v>
       </c>
-      <c r="F101" t="s">
-        <v>234</v>
-      </c>
       <c r="G101" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I101" t="s">
         <v>254</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K101" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7100,19 +7100,19 @@
       <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="F102" t="s">
+      <c r="E102" t="s">
+        <v>377</v>
+      </c>
+      <c r="G102" t="s">
         <v>420</v>
       </c>
       <c r="H102" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I102" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J102" t="s">
-        <v>422</v>
-      </c>
-      <c r="K102" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7129,19 +7129,19 @@
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="F103" t="s">
+      <c r="E103" t="s">
+        <v>377</v>
+      </c>
+      <c r="G103" t="s">
         <v>420</v>
       </c>
       <c r="H103" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I103" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J103" t="s">
-        <v>422</v>
-      </c>
-      <c r="K103" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7158,19 +7158,19 @@
       <c r="D104" t="s">
         <v>14</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E104" t="s">
+        <v>377</v>
+      </c>
+      <c r="G104" t="s">
         <v>420</v>
       </c>
       <c r="H104" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I104" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J104" t="s">
-        <v>422</v>
-      </c>
-      <c r="K104" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7187,19 +7187,19 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-      <c r="F105" t="s">
+      <c r="E105" t="s">
+        <v>377</v>
+      </c>
+      <c r="G105" t="s">
         <v>420</v>
       </c>
       <c r="H105" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I105" t="s">
         <v>433</v>
       </c>
       <c r="J105" t="s">
-        <v>422</v>
-      </c>
-      <c r="K105" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7216,19 +7216,19 @@
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="F106" t="s">
+      <c r="E106" t="s">
+        <v>377</v>
+      </c>
+      <c r="G106" t="s">
         <v>420</v>
       </c>
       <c r="H106" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J106" t="s">
-        <v>422</v>
-      </c>
-      <c r="K106" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7245,19 +7245,19 @@
       <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="F107" t="s">
+      <c r="E107" t="s">
+        <v>377</v>
+      </c>
+      <c r="G107" t="s">
         <v>420</v>
       </c>
       <c r="H107" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I107" t="s">
         <v>378</v>
       </c>
       <c r="J107" t="s">
-        <v>422</v>
-      </c>
-      <c r="K107" t="s">
         <v>379</v>
       </c>
     </row>
@@ -7274,19 +7274,19 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-      <c r="F108" t="s">
+      <c r="E108" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" t="s">
         <v>420</v>
       </c>
       <c r="H108" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I108" t="s">
         <v>444</v>
       </c>
       <c r="J108" t="s">
-        <v>422</v>
-      </c>
-      <c r="K108" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7303,19 +7303,19 @@
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="F109" t="s">
+      <c r="E109" t="s">
+        <v>188</v>
+      </c>
+      <c r="G109" t="s">
         <v>420</v>
       </c>
       <c r="H109" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="I109" t="s">
         <v>449</v>
       </c>
       <c r="J109" t="s">
-        <v>422</v>
-      </c>
-      <c r="K109" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7332,19 +7332,19 @@
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="F110" t="s">
+      <c r="E110" t="s">
+        <v>188</v>
+      </c>
+      <c r="G110" t="s">
         <v>420</v>
       </c>
       <c r="H110" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="I110" t="s">
         <v>454</v>
       </c>
       <c r="J110" t="s">
-        <v>422</v>
-      </c>
-      <c r="K110" t="s">
         <v>455</v>
       </c>
     </row>
@@ -7361,19 +7361,19 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="F111" t="s">
+      <c r="E111" t="s">
+        <v>377</v>
+      </c>
+      <c r="G111" t="s">
         <v>420</v>
       </c>
       <c r="H111" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I111" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J111" t="s">
-        <v>422</v>
-      </c>
-      <c r="K111" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7390,23 +7390,23 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="F112" t="s">
+      <c r="E112" t="s">
+        <v>462</v>
+      </c>
+      <c r="G112" t="s">
         <v>420</v>
       </c>
       <c r="H112" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="I112" t="s">
         <v>463</v>
       </c>
       <c r="J112" t="s">
-        <v>422</v>
-      </c>
-      <c r="K112" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>465</v>
       </c>
@@ -7419,23 +7419,23 @@
       <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="F113" t="s">
+      <c r="E113" t="s">
+        <v>233</v>
+      </c>
+      <c r="G113" t="s">
         <v>420</v>
       </c>
       <c r="H113" t="s">
-        <v>236</v>
+        <v>421</v>
       </c>
       <c r="I113" t="s">
         <v>237</v>
       </c>
       <c r="J113" t="s">
-        <v>422</v>
-      </c>
-      <c r="K113" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>468</v>
       </c>
@@ -7448,23 +7448,23 @@
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="F114" t="s">
+      <c r="E114" t="s">
+        <v>253</v>
+      </c>
+      <c r="G114" t="s">
         <v>420</v>
       </c>
       <c r="H114" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
       <c r="I114" t="s">
         <v>314</v>
       </c>
       <c r="J114" t="s">
-        <v>422</v>
-      </c>
-      <c r="K114" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>471</v>
       </c>
@@ -7477,23 +7477,23 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="F115" t="s">
+      <c r="E115" t="s">
+        <v>377</v>
+      </c>
+      <c r="G115" t="s">
         <v>420</v>
       </c>
       <c r="H115" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I115" t="s">
         <v>378</v>
       </c>
       <c r="J115" t="s">
-        <v>422</v>
-      </c>
-      <c r="K115" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>474</v>
       </c>
@@ -7503,23 +7503,23 @@
       <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="F116" t="s">
+      <c r="E116" t="s">
+        <v>462</v>
+      </c>
+      <c r="G116" t="s">
         <v>420</v>
       </c>
       <c r="H116" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="I116" t="s">
         <v>476</v>
       </c>
       <c r="J116" t="s">
-        <v>422</v>
-      </c>
-      <c r="K116" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>478</v>
       </c>
@@ -7529,23 +7529,23 @@
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="F117" t="s">
+      <c r="E117" t="s">
+        <v>462</v>
+      </c>
+      <c r="G117" t="s">
         <v>420</v>
       </c>
       <c r="H117" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="I117" t="s">
         <v>463</v>
       </c>
       <c r="J117" t="s">
-        <v>422</v>
-      </c>
-      <c r="K117" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>480</v>
       </c>
@@ -7558,23 +7558,23 @@
       <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="F118" t="s">
+      <c r="E118" t="s">
+        <v>337</v>
+      </c>
+      <c r="G118" t="s">
         <v>420</v>
       </c>
       <c r="H118" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="I118" t="s">
         <v>338</v>
       </c>
       <c r="J118" t="s">
-        <v>422</v>
-      </c>
-      <c r="K118" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>484</v>
       </c>
@@ -7587,23 +7587,23 @@
       <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="F119" t="s">
+      <c r="E119" t="s">
+        <v>377</v>
+      </c>
+      <c r="G119" t="s">
         <v>420</v>
       </c>
       <c r="H119" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="I119" t="s">
         <v>378</v>
       </c>
       <c r="J119" t="s">
-        <v>422</v>
-      </c>
-      <c r="K119" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>487</v>
       </c>
@@ -7616,23 +7616,23 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="F120" t="s">
+      <c r="E120" t="s">
+        <v>233</v>
+      </c>
+      <c r="G120" t="s">
         <v>490</v>
       </c>
       <c r="H120" t="s">
-        <v>236</v>
+        <v>491</v>
       </c>
       <c r="I120" t="s">
         <v>352</v>
       </c>
       <c r="J120" t="s">
-        <v>491</v>
-      </c>
-      <c r="K120" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>492</v>
       </c>
@@ -7645,23 +7645,23 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="F121" t="s">
+      <c r="E121" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" t="s">
         <v>490</v>
       </c>
       <c r="H121" t="s">
-        <v>236</v>
+        <v>491</v>
       </c>
       <c r="I121" t="s">
         <v>237</v>
       </c>
       <c r="J121" t="s">
-        <v>491</v>
-      </c>
-      <c r="K121" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>495</v>
       </c>
@@ -7674,23 +7674,23 @@
       <c r="D122" t="s">
         <v>14</v>
       </c>
-      <c r="F122" t="s">
+      <c r="E122" t="s">
+        <v>233</v>
+      </c>
+      <c r="G122" t="s">
         <v>490</v>
       </c>
       <c r="H122" t="s">
-        <v>236</v>
+        <v>491</v>
       </c>
       <c r="I122" t="s">
         <v>352</v>
       </c>
       <c r="J122" t="s">
-        <v>491</v>
-      </c>
-      <c r="K122" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>498</v>
       </c>
@@ -7703,23 +7703,23 @@
       <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="F123" t="s">
+      <c r="E123" t="s">
+        <v>233</v>
+      </c>
+      <c r="G123" t="s">
         <v>490</v>
       </c>
       <c r="H123" t="s">
-        <v>236</v>
+        <v>491</v>
       </c>
       <c r="I123" t="s">
         <v>352</v>
       </c>
       <c r="J123" t="s">
-        <v>491</v>
-      </c>
-      <c r="K123" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>501</v>
       </c>
@@ -7732,23 +7732,23 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="F124" t="s">
+      <c r="E124" t="s">
+        <v>337</v>
+      </c>
+      <c r="G124" t="s">
         <v>490</v>
       </c>
       <c r="H124" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I124" t="s">
         <v>504</v>
       </c>
       <c r="J124" t="s">
-        <v>491</v>
-      </c>
-      <c r="K124" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>506</v>
       </c>
@@ -7761,23 +7761,23 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="F125" t="s">
+      <c r="E125" t="s">
+        <v>337</v>
+      </c>
+      <c r="G125" t="s">
         <v>490</v>
       </c>
       <c r="H125" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I125" t="s">
         <v>504</v>
       </c>
       <c r="J125" t="s">
-        <v>491</v>
-      </c>
-      <c r="K125" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>509</v>
       </c>
@@ -7790,23 +7790,23 @@
       <c r="D126" t="s">
         <v>14</v>
       </c>
-      <c r="F126" t="s">
+      <c r="E126" t="s">
+        <v>337</v>
+      </c>
+      <c r="G126" t="s">
         <v>490</v>
       </c>
       <c r="H126" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I126" t="s">
         <v>504</v>
       </c>
       <c r="J126" t="s">
-        <v>491</v>
-      </c>
-      <c r="K126" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>512</v>
       </c>
@@ -7819,23 +7819,23 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
-      <c r="F127" t="s">
+      <c r="E127" t="s">
+        <v>337</v>
+      </c>
+      <c r="G127" t="s">
         <v>490</v>
       </c>
       <c r="H127" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I127" t="s">
         <v>504</v>
       </c>
       <c r="J127" t="s">
-        <v>491</v>
-      </c>
-      <c r="K127" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>515</v>
       </c>
@@ -7848,19 +7848,19 @@
       <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="F128" t="s">
+      <c r="E128" t="s">
+        <v>337</v>
+      </c>
+      <c r="G128" t="s">
         <v>490</v>
       </c>
       <c r="H128" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I128" t="s">
         <v>504</v>
       </c>
       <c r="J128" t="s">
-        <v>491</v>
-      </c>
-      <c r="K128" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7877,19 +7877,19 @@
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="F129" t="s">
+      <c r="E129" t="s">
+        <v>337</v>
+      </c>
+      <c r="G129" t="s">
         <v>490</v>
       </c>
       <c r="H129" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I129" t="s">
         <v>504</v>
       </c>
       <c r="J129" t="s">
-        <v>491</v>
-      </c>
-      <c r="K129" t="s">
         <v>521</v>
       </c>
     </row>
@@ -7906,19 +7906,19 @@
       <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="F130" t="s">
+      <c r="E130" t="s">
+        <v>337</v>
+      </c>
+      <c r="G130" t="s">
         <v>490</v>
       </c>
       <c r="H130" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I130" t="s">
         <v>504</v>
       </c>
       <c r="J130" t="s">
-        <v>491</v>
-      </c>
-      <c r="K130" t="s">
         <v>525</v>
       </c>
     </row>
@@ -7935,19 +7935,19 @@
       <c r="D131" t="s">
         <v>14</v>
       </c>
-      <c r="F131" t="s">
+      <c r="E131" t="s">
+        <v>337</v>
+      </c>
+      <c r="G131" t="s">
         <v>490</v>
       </c>
       <c r="H131" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I131" t="s">
         <v>504</v>
       </c>
       <c r="J131" t="s">
-        <v>491</v>
-      </c>
-      <c r="K131" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7964,19 +7964,19 @@
       <c r="D132" t="s">
         <v>14</v>
       </c>
-      <c r="F132" t="s">
+      <c r="E132" t="s">
+        <v>337</v>
+      </c>
+      <c r="G132" t="s">
         <v>490</v>
       </c>
       <c r="H132" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="I132" t="s">
         <v>533</v>
       </c>
       <c r="J132" t="s">
-        <v>491</v>
-      </c>
-      <c r="K132" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7990,19 +7990,19 @@
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="F133" t="s">
+      <c r="E133" t="s">
+        <v>233</v>
+      </c>
+      <c r="G133" t="s">
         <v>490</v>
       </c>
       <c r="H133" t="s">
-        <v>236</v>
+        <v>491</v>
       </c>
       <c r="I133" t="s">
         <v>392</v>
       </c>
       <c r="J133" t="s">
-        <v>491</v>
-      </c>
-      <c r="K133" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8019,19 +8019,19 @@
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="F134" t="s">
+      <c r="E134" t="s">
+        <v>337</v>
+      </c>
+      <c r="G134" t="s">
         <v>540</v>
       </c>
       <c r="H134" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="I134" t="s">
         <v>361</v>
       </c>
       <c r="J134" t="s">
-        <v>541</v>
-      </c>
-      <c r="K134" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8045,19 +8045,19 @@
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="F135" t="s">
+      <c r="E135" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" t="s">
         <v>540</v>
       </c>
       <c r="H135" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="I135" t="s">
         <v>361</v>
       </c>
       <c r="J135" t="s">
-        <v>541</v>
-      </c>
-      <c r="K135" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8074,19 +8074,19 @@
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="F136" t="s">
+      <c r="E136" t="s">
+        <v>337</v>
+      </c>
+      <c r="G136" t="s">
         <v>540</v>
       </c>
       <c r="H136" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="I136" t="s">
         <v>361</v>
       </c>
       <c r="J136" t="s">
-        <v>541</v>
-      </c>
-      <c r="K136" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8103,19 +8103,19 @@
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="F137" t="s">
+      <c r="E137" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" t="s">
         <v>540</v>
       </c>
       <c r="H137" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="I137" t="s">
         <v>361</v>
       </c>
       <c r="J137" t="s">
-        <v>541</v>
-      </c>
-      <c r="K137" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8132,19 +8132,19 @@
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="F138" t="s">
+      <c r="E138" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" t="s">
         <v>540</v>
       </c>
       <c r="H138" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="I138" t="s">
         <v>361</v>
       </c>
       <c r="J138" t="s">
-        <v>541</v>
-      </c>
-      <c r="K138" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8161,19 +8161,19 @@
       <c r="D139" t="s">
         <v>14</v>
       </c>
-      <c r="F139" t="s">
+      <c r="E139" t="s">
+        <v>462</v>
+      </c>
+      <c r="G139" t="s">
         <v>540</v>
       </c>
       <c r="H139" t="s">
-        <v>462</v>
+        <v>541</v>
       </c>
       <c r="I139" t="s">
         <v>556</v>
       </c>
       <c r="J139" t="s">
-        <v>541</v>
-      </c>
-      <c r="K139" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8190,19 +8190,19 @@
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="F140" t="s">
+      <c r="E140" t="s">
+        <v>337</v>
+      </c>
+      <c r="G140" t="s">
         <v>540</v>
       </c>
       <c r="H140" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="I140" t="s">
         <v>361</v>
       </c>
       <c r="J140" t="s">
-        <v>541</v>
-      </c>
-      <c r="K140" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8220,16 +8220,16 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
+        <v>337</v>
+      </c>
+      <c r="F141" t="s">
         <v>564</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>565</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>566</v>
-      </c>
-      <c r="H141" t="s">
-        <v>337</v>
       </c>
       <c r="I141" t="s">
         <v>567</v>
@@ -8252,16 +8252,16 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
+        <v>337</v>
+      </c>
+      <c r="F142" t="s">
         <v>564</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>565</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>566</v>
-      </c>
-      <c r="H142" t="s">
-        <v>337</v>
       </c>
       <c r="I142" t="s">
         <v>567</v>
@@ -8287,25 +8287,25 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
+        <v>337</v>
+      </c>
+      <c r="F143" t="s">
         <v>564</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>565</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>566</v>
-      </c>
-      <c r="H143" t="s">
-        <v>337</v>
       </c>
       <c r="I143" t="s">
         <v>575</v>
       </c>
       <c r="J143" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="K143" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -8322,25 +8322,25 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
+        <v>337</v>
+      </c>
+      <c r="F144" t="s">
         <v>564</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>565</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>566</v>
-      </c>
-      <c r="H144" t="s">
-        <v>337</v>
       </c>
       <c r="I144" t="s">
         <v>575</v>
       </c>
       <c r="J144" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="K144" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8357,25 +8357,25 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
+        <v>337</v>
+      </c>
+      <c r="F145" t="s">
         <v>564</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>565</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>566</v>
-      </c>
-      <c r="H145" t="s">
-        <v>337</v>
       </c>
       <c r="I145" t="s">
         <v>575</v>
       </c>
       <c r="J145" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="K145" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -8392,16 +8392,16 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
+        <v>337</v>
+      </c>
+      <c r="F146" t="s">
         <v>564</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>565</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>566</v>
-      </c>
-      <c r="H146" t="s">
-        <v>337</v>
       </c>
       <c r="I146" t="s">
         <v>567</v>
@@ -8427,16 +8427,16 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
+        <v>337</v>
+      </c>
+      <c r="F147" t="s">
         <v>589</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>565</v>
       </c>
-      <c r="G147" t="s">
-        <v>590</v>
-      </c>
       <c r="H147" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I147" t="s">
         <v>567</v>
@@ -8445,7 +8445,7 @@
         <v>568</v>
       </c>
       <c r="K147" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -8462,16 +8462,16 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
+        <v>337</v>
+      </c>
+      <c r="F148" t="s">
         <v>589</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>565</v>
       </c>
-      <c r="G148" t="s">
-        <v>590</v>
-      </c>
       <c r="H148" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I148" t="s">
         <v>567</v>
@@ -8480,7 +8480,7 @@
         <v>568</v>
       </c>
       <c r="K148" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -8497,16 +8497,16 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
+        <v>337</v>
+      </c>
+      <c r="F149" t="s">
         <v>589</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>565</v>
       </c>
-      <c r="G149" t="s">
-        <v>590</v>
-      </c>
       <c r="H149" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I149" t="s">
         <v>567</v>
@@ -8515,7 +8515,7 @@
         <v>568</v>
       </c>
       <c r="K149" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -8532,16 +8532,16 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
+        <v>337</v>
+      </c>
+      <c r="F150" t="s">
         <v>589</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>565</v>
       </c>
-      <c r="G150" t="s">
-        <v>590</v>
-      </c>
       <c r="H150" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I150" t="s">
         <v>567</v>
@@ -8550,7 +8550,7 @@
         <v>568</v>
       </c>
       <c r="K150" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -8567,16 +8567,16 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
+        <v>337</v>
+      </c>
+      <c r="F151" t="s">
         <v>589</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>565</v>
       </c>
-      <c r="G151" t="s">
-        <v>590</v>
-      </c>
       <c r="H151" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I151" t="s">
         <v>567</v>
@@ -8585,7 +8585,7 @@
         <v>568</v>
       </c>
       <c r="K151" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -8602,16 +8602,16 @@
         <v>14</v>
       </c>
       <c r="E152" t="s">
+        <v>337</v>
+      </c>
+      <c r="F152" t="s">
         <v>589</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>565</v>
       </c>
-      <c r="G152" t="s">
-        <v>590</v>
-      </c>
       <c r="H152" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I152" t="s">
         <v>567</v>
@@ -8620,7 +8620,7 @@
         <v>568</v>
       </c>
       <c r="K152" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -8637,16 +8637,16 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
+        <v>337</v>
+      </c>
+      <c r="F153" t="s">
         <v>589</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>565</v>
       </c>
-      <c r="G153" t="s">
-        <v>590</v>
-      </c>
       <c r="H153" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I153" t="s">
         <v>567</v>
@@ -8655,7 +8655,7 @@
         <v>568</v>
       </c>
       <c r="K153" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -8672,16 +8672,16 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
+        <v>337</v>
+      </c>
+      <c r="F154" t="s">
         <v>589</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>565</v>
       </c>
-      <c r="G154" t="s">
-        <v>590</v>
-      </c>
       <c r="H154" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I154" t="s">
         <v>567</v>
@@ -8690,7 +8690,7 @@
         <v>568</v>
       </c>
       <c r="K154" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -8707,16 +8707,16 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
+        <v>337</v>
+      </c>
+      <c r="F155" t="s">
         <v>589</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>565</v>
       </c>
-      <c r="G155" t="s">
-        <v>590</v>
-      </c>
       <c r="H155" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I155" t="s">
         <v>567</v>
@@ -8725,7 +8725,7 @@
         <v>568</v>
       </c>
       <c r="K155" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -8742,16 +8742,16 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
+        <v>337</v>
+      </c>
+      <c r="F156" t="s">
         <v>618</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>565</v>
       </c>
-      <c r="G156" t="s">
-        <v>619</v>
-      </c>
       <c r="H156" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I156" t="s">
         <v>567</v>
@@ -8760,7 +8760,7 @@
         <v>568</v>
       </c>
       <c r="K156" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -8777,25 +8777,25 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
+        <v>337</v>
+      </c>
+      <c r="F157" t="s">
         <v>618</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>565</v>
       </c>
-      <c r="G157" t="s">
-        <v>619</v>
-      </c>
       <c r="H157" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I157" t="s">
         <v>567</v>
       </c>
       <c r="J157" t="s">
-        <v>568</v>
+        <v>623</v>
       </c>
       <c r="K157" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -8812,16 +8812,16 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
+        <v>337</v>
+      </c>
+      <c r="F158" t="s">
         <v>618</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>565</v>
       </c>
-      <c r="G158" t="s">
-        <v>619</v>
-      </c>
       <c r="H158" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I158" t="s">
         <v>567</v>
@@ -8830,7 +8830,7 @@
         <v>568</v>
       </c>
       <c r="K158" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -8847,16 +8847,16 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
+        <v>337</v>
+      </c>
+      <c r="F159" t="s">
         <v>618</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>565</v>
       </c>
-      <c r="G159" t="s">
-        <v>619</v>
-      </c>
       <c r="H159" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I159" t="s">
         <v>567</v>
@@ -8865,7 +8865,7 @@
         <v>568</v>
       </c>
       <c r="K159" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -8882,16 +8882,16 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
+        <v>337</v>
+      </c>
+      <c r="F160" t="s">
         <v>618</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>565</v>
       </c>
-      <c r="G160" t="s">
-        <v>619</v>
-      </c>
       <c r="H160" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I160" t="s">
         <v>567</v>
@@ -8900,7 +8900,7 @@
         <v>568</v>
       </c>
       <c r="K160" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -8917,16 +8917,16 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
+        <v>337</v>
+      </c>
+      <c r="F161" t="s">
         <v>618</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>565</v>
       </c>
-      <c r="G161" t="s">
-        <v>619</v>
-      </c>
       <c r="H161" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I161" t="s">
         <v>567</v>
@@ -8935,7 +8935,7 @@
         <v>568</v>
       </c>
       <c r="K161" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -8952,16 +8952,16 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
+        <v>337</v>
+      </c>
+      <c r="F162" t="s">
         <v>639</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>565</v>
       </c>
-      <c r="G162" t="s">
-        <v>640</v>
-      </c>
       <c r="H162" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I162" t="s">
         <v>567</v>
@@ -8970,7 +8970,7 @@
         <v>568</v>
       </c>
       <c r="K162" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -8987,25 +8987,25 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
+        <v>337</v>
+      </c>
+      <c r="F163" t="s">
         <v>644</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>565</v>
       </c>
-      <c r="G163" t="s">
-        <v>642</v>
-      </c>
       <c r="H163" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I163" t="s">
         <v>567</v>
       </c>
       <c r="J163" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="K163" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -9022,16 +9022,16 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
+        <v>337</v>
+      </c>
+      <c r="F164" t="s">
         <v>649</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>565</v>
       </c>
-      <c r="G164" t="s">
-        <v>650</v>
-      </c>
       <c r="H164" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I164" t="s">
         <v>567</v>
@@ -9040,7 +9040,7 @@
         <v>568</v>
       </c>
       <c r="K164" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -9057,16 +9057,16 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
+        <v>337</v>
+      </c>
+      <c r="F165" t="s">
         <v>649</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>565</v>
       </c>
-      <c r="G165" t="s">
-        <v>650</v>
-      </c>
       <c r="H165" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I165" t="s">
         <v>567</v>
@@ -9075,7 +9075,7 @@
         <v>568</v>
       </c>
       <c r="K165" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -9092,16 +9092,16 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
+        <v>337</v>
+      </c>
+      <c r="F166" t="s">
         <v>649</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>565</v>
       </c>
-      <c r="G166" t="s">
-        <v>650</v>
-      </c>
       <c r="H166" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I166" t="s">
         <v>567</v>
@@ -9110,7 +9110,7 @@
         <v>568</v>
       </c>
       <c r="K166" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -9127,16 +9127,16 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
+        <v>337</v>
+      </c>
+      <c r="F167" t="s">
         <v>649</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>565</v>
       </c>
-      <c r="G167" t="s">
-        <v>650</v>
-      </c>
       <c r="H167" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I167" t="s">
         <v>567</v>
@@ -9145,7 +9145,7 @@
         <v>568</v>
       </c>
       <c r="K167" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -9162,25 +9162,25 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
+        <v>337</v>
+      </c>
+      <c r="F168" t="s">
         <v>649</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>565</v>
       </c>
-      <c r="G168" t="s">
-        <v>650</v>
-      </c>
       <c r="H168" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I168" t="s">
         <v>567</v>
       </c>
       <c r="J168" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="K168" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -9194,25 +9194,25 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" t="s">
         <v>649</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>565</v>
       </c>
-      <c r="G169" t="s">
-        <v>650</v>
-      </c>
       <c r="H169" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I169" t="s">
         <v>567</v>
       </c>
       <c r="J169" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="K169" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -9229,16 +9229,16 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
+        <v>337</v>
+      </c>
+      <c r="F170" t="s">
         <v>649</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>565</v>
       </c>
-      <c r="G170" t="s">
-        <v>650</v>
-      </c>
       <c r="H170" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="I170" t="s">
         <v>567</v>
@@ -9247,7 +9247,7 @@
         <v>568</v>
       </c>
       <c r="K170" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -9263,19 +9263,19 @@
       <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="F171" t="s">
+      <c r="E171" t="s">
+        <v>337</v>
+      </c>
+      <c r="G171" t="s">
         <v>672</v>
       </c>
       <c r="H171" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
       <c r="I171" t="s">
         <v>338</v>
       </c>
       <c r="J171" t="s">
-        <v>673</v>
-      </c>
-      <c r="K171" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9292,19 +9292,19 @@
       <c r="D172" t="s">
         <v>14</v>
       </c>
-      <c r="F172" t="s">
+      <c r="E172" t="s">
+        <v>233</v>
+      </c>
+      <c r="G172" t="s">
         <v>672</v>
       </c>
       <c r="H172" t="s">
-        <v>236</v>
+        <v>673</v>
       </c>
       <c r="I172" t="s">
         <v>243</v>
       </c>
       <c r="J172" t="s">
-        <v>673</v>
-      </c>
-      <c r="K172" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9321,19 +9321,19 @@
       <c r="D173" t="s">
         <v>14</v>
       </c>
-      <c r="F173" t="s">
+      <c r="E173" t="s">
+        <v>337</v>
+      </c>
+      <c r="G173" t="s">
         <v>672</v>
       </c>
       <c r="H173" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
       <c r="I173" t="s">
         <v>338</v>
       </c>
       <c r="J173" t="s">
-        <v>673</v>
-      </c>
-      <c r="K173" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9350,19 +9350,19 @@
       <c r="D174" t="s">
         <v>14</v>
       </c>
-      <c r="F174" t="s">
+      <c r="E174" t="s">
+        <v>337</v>
+      </c>
+      <c r="G174" t="s">
         <v>672</v>
       </c>
       <c r="H174" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
       <c r="I174" t="s">
         <v>338</v>
       </c>
       <c r="J174" t="s">
-        <v>673</v>
-      </c>
-      <c r="K174" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9379,19 +9379,19 @@
       <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="F175" t="s">
+      <c r="E175" t="s">
+        <v>337</v>
+      </c>
+      <c r="G175" t="s">
         <v>672</v>
       </c>
       <c r="H175" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
       <c r="I175" t="s">
         <v>338</v>
       </c>
       <c r="J175" t="s">
-        <v>673</v>
-      </c>
-      <c r="K175" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9405,19 +9405,19 @@
       <c r="D176" t="s">
         <v>14</v>
       </c>
-      <c r="F176" t="s">
+      <c r="E176" t="s">
+        <v>337</v>
+      </c>
+      <c r="G176" t="s">
         <v>672</v>
       </c>
       <c r="H176" t="s">
-        <v>337</v>
+        <v>673</v>
       </c>
       <c r="I176" t="s">
         <v>338</v>
       </c>
       <c r="J176" t="s">
-        <v>673</v>
-      </c>
-      <c r="K176" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9434,19 +9434,19 @@
       <c r="D177" t="s">
         <v>14</v>
       </c>
-      <c r="F177" t="s">
+      <c r="E177" t="s">
+        <v>337</v>
+      </c>
+      <c r="G177" t="s">
         <v>691</v>
       </c>
       <c r="H177" t="s">
-        <v>337</v>
+        <v>692</v>
       </c>
       <c r="I177" t="s">
         <v>338</v>
       </c>
       <c r="J177" t="s">
-        <v>692</v>
-      </c>
-      <c r="K177" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9463,19 +9463,19 @@
       <c r="D178" t="s">
         <v>14</v>
       </c>
-      <c r="F178" t="s">
+      <c r="E178" t="s">
+        <v>337</v>
+      </c>
+      <c r="G178" t="s">
         <v>691</v>
       </c>
       <c r="H178" t="s">
-        <v>337</v>
+        <v>692</v>
       </c>
       <c r="I178" t="s">
         <v>338</v>
       </c>
       <c r="J178" t="s">
-        <v>692</v>
-      </c>
-      <c r="K178" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9492,19 +9492,19 @@
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="F179" t="s">
+      <c r="E179" t="s">
+        <v>337</v>
+      </c>
+      <c r="G179" t="s">
         <v>691</v>
       </c>
       <c r="H179" t="s">
-        <v>337</v>
+        <v>692</v>
       </c>
       <c r="I179" t="s">
         <v>338</v>
       </c>
       <c r="J179" t="s">
-        <v>692</v>
-      </c>
-      <c r="K179" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9521,19 +9521,19 @@
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="F180" t="s">
+      <c r="E180" t="s">
+        <v>337</v>
+      </c>
+      <c r="G180" t="s">
         <v>691</v>
       </c>
       <c r="H180" t="s">
-        <v>337</v>
+        <v>692</v>
       </c>
       <c r="I180" t="s">
         <v>338</v>
       </c>
       <c r="J180" t="s">
-        <v>692</v>
-      </c>
-      <c r="K180" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9551,16 +9551,16 @@
         <v>14</v>
       </c>
       <c r="E181" t="s">
+        <v>337</v>
+      </c>
+      <c r="F181" t="s">
         <v>705</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>706</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>707</v>
-      </c>
-      <c r="H181" t="s">
-        <v>337</v>
       </c>
       <c r="I181" t="s">
         <v>708</v>
@@ -9586,16 +9586,16 @@
         <v>14</v>
       </c>
       <c r="E182" t="s">
+        <v>337</v>
+      </c>
+      <c r="F182" t="s">
         <v>705</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>706</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>707</v>
-      </c>
-      <c r="H182" t="s">
-        <v>337</v>
       </c>
       <c r="I182" t="s">
         <v>708</v>
@@ -9621,16 +9621,16 @@
         <v>14</v>
       </c>
       <c r="E183" t="s">
+        <v>337</v>
+      </c>
+      <c r="F183" t="s">
         <v>705</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>706</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>707</v>
-      </c>
-      <c r="H183" t="s">
-        <v>337</v>
       </c>
       <c r="I183" t="s">
         <v>708</v>
@@ -9656,16 +9656,16 @@
         <v>14</v>
       </c>
       <c r="E184" t="s">
+        <v>337</v>
+      </c>
+      <c r="F184" t="s">
         <v>705</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>706</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>707</v>
-      </c>
-      <c r="H184" t="s">
-        <v>337</v>
       </c>
       <c r="I184" t="s">
         <v>708</v>
@@ -9691,16 +9691,16 @@
         <v>14</v>
       </c>
       <c r="E185" t="s">
+        <v>337</v>
+      </c>
+      <c r="F185" t="s">
         <v>705</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>706</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>707</v>
-      </c>
-      <c r="H185" t="s">
-        <v>337</v>
       </c>
       <c r="I185" t="s">
         <v>708</v>
@@ -9726,16 +9726,16 @@
         <v>14</v>
       </c>
       <c r="E186" t="s">
+        <v>337</v>
+      </c>
+      <c r="F186" t="s">
         <v>705</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>706</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>707</v>
-      </c>
-      <c r="H186" t="s">
-        <v>337</v>
       </c>
       <c r="I186" t="s">
         <v>708</v>
@@ -9761,16 +9761,16 @@
         <v>14</v>
       </c>
       <c r="E187" t="s">
+        <v>337</v>
+      </c>
+      <c r="F187" t="s">
         <v>705</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>706</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>707</v>
-      </c>
-      <c r="H187" t="s">
-        <v>337</v>
       </c>
       <c r="I187" t="s">
         <v>708</v>
@@ -9796,16 +9796,16 @@
         <v>14</v>
       </c>
       <c r="E188" t="s">
+        <v>337</v>
+      </c>
+      <c r="F188" t="s">
         <v>705</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>706</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>707</v>
-      </c>
-      <c r="H188" t="s">
-        <v>337</v>
       </c>
       <c r="I188" t="s">
         <v>708</v>
@@ -9831,16 +9831,16 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
+        <v>337</v>
+      </c>
+      <c r="F189" t="s">
         <v>705</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>706</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>707</v>
-      </c>
-      <c r="H189" t="s">
-        <v>337</v>
       </c>
       <c r="I189" t="s">
         <v>708</v>
@@ -9866,16 +9866,16 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
+        <v>337</v>
+      </c>
+      <c r="F190" t="s">
         <v>705</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>706</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>707</v>
-      </c>
-      <c r="H190" t="s">
-        <v>337</v>
       </c>
       <c r="I190" t="s">
         <v>708</v>
@@ -9901,16 +9901,16 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
+        <v>337</v>
+      </c>
+      <c r="F191" t="s">
         <v>705</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>706</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>707</v>
-      </c>
-      <c r="H191" t="s">
-        <v>337</v>
       </c>
       <c r="I191" t="s">
         <v>708</v>
@@ -9933,16 +9933,16 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
+        <v>337</v>
+      </c>
+      <c r="F192" t="s">
         <v>705</v>
       </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
         <v>706</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>707</v>
-      </c>
-      <c r="H192" t="s">
-        <v>337</v>
       </c>
       <c r="I192" t="s">
         <v>708</v>
@@ -9968,25 +9968,25 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
+        <v>337</v>
+      </c>
+      <c r="F193" t="s">
         <v>705</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>706</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>707</v>
-      </c>
-      <c r="H193" t="s">
-        <v>337</v>
       </c>
       <c r="I193" t="s">
         <v>575</v>
       </c>
       <c r="J193" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="K193" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -10003,16 +10003,16 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
+        <v>337</v>
+      </c>
+      <c r="F194" t="s">
         <v>705</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>706</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>707</v>
-      </c>
-      <c r="H194" t="s">
-        <v>337</v>
       </c>
       <c r="I194" t="s">
         <v>708</v>
@@ -10038,16 +10038,16 @@
         <v>14</v>
       </c>
       <c r="E195" t="s">
+        <v>337</v>
+      </c>
+      <c r="F195" t="s">
         <v>705</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
         <v>706</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>707</v>
-      </c>
-      <c r="H195" t="s">
-        <v>337</v>
       </c>
       <c r="I195" t="s">
         <v>708</v>
@@ -10073,16 +10073,16 @@
         <v>14</v>
       </c>
       <c r="E196" t="s">
+        <v>337</v>
+      </c>
+      <c r="F196" t="s">
         <v>705</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>706</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>707</v>
-      </c>
-      <c r="H196" t="s">
-        <v>337</v>
       </c>
       <c r="I196" t="s">
         <v>708</v>
@@ -10108,16 +10108,16 @@
         <v>14</v>
       </c>
       <c r="E197" t="s">
+        <v>337</v>
+      </c>
+      <c r="F197" t="s">
         <v>705</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>706</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>707</v>
-      </c>
-      <c r="H197" t="s">
-        <v>337</v>
       </c>
       <c r="I197" t="s">
         <v>708</v>
@@ -10143,16 +10143,16 @@
         <v>14</v>
       </c>
       <c r="E198" t="s">
+        <v>337</v>
+      </c>
+      <c r="F198" t="s">
         <v>705</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>706</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>707</v>
-      </c>
-      <c r="H198" t="s">
-        <v>337</v>
       </c>
       <c r="I198" t="s">
         <v>708</v>
@@ -10178,22 +10178,22 @@
         <v>14</v>
       </c>
       <c r="E199" t="s">
+        <v>337</v>
+      </c>
+      <c r="F199" t="s">
         <v>765</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>706</v>
       </c>
-      <c r="G199" t="s">
-        <v>766</v>
-      </c>
       <c r="H199" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I199" t="s">
         <v>708</v>
       </c>
       <c r="J199" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="K199" t="s">
         <v>767</v>
@@ -10213,22 +10213,22 @@
         <v>14</v>
       </c>
       <c r="E200" t="s">
+        <v>337</v>
+      </c>
+      <c r="F200" t="s">
         <v>765</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="s">
         <v>706</v>
       </c>
-      <c r="G200" t="s">
-        <v>766</v>
-      </c>
       <c r="H200" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I200" t="s">
         <v>708</v>
       </c>
       <c r="J200" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="K200" t="s">
         <v>767</v>
@@ -10248,22 +10248,22 @@
         <v>14</v>
       </c>
       <c r="E201" t="s">
+        <v>337</v>
+      </c>
+      <c r="F201" t="s">
         <v>765</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>706</v>
       </c>
-      <c r="G201" t="s">
-        <v>766</v>
-      </c>
       <c r="H201" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I201" t="s">
         <v>708</v>
       </c>
       <c r="J201" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="K201" t="s">
         <v>767</v>
@@ -10280,22 +10280,22 @@
         <v>14</v>
       </c>
       <c r="E202" t="s">
+        <v>337</v>
+      </c>
+      <c r="F202" t="s">
         <v>765</v>
       </c>
-      <c r="F202" t="s">
+      <c r="G202" t="s">
         <v>706</v>
       </c>
-      <c r="G202" t="s">
-        <v>766</v>
-      </c>
       <c r="H202" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I202" t="s">
         <v>708</v>
       </c>
       <c r="J202" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="K202" t="s">
         <v>767</v>
@@ -10315,25 +10315,25 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
+        <v>337</v>
+      </c>
+      <c r="F203" t="s">
         <v>765</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
         <v>706</v>
       </c>
-      <c r="G203" t="s">
-        <v>766</v>
-      </c>
       <c r="H203" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I203" t="s">
         <v>575</v>
       </c>
       <c r="J203" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="K203" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10347,22 +10347,22 @@
         <v>14</v>
       </c>
       <c r="E204" t="s">
+        <v>337</v>
+      </c>
+      <c r="F204" t="s">
         <v>765</v>
       </c>
-      <c r="F204" t="s">
+      <c r="G204" t="s">
         <v>706</v>
       </c>
-      <c r="G204" t="s">
-        <v>766</v>
-      </c>
       <c r="H204" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I204" t="s">
         <v>708</v>
       </c>
       <c r="J204" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="K204" t="s">
         <v>767</v>
@@ -10382,22 +10382,22 @@
         <v>14</v>
       </c>
       <c r="E205" t="s">
+        <v>337</v>
+      </c>
+      <c r="F205" t="s">
         <v>784</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G205" t="s">
         <v>706</v>
       </c>
-      <c r="G205" t="s">
-        <v>785</v>
-      </c>
       <c r="H205" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I205" t="s">
         <v>708</v>
       </c>
       <c r="J205" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
       <c r="K205" t="s">
         <v>786</v>
@@ -10417,22 +10417,22 @@
         <v>14</v>
       </c>
       <c r="E206" t="s">
+        <v>337</v>
+      </c>
+      <c r="F206" t="s">
         <v>784</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>706</v>
       </c>
-      <c r="G206" t="s">
-        <v>785</v>
-      </c>
       <c r="H206" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I206" t="s">
         <v>708</v>
       </c>
       <c r="J206" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
       <c r="K206" t="s">
         <v>786</v>
@@ -10449,22 +10449,22 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
+        <v>337</v>
+      </c>
+      <c r="F207" t="s">
         <v>784</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>706</v>
       </c>
-      <c r="G207" t="s">
-        <v>785</v>
-      </c>
       <c r="H207" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I207" t="s">
         <v>708</v>
       </c>
       <c r="J207" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
       <c r="K207" t="s">
         <v>786</v>
@@ -10484,25 +10484,25 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
+        <v>337</v>
+      </c>
+      <c r="F208" t="s">
         <v>784</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>706</v>
       </c>
-      <c r="G208" t="s">
-        <v>785</v>
-      </c>
       <c r="H208" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I208" t="s">
         <v>575</v>
       </c>
       <c r="J208" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="K208" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -10519,22 +10519,22 @@
         <v>14</v>
       </c>
       <c r="E209" t="s">
+        <v>337</v>
+      </c>
+      <c r="F209" t="s">
         <v>784</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>706</v>
       </c>
-      <c r="G209" t="s">
-        <v>785</v>
-      </c>
       <c r="H209" t="s">
-        <v>337</v>
+        <v>707</v>
       </c>
       <c r="I209" t="s">
         <v>708</v>
       </c>
       <c r="J209" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
       <c r="K209" t="s">
         <v>786</v>
@@ -10554,16 +10554,16 @@
         <v>14</v>
       </c>
       <c r="E210" t="s">
+        <v>337</v>
+      </c>
+      <c r="F210" t="s">
         <v>801</v>
       </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>802</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>803</v>
-      </c>
-      <c r="H210" t="s">
-        <v>337</v>
       </c>
       <c r="I210" t="s">
         <v>804</v>
@@ -10586,16 +10586,16 @@
         <v>14</v>
       </c>
       <c r="E211" t="s">
+        <v>337</v>
+      </c>
+      <c r="F211" t="s">
         <v>801</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>802</v>
       </c>
-      <c r="G211" t="s">
+      <c r="H211" t="s">
         <v>803</v>
-      </c>
-      <c r="H211" t="s">
-        <v>337</v>
       </c>
       <c r="I211" t="s">
         <v>804</v>
@@ -10621,16 +10621,16 @@
         <v>14</v>
       </c>
       <c r="E212" t="s">
+        <v>337</v>
+      </c>
+      <c r="F212" t="s">
         <v>801</v>
       </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
         <v>802</v>
       </c>
-      <c r="G212" t="s">
+      <c r="H212" t="s">
         <v>803</v>
-      </c>
-      <c r="H212" t="s">
-        <v>337</v>
       </c>
       <c r="I212" t="s">
         <v>804</v>
@@ -10653,16 +10653,16 @@
         <v>14</v>
       </c>
       <c r="E213" t="s">
+        <v>337</v>
+      </c>
+      <c r="F213" t="s">
         <v>801</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>802</v>
       </c>
-      <c r="G213" t="s">
+      <c r="H213" t="s">
         <v>803</v>
-      </c>
-      <c r="H213" t="s">
-        <v>337</v>
       </c>
       <c r="I213" t="s">
         <v>804</v>
@@ -10688,16 +10688,16 @@
         <v>14</v>
       </c>
       <c r="E214" t="s">
+        <v>337</v>
+      </c>
+      <c r="F214" t="s">
         <v>801</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>802</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214" t="s">
         <v>803</v>
-      </c>
-      <c r="H214" t="s">
-        <v>337</v>
       </c>
       <c r="I214" t="s">
         <v>804</v>
@@ -10723,25 +10723,25 @@
         <v>14</v>
       </c>
       <c r="E215" t="s">
+        <v>337</v>
+      </c>
+      <c r="F215" t="s">
         <v>801</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>802</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
         <v>803</v>
-      </c>
-      <c r="H215" t="s">
-        <v>337</v>
       </c>
       <c r="I215" t="s">
         <v>708</v>
       </c>
       <c r="J215" t="s">
-        <v>805</v>
+        <v>766</v>
       </c>
       <c r="K215" t="s">
-        <v>767</v>
+        <v>806</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -10758,16 +10758,16 @@
         <v>14</v>
       </c>
       <c r="E216" t="s">
+        <v>337</v>
+      </c>
+      <c r="F216" t="s">
         <v>801</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>802</v>
       </c>
-      <c r="G216" t="s">
+      <c r="H216" t="s">
         <v>803</v>
-      </c>
-      <c r="H216" t="s">
-        <v>337</v>
       </c>
       <c r="I216" t="s">
         <v>804</v>
@@ -10793,16 +10793,16 @@
         <v>14</v>
       </c>
       <c r="E217" t="s">
+        <v>337</v>
+      </c>
+      <c r="F217" t="s">
         <v>801</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>802</v>
       </c>
-      <c r="G217" t="s">
+      <c r="H217" t="s">
         <v>803</v>
-      </c>
-      <c r="H217" t="s">
-        <v>337</v>
       </c>
       <c r="I217" t="s">
         <v>804</v>
@@ -10825,16 +10825,16 @@
         <v>14</v>
       </c>
       <c r="E218" t="s">
+        <v>337</v>
+      </c>
+      <c r="F218" t="s">
         <v>801</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>802</v>
       </c>
-      <c r="G218" t="s">
+      <c r="H218" t="s">
         <v>803</v>
-      </c>
-      <c r="H218" t="s">
-        <v>337</v>
       </c>
       <c r="I218" t="s">
         <v>804</v>
@@ -10857,16 +10857,16 @@
         <v>14</v>
       </c>
       <c r="E219" t="s">
+        <v>337</v>
+      </c>
+      <c r="F219" t="s">
         <v>801</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>802</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>803</v>
-      </c>
-      <c r="H219" t="s">
-        <v>337</v>
       </c>
       <c r="I219" t="s">
         <v>804</v>
@@ -10892,25 +10892,25 @@
         <v>14</v>
       </c>
       <c r="E220" t="s">
+        <v>337</v>
+      </c>
+      <c r="F220" t="s">
         <v>801</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>802</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" t="s">
         <v>803</v>
-      </c>
-      <c r="H220" t="s">
-        <v>337</v>
       </c>
       <c r="I220" t="s">
         <v>567</v>
       </c>
       <c r="J220" t="s">
-        <v>805</v>
+        <v>663</v>
       </c>
       <c r="K220" t="s">
-        <v>663</v>
+        <v>806</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -10927,16 +10927,16 @@
         <v>14</v>
       </c>
       <c r="E221" t="s">
+        <v>337</v>
+      </c>
+      <c r="F221" t="s">
         <v>801</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>802</v>
       </c>
-      <c r="G221" t="s">
+      <c r="H221" t="s">
         <v>803</v>
-      </c>
-      <c r="H221" t="s">
-        <v>337</v>
       </c>
       <c r="I221" t="s">
         <v>804</v>
@@ -10962,16 +10962,16 @@
         <v>14</v>
       </c>
       <c r="E222" t="s">
+        <v>337</v>
+      </c>
+      <c r="F222" t="s">
         <v>801</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>802</v>
       </c>
-      <c r="G222" t="s">
+      <c r="H222" t="s">
         <v>803</v>
-      </c>
-      <c r="H222" t="s">
-        <v>337</v>
       </c>
       <c r="I222" t="s">
         <v>804</v>
@@ -10994,16 +10994,16 @@
         <v>14</v>
       </c>
       <c r="E223" t="s">
+        <v>337</v>
+      </c>
+      <c r="F223" t="s">
         <v>801</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>802</v>
       </c>
-      <c r="G223" t="s">
+      <c r="H223" t="s">
         <v>803</v>
-      </c>
-      <c r="H223" t="s">
-        <v>337</v>
       </c>
       <c r="I223" t="s">
         <v>804</v>
@@ -11029,16 +11029,16 @@
         <v>14</v>
       </c>
       <c r="E224" t="s">
+        <v>337</v>
+      </c>
+      <c r="F224" t="s">
         <v>801</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>802</v>
       </c>
-      <c r="G224" t="s">
+      <c r="H224" t="s">
         <v>803</v>
-      </c>
-      <c r="H224" t="s">
-        <v>337</v>
       </c>
       <c r="I224" t="s">
         <v>804</v>
@@ -11064,16 +11064,16 @@
         <v>14</v>
       </c>
       <c r="E225" t="s">
+        <v>337</v>
+      </c>
+      <c r="F225" t="s">
         <v>801</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>802</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>803</v>
-      </c>
-      <c r="H225" t="s">
-        <v>337</v>
       </c>
       <c r="I225" t="s">
         <v>804</v>
@@ -11099,25 +11099,25 @@
         <v>14</v>
       </c>
       <c r="E226" t="s">
+        <v>337</v>
+      </c>
+      <c r="F226" t="s">
         <v>801</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>802</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>803</v>
-      </c>
-      <c r="H226" t="s">
-        <v>337</v>
       </c>
       <c r="I226" t="s">
         <v>575</v>
       </c>
       <c r="J226" t="s">
-        <v>805</v>
+        <v>576</v>
       </c>
       <c r="K226" t="s">
-        <v>576</v>
+        <v>806</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -11134,16 +11134,16 @@
         <v>14</v>
       </c>
       <c r="E227" t="s">
+        <v>337</v>
+      </c>
+      <c r="F227" t="s">
         <v>801</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>802</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>803</v>
-      </c>
-      <c r="H227" t="s">
-        <v>337</v>
       </c>
       <c r="I227" t="s">
         <v>804</v>
@@ -11169,25 +11169,25 @@
         <v>14</v>
       </c>
       <c r="E228" t="s">
+        <v>337</v>
+      </c>
+      <c r="F228" t="s">
         <v>801</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>802</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="s">
         <v>803</v>
-      </c>
-      <c r="H228" t="s">
-        <v>337</v>
       </c>
       <c r="I228" t="s">
         <v>338</v>
       </c>
       <c r="J228" t="s">
-        <v>805</v>
+        <v>339</v>
       </c>
       <c r="K228" t="s">
-        <v>339</v>
+        <v>806</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -11204,22 +11204,22 @@
         <v>14</v>
       </c>
       <c r="E229" t="s">
+        <v>337</v>
+      </c>
+      <c r="F229" t="s">
         <v>859</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>802</v>
       </c>
-      <c r="G229" t="s">
-        <v>860</v>
-      </c>
       <c r="H229" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I229" t="s">
         <v>804</v>
       </c>
       <c r="J229" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K229" t="s">
         <v>861</v>
@@ -11239,22 +11239,22 @@
         <v>14</v>
       </c>
       <c r="E230" t="s">
+        <v>337</v>
+      </c>
+      <c r="F230" t="s">
         <v>859</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>802</v>
       </c>
-      <c r="G230" t="s">
-        <v>860</v>
-      </c>
       <c r="H230" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I230" t="s">
         <v>804</v>
       </c>
       <c r="J230" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K230" t="s">
         <v>861</v>
@@ -11274,25 +11274,25 @@
         <v>14</v>
       </c>
       <c r="E231" t="s">
+        <v>337</v>
+      </c>
+      <c r="F231" t="s">
         <v>859</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>802</v>
       </c>
-      <c r="G231" t="s">
-        <v>860</v>
-      </c>
       <c r="H231" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I231" t="s">
         <v>567</v>
       </c>
       <c r="J231" t="s">
-        <v>805</v>
+        <v>623</v>
       </c>
       <c r="K231" t="s">
-        <v>623</v>
+        <v>861</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11309,25 +11309,25 @@
         <v>14</v>
       </c>
       <c r="E232" t="s">
+        <v>337</v>
+      </c>
+      <c r="F232" t="s">
         <v>859</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>802</v>
       </c>
-      <c r="G232" t="s">
-        <v>860</v>
-      </c>
       <c r="H232" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I232" t="s">
         <v>567</v>
       </c>
       <c r="J232" t="s">
-        <v>805</v>
+        <v>663</v>
       </c>
       <c r="K232" t="s">
-        <v>663</v>
+        <v>861</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -11344,22 +11344,22 @@
         <v>14</v>
       </c>
       <c r="E233" t="s">
+        <v>337</v>
+      </c>
+      <c r="F233" t="s">
         <v>859</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>802</v>
       </c>
-      <c r="G233" t="s">
-        <v>860</v>
-      </c>
       <c r="H233" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I233" t="s">
         <v>804</v>
       </c>
       <c r="J233" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K233" t="s">
         <v>861</v>
@@ -11379,22 +11379,22 @@
         <v>14</v>
       </c>
       <c r="E234" t="s">
+        <v>337</v>
+      </c>
+      <c r="F234" t="s">
         <v>859</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>802</v>
       </c>
-      <c r="G234" t="s">
-        <v>860</v>
-      </c>
       <c r="H234" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I234" t="s">
         <v>804</v>
       </c>
       <c r="J234" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K234" t="s">
         <v>861</v>
@@ -11414,22 +11414,22 @@
         <v>14</v>
       </c>
       <c r="E235" t="s">
+        <v>337</v>
+      </c>
+      <c r="F235" t="s">
         <v>859</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>802</v>
       </c>
-      <c r="G235" t="s">
-        <v>860</v>
-      </c>
       <c r="H235" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I235" t="s">
         <v>804</v>
       </c>
       <c r="J235" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K235" t="s">
         <v>861</v>
@@ -11449,22 +11449,22 @@
         <v>14</v>
       </c>
       <c r="E236" t="s">
+        <v>337</v>
+      </c>
+      <c r="F236" t="s">
         <v>859</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>802</v>
       </c>
-      <c r="G236" t="s">
-        <v>860</v>
-      </c>
       <c r="H236" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I236" t="s">
         <v>804</v>
       </c>
       <c r="J236" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K236" t="s">
         <v>861</v>
@@ -11484,22 +11484,22 @@
         <v>14</v>
       </c>
       <c r="E237" t="s">
+        <v>337</v>
+      </c>
+      <c r="F237" t="s">
         <v>859</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>802</v>
       </c>
-      <c r="G237" t="s">
-        <v>860</v>
-      </c>
       <c r="H237" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I237" t="s">
         <v>804</v>
       </c>
       <c r="J237" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K237" t="s">
         <v>861</v>
@@ -11519,22 +11519,22 @@
         <v>14</v>
       </c>
       <c r="E238" t="s">
+        <v>337</v>
+      </c>
+      <c r="F238" t="s">
         <v>859</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="s">
         <v>802</v>
       </c>
-      <c r="G238" t="s">
-        <v>860</v>
-      </c>
       <c r="H238" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I238" t="s">
         <v>804</v>
       </c>
       <c r="J238" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="K238" t="s">
         <v>861</v>
@@ -11554,22 +11554,22 @@
         <v>14</v>
       </c>
       <c r="E239" t="s">
+        <v>337</v>
+      </c>
+      <c r="F239" t="s">
         <v>892</v>
       </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>802</v>
       </c>
-      <c r="G239" t="s">
-        <v>893</v>
-      </c>
       <c r="H239" t="s">
-        <v>337</v>
+        <v>803</v>
       </c>
       <c r="I239" t="s">
         <v>804</v>
       </c>
       <c r="J239" t="s">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="K239" t="s">
         <v>894</v>
@@ -11589,25 +11589,25 @@
         <v>14</v>
       </c>
       <c r="E240" t="s">
+        <v>337</v>
+      </c>
+      <c r="F240" t="s">
         <v>898</v>
-      </c>
-      <c r="F240" t="s">
-        <v>899</v>
       </c>
       <c r="G240" t="s">
         <v>899</v>
       </c>
       <c r="H240" t="s">
-        <v>337</v>
+        <v>900</v>
       </c>
       <c r="I240" t="s">
         <v>338</v>
       </c>
       <c r="J240" t="s">
+        <v>339</v>
+      </c>
+      <c r="K240" t="s">
         <v>900</v>
-      </c>
-      <c r="K240" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -11624,25 +11624,25 @@
         <v>14</v>
       </c>
       <c r="E241" t="s">
+        <v>337</v>
+      </c>
+      <c r="F241" t="s">
         <v>898</v>
-      </c>
-      <c r="F241" t="s">
-        <v>899</v>
       </c>
       <c r="G241" t="s">
         <v>899</v>
       </c>
       <c r="H241" t="s">
-        <v>337</v>
+        <v>900</v>
       </c>
       <c r="I241" t="s">
         <v>338</v>
       </c>
       <c r="J241" t="s">
+        <v>339</v>
+      </c>
+      <c r="K241" t="s">
         <v>900</v>
-      </c>
-      <c r="K241" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -11659,25 +11659,25 @@
         <v>14</v>
       </c>
       <c r="E242" t="s">
+        <v>337</v>
+      </c>
+      <c r="F242" t="s">
         <v>898</v>
-      </c>
-      <c r="F242" t="s">
-        <v>899</v>
       </c>
       <c r="G242" t="s">
         <v>899</v>
       </c>
       <c r="H242" t="s">
-        <v>337</v>
+        <v>900</v>
       </c>
       <c r="I242" t="s">
         <v>338</v>
       </c>
       <c r="J242" t="s">
+        <v>339</v>
+      </c>
+      <c r="K242" t="s">
         <v>900</v>
-      </c>
-      <c r="K242" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -11694,25 +11694,25 @@
         <v>14</v>
       </c>
       <c r="E243" t="s">
+        <v>337</v>
+      </c>
+      <c r="F243" t="s">
         <v>898</v>
-      </c>
-      <c r="F243" t="s">
-        <v>899</v>
       </c>
       <c r="G243" t="s">
         <v>899</v>
       </c>
       <c r="H243" t="s">
-        <v>337</v>
+        <v>900</v>
       </c>
       <c r="I243" t="s">
         <v>338</v>
       </c>
       <c r="J243" t="s">
+        <v>339</v>
+      </c>
+      <c r="K243" t="s">
         <v>900</v>
-      </c>
-      <c r="K243" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -11729,25 +11729,25 @@
         <v>14</v>
       </c>
       <c r="E244" t="s">
+        <v>337</v>
+      </c>
+      <c r="F244" t="s">
         <v>898</v>
-      </c>
-      <c r="F244" t="s">
-        <v>899</v>
       </c>
       <c r="G244" t="s">
         <v>899</v>
       </c>
       <c r="H244" t="s">
-        <v>337</v>
+        <v>900</v>
       </c>
       <c r="I244" t="s">
         <v>338</v>
       </c>
       <c r="J244" t="s">
+        <v>339</v>
+      </c>
+      <c r="K244" t="s">
         <v>900</v>
-      </c>
-      <c r="K244" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -11764,25 +11764,25 @@
         <v>14</v>
       </c>
       <c r="E245" t="s">
+        <v>337</v>
+      </c>
+      <c r="F245" t="s">
         <v>898</v>
-      </c>
-      <c r="F245" t="s">
-        <v>899</v>
       </c>
       <c r="G245" t="s">
         <v>899</v>
       </c>
       <c r="H245" t="s">
-        <v>337</v>
+        <v>900</v>
       </c>
       <c r="I245" t="s">
         <v>338</v>
       </c>
       <c r="J245" t="s">
+        <v>339</v>
+      </c>
+      <c r="K245" t="s">
         <v>900</v>
-      </c>
-      <c r="K245" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -11796,22 +11796,22 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
+        <v>337</v>
+      </c>
+      <c r="F246" t="s">
         <v>918</v>
       </c>
-      <c r="F246" t="s">
+      <c r="G246" t="s">
         <v>899</v>
       </c>
-      <c r="G246" t="s">
-        <v>919</v>
-      </c>
       <c r="H246" t="s">
-        <v>337</v>
+        <v>900</v>
       </c>
       <c r="I246" t="s">
         <v>533</v>
       </c>
       <c r="J246" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="K246" t="s">
         <v>920</v>
@@ -11830,19 +11830,19 @@
       <c r="D247" t="s">
         <v>14</v>
       </c>
-      <c r="F247" t="s">
+      <c r="E247" t="s">
+        <v>196</v>
+      </c>
+      <c r="G247" t="s">
         <v>924</v>
       </c>
       <c r="H247" t="s">
-        <v>196</v>
+        <v>925</v>
       </c>
       <c r="I247" t="s">
         <v>197</v>
       </c>
       <c r="J247" t="s">
-        <v>925</v>
-      </c>
-      <c r="K247" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11859,19 +11859,19 @@
       <c r="D248" t="s">
         <v>14</v>
       </c>
-      <c r="F248" t="s">
+      <c r="E248" t="s">
+        <v>196</v>
+      </c>
+      <c r="G248" t="s">
         <v>924</v>
       </c>
       <c r="H248" t="s">
-        <v>196</v>
+        <v>925</v>
       </c>
       <c r="I248" t="s">
         <v>197</v>
       </c>
       <c r="J248" t="s">
-        <v>925</v>
-      </c>
-      <c r="K248" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11888,19 +11888,19 @@
       <c r="D249" t="s">
         <v>14</v>
       </c>
-      <c r="F249" t="s">
+      <c r="E249" t="s">
+        <v>196</v>
+      </c>
+      <c r="G249" t="s">
         <v>924</v>
       </c>
       <c r="H249" t="s">
-        <v>196</v>
+        <v>925</v>
       </c>
       <c r="I249" t="s">
         <v>932</v>
       </c>
       <c r="J249" t="s">
-        <v>925</v>
-      </c>
-      <c r="K249" t="s">
         <v>933</v>
       </c>
     </row>
@@ -11917,19 +11917,19 @@
       <c r="D250" t="s">
         <v>14</v>
       </c>
-      <c r="F250" t="s">
+      <c r="E250" t="s">
+        <v>196</v>
+      </c>
+      <c r="G250" t="s">
         <v>924</v>
       </c>
       <c r="H250" t="s">
-        <v>196</v>
+        <v>925</v>
       </c>
       <c r="I250" t="s">
         <v>197</v>
       </c>
       <c r="J250" t="s">
-        <v>925</v>
-      </c>
-      <c r="K250" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11943,19 +11943,19 @@
       <c r="D251" t="s">
         <v>14</v>
       </c>
-      <c r="F251" t="s">
+      <c r="E251" t="s">
+        <v>196</v>
+      </c>
+      <c r="G251" t="s">
         <v>924</v>
       </c>
       <c r="H251" t="s">
-        <v>196</v>
+        <v>925</v>
       </c>
       <c r="I251" t="s">
         <v>197</v>
       </c>
       <c r="J251" t="s">
-        <v>925</v>
-      </c>
-      <c r="K251" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11972,19 +11972,19 @@
       <c r="D252" t="s">
         <v>14</v>
       </c>
-      <c r="F252" t="s">
+      <c r="E252" t="s">
+        <v>196</v>
+      </c>
+      <c r="G252" t="s">
         <v>924</v>
       </c>
       <c r="H252" t="s">
-        <v>196</v>
+        <v>925</v>
       </c>
       <c r="I252" t="s">
         <v>197</v>
       </c>
       <c r="J252" t="s">
-        <v>925</v>
-      </c>
-      <c r="K252" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11998,19 +11998,19 @@
       <c r="D253" t="s">
         <v>14</v>
       </c>
-      <c r="F253" t="s">
+      <c r="E253" t="s">
+        <v>337</v>
+      </c>
+      <c r="G253" t="s">
         <v>944</v>
       </c>
       <c r="H253" t="s">
-        <v>337</v>
+        <v>945</v>
       </c>
       <c r="I253" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="J253" t="s">
-        <v>946</v>
-      </c>
-      <c r="K253" t="s">
         <v>947</v>
       </c>
     </row>
@@ -12027,19 +12027,19 @@
       <c r="D254" t="s">
         <v>14</v>
       </c>
-      <c r="F254" t="s">
+      <c r="E254" t="s">
+        <v>188</v>
+      </c>
+      <c r="G254" t="s">
         <v>944</v>
       </c>
       <c r="H254" t="s">
-        <v>189</v>
+        <v>945</v>
       </c>
       <c r="I254" t="s">
         <v>454</v>
       </c>
       <c r="J254" t="s">
-        <v>946</v>
-      </c>
-      <c r="K254" t="s">
         <v>455</v>
       </c>
     </row>
@@ -12056,19 +12056,19 @@
       <c r="D255" t="s">
         <v>14</v>
       </c>
-      <c r="F255" t="s">
+      <c r="E255" t="s">
+        <v>188</v>
+      </c>
+      <c r="G255" t="s">
         <v>944</v>
       </c>
       <c r="H255" t="s">
-        <v>189</v>
+        <v>945</v>
       </c>
       <c r="I255" t="s">
         <v>954</v>
       </c>
       <c r="J255" t="s">
-        <v>946</v>
-      </c>
-      <c r="K255" t="s">
         <v>955</v>
       </c>
     </row>
@@ -12085,23 +12085,23 @@
       <c r="D256" t="s">
         <v>14</v>
       </c>
-      <c r="F256" t="s">
+      <c r="E256" t="s">
+        <v>188</v>
+      </c>
+      <c r="G256" t="s">
         <v>944</v>
       </c>
       <c r="H256" t="s">
-        <v>189</v>
+        <v>945</v>
       </c>
       <c r="I256" t="s">
         <v>954</v>
       </c>
       <c r="J256" t="s">
-        <v>946</v>
-      </c>
-      <c r="K256" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>959</v>
       </c>
@@ -12114,23 +12114,23 @@
       <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="F257" t="s">
+      <c r="E257" t="s">
+        <v>188</v>
+      </c>
+      <c r="G257" t="s">
         <v>944</v>
       </c>
       <c r="H257" t="s">
-        <v>189</v>
+        <v>945</v>
       </c>
       <c r="I257" t="s">
         <v>954</v>
       </c>
       <c r="J257" t="s">
-        <v>946</v>
-      </c>
-      <c r="K257" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>962</v>
       </c>
@@ -12143,23 +12143,23 @@
       <c r="D258" t="s">
         <v>14</v>
       </c>
-      <c r="F258" t="s">
+      <c r="E258" t="s">
+        <v>337</v>
+      </c>
+      <c r="G258" t="s">
         <v>944</v>
       </c>
       <c r="H258" t="s">
-        <v>337</v>
+        <v>945</v>
       </c>
       <c r="I258" t="s">
         <v>708</v>
       </c>
       <c r="J258" t="s">
-        <v>946</v>
-      </c>
-      <c r="K258" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>965</v>
       </c>
@@ -12172,23 +12172,23 @@
       <c r="D259" t="s">
         <v>14</v>
       </c>
-      <c r="F259" t="s">
+      <c r="E259" t="s">
+        <v>188</v>
+      </c>
+      <c r="G259" t="s">
         <v>944</v>
       </c>
       <c r="H259" t="s">
-        <v>189</v>
+        <v>945</v>
       </c>
       <c r="I259" t="s">
         <v>954</v>
       </c>
       <c r="J259" t="s">
-        <v>946</v>
-      </c>
-      <c r="K259" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>967</v>
       </c>
@@ -12201,23 +12201,23 @@
       <c r="D260" t="s">
         <v>14</v>
       </c>
-      <c r="F260" t="s">
+      <c r="E260" t="s">
+        <v>337</v>
+      </c>
+      <c r="G260" t="s">
         <v>944</v>
       </c>
       <c r="H260" t="s">
-        <v>337</v>
+        <v>945</v>
       </c>
       <c r="I260" t="s">
         <v>338</v>
       </c>
       <c r="J260" t="s">
-        <v>946</v>
-      </c>
-      <c r="K260" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>970</v>
       </c>
@@ -12230,23 +12230,23 @@
       <c r="D261" t="s">
         <v>14</v>
       </c>
-      <c r="F261" t="s">
+      <c r="E261" t="s">
+        <v>405</v>
+      </c>
+      <c r="G261" t="s">
         <v>944</v>
       </c>
       <c r="H261" t="s">
-        <v>405</v>
+        <v>945</v>
       </c>
       <c r="I261" t="s">
         <v>973</v>
       </c>
       <c r="J261" t="s">
-        <v>946</v>
-      </c>
-      <c r="K261" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>975</v>
       </c>
@@ -12259,23 +12259,23 @@
       <c r="D262" t="s">
         <v>14</v>
       </c>
-      <c r="F262" t="s">
+      <c r="E262" t="s">
+        <v>337</v>
+      </c>
+      <c r="G262" t="s">
         <v>944</v>
       </c>
       <c r="H262" t="s">
-        <v>337</v>
+        <v>945</v>
       </c>
       <c r="I262" t="s">
         <v>338</v>
       </c>
       <c r="J262" t="s">
-        <v>946</v>
-      </c>
-      <c r="K262" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>978</v>
       </c>
@@ -12288,23 +12288,23 @@
       <c r="D263" t="s">
         <v>14</v>
       </c>
-      <c r="F263" t="s">
+      <c r="E263" t="s">
+        <v>377</v>
+      </c>
+      <c r="G263" t="s">
         <v>944</v>
       </c>
       <c r="H263" t="s">
-        <v>377</v>
+        <v>945</v>
       </c>
       <c r="I263" t="s">
         <v>981</v>
       </c>
       <c r="J263" t="s">
-        <v>946</v>
-      </c>
-      <c r="K263" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>983</v>
       </c>
@@ -12317,23 +12317,23 @@
       <c r="D264" t="s">
         <v>14</v>
       </c>
-      <c r="F264" t="s">
+      <c r="E264" t="s">
+        <v>58</v>
+      </c>
+      <c r="G264" t="s">
         <v>944</v>
       </c>
       <c r="H264" t="s">
-        <v>58</v>
+        <v>945</v>
       </c>
       <c r="I264" t="s">
         <v>59</v>
       </c>
       <c r="J264" t="s">
-        <v>946</v>
-      </c>
-      <c r="K264" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>986</v>
       </c>
@@ -12346,23 +12346,23 @@
       <c r="D265" t="s">
         <v>14</v>
       </c>
-      <c r="F265" t="s">
+      <c r="E265" t="s">
+        <v>15</v>
+      </c>
+      <c r="G265" t="s">
         <v>944</v>
       </c>
       <c r="H265" t="s">
-        <v>18</v>
+        <v>945</v>
       </c>
       <c r="I265" t="s">
         <v>19</v>
       </c>
       <c r="J265" t="s">
-        <v>946</v>
-      </c>
-      <c r="K265" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>989</v>
       </c>
@@ -12375,23 +12375,23 @@
       <c r="D266" t="s">
         <v>14</v>
       </c>
-      <c r="F266" t="s">
+      <c r="E266" t="s">
+        <v>233</v>
+      </c>
+      <c r="G266" t="s">
         <v>944</v>
       </c>
       <c r="H266" t="s">
-        <v>236</v>
+        <v>945</v>
       </c>
       <c r="I266" t="s">
         <v>992</v>
       </c>
       <c r="J266" t="s">
-        <v>946</v>
-      </c>
-      <c r="K266" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>994</v>
       </c>
@@ -12404,23 +12404,23 @@
       <c r="D267" t="s">
         <v>14</v>
       </c>
-      <c r="F267" t="s">
+      <c r="E267" t="s">
+        <v>233</v>
+      </c>
+      <c r="G267" t="s">
         <v>997</v>
       </c>
       <c r="H267" t="s">
-        <v>236</v>
+        <v>998</v>
       </c>
       <c r="I267" t="s">
         <v>243</v>
       </c>
       <c r="J267" t="s">
-        <v>998</v>
-      </c>
-      <c r="K267" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>999</v>
       </c>
@@ -12433,23 +12433,23 @@
       <c r="D268" t="s">
         <v>14</v>
       </c>
-      <c r="F268" t="s">
+      <c r="E268" t="s">
+        <v>377</v>
+      </c>
+      <c r="G268" t="s">
         <v>1002</v>
       </c>
       <c r="H268" t="s">
-        <v>377</v>
+        <v>1003</v>
       </c>
       <c r="I268" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J268" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K268" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>1004</v>
       </c>
@@ -12462,23 +12462,23 @@
       <c r="D269" t="s">
         <v>14</v>
       </c>
-      <c r="F269" t="s">
+      <c r="E269" t="s">
+        <v>233</v>
+      </c>
+      <c r="G269" t="s">
         <v>1007</v>
       </c>
       <c r="H269" t="s">
-        <v>236</v>
+        <v>1008</v>
       </c>
       <c r="I269" t="s">
         <v>243</v>
       </c>
       <c r="J269" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K269" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>1009</v>
       </c>
@@ -12491,23 +12491,23 @@
       <c r="D270" t="s">
         <v>14</v>
       </c>
-      <c r="F270" t="s">
+      <c r="E270" t="s">
+        <v>233</v>
+      </c>
+      <c r="G270" t="s">
         <v>1007</v>
       </c>
       <c r="H270" t="s">
-        <v>236</v>
+        <v>1008</v>
       </c>
       <c r="I270" t="s">
         <v>243</v>
       </c>
       <c r="J270" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K270" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>1012</v>
       </c>
@@ -12520,23 +12520,23 @@
       <c r="D271" t="s">
         <v>14</v>
       </c>
-      <c r="F271" t="s">
+      <c r="E271" t="s">
+        <v>233</v>
+      </c>
+      <c r="G271" t="s">
         <v>1015</v>
       </c>
       <c r="H271" t="s">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="I271" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J271" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K271" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>1019</v>
       </c>
@@ -12546,23 +12546,23 @@
       <c r="D272" t="s">
         <v>14</v>
       </c>
-      <c r="F272" t="s">
+      <c r="E272" t="s">
+        <v>233</v>
+      </c>
+      <c r="G272" t="s">
         <v>1015</v>
       </c>
       <c r="H272" t="s">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="I272" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J272" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K272" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>1021</v>
       </c>
@@ -12575,23 +12575,23 @@
       <c r="D273" t="s">
         <v>14</v>
       </c>
-      <c r="F273" t="s">
+      <c r="E273" t="s">
+        <v>233</v>
+      </c>
+      <c r="G273" t="s">
         <v>1015</v>
       </c>
       <c r="H273" t="s">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="I273" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J273" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K273" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>1024</v>
       </c>
@@ -12601,23 +12601,23 @@
       <c r="D274" t="s">
         <v>14</v>
       </c>
-      <c r="F274" t="s">
+      <c r="E274" t="s">
+        <v>233</v>
+      </c>
+      <c r="G274" t="s">
         <v>1015</v>
       </c>
       <c r="H274" t="s">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="I274" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J274" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K274" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>1026</v>
       </c>
@@ -12630,23 +12630,23 @@
       <c r="D275" t="s">
         <v>14</v>
       </c>
-      <c r="F275" t="s">
+      <c r="E275" t="s">
+        <v>233</v>
+      </c>
+      <c r="G275" t="s">
         <v>1015</v>
       </c>
       <c r="H275" t="s">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="I275" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J275" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K275" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>1029</v>
       </c>
@@ -12659,23 +12659,23 @@
       <c r="D276" t="s">
         <v>14</v>
       </c>
-      <c r="F276" t="s">
+      <c r="E276" t="s">
+        <v>233</v>
+      </c>
+      <c r="G276" t="s">
         <v>1015</v>
       </c>
       <c r="H276" t="s">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="I276" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J276" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K276" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>1032</v>
       </c>
@@ -12688,23 +12688,23 @@
       <c r="D277" t="s">
         <v>14</v>
       </c>
-      <c r="F277" t="s">
+      <c r="E277" t="s">
+        <v>233</v>
+      </c>
+      <c r="G277" t="s">
         <v>1015</v>
       </c>
       <c r="H277" t="s">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="I277" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J277" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K277" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>1035</v>
       </c>
@@ -12717,23 +12717,23 @@
       <c r="D278" t="s">
         <v>14</v>
       </c>
-      <c r="F278" t="s">
+      <c r="E278" t="s">
+        <v>377</v>
+      </c>
+      <c r="G278" t="s">
         <v>1038</v>
       </c>
       <c r="H278" t="s">
-        <v>377</v>
+        <v>1039</v>
       </c>
       <c r="I278" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J278" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K278" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>1040</v>
       </c>
@@ -12746,23 +12746,23 @@
       <c r="D279" t="s">
         <v>14</v>
       </c>
-      <c r="F279" t="s">
+      <c r="E279" t="s">
+        <v>58</v>
+      </c>
+      <c r="G279" t="s">
         <v>1038</v>
       </c>
       <c r="H279" t="s">
-        <v>58</v>
+        <v>1039</v>
       </c>
       <c r="I279" t="s">
         <v>95</v>
       </c>
       <c r="J279" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K279" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>1043</v>
       </c>
@@ -12775,23 +12775,23 @@
       <c r="D280" t="s">
         <v>14</v>
       </c>
-      <c r="F280" t="s">
+      <c r="E280" t="s">
+        <v>15</v>
+      </c>
+      <c r="G280" t="s">
         <v>1038</v>
       </c>
       <c r="H280" t="s">
-        <v>18</v>
+        <v>1039</v>
       </c>
       <c r="I280" t="s">
         <v>19</v>
       </c>
       <c r="J280" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K280" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>1046</v>
       </c>
@@ -12804,23 +12804,23 @@
       <c r="D281" t="s">
         <v>14</v>
       </c>
-      <c r="F281" t="s">
+      <c r="E281" t="s">
+        <v>233</v>
+      </c>
+      <c r="G281" t="s">
         <v>1038</v>
       </c>
       <c r="H281" t="s">
-        <v>236</v>
+        <v>1039</v>
       </c>
       <c r="I281" t="s">
         <v>352</v>
       </c>
       <c r="J281" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K281" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>1049</v>
       </c>
@@ -12833,23 +12833,23 @@
       <c r="D282" t="s">
         <v>14</v>
       </c>
-      <c r="F282" t="s">
+      <c r="E282" t="s">
+        <v>253</v>
+      </c>
+      <c r="G282" t="s">
         <v>1038</v>
       </c>
       <c r="H282" t="s">
-        <v>253</v>
+        <v>1039</v>
       </c>
       <c r="I282" t="s">
         <v>254</v>
       </c>
       <c r="J282" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K282" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>1052</v>
       </c>
@@ -12862,23 +12862,23 @@
       <c r="D283" t="s">
         <v>14</v>
       </c>
-      <c r="F283" t="s">
+      <c r="E283" t="s">
+        <v>337</v>
+      </c>
+      <c r="G283" t="s">
         <v>1055</v>
       </c>
       <c r="H283" t="s">
-        <v>337</v>
+        <v>1056</v>
       </c>
       <c r="I283" t="s">
         <v>804</v>
       </c>
       <c r="J283" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K283" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>1057</v>
       </c>
@@ -12891,23 +12891,23 @@
       <c r="D284" t="s">
         <v>14</v>
       </c>
-      <c r="F284" t="s">
+      <c r="E284" t="s">
+        <v>253</v>
+      </c>
+      <c r="G284" t="s">
         <v>1060</v>
       </c>
       <c r="H284" t="s">
-        <v>253</v>
+        <v>1061</v>
       </c>
       <c r="I284" t="s">
         <v>254</v>
       </c>
       <c r="J284" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K284" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>1062</v>
       </c>
@@ -12917,23 +12917,23 @@
       <c r="D285" t="s">
         <v>14</v>
       </c>
-      <c r="F285" t="s">
+      <c r="E285" t="s">
+        <v>233</v>
+      </c>
+      <c r="G285" t="s">
         <v>1064</v>
       </c>
       <c r="H285" t="s">
-        <v>236</v>
+        <v>1065</v>
       </c>
       <c r="I285" t="s">
         <v>352</v>
       </c>
       <c r="J285" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K285" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>1066</v>
       </c>
@@ -12946,23 +12946,23 @@
       <c r="D286" t="s">
         <v>14</v>
       </c>
-      <c r="F286" t="s">
+      <c r="E286" t="s">
+        <v>377</v>
+      </c>
+      <c r="G286" t="s">
         <v>1069</v>
       </c>
       <c r="H286" t="s">
-        <v>377</v>
+        <v>1070</v>
       </c>
       <c r="I286" t="s">
         <v>981</v>
       </c>
       <c r="J286" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K286" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>1071</v>
       </c>
@@ -12975,23 +12975,23 @@
       <c r="D287" t="s">
         <v>14</v>
       </c>
-      <c r="F287" t="s">
+      <c r="E287" t="s">
+        <v>377</v>
+      </c>
+      <c r="G287" t="s">
         <v>1069</v>
       </c>
       <c r="H287" t="s">
-        <v>377</v>
+        <v>1070</v>
       </c>
       <c r="I287" t="s">
         <v>981</v>
       </c>
       <c r="J287" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K287" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>1074</v>
       </c>
@@ -13004,23 +13004,23 @@
       <c r="D288" t="s">
         <v>14</v>
       </c>
-      <c r="F288" t="s">
+      <c r="E288" t="s">
+        <v>15</v>
+      </c>
+      <c r="G288" t="s">
         <v>1069</v>
       </c>
       <c r="H288" t="s">
-        <v>18</v>
+        <v>1070</v>
       </c>
       <c r="I288" t="s">
         <v>75</v>
       </c>
       <c r="J288" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K288" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:10">
       <c r="A289" t="s">
         <v>1077</v>
       </c>
@@ -13033,23 +13033,23 @@
       <c r="D289" t="s">
         <v>14</v>
       </c>
-      <c r="F289" t="s">
+      <c r="E289" t="s">
+        <v>58</v>
+      </c>
+      <c r="G289" t="s">
         <v>1069</v>
       </c>
       <c r="H289" t="s">
-        <v>58</v>
+        <v>1070</v>
       </c>
       <c r="I289" t="s">
         <v>59</v>
       </c>
       <c r="J289" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K289" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
         <v>1080</v>
       </c>
@@ -13062,23 +13062,23 @@
       <c r="D290" t="s">
         <v>14</v>
       </c>
-      <c r="F290" t="s">
+      <c r="E290" t="s">
+        <v>58</v>
+      </c>
+      <c r="G290" t="s">
         <v>1069</v>
       </c>
       <c r="H290" t="s">
-        <v>58</v>
+        <v>1070</v>
       </c>
       <c r="I290" t="s">
         <v>59</v>
       </c>
       <c r="J290" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K290" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>1083</v>
       </c>
@@ -13091,23 +13091,23 @@
       <c r="D291" t="s">
         <v>14</v>
       </c>
-      <c r="F291" t="s">
+      <c r="E291" t="s">
+        <v>233</v>
+      </c>
+      <c r="G291" t="s">
         <v>1069</v>
       </c>
       <c r="H291" t="s">
-        <v>236</v>
+        <v>1070</v>
       </c>
       <c r="I291" t="s">
         <v>352</v>
       </c>
       <c r="J291" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K291" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>1086</v>
       </c>
@@ -13120,23 +13120,23 @@
       <c r="D292" t="s">
         <v>14</v>
       </c>
-      <c r="F292" t="s">
+      <c r="E292" t="s">
+        <v>233</v>
+      </c>
+      <c r="G292" t="s">
         <v>1069</v>
       </c>
       <c r="H292" t="s">
-        <v>236</v>
+        <v>1070</v>
       </c>
       <c r="I292" t="s">
         <v>352</v>
       </c>
       <c r="J292" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K292" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>1089</v>
       </c>
@@ -13149,23 +13149,23 @@
       <c r="D293" t="s">
         <v>14</v>
       </c>
-      <c r="F293" t="s">
+      <c r="E293" t="s">
+        <v>233</v>
+      </c>
+      <c r="G293" t="s">
         <v>1069</v>
       </c>
       <c r="H293" t="s">
-        <v>236</v>
+        <v>1070</v>
       </c>
       <c r="I293" t="s">
         <v>352</v>
       </c>
       <c r="J293" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K293" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:10">
       <c r="A294" t="s">
         <v>1092</v>
       </c>
@@ -13178,23 +13178,23 @@
       <c r="D294" t="s">
         <v>14</v>
       </c>
-      <c r="F294" t="s">
+      <c r="E294" t="s">
+        <v>233</v>
+      </c>
+      <c r="G294" t="s">
         <v>1069</v>
       </c>
       <c r="H294" t="s">
-        <v>236</v>
+        <v>1070</v>
       </c>
       <c r="I294" t="s">
         <v>352</v>
       </c>
       <c r="J294" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K294" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>1095</v>
       </c>
@@ -13207,23 +13207,23 @@
       <c r="D295" t="s">
         <v>14</v>
       </c>
-      <c r="F295" t="s">
+      <c r="E295" t="s">
+        <v>233</v>
+      </c>
+      <c r="G295" t="s">
         <v>1098</v>
       </c>
       <c r="H295" t="s">
-        <v>236</v>
+        <v>1099</v>
       </c>
       <c r="I295" t="s">
         <v>352</v>
       </c>
       <c r="J295" t="s">
-        <v>1099</v>
-      </c>
-      <c r="K295" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>1100</v>
       </c>
@@ -13236,19 +13236,19 @@
       <c r="D296" t="s">
         <v>14</v>
       </c>
-      <c r="F296" t="s">
+      <c r="E296" t="s">
+        <v>233</v>
+      </c>
+      <c r="G296" t="s">
         <v>1098</v>
       </c>
       <c r="H296" t="s">
-        <v>236</v>
+        <v>1099</v>
       </c>
       <c r="I296" t="s">
         <v>352</v>
       </c>
       <c r="J296" t="s">
-        <v>1099</v>
-      </c>
-      <c r="K296" t="s">
         <v>353</v>
       </c>
     </row>

--- a/api/2/xlsx/en/SectorCOFOG.xlsx
+++ b/api/2/xlsx/en/SectorCOFOG.xlsx
@@ -28,27 +28,27 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:cofog-class</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-group</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-division</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-group</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-class</t>
-  </si>
-  <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>active</t>
   </si>
   <si>
+    <t>09.8.0 - Education n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>09.8 - Education n.e.c.</t>
+  </si>
+  <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
     <t>09 - Education</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>09.8 - Education n.e.c.</t>
-  </si>
-  <si>
-    <t>09.8.0 - Education n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Educational buildings, equipment, materials; subsidiary services to education (boarding facilities, staff housing); language training; colloquia, seminars, lectures, etc.</t>
   </si>
   <si>
+    <t>09.6.0 - Subsidiary services to education (IS)</t>
+  </si>
+  <si>
     <t>09.6 - Subsidiary services to education</t>
   </si>
   <si>
-    <t>09.6.0 - Subsidiary services to education (IS)</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Research and studies on education effectiveness, relevance and quality; systematic evaluation and monitoring.</t>
   </si>
   <si>
+    <t>09.7.0 - R&amp;D Education (CS)</t>
+  </si>
+  <si>
     <t>09.7 - R&amp;D Education</t>
   </si>
   <si>
-    <t>09.7.0 - R&amp;D Education (CS)</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
@@ -130,18 +130,18 @@
     <t>Formal and non-formal primary education for children; all elementary and first cycle systematic instruction; provision of learning materials.</t>
   </si>
   <si>
+    <t>09.1.2 - Primary education (IS)</t>
+  </si>
+  <si>
+    <t>09.1 - Pre‐primary and primary education</t>
+  </si>
+  <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>09.1 - Pre‐primary and primary education</t>
-  </si>
-  <si>
-    <t>09.1.2 - Primary education (IS)</t>
-  </si>
-  <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -190,15 +190,15 @@
     <t>Provision of meals or snacks at school; other uses of food for the achievement of educational outcomes including 'take-home' food rations provided as economic incentives to families (or foster families, or other child care institutions) in return for a child's regular attendance at school; food provided to adults or youth who attend literacy or vocational training programmes; food for pre-school activities with an educational component. These activities may help reduce children's hunger during the school day if provision of food/meals contains bioavailable nutrients to address specific nutrition needs and have nutrition expected outcomes in school children, or if the rationale mainstream nutrition or expected outcome is nutrition-linked.</t>
   </si>
   <si>
+    <t>07.4.0 - Public health services (IS)</t>
+  </si>
+  <si>
+    <t>07.4 - Public health services</t>
+  </si>
+  <si>
     <t>07 - Health</t>
   </si>
   <si>
-    <t>07.4 - Public health services</t>
-  </si>
-  <si>
-    <t>07.4.0 - Public health services (IS)</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Second cycle systematic instruction at junior level.</t>
   </si>
   <si>
+    <t>09.2.1 - Lower‐secondary education (IS)</t>
+  </si>
+  <si>
     <t>09.2 - Secondary education</t>
   </si>
   <si>
-    <t>09.2.1 - Lower‐secondary education (IS)</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
@@ -223,15 +223,15 @@
     <t>Second cycle systematic instruction at senior levels.</t>
   </si>
   <si>
+    <t>09.2.2 - Upper‐secondary education (IS)</t>
+  </si>
+  <si>
+    <t>Secondary Education</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>09.2.2 - Upper‐secondary education (IS)</t>
-  </si>
-  <si>
-    <t>Secondary Education</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Elementary vocational training and secondary level technical education; on-the job training; apprenticeships; including informal vocational training.</t>
   </si>
   <si>
+    <t>09.5.0 - Education not definable by level (IS)</t>
+  </si>
+  <si>
     <t>09.5 - Education not definable by level</t>
   </si>
   <si>
-    <t>09.5.0 - Education not definable by level (IS)</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
@@ -256,18 +256,18 @@
     <t>Degree and diploma programmes at universities, colleges and polytechnics; scholarships.</t>
   </si>
   <si>
+    <t>09.4.1 - First stage of tertiary education (IS)</t>
+  </si>
+  <si>
+    <t>09.4 - Tertiary education</t>
+  </si>
+  <si>
+    <t>Post-Secondary Education</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>09.4 - Tertiary education</t>
-  </si>
-  <si>
-    <t>09.4.1 - First stage of tertiary education (IS)</t>
-  </si>
-  <si>
-    <t>Post-Secondary Education</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Professional-level vocational training programmes and in-service training.</t>
   </si>
   <si>
+    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
+  </si>
+  <si>
     <t>09.3 - Post‐secondary non‐tertiary education</t>
   </si>
   <si>
-    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
@@ -292,24 +292,24 @@
     <t>Health sector policy, planning and programmes; aid to health ministries, public health administration; institution capacity building and advice; medical insurance programmes; including health system strengthening and health governance; unspecified health activities.</t>
   </si>
   <si>
+    <t>07.6.0 - Health n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>07.6 - Health n.e.c.</t>
+  </si>
+  <si>
+    <t>Health, General</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
-    <t>07.6.0 - Health n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>Health, General</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>General medical research (excluding basic health research and research for prevention and control of NCDs (12382)).</t>
   </si>
   <si>
+    <t>07.5.0 - R&amp;D Health (CS)</t>
+  </si>
+  <si>
     <t>07.5 - R&amp;D Health</t>
   </si>
   <si>
-    <t>07.5.0 - R&amp;D Health (CS)</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Laboratories, specialised clinics and hospitals (including equipment and supplies); ambulances; dental services; medical rehabilitation. Excludes noncommunicable diseases (123xx).</t>
   </si>
   <si>
+    <t>07.2.1 - General medical services (IS)</t>
+  </si>
+  <si>
     <t>07.2 - Outpatient services</t>
   </si>
   <si>
-    <t>07.2.1 - General medical services (IS)</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -367,12 +367,12 @@
     <t>Basic and primary health care programmes; paramedical and nursing care programmes; supply of drugs, medicines and vaccines related to basic health care; activities aimed at achieving universal health coverage.</t>
   </si>
   <si>
+    <t>Basic Health</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Basic Health</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>District-level hospitals, clinics and dispensaries and related medical equipment; excluding specialised hospitals and clinics (12191).</t>
   </si>
   <si>
+    <t>07.3.1 - General hospital services (IS)</t>
+  </si>
+  <si>
     <t>07.3 - Hospital services</t>
   </si>
   <si>
-    <t>07.3.1 - General hospital services (IS)</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -460,12 +460,12 @@
     <t>Programmes for the prevention and control of NCDs which cannot be broken down into the codes below.</t>
   </si>
   <si>
+    <t>Non-communicable diseases (NCDs)</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Non-communicable diseases (NCDs)</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Population/development policies; demographic research/analysis; reproductive health research; unspecified population activities. (Use purpose code 15190 for data on migration and refugees. Use code 13096 for census work, vital registration and migration data collection.)</t>
   </si>
   <si>
+    <t>Population Policies/Programmes &amp; Reproductive Health</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Population Policies/Programmes &amp; Reproductive Health</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -580,21 +580,21 @@
     <t>Water sector policy and governance, including legislation, regulation, planning and management as well as transboundary management of water; institutional capacity development; activities supporting the Integrated Water Resource Management approach (IWRM: see box below).</t>
   </si>
   <si>
+    <t>06.3.0 - Water supply (CS)</t>
+  </si>
+  <si>
+    <t>Water Supply &amp; Sanitation</t>
+  </si>
+  <si>
+    <t>06.3 - Water supply</t>
+  </si>
+  <si>
     <t>06 - Housing and community amenities</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>Water Supply &amp; Sanitation</t>
-  </si>
-  <si>
-    <t>06.3 - Water supply</t>
-  </si>
-  <si>
-    <t>06.3.0 - Water supply (CS)</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -604,15 +604,15 @@
     <t>Collection and usage of quantitative and qualitative data on water resources; creation and sharing of water knowledge; conservation and rehabilitation of inland surface waters (rivers, lakes etc.), ground water and coastal waters; prevention of water contamination.</t>
   </si>
   <si>
+    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>05.6 - Environmental protection n.e.c.</t>
+  </si>
+  <si>
     <t>05 - Environmental protection</t>
   </si>
   <si>
-    <t>05.6 - Environmental protection n.e.c.</t>
-  </si>
-  <si>
-    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>Large scale sewerage including trunk sewers and sewage pumping stations; domestic and industrial waste water treatment plants.</t>
   </si>
   <si>
+    <t>05.2.0 - Waste water management (CS)</t>
+  </si>
+  <si>
     <t>05.2 - Waste water management</t>
   </si>
   <si>
-    <t>05.2.0 - Waste water management (CS)</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -691,12 +691,12 @@
     <t>Municipal and industrial solid waste management, including hazardous and toxic waste; collection, disposal and treatment; landfill areas; composting and reuse.</t>
   </si>
   <si>
+    <t>05.1.0 - Waste management (CS)</t>
+  </si>
+  <si>
     <t>05.1 - Waste management</t>
   </si>
   <si>
-    <t>05.1.0 - Waste management (CS)</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
@@ -715,27 +715,27 @@
     <t>Institution-building assistance to strengthen core public sector management systems and capacities. This includes general public policy management, co-ordination, planning and reform; human resource management; organisational development; civil service reform; e-government; development planning, monitoring and evaluation; support to ministries involved in aid co-ordination; other ministries and government departments when sector cannot be specified. (Use specific sector codes for development of systems and capacities in sector ministries. For macro-economic policy use code 15142. For public procurement use code 15125.)</t>
   </si>
   <si>
+    <t>01.3.1 - General personnel services (CS)</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
+    <t>01.3 - General services</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
     <t>01 - General public services</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society</t>
-  </si>
-  <si>
-    <t>01.3 - General services</t>
-  </si>
-  <si>
-    <t>01.3.1 - General personnel services (CS)</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Fiscal policy and planning; support to ministries of finance; strengthening financial and managerial accountability; public expenditure management; improving financial management systems; budget drafting; inter-governmental fiscal relations, public audit, public debt. (Use code 15114 for domestic revenue mobilisation and code 33120 for customs).</t>
   </si>
   <si>
+    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
+  </si>
+  <si>
     <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
   </si>
   <si>
-    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
@@ -760,12 +760,12 @@
     <t>Decentralisation processes (including political, administrative and fiscal dimensions); intergovernmental relations and federalism; strengthening departments of regional and local government, regional and local authorities and their national associations. (Use specific sector codes for decentralisation of sector management and services.)</t>
   </si>
   <si>
+    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
+  </si>
+  <si>
     <t>01.8 - Transfers of a general character between different levels of government</t>
   </si>
   <si>
-    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
@@ -775,15 +775,15 @@
     <t>Specialised organisations, institutions and frameworks for the prevention of and combat against corruption, bribery, money-laundering and other aspects of organised crime, with or without law enforcement powers, e.g. anti-corruption commissions and monitoring bodies, special investigation services, institutions and initiatives of integrity and ethics oversight, specialised NGOs, other civil society and citizens' organisations directly concerned with corruption.</t>
   </si>
   <si>
+    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>03.6 - Public order and safety n.e.c.</t>
+  </si>
+  <si>
     <t>03 - Public order and safety</t>
   </si>
   <si>
-    <t>03.6 - Public order and safety n.e.c.</t>
-  </si>
-  <si>
-    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -859,12 +859,12 @@
     <t>Support to administration of developing countries' foreign aid (including triangular and south-south cooperation).</t>
   </si>
   <si>
+    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
+  </si>
+  <si>
     <t>01.2 - Foreign economic aid</t>
   </si>
   <si>
-    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -943,12 +943,12 @@
     <t>Judicial law and order sectors; policy development within ministries of justice or equivalents.</t>
   </si>
   <si>
+    <t>03.3.0 - Law courts (CS)</t>
+  </si>
+  <si>
     <t>03.3 - Law courts</t>
   </si>
   <si>
-    <t>03.3.0 - Law courts (CS)</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
@@ -958,12 +958,12 @@
     <t>Police affairs and services.</t>
   </si>
   <si>
+    <t>03.1.0 - Police services (CS)</t>
+  </si>
+  <si>
     <t>03.1 - Police services</t>
   </si>
   <si>
-    <t>03.1.0 - Police services (CS)</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
@@ -973,12 +973,12 @@
     <t>Fire-prevention and fire-fighting affairs and services.</t>
   </si>
   <si>
+    <t>03.2.0 - Fire‐protection services (CS)</t>
+  </si>
+  <si>
     <t>03.2 - Fire‐protection services</t>
   </si>
   <si>
-    <t>03.2.0 - Fire‐protection services (CS)</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -1012,12 +1012,12 @@
     <t>Prisons</t>
   </si>
   <si>
+    <t>03.4.0 - Prisons (CS)</t>
+  </si>
+  <si>
     <t>03.4 - Prisons</t>
   </si>
   <si>
-    <t>03.4.0 - Prisons (CS)</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
@@ -1027,15 +1027,15 @@
     <t>Support to macroeconomic stability, debt sustainability and structural reforms. Includes technical assistance for strategic formulation of policies, laws and regulation; capacity building to enhance public sector development; policy-based funding. For fiscal policy and domestic revenue mobilisation use codes 15111 and 15114.</t>
   </si>
   <si>
+    <t>04.1.1 - General economic and commercial affairs (CS)</t>
+  </si>
+  <si>
+    <t>04.1 - General economic, commercial and labour affairs</t>
+  </si>
+  <si>
     <t>04 - Economic affairs</t>
   </si>
   <si>
-    <t>04.1 - General economic, commercial and labour affairs</t>
-  </si>
-  <si>
-    <t>04.1.1 - General economic and commercial affairs (CS)</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -1072,12 +1072,12 @@
     <t>Electoral management bodies and processes, election observation, voters' education. (Use code 15230 when in the context of an international peacekeeping operation.)</t>
   </si>
   <si>
+    <t>01.6.0 - General public services n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>01.6 - General public services n.e.c.</t>
   </si>
   <si>
-    <t>01.6.0 - General public services n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -1099,12 +1099,12 @@
     <t>Activities that support free and uncensored flow of information on public issues; activities that increase the editorial and technical skills and the integrity of the print and broadcast media, e.g. training of journalists. (Use codes 22010-22040 for provision of equipment and capital assistance to media.)</t>
   </si>
   <si>
+    <t>04.6.0 - Communication (CS)</t>
+  </si>
+  <si>
     <t>04.6 - Communication</t>
   </si>
   <si>
-    <t>04.6.0 - Communication (CS)</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -1147,15 +1147,15 @@
     <t>Support for feminist, women-led and women's rights organisations and movements, and institutions (governmental and non-govermental) at all levels to enhance their effectiveness, influence and substainability (activities and core-funding). These organisations exist to bring about transformative change for gender equality and/or the rights of women and girls in developing countries. Their activities include agenda-setting, advocacy, policy dialogue, capacity development, awareness raising and prevention, service provision, conflict-prevention and peacebuilding, research, organising, and alliance and network building</t>
   </si>
   <si>
+    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
+  </si>
+  <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
     <t>10 - Social protection</t>
   </si>
   <si>
-    <t>10.7 - Social exclusion n.e.c.</t>
-  </si>
-  <si>
-    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -1192,12 +1192,12 @@
     <t>Collection, production, management and dissemination of statistics and data related to Government &amp; Civil Society. Includes macroeconomic statistics, government finance, fiscal and public sector statistics, support to development of administrative data infrastructure, civil society surveys.</t>
   </si>
   <si>
+    <t>01.5.0 - R&amp;D General public services (CS)</t>
+  </si>
+  <si>
     <t>01.5 - R&amp;D General public services</t>
   </si>
   <si>
-    <t>01.5.0 - R&amp;D General public services (CS)</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -1207,12 +1207,12 @@
     <t>Technical co-operation provided to parliament, government ministries, law enforcement agencies and the judiciary to assist review and reform of the security system to improve democratic governance and civilian control; technical co-operation provided to government to improve civilian oversight and democratic control of budgeting, management, accountability and auditing of security expenditure, including military budgets, as part of a public expenditure management programme; assistance to civil society to enhance its competence and capacity to scrutinise the security system so that it is managed in accordance with democratic norms and principles of accountability, transparency and good governance. [Other than in the context of an international peacekeeping operation (15230)].</t>
   </si>
   <si>
+    <t>Conflict, Peace &amp; Security</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Conflict, Peace &amp; Security</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -1231,15 +1231,15 @@
     <t>Bilateral participation in peacekeeping operations mandated or authorised by the United Nations (UN) through Security Council resolutions, and conducted by international organisations, e.g. UN, NATO, the European Union (Security and Defence Policy security-related operations), or regional groupings of developing countries. Direct contributions to the UN Department for Peacekeeping Operations (UNDPKO) budget are excluded from bilateral ODA (they are reportable in part as multilateral ODA, see Annex 9). The activities that can be reported as bilateral ODA under this code are limited to: human rights and election monitoring; reintegration of demobilised soldiers; rehabilitation of basic national infrastructure; monitoring or retraining of civil administrators and police forces; security sector reform and other rule of law-related activities; training in customs and border control procedures; advice or training in fiscal or macroeconomic stabilisation policy; repatriation and demobilisation of armed factions, and disposal of their weapons; explosive mine removal. The enforcement aspects of international peacekeeping operations are not reportable as ODA. ODA-eligible bilateral participation in peacekeeping operations can take the form of financing or provision of equipment or military or civilian personnel (e.g. police officers). The reportable cost is calculated as the excess over what the personnel and equipment would have cost to maintain had they not been assigned to take part in a peace operation. Costs for military contingents participating in UNDPKO peacekeeping operations are not reportable as ODA. International peacekeeping operations may include humanitarian-type activities (contributions to the form of equipment or personnel), as described in codes 7xxxx. These should be included under code 15230 if they are an integrated part of the activities above, otherwise they should be reported as humanitarian aid. NB: When using this code, indicate the name of the operation in the short description of the activity reported.</t>
   </si>
   <si>
+    <t>02.3.0 - Foreign military aid (CS)</t>
+  </si>
+  <si>
+    <t>02.3 - Foreign military aid</t>
+  </si>
+  <si>
     <t>02 - Defence</t>
   </si>
   <si>
-    <t>02.3 - Foreign military aid</t>
-  </si>
-  <si>
-    <t>02.3.0 - Foreign military aid (CS)</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -1276,18 +1276,18 @@
     <t>Social protection or social security strategies, legislation and administration; institution capacity building and advice; social security and other social schemes; support programmes, cash benefits, pensions and special programmes for older persons, orphans, persons with disabilities, children, mothers with newborns, those living in poverty, without jobs and other vulnerable groups; social dimensions of structural adjustment.</t>
   </si>
   <si>
+    <t>10.9.0 - Social protection n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Other Social Infrastructure &amp; Services</t>
+  </si>
+  <si>
+    <t>10.9 - Social protection n.e.c.</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Other Social Infrastructure &amp; Services</t>
-  </si>
-  <si>
-    <t>10.9 - Social protection n.e.c.</t>
-  </si>
-  <si>
-    <t>10.9.0 - Social protection n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Social protection schemes in the form of cash or in-kind benefits, including pensions, against the risks linked to old age.</t>
   </si>
   <si>
+    <t>10.2.0 - Old age (IS)</t>
+  </si>
+  <si>
     <t>10.2 - Old age</t>
   </si>
   <si>
-    <t>10.2.0 - Old age (IS)</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -1348,12 +1348,12 @@
     <t>Employment policy and planning; institution capacity building and advice; employment creation and income generation programmes; including activities specifically designed for the needs of vulnerable groups.</t>
   </si>
   <si>
+    <t>10.5.0 - Unemployment (IS)</t>
+  </si>
+  <si>
     <t>10.5 - Unemployment</t>
   </si>
   <si>
-    <t>10.5.0 - Unemployment (IS)</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
@@ -1363,12 +1363,12 @@
     <t>Housing sector policy, planning and programmes; excluding low-cost housing and slum clearance (16040).</t>
   </si>
   <si>
+    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>06.6 - Housing and community amenities n.e.c.</t>
   </si>
   <si>
-    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
@@ -1378,12 +1378,12 @@
     <t>Including slum clearance.</t>
   </si>
   <si>
+    <t>06.1.0 - Housing development (CS)</t>
+  </si>
+  <si>
     <t>06.1 - Housing development</t>
   </si>
   <si>
-    <t>06.1.0 - Housing development (CS)</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
@@ -1402,15 +1402,15 @@
     <t>Including libraries and museums.</t>
   </si>
   <si>
+    <t>08.2.0 - Cultural services (IS)</t>
+  </si>
+  <si>
+    <t>08.2 - Cultural services</t>
+  </si>
+  <si>
     <t>08 - Recreation, culture and religion</t>
   </si>
   <si>
-    <t>08.2 - Cultural services</t>
-  </si>
-  <si>
-    <t>08.2.0 - Cultural services (IS)</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -1444,12 +1444,12 @@
     <t>Recreation and sport</t>
   </si>
   <si>
+    <t>08.1.0 - Recreational and sporting services (IS)</t>
+  </si>
+  <si>
     <t>08.1 - Recreational and sporting services</t>
   </si>
   <si>
-    <t>08.1.0 - Recreational and sporting services (IS)</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -1486,12 +1486,12 @@
     <t>Transport sector policy, planning and programmes; aid to transport ministries; institution capacity building and advice; unspecified transport; activities that combine road, rail, water and/or air transport. Includes prevention of road accidents. Whenever possible, report transport of goods under the sector of the good being transported.</t>
   </si>
   <si>
+    <t>Transport &amp; Storage</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transport &amp; Storage</t>
-  </si>
-  <si>
     <t>21011</t>
   </si>
   <si>
@@ -1528,12 +1528,12 @@
     <t>Road infrastructure, road vehicles; passenger road transport, motor passenger cars.</t>
   </si>
   <si>
+    <t>04.5.1 - Road transport (CS)</t>
+  </si>
+  <si>
     <t>04.5 - Transport</t>
   </si>
   <si>
-    <t>04.5.1 - Road transport (CS)</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -1615,12 +1615,12 @@
     <t>Whether or not related to transportation. Whenever possible, report storage projects under the sector of the resource being stored.</t>
   </si>
   <si>
+    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
+  </si>
+  <si>
     <t>04.7 - Other industries</t>
   </si>
   <si>
-    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -1636,12 +1636,12 @@
     <t>Communications sector policy, planning and programmes; institution capacity building and advice; including postal services development; unspecified communications activities.</t>
   </si>
   <si>
+    <t>Communications</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Communications</t>
-  </si>
-  <si>
     <t>22011</t>
   </si>
   <si>
@@ -1684,12 +1684,12 @@
     <t>Radio and TV links, equipment; newspapers; printing and publishing.</t>
   </si>
   <si>
+    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
+  </si>
+  <si>
     <t>08.3 - Broadcasting and publishing services</t>
   </si>
   <si>
-    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
@@ -1708,24 +1708,24 @@
     <t>Energy sector policy, planning; aid to energy ministries and other governmental or nongovernmental institutions for activities related to the SDG7; institution capacity building and advice; tariffs, market building, unspecified energy activities; energy activities for which a more specific code cannot be assigned.</t>
   </si>
   <si>
+    <t>04.3.5 - Electricity (CS)</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>04.3 - Fuel and energy</t>
+  </si>
+  <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
-    <t>04.3.5 - Electricity (CS)</t>
-  </si>
-  <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -1741,12 +1741,12 @@
     <t>Regulation of the energy sector, including wholesale and retail electricity provision.</t>
   </si>
   <si>
+    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
+  </si>
+  <si>
     <t>04.8 - R&amp;D Economic affairs</t>
   </si>
   <si>
-    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -1783,12 +1783,12 @@
     <t>Renewable energy generation programmes that cannot be attributed to one single technology (codes 23220 through 23280 below). Fuelwood/charcoal production should be included under forestry 31261.</t>
   </si>
   <si>
+    <t>Energy generation, renewable sources</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Energy generation, renewable sources</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -1870,12 +1870,12 @@
     <t>Thermal power plants including when energy source cannot be determined; combined gas-coal power plants.</t>
   </si>
   <si>
+    <t>Energy generation, non-renewable sources</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Energy generation, non-renewable sources</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -1933,12 +1933,12 @@
     <t>Electric power plants that make use of both non-renewable and renewable energy sources.</t>
   </si>
   <si>
+    <t>Hybrid energy plants</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
-    <t>Hybrid energy plants</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>See note regarding ODA eligibility of nuclear energy.</t>
   </si>
   <si>
+    <t>04.3.3 - Nuclear fuel (CS)</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>04.3.3 - Nuclear fuel (CS)</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
@@ -1963,12 +1963,12 @@
     <t>Power plants which are designed to produce heat only.</t>
   </si>
   <si>
+    <t>Energy distribution</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Energy distribution</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -2032,12 +2032,12 @@
     <t>Finance sector policy, planning and programmes; institution capacity building and advice; financial markets and systems.</t>
   </si>
   <si>
+    <t>Banking &amp; Financial Services</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Banking &amp; Financial Services</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -2089,12 +2089,12 @@
     <t>Public sector policies and institution support to the business environment and investment climate, including business regulations, property rights, non-discrimination, investment promotion, competition policy, enterprises law, private-public partnerships.</t>
   </si>
   <si>
+    <t>Business &amp; Other Services</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Business &amp; Other Services</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -2131,24 +2131,24 @@
     <t>Agricultural sector policy, planning and programmes; aid to agricultural ministries; institution capacity building and advice; unspecified agriculture.</t>
   </si>
   <si>
+    <t>04.2.1 - Agriculture (CS)</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Agriculture, Forestry, Fishing</t>
-  </si>
-  <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>04.2.1 - Agriculture (CS)</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -2311,15 +2311,15 @@
     <t>Forestry sector policy, planning and programmes; institution capacity building and advice; forest surveys; unspecified forestry and agro-forestry activities.</t>
   </si>
   <si>
+    <t>04.2.2 - Forestry (CS)</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>04.2.2 - Forestry (CS)</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -2368,15 +2368,15 @@
     <t>Fishing sector policy, planning and programmes; institution capacity building and advice; ocean and coastal fishing; marine and freshwater fish surveys and prospecting; fishing boats/equipment; unspecified fishing activities.</t>
   </si>
   <si>
+    <t>04.2.3 - Fishing and hunting (CS)</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>04.2.3 - Fishing and hunting (CS)</t>
-  </si>
-  <si>
-    <t>Fishing</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -2419,24 +2419,24 @@
     <t>Industrial sector policy, planning and programmes; institution capacity building and advice; unspecified industrial activities; manufacturing of goods not specified below.</t>
   </si>
   <si>
+    <t>04.4.2 - Manufacturing (CS)</t>
+  </si>
+  <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>Industry, Mining, Construction</t>
-  </si>
-  <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
-    <t>04.4.2 - Manufacturing (CS)</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -2593,15 +2593,15 @@
     <t>Mineral and mining sector policy, planning and programmes; mining legislation, mining cadastre, mineral resources inventory, information systems, institution capacity building and advice; unspecified mineral resources exploitation.</t>
   </si>
   <si>
+    <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
+  </si>
+  <si>
+    <t>Mineral Resources &amp; Mining</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
-  </si>
-  <si>
-    <t>Mineral Resources &amp; Mining</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -2692,15 +2692,15 @@
     <t>Construction sector policy and planning; excluding construction activities within specific sectors (e.g., hospital or school construction).</t>
   </si>
   <si>
+    <t>04.4.3 - Construction (CS)</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
-    <t>04.4.3 - Construction (CS)</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
@@ -2710,15 +2710,15 @@
     <t>Trade policy and planning; support to ministries and departments responsible for trade policy; trade-related legislation and regulatory reforms; policy analysis and implementation of multilateral trade agreements e.g. technical barriers to trade and sanitary and phytosanitary measures (TBT/SPS) except at regional level (see 33130); mainstreaming trade in national development strategies (e.g. poverty reduction strategy papers); wholesale/retail trade; unspecified trade and trade promotion activities.</t>
   </si>
   <si>
+    <t>Trade Policies &amp; Regulations</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>Trade Policies &amp; Regulations</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -2770,15 +2770,15 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>04.7.3 - Tourism (CS)</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>04.7.3 - Tourism (CS)</t>
-  </si>
-  <si>
-    <t>Tourism</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -2788,12 +2788,12 @@
     <t>Environmental policy, laws, regulations and economic instruments; administrational institutions and practices; environmental and land use planning and decision-making procedures; seminars, meetings; miscellaneous conservation and protection measures not specified below.</t>
   </si>
   <si>
+    <t>General Environment Protection</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>General Environment Protection</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -2812,12 +2812,12 @@
     <t>Including natural reserves and actions in the surrounding areas; other measures to protect endangered or vulnerable species and their habitats (e.g. wetlands preservation).</t>
   </si>
   <si>
+    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
+  </si>
+  <si>
     <t>05.4 - Protection of biodiversity and landscape</t>
   </si>
   <si>
-    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -2848,18 +2848,18 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Other Multisector</t>
+  </si>
+  <si>
+    <t>04.9 - Economic affairs n.e.c.</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Other Multisector</t>
-  </si>
-  <si>
-    <t>04.9 - Economic affairs n.e.c.</t>
-  </si>
-  <si>
-    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -2878,12 +2878,12 @@
     <t>Urban development and planning; urban management, land information systems.</t>
   </si>
   <si>
+    <t>06.2.0 - Community development (CS)</t>
+  </si>
+  <si>
     <t>06.2 - Community development</t>
   </si>
   <si>
-    <t>06.2.0 - Community development (CS)</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -2935,12 +2935,12 @@
     <t>Disaster risk reduction activities if not sector specific. Comprises risk assessments, structural prevention measures (e.g. flood prevention infrastructure), preparedness measures (e.g. early warning systems) normative prevention measures (e.g. building codes, land-use planning), and risk transfer systems (e.g. insurance schemes, risk funds). Also includes building local and national capacities and supporting the establishment of efficient and sustainable national structures able to promote disaster risk reduction.</t>
   </si>
   <si>
+    <t>02.2.0 - Civil defence (CS)</t>
+  </si>
+  <si>
     <t>02.2 - Civil defence</t>
   </si>
   <si>
-    <t>02.2.0 - Civil defence (CS)</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
@@ -2959,12 +2959,12 @@
     <t>Short or longer term household food security programmes and activities that improve the access of households to nutritionally adequate diets (excluding any cash transfers within broader social welfare programmes that do not have a specific food security, food acquisition or nutrition focus which should be reported under code 16010).</t>
   </si>
   <si>
+    <t>10.4.0 - Family and children (IS)</t>
+  </si>
+  <si>
     <t>10.4 - Family and children</t>
   </si>
   <si>
-    <t>10.4.0 - Family and children (IS)</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -2992,12 +2992,12 @@
     <t>When sector cannot be identified.</t>
   </si>
   <si>
+    <t>01.4.0 - Basic research (CS)</t>
+  </si>
+  <si>
     <t>01.4 - Basic research</t>
   </si>
   <si>
-    <t>01.4.0 - Basic research (CS)</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -3007,12 +3007,12 @@
     <t>Unearmarked contributions to the government budget; support for the implementation of macroeconomic reforms (structural adjustment programmes, poverty reduction strategies); general programme assistance (when not allocable by sector).</t>
   </si>
   <si>
+    <t>General Budget Support</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>General Budget Support</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
@@ -3022,12 +3022,12 @@
     <t>Supply of edible human food under national or international programmes including transport costs, cash payments made for food supplies; project food assistance aid and food assistance aid for market sales when benefiting sector not specified. Excludes food security policy and administrative management (43071), household food security programmes (43072) and emergency food assistance aid (72040). Report as multilateral: i) food assistance aid by EU financed out of its budget and allocated pro rata to EU member countries; and ii) core contributions to the World Food Programme.</t>
   </si>
   <si>
+    <t>Development Food Assistance</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Development Food Assistance</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
@@ -3037,12 +3037,12 @@
     <t>Capital goods and services; lines of credit.</t>
   </si>
   <si>
+    <t>Other Commodity Assistance</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Other Commodity Assistance</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -3061,18 +3061,18 @@
     <t>Actions falling outside the code headings below.</t>
   </si>
   <si>
+    <t>01.7.0 - Public debt transactions (CS)</t>
+  </si>
+  <si>
+    <t>Action Relating to Debt</t>
+  </si>
+  <si>
+    <t>01.7 - Public debt transactions</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>Action Relating to Debt</t>
-  </si>
-  <si>
-    <t>01.7 - Public debt transactions</t>
-  </si>
-  <si>
-    <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -3130,12 +3130,12 @@
     <t>Shelter, water, sanitation, education, health services including supply of medicines and malnutrition management, including medical nutrition management; supply of other nonfood relief items (including cash and voucher delivery modalities) for the benefit of crisisaffected people, including refugees and internally displaced people in developing countries, Includes assistance delivered by or coordinated by international civil protection units in the immediate aftermath of a disaster (in-kind assistance, deployment of specially-equipped teams, logistics and transportation, or assessment and coordination by experts sent to the field). Also includes measures to promote and protect the safety, well-being, dignity and integrity of crisis-affected people including refugees and internally displaced persons in developing countries. (Activities designed to protect the security of persons or properties through the use or display of force are not reportable as ODA.)</t>
   </si>
   <si>
+    <t>Emergency Response</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Emergency Response</t>
-  </si>
-  <si>
     <t>72011</t>
   </si>
   <si>
@@ -3181,12 +3181,12 @@
     <t>Social and economic rehabilitation in the aftermath of emergencies to facilitate recovery and resilience building and enable populations to restore their livelihoods in the wake of an emergency situation (e.g. trauma counselling and treatment, employment programmes). Includes infrastructure necessary for the delivery of humanitarian aid; restoring pre-existing essential infrastructure and facilities (e.g. water and sanitation, shelter, health care services, education); rehabilitation of basic agricultural inputs and livestock. Excludes longer-term reconstruction ('build back better') which is reportable against relevant sectors.</t>
   </si>
   <si>
+    <t>Reconstruction Relief &amp; Rehabilitation</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Reconstruction Relief &amp; Rehabilitation</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
@@ -3196,24 +3196,24 @@
     <t>Building the responsiveness, capability and capacity of international, regional and national humanitarian actors to disasters. Support to the institutional capacities of national and local government, specialised humanitarian bodies, and civil society organisations to anticipate, respond and recover from the impact of potential, imminent and current hazardous events and emergency situations that pose humanitarian threats and could call for a humanitarian response. This includes risk analysis and assessment, mitigation, preparedness, such as stockpiling of emergency items and training and capacity building aimed to increase the speed and effectiveness of lifesaving assistance delivered in the occurrence of crisis.</t>
   </si>
   <si>
+    <t>Disaster Prevention &amp; Preparedness</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Disaster Prevention &amp; Preparedness</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>Administrative Costs of Donors</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Administrative Costs of Donors</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
@@ -3223,12 +3223,12 @@
     <t>Costs incurred in donor countries for basic assistance to asylum seekers and refugees from developing countries, up to 12 months, when costs cannot be disaggregated. See section II.6 and Annex 17.</t>
   </si>
   <si>
+    <t>Refugees in Donor Countries</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Refugees in Donor Countries</t>
-  </si>
-  <si>
     <t>93011</t>
   </si>
   <si>
@@ -3310,10 +3310,10 @@
     <t>Contributions to general development of the recipient should be included under programme assistance (51010).</t>
   </si>
   <si>
+    <t>Unallocated / Unspecified</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Unallocated / Unspecified</t>
   </si>
   <si>
     <t>99820</t>
@@ -3744,22 +3744,22 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -3814,22 +3814,22 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -3849,22 +3849,22 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>41</v>
@@ -3887,13 +3887,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -3919,22 +3919,22 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>41</v>
@@ -3954,22 +3954,22 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>41</v>
@@ -3989,22 +3989,22 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
         <v>41</v>
@@ -4027,19 +4027,19 @@
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
         <v>41</v>
@@ -4059,22 +4059,22 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
         <v>41</v>
@@ -4094,22 +4094,22 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -4129,22 +4129,22 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -4164,22 +4164,22 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
         <v>83</v>
@@ -4199,22 +4199,22 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
         <v>83</v>
@@ -4234,19 +4234,19 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
         <v>96</v>
@@ -4269,19 +4269,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -4304,22 +4304,22 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
         <v>97</v>
@@ -4339,22 +4339,22 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
         <v>97</v>
@@ -4374,19 +4374,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
         <v>96</v>
@@ -4412,19 +4412,19 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
         <v>117</v>
       </c>
-      <c r="G22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" t="s">
-        <v>94</v>
-      </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
         <v>118</v>
@@ -4444,22 +4444,22 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
         <v>117</v>
       </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
-      </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
         <v>118</v>
@@ -4482,19 +4482,19 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
         <v>117</v>
       </c>
-      <c r="G24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
         <v>118</v>
@@ -4517,19 +4517,19 @@
         <v>58</v>
       </c>
       <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
         <v>117</v>
       </c>
-      <c r="G25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" t="s">
-        <v>94</v>
-      </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
         <v>118</v>
@@ -4552,19 +4552,19 @@
         <v>58</v>
       </c>
       <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
         <v>117</v>
       </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
         <v>118</v>
@@ -4587,19 +4587,19 @@
         <v>58</v>
       </c>
       <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
         <v>117</v>
       </c>
-      <c r="G27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" t="s">
-        <v>94</v>
-      </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s">
         <v>118</v>
@@ -4622,19 +4622,19 @@
         <v>58</v>
       </c>
       <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" t="s">
         <v>117</v>
       </c>
-      <c r="G28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" t="s">
-        <v>94</v>
-      </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
         <v>118</v>
@@ -4657,19 +4657,19 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
         <v>117</v>
       </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>94</v>
-      </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s">
         <v>118</v>
@@ -4689,19 +4689,19 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
         <v>117</v>
       </c>
-      <c r="G30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" t="s">
-        <v>94</v>
-      </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
         <v>96</v>
@@ -4727,19 +4727,19 @@
         <v>58</v>
       </c>
       <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
         <v>148</v>
       </c>
-      <c r="G31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" t="s">
-        <v>94</v>
-      </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
         <v>149</v>
@@ -4762,19 +4762,19 @@
         <v>58</v>
       </c>
       <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
         <v>148</v>
       </c>
-      <c r="G32" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" t="s">
-        <v>94</v>
-      </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
         <v>149</v>
@@ -4797,19 +4797,19 @@
         <v>58</v>
       </c>
       <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" t="s">
         <v>148</v>
       </c>
-      <c r="G33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="s">
-        <v>94</v>
-      </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s">
         <v>149</v>
@@ -4832,19 +4832,19 @@
         <v>58</v>
       </c>
       <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
         <v>148</v>
       </c>
-      <c r="G34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" t="s">
-        <v>94</v>
-      </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
         <v>149</v>
@@ -4867,19 +4867,19 @@
         <v>58</v>
       </c>
       <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s">
         <v>148</v>
       </c>
-      <c r="G35" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" t="s">
-        <v>94</v>
-      </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s">
         <v>149</v>
@@ -4899,22 +4899,22 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
         <v>148</v>
       </c>
-      <c r="G36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
         <v>149</v>
@@ -4936,17 +4936,17 @@
       <c r="E37" t="s">
         <v>58</v>
       </c>
+      <c r="F37" t="s">
+        <v>168</v>
+      </c>
       <c r="G37" t="s">
-        <v>168</v>
-      </c>
-      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
         <v>169</v>
-      </c>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4965,17 +4965,17 @@
       <c r="E38" t="s">
         <v>58</v>
       </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
       <c r="G38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" t="s">
         <v>169</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4994,17 +4994,17 @@
       <c r="E39" t="s">
         <v>58</v>
       </c>
+      <c r="F39" t="s">
+        <v>168</v>
+      </c>
       <c r="G39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
         <v>169</v>
-      </c>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5023,17 +5023,17 @@
       <c r="E40" t="s">
         <v>58</v>
       </c>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
       <c r="G40" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s">
         <v>169</v>
-      </c>
-      <c r="I40" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5050,19 +5050,19 @@
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
         <v>169</v>
-      </c>
-      <c r="I41" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5079,19 +5079,19 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
-      </c>
-      <c r="H42" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" t="s">
         <v>169</v>
-      </c>
-      <c r="I42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5110,10 +5110,10 @@
       <c r="E43" t="s">
         <v>188</v>
       </c>
+      <c r="F43" t="s">
+        <v>189</v>
+      </c>
       <c r="G43" t="s">
-        <v>189</v>
-      </c>
-      <c r="H43" t="s">
         <v>190</v>
       </c>
       <c r="I43" t="s">
@@ -5139,17 +5139,17 @@
       <c r="E44" t="s">
         <v>196</v>
       </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
       <c r="G44" t="s">
-        <v>189</v>
-      </c>
-      <c r="H44" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5168,10 +5168,10 @@
       <c r="E45" t="s">
         <v>188</v>
       </c>
+      <c r="F45" t="s">
+        <v>189</v>
+      </c>
       <c r="G45" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" t="s">
         <v>190</v>
       </c>
       <c r="I45" t="s">
@@ -5197,10 +5197,10 @@
       <c r="E46" t="s">
         <v>188</v>
       </c>
+      <c r="F46" t="s">
+        <v>189</v>
+      </c>
       <c r="G46" t="s">
-        <v>189</v>
-      </c>
-      <c r="H46" t="s">
         <v>190</v>
       </c>
       <c r="I46" t="s">
@@ -5224,19 +5224,19 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>208</v>
+      </c>
+      <c r="F47" t="s">
+        <v>189</v>
       </c>
       <c r="G47" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5255,10 +5255,10 @@
       <c r="E48" t="s">
         <v>188</v>
       </c>
+      <c r="F48" t="s">
+        <v>189</v>
+      </c>
       <c r="G48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" t="s">
         <v>190</v>
       </c>
       <c r="I48" t="s">
@@ -5284,10 +5284,10 @@
       <c r="E49" t="s">
         <v>188</v>
       </c>
+      <c r="F49" t="s">
+        <v>189</v>
+      </c>
       <c r="G49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H49" t="s">
         <v>190</v>
       </c>
       <c r="I49" t="s">
@@ -5311,19 +5311,19 @@
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>208</v>
+      </c>
+      <c r="F50" t="s">
+        <v>189</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J50" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5342,10 +5342,10 @@
       <c r="E51" t="s">
         <v>188</v>
       </c>
+      <c r="F51" t="s">
+        <v>189</v>
+      </c>
       <c r="G51" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" t="s">
         <v>190</v>
       </c>
       <c r="I51" t="s">
@@ -5369,19 +5369,19 @@
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>225</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
-      </c>
-      <c r="H52" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="I52" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="J52" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5400,17 +5400,17 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
+      <c r="F53" t="s">
+        <v>189</v>
+      </c>
       <c r="G53" t="s">
-        <v>189</v>
-      </c>
-      <c r="H53" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
         <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5462,22 +5462,22 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F55" t="s">
         <v>234</v>
       </c>
       <c r="G55" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
         <v>236</v>
       </c>
       <c r="I55" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J55" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K55" t="s">
         <v>239</v>
@@ -5497,22 +5497,22 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F56" t="s">
         <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H56" t="s">
         <v>236</v>
       </c>
       <c r="I56" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J56" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K56" t="s">
         <v>239</v>
@@ -5538,16 +5538,16 @@
         <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H57" t="s">
         <v>236</v>
       </c>
       <c r="I57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J57" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K57" t="s">
         <v>239</v>
@@ -5567,22 +5567,22 @@
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F58" t="s">
         <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H58" t="s">
         <v>236</v>
       </c>
       <c r="I58" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J58" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K58" t="s">
         <v>239</v>
@@ -5602,22 +5602,22 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F59" t="s">
         <v>234</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H59" t="s">
         <v>236</v>
       </c>
       <c r="I59" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J59" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K59" t="s">
         <v>239</v>
@@ -5637,22 +5637,22 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F60" t="s">
         <v>234</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
         <v>236</v>
       </c>
       <c r="I60" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J60" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K60" t="s">
         <v>239</v>
@@ -5672,22 +5672,22 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
         <v>234</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
         <v>236</v>
       </c>
       <c r="I61" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J61" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K61" t="s">
         <v>239</v>
@@ -5707,22 +5707,22 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F62" t="s">
         <v>234</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H62" t="s">
         <v>236</v>
       </c>
       <c r="I62" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J62" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K62" t="s">
         <v>239</v>
@@ -5742,22 +5742,22 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="F63" t="s">
         <v>234</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
         <v>236</v>
       </c>
       <c r="I63" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J63" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="K63" t="s">
         <v>239</v>
@@ -5777,22 +5777,22 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="F64" t="s">
         <v>234</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
         <v>236</v>
       </c>
       <c r="I64" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J64" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="K64" t="s">
         <v>239</v>
@@ -5812,22 +5812,22 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="F65" t="s">
         <v>234</v>
       </c>
       <c r="G65" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="H65" t="s">
         <v>236</v>
       </c>
       <c r="I65" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="J65" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="K65" t="s">
         <v>239</v>
@@ -5882,22 +5882,22 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F67" t="s">
         <v>234</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
         <v>236</v>
       </c>
       <c r="I67" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J67" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K67" t="s">
         <v>239</v>
@@ -5917,7 +5917,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="F68" t="s">
         <v>234</v>
@@ -5932,7 +5932,7 @@
         <v>237</v>
       </c>
       <c r="J68" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="K68" t="s">
         <v>239</v>
@@ -5952,7 +5952,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
         <v>234</v>
@@ -5967,7 +5967,7 @@
         <v>237</v>
       </c>
       <c r="J69" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="K69" t="s">
         <v>239</v>
@@ -5987,22 +5987,22 @@
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
         <v>234</v>
       </c>
       <c r="G70" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H70" t="s">
         <v>236</v>
       </c>
       <c r="I70" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J70" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K70" t="s">
         <v>239</v>
@@ -6022,22 +6022,22 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F71" t="s">
         <v>234</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H71" t="s">
         <v>236</v>
       </c>
       <c r="I71" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J71" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K71" t="s">
         <v>239</v>
@@ -6092,22 +6092,22 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
         <v>234</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="H73" t="s">
         <v>236</v>
       </c>
       <c r="I73" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="J73" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="K73" t="s">
         <v>239</v>
@@ -6127,22 +6127,22 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="F74" t="s">
         <v>234</v>
       </c>
       <c r="G74" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="H74" t="s">
         <v>236</v>
       </c>
       <c r="I74" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="J74" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="K74" t="s">
         <v>239</v>
@@ -6162,22 +6162,22 @@
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="F75" t="s">
         <v>234</v>
       </c>
       <c r="G75" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="H75" t="s">
         <v>236</v>
       </c>
       <c r="I75" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="J75" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="K75" t="s">
         <v>239</v>
@@ -6197,22 +6197,22 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
         <v>234</v>
       </c>
       <c r="G76" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="H76" t="s">
         <v>236</v>
       </c>
       <c r="I76" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="J76" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="K76" t="s">
         <v>239</v>
@@ -6232,22 +6232,22 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
         <v>234</v>
       </c>
       <c r="G77" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="H77" t="s">
         <v>236</v>
       </c>
       <c r="I77" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="J77" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="K77" t="s">
         <v>239</v>
@@ -6267,22 +6267,22 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="F78" t="s">
         <v>234</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="H78" t="s">
         <v>236</v>
       </c>
       <c r="I78" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="J78" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="K78" t="s">
         <v>239</v>
@@ -6299,22 +6299,22 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="F79" t="s">
         <v>234</v>
       </c>
       <c r="G79" t="s">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="H79" t="s">
         <v>236</v>
       </c>
       <c r="I79" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="J79" t="s">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="K79" t="s">
         <v>239</v>
@@ -6340,16 +6340,16 @@
         <v>234</v>
       </c>
       <c r="G80" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="H80" t="s">
         <v>236</v>
       </c>
       <c r="I80" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J80" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="K80" t="s">
         <v>239</v>
@@ -6375,16 +6375,16 @@
         <v>234</v>
       </c>
       <c r="G81" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="H81" t="s">
         <v>236</v>
       </c>
       <c r="I81" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J81" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="K81" t="s">
         <v>239</v>
@@ -6410,16 +6410,16 @@
         <v>234</v>
       </c>
       <c r="G82" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="H82" t="s">
         <v>236</v>
       </c>
       <c r="I82" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J82" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="K82" t="s">
         <v>239</v>
@@ -6439,7 +6439,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
         <v>234</v>
@@ -6454,7 +6454,7 @@
         <v>237</v>
       </c>
       <c r="J83" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="K83" t="s">
         <v>239</v>
@@ -6474,22 +6474,22 @@
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="F84" t="s">
         <v>234</v>
       </c>
       <c r="G84" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="H84" t="s">
         <v>236</v>
       </c>
       <c r="I84" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="J84" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="K84" t="s">
         <v>239</v>
@@ -6509,22 +6509,22 @@
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="F85" t="s">
         <v>234</v>
       </c>
       <c r="G85" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
         <v>236</v>
       </c>
       <c r="I85" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J85" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="K85" t="s">
         <v>239</v>
@@ -6544,22 +6544,22 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="F86" t="s">
         <v>234</v>
       </c>
       <c r="G86" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="H86" t="s">
         <v>236</v>
       </c>
       <c r="I86" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="J86" t="s">
-        <v>362</v>
+        <v>238</v>
       </c>
       <c r="K86" t="s">
         <v>239</v>
@@ -6579,22 +6579,22 @@
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="F87" t="s">
         <v>234</v>
       </c>
       <c r="G87" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H87" t="s">
         <v>236</v>
       </c>
       <c r="I87" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J87" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="K87" t="s">
         <v>239</v>
@@ -6611,22 +6611,22 @@
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F88" t="s">
         <v>234</v>
       </c>
       <c r="G88" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H88" t="s">
         <v>236</v>
       </c>
       <c r="I88" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J88" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K88" t="s">
         <v>239</v>
@@ -6646,22 +6646,22 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F89" t="s">
         <v>234</v>
       </c>
       <c r="G89" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
         <v>236</v>
       </c>
       <c r="I89" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J89" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K89" t="s">
         <v>239</v>
@@ -6687,16 +6687,16 @@
         <v>234</v>
       </c>
       <c r="G90" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H90" t="s">
         <v>236</v>
       </c>
       <c r="I90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J90" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K90" t="s">
         <v>239</v>
@@ -6722,16 +6722,16 @@
         <v>234</v>
       </c>
       <c r="G91" t="s">
-        <v>235</v>
+        <v>378</v>
       </c>
       <c r="H91" t="s">
         <v>236</v>
       </c>
       <c r="I91" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J91" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="K91" t="s">
         <v>239</v>
@@ -6757,16 +6757,16 @@
         <v>234</v>
       </c>
       <c r="G92" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H92" t="s">
         <v>236</v>
       </c>
       <c r="I92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J92" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K92" t="s">
         <v>239</v>
@@ -6786,22 +6786,22 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F93" t="s">
         <v>234</v>
       </c>
       <c r="G93" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H93" t="s">
         <v>236</v>
       </c>
       <c r="I93" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J93" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K93" t="s">
         <v>239</v>
@@ -6827,16 +6827,16 @@
         <v>234</v>
       </c>
       <c r="G94" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H94" t="s">
         <v>236</v>
       </c>
       <c r="I94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J94" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K94" t="s">
         <v>239</v>
@@ -6856,22 +6856,22 @@
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="F95" t="s">
         <v>234</v>
       </c>
       <c r="G95" t="s">
-        <v>235</v>
+        <v>393</v>
       </c>
       <c r="H95" t="s">
         <v>236</v>
       </c>
       <c r="I95" t="s">
-        <v>392</v>
+        <v>237</v>
       </c>
       <c r="J95" t="s">
-        <v>393</v>
+        <v>238</v>
       </c>
       <c r="K95" t="s">
         <v>239</v>
@@ -6894,19 +6894,19 @@
         <v>253</v>
       </c>
       <c r="F96" t="s">
+        <v>234</v>
+      </c>
+      <c r="G96" t="s">
+        <v>254</v>
+      </c>
+      <c r="H96" t="s">
         <v>397</v>
       </c>
-      <c r="G96" t="s">
-        <v>235</v>
-      </c>
-      <c r="H96" t="s">
-        <v>236</v>
-      </c>
       <c r="I96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J96" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K96" t="s">
         <v>398</v>
@@ -6929,19 +6929,19 @@
         <v>253</v>
       </c>
       <c r="F97" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" t="s">
+        <v>254</v>
+      </c>
+      <c r="H97" t="s">
         <v>397</v>
       </c>
-      <c r="G97" t="s">
-        <v>235</v>
-      </c>
-      <c r="H97" t="s">
-        <v>236</v>
-      </c>
       <c r="I97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J97" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K97" t="s">
         <v>398</v>
@@ -6964,19 +6964,19 @@
         <v>405</v>
       </c>
       <c r="F98" t="s">
+        <v>234</v>
+      </c>
+      <c r="G98" t="s">
+        <v>406</v>
+      </c>
+      <c r="H98" t="s">
         <v>397</v>
       </c>
-      <c r="G98" t="s">
-        <v>235</v>
-      </c>
-      <c r="H98" t="s">
-        <v>236</v>
-      </c>
       <c r="I98" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J98" t="s">
-        <v>407</v>
+        <v>238</v>
       </c>
       <c r="K98" t="s">
         <v>398</v>
@@ -6999,19 +6999,19 @@
         <v>253</v>
       </c>
       <c r="F99" t="s">
+        <v>234</v>
+      </c>
+      <c r="G99" t="s">
+        <v>254</v>
+      </c>
+      <c r="H99" t="s">
         <v>397</v>
       </c>
-      <c r="G99" t="s">
-        <v>235</v>
-      </c>
-      <c r="H99" t="s">
-        <v>236</v>
-      </c>
       <c r="I99" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J99" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K99" t="s">
         <v>398</v>
@@ -7031,22 +7031,22 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="F100" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100" t="s">
+        <v>320</v>
+      </c>
+      <c r="H100" t="s">
         <v>397</v>
       </c>
-      <c r="G100" t="s">
-        <v>235</v>
-      </c>
-      <c r="H100" t="s">
-        <v>236</v>
-      </c>
       <c r="I100" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="J100" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="K100" t="s">
         <v>398</v>
@@ -7069,19 +7069,19 @@
         <v>253</v>
       </c>
       <c r="F101" t="s">
+        <v>234</v>
+      </c>
+      <c r="G101" t="s">
+        <v>254</v>
+      </c>
+      <c r="H101" t="s">
         <v>397</v>
       </c>
-      <c r="G101" t="s">
-        <v>235</v>
-      </c>
-      <c r="H101" t="s">
-        <v>236</v>
-      </c>
       <c r="I101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J101" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K101" t="s">
         <v>398</v>
@@ -7101,16 +7101,16 @@
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>377</v>
+        <v>420</v>
+      </c>
+      <c r="F102" t="s">
+        <v>421</v>
       </c>
       <c r="G102" t="s">
-        <v>420</v>
-      </c>
-      <c r="H102" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I102" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="J102" t="s">
         <v>423</v>
@@ -7130,16 +7130,16 @@
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>377</v>
+        <v>420</v>
+      </c>
+      <c r="F103" t="s">
+        <v>421</v>
       </c>
       <c r="G103" t="s">
-        <v>420</v>
-      </c>
-      <c r="H103" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I103" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="J103" t="s">
         <v>423</v>
@@ -7159,16 +7159,16 @@
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>377</v>
+        <v>420</v>
+      </c>
+      <c r="F104" t="s">
+        <v>421</v>
       </c>
       <c r="G104" t="s">
-        <v>420</v>
-      </c>
-      <c r="H104" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I104" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="J104" t="s">
         <v>423</v>
@@ -7188,19 +7188,19 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>377</v>
+        <v>433</v>
+      </c>
+      <c r="F105" t="s">
+        <v>421</v>
       </c>
       <c r="G105" t="s">
-        <v>420</v>
-      </c>
-      <c r="H105" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="I105" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="J105" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7217,16 +7217,16 @@
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>377</v>
+        <v>420</v>
+      </c>
+      <c r="F106" t="s">
+        <v>421</v>
       </c>
       <c r="G106" t="s">
-        <v>420</v>
-      </c>
-      <c r="H106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I106" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="J106" t="s">
         <v>423</v>
@@ -7248,17 +7248,17 @@
       <c r="E107" t="s">
         <v>377</v>
       </c>
+      <c r="F107" t="s">
+        <v>421</v>
+      </c>
       <c r="G107" t="s">
-        <v>420</v>
-      </c>
-      <c r="H107" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="I107" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J107" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7275,19 +7275,19 @@
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>377</v>
+        <v>444</v>
+      </c>
+      <c r="F108" t="s">
+        <v>421</v>
       </c>
       <c r="G108" t="s">
-        <v>420</v>
-      </c>
-      <c r="H108" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="I108" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="J108" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7304,19 +7304,19 @@
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>188</v>
+        <v>449</v>
+      </c>
+      <c r="F109" t="s">
+        <v>421</v>
       </c>
       <c r="G109" t="s">
-        <v>420</v>
-      </c>
-      <c r="H109" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="I109" t="s">
-        <v>449</v>
+        <v>191</v>
       </c>
       <c r="J109" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7333,19 +7333,19 @@
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>188</v>
+        <v>454</v>
+      </c>
+      <c r="F110" t="s">
+        <v>421</v>
       </c>
       <c r="G110" t="s">
-        <v>420</v>
-      </c>
-      <c r="H110" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="I110" t="s">
-        <v>454</v>
+        <v>191</v>
       </c>
       <c r="J110" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7362,16 +7362,16 @@
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>377</v>
+        <v>420</v>
+      </c>
+      <c r="F111" t="s">
+        <v>421</v>
       </c>
       <c r="G111" t="s">
-        <v>420</v>
-      </c>
-      <c r="H111" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I111" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="J111" t="s">
         <v>423</v>
@@ -7393,17 +7393,17 @@
       <c r="E112" t="s">
         <v>462</v>
       </c>
+      <c r="F112" t="s">
+        <v>421</v>
+      </c>
       <c r="G112" t="s">
-        <v>420</v>
-      </c>
-      <c r="H112" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="I112" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J112" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -7420,19 +7420,19 @@
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>296</v>
+      </c>
+      <c r="F113" t="s">
+        <v>421</v>
       </c>
       <c r="G113" t="s">
-        <v>420</v>
-      </c>
-      <c r="H113" t="s">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="I113" t="s">
         <v>237</v>
       </c>
       <c r="J113" t="s">
-        <v>296</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -7449,19 +7449,19 @@
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>253</v>
+        <v>314</v>
+      </c>
+      <c r="F114" t="s">
+        <v>421</v>
       </c>
       <c r="G114" t="s">
-        <v>420</v>
-      </c>
-      <c r="H114" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="I114" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="J114" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7480,17 +7480,17 @@
       <c r="E115" t="s">
         <v>377</v>
       </c>
+      <c r="F115" t="s">
+        <v>421</v>
+      </c>
       <c r="G115" t="s">
-        <v>420</v>
-      </c>
-      <c r="H115" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="I115" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J115" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -7504,19 +7504,19 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>462</v>
+        <v>476</v>
+      </c>
+      <c r="F116" t="s">
+        <v>421</v>
       </c>
       <c r="G116" t="s">
-        <v>420</v>
-      </c>
-      <c r="H116" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="I116" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="J116" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7532,17 +7532,17 @@
       <c r="E117" t="s">
         <v>462</v>
       </c>
+      <c r="F117" t="s">
+        <v>421</v>
+      </c>
       <c r="G117" t="s">
-        <v>420</v>
-      </c>
-      <c r="H117" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="I117" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J117" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7559,19 +7559,19 @@
         <v>14</v>
       </c>
       <c r="E118" t="s">
-        <v>337</v>
+        <v>483</v>
+      </c>
+      <c r="F118" t="s">
+        <v>421</v>
       </c>
       <c r="G118" t="s">
-        <v>420</v>
-      </c>
-      <c r="H118" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="I118" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J118" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7590,17 +7590,17 @@
       <c r="E119" t="s">
         <v>377</v>
       </c>
+      <c r="F119" t="s">
+        <v>421</v>
+      </c>
       <c r="G119" t="s">
-        <v>420</v>
-      </c>
-      <c r="H119" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="I119" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J119" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -7617,19 +7617,19 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F120" t="s">
+        <v>490</v>
       </c>
       <c r="G120" t="s">
-        <v>490</v>
-      </c>
-      <c r="H120" t="s">
+        <v>353</v>
+      </c>
+      <c r="I120" t="s">
+        <v>237</v>
+      </c>
+      <c r="J120" t="s">
         <v>491</v>
-      </c>
-      <c r="I120" t="s">
-        <v>352</v>
-      </c>
-      <c r="J120" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -7646,19 +7646,19 @@
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>296</v>
+      </c>
+      <c r="F121" t="s">
+        <v>490</v>
       </c>
       <c r="G121" t="s">
-        <v>490</v>
-      </c>
-      <c r="H121" t="s">
-        <v>491</v>
+        <v>235</v>
       </c>
       <c r="I121" t="s">
         <v>237</v>
       </c>
       <c r="J121" t="s">
-        <v>296</v>
+        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -7675,19 +7675,19 @@
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F122" t="s">
+        <v>490</v>
       </c>
       <c r="G122" t="s">
-        <v>490</v>
-      </c>
-      <c r="H122" t="s">
+        <v>353</v>
+      </c>
+      <c r="I122" t="s">
+        <v>237</v>
+      </c>
+      <c r="J122" t="s">
         <v>491</v>
-      </c>
-      <c r="I122" t="s">
-        <v>352</v>
-      </c>
-      <c r="J122" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7704,19 +7704,19 @@
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F123" t="s">
+        <v>490</v>
       </c>
       <c r="G123" t="s">
-        <v>490</v>
-      </c>
-      <c r="H123" t="s">
+        <v>353</v>
+      </c>
+      <c r="I123" t="s">
+        <v>237</v>
+      </c>
+      <c r="J123" t="s">
         <v>491</v>
-      </c>
-      <c r="I123" t="s">
-        <v>352</v>
-      </c>
-      <c r="J123" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -7733,19 +7733,19 @@
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>337</v>
+        <v>504</v>
+      </c>
+      <c r="F124" t="s">
+        <v>490</v>
       </c>
       <c r="G124" t="s">
-        <v>490</v>
-      </c>
-      <c r="H124" t="s">
+        <v>505</v>
+      </c>
+      <c r="I124" t="s">
+        <v>339</v>
+      </c>
+      <c r="J124" t="s">
         <v>491</v>
-      </c>
-      <c r="I124" t="s">
-        <v>504</v>
-      </c>
-      <c r="J124" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7762,19 +7762,19 @@
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>337</v>
+        <v>504</v>
+      </c>
+      <c r="F125" t="s">
+        <v>490</v>
       </c>
       <c r="G125" t="s">
-        <v>490</v>
-      </c>
-      <c r="H125" t="s">
+        <v>505</v>
+      </c>
+      <c r="I125" t="s">
+        <v>339</v>
+      </c>
+      <c r="J125" t="s">
         <v>491</v>
-      </c>
-      <c r="I125" t="s">
-        <v>504</v>
-      </c>
-      <c r="J125" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7791,19 +7791,19 @@
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>337</v>
+        <v>504</v>
+      </c>
+      <c r="F126" t="s">
+        <v>490</v>
       </c>
       <c r="G126" t="s">
-        <v>490</v>
-      </c>
-      <c r="H126" t="s">
+        <v>505</v>
+      </c>
+      <c r="I126" t="s">
+        <v>339</v>
+      </c>
+      <c r="J126" t="s">
         <v>491</v>
-      </c>
-      <c r="I126" t="s">
-        <v>504</v>
-      </c>
-      <c r="J126" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7820,19 +7820,19 @@
         <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>337</v>
+        <v>504</v>
+      </c>
+      <c r="F127" t="s">
+        <v>490</v>
       </c>
       <c r="G127" t="s">
-        <v>490</v>
-      </c>
-      <c r="H127" t="s">
+        <v>505</v>
+      </c>
+      <c r="I127" t="s">
+        <v>339</v>
+      </c>
+      <c r="J127" t="s">
         <v>491</v>
-      </c>
-      <c r="I127" t="s">
-        <v>504</v>
-      </c>
-      <c r="J127" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7849,19 +7849,19 @@
         <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>337</v>
+        <v>504</v>
+      </c>
+      <c r="F128" t="s">
+        <v>490</v>
       </c>
       <c r="G128" t="s">
-        <v>490</v>
-      </c>
-      <c r="H128" t="s">
+        <v>505</v>
+      </c>
+      <c r="I128" t="s">
+        <v>339</v>
+      </c>
+      <c r="J128" t="s">
         <v>491</v>
-      </c>
-      <c r="I128" t="s">
-        <v>504</v>
-      </c>
-      <c r="J128" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -7878,19 +7878,19 @@
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>337</v>
+        <v>521</v>
+      </c>
+      <c r="F129" t="s">
+        <v>490</v>
       </c>
       <c r="G129" t="s">
-        <v>490</v>
-      </c>
-      <c r="H129" t="s">
+        <v>505</v>
+      </c>
+      <c r="I129" t="s">
+        <v>339</v>
+      </c>
+      <c r="J129" t="s">
         <v>491</v>
-      </c>
-      <c r="I129" t="s">
-        <v>504</v>
-      </c>
-      <c r="J129" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7907,19 +7907,19 @@
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>337</v>
+        <v>525</v>
+      </c>
+      <c r="F130" t="s">
+        <v>490</v>
       </c>
       <c r="G130" t="s">
-        <v>490</v>
-      </c>
-      <c r="H130" t="s">
+        <v>505</v>
+      </c>
+      <c r="I130" t="s">
+        <v>339</v>
+      </c>
+      <c r="J130" t="s">
         <v>491</v>
-      </c>
-      <c r="I130" t="s">
-        <v>504</v>
-      </c>
-      <c r="J130" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7936,19 +7936,19 @@
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>337</v>
+        <v>529</v>
+      </c>
+      <c r="F131" t="s">
+        <v>490</v>
       </c>
       <c r="G131" t="s">
-        <v>490</v>
-      </c>
-      <c r="H131" t="s">
+        <v>505</v>
+      </c>
+      <c r="I131" t="s">
+        <v>339</v>
+      </c>
+      <c r="J131" t="s">
         <v>491</v>
-      </c>
-      <c r="I131" t="s">
-        <v>504</v>
-      </c>
-      <c r="J131" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7965,19 +7965,19 @@
         <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>337</v>
+        <v>533</v>
+      </c>
+      <c r="F132" t="s">
+        <v>490</v>
       </c>
       <c r="G132" t="s">
-        <v>490</v>
-      </c>
-      <c r="H132" t="s">
+        <v>534</v>
+      </c>
+      <c r="I132" t="s">
+        <v>339</v>
+      </c>
+      <c r="J132" t="s">
         <v>491</v>
-      </c>
-      <c r="I132" t="s">
-        <v>533</v>
-      </c>
-      <c r="J132" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7991,19 +7991,19 @@
         <v>14</v>
       </c>
       <c r="E133" t="s">
-        <v>233</v>
+        <v>392</v>
+      </c>
+      <c r="F133" t="s">
+        <v>490</v>
       </c>
       <c r="G133" t="s">
-        <v>490</v>
-      </c>
-      <c r="H133" t="s">
+        <v>393</v>
+      </c>
+      <c r="I133" t="s">
+        <v>237</v>
+      </c>
+      <c r="J133" t="s">
         <v>491</v>
-      </c>
-      <c r="I133" t="s">
-        <v>392</v>
-      </c>
-      <c r="J133" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8020,19 +8020,19 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>337</v>
+        <v>361</v>
+      </c>
+      <c r="F134" t="s">
+        <v>540</v>
       </c>
       <c r="G134" t="s">
-        <v>540</v>
-      </c>
-      <c r="H134" t="s">
+        <v>362</v>
+      </c>
+      <c r="I134" t="s">
+        <v>339</v>
+      </c>
+      <c r="J134" t="s">
         <v>541</v>
-      </c>
-      <c r="I134" t="s">
-        <v>361</v>
-      </c>
-      <c r="J134" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8046,19 +8046,19 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>337</v>
+        <v>361</v>
+      </c>
+      <c r="F135" t="s">
+        <v>540</v>
       </c>
       <c r="G135" t="s">
-        <v>540</v>
-      </c>
-      <c r="H135" t="s">
+        <v>362</v>
+      </c>
+      <c r="I135" t="s">
+        <v>339</v>
+      </c>
+      <c r="J135" t="s">
         <v>541</v>
-      </c>
-      <c r="I135" t="s">
-        <v>361</v>
-      </c>
-      <c r="J135" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8075,19 +8075,19 @@
         <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>337</v>
+        <v>361</v>
+      </c>
+      <c r="F136" t="s">
+        <v>540</v>
       </c>
       <c r="G136" t="s">
-        <v>540</v>
-      </c>
-      <c r="H136" t="s">
+        <v>362</v>
+      </c>
+      <c r="I136" t="s">
+        <v>339</v>
+      </c>
+      <c r="J136" t="s">
         <v>541</v>
-      </c>
-      <c r="I136" t="s">
-        <v>361</v>
-      </c>
-      <c r="J136" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8104,19 +8104,19 @@
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>337</v>
+        <v>361</v>
+      </c>
+      <c r="F137" t="s">
+        <v>540</v>
       </c>
       <c r="G137" t="s">
-        <v>540</v>
-      </c>
-      <c r="H137" t="s">
+        <v>362</v>
+      </c>
+      <c r="I137" t="s">
+        <v>339</v>
+      </c>
+      <c r="J137" t="s">
         <v>541</v>
-      </c>
-      <c r="I137" t="s">
-        <v>361</v>
-      </c>
-      <c r="J137" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8133,19 +8133,19 @@
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>337</v>
+        <v>361</v>
+      </c>
+      <c r="F138" t="s">
+        <v>540</v>
       </c>
       <c r="G138" t="s">
-        <v>540</v>
-      </c>
-      <c r="H138" t="s">
+        <v>362</v>
+      </c>
+      <c r="I138" t="s">
+        <v>339</v>
+      </c>
+      <c r="J138" t="s">
         <v>541</v>
-      </c>
-      <c r="I138" t="s">
-        <v>361</v>
-      </c>
-      <c r="J138" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8162,19 +8162,19 @@
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>462</v>
+        <v>556</v>
+      </c>
+      <c r="F139" t="s">
+        <v>540</v>
       </c>
       <c r="G139" t="s">
-        <v>540</v>
-      </c>
-      <c r="H139" t="s">
+        <v>557</v>
+      </c>
+      <c r="I139" t="s">
+        <v>464</v>
+      </c>
+      <c r="J139" t="s">
         <v>541</v>
-      </c>
-      <c r="I139" t="s">
-        <v>556</v>
-      </c>
-      <c r="J139" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8191,19 +8191,19 @@
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>337</v>
+        <v>361</v>
+      </c>
+      <c r="F140" t="s">
+        <v>540</v>
       </c>
       <c r="G140" t="s">
-        <v>540</v>
-      </c>
-      <c r="H140" t="s">
+        <v>362</v>
+      </c>
+      <c r="I140" t="s">
+        <v>339</v>
+      </c>
+      <c r="J140" t="s">
         <v>541</v>
-      </c>
-      <c r="I140" t="s">
-        <v>361</v>
-      </c>
-      <c r="J140" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8220,19 +8220,19 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F141" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G141" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H141" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I141" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J141" t="s">
         <v>568</v>
@@ -8252,19 +8252,19 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F142" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G142" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H142" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I142" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J142" t="s">
         <v>568</v>
@@ -8287,22 +8287,22 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>337</v>
+        <v>575</v>
       </c>
       <c r="F143" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G143" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H143" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I143" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="J143" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="K143" t="s">
         <v>569</v>
@@ -8322,22 +8322,22 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>337</v>
+        <v>575</v>
       </c>
       <c r="F144" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G144" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H144" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I144" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="J144" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="K144" t="s">
         <v>569</v>
@@ -8357,22 +8357,22 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>337</v>
+        <v>575</v>
       </c>
       <c r="F145" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G145" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H145" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I145" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="J145" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="K145" t="s">
         <v>569</v>
@@ -8392,19 +8392,19 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F146" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G146" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H146" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I146" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J146" t="s">
         <v>568</v>
@@ -8427,19 +8427,19 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F147" t="s">
+        <v>565</v>
+      </c>
+      <c r="G147" t="s">
+        <v>566</v>
+      </c>
+      <c r="H147" t="s">
         <v>589</v>
       </c>
-      <c r="G147" t="s">
-        <v>565</v>
-      </c>
-      <c r="H147" t="s">
-        <v>566</v>
-      </c>
       <c r="I147" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J147" t="s">
         <v>568</v>
@@ -8462,19 +8462,19 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F148" t="s">
+        <v>565</v>
+      </c>
+      <c r="G148" t="s">
+        <v>566</v>
+      </c>
+      <c r="H148" t="s">
         <v>589</v>
       </c>
-      <c r="G148" t="s">
-        <v>565</v>
-      </c>
-      <c r="H148" t="s">
-        <v>566</v>
-      </c>
       <c r="I148" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J148" t="s">
         <v>568</v>
@@ -8497,19 +8497,19 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F149" t="s">
+        <v>565</v>
+      </c>
+      <c r="G149" t="s">
+        <v>566</v>
+      </c>
+      <c r="H149" t="s">
         <v>589</v>
       </c>
-      <c r="G149" t="s">
-        <v>565</v>
-      </c>
-      <c r="H149" t="s">
-        <v>566</v>
-      </c>
       <c r="I149" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J149" t="s">
         <v>568</v>
@@ -8532,19 +8532,19 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F150" t="s">
+        <v>565</v>
+      </c>
+      <c r="G150" t="s">
+        <v>566</v>
+      </c>
+      <c r="H150" t="s">
         <v>589</v>
       </c>
-      <c r="G150" t="s">
-        <v>565</v>
-      </c>
-      <c r="H150" t="s">
-        <v>566</v>
-      </c>
       <c r="I150" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J150" t="s">
         <v>568</v>
@@ -8567,19 +8567,19 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F151" t="s">
+        <v>565</v>
+      </c>
+      <c r="G151" t="s">
+        <v>566</v>
+      </c>
+      <c r="H151" t="s">
         <v>589</v>
       </c>
-      <c r="G151" t="s">
-        <v>565</v>
-      </c>
-      <c r="H151" t="s">
-        <v>566</v>
-      </c>
       <c r="I151" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J151" t="s">
         <v>568</v>
@@ -8602,19 +8602,19 @@
         <v>14</v>
       </c>
       <c r="E152" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F152" t="s">
+        <v>565</v>
+      </c>
+      <c r="G152" t="s">
+        <v>566</v>
+      </c>
+      <c r="H152" t="s">
         <v>589</v>
       </c>
-      <c r="G152" t="s">
-        <v>565</v>
-      </c>
-      <c r="H152" t="s">
-        <v>566</v>
-      </c>
       <c r="I152" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J152" t="s">
         <v>568</v>
@@ -8637,19 +8637,19 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F153" t="s">
+        <v>565</v>
+      </c>
+      <c r="G153" t="s">
+        <v>566</v>
+      </c>
+      <c r="H153" t="s">
         <v>589</v>
       </c>
-      <c r="G153" t="s">
-        <v>565</v>
-      </c>
-      <c r="H153" t="s">
-        <v>566</v>
-      </c>
       <c r="I153" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J153" t="s">
         <v>568</v>
@@ -8672,19 +8672,19 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F154" t="s">
+        <v>565</v>
+      </c>
+      <c r="G154" t="s">
+        <v>566</v>
+      </c>
+      <c r="H154" t="s">
         <v>589</v>
       </c>
-      <c r="G154" t="s">
-        <v>565</v>
-      </c>
-      <c r="H154" t="s">
-        <v>566</v>
-      </c>
       <c r="I154" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J154" t="s">
         <v>568</v>
@@ -8707,19 +8707,19 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F155" t="s">
+        <v>565</v>
+      </c>
+      <c r="G155" t="s">
+        <v>566</v>
+      </c>
+      <c r="H155" t="s">
         <v>589</v>
       </c>
-      <c r="G155" t="s">
-        <v>565</v>
-      </c>
-      <c r="H155" t="s">
-        <v>566</v>
-      </c>
       <c r="I155" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J155" t="s">
         <v>568</v>
@@ -8742,19 +8742,19 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F156" t="s">
+        <v>565</v>
+      </c>
+      <c r="G156" t="s">
+        <v>566</v>
+      </c>
+      <c r="H156" t="s">
         <v>618</v>
       </c>
-      <c r="G156" t="s">
-        <v>565</v>
-      </c>
-      <c r="H156" t="s">
-        <v>566</v>
-      </c>
       <c r="I156" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J156" t="s">
         <v>568</v>
@@ -8777,22 +8777,22 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>337</v>
+        <v>623</v>
       </c>
       <c r="F157" t="s">
+        <v>565</v>
+      </c>
+      <c r="G157" t="s">
+        <v>566</v>
+      </c>
+      <c r="H157" t="s">
         <v>618</v>
       </c>
-      <c r="G157" t="s">
-        <v>565</v>
-      </c>
-      <c r="H157" t="s">
-        <v>566</v>
-      </c>
       <c r="I157" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J157" t="s">
-        <v>623</v>
+        <v>568</v>
       </c>
       <c r="K157" t="s">
         <v>619</v>
@@ -8812,19 +8812,19 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F158" t="s">
+        <v>565</v>
+      </c>
+      <c r="G158" t="s">
+        <v>566</v>
+      </c>
+      <c r="H158" t="s">
         <v>618</v>
       </c>
-      <c r="G158" t="s">
-        <v>565</v>
-      </c>
-      <c r="H158" t="s">
-        <v>566</v>
-      </c>
       <c r="I158" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J158" t="s">
         <v>568</v>
@@ -8847,19 +8847,19 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F159" t="s">
+        <v>565</v>
+      </c>
+      <c r="G159" t="s">
+        <v>566</v>
+      </c>
+      <c r="H159" t="s">
         <v>618</v>
       </c>
-      <c r="G159" t="s">
-        <v>565</v>
-      </c>
-      <c r="H159" t="s">
-        <v>566</v>
-      </c>
       <c r="I159" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J159" t="s">
         <v>568</v>
@@ -8882,19 +8882,19 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F160" t="s">
+        <v>565</v>
+      </c>
+      <c r="G160" t="s">
+        <v>566</v>
+      </c>
+      <c r="H160" t="s">
         <v>618</v>
       </c>
-      <c r="G160" t="s">
-        <v>565</v>
-      </c>
-      <c r="H160" t="s">
-        <v>566</v>
-      </c>
       <c r="I160" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J160" t="s">
         <v>568</v>
@@ -8917,19 +8917,19 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F161" t="s">
+        <v>565</v>
+      </c>
+      <c r="G161" t="s">
+        <v>566</v>
+      </c>
+      <c r="H161" t="s">
         <v>618</v>
       </c>
-      <c r="G161" t="s">
-        <v>565</v>
-      </c>
-      <c r="H161" t="s">
-        <v>566</v>
-      </c>
       <c r="I161" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J161" t="s">
         <v>568</v>
@@ -8952,19 +8952,19 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F162" t="s">
+        <v>565</v>
+      </c>
+      <c r="G162" t="s">
+        <v>566</v>
+      </c>
+      <c r="H162" t="s">
         <v>639</v>
       </c>
-      <c r="G162" t="s">
-        <v>565</v>
-      </c>
-      <c r="H162" t="s">
-        <v>566</v>
-      </c>
       <c r="I162" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J162" t="s">
         <v>568</v>
@@ -8987,25 +8987,25 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>337</v>
+        <v>644</v>
       </c>
       <c r="F163" t="s">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="G163" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H163" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="I163" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J163" t="s">
+        <v>568</v>
+      </c>
+      <c r="K163" t="s">
         <v>645</v>
-      </c>
-      <c r="K163" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -9022,19 +9022,19 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F164" t="s">
+        <v>565</v>
+      </c>
+      <c r="G164" t="s">
+        <v>566</v>
+      </c>
+      <c r="H164" t="s">
         <v>649</v>
       </c>
-      <c r="G164" t="s">
-        <v>565</v>
-      </c>
-      <c r="H164" t="s">
-        <v>566</v>
-      </c>
       <c r="I164" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J164" t="s">
         <v>568</v>
@@ -9057,19 +9057,19 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F165" t="s">
+        <v>565</v>
+      </c>
+      <c r="G165" t="s">
+        <v>566</v>
+      </c>
+      <c r="H165" t="s">
         <v>649</v>
       </c>
-      <c r="G165" t="s">
-        <v>565</v>
-      </c>
-      <c r="H165" t="s">
-        <v>566</v>
-      </c>
       <c r="I165" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J165" t="s">
         <v>568</v>
@@ -9092,19 +9092,19 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F166" t="s">
+        <v>565</v>
+      </c>
+      <c r="G166" t="s">
+        <v>566</v>
+      </c>
+      <c r="H166" t="s">
         <v>649</v>
       </c>
-      <c r="G166" t="s">
-        <v>565</v>
-      </c>
-      <c r="H166" t="s">
-        <v>566</v>
-      </c>
       <c r="I166" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J166" t="s">
         <v>568</v>
@@ -9127,19 +9127,19 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F167" t="s">
+        <v>565</v>
+      </c>
+      <c r="G167" t="s">
+        <v>566</v>
+      </c>
+      <c r="H167" t="s">
         <v>649</v>
       </c>
-      <c r="G167" t="s">
-        <v>565</v>
-      </c>
-      <c r="H167" t="s">
-        <v>566</v>
-      </c>
       <c r="I167" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J167" t="s">
         <v>568</v>
@@ -9162,22 +9162,22 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>337</v>
+        <v>663</v>
       </c>
       <c r="F168" t="s">
+        <v>565</v>
+      </c>
+      <c r="G168" t="s">
+        <v>566</v>
+      </c>
+      <c r="H168" t="s">
         <v>649</v>
       </c>
-      <c r="G168" t="s">
-        <v>565</v>
-      </c>
-      <c r="H168" t="s">
-        <v>566</v>
-      </c>
       <c r="I168" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J168" t="s">
-        <v>663</v>
+        <v>568</v>
       </c>
       <c r="K168" t="s">
         <v>650</v>
@@ -9194,22 +9194,22 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>663</v>
       </c>
       <c r="F169" t="s">
+        <v>565</v>
+      </c>
+      <c r="G169" t="s">
+        <v>566</v>
+      </c>
+      <c r="H169" t="s">
         <v>649</v>
       </c>
-      <c r="G169" t="s">
-        <v>565</v>
-      </c>
-      <c r="H169" t="s">
-        <v>566</v>
-      </c>
       <c r="I169" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J169" t="s">
-        <v>663</v>
+        <v>568</v>
       </c>
       <c r="K169" t="s">
         <v>650</v>
@@ -9229,19 +9229,19 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="F170" t="s">
+        <v>565</v>
+      </c>
+      <c r="G170" t="s">
+        <v>566</v>
+      </c>
+      <c r="H170" t="s">
         <v>649</v>
       </c>
-      <c r="G170" t="s">
-        <v>565</v>
-      </c>
-      <c r="H170" t="s">
-        <v>566</v>
-      </c>
       <c r="I170" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J170" t="s">
         <v>568</v>
@@ -9266,17 +9266,17 @@
       <c r="E171" t="s">
         <v>337</v>
       </c>
+      <c r="F171" t="s">
+        <v>672</v>
+      </c>
       <c r="G171" t="s">
-        <v>672</v>
-      </c>
-      <c r="H171" t="s">
+        <v>338</v>
+      </c>
+      <c r="I171" t="s">
+        <v>339</v>
+      </c>
+      <c r="J171" t="s">
         <v>673</v>
-      </c>
-      <c r="I171" t="s">
-        <v>338</v>
-      </c>
-      <c r="J171" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9293,19 +9293,19 @@
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>233</v>
+        <v>243</v>
+      </c>
+      <c r="F172" t="s">
+        <v>672</v>
       </c>
       <c r="G172" t="s">
-        <v>672</v>
-      </c>
-      <c r="H172" t="s">
+        <v>244</v>
+      </c>
+      <c r="I172" t="s">
+        <v>237</v>
+      </c>
+      <c r="J172" t="s">
         <v>673</v>
-      </c>
-      <c r="I172" t="s">
-        <v>243</v>
-      </c>
-      <c r="J172" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9324,17 +9324,17 @@
       <c r="E173" t="s">
         <v>337</v>
       </c>
+      <c r="F173" t="s">
+        <v>672</v>
+      </c>
       <c r="G173" t="s">
-        <v>672</v>
-      </c>
-      <c r="H173" t="s">
+        <v>338</v>
+      </c>
+      <c r="I173" t="s">
+        <v>339</v>
+      </c>
+      <c r="J173" t="s">
         <v>673</v>
-      </c>
-      <c r="I173" t="s">
-        <v>338</v>
-      </c>
-      <c r="J173" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9353,17 +9353,17 @@
       <c r="E174" t="s">
         <v>337</v>
       </c>
+      <c r="F174" t="s">
+        <v>672</v>
+      </c>
       <c r="G174" t="s">
-        <v>672</v>
-      </c>
-      <c r="H174" t="s">
+        <v>338</v>
+      </c>
+      <c r="I174" t="s">
+        <v>339</v>
+      </c>
+      <c r="J174" t="s">
         <v>673</v>
-      </c>
-      <c r="I174" t="s">
-        <v>338</v>
-      </c>
-      <c r="J174" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9382,17 +9382,17 @@
       <c r="E175" t="s">
         <v>337</v>
       </c>
+      <c r="F175" t="s">
+        <v>672</v>
+      </c>
       <c r="G175" t="s">
-        <v>672</v>
-      </c>
-      <c r="H175" t="s">
+        <v>338</v>
+      </c>
+      <c r="I175" t="s">
+        <v>339</v>
+      </c>
+      <c r="J175" t="s">
         <v>673</v>
-      </c>
-      <c r="I175" t="s">
-        <v>338</v>
-      </c>
-      <c r="J175" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9408,17 +9408,17 @@
       <c r="E176" t="s">
         <v>337</v>
       </c>
+      <c r="F176" t="s">
+        <v>672</v>
+      </c>
       <c r="G176" t="s">
-        <v>672</v>
-      </c>
-      <c r="H176" t="s">
+        <v>338</v>
+      </c>
+      <c r="I176" t="s">
+        <v>339</v>
+      </c>
+      <c r="J176" t="s">
         <v>673</v>
-      </c>
-      <c r="I176" t="s">
-        <v>338</v>
-      </c>
-      <c r="J176" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9437,17 +9437,17 @@
       <c r="E177" t="s">
         <v>337</v>
       </c>
+      <c r="F177" t="s">
+        <v>691</v>
+      </c>
       <c r="G177" t="s">
-        <v>691</v>
-      </c>
-      <c r="H177" t="s">
+        <v>338</v>
+      </c>
+      <c r="I177" t="s">
+        <v>339</v>
+      </c>
+      <c r="J177" t="s">
         <v>692</v>
-      </c>
-      <c r="I177" t="s">
-        <v>338</v>
-      </c>
-      <c r="J177" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9466,17 +9466,17 @@
       <c r="E178" t="s">
         <v>337</v>
       </c>
+      <c r="F178" t="s">
+        <v>691</v>
+      </c>
       <c r="G178" t="s">
-        <v>691</v>
-      </c>
-      <c r="H178" t="s">
+        <v>338</v>
+      </c>
+      <c r="I178" t="s">
+        <v>339</v>
+      </c>
+      <c r="J178" t="s">
         <v>692</v>
-      </c>
-      <c r="I178" t="s">
-        <v>338</v>
-      </c>
-      <c r="J178" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -9495,17 +9495,17 @@
       <c r="E179" t="s">
         <v>337</v>
       </c>
+      <c r="F179" t="s">
+        <v>691</v>
+      </c>
       <c r="G179" t="s">
-        <v>691</v>
-      </c>
-      <c r="H179" t="s">
+        <v>338</v>
+      </c>
+      <c r="I179" t="s">
+        <v>339</v>
+      </c>
+      <c r="J179" t="s">
         <v>692</v>
-      </c>
-      <c r="I179" t="s">
-        <v>338</v>
-      </c>
-      <c r="J179" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -9524,17 +9524,17 @@
       <c r="E180" t="s">
         <v>337</v>
       </c>
+      <c r="F180" t="s">
+        <v>691</v>
+      </c>
       <c r="G180" t="s">
-        <v>691</v>
-      </c>
-      <c r="H180" t="s">
+        <v>338</v>
+      </c>
+      <c r="I180" t="s">
+        <v>339</v>
+      </c>
+      <c r="J180" t="s">
         <v>692</v>
-      </c>
-      <c r="I180" t="s">
-        <v>338</v>
-      </c>
-      <c r="J180" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -9551,19 +9551,19 @@
         <v>14</v>
       </c>
       <c r="E181" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F181" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G181" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H181" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I181" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J181" t="s">
         <v>709</v>
@@ -9586,19 +9586,19 @@
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F182" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G182" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H182" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I182" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J182" t="s">
         <v>709</v>
@@ -9621,19 +9621,19 @@
         <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F183" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G183" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H183" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I183" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J183" t="s">
         <v>709</v>
@@ -9656,19 +9656,19 @@
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F184" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G184" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H184" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I184" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J184" t="s">
         <v>709</v>
@@ -9691,19 +9691,19 @@
         <v>14</v>
       </c>
       <c r="E185" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F185" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G185" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H185" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I185" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J185" t="s">
         <v>709</v>
@@ -9726,19 +9726,19 @@
         <v>14</v>
       </c>
       <c r="E186" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F186" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G186" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H186" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I186" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J186" t="s">
         <v>709</v>
@@ -9761,19 +9761,19 @@
         <v>14</v>
       </c>
       <c r="E187" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F187" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G187" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H187" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I187" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J187" t="s">
         <v>709</v>
@@ -9796,19 +9796,19 @@
         <v>14</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F188" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G188" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H188" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I188" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J188" t="s">
         <v>709</v>
@@ -9831,19 +9831,19 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F189" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G189" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H189" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I189" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J189" t="s">
         <v>709</v>
@@ -9866,19 +9866,19 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F190" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G190" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H190" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I190" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J190" t="s">
         <v>709</v>
@@ -9901,19 +9901,19 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F191" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G191" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H191" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I191" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J191" t="s">
         <v>709</v>
@@ -9933,19 +9933,19 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F192" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G192" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H192" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I192" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J192" t="s">
         <v>709</v>
@@ -9968,22 +9968,22 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>337</v>
+        <v>746</v>
       </c>
       <c r="F193" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G193" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="H193" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I193" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="J193" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="K193" t="s">
         <v>710</v>
@@ -10003,19 +10003,19 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F194" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G194" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H194" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I194" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J194" t="s">
         <v>709</v>
@@ -10038,19 +10038,19 @@
         <v>14</v>
       </c>
       <c r="E195" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F195" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G195" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H195" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I195" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J195" t="s">
         <v>709</v>
@@ -10073,19 +10073,19 @@
         <v>14</v>
       </c>
       <c r="E196" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F196" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G196" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H196" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I196" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J196" t="s">
         <v>709</v>
@@ -10108,19 +10108,19 @@
         <v>14</v>
       </c>
       <c r="E197" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F197" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G197" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H197" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I197" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J197" t="s">
         <v>709</v>
@@ -10143,19 +10143,19 @@
         <v>14</v>
       </c>
       <c r="E198" t="s">
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="F198" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G198" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H198" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I198" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J198" t="s">
         <v>709</v>
@@ -10178,22 +10178,22 @@
         <v>14</v>
       </c>
       <c r="E199" t="s">
-        <v>337</v>
+        <v>765</v>
       </c>
       <c r="F199" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G199" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H199" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I199" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J199" t="s">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="K199" t="s">
         <v>767</v>
@@ -10213,22 +10213,22 @@
         <v>14</v>
       </c>
       <c r="E200" t="s">
-        <v>337</v>
+        <v>765</v>
       </c>
       <c r="F200" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G200" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H200" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I200" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J200" t="s">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="K200" t="s">
         <v>767</v>
@@ -10248,22 +10248,22 @@
         <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>337</v>
+        <v>765</v>
       </c>
       <c r="F201" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G201" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H201" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I201" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J201" t="s">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="K201" t="s">
         <v>767</v>
@@ -10280,22 +10280,22 @@
         <v>14</v>
       </c>
       <c r="E202" t="s">
-        <v>337</v>
+        <v>765</v>
       </c>
       <c r="F202" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G202" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H202" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I202" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J202" t="s">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="K202" t="s">
         <v>767</v>
@@ -10315,22 +10315,22 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>337</v>
+        <v>746</v>
       </c>
       <c r="F203" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G203" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="H203" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I203" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="J203" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="K203" t="s">
         <v>767</v>
@@ -10347,22 +10347,22 @@
         <v>14</v>
       </c>
       <c r="E204" t="s">
-        <v>337</v>
+        <v>765</v>
       </c>
       <c r="F204" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="G204" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H204" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I204" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J204" t="s">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="K204" t="s">
         <v>767</v>
@@ -10382,22 +10382,22 @@
         <v>14</v>
       </c>
       <c r="E205" t="s">
-        <v>337</v>
+        <v>784</v>
       </c>
       <c r="F205" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G205" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H205" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I205" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J205" t="s">
-        <v>785</v>
+        <v>709</v>
       </c>
       <c r="K205" t="s">
         <v>786</v>
@@ -10417,22 +10417,22 @@
         <v>14</v>
       </c>
       <c r="E206" t="s">
-        <v>337</v>
+        <v>784</v>
       </c>
       <c r="F206" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G206" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H206" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I206" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J206" t="s">
-        <v>785</v>
+        <v>709</v>
       </c>
       <c r="K206" t="s">
         <v>786</v>
@@ -10449,22 +10449,22 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>337</v>
+        <v>784</v>
       </c>
       <c r="F207" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G207" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H207" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I207" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J207" t="s">
-        <v>785</v>
+        <v>709</v>
       </c>
       <c r="K207" t="s">
         <v>786</v>
@@ -10484,22 +10484,22 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
-        <v>337</v>
+        <v>746</v>
       </c>
       <c r="F208" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G208" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="H208" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I208" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="J208" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="K208" t="s">
         <v>786</v>
@@ -10519,22 +10519,22 @@
         <v>14</v>
       </c>
       <c r="E209" t="s">
-        <v>337</v>
+        <v>784</v>
       </c>
       <c r="F209" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="G209" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H209" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I209" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J209" t="s">
-        <v>785</v>
+        <v>709</v>
       </c>
       <c r="K209" t="s">
         <v>786</v>
@@ -10554,19 +10554,19 @@
         <v>14</v>
       </c>
       <c r="E210" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F210" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G210" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H210" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I210" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J210" t="s">
         <v>805</v>
@@ -10586,19 +10586,19 @@
         <v>14</v>
       </c>
       <c r="E211" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F211" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G211" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H211" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I211" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J211" t="s">
         <v>805</v>
@@ -10621,19 +10621,19 @@
         <v>14</v>
       </c>
       <c r="E212" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F212" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G212" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H212" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I212" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J212" t="s">
         <v>805</v>
@@ -10653,19 +10653,19 @@
         <v>14</v>
       </c>
       <c r="E213" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F213" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G213" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H213" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I213" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J213" t="s">
         <v>805</v>
@@ -10688,19 +10688,19 @@
         <v>14</v>
       </c>
       <c r="E214" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F214" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G214" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H214" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I214" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J214" t="s">
         <v>805</v>
@@ -10723,22 +10723,22 @@
         <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>337</v>
+        <v>765</v>
       </c>
       <c r="F215" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G215" t="s">
-        <v>802</v>
+        <v>707</v>
       </c>
       <c r="H215" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I215" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J215" t="s">
-        <v>766</v>
+        <v>805</v>
       </c>
       <c r="K215" t="s">
         <v>806</v>
@@ -10758,19 +10758,19 @@
         <v>14</v>
       </c>
       <c r="E216" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F216" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G216" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H216" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I216" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J216" t="s">
         <v>805</v>
@@ -10793,19 +10793,19 @@
         <v>14</v>
       </c>
       <c r="E217" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F217" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G217" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H217" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I217" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J217" t="s">
         <v>805</v>
@@ -10825,19 +10825,19 @@
         <v>14</v>
       </c>
       <c r="E218" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F218" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G218" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H218" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I218" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J218" t="s">
         <v>805</v>
@@ -10857,19 +10857,19 @@
         <v>14</v>
       </c>
       <c r="E219" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F219" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G219" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H219" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I219" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J219" t="s">
         <v>805</v>
@@ -10892,22 +10892,22 @@
         <v>14</v>
       </c>
       <c r="E220" t="s">
-        <v>337</v>
+        <v>663</v>
       </c>
       <c r="F220" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G220" t="s">
-        <v>802</v>
+        <v>566</v>
       </c>
       <c r="H220" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I220" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J220" t="s">
-        <v>663</v>
+        <v>805</v>
       </c>
       <c r="K220" t="s">
         <v>806</v>
@@ -10927,19 +10927,19 @@
         <v>14</v>
       </c>
       <c r="E221" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F221" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G221" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H221" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I221" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J221" t="s">
         <v>805</v>
@@ -10962,19 +10962,19 @@
         <v>14</v>
       </c>
       <c r="E222" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F222" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G222" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H222" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I222" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J222" t="s">
         <v>805</v>
@@ -10994,19 +10994,19 @@
         <v>14</v>
       </c>
       <c r="E223" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F223" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G223" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H223" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I223" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J223" t="s">
         <v>805</v>
@@ -11029,19 +11029,19 @@
         <v>14</v>
       </c>
       <c r="E224" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F224" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G224" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H224" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I224" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J224" t="s">
         <v>805</v>
@@ -11064,19 +11064,19 @@
         <v>14</v>
       </c>
       <c r="E225" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F225" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G225" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H225" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I225" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J225" t="s">
         <v>805</v>
@@ -11099,22 +11099,22 @@
         <v>14</v>
       </c>
       <c r="E226" t="s">
-        <v>337</v>
+        <v>575</v>
       </c>
       <c r="F226" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G226" t="s">
-        <v>802</v>
+        <v>576</v>
       </c>
       <c r="H226" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I226" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="J226" t="s">
-        <v>576</v>
+        <v>805</v>
       </c>
       <c r="K226" t="s">
         <v>806</v>
@@ -11134,19 +11134,19 @@
         <v>14</v>
       </c>
       <c r="E227" t="s">
-        <v>337</v>
+        <v>801</v>
       </c>
       <c r="F227" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G227" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H227" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I227" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J227" t="s">
         <v>805</v>
@@ -11172,19 +11172,19 @@
         <v>337</v>
       </c>
       <c r="F228" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G228" t="s">
-        <v>802</v>
+        <v>338</v>
       </c>
       <c r="H228" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I228" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J228" t="s">
-        <v>339</v>
+        <v>805</v>
       </c>
       <c r="K228" t="s">
         <v>806</v>
@@ -11204,22 +11204,22 @@
         <v>14</v>
       </c>
       <c r="E229" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F229" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G229" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H229" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I229" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J229" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K229" t="s">
         <v>861</v>
@@ -11239,22 +11239,22 @@
         <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F230" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G230" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H230" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I230" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J230" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K230" t="s">
         <v>861</v>
@@ -11274,22 +11274,22 @@
         <v>14</v>
       </c>
       <c r="E231" t="s">
-        <v>337</v>
+        <v>623</v>
       </c>
       <c r="F231" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G231" t="s">
-        <v>802</v>
+        <v>566</v>
       </c>
       <c r="H231" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I231" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J231" t="s">
-        <v>623</v>
+        <v>805</v>
       </c>
       <c r="K231" t="s">
         <v>861</v>
@@ -11309,22 +11309,22 @@
         <v>14</v>
       </c>
       <c r="E232" t="s">
-        <v>337</v>
+        <v>663</v>
       </c>
       <c r="F232" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G232" t="s">
-        <v>802</v>
+        <v>566</v>
       </c>
       <c r="H232" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I232" t="s">
-        <v>567</v>
+        <v>339</v>
       </c>
       <c r="J232" t="s">
-        <v>663</v>
+        <v>805</v>
       </c>
       <c r="K232" t="s">
         <v>861</v>
@@ -11344,22 +11344,22 @@
         <v>14</v>
       </c>
       <c r="E233" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F233" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G233" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H233" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I233" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J233" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K233" t="s">
         <v>861</v>
@@ -11379,22 +11379,22 @@
         <v>14</v>
       </c>
       <c r="E234" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F234" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G234" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H234" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I234" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J234" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K234" t="s">
         <v>861</v>
@@ -11414,22 +11414,22 @@
         <v>14</v>
       </c>
       <c r="E235" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F235" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G235" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H235" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I235" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J235" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K235" t="s">
         <v>861</v>
@@ -11449,22 +11449,22 @@
         <v>14</v>
       </c>
       <c r="E236" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F236" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G236" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H236" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I236" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J236" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K236" t="s">
         <v>861</v>
@@ -11484,22 +11484,22 @@
         <v>14</v>
       </c>
       <c r="E237" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F237" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G237" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H237" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I237" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J237" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K237" t="s">
         <v>861</v>
@@ -11519,22 +11519,22 @@
         <v>14</v>
       </c>
       <c r="E238" t="s">
-        <v>337</v>
+        <v>859</v>
       </c>
       <c r="F238" t="s">
-        <v>859</v>
+        <v>802</v>
       </c>
       <c r="G238" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H238" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I238" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J238" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K238" t="s">
         <v>861</v>
@@ -11554,22 +11554,22 @@
         <v>14</v>
       </c>
       <c r="E239" t="s">
-        <v>337</v>
+        <v>892</v>
       </c>
       <c r="F239" t="s">
-        <v>892</v>
+        <v>802</v>
       </c>
       <c r="G239" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H239" t="s">
-        <v>803</v>
+        <v>893</v>
       </c>
       <c r="I239" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J239" t="s">
-        <v>893</v>
+        <v>805</v>
       </c>
       <c r="K239" t="s">
         <v>894</v>
@@ -11595,16 +11595,16 @@
         <v>898</v>
       </c>
       <c r="G240" t="s">
+        <v>338</v>
+      </c>
+      <c r="H240" t="s">
+        <v>898</v>
+      </c>
+      <c r="I240" t="s">
+        <v>339</v>
+      </c>
+      <c r="J240" t="s">
         <v>899</v>
-      </c>
-      <c r="H240" t="s">
-        <v>900</v>
-      </c>
-      <c r="I240" t="s">
-        <v>338</v>
-      </c>
-      <c r="J240" t="s">
-        <v>339</v>
       </c>
       <c r="K240" t="s">
         <v>900</v>
@@ -11630,16 +11630,16 @@
         <v>898</v>
       </c>
       <c r="G241" t="s">
+        <v>338</v>
+      </c>
+      <c r="H241" t="s">
+        <v>898</v>
+      </c>
+      <c r="I241" t="s">
+        <v>339</v>
+      </c>
+      <c r="J241" t="s">
         <v>899</v>
-      </c>
-      <c r="H241" t="s">
-        <v>900</v>
-      </c>
-      <c r="I241" t="s">
-        <v>338</v>
-      </c>
-      <c r="J241" t="s">
-        <v>339</v>
       </c>
       <c r="K241" t="s">
         <v>900</v>
@@ -11665,16 +11665,16 @@
         <v>898</v>
       </c>
       <c r="G242" t="s">
+        <v>338</v>
+      </c>
+      <c r="H242" t="s">
+        <v>898</v>
+      </c>
+      <c r="I242" t="s">
+        <v>339</v>
+      </c>
+      <c r="J242" t="s">
         <v>899</v>
-      </c>
-      <c r="H242" t="s">
-        <v>900</v>
-      </c>
-      <c r="I242" t="s">
-        <v>338</v>
-      </c>
-      <c r="J242" t="s">
-        <v>339</v>
       </c>
       <c r="K242" t="s">
         <v>900</v>
@@ -11700,16 +11700,16 @@
         <v>898</v>
       </c>
       <c r="G243" t="s">
+        <v>338</v>
+      </c>
+      <c r="H243" t="s">
+        <v>898</v>
+      </c>
+      <c r="I243" t="s">
+        <v>339</v>
+      </c>
+      <c r="J243" t="s">
         <v>899</v>
-      </c>
-      <c r="H243" t="s">
-        <v>900</v>
-      </c>
-      <c r="I243" t="s">
-        <v>338</v>
-      </c>
-      <c r="J243" t="s">
-        <v>339</v>
       </c>
       <c r="K243" t="s">
         <v>900</v>
@@ -11735,16 +11735,16 @@
         <v>898</v>
       </c>
       <c r="G244" t="s">
+        <v>338</v>
+      </c>
+      <c r="H244" t="s">
+        <v>898</v>
+      </c>
+      <c r="I244" t="s">
+        <v>339</v>
+      </c>
+      <c r="J244" t="s">
         <v>899</v>
-      </c>
-      <c r="H244" t="s">
-        <v>900</v>
-      </c>
-      <c r="I244" t="s">
-        <v>338</v>
-      </c>
-      <c r="J244" t="s">
-        <v>339</v>
       </c>
       <c r="K244" t="s">
         <v>900</v>
@@ -11770,16 +11770,16 @@
         <v>898</v>
       </c>
       <c r="G245" t="s">
+        <v>338</v>
+      </c>
+      <c r="H245" t="s">
+        <v>898</v>
+      </c>
+      <c r="I245" t="s">
+        <v>339</v>
+      </c>
+      <c r="J245" t="s">
         <v>899</v>
-      </c>
-      <c r="H245" t="s">
-        <v>900</v>
-      </c>
-      <c r="I245" t="s">
-        <v>338</v>
-      </c>
-      <c r="J245" t="s">
-        <v>339</v>
       </c>
       <c r="K245" t="s">
         <v>900</v>
@@ -11796,22 +11796,22 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>337</v>
+        <v>918</v>
       </c>
       <c r="F246" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="G246" t="s">
+        <v>534</v>
+      </c>
+      <c r="H246" t="s">
+        <v>919</v>
+      </c>
+      <c r="I246" t="s">
+        <v>339</v>
+      </c>
+      <c r="J246" t="s">
         <v>899</v>
-      </c>
-      <c r="H246" t="s">
-        <v>900</v>
-      </c>
-      <c r="I246" t="s">
-        <v>533</v>
-      </c>
-      <c r="J246" t="s">
-        <v>919</v>
       </c>
       <c r="K246" t="s">
         <v>920</v>
@@ -11833,17 +11833,17 @@
       <c r="E247" t="s">
         <v>196</v>
       </c>
+      <c r="F247" t="s">
+        <v>924</v>
+      </c>
       <c r="G247" t="s">
-        <v>924</v>
-      </c>
-      <c r="H247" t="s">
+        <v>197</v>
+      </c>
+      <c r="I247" t="s">
+        <v>198</v>
+      </c>
+      <c r="J247" t="s">
         <v>925</v>
-      </c>
-      <c r="I247" t="s">
-        <v>197</v>
-      </c>
-      <c r="J247" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -11862,17 +11862,17 @@
       <c r="E248" t="s">
         <v>196</v>
       </c>
+      <c r="F248" t="s">
+        <v>924</v>
+      </c>
       <c r="G248" t="s">
-        <v>924</v>
-      </c>
-      <c r="H248" t="s">
+        <v>197</v>
+      </c>
+      <c r="I248" t="s">
+        <v>198</v>
+      </c>
+      <c r="J248" t="s">
         <v>925</v>
-      </c>
-      <c r="I248" t="s">
-        <v>197</v>
-      </c>
-      <c r="J248" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -11889,19 +11889,19 @@
         <v>14</v>
       </c>
       <c r="E249" t="s">
-        <v>196</v>
+        <v>932</v>
+      </c>
+      <c r="F249" t="s">
+        <v>924</v>
       </c>
       <c r="G249" t="s">
-        <v>924</v>
-      </c>
-      <c r="H249" t="s">
+        <v>933</v>
+      </c>
+      <c r="I249" t="s">
+        <v>198</v>
+      </c>
+      <c r="J249" t="s">
         <v>925</v>
-      </c>
-      <c r="I249" t="s">
-        <v>932</v>
-      </c>
-      <c r="J249" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -11920,17 +11920,17 @@
       <c r="E250" t="s">
         <v>196</v>
       </c>
+      <c r="F250" t="s">
+        <v>924</v>
+      </c>
       <c r="G250" t="s">
-        <v>924</v>
-      </c>
-      <c r="H250" t="s">
+        <v>197</v>
+      </c>
+      <c r="I250" t="s">
+        <v>198</v>
+      </c>
+      <c r="J250" t="s">
         <v>925</v>
-      </c>
-      <c r="I250" t="s">
-        <v>197</v>
-      </c>
-      <c r="J250" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -11946,17 +11946,17 @@
       <c r="E251" t="s">
         <v>196</v>
       </c>
+      <c r="F251" t="s">
+        <v>924</v>
+      </c>
       <c r="G251" t="s">
-        <v>924</v>
-      </c>
-      <c r="H251" t="s">
+        <v>197</v>
+      </c>
+      <c r="I251" t="s">
+        <v>198</v>
+      </c>
+      <c r="J251" t="s">
         <v>925</v>
-      </c>
-      <c r="I251" t="s">
-        <v>197</v>
-      </c>
-      <c r="J251" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -11975,17 +11975,17 @@
       <c r="E252" t="s">
         <v>196</v>
       </c>
+      <c r="F252" t="s">
+        <v>924</v>
+      </c>
       <c r="G252" t="s">
-        <v>924</v>
-      </c>
-      <c r="H252" t="s">
+        <v>197</v>
+      </c>
+      <c r="I252" t="s">
+        <v>198</v>
+      </c>
+      <c r="J252" t="s">
         <v>925</v>
-      </c>
-      <c r="I252" t="s">
-        <v>197</v>
-      </c>
-      <c r="J252" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -11999,16 +11999,16 @@
         <v>14</v>
       </c>
       <c r="E253" t="s">
-        <v>337</v>
+        <v>944</v>
+      </c>
+      <c r="F253" t="s">
+        <v>945</v>
       </c>
       <c r="G253" t="s">
-        <v>944</v>
-      </c>
-      <c r="H253" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="I253" t="s">
-        <v>946</v>
+        <v>339</v>
       </c>
       <c r="J253" t="s">
         <v>947</v>
@@ -12028,19 +12028,19 @@
         <v>14</v>
       </c>
       <c r="E254" t="s">
-        <v>188</v>
+        <v>454</v>
+      </c>
+      <c r="F254" t="s">
+        <v>945</v>
       </c>
       <c r="G254" t="s">
-        <v>944</v>
-      </c>
-      <c r="H254" t="s">
-        <v>945</v>
+        <v>455</v>
       </c>
       <c r="I254" t="s">
-        <v>454</v>
+        <v>191</v>
       </c>
       <c r="J254" t="s">
-        <v>455</v>
+        <v>947</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -12057,19 +12057,19 @@
         <v>14</v>
       </c>
       <c r="E255" t="s">
-        <v>188</v>
+        <v>954</v>
+      </c>
+      <c r="F255" t="s">
+        <v>945</v>
       </c>
       <c r="G255" t="s">
-        <v>944</v>
-      </c>
-      <c r="H255" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="I255" t="s">
-        <v>954</v>
+        <v>191</v>
       </c>
       <c r="J255" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -12086,19 +12086,19 @@
         <v>14</v>
       </c>
       <c r="E256" t="s">
-        <v>188</v>
+        <v>954</v>
+      </c>
+      <c r="F256" t="s">
+        <v>945</v>
       </c>
       <c r="G256" t="s">
-        <v>944</v>
-      </c>
-      <c r="H256" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="I256" t="s">
-        <v>954</v>
+        <v>191</v>
       </c>
       <c r="J256" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -12115,19 +12115,19 @@
         <v>14</v>
       </c>
       <c r="E257" t="s">
-        <v>188</v>
+        <v>954</v>
+      </c>
+      <c r="F257" t="s">
+        <v>945</v>
       </c>
       <c r="G257" t="s">
-        <v>944</v>
-      </c>
-      <c r="H257" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="I257" t="s">
-        <v>954</v>
+        <v>191</v>
       </c>
       <c r="J257" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -12144,19 +12144,19 @@
         <v>14</v>
       </c>
       <c r="E258" t="s">
-        <v>337</v>
+        <v>705</v>
+      </c>
+      <c r="F258" t="s">
+        <v>945</v>
       </c>
       <c r="G258" t="s">
-        <v>944</v>
-      </c>
-      <c r="H258" t="s">
-        <v>945</v>
+        <v>707</v>
       </c>
       <c r="I258" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="J258" t="s">
-        <v>709</v>
+        <v>947</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -12173,19 +12173,19 @@
         <v>14</v>
       </c>
       <c r="E259" t="s">
-        <v>188</v>
+        <v>954</v>
+      </c>
+      <c r="F259" t="s">
+        <v>945</v>
       </c>
       <c r="G259" t="s">
-        <v>944</v>
-      </c>
-      <c r="H259" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="I259" t="s">
-        <v>954</v>
+        <v>191</v>
       </c>
       <c r="J259" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -12204,17 +12204,17 @@
       <c r="E260" t="s">
         <v>337</v>
       </c>
+      <c r="F260" t="s">
+        <v>945</v>
+      </c>
       <c r="G260" t="s">
-        <v>944</v>
-      </c>
-      <c r="H260" t="s">
-        <v>945</v>
+        <v>338</v>
       </c>
       <c r="I260" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J260" t="s">
-        <v>339</v>
+        <v>947</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -12231,19 +12231,19 @@
         <v>14</v>
       </c>
       <c r="E261" t="s">
-        <v>405</v>
+        <v>973</v>
+      </c>
+      <c r="F261" t="s">
+        <v>945</v>
       </c>
       <c r="G261" t="s">
-        <v>944</v>
-      </c>
-      <c r="H261" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="I261" t="s">
-        <v>973</v>
+        <v>407</v>
       </c>
       <c r="J261" t="s">
-        <v>974</v>
+        <v>947</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -12262,17 +12262,17 @@
       <c r="E262" t="s">
         <v>337</v>
       </c>
+      <c r="F262" t="s">
+        <v>945</v>
+      </c>
       <c r="G262" t="s">
-        <v>944</v>
-      </c>
-      <c r="H262" t="s">
-        <v>945</v>
+        <v>338</v>
       </c>
       <c r="I262" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J262" t="s">
-        <v>339</v>
+        <v>947</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -12289,19 +12289,19 @@
         <v>14</v>
       </c>
       <c r="E263" t="s">
-        <v>377</v>
+        <v>981</v>
+      </c>
+      <c r="F263" t="s">
+        <v>945</v>
       </c>
       <c r="G263" t="s">
-        <v>944</v>
-      </c>
-      <c r="H263" t="s">
-        <v>945</v>
+        <v>982</v>
       </c>
       <c r="I263" t="s">
-        <v>981</v>
+        <v>379</v>
       </c>
       <c r="J263" t="s">
-        <v>982</v>
+        <v>947</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -12320,17 +12320,17 @@
       <c r="E264" t="s">
         <v>58</v>
       </c>
+      <c r="F264" t="s">
+        <v>945</v>
+      </c>
       <c r="G264" t="s">
-        <v>944</v>
-      </c>
-      <c r="H264" t="s">
-        <v>945</v>
+        <v>59</v>
       </c>
       <c r="I264" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J264" t="s">
-        <v>60</v>
+        <v>947</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -12349,17 +12349,17 @@
       <c r="E265" t="s">
         <v>15</v>
       </c>
+      <c r="F265" t="s">
+        <v>945</v>
+      </c>
       <c r="G265" t="s">
-        <v>944</v>
-      </c>
-      <c r="H265" t="s">
-        <v>945</v>
+        <v>17</v>
       </c>
       <c r="I265" t="s">
         <v>19</v>
       </c>
       <c r="J265" t="s">
-        <v>20</v>
+        <v>947</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -12376,19 +12376,19 @@
         <v>14</v>
       </c>
       <c r="E266" t="s">
-        <v>233</v>
+        <v>992</v>
+      </c>
+      <c r="F266" t="s">
+        <v>945</v>
       </c>
       <c r="G266" t="s">
-        <v>944</v>
-      </c>
-      <c r="H266" t="s">
-        <v>945</v>
+        <v>993</v>
       </c>
       <c r="I266" t="s">
-        <v>992</v>
+        <v>237</v>
       </c>
       <c r="J266" t="s">
-        <v>993</v>
+        <v>947</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -12405,19 +12405,19 @@
         <v>14</v>
       </c>
       <c r="E267" t="s">
-        <v>233</v>
+        <v>243</v>
+      </c>
+      <c r="F267" t="s">
+        <v>997</v>
       </c>
       <c r="G267" t="s">
-        <v>997</v>
-      </c>
-      <c r="H267" t="s">
+        <v>244</v>
+      </c>
+      <c r="I267" t="s">
+        <v>237</v>
+      </c>
+      <c r="J267" t="s">
         <v>998</v>
-      </c>
-      <c r="I267" t="s">
-        <v>243</v>
-      </c>
-      <c r="J267" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -12434,19 +12434,19 @@
         <v>14</v>
       </c>
       <c r="E268" t="s">
-        <v>377</v>
+        <v>420</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1002</v>
       </c>
       <c r="G268" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H268" t="s">
+        <v>422</v>
+      </c>
+      <c r="I268" t="s">
+        <v>379</v>
+      </c>
+      <c r="J268" t="s">
         <v>1003</v>
-      </c>
-      <c r="I268" t="s">
-        <v>422</v>
-      </c>
-      <c r="J268" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -12463,19 +12463,19 @@
         <v>14</v>
       </c>
       <c r="E269" t="s">
-        <v>233</v>
+        <v>243</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1007</v>
       </c>
       <c r="G269" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H269" t="s">
+        <v>244</v>
+      </c>
+      <c r="I269" t="s">
+        <v>237</v>
+      </c>
+      <c r="J269" t="s">
         <v>1008</v>
-      </c>
-      <c r="I269" t="s">
-        <v>243</v>
-      </c>
-      <c r="J269" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -12492,19 +12492,19 @@
         <v>14</v>
       </c>
       <c r="E270" t="s">
-        <v>233</v>
+        <v>243</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1007</v>
       </c>
       <c r="G270" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H270" t="s">
+        <v>244</v>
+      </c>
+      <c r="I270" t="s">
+        <v>237</v>
+      </c>
+      <c r="J270" t="s">
         <v>1008</v>
-      </c>
-      <c r="I270" t="s">
-        <v>243</v>
-      </c>
-      <c r="J270" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -12521,16 +12521,16 @@
         <v>14</v>
       </c>
       <c r="E271" t="s">
-        <v>233</v>
+        <v>1015</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1016</v>
       </c>
       <c r="G271" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H271" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I271" t="s">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="J271" t="s">
         <v>1018</v>
@@ -12547,16 +12547,16 @@
         <v>14</v>
       </c>
       <c r="E272" t="s">
-        <v>233</v>
+        <v>1015</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1016</v>
       </c>
       <c r="G272" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H272" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I272" t="s">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="J272" t="s">
         <v>1018</v>
@@ -12576,16 +12576,16 @@
         <v>14</v>
       </c>
       <c r="E273" t="s">
-        <v>233</v>
+        <v>1015</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1016</v>
       </c>
       <c r="G273" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I273" t="s">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="J273" t="s">
         <v>1018</v>
@@ -12602,16 +12602,16 @@
         <v>14</v>
       </c>
       <c r="E274" t="s">
-        <v>233</v>
+        <v>1015</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1016</v>
       </c>
       <c r="G274" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H274" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I274" t="s">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="J274" t="s">
         <v>1018</v>
@@ -12631,16 +12631,16 @@
         <v>14</v>
       </c>
       <c r="E275" t="s">
-        <v>233</v>
+        <v>1015</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1016</v>
       </c>
       <c r="G275" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I275" t="s">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="J275" t="s">
         <v>1018</v>
@@ -12660,16 +12660,16 @@
         <v>14</v>
       </c>
       <c r="E276" t="s">
-        <v>233</v>
+        <v>1015</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1016</v>
       </c>
       <c r="G276" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H276" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I276" t="s">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="J276" t="s">
         <v>1018</v>
@@ -12689,16 +12689,16 @@
         <v>14</v>
       </c>
       <c r="E277" t="s">
-        <v>233</v>
+        <v>1015</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1016</v>
       </c>
       <c r="G277" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H277" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I277" t="s">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="J277" t="s">
         <v>1018</v>
@@ -12718,19 +12718,19 @@
         <v>14</v>
       </c>
       <c r="E278" t="s">
-        <v>377</v>
+        <v>420</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1038</v>
       </c>
       <c r="G278" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H278" t="s">
+        <v>422</v>
+      </c>
+      <c r="I278" t="s">
+        <v>379</v>
+      </c>
+      <c r="J278" t="s">
         <v>1039</v>
-      </c>
-      <c r="I278" t="s">
-        <v>422</v>
-      </c>
-      <c r="J278" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -12747,19 +12747,19 @@
         <v>14</v>
       </c>
       <c r="E279" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1038</v>
       </c>
       <c r="G279" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H279" t="s">
+        <v>94</v>
+      </c>
+      <c r="I279" t="s">
+        <v>60</v>
+      </c>
+      <c r="J279" t="s">
         <v>1039</v>
-      </c>
-      <c r="I279" t="s">
-        <v>95</v>
-      </c>
-      <c r="J279" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -12778,17 +12778,17 @@
       <c r="E280" t="s">
         <v>15</v>
       </c>
+      <c r="F280" t="s">
+        <v>1038</v>
+      </c>
       <c r="G280" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1039</v>
+        <v>17</v>
       </c>
       <c r="I280" t="s">
         <v>19</v>
       </c>
       <c r="J280" t="s">
-        <v>20</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -12805,19 +12805,19 @@
         <v>14</v>
       </c>
       <c r="E281" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1038</v>
       </c>
       <c r="G281" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H281" t="s">
+        <v>353</v>
+      </c>
+      <c r="I281" t="s">
+        <v>237</v>
+      </c>
+      <c r="J281" t="s">
         <v>1039</v>
-      </c>
-      <c r="I281" t="s">
-        <v>352</v>
-      </c>
-      <c r="J281" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -12836,17 +12836,17 @@
       <c r="E282" t="s">
         <v>253</v>
       </c>
+      <c r="F282" t="s">
+        <v>1038</v>
+      </c>
       <c r="G282" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H282" t="s">
+        <v>254</v>
+      </c>
+      <c r="I282" t="s">
+        <v>255</v>
+      </c>
+      <c r="J282" t="s">
         <v>1039</v>
-      </c>
-      <c r="I282" t="s">
-        <v>254</v>
-      </c>
-      <c r="J282" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -12863,19 +12863,19 @@
         <v>14</v>
       </c>
       <c r="E283" t="s">
-        <v>337</v>
+        <v>892</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1055</v>
       </c>
       <c r="G283" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H283" t="s">
+        <v>803</v>
+      </c>
+      <c r="I283" t="s">
+        <v>339</v>
+      </c>
+      <c r="J283" t="s">
         <v>1056</v>
-      </c>
-      <c r="I283" t="s">
-        <v>804</v>
-      </c>
-      <c r="J283" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -12894,17 +12894,17 @@
       <c r="E284" t="s">
         <v>253</v>
       </c>
+      <c r="F284" t="s">
+        <v>1060</v>
+      </c>
       <c r="G284" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H284" t="s">
+        <v>254</v>
+      </c>
+      <c r="I284" t="s">
+        <v>255</v>
+      </c>
+      <c r="J284" t="s">
         <v>1061</v>
-      </c>
-      <c r="I284" t="s">
-        <v>254</v>
-      </c>
-      <c r="J284" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -12918,19 +12918,19 @@
         <v>14</v>
       </c>
       <c r="E285" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1064</v>
       </c>
       <c r="G285" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H285" t="s">
+        <v>353</v>
+      </c>
+      <c r="I285" t="s">
+        <v>237</v>
+      </c>
+      <c r="J285" t="s">
         <v>1065</v>
-      </c>
-      <c r="I285" t="s">
-        <v>352</v>
-      </c>
-      <c r="J285" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -12947,19 +12947,19 @@
         <v>14</v>
       </c>
       <c r="E286" t="s">
-        <v>377</v>
+        <v>981</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1069</v>
       </c>
       <c r="G286" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H286" t="s">
+        <v>982</v>
+      </c>
+      <c r="I286" t="s">
+        <v>379</v>
+      </c>
+      <c r="J286" t="s">
         <v>1070</v>
-      </c>
-      <c r="I286" t="s">
-        <v>981</v>
-      </c>
-      <c r="J286" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -12976,19 +12976,19 @@
         <v>14</v>
       </c>
       <c r="E287" t="s">
-        <v>377</v>
+        <v>981</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1069</v>
       </c>
       <c r="G287" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H287" t="s">
+        <v>982</v>
+      </c>
+      <c r="I287" t="s">
+        <v>379</v>
+      </c>
+      <c r="J287" t="s">
         <v>1070</v>
-      </c>
-      <c r="I287" t="s">
-        <v>981</v>
-      </c>
-      <c r="J287" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -13005,19 +13005,19 @@
         <v>14</v>
       </c>
       <c r="E288" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1069</v>
       </c>
       <c r="G288" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H288" t="s">
+        <v>76</v>
+      </c>
+      <c r="I288" t="s">
+        <v>19</v>
+      </c>
+      <c r="J288" t="s">
         <v>1070</v>
-      </c>
-      <c r="I288" t="s">
-        <v>75</v>
-      </c>
-      <c r="J288" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -13036,17 +13036,17 @@
       <c r="E289" t="s">
         <v>58</v>
       </c>
+      <c r="F289" t="s">
+        <v>1069</v>
+      </c>
       <c r="G289" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H289" t="s">
+        <v>59</v>
+      </c>
+      <c r="I289" t="s">
+        <v>60</v>
+      </c>
+      <c r="J289" t="s">
         <v>1070</v>
-      </c>
-      <c r="I289" t="s">
-        <v>59</v>
-      </c>
-      <c r="J289" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -13065,17 +13065,17 @@
       <c r="E290" t="s">
         <v>58</v>
       </c>
+      <c r="F290" t="s">
+        <v>1069</v>
+      </c>
       <c r="G290" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H290" t="s">
+        <v>59</v>
+      </c>
+      <c r="I290" t="s">
+        <v>60</v>
+      </c>
+      <c r="J290" t="s">
         <v>1070</v>
-      </c>
-      <c r="I290" t="s">
-        <v>59</v>
-      </c>
-      <c r="J290" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -13092,19 +13092,19 @@
         <v>14</v>
       </c>
       <c r="E291" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1069</v>
       </c>
       <c r="G291" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H291" t="s">
+        <v>353</v>
+      </c>
+      <c r="I291" t="s">
+        <v>237</v>
+      </c>
+      <c r="J291" t="s">
         <v>1070</v>
-      </c>
-      <c r="I291" t="s">
-        <v>352</v>
-      </c>
-      <c r="J291" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -13121,19 +13121,19 @@
         <v>14</v>
       </c>
       <c r="E292" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1069</v>
       </c>
       <c r="G292" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H292" t="s">
+        <v>353</v>
+      </c>
+      <c r="I292" t="s">
+        <v>237</v>
+      </c>
+      <c r="J292" t="s">
         <v>1070</v>
-      </c>
-      <c r="I292" t="s">
-        <v>352</v>
-      </c>
-      <c r="J292" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -13150,19 +13150,19 @@
         <v>14</v>
       </c>
       <c r="E293" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1069</v>
       </c>
       <c r="G293" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H293" t="s">
+        <v>353</v>
+      </c>
+      <c r="I293" t="s">
+        <v>237</v>
+      </c>
+      <c r="J293" t="s">
         <v>1070</v>
-      </c>
-      <c r="I293" t="s">
-        <v>352</v>
-      </c>
-      <c r="J293" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -13179,19 +13179,19 @@
         <v>14</v>
       </c>
       <c r="E294" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1069</v>
       </c>
       <c r="G294" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H294" t="s">
+        <v>353</v>
+      </c>
+      <c r="I294" t="s">
+        <v>237</v>
+      </c>
+      <c r="J294" t="s">
         <v>1070</v>
-      </c>
-      <c r="I294" t="s">
-        <v>352</v>
-      </c>
-      <c r="J294" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -13208,19 +13208,19 @@
         <v>14</v>
       </c>
       <c r="E295" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1098</v>
       </c>
       <c r="G295" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H295" t="s">
+        <v>353</v>
+      </c>
+      <c r="I295" t="s">
+        <v>237</v>
+      </c>
+      <c r="J295" t="s">
         <v>1099</v>
-      </c>
-      <c r="I295" t="s">
-        <v>352</v>
-      </c>
-      <c r="J295" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -13237,19 +13237,19 @@
         <v>14</v>
       </c>
       <c r="E296" t="s">
-        <v>233</v>
+        <v>352</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1098</v>
       </c>
       <c r="G296" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H296" t="s">
+        <v>353</v>
+      </c>
+      <c r="I296" t="s">
+        <v>237</v>
+      </c>
+      <c r="J296" t="s">
         <v>1099</v>
-      </c>
-      <c r="I296" t="s">
-        <v>352</v>
-      </c>
-      <c r="J296" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/en/SectorCOFOG.xlsx
+++ b/api/2/xlsx/en/SectorCOFOG.xlsx
@@ -31,24 +31,24 @@
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-group</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -64,24 +64,24 @@
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
     <t>09.8 - Education n.e.c.</t>
   </si>
   <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -133,15 +133,15 @@
     <t>09.1.2 - Primary education (IS)</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
     <t>09.1 - Pre‐primary and primary education</t>
   </si>
   <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
+    <t>07 - Health</t>
+  </si>
+  <si>
     <t>07.4 - Public health services</t>
   </si>
   <si>
-    <t>07 - Health</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>09.2.2 - Upper‐secondary education (IS)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Secondary Education</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>09.4.1 - First stage of tertiary education (IS)</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Post-Secondary Education</t>
+  </si>
+  <si>
     <t>09.4 - Tertiary education</t>
   </si>
   <si>
-    <t>Post-Secondary Education</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -295,21 +295,21 @@
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
+    <t>Health, General</t>
+  </si>
+  <si>
     <t>07.6 - Health n.e.c.</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -367,12 +367,12 @@
     <t>Basic and primary health care programmes; paramedical and nursing care programmes; supply of drugs, medicines and vaccines related to basic health care; activities aimed at achieving universal health coverage.</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Basic Health</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -460,12 +460,12 @@
     <t>Programmes for the prevention and control of NCDs which cannot be broken down into the codes below.</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Non-communicable diseases (NCDs)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Population/development policies; demographic research/analysis; reproductive health research; unspecified population activities. (Use purpose code 15190 for data on migration and refugees. Use code 13096 for census work, vital registration and migration data collection.)</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Population Policies/Programmes &amp; Reproductive Health</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -583,18 +583,18 @@
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
     <t>06.3 - Water supply</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -607,12 +607,12 @@
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
+    <t>05 - Environmental protection</t>
+  </si>
+  <si>
     <t>05.6 - Environmental protection n.e.c.</t>
   </si>
   <si>
-    <t>05 - Environmental protection</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -718,24 +718,24 @@
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
     <t>01.3 - General services</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -778,12 +778,12 @@
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
+    <t>03 - Public order and safety</t>
+  </si>
+  <si>
     <t>03.6 - Public order and safety n.e.c.</t>
   </si>
   <si>
-    <t>03 - Public order and safety</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -1030,12 +1030,12 @@
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
+    <t>04 - Economic affairs</t>
+  </si>
+  <si>
     <t>04.1 - General economic, commercial and labour affairs</t>
   </si>
   <si>
-    <t>04 - Economic affairs</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -1150,12 +1150,12 @@
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
     <t>10.7 - Social exclusion n.e.c.</t>
   </si>
   <si>
-    <t>10 - Social protection</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -1207,12 +1207,12 @@
     <t>Technical co-operation provided to parliament, government ministries, law enforcement agencies and the judiciary to assist review and reform of the security system to improve democratic governance and civilian control; technical co-operation provided to government to improve civilian oversight and democratic control of budgeting, management, accountability and auditing of security expenditure, including military budgets, as part of a public expenditure management programme; assistance to civil society to enhance its competence and capacity to scrutinise the security system so that it is managed in accordance with democratic norms and principles of accountability, transparency and good governance. [Other than in the context of an international peacekeeping operation (15230)].</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflict, Peace &amp; Security</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -1234,12 +1234,12 @@
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
+    <t>02 - Defence</t>
+  </si>
+  <si>
     <t>02.3 - Foreign military aid</t>
   </si>
   <si>
-    <t>02 - Defence</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -1279,15 +1279,15 @@
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
     <t>10.9 - Social protection n.e.c.</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -1405,12 +1405,12 @@
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
+    <t>08 - Recreation, culture and religion</t>
+  </si>
+  <si>
     <t>08.2 - Cultural services</t>
   </si>
   <si>
-    <t>08 - Recreation, culture and religion</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -1486,12 +1486,12 @@
     <t>Transport sector policy, planning and programmes; aid to transport ministries; institution capacity building and advice; unspecified transport; activities that combine road, rail, water and/or air transport. Includes prevention of road accidents. Whenever possible, report transport of goods under the sector of the good being transported.</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transport &amp; Storage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21011</t>
   </si>
   <si>
@@ -1636,12 +1636,12 @@
     <t>Communications sector policy, planning and programmes; institution capacity building and advice; including postal services development; unspecified communications activities.</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22011</t>
   </si>
   <si>
@@ -1711,21 +1711,21 @@
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
     <t>04.3 - Fuel and energy</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -1783,12 +1783,12 @@
     <t>Renewable energy generation programmes that cannot be attributed to one single technology (codes 23220 through 23280 below). Fuelwood/charcoal production should be included under forestry 31261.</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Energy generation, renewable sources</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -1870,12 +1870,12 @@
     <t>Thermal power plants including when energy source cannot be determined; combined gas-coal power plants.</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Energy generation, non-renewable sources</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -1933,12 +1933,12 @@
     <t>Electric power plants that make use of both non-renewable and renewable energy sources.</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Hybrid energy plants</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
@@ -1963,12 +1963,12 @@
     <t>Power plants which are designed to produce heat only.</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Energy distribution</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -2032,12 +2032,12 @@
     <t>Finance sector policy, planning and programmes; institution capacity building and advice; financial markets and systems.</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banking &amp; Financial Services</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -2089,12 +2089,12 @@
     <t>Public sector policies and institution support to the business environment and investment climate, including business regulations, property rights, non-discrimination, investment promotion, competition policy, enterprises law, private-public partnerships.</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Business &amp; Other Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -2134,21 +2134,21 @@
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>04.2 - Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -2314,12 +2314,12 @@
     <t>04.2.2 - Forestry (CS)</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Forestry</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -2371,12 +2371,12 @@
     <t>04.2.3 - Fishing and hunting (CS)</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -2422,21 +2422,21 @@
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
+    <t>Industry</t>
+  </si>
+  <si>
     <t>04.4 - Mining, manufacturing and construction</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -2596,12 +2596,12 @@
     <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Mineral Resources &amp; Mining</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -2695,12 +2695,12 @@
     <t>04.4.3 - Construction (CS)</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
@@ -2710,15 +2710,15 @@
     <t>Trade policy and planning; support to ministries and departments responsible for trade policy; trade-related legislation and regulatory reforms; policy analysis and implementation of multilateral trade agreements e.g. technical barriers to trade and sanitary and phytosanitary measures (TBT/SPS) except at regional level (see 33130); mainstreaming trade in national development strategies (e.g. poverty reduction strategy papers); wholesale/retail trade; unspecified trade and trade promotion activities.</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -2773,12 +2773,12 @@
     <t>04.7.3 - Tourism (CS)</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -2788,12 +2788,12 @@
     <t>Environmental policy, laws, regulations and economic instruments; administrational institutions and practices; environmental and land use planning and decision-making procedures; seminars, meetings; miscellaneous conservation and protection measures not specified below.</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>General Environment Protection</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -2851,15 +2851,15 @@
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Other Multisector</t>
   </si>
   <si>
     <t>04.9 - Economic affairs n.e.c.</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -3007,12 +3007,12 @@
     <t>Unearmarked contributions to the government budget; support for the implementation of macroeconomic reforms (structural adjustment programmes, poverty reduction strategies); general programme assistance (when not allocable by sector).</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>General Budget Support</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
@@ -3022,12 +3022,12 @@
     <t>Supply of edible human food under national or international programmes including transport costs, cash payments made for food supplies; project food assistance aid and food assistance aid for market sales when benefiting sector not specified. Excludes food security policy and administrative management (43071), household food security programmes (43072) and emergency food assistance aid (72040). Report as multilateral: i) food assistance aid by EU financed out of its budget and allocated pro rata to EU member countries; and ii) core contributions to the World Food Programme.</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Development Food Assistance</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
@@ -3037,12 +3037,12 @@
     <t>Capital goods and services; lines of credit.</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Other Commodity Assistance</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -3064,15 +3064,15 @@
     <t>01.7.0 - Public debt transactions (CS)</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Action Relating to Debt</t>
   </si>
   <si>
     <t>01.7 - Public debt transactions</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -3130,12 +3130,12 @@
     <t>Shelter, water, sanitation, education, health services including supply of medicines and malnutrition management, including medical nutrition management; supply of other nonfood relief items (including cash and voucher delivery modalities) for the benefit of crisisaffected people, including refugees and internally displaced people in developing countries, Includes assistance delivered by or coordinated by international civil protection units in the immediate aftermath of a disaster (in-kind assistance, deployment of specially-equipped teams, logistics and transportation, or assessment and coordination by experts sent to the field). Also includes measures to promote and protect the safety, well-being, dignity and integrity of crisis-affected people including refugees and internally displaced persons in developing countries. (Activities designed to protect the security of persons or properties through the use or display of force are not reportable as ODA.)</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Emergency Response</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72011</t>
   </si>
   <si>
@@ -3181,12 +3181,12 @@
     <t>Social and economic rehabilitation in the aftermath of emergencies to facilitate recovery and resilience building and enable populations to restore their livelihoods in the wake of an emergency situation (e.g. trauma counselling and treatment, employment programmes). Includes infrastructure necessary for the delivery of humanitarian aid; restoring pre-existing essential infrastructure and facilities (e.g. water and sanitation, shelter, health care services, education); rehabilitation of basic agricultural inputs and livestock. Excludes longer-term reconstruction ('build back better') which is reportable against relevant sectors.</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction Relief &amp; Rehabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
@@ -3196,24 +3196,24 @@
     <t>Building the responsiveness, capability and capacity of international, regional and national humanitarian actors to disasters. Support to the institutional capacities of national and local government, specialised humanitarian bodies, and civil society organisations to anticipate, respond and recover from the impact of potential, imminent and current hazardous events and emergency situations that pose humanitarian threats and could call for a humanitarian response. This includes risk analysis and assessment, mitigation, preparedness, such as stockpiling of emergency items and training and capacity building aimed to increase the speed and effectiveness of lifesaving assistance delivered in the occurrence of crisis.</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Disaster Prevention &amp; Preparedness</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Administrative Costs of Donors</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
@@ -3223,12 +3223,12 @@
     <t>Costs incurred in donor countries for basic assistance to asylum seekers and refugees from developing countries, up to 12 months, when costs cannot be disaggregated. See section II.6 and Annex 17.</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugees in Donor Countries</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>93011</t>
   </si>
   <si>
@@ -3310,10 +3310,10 @@
     <t>Contributions to general development of the recipient should be included under programme assistance (51010).</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Unallocated / Unspecified</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -3750,7 +3750,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -3762,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3820,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3832,7 +3832,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3852,19 +3852,19 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
         <v>41</v>
@@ -3887,22 +3887,22 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3922,19 +3922,19 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>41</v>
@@ -3957,19 +3957,19 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
         <v>41</v>
@@ -3992,19 +3992,19 @@
         <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
         <v>41</v>
@@ -4027,22 +4027,22 @@
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
       </c>
       <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4062,22 +4062,22 @@
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4097,22 +4097,22 @@
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4132,22 +4132,22 @@
         <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4167,19 +4167,19 @@
         <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
         <v>83</v>
@@ -4202,22 +4202,22 @@
         <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4240,13 +4240,13 @@
         <v>93</v>
       </c>
       <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
         <v>94</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>95</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
       </c>
       <c r="J17" t="s">
         <v>96</v>
@@ -4275,13 +4275,13 @@
         <v>93</v>
       </c>
       <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
         <v>94</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>95</v>
-      </c>
-      <c r="I18" t="s">
-        <v>60</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
@@ -4310,19 +4310,19 @@
         <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
         <v>95</v>
-      </c>
-      <c r="I19" t="s">
-        <v>60</v>
       </c>
       <c r="J19" t="s">
         <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4345,19 +4345,19 @@
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
         <v>95</v>
-      </c>
-      <c r="I20" t="s">
-        <v>60</v>
       </c>
       <c r="J20" t="s">
         <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4380,13 +4380,13 @@
         <v>93</v>
       </c>
       <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
         <v>94</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>95</v>
-      </c>
-      <c r="I21" t="s">
-        <v>60</v>
       </c>
       <c r="J21" t="s">
         <v>96</v>
@@ -4412,22 +4412,22 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
         <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" t="s">
         <v>60</v>
-      </c>
-      <c r="J22" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4447,22 +4447,22 @@
         <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" t="s">
         <v>123</v>
-      </c>
-      <c r="H23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4482,22 +4482,22 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
         <v>60</v>
-      </c>
-      <c r="J24" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4517,22 +4517,22 @@
         <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
         <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" t="s">
         <v>60</v>
-      </c>
-      <c r="J25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4552,22 +4552,22 @@
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
         <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s">
         <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4587,22 +4587,22 @@
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
         <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" t="s">
         <v>60</v>
-      </c>
-      <c r="J27" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4622,22 +4622,22 @@
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
         <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" t="s">
         <v>60</v>
-      </c>
-      <c r="J28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4657,22 +4657,22 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
         <v>59</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" t="s">
         <v>60</v>
-      </c>
-      <c r="J29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4692,22 +4692,22 @@
         <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
         <v>94</v>
       </c>
-      <c r="H30" t="s">
-        <v>117</v>
-      </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4727,22 +4727,22 @@
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
         <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" t="s">
         <v>60</v>
-      </c>
-      <c r="J31" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4762,22 +4762,22 @@
         <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
         <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" t="s">
+        <v>149</v>
+      </c>
+      <c r="K32" t="s">
         <v>60</v>
-      </c>
-      <c r="J32" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4797,22 +4797,22 @@
         <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
         <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" t="s">
         <v>60</v>
-      </c>
-      <c r="J33" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4832,22 +4832,22 @@
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G34" t="s">
         <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" t="s">
         <v>60</v>
-      </c>
-      <c r="J34" t="s">
-        <v>96</v>
-      </c>
-      <c r="K34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4867,22 +4867,22 @@
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
         <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35" t="s">
         <v>60</v>
-      </c>
-      <c r="J35" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4902,22 +4902,22 @@
         <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" t="s">
         <v>105</v>
-      </c>
-      <c r="H36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4936,17 +4936,17 @@
       <c r="E37" t="s">
         <v>58</v>
       </c>
-      <c r="F37" t="s">
-        <v>168</v>
-      </c>
       <c r="G37" t="s">
         <v>59</v>
       </c>
+      <c r="H37" t="s">
+        <v>168</v>
+      </c>
       <c r="I37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s">
         <v>60</v>
-      </c>
-      <c r="J37" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4965,17 +4965,17 @@
       <c r="E38" t="s">
         <v>58</v>
       </c>
-      <c r="F38" t="s">
-        <v>168</v>
-      </c>
       <c r="G38" t="s">
         <v>59</v>
       </c>
+      <c r="H38" t="s">
+        <v>168</v>
+      </c>
       <c r="I38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
         <v>60</v>
-      </c>
-      <c r="J38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4994,17 +4994,17 @@
       <c r="E39" t="s">
         <v>58</v>
       </c>
-      <c r="F39" t="s">
-        <v>168</v>
-      </c>
       <c r="G39" t="s">
         <v>59</v>
       </c>
+      <c r="H39" t="s">
+        <v>168</v>
+      </c>
       <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" t="s">
         <v>60</v>
-      </c>
-      <c r="J39" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5023,17 +5023,17 @@
       <c r="E40" t="s">
         <v>58</v>
       </c>
-      <c r="F40" t="s">
-        <v>168</v>
-      </c>
       <c r="G40" t="s">
         <v>59</v>
       </c>
+      <c r="H40" t="s">
+        <v>168</v>
+      </c>
       <c r="I40" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" t="s">
         <v>60</v>
-      </c>
-      <c r="J40" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5052,17 +5052,17 @@
       <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
         <v>168</v>
       </c>
-      <c r="G41" t="s">
-        <v>94</v>
-      </c>
       <c r="I41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J41" t="s">
         <v>169</v>
+      </c>
+      <c r="K41" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5081,17 +5081,17 @@
       <c r="E42" t="s">
         <v>104</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
         <v>168</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s">
         <v>105</v>
-      </c>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5110,16 +5110,16 @@
       <c r="E43" t="s">
         <v>188</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>189</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>190</v>
       </c>
       <c r="I43" t="s">
         <v>191</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5139,17 +5139,17 @@
       <c r="E44" t="s">
         <v>196</v>
       </c>
-      <c r="F44" t="s">
-        <v>189</v>
-      </c>
       <c r="G44" t="s">
         <v>197</v>
       </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
       <c r="I44" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" t="s">
         <v>198</v>
-      </c>
-      <c r="J44" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5168,16 +5168,16 @@
       <c r="E45" t="s">
         <v>188</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>189</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>190</v>
       </c>
       <c r="I45" t="s">
         <v>191</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5197,16 +5197,16 @@
       <c r="E46" t="s">
         <v>188</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>189</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>190</v>
       </c>
       <c r="I46" t="s">
         <v>191</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5226,17 +5226,17 @@
       <c r="E47" t="s">
         <v>208</v>
       </c>
-      <c r="F47" t="s">
-        <v>189</v>
-      </c>
       <c r="G47" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" t="s">
+        <v>191</v>
+      </c>
+      <c r="K47" t="s">
         <v>209</v>
-      </c>
-      <c r="I47" t="s">
-        <v>198</v>
-      </c>
-      <c r="J47" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5255,16 +5255,16 @@
       <c r="E48" t="s">
         <v>188</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>189</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>190</v>
       </c>
       <c r="I48" t="s">
         <v>191</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5284,16 +5284,16 @@
       <c r="E49" t="s">
         <v>188</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>189</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>190</v>
       </c>
       <c r="I49" t="s">
         <v>191</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5313,17 +5313,17 @@
       <c r="E50" t="s">
         <v>208</v>
       </c>
-      <c r="F50" t="s">
-        <v>189</v>
-      </c>
       <c r="G50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" t="s">
         <v>209</v>
-      </c>
-      <c r="I50" t="s">
-        <v>198</v>
-      </c>
-      <c r="J50" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5342,16 +5342,16 @@
       <c r="E51" t="s">
         <v>188</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>189</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>190</v>
       </c>
       <c r="I51" t="s">
         <v>191</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5371,17 +5371,17 @@
       <c r="E52" t="s">
         <v>225</v>
       </c>
-      <c r="F52" t="s">
-        <v>189</v>
-      </c>
       <c r="G52" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" t="s">
         <v>226</v>
-      </c>
-      <c r="I52" t="s">
-        <v>198</v>
-      </c>
-      <c r="J52" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5400,17 +5400,17 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
-      <c r="F53" t="s">
-        <v>189</v>
-      </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
       <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5468,7 +5468,7 @@
         <v>234</v>
       </c>
       <c r="G55" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H55" t="s">
         <v>236</v>
@@ -5480,7 +5480,7 @@
         <v>238</v>
       </c>
       <c r="K55" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5503,7 +5503,7 @@
         <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H56" t="s">
         <v>236</v>
@@ -5515,7 +5515,7 @@
         <v>238</v>
       </c>
       <c r="K56" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5544,13 +5544,13 @@
         <v>236</v>
       </c>
       <c r="I57" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J57" t="s">
         <v>238</v>
       </c>
       <c r="K57" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5573,7 +5573,7 @@
         <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
         <v>236</v>
@@ -5585,7 +5585,7 @@
         <v>238</v>
       </c>
       <c r="K58" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5608,7 +5608,7 @@
         <v>234</v>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
         <v>236</v>
@@ -5620,7 +5620,7 @@
         <v>238</v>
       </c>
       <c r="K59" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5643,7 +5643,7 @@
         <v>234</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H60" t="s">
         <v>236</v>
@@ -5655,7 +5655,7 @@
         <v>238</v>
       </c>
       <c r="K60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5678,7 +5678,7 @@
         <v>234</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H61" t="s">
         <v>236</v>
@@ -5690,7 +5690,7 @@
         <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5713,7 +5713,7 @@
         <v>234</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
         <v>236</v>
@@ -5725,7 +5725,7 @@
         <v>238</v>
       </c>
       <c r="K62" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5748,7 +5748,7 @@
         <v>234</v>
       </c>
       <c r="G63" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H63" t="s">
         <v>236</v>
@@ -5760,7 +5760,7 @@
         <v>238</v>
       </c>
       <c r="K63" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5783,7 +5783,7 @@
         <v>234</v>
       </c>
       <c r="G64" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H64" t="s">
         <v>236</v>
@@ -5795,7 +5795,7 @@
         <v>238</v>
       </c>
       <c r="K64" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5818,7 +5818,7 @@
         <v>234</v>
       </c>
       <c r="G65" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="H65" t="s">
         <v>236</v>
@@ -5830,7 +5830,7 @@
         <v>238</v>
       </c>
       <c r="K65" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5888,7 +5888,7 @@
         <v>234</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
         <v>236</v>
@@ -5900,7 +5900,7 @@
         <v>238</v>
       </c>
       <c r="K67" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5993,7 +5993,7 @@
         <v>234</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H70" t="s">
         <v>236</v>
@@ -6005,7 +6005,7 @@
         <v>238</v>
       </c>
       <c r="K70" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6028,7 +6028,7 @@
         <v>234</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H71" t="s">
         <v>236</v>
@@ -6040,7 +6040,7 @@
         <v>238</v>
       </c>
       <c r="K71" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6098,19 +6098,19 @@
         <v>234</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="H73" t="s">
         <v>236</v>
       </c>
       <c r="I73" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J73" t="s">
         <v>238</v>
       </c>
       <c r="K73" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6133,19 +6133,19 @@
         <v>234</v>
       </c>
       <c r="G74" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="H74" t="s">
         <v>236</v>
       </c>
       <c r="I74" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J74" t="s">
         <v>238</v>
       </c>
       <c r="K74" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6168,19 +6168,19 @@
         <v>234</v>
       </c>
       <c r="G75" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="H75" t="s">
         <v>236</v>
       </c>
       <c r="I75" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J75" t="s">
         <v>238</v>
       </c>
       <c r="K75" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6203,19 +6203,19 @@
         <v>234</v>
       </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="H76" t="s">
         <v>236</v>
       </c>
       <c r="I76" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J76" t="s">
         <v>238</v>
       </c>
       <c r="K76" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6238,19 +6238,19 @@
         <v>234</v>
       </c>
       <c r="G77" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="H77" t="s">
         <v>236</v>
       </c>
       <c r="I77" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J77" t="s">
         <v>238</v>
       </c>
       <c r="K77" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6273,19 +6273,19 @@
         <v>234</v>
       </c>
       <c r="G78" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="H78" t="s">
         <v>236</v>
       </c>
       <c r="I78" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J78" t="s">
         <v>238</v>
       </c>
       <c r="K78" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6305,19 +6305,19 @@
         <v>234</v>
       </c>
       <c r="G79" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="H79" t="s">
         <v>236</v>
       </c>
       <c r="I79" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J79" t="s">
         <v>238</v>
       </c>
       <c r="K79" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6346,13 +6346,13 @@
         <v>236</v>
       </c>
       <c r="I80" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="J80" t="s">
         <v>238</v>
       </c>
       <c r="K80" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6381,13 +6381,13 @@
         <v>236</v>
       </c>
       <c r="I81" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="J81" t="s">
         <v>238</v>
       </c>
       <c r="K81" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6416,13 +6416,13 @@
         <v>236</v>
       </c>
       <c r="I82" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="J82" t="s">
         <v>238</v>
       </c>
       <c r="K82" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6480,7 +6480,7 @@
         <v>234</v>
       </c>
       <c r="G84" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="H84" t="s">
         <v>236</v>
@@ -6492,7 +6492,7 @@
         <v>238</v>
       </c>
       <c r="K84" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6515,7 +6515,7 @@
         <v>234</v>
       </c>
       <c r="G85" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H85" t="s">
         <v>236</v>
@@ -6527,7 +6527,7 @@
         <v>238</v>
       </c>
       <c r="K85" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6550,19 +6550,19 @@
         <v>234</v>
       </c>
       <c r="G86" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="H86" t="s">
         <v>236</v>
       </c>
       <c r="I86" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="J86" t="s">
         <v>238</v>
       </c>
       <c r="K86" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6585,7 +6585,7 @@
         <v>234</v>
       </c>
       <c r="G87" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H87" t="s">
         <v>236</v>
@@ -6597,7 +6597,7 @@
         <v>238</v>
       </c>
       <c r="K87" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6617,7 +6617,7 @@
         <v>234</v>
       </c>
       <c r="G88" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H88" t="s">
         <v>236</v>
@@ -6629,7 +6629,7 @@
         <v>238</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6652,7 +6652,7 @@
         <v>234</v>
       </c>
       <c r="G89" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H89" t="s">
         <v>236</v>
@@ -6664,7 +6664,7 @@
         <v>238</v>
       </c>
       <c r="K89" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6693,13 +6693,13 @@
         <v>236</v>
       </c>
       <c r="I90" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J90" t="s">
         <v>238</v>
       </c>
       <c r="K90" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6728,13 +6728,13 @@
         <v>236</v>
       </c>
       <c r="I91" t="s">
-        <v>379</v>
+        <v>237</v>
       </c>
       <c r="J91" t="s">
         <v>238</v>
       </c>
       <c r="K91" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6763,13 +6763,13 @@
         <v>236</v>
       </c>
       <c r="I92" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J92" t="s">
         <v>238</v>
       </c>
       <c r="K92" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -6792,7 +6792,7 @@
         <v>234</v>
       </c>
       <c r="G93" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H93" t="s">
         <v>236</v>
@@ -6804,7 +6804,7 @@
         <v>238</v>
       </c>
       <c r="K93" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -6833,13 +6833,13 @@
         <v>236</v>
       </c>
       <c r="I94" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J94" t="s">
         <v>238</v>
       </c>
       <c r="K94" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -6862,7 +6862,7 @@
         <v>234</v>
       </c>
       <c r="G95" t="s">
-        <v>393</v>
+        <v>235</v>
       </c>
       <c r="H95" t="s">
         <v>236</v>
@@ -6874,7 +6874,7 @@
         <v>238</v>
       </c>
       <c r="K95" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -6894,22 +6894,22 @@
         <v>253</v>
       </c>
       <c r="F96" t="s">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="G96" t="s">
         <v>254</v>
       </c>
       <c r="H96" t="s">
-        <v>397</v>
+        <v>236</v>
       </c>
       <c r="I96" t="s">
+        <v>237</v>
+      </c>
+      <c r="J96" t="s">
+        <v>398</v>
+      </c>
+      <c r="K96" t="s">
         <v>255</v>
-      </c>
-      <c r="J96" t="s">
-        <v>238</v>
-      </c>
-      <c r="K96" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6929,22 +6929,22 @@
         <v>253</v>
       </c>
       <c r="F97" t="s">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="G97" t="s">
         <v>254</v>
       </c>
       <c r="H97" t="s">
-        <v>397</v>
+        <v>236</v>
       </c>
       <c r="I97" t="s">
+        <v>237</v>
+      </c>
+      <c r="J97" t="s">
+        <v>398</v>
+      </c>
+      <c r="K97" t="s">
         <v>255</v>
-      </c>
-      <c r="J97" t="s">
-        <v>238</v>
-      </c>
-      <c r="K97" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6964,22 +6964,22 @@
         <v>405</v>
       </c>
       <c r="F98" t="s">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="G98" t="s">
         <v>406</v>
       </c>
       <c r="H98" t="s">
-        <v>397</v>
+        <v>236</v>
       </c>
       <c r="I98" t="s">
+        <v>237</v>
+      </c>
+      <c r="J98" t="s">
+        <v>398</v>
+      </c>
+      <c r="K98" t="s">
         <v>407</v>
-      </c>
-      <c r="J98" t="s">
-        <v>238</v>
-      </c>
-      <c r="K98" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6999,22 +6999,22 @@
         <v>253</v>
       </c>
       <c r="F99" t="s">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="G99" t="s">
         <v>254</v>
       </c>
       <c r="H99" t="s">
-        <v>397</v>
+        <v>236</v>
       </c>
       <c r="I99" t="s">
+        <v>237</v>
+      </c>
+      <c r="J99" t="s">
+        <v>398</v>
+      </c>
+      <c r="K99" t="s">
         <v>255</v>
-      </c>
-      <c r="J99" t="s">
-        <v>238</v>
-      </c>
-      <c r="K99" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7034,22 +7034,22 @@
         <v>319</v>
       </c>
       <c r="F100" t="s">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="G100" t="s">
+        <v>254</v>
+      </c>
+      <c r="H100" t="s">
+        <v>236</v>
+      </c>
+      <c r="I100" t="s">
+        <v>237</v>
+      </c>
+      <c r="J100" t="s">
+        <v>398</v>
+      </c>
+      <c r="K100" t="s">
         <v>320</v>
-      </c>
-      <c r="H100" t="s">
-        <v>397</v>
-      </c>
-      <c r="I100" t="s">
-        <v>255</v>
-      </c>
-      <c r="J100" t="s">
-        <v>238</v>
-      </c>
-      <c r="K100" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7069,22 +7069,22 @@
         <v>253</v>
       </c>
       <c r="F101" t="s">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="G101" t="s">
         <v>254</v>
       </c>
       <c r="H101" t="s">
-        <v>397</v>
+        <v>236</v>
       </c>
       <c r="I101" t="s">
+        <v>237</v>
+      </c>
+      <c r="J101" t="s">
+        <v>398</v>
+      </c>
+      <c r="K101" t="s">
         <v>255</v>
-      </c>
-      <c r="J101" t="s">
-        <v>238</v>
-      </c>
-      <c r="K101" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7103,16 +7103,16 @@
       <c r="E102" t="s">
         <v>420</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
+        <v>378</v>
+      </c>
+      <c r="H102" t="s">
         <v>421</v>
       </c>
-      <c r="G102" t="s">
+      <c r="I102" t="s">
         <v>422</v>
       </c>
-      <c r="I102" t="s">
-        <v>379</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7132,16 +7132,16 @@
       <c r="E103" t="s">
         <v>420</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
+        <v>378</v>
+      </c>
+      <c r="H103" t="s">
         <v>421</v>
       </c>
-      <c r="G103" t="s">
+      <c r="I103" t="s">
         <v>422</v>
       </c>
-      <c r="I103" t="s">
-        <v>379</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7161,16 +7161,16 @@
       <c r="E104" t="s">
         <v>420</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
+        <v>378</v>
+      </c>
+      <c r="H104" t="s">
         <v>421</v>
       </c>
-      <c r="G104" t="s">
+      <c r="I104" t="s">
         <v>422</v>
       </c>
-      <c r="I104" t="s">
-        <v>379</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7190,17 +7190,17 @@
       <c r="E105" t="s">
         <v>433</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
+        <v>378</v>
+      </c>
+      <c r="H105" t="s">
         <v>421</v>
       </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
+        <v>422</v>
+      </c>
+      <c r="K105" t="s">
         <v>434</v>
-      </c>
-      <c r="I105" t="s">
-        <v>379</v>
-      </c>
-      <c r="J105" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7219,16 +7219,16 @@
       <c r="E106" t="s">
         <v>420</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
+        <v>378</v>
+      </c>
+      <c r="H106" t="s">
         <v>421</v>
       </c>
-      <c r="G106" t="s">
+      <c r="I106" t="s">
         <v>422</v>
       </c>
-      <c r="I106" t="s">
-        <v>379</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7248,17 +7248,17 @@
       <c r="E107" t="s">
         <v>377</v>
       </c>
-      <c r="F107" t="s">
-        <v>421</v>
-      </c>
       <c r="G107" t="s">
         <v>378</v>
       </c>
+      <c r="H107" t="s">
+        <v>421</v>
+      </c>
       <c r="I107" t="s">
+        <v>422</v>
+      </c>
+      <c r="K107" t="s">
         <v>379</v>
-      </c>
-      <c r="J107" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7277,17 +7277,17 @@
       <c r="E108" t="s">
         <v>444</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
+        <v>378</v>
+      </c>
+      <c r="H108" t="s">
         <v>421</v>
       </c>
-      <c r="G108" t="s">
+      <c r="I108" t="s">
+        <v>422</v>
+      </c>
+      <c r="K108" t="s">
         <v>445</v>
-      </c>
-      <c r="I108" t="s">
-        <v>379</v>
-      </c>
-      <c r="J108" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7306,17 +7306,17 @@
       <c r="E109" t="s">
         <v>449</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
+        <v>189</v>
+      </c>
+      <c r="H109" t="s">
         <v>421</v>
       </c>
-      <c r="G109" t="s">
+      <c r="I109" t="s">
+        <v>422</v>
+      </c>
+      <c r="K109" t="s">
         <v>450</v>
-      </c>
-      <c r="I109" t="s">
-        <v>191</v>
-      </c>
-      <c r="J109" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7335,17 +7335,17 @@
       <c r="E110" t="s">
         <v>454</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
+        <v>189</v>
+      </c>
+      <c r="H110" t="s">
         <v>421</v>
       </c>
-      <c r="G110" t="s">
+      <c r="I110" t="s">
+        <v>422</v>
+      </c>
+      <c r="K110" t="s">
         <v>455</v>
-      </c>
-      <c r="I110" t="s">
-        <v>191</v>
-      </c>
-      <c r="J110" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7364,16 +7364,16 @@
       <c r="E111" t="s">
         <v>420</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
+        <v>378</v>
+      </c>
+      <c r="H111" t="s">
         <v>421</v>
       </c>
-      <c r="G111" t="s">
+      <c r="I111" t="s">
         <v>422</v>
       </c>
-      <c r="I111" t="s">
-        <v>379</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7393,20 +7393,20 @@
       <c r="E112" t="s">
         <v>462</v>
       </c>
-      <c r="F112" t="s">
-        <v>421</v>
-      </c>
       <c r="G112" t="s">
         <v>463</v>
       </c>
+      <c r="H112" t="s">
+        <v>421</v>
+      </c>
       <c r="I112" t="s">
+        <v>422</v>
+      </c>
+      <c r="K112" t="s">
         <v>464</v>
       </c>
-      <c r="J112" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>465</v>
       </c>
@@ -7422,20 +7422,20 @@
       <c r="E113" t="s">
         <v>296</v>
       </c>
-      <c r="F113" t="s">
-        <v>421</v>
-      </c>
       <c r="G113" t="s">
         <v>235</v>
       </c>
+      <c r="H113" t="s">
+        <v>421</v>
+      </c>
       <c r="I113" t="s">
-        <v>237</v>
-      </c>
-      <c r="J113" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>422</v>
+      </c>
+      <c r="K113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>468</v>
       </c>
@@ -7451,20 +7451,20 @@
       <c r="E114" t="s">
         <v>314</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
+        <v>254</v>
+      </c>
+      <c r="H114" t="s">
         <v>421</v>
       </c>
-      <c r="G114" t="s">
+      <c r="I114" t="s">
+        <v>422</v>
+      </c>
+      <c r="K114" t="s">
         <v>315</v>
       </c>
-      <c r="I114" t="s">
-        <v>255</v>
-      </c>
-      <c r="J114" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>471</v>
       </c>
@@ -7480,20 +7480,20 @@
       <c r="E115" t="s">
         <v>377</v>
       </c>
-      <c r="F115" t="s">
-        <v>421</v>
-      </c>
       <c r="G115" t="s">
         <v>378</v>
       </c>
+      <c r="H115" t="s">
+        <v>421</v>
+      </c>
       <c r="I115" t="s">
+        <v>422</v>
+      </c>
+      <c r="K115" t="s">
         <v>379</v>
       </c>
-      <c r="J115" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>474</v>
       </c>
@@ -7506,20 +7506,20 @@
       <c r="E116" t="s">
         <v>476</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
+        <v>463</v>
+      </c>
+      <c r="H116" t="s">
         <v>421</v>
       </c>
-      <c r="G116" t="s">
+      <c r="I116" t="s">
+        <v>422</v>
+      </c>
+      <c r="K116" t="s">
         <v>477</v>
       </c>
-      <c r="I116" t="s">
-        <v>464</v>
-      </c>
-      <c r="J116" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>478</v>
       </c>
@@ -7532,20 +7532,20 @@
       <c r="E117" t="s">
         <v>462</v>
       </c>
-      <c r="F117" t="s">
-        <v>421</v>
-      </c>
       <c r="G117" t="s">
         <v>463</v>
       </c>
+      <c r="H117" t="s">
+        <v>421</v>
+      </c>
       <c r="I117" t="s">
+        <v>422</v>
+      </c>
+      <c r="K117" t="s">
         <v>464</v>
       </c>
-      <c r="J117" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>480</v>
       </c>
@@ -7561,20 +7561,20 @@
       <c r="E118" t="s">
         <v>483</v>
       </c>
-      <c r="F118" t="s">
-        <v>421</v>
-      </c>
       <c r="G118" t="s">
         <v>338</v>
       </c>
+      <c r="H118" t="s">
+        <v>421</v>
+      </c>
       <c r="I118" t="s">
+        <v>422</v>
+      </c>
+      <c r="K118" t="s">
         <v>339</v>
       </c>
-      <c r="J118" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>484</v>
       </c>
@@ -7590,20 +7590,20 @@
       <c r="E119" t="s">
         <v>377</v>
       </c>
-      <c r="F119" t="s">
-        <v>421</v>
-      </c>
       <c r="G119" t="s">
         <v>378</v>
       </c>
+      <c r="H119" t="s">
+        <v>421</v>
+      </c>
       <c r="I119" t="s">
+        <v>422</v>
+      </c>
+      <c r="K119" t="s">
         <v>379</v>
       </c>
-      <c r="J119" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>487</v>
       </c>
@@ -7619,20 +7619,20 @@
       <c r="E120" t="s">
         <v>352</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
+        <v>235</v>
+      </c>
+      <c r="H120" t="s">
         <v>490</v>
       </c>
-      <c r="G120" t="s">
+      <c r="I120" t="s">
+        <v>491</v>
+      </c>
+      <c r="K120" t="s">
         <v>353</v>
       </c>
-      <c r="I120" t="s">
-        <v>237</v>
-      </c>
-      <c r="J120" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>492</v>
       </c>
@@ -7648,20 +7648,20 @@
       <c r="E121" t="s">
         <v>296</v>
       </c>
-      <c r="F121" t="s">
-        <v>490</v>
-      </c>
       <c r="G121" t="s">
         <v>235</v>
       </c>
+      <c r="H121" t="s">
+        <v>490</v>
+      </c>
       <c r="I121" t="s">
-        <v>237</v>
-      </c>
-      <c r="J121" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>495</v>
       </c>
@@ -7677,20 +7677,20 @@
       <c r="E122" t="s">
         <v>352</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" t="s">
         <v>490</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I122" t="s">
+        <v>491</v>
+      </c>
+      <c r="K122" t="s">
         <v>353</v>
       </c>
-      <c r="I122" t="s">
-        <v>237</v>
-      </c>
-      <c r="J122" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>498</v>
       </c>
@@ -7706,20 +7706,20 @@
       <c r="E123" t="s">
         <v>352</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
+        <v>235</v>
+      </c>
+      <c r="H123" t="s">
         <v>490</v>
       </c>
-      <c r="G123" t="s">
+      <c r="I123" t="s">
+        <v>491</v>
+      </c>
+      <c r="K123" t="s">
         <v>353</v>
       </c>
-      <c r="I123" t="s">
-        <v>237</v>
-      </c>
-      <c r="J123" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>501</v>
       </c>
@@ -7735,20 +7735,20 @@
       <c r="E124" t="s">
         <v>504</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
+        <v>338</v>
+      </c>
+      <c r="H124" t="s">
         <v>490</v>
       </c>
-      <c r="G124" t="s">
+      <c r="I124" t="s">
+        <v>491</v>
+      </c>
+      <c r="K124" t="s">
         <v>505</v>
       </c>
-      <c r="I124" t="s">
-        <v>339</v>
-      </c>
-      <c r="J124" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>506</v>
       </c>
@@ -7764,20 +7764,20 @@
       <c r="E125" t="s">
         <v>504</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
+        <v>338</v>
+      </c>
+      <c r="H125" t="s">
         <v>490</v>
       </c>
-      <c r="G125" t="s">
+      <c r="I125" t="s">
+        <v>491</v>
+      </c>
+      <c r="K125" t="s">
         <v>505</v>
       </c>
-      <c r="I125" t="s">
-        <v>339</v>
-      </c>
-      <c r="J125" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>509</v>
       </c>
@@ -7793,20 +7793,20 @@
       <c r="E126" t="s">
         <v>504</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
+        <v>338</v>
+      </c>
+      <c r="H126" t="s">
         <v>490</v>
       </c>
-      <c r="G126" t="s">
+      <c r="I126" t="s">
+        <v>491</v>
+      </c>
+      <c r="K126" t="s">
         <v>505</v>
       </c>
-      <c r="I126" t="s">
-        <v>339</v>
-      </c>
-      <c r="J126" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>512</v>
       </c>
@@ -7822,20 +7822,20 @@
       <c r="E127" t="s">
         <v>504</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
+        <v>338</v>
+      </c>
+      <c r="H127" t="s">
         <v>490</v>
       </c>
-      <c r="G127" t="s">
+      <c r="I127" t="s">
+        <v>491</v>
+      </c>
+      <c r="K127" t="s">
         <v>505</v>
       </c>
-      <c r="I127" t="s">
-        <v>339</v>
-      </c>
-      <c r="J127" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>515</v>
       </c>
@@ -7851,17 +7851,17 @@
       <c r="E128" t="s">
         <v>504</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
+        <v>338</v>
+      </c>
+      <c r="H128" t="s">
         <v>490</v>
       </c>
-      <c r="G128" t="s">
+      <c r="I128" t="s">
+        <v>491</v>
+      </c>
+      <c r="K128" t="s">
         <v>505</v>
-      </c>
-      <c r="I128" t="s">
-        <v>339</v>
-      </c>
-      <c r="J128" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -7880,17 +7880,17 @@
       <c r="E129" t="s">
         <v>521</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
+        <v>338</v>
+      </c>
+      <c r="H129" t="s">
         <v>490</v>
       </c>
-      <c r="G129" t="s">
+      <c r="I129" t="s">
+        <v>491</v>
+      </c>
+      <c r="K129" t="s">
         <v>505</v>
-      </c>
-      <c r="I129" t="s">
-        <v>339</v>
-      </c>
-      <c r="J129" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7909,17 +7909,17 @@
       <c r="E130" t="s">
         <v>525</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
+        <v>338</v>
+      </c>
+      <c r="H130" t="s">
         <v>490</v>
       </c>
-      <c r="G130" t="s">
+      <c r="I130" t="s">
+        <v>491</v>
+      </c>
+      <c r="K130" t="s">
         <v>505</v>
-      </c>
-      <c r="I130" t="s">
-        <v>339</v>
-      </c>
-      <c r="J130" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7938,17 +7938,17 @@
       <c r="E131" t="s">
         <v>529</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
+        <v>338</v>
+      </c>
+      <c r="H131" t="s">
         <v>490</v>
       </c>
-      <c r="G131" t="s">
+      <c r="I131" t="s">
+        <v>491</v>
+      </c>
+      <c r="K131" t="s">
         <v>505</v>
-      </c>
-      <c r="I131" t="s">
-        <v>339</v>
-      </c>
-      <c r="J131" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7967,17 +7967,17 @@
       <c r="E132" t="s">
         <v>533</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
+        <v>338</v>
+      </c>
+      <c r="H132" t="s">
         <v>490</v>
       </c>
-      <c r="G132" t="s">
+      <c r="I132" t="s">
+        <v>491</v>
+      </c>
+      <c r="K132" t="s">
         <v>534</v>
-      </c>
-      <c r="I132" t="s">
-        <v>339</v>
-      </c>
-      <c r="J132" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7993,17 +7993,17 @@
       <c r="E133" t="s">
         <v>392</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
+        <v>235</v>
+      </c>
+      <c r="H133" t="s">
         <v>490</v>
       </c>
-      <c r="G133" t="s">
+      <c r="I133" t="s">
+        <v>491</v>
+      </c>
+      <c r="K133" t="s">
         <v>393</v>
-      </c>
-      <c r="I133" t="s">
-        <v>237</v>
-      </c>
-      <c r="J133" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8022,17 +8022,17 @@
       <c r="E134" t="s">
         <v>361</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
+        <v>338</v>
+      </c>
+      <c r="H134" t="s">
         <v>540</v>
       </c>
-      <c r="G134" t="s">
+      <c r="I134" t="s">
+        <v>541</v>
+      </c>
+      <c r="K134" t="s">
         <v>362</v>
-      </c>
-      <c r="I134" t="s">
-        <v>339</v>
-      </c>
-      <c r="J134" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8048,17 +8048,17 @@
       <c r="E135" t="s">
         <v>361</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
+        <v>338</v>
+      </c>
+      <c r="H135" t="s">
         <v>540</v>
       </c>
-      <c r="G135" t="s">
+      <c r="I135" t="s">
+        <v>541</v>
+      </c>
+      <c r="K135" t="s">
         <v>362</v>
-      </c>
-      <c r="I135" t="s">
-        <v>339</v>
-      </c>
-      <c r="J135" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8077,17 +8077,17 @@
       <c r="E136" t="s">
         <v>361</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
+        <v>338</v>
+      </c>
+      <c r="H136" t="s">
         <v>540</v>
       </c>
-      <c r="G136" t="s">
+      <c r="I136" t="s">
+        <v>541</v>
+      </c>
+      <c r="K136" t="s">
         <v>362</v>
-      </c>
-      <c r="I136" t="s">
-        <v>339</v>
-      </c>
-      <c r="J136" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8106,17 +8106,17 @@
       <c r="E137" t="s">
         <v>361</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
+        <v>338</v>
+      </c>
+      <c r="H137" t="s">
         <v>540</v>
       </c>
-      <c r="G137" t="s">
+      <c r="I137" t="s">
+        <v>541</v>
+      </c>
+      <c r="K137" t="s">
         <v>362</v>
-      </c>
-      <c r="I137" t="s">
-        <v>339</v>
-      </c>
-      <c r="J137" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8135,17 +8135,17 @@
       <c r="E138" t="s">
         <v>361</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
+        <v>338</v>
+      </c>
+      <c r="H138" t="s">
         <v>540</v>
       </c>
-      <c r="G138" t="s">
+      <c r="I138" t="s">
+        <v>541</v>
+      </c>
+      <c r="K138" t="s">
         <v>362</v>
-      </c>
-      <c r="I138" t="s">
-        <v>339</v>
-      </c>
-      <c r="J138" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8164,17 +8164,17 @@
       <c r="E139" t="s">
         <v>556</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
+        <v>463</v>
+      </c>
+      <c r="H139" t="s">
         <v>540</v>
       </c>
-      <c r="G139" t="s">
+      <c r="I139" t="s">
+        <v>541</v>
+      </c>
+      <c r="K139" t="s">
         <v>557</v>
-      </c>
-      <c r="I139" t="s">
-        <v>464</v>
-      </c>
-      <c r="J139" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8193,17 +8193,17 @@
       <c r="E140" t="s">
         <v>361</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
+        <v>338</v>
+      </c>
+      <c r="H140" t="s">
         <v>540</v>
       </c>
-      <c r="G140" t="s">
+      <c r="I140" t="s">
+        <v>541</v>
+      </c>
+      <c r="K140" t="s">
         <v>362</v>
-      </c>
-      <c r="I140" t="s">
-        <v>339</v>
-      </c>
-      <c r="J140" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8226,13 +8226,13 @@
         <v>565</v>
       </c>
       <c r="G141" t="s">
+        <v>338</v>
+      </c>
+      <c r="H141" t="s">
         <v>566</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>567</v>
-      </c>
-      <c r="I141" t="s">
-        <v>339</v>
       </c>
       <c r="J141" t="s">
         <v>568</v>
@@ -8258,13 +8258,13 @@
         <v>565</v>
       </c>
       <c r="G142" t="s">
+        <v>338</v>
+      </c>
+      <c r="H142" t="s">
         <v>566</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>567</v>
-      </c>
-      <c r="I142" t="s">
-        <v>339</v>
       </c>
       <c r="J142" t="s">
         <v>568</v>
@@ -8293,19 +8293,19 @@
         <v>565</v>
       </c>
       <c r="G143" t="s">
-        <v>576</v>
+        <v>338</v>
       </c>
       <c r="H143" t="s">
+        <v>566</v>
+      </c>
+      <c r="I143" t="s">
         <v>567</v>
-      </c>
-      <c r="I143" t="s">
-        <v>339</v>
       </c>
       <c r="J143" t="s">
         <v>568</v>
       </c>
       <c r="K143" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -8328,19 +8328,19 @@
         <v>565</v>
       </c>
       <c r="G144" t="s">
-        <v>576</v>
+        <v>338</v>
       </c>
       <c r="H144" t="s">
+        <v>566</v>
+      </c>
+      <c r="I144" t="s">
         <v>567</v>
-      </c>
-      <c r="I144" t="s">
-        <v>339</v>
       </c>
       <c r="J144" t="s">
         <v>568</v>
       </c>
       <c r="K144" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8363,19 +8363,19 @@
         <v>565</v>
       </c>
       <c r="G145" t="s">
-        <v>576</v>
+        <v>338</v>
       </c>
       <c r="H145" t="s">
+        <v>566</v>
+      </c>
+      <c r="I145" t="s">
         <v>567</v>
-      </c>
-      <c r="I145" t="s">
-        <v>339</v>
       </c>
       <c r="J145" t="s">
         <v>568</v>
       </c>
       <c r="K145" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -8398,13 +8398,13 @@
         <v>565</v>
       </c>
       <c r="G146" t="s">
+        <v>338</v>
+      </c>
+      <c r="H146" t="s">
         <v>566</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>567</v>
-      </c>
-      <c r="I146" t="s">
-        <v>339</v>
       </c>
       <c r="J146" t="s">
         <v>568</v>
@@ -8430,22 +8430,22 @@
         <v>564</v>
       </c>
       <c r="F147" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G147" t="s">
+        <v>338</v>
+      </c>
+      <c r="H147" t="s">
         <v>566</v>
       </c>
-      <c r="H147" t="s">
-        <v>589</v>
-      </c>
       <c r="I147" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J147" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K147" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -8465,22 +8465,22 @@
         <v>564</v>
       </c>
       <c r="F148" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G148" t="s">
+        <v>338</v>
+      </c>
+      <c r="H148" t="s">
         <v>566</v>
       </c>
-      <c r="H148" t="s">
-        <v>589</v>
-      </c>
       <c r="I148" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J148" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K148" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -8500,22 +8500,22 @@
         <v>564</v>
       </c>
       <c r="F149" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G149" t="s">
+        <v>338</v>
+      </c>
+      <c r="H149" t="s">
         <v>566</v>
       </c>
-      <c r="H149" t="s">
-        <v>589</v>
-      </c>
       <c r="I149" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J149" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K149" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -8535,22 +8535,22 @@
         <v>564</v>
       </c>
       <c r="F150" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G150" t="s">
+        <v>338</v>
+      </c>
+      <c r="H150" t="s">
         <v>566</v>
       </c>
-      <c r="H150" t="s">
-        <v>589</v>
-      </c>
       <c r="I150" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J150" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K150" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -8570,22 +8570,22 @@
         <v>564</v>
       </c>
       <c r="F151" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G151" t="s">
+        <v>338</v>
+      </c>
+      <c r="H151" t="s">
         <v>566</v>
       </c>
-      <c r="H151" t="s">
-        <v>589</v>
-      </c>
       <c r="I151" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J151" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K151" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -8605,22 +8605,22 @@
         <v>564</v>
       </c>
       <c r="F152" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G152" t="s">
+        <v>338</v>
+      </c>
+      <c r="H152" t="s">
         <v>566</v>
       </c>
-      <c r="H152" t="s">
-        <v>589</v>
-      </c>
       <c r="I152" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J152" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K152" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -8640,22 +8640,22 @@
         <v>564</v>
       </c>
       <c r="F153" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G153" t="s">
+        <v>338</v>
+      </c>
+      <c r="H153" t="s">
         <v>566</v>
       </c>
-      <c r="H153" t="s">
-        <v>589</v>
-      </c>
       <c r="I153" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J153" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K153" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -8675,22 +8675,22 @@
         <v>564</v>
       </c>
       <c r="F154" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G154" t="s">
+        <v>338</v>
+      </c>
+      <c r="H154" t="s">
         <v>566</v>
       </c>
-      <c r="H154" t="s">
-        <v>589</v>
-      </c>
       <c r="I154" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J154" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K154" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -8710,22 +8710,22 @@
         <v>564</v>
       </c>
       <c r="F155" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G155" t="s">
+        <v>338</v>
+      </c>
+      <c r="H155" t="s">
         <v>566</v>
       </c>
-      <c r="H155" t="s">
-        <v>589</v>
-      </c>
       <c r="I155" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J155" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K155" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -8745,22 +8745,22 @@
         <v>564</v>
       </c>
       <c r="F156" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="G156" t="s">
+        <v>338</v>
+      </c>
+      <c r="H156" t="s">
         <v>566</v>
       </c>
-      <c r="H156" t="s">
-        <v>618</v>
-      </c>
       <c r="I156" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J156" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="K156" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -8780,22 +8780,22 @@
         <v>623</v>
       </c>
       <c r="F157" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="G157" t="s">
+        <v>338</v>
+      </c>
+      <c r="H157" t="s">
         <v>566</v>
       </c>
-      <c r="H157" t="s">
-        <v>618</v>
-      </c>
       <c r="I157" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J157" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="K157" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -8815,22 +8815,22 @@
         <v>564</v>
       </c>
       <c r="F158" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="G158" t="s">
+        <v>338</v>
+      </c>
+      <c r="H158" t="s">
         <v>566</v>
       </c>
-      <c r="H158" t="s">
-        <v>618</v>
-      </c>
       <c r="I158" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J158" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="K158" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -8850,22 +8850,22 @@
         <v>564</v>
       </c>
       <c r="F159" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="G159" t="s">
+        <v>338</v>
+      </c>
+      <c r="H159" t="s">
         <v>566</v>
       </c>
-      <c r="H159" t="s">
-        <v>618</v>
-      </c>
       <c r="I159" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J159" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="K159" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -8885,22 +8885,22 @@
         <v>564</v>
       </c>
       <c r="F160" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="G160" t="s">
+        <v>338</v>
+      </c>
+      <c r="H160" t="s">
         <v>566</v>
       </c>
-      <c r="H160" t="s">
-        <v>618</v>
-      </c>
       <c r="I160" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J160" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="K160" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -8920,22 +8920,22 @@
         <v>564</v>
       </c>
       <c r="F161" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="G161" t="s">
+        <v>338</v>
+      </c>
+      <c r="H161" t="s">
         <v>566</v>
       </c>
-      <c r="H161" t="s">
-        <v>618</v>
-      </c>
       <c r="I161" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J161" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="K161" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -8955,22 +8955,22 @@
         <v>564</v>
       </c>
       <c r="F162" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="G162" t="s">
+        <v>338</v>
+      </c>
+      <c r="H162" t="s">
         <v>566</v>
       </c>
-      <c r="H162" t="s">
-        <v>639</v>
-      </c>
       <c r="I162" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J162" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="K162" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -8990,22 +8990,22 @@
         <v>644</v>
       </c>
       <c r="F163" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="G163" t="s">
+        <v>338</v>
+      </c>
+      <c r="H163" t="s">
         <v>566</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
+        <v>567</v>
+      </c>
+      <c r="J163" t="s">
         <v>642</v>
       </c>
-      <c r="I163" t="s">
-        <v>339</v>
-      </c>
-      <c r="J163" t="s">
-        <v>568</v>
-      </c>
       <c r="K163" t="s">
-        <v>645</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -9025,22 +9025,22 @@
         <v>564</v>
       </c>
       <c r="F164" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="G164" t="s">
+        <v>338</v>
+      </c>
+      <c r="H164" t="s">
         <v>566</v>
       </c>
-      <c r="H164" t="s">
-        <v>649</v>
-      </c>
       <c r="I164" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J164" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K164" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -9060,22 +9060,22 @@
         <v>564</v>
       </c>
       <c r="F165" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="G165" t="s">
+        <v>338</v>
+      </c>
+      <c r="H165" t="s">
         <v>566</v>
       </c>
-      <c r="H165" t="s">
-        <v>649</v>
-      </c>
       <c r="I165" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J165" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K165" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -9095,22 +9095,22 @@
         <v>564</v>
       </c>
       <c r="F166" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="G166" t="s">
+        <v>338</v>
+      </c>
+      <c r="H166" t="s">
         <v>566</v>
       </c>
-      <c r="H166" t="s">
-        <v>649</v>
-      </c>
       <c r="I166" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J166" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K166" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -9130,22 +9130,22 @@
         <v>564</v>
       </c>
       <c r="F167" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="G167" t="s">
+        <v>338</v>
+      </c>
+      <c r="H167" t="s">
         <v>566</v>
       </c>
-      <c r="H167" t="s">
-        <v>649</v>
-      </c>
       <c r="I167" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J167" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K167" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -9165,22 +9165,22 @@
         <v>663</v>
       </c>
       <c r="F168" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="G168" t="s">
+        <v>338</v>
+      </c>
+      <c r="H168" t="s">
         <v>566</v>
       </c>
-      <c r="H168" t="s">
-        <v>649</v>
-      </c>
       <c r="I168" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J168" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K168" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -9197,22 +9197,22 @@
         <v>663</v>
       </c>
       <c r="F169" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="G169" t="s">
+        <v>338</v>
+      </c>
+      <c r="H169" t="s">
         <v>566</v>
       </c>
-      <c r="H169" t="s">
-        <v>649</v>
-      </c>
       <c r="I169" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J169" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K169" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -9232,22 +9232,22 @@
         <v>564</v>
       </c>
       <c r="F170" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="G170" t="s">
+        <v>338</v>
+      </c>
+      <c r="H170" t="s">
         <v>566</v>
       </c>
-      <c r="H170" t="s">
-        <v>649</v>
-      </c>
       <c r="I170" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="J170" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K170" t="s">
-        <v>650</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -9266,17 +9266,17 @@
       <c r="E171" t="s">
         <v>337</v>
       </c>
-      <c r="F171" t="s">
-        <v>672</v>
-      </c>
       <c r="G171" t="s">
         <v>338</v>
       </c>
+      <c r="H171" t="s">
+        <v>672</v>
+      </c>
       <c r="I171" t="s">
+        <v>673</v>
+      </c>
+      <c r="K171" t="s">
         <v>339</v>
-      </c>
-      <c r="J171" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9295,17 +9295,17 @@
       <c r="E172" t="s">
         <v>243</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
+        <v>235</v>
+      </c>
+      <c r="H172" t="s">
         <v>672</v>
       </c>
-      <c r="G172" t="s">
+      <c r="I172" t="s">
+        <v>673</v>
+      </c>
+      <c r="K172" t="s">
         <v>244</v>
-      </c>
-      <c r="I172" t="s">
-        <v>237</v>
-      </c>
-      <c r="J172" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9324,17 +9324,17 @@
       <c r="E173" t="s">
         <v>337</v>
       </c>
-      <c r="F173" t="s">
-        <v>672</v>
-      </c>
       <c r="G173" t="s">
         <v>338</v>
       </c>
+      <c r="H173" t="s">
+        <v>672</v>
+      </c>
       <c r="I173" t="s">
+        <v>673</v>
+      </c>
+      <c r="K173" t="s">
         <v>339</v>
-      </c>
-      <c r="J173" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9353,17 +9353,17 @@
       <c r="E174" t="s">
         <v>337</v>
       </c>
-      <c r="F174" t="s">
-        <v>672</v>
-      </c>
       <c r="G174" t="s">
         <v>338</v>
       </c>
+      <c r="H174" t="s">
+        <v>672</v>
+      </c>
       <c r="I174" t="s">
+        <v>673</v>
+      </c>
+      <c r="K174" t="s">
         <v>339</v>
-      </c>
-      <c r="J174" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9382,17 +9382,17 @@
       <c r="E175" t="s">
         <v>337</v>
       </c>
-      <c r="F175" t="s">
-        <v>672</v>
-      </c>
       <c r="G175" t="s">
         <v>338</v>
       </c>
+      <c r="H175" t="s">
+        <v>672</v>
+      </c>
       <c r="I175" t="s">
+        <v>673</v>
+      </c>
+      <c r="K175" t="s">
         <v>339</v>
-      </c>
-      <c r="J175" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9408,17 +9408,17 @@
       <c r="E176" t="s">
         <v>337</v>
       </c>
-      <c r="F176" t="s">
-        <v>672</v>
-      </c>
       <c r="G176" t="s">
         <v>338</v>
       </c>
+      <c r="H176" t="s">
+        <v>672</v>
+      </c>
       <c r="I176" t="s">
+        <v>673</v>
+      </c>
+      <c r="K176" t="s">
         <v>339</v>
-      </c>
-      <c r="J176" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9437,17 +9437,17 @@
       <c r="E177" t="s">
         <v>337</v>
       </c>
-      <c r="F177" t="s">
-        <v>691</v>
-      </c>
       <c r="G177" t="s">
         <v>338</v>
       </c>
+      <c r="H177" t="s">
+        <v>691</v>
+      </c>
       <c r="I177" t="s">
+        <v>692</v>
+      </c>
+      <c r="K177" t="s">
         <v>339</v>
-      </c>
-      <c r="J177" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9466,17 +9466,17 @@
       <c r="E178" t="s">
         <v>337</v>
       </c>
-      <c r="F178" t="s">
-        <v>691</v>
-      </c>
       <c r="G178" t="s">
         <v>338</v>
       </c>
+      <c r="H178" t="s">
+        <v>691</v>
+      </c>
       <c r="I178" t="s">
+        <v>692</v>
+      </c>
+      <c r="K178" t="s">
         <v>339</v>
-      </c>
-      <c r="J178" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -9495,17 +9495,17 @@
       <c r="E179" t="s">
         <v>337</v>
       </c>
-      <c r="F179" t="s">
-        <v>691</v>
-      </c>
       <c r="G179" t="s">
         <v>338</v>
       </c>
+      <c r="H179" t="s">
+        <v>691</v>
+      </c>
       <c r="I179" t="s">
+        <v>692</v>
+      </c>
+      <c r="K179" t="s">
         <v>339</v>
-      </c>
-      <c r="J179" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -9524,17 +9524,17 @@
       <c r="E180" t="s">
         <v>337</v>
       </c>
-      <c r="F180" t="s">
-        <v>691</v>
-      </c>
       <c r="G180" t="s">
         <v>338</v>
       </c>
+      <c r="H180" t="s">
+        <v>691</v>
+      </c>
       <c r="I180" t="s">
+        <v>692</v>
+      </c>
+      <c r="K180" t="s">
         <v>339</v>
-      </c>
-      <c r="J180" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -9557,13 +9557,13 @@
         <v>706</v>
       </c>
       <c r="G181" t="s">
+        <v>338</v>
+      </c>
+      <c r="H181" t="s">
         <v>707</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>708</v>
-      </c>
-      <c r="I181" t="s">
-        <v>339</v>
       </c>
       <c r="J181" t="s">
         <v>709</v>
@@ -9592,13 +9592,13 @@
         <v>706</v>
       </c>
       <c r="G182" t="s">
+        <v>338</v>
+      </c>
+      <c r="H182" t="s">
         <v>707</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>708</v>
-      </c>
-      <c r="I182" t="s">
-        <v>339</v>
       </c>
       <c r="J182" t="s">
         <v>709</v>
@@ -9627,13 +9627,13 @@
         <v>706</v>
       </c>
       <c r="G183" t="s">
+        <v>338</v>
+      </c>
+      <c r="H183" t="s">
         <v>707</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>708</v>
-      </c>
-      <c r="I183" t="s">
-        <v>339</v>
       </c>
       <c r="J183" t="s">
         <v>709</v>
@@ -9662,13 +9662,13 @@
         <v>706</v>
       </c>
       <c r="G184" t="s">
+        <v>338</v>
+      </c>
+      <c r="H184" t="s">
         <v>707</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>708</v>
-      </c>
-      <c r="I184" t="s">
-        <v>339</v>
       </c>
       <c r="J184" t="s">
         <v>709</v>
@@ -9697,13 +9697,13 @@
         <v>706</v>
       </c>
       <c r="G185" t="s">
+        <v>338</v>
+      </c>
+      <c r="H185" t="s">
         <v>707</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>708</v>
-      </c>
-      <c r="I185" t="s">
-        <v>339</v>
       </c>
       <c r="J185" t="s">
         <v>709</v>
@@ -9732,13 +9732,13 @@
         <v>706</v>
       </c>
       <c r="G186" t="s">
+        <v>338</v>
+      </c>
+      <c r="H186" t="s">
         <v>707</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>708</v>
-      </c>
-      <c r="I186" t="s">
-        <v>339</v>
       </c>
       <c r="J186" t="s">
         <v>709</v>
@@ -9767,13 +9767,13 @@
         <v>706</v>
       </c>
       <c r="G187" t="s">
+        <v>338</v>
+      </c>
+      <c r="H187" t="s">
         <v>707</v>
       </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>708</v>
-      </c>
-      <c r="I187" t="s">
-        <v>339</v>
       </c>
       <c r="J187" t="s">
         <v>709</v>
@@ -9802,13 +9802,13 @@
         <v>706</v>
       </c>
       <c r="G188" t="s">
+        <v>338</v>
+      </c>
+      <c r="H188" t="s">
         <v>707</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>708</v>
-      </c>
-      <c r="I188" t="s">
-        <v>339</v>
       </c>
       <c r="J188" t="s">
         <v>709</v>
@@ -9837,13 +9837,13 @@
         <v>706</v>
       </c>
       <c r="G189" t="s">
+        <v>338</v>
+      </c>
+      <c r="H189" t="s">
         <v>707</v>
       </c>
-      <c r="H189" t="s">
+      <c r="I189" t="s">
         <v>708</v>
-      </c>
-      <c r="I189" t="s">
-        <v>339</v>
       </c>
       <c r="J189" t="s">
         <v>709</v>
@@ -9872,13 +9872,13 @@
         <v>706</v>
       </c>
       <c r="G190" t="s">
+        <v>338</v>
+      </c>
+      <c r="H190" t="s">
         <v>707</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>708</v>
-      </c>
-      <c r="I190" t="s">
-        <v>339</v>
       </c>
       <c r="J190" t="s">
         <v>709</v>
@@ -9907,13 +9907,13 @@
         <v>706</v>
       </c>
       <c r="G191" t="s">
+        <v>338</v>
+      </c>
+      <c r="H191" t="s">
         <v>707</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>708</v>
-      </c>
-      <c r="I191" t="s">
-        <v>339</v>
       </c>
       <c r="J191" t="s">
         <v>709</v>
@@ -9939,13 +9939,13 @@
         <v>706</v>
       </c>
       <c r="G192" t="s">
+        <v>338</v>
+      </c>
+      <c r="H192" t="s">
         <v>707</v>
       </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>708</v>
-      </c>
-      <c r="I192" t="s">
-        <v>339</v>
       </c>
       <c r="J192" t="s">
         <v>709</v>
@@ -9974,19 +9974,19 @@
         <v>706</v>
       </c>
       <c r="G193" t="s">
-        <v>576</v>
+        <v>338</v>
       </c>
       <c r="H193" t="s">
+        <v>707</v>
+      </c>
+      <c r="I193" t="s">
         <v>708</v>
-      </c>
-      <c r="I193" t="s">
-        <v>339</v>
       </c>
       <c r="J193" t="s">
         <v>709</v>
       </c>
       <c r="K193" t="s">
-        <v>710</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -10009,13 +10009,13 @@
         <v>706</v>
       </c>
       <c r="G194" t="s">
+        <v>338</v>
+      </c>
+      <c r="H194" t="s">
         <v>707</v>
       </c>
-      <c r="H194" t="s">
+      <c r="I194" t="s">
         <v>708</v>
-      </c>
-      <c r="I194" t="s">
-        <v>339</v>
       </c>
       <c r="J194" t="s">
         <v>709</v>
@@ -10044,13 +10044,13 @@
         <v>706</v>
       </c>
       <c r="G195" t="s">
+        <v>338</v>
+      </c>
+      <c r="H195" t="s">
         <v>707</v>
       </c>
-      <c r="H195" t="s">
+      <c r="I195" t="s">
         <v>708</v>
-      </c>
-      <c r="I195" t="s">
-        <v>339</v>
       </c>
       <c r="J195" t="s">
         <v>709</v>
@@ -10079,13 +10079,13 @@
         <v>706</v>
       </c>
       <c r="G196" t="s">
+        <v>338</v>
+      </c>
+      <c r="H196" t="s">
         <v>707</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>708</v>
-      </c>
-      <c r="I196" t="s">
-        <v>339</v>
       </c>
       <c r="J196" t="s">
         <v>709</v>
@@ -10114,13 +10114,13 @@
         <v>706</v>
       </c>
       <c r="G197" t="s">
+        <v>338</v>
+      </c>
+      <c r="H197" t="s">
         <v>707</v>
       </c>
-      <c r="H197" t="s">
+      <c r="I197" t="s">
         <v>708</v>
-      </c>
-      <c r="I197" t="s">
-        <v>339</v>
       </c>
       <c r="J197" t="s">
         <v>709</v>
@@ -10149,13 +10149,13 @@
         <v>706</v>
       </c>
       <c r="G198" t="s">
+        <v>338</v>
+      </c>
+      <c r="H198" t="s">
         <v>707</v>
       </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
         <v>708</v>
-      </c>
-      <c r="I198" t="s">
-        <v>339</v>
       </c>
       <c r="J198" t="s">
         <v>709</v>
@@ -10181,22 +10181,22 @@
         <v>765</v>
       </c>
       <c r="F199" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="G199" t="s">
+        <v>338</v>
+      </c>
+      <c r="H199" t="s">
         <v>707</v>
       </c>
-      <c r="H199" t="s">
-        <v>766</v>
-      </c>
       <c r="I199" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J199" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="K199" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -10216,22 +10216,22 @@
         <v>765</v>
       </c>
       <c r="F200" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="G200" t="s">
+        <v>338</v>
+      </c>
+      <c r="H200" t="s">
         <v>707</v>
       </c>
-      <c r="H200" t="s">
-        <v>766</v>
-      </c>
       <c r="I200" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J200" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="K200" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -10251,22 +10251,22 @@
         <v>765</v>
       </c>
       <c r="F201" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="G201" t="s">
+        <v>338</v>
+      </c>
+      <c r="H201" t="s">
         <v>707</v>
       </c>
-      <c r="H201" t="s">
-        <v>766</v>
-      </c>
       <c r="I201" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J201" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="K201" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -10283,22 +10283,22 @@
         <v>765</v>
       </c>
       <c r="F202" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="G202" t="s">
+        <v>338</v>
+      </c>
+      <c r="H202" t="s">
         <v>707</v>
       </c>
-      <c r="H202" t="s">
-        <v>766</v>
-      </c>
       <c r="I202" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J202" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="K202" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -10318,22 +10318,22 @@
         <v>746</v>
       </c>
       <c r="F203" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="G203" t="s">
+        <v>338</v>
+      </c>
+      <c r="H203" t="s">
+        <v>707</v>
+      </c>
+      <c r="I203" t="s">
+        <v>708</v>
+      </c>
+      <c r="J203" t="s">
+        <v>767</v>
+      </c>
+      <c r="K203" t="s">
         <v>576</v>
-      </c>
-      <c r="H203" t="s">
-        <v>766</v>
-      </c>
-      <c r="I203" t="s">
-        <v>339</v>
-      </c>
-      <c r="J203" t="s">
-        <v>709</v>
-      </c>
-      <c r="K203" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10350,22 +10350,22 @@
         <v>765</v>
       </c>
       <c r="F204" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
       <c r="G204" t="s">
+        <v>338</v>
+      </c>
+      <c r="H204" t="s">
         <v>707</v>
       </c>
-      <c r="H204" t="s">
-        <v>766</v>
-      </c>
       <c r="I204" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J204" t="s">
-        <v>709</v>
+        <v>767</v>
       </c>
       <c r="K204" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -10385,22 +10385,22 @@
         <v>784</v>
       </c>
       <c r="F205" t="s">
-        <v>706</v>
+        <v>785</v>
       </c>
       <c r="G205" t="s">
+        <v>338</v>
+      </c>
+      <c r="H205" t="s">
         <v>707</v>
       </c>
-      <c r="H205" t="s">
-        <v>785</v>
-      </c>
       <c r="I205" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J205" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="K205" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -10420,22 +10420,22 @@
         <v>784</v>
       </c>
       <c r="F206" t="s">
-        <v>706</v>
+        <v>785</v>
       </c>
       <c r="G206" t="s">
+        <v>338</v>
+      </c>
+      <c r="H206" t="s">
         <v>707</v>
       </c>
-      <c r="H206" t="s">
-        <v>785</v>
-      </c>
       <c r="I206" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J206" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="K206" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -10452,22 +10452,22 @@
         <v>784</v>
       </c>
       <c r="F207" t="s">
-        <v>706</v>
+        <v>785</v>
       </c>
       <c r="G207" t="s">
+        <v>338</v>
+      </c>
+      <c r="H207" t="s">
         <v>707</v>
       </c>
-      <c r="H207" t="s">
-        <v>785</v>
-      </c>
       <c r="I207" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J207" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="K207" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -10487,22 +10487,22 @@
         <v>746</v>
       </c>
       <c r="F208" t="s">
-        <v>706</v>
+        <v>785</v>
       </c>
       <c r="G208" t="s">
+        <v>338</v>
+      </c>
+      <c r="H208" t="s">
+        <v>707</v>
+      </c>
+      <c r="I208" t="s">
+        <v>708</v>
+      </c>
+      <c r="J208" t="s">
+        <v>786</v>
+      </c>
+      <c r="K208" t="s">
         <v>576</v>
-      </c>
-      <c r="H208" t="s">
-        <v>785</v>
-      </c>
-      <c r="I208" t="s">
-        <v>339</v>
-      </c>
-      <c r="J208" t="s">
-        <v>709</v>
-      </c>
-      <c r="K208" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -10522,22 +10522,22 @@
         <v>784</v>
       </c>
       <c r="F209" t="s">
-        <v>706</v>
+        <v>785</v>
       </c>
       <c r="G209" t="s">
+        <v>338</v>
+      </c>
+      <c r="H209" t="s">
         <v>707</v>
       </c>
-      <c r="H209" t="s">
-        <v>785</v>
-      </c>
       <c r="I209" t="s">
-        <v>339</v>
+        <v>708</v>
       </c>
       <c r="J209" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="K209" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -10560,13 +10560,13 @@
         <v>802</v>
       </c>
       <c r="G210" t="s">
+        <v>338</v>
+      </c>
+      <c r="H210" t="s">
         <v>803</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>804</v>
-      </c>
-      <c r="I210" t="s">
-        <v>339</v>
       </c>
       <c r="J210" t="s">
         <v>805</v>
@@ -10592,13 +10592,13 @@
         <v>802</v>
       </c>
       <c r="G211" t="s">
+        <v>338</v>
+      </c>
+      <c r="H211" t="s">
         <v>803</v>
       </c>
-      <c r="H211" t="s">
+      <c r="I211" t="s">
         <v>804</v>
-      </c>
-      <c r="I211" t="s">
-        <v>339</v>
       </c>
       <c r="J211" t="s">
         <v>805</v>
@@ -10627,13 +10627,13 @@
         <v>802</v>
       </c>
       <c r="G212" t="s">
+        <v>338</v>
+      </c>
+      <c r="H212" t="s">
         <v>803</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>804</v>
-      </c>
-      <c r="I212" t="s">
-        <v>339</v>
       </c>
       <c r="J212" t="s">
         <v>805</v>
@@ -10659,13 +10659,13 @@
         <v>802</v>
       </c>
       <c r="G213" t="s">
+        <v>338</v>
+      </c>
+      <c r="H213" t="s">
         <v>803</v>
       </c>
-      <c r="H213" t="s">
+      <c r="I213" t="s">
         <v>804</v>
-      </c>
-      <c r="I213" t="s">
-        <v>339</v>
       </c>
       <c r="J213" t="s">
         <v>805</v>
@@ -10694,13 +10694,13 @@
         <v>802</v>
       </c>
       <c r="G214" t="s">
+        <v>338</v>
+      </c>
+      <c r="H214" t="s">
         <v>803</v>
       </c>
-      <c r="H214" t="s">
+      <c r="I214" t="s">
         <v>804</v>
-      </c>
-      <c r="I214" t="s">
-        <v>339</v>
       </c>
       <c r="J214" t="s">
         <v>805</v>
@@ -10729,19 +10729,19 @@
         <v>802</v>
       </c>
       <c r="G215" t="s">
-        <v>707</v>
+        <v>338</v>
       </c>
       <c r="H215" t="s">
+        <v>803</v>
+      </c>
+      <c r="I215" t="s">
         <v>804</v>
-      </c>
-      <c r="I215" t="s">
-        <v>339</v>
       </c>
       <c r="J215" t="s">
         <v>805</v>
       </c>
       <c r="K215" t="s">
-        <v>806</v>
+        <v>710</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -10764,13 +10764,13 @@
         <v>802</v>
       </c>
       <c r="G216" t="s">
+        <v>338</v>
+      </c>
+      <c r="H216" t="s">
         <v>803</v>
       </c>
-      <c r="H216" t="s">
+      <c r="I216" t="s">
         <v>804</v>
-      </c>
-      <c r="I216" t="s">
-        <v>339</v>
       </c>
       <c r="J216" t="s">
         <v>805</v>
@@ -10799,13 +10799,13 @@
         <v>802</v>
       </c>
       <c r="G217" t="s">
+        <v>338</v>
+      </c>
+      <c r="H217" t="s">
         <v>803</v>
       </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
         <v>804</v>
-      </c>
-      <c r="I217" t="s">
-        <v>339</v>
       </c>
       <c r="J217" t="s">
         <v>805</v>
@@ -10831,13 +10831,13 @@
         <v>802</v>
       </c>
       <c r="G218" t="s">
+        <v>338</v>
+      </c>
+      <c r="H218" t="s">
         <v>803</v>
       </c>
-      <c r="H218" t="s">
+      <c r="I218" t="s">
         <v>804</v>
-      </c>
-      <c r="I218" t="s">
-        <v>339</v>
       </c>
       <c r="J218" t="s">
         <v>805</v>
@@ -10863,13 +10863,13 @@
         <v>802</v>
       </c>
       <c r="G219" t="s">
+        <v>338</v>
+      </c>
+      <c r="H219" t="s">
         <v>803</v>
       </c>
-      <c r="H219" t="s">
+      <c r="I219" t="s">
         <v>804</v>
-      </c>
-      <c r="I219" t="s">
-        <v>339</v>
       </c>
       <c r="J219" t="s">
         <v>805</v>
@@ -10898,19 +10898,19 @@
         <v>802</v>
       </c>
       <c r="G220" t="s">
-        <v>566</v>
+        <v>338</v>
       </c>
       <c r="H220" t="s">
+        <v>803</v>
+      </c>
+      <c r="I220" t="s">
         <v>804</v>
-      </c>
-      <c r="I220" t="s">
-        <v>339</v>
       </c>
       <c r="J220" t="s">
         <v>805</v>
       </c>
       <c r="K220" t="s">
-        <v>806</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -10933,13 +10933,13 @@
         <v>802</v>
       </c>
       <c r="G221" t="s">
+        <v>338</v>
+      </c>
+      <c r="H221" t="s">
         <v>803</v>
       </c>
-      <c r="H221" t="s">
+      <c r="I221" t="s">
         <v>804</v>
-      </c>
-      <c r="I221" t="s">
-        <v>339</v>
       </c>
       <c r="J221" t="s">
         <v>805</v>
@@ -10968,13 +10968,13 @@
         <v>802</v>
       </c>
       <c r="G222" t="s">
+        <v>338</v>
+      </c>
+      <c r="H222" t="s">
         <v>803</v>
       </c>
-      <c r="H222" t="s">
+      <c r="I222" t="s">
         <v>804</v>
-      </c>
-      <c r="I222" t="s">
-        <v>339</v>
       </c>
       <c r="J222" t="s">
         <v>805</v>
@@ -11000,13 +11000,13 @@
         <v>802</v>
       </c>
       <c r="G223" t="s">
+        <v>338</v>
+      </c>
+      <c r="H223" t="s">
         <v>803</v>
       </c>
-      <c r="H223" t="s">
+      <c r="I223" t="s">
         <v>804</v>
-      </c>
-      <c r="I223" t="s">
-        <v>339</v>
       </c>
       <c r="J223" t="s">
         <v>805</v>
@@ -11035,13 +11035,13 @@
         <v>802</v>
       </c>
       <c r="G224" t="s">
+        <v>338</v>
+      </c>
+      <c r="H224" t="s">
         <v>803</v>
       </c>
-      <c r="H224" t="s">
+      <c r="I224" t="s">
         <v>804</v>
-      </c>
-      <c r="I224" t="s">
-        <v>339</v>
       </c>
       <c r="J224" t="s">
         <v>805</v>
@@ -11070,13 +11070,13 @@
         <v>802</v>
       </c>
       <c r="G225" t="s">
+        <v>338</v>
+      </c>
+      <c r="H225" t="s">
         <v>803</v>
       </c>
-      <c r="H225" t="s">
+      <c r="I225" t="s">
         <v>804</v>
-      </c>
-      <c r="I225" t="s">
-        <v>339</v>
       </c>
       <c r="J225" t="s">
         <v>805</v>
@@ -11105,19 +11105,19 @@
         <v>802</v>
       </c>
       <c r="G226" t="s">
-        <v>576</v>
+        <v>338</v>
       </c>
       <c r="H226" t="s">
+        <v>803</v>
+      </c>
+      <c r="I226" t="s">
         <v>804</v>
-      </c>
-      <c r="I226" t="s">
-        <v>339</v>
       </c>
       <c r="J226" t="s">
         <v>805</v>
       </c>
       <c r="K226" t="s">
-        <v>806</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -11140,13 +11140,13 @@
         <v>802</v>
       </c>
       <c r="G227" t="s">
+        <v>338</v>
+      </c>
+      <c r="H227" t="s">
         <v>803</v>
       </c>
-      <c r="H227" t="s">
+      <c r="I227" t="s">
         <v>804</v>
-      </c>
-      <c r="I227" t="s">
-        <v>339</v>
       </c>
       <c r="J227" t="s">
         <v>805</v>
@@ -11178,16 +11178,16 @@
         <v>338</v>
       </c>
       <c r="H228" t="s">
+        <v>803</v>
+      </c>
+      <c r="I228" t="s">
         <v>804</v>
-      </c>
-      <c r="I228" t="s">
-        <v>339</v>
       </c>
       <c r="J228" t="s">
         <v>805</v>
       </c>
       <c r="K228" t="s">
-        <v>806</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -11207,22 +11207,22 @@
         <v>859</v>
       </c>
       <c r="F229" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G229" t="s">
+        <v>338</v>
+      </c>
+      <c r="H229" t="s">
         <v>803</v>
       </c>
-      <c r="H229" t="s">
-        <v>860</v>
-      </c>
       <c r="I229" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J229" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K229" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -11242,22 +11242,22 @@
         <v>859</v>
       </c>
       <c r="F230" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G230" t="s">
+        <v>338</v>
+      </c>
+      <c r="H230" t="s">
         <v>803</v>
       </c>
-      <c r="H230" t="s">
-        <v>860</v>
-      </c>
       <c r="I230" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J230" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K230" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -11277,22 +11277,22 @@
         <v>623</v>
       </c>
       <c r="F231" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G231" t="s">
-        <v>566</v>
+        <v>338</v>
       </c>
       <c r="H231" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="I231" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J231" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K231" t="s">
-        <v>861</v>
+        <v>569</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11312,22 +11312,22 @@
         <v>663</v>
       </c>
       <c r="F232" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G232" t="s">
-        <v>566</v>
+        <v>338</v>
       </c>
       <c r="H232" t="s">
-        <v>860</v>
+        <v>803</v>
       </c>
       <c r="I232" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J232" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K232" t="s">
-        <v>861</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -11347,22 +11347,22 @@
         <v>859</v>
       </c>
       <c r="F233" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G233" t="s">
+        <v>338</v>
+      </c>
+      <c r="H233" t="s">
         <v>803</v>
       </c>
-      <c r="H233" t="s">
-        <v>860</v>
-      </c>
       <c r="I233" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J233" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K233" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -11382,22 +11382,22 @@
         <v>859</v>
       </c>
       <c r="F234" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G234" t="s">
+        <v>338</v>
+      </c>
+      <c r="H234" t="s">
         <v>803</v>
       </c>
-      <c r="H234" t="s">
-        <v>860</v>
-      </c>
       <c r="I234" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J234" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K234" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -11417,22 +11417,22 @@
         <v>859</v>
       </c>
       <c r="F235" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G235" t="s">
+        <v>338</v>
+      </c>
+      <c r="H235" t="s">
         <v>803</v>
       </c>
-      <c r="H235" t="s">
-        <v>860</v>
-      </c>
       <c r="I235" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J235" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K235" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -11452,22 +11452,22 @@
         <v>859</v>
       </c>
       <c r="F236" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G236" t="s">
+        <v>338</v>
+      </c>
+      <c r="H236" t="s">
         <v>803</v>
       </c>
-      <c r="H236" t="s">
-        <v>860</v>
-      </c>
       <c r="I236" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J236" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K236" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -11487,22 +11487,22 @@
         <v>859</v>
       </c>
       <c r="F237" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G237" t="s">
+        <v>338</v>
+      </c>
+      <c r="H237" t="s">
         <v>803</v>
       </c>
-      <c r="H237" t="s">
-        <v>860</v>
-      </c>
       <c r="I237" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J237" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K237" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -11522,22 +11522,22 @@
         <v>859</v>
       </c>
       <c r="F238" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="G238" t="s">
+        <v>338</v>
+      </c>
+      <c r="H238" t="s">
         <v>803</v>
       </c>
-      <c r="H238" t="s">
-        <v>860</v>
-      </c>
       <c r="I238" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J238" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="K238" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -11557,22 +11557,22 @@
         <v>892</v>
       </c>
       <c r="F239" t="s">
-        <v>802</v>
+        <v>893</v>
       </c>
       <c r="G239" t="s">
+        <v>338</v>
+      </c>
+      <c r="H239" t="s">
         <v>803</v>
       </c>
-      <c r="H239" t="s">
-        <v>893</v>
-      </c>
       <c r="I239" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="J239" t="s">
-        <v>805</v>
+        <v>894</v>
       </c>
       <c r="K239" t="s">
-        <v>894</v>
+        <v>806</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -11598,16 +11598,16 @@
         <v>338</v>
       </c>
       <c r="H240" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I240" t="s">
+        <v>900</v>
+      </c>
+      <c r="J240" t="s">
+        <v>900</v>
+      </c>
+      <c r="K240" t="s">
         <v>339</v>
-      </c>
-      <c r="J240" t="s">
-        <v>899</v>
-      </c>
-      <c r="K240" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -11633,16 +11633,16 @@
         <v>338</v>
       </c>
       <c r="H241" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I241" t="s">
+        <v>900</v>
+      </c>
+      <c r="J241" t="s">
+        <v>900</v>
+      </c>
+      <c r="K241" t="s">
         <v>339</v>
-      </c>
-      <c r="J241" t="s">
-        <v>899</v>
-      </c>
-      <c r="K241" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -11668,16 +11668,16 @@
         <v>338</v>
       </c>
       <c r="H242" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I242" t="s">
+        <v>900</v>
+      </c>
+      <c r="J242" t="s">
+        <v>900</v>
+      </c>
+      <c r="K242" t="s">
         <v>339</v>
-      </c>
-      <c r="J242" t="s">
-        <v>899</v>
-      </c>
-      <c r="K242" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -11703,16 +11703,16 @@
         <v>338</v>
       </c>
       <c r="H243" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I243" t="s">
+        <v>900</v>
+      </c>
+      <c r="J243" t="s">
+        <v>900</v>
+      </c>
+      <c r="K243" t="s">
         <v>339</v>
-      </c>
-      <c r="J243" t="s">
-        <v>899</v>
-      </c>
-      <c r="K243" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -11738,16 +11738,16 @@
         <v>338</v>
       </c>
       <c r="H244" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I244" t="s">
+        <v>900</v>
+      </c>
+      <c r="J244" t="s">
+        <v>900</v>
+      </c>
+      <c r="K244" t="s">
         <v>339</v>
-      </c>
-      <c r="J244" t="s">
-        <v>899</v>
-      </c>
-      <c r="K244" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -11773,16 +11773,16 @@
         <v>338</v>
       </c>
       <c r="H245" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I245" t="s">
+        <v>900</v>
+      </c>
+      <c r="J245" t="s">
+        <v>900</v>
+      </c>
+      <c r="K245" t="s">
         <v>339</v>
-      </c>
-      <c r="J245" t="s">
-        <v>899</v>
-      </c>
-      <c r="K245" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -11799,22 +11799,22 @@
         <v>918</v>
       </c>
       <c r="F246" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="G246" t="s">
+        <v>338</v>
+      </c>
+      <c r="H246" t="s">
+        <v>899</v>
+      </c>
+      <c r="I246" t="s">
+        <v>900</v>
+      </c>
+      <c r="J246" t="s">
+        <v>920</v>
+      </c>
+      <c r="K246" t="s">
         <v>534</v>
-      </c>
-      <c r="H246" t="s">
-        <v>919</v>
-      </c>
-      <c r="I246" t="s">
-        <v>339</v>
-      </c>
-      <c r="J246" t="s">
-        <v>899</v>
-      </c>
-      <c r="K246" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -11833,17 +11833,17 @@
       <c r="E247" t="s">
         <v>196</v>
       </c>
-      <c r="F247" t="s">
-        <v>924</v>
-      </c>
       <c r="G247" t="s">
         <v>197</v>
       </c>
+      <c r="H247" t="s">
+        <v>924</v>
+      </c>
       <c r="I247" t="s">
+        <v>925</v>
+      </c>
+      <c r="K247" t="s">
         <v>198</v>
-      </c>
-      <c r="J247" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -11862,17 +11862,17 @@
       <c r="E248" t="s">
         <v>196</v>
       </c>
-      <c r="F248" t="s">
-        <v>924</v>
-      </c>
       <c r="G248" t="s">
         <v>197</v>
       </c>
+      <c r="H248" t="s">
+        <v>924</v>
+      </c>
       <c r="I248" t="s">
+        <v>925</v>
+      </c>
+      <c r="K248" t="s">
         <v>198</v>
-      </c>
-      <c r="J248" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -11891,17 +11891,17 @@
       <c r="E249" t="s">
         <v>932</v>
       </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
+        <v>197</v>
+      </c>
+      <c r="H249" t="s">
         <v>924</v>
       </c>
-      <c r="G249" t="s">
+      <c r="I249" t="s">
+        <v>925</v>
+      </c>
+      <c r="K249" t="s">
         <v>933</v>
-      </c>
-      <c r="I249" t="s">
-        <v>198</v>
-      </c>
-      <c r="J249" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -11920,17 +11920,17 @@
       <c r="E250" t="s">
         <v>196</v>
       </c>
-      <c r="F250" t="s">
-        <v>924</v>
-      </c>
       <c r="G250" t="s">
         <v>197</v>
       </c>
+      <c r="H250" t="s">
+        <v>924</v>
+      </c>
       <c r="I250" t="s">
+        <v>925</v>
+      </c>
+      <c r="K250" t="s">
         <v>198</v>
-      </c>
-      <c r="J250" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -11946,17 +11946,17 @@
       <c r="E251" t="s">
         <v>196</v>
       </c>
-      <c r="F251" t="s">
-        <v>924</v>
-      </c>
       <c r="G251" t="s">
         <v>197</v>
       </c>
+      <c r="H251" t="s">
+        <v>924</v>
+      </c>
       <c r="I251" t="s">
+        <v>925</v>
+      </c>
+      <c r="K251" t="s">
         <v>198</v>
-      </c>
-      <c r="J251" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -11975,17 +11975,17 @@
       <c r="E252" t="s">
         <v>196</v>
       </c>
-      <c r="F252" t="s">
-        <v>924</v>
-      </c>
       <c r="G252" t="s">
         <v>197</v>
       </c>
+      <c r="H252" t="s">
+        <v>924</v>
+      </c>
       <c r="I252" t="s">
+        <v>925</v>
+      </c>
+      <c r="K252" t="s">
         <v>198</v>
-      </c>
-      <c r="J252" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -12001,16 +12001,16 @@
       <c r="E253" t="s">
         <v>944</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
+        <v>338</v>
+      </c>
+      <c r="H253" t="s">
         <v>945</v>
       </c>
-      <c r="G253" t="s">
+      <c r="I253" t="s">
         <v>946</v>
       </c>
-      <c r="I253" t="s">
-        <v>339</v>
-      </c>
-      <c r="J253" t="s">
+      <c r="K253" t="s">
         <v>947</v>
       </c>
     </row>
@@ -12030,17 +12030,17 @@
       <c r="E254" t="s">
         <v>454</v>
       </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
+        <v>189</v>
+      </c>
+      <c r="H254" t="s">
         <v>945</v>
       </c>
-      <c r="G254" t="s">
+      <c r="I254" t="s">
+        <v>946</v>
+      </c>
+      <c r="K254" t="s">
         <v>455</v>
-      </c>
-      <c r="I254" t="s">
-        <v>191</v>
-      </c>
-      <c r="J254" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -12059,17 +12059,17 @@
       <c r="E255" t="s">
         <v>954</v>
       </c>
-      <c r="F255" t="s">
+      <c r="G255" t="s">
+        <v>189</v>
+      </c>
+      <c r="H255" t="s">
         <v>945</v>
       </c>
-      <c r="G255" t="s">
+      <c r="I255" t="s">
+        <v>946</v>
+      </c>
+      <c r="K255" t="s">
         <v>955</v>
-      </c>
-      <c r="I255" t="s">
-        <v>191</v>
-      </c>
-      <c r="J255" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -12088,20 +12088,20 @@
       <c r="E256" t="s">
         <v>954</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
+        <v>189</v>
+      </c>
+      <c r="H256" t="s">
         <v>945</v>
       </c>
-      <c r="G256" t="s">
+      <c r="I256" t="s">
+        <v>946</v>
+      </c>
+      <c r="K256" t="s">
         <v>955</v>
       </c>
-      <c r="I256" t="s">
-        <v>191</v>
-      </c>
-      <c r="J256" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
         <v>959</v>
       </c>
@@ -12117,20 +12117,20 @@
       <c r="E257" t="s">
         <v>954</v>
       </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
+        <v>189</v>
+      </c>
+      <c r="H257" t="s">
         <v>945</v>
       </c>
-      <c r="G257" t="s">
+      <c r="I257" t="s">
+        <v>946</v>
+      </c>
+      <c r="K257" t="s">
         <v>955</v>
       </c>
-      <c r="I257" t="s">
-        <v>191</v>
-      </c>
-      <c r="J257" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>962</v>
       </c>
@@ -12146,20 +12146,20 @@
       <c r="E258" t="s">
         <v>705</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
+        <v>338</v>
+      </c>
+      <c r="H258" t="s">
         <v>945</v>
       </c>
-      <c r="G258" t="s">
-        <v>707</v>
-      </c>
       <c r="I258" t="s">
-        <v>339</v>
-      </c>
-      <c r="J258" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
+        <v>946</v>
+      </c>
+      <c r="K258" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>965</v>
       </c>
@@ -12175,20 +12175,20 @@
       <c r="E259" t="s">
         <v>954</v>
       </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
+        <v>189</v>
+      </c>
+      <c r="H259" t="s">
         <v>945</v>
       </c>
-      <c r="G259" t="s">
+      <c r="I259" t="s">
+        <v>946</v>
+      </c>
+      <c r="K259" t="s">
         <v>955</v>
       </c>
-      <c r="I259" t="s">
-        <v>191</v>
-      </c>
-      <c r="J259" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>967</v>
       </c>
@@ -12204,20 +12204,20 @@
       <c r="E260" t="s">
         <v>337</v>
       </c>
-      <c r="F260" t="s">
-        <v>945</v>
-      </c>
       <c r="G260" t="s">
         <v>338</v>
       </c>
+      <c r="H260" t="s">
+        <v>945</v>
+      </c>
       <c r="I260" t="s">
+        <v>946</v>
+      </c>
+      <c r="K260" t="s">
         <v>339</v>
       </c>
-      <c r="J260" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
         <v>970</v>
       </c>
@@ -12233,20 +12233,20 @@
       <c r="E261" t="s">
         <v>973</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
+        <v>406</v>
+      </c>
+      <c r="H261" t="s">
         <v>945</v>
       </c>
-      <c r="G261" t="s">
+      <c r="I261" t="s">
+        <v>946</v>
+      </c>
+      <c r="K261" t="s">
         <v>974</v>
       </c>
-      <c r="I261" t="s">
-        <v>407</v>
-      </c>
-      <c r="J261" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
         <v>975</v>
       </c>
@@ -12262,20 +12262,20 @@
       <c r="E262" t="s">
         <v>337</v>
       </c>
-      <c r="F262" t="s">
-        <v>945</v>
-      </c>
       <c r="G262" t="s">
         <v>338</v>
       </c>
+      <c r="H262" t="s">
+        <v>945</v>
+      </c>
       <c r="I262" t="s">
+        <v>946</v>
+      </c>
+      <c r="K262" t="s">
         <v>339</v>
       </c>
-      <c r="J262" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
         <v>978</v>
       </c>
@@ -12291,20 +12291,20 @@
       <c r="E263" t="s">
         <v>981</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
+        <v>378</v>
+      </c>
+      <c r="H263" t="s">
         <v>945</v>
       </c>
-      <c r="G263" t="s">
+      <c r="I263" t="s">
+        <v>946</v>
+      </c>
+      <c r="K263" t="s">
         <v>982</v>
       </c>
-      <c r="I263" t="s">
-        <v>379</v>
-      </c>
-      <c r="J263" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
         <v>983</v>
       </c>
@@ -12320,20 +12320,20 @@
       <c r="E264" t="s">
         <v>58</v>
       </c>
-      <c r="F264" t="s">
-        <v>945</v>
-      </c>
       <c r="G264" t="s">
         <v>59</v>
       </c>
+      <c r="H264" t="s">
+        <v>945</v>
+      </c>
       <c r="I264" t="s">
+        <v>946</v>
+      </c>
+      <c r="K264" t="s">
         <v>60</v>
       </c>
-      <c r="J264" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
         <v>986</v>
       </c>
@@ -12349,20 +12349,20 @@
       <c r="E265" t="s">
         <v>15</v>
       </c>
-      <c r="F265" t="s">
-        <v>945</v>
-      </c>
       <c r="G265" t="s">
         <v>17</v>
       </c>
+      <c r="H265" t="s">
+        <v>945</v>
+      </c>
       <c r="I265" t="s">
-        <v>19</v>
-      </c>
-      <c r="J265" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
+        <v>946</v>
+      </c>
+      <c r="K265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" t="s">
         <v>989</v>
       </c>
@@ -12378,20 +12378,20 @@
       <c r="E266" t="s">
         <v>992</v>
       </c>
-      <c r="F266" t="s">
+      <c r="G266" t="s">
+        <v>235</v>
+      </c>
+      <c r="H266" t="s">
         <v>945</v>
       </c>
-      <c r="G266" t="s">
+      <c r="I266" t="s">
+        <v>946</v>
+      </c>
+      <c r="K266" t="s">
         <v>993</v>
       </c>
-      <c r="I266" t="s">
-        <v>237</v>
-      </c>
-      <c r="J266" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" t="s">
         <v>994</v>
       </c>
@@ -12407,20 +12407,20 @@
       <c r="E267" t="s">
         <v>243</v>
       </c>
-      <c r="F267" t="s">
+      <c r="G267" t="s">
+        <v>235</v>
+      </c>
+      <c r="H267" t="s">
         <v>997</v>
       </c>
-      <c r="G267" t="s">
+      <c r="I267" t="s">
+        <v>998</v>
+      </c>
+      <c r="K267" t="s">
         <v>244</v>
       </c>
-      <c r="I267" t="s">
-        <v>237</v>
-      </c>
-      <c r="J267" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" t="s">
         <v>999</v>
       </c>
@@ -12436,20 +12436,20 @@
       <c r="E268" t="s">
         <v>420</v>
       </c>
-      <c r="F268" t="s">
+      <c r="G268" t="s">
+        <v>378</v>
+      </c>
+      <c r="H268" t="s">
         <v>1002</v>
       </c>
-      <c r="G268" t="s">
-        <v>422</v>
-      </c>
       <c r="I268" t="s">
-        <v>379</v>
-      </c>
-      <c r="J268" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" t="s">
         <v>1004</v>
       </c>
@@ -12465,20 +12465,20 @@
       <c r="E269" t="s">
         <v>243</v>
       </c>
-      <c r="F269" t="s">
+      <c r="G269" t="s">
+        <v>235</v>
+      </c>
+      <c r="H269" t="s">
         <v>1007</v>
       </c>
-      <c r="G269" t="s">
+      <c r="I269" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K269" t="s">
         <v>244</v>
       </c>
-      <c r="I269" t="s">
-        <v>237</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" t="s">
         <v>1009</v>
       </c>
@@ -12494,20 +12494,20 @@
       <c r="E270" t="s">
         <v>243</v>
       </c>
-      <c r="F270" t="s">
+      <c r="G270" t="s">
+        <v>235</v>
+      </c>
+      <c r="H270" t="s">
         <v>1007</v>
       </c>
-      <c r="G270" t="s">
+      <c r="I270" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K270" t="s">
         <v>244</v>
       </c>
-      <c r="I270" t="s">
-        <v>237</v>
-      </c>
-      <c r="J270" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" t="s">
         <v>1012</v>
       </c>
@@ -12523,20 +12523,20 @@
       <c r="E271" t="s">
         <v>1015</v>
       </c>
-      <c r="F271" t="s">
+      <c r="G271" t="s">
+        <v>235</v>
+      </c>
+      <c r="H271" t="s">
         <v>1016</v>
       </c>
-      <c r="G271" t="s">
+      <c r="I271" t="s">
         <v>1017</v>
       </c>
-      <c r="I271" t="s">
-        <v>237</v>
-      </c>
-      <c r="J271" t="s">
+      <c r="K271" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
         <v>1019</v>
       </c>
@@ -12549,20 +12549,20 @@
       <c r="E272" t="s">
         <v>1015</v>
       </c>
-      <c r="F272" t="s">
+      <c r="G272" t="s">
+        <v>235</v>
+      </c>
+      <c r="H272" t="s">
         <v>1016</v>
       </c>
-      <c r="G272" t="s">
+      <c r="I272" t="s">
         <v>1017</v>
       </c>
-      <c r="I272" t="s">
-        <v>237</v>
-      </c>
-      <c r="J272" t="s">
+      <c r="K272" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
         <v>1021</v>
       </c>
@@ -12578,20 +12578,20 @@
       <c r="E273" t="s">
         <v>1015</v>
       </c>
-      <c r="F273" t="s">
+      <c r="G273" t="s">
+        <v>235</v>
+      </c>
+      <c r="H273" t="s">
         <v>1016</v>
       </c>
-      <c r="G273" t="s">
+      <c r="I273" t="s">
         <v>1017</v>
       </c>
-      <c r="I273" t="s">
-        <v>237</v>
-      </c>
-      <c r="J273" t="s">
+      <c r="K273" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
         <v>1024</v>
       </c>
@@ -12604,20 +12604,20 @@
       <c r="E274" t="s">
         <v>1015</v>
       </c>
-      <c r="F274" t="s">
+      <c r="G274" t="s">
+        <v>235</v>
+      </c>
+      <c r="H274" t="s">
         <v>1016</v>
       </c>
-      <c r="G274" t="s">
+      <c r="I274" t="s">
         <v>1017</v>
       </c>
-      <c r="I274" t="s">
-        <v>237</v>
-      </c>
-      <c r="J274" t="s">
+      <c r="K274" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
         <v>1026</v>
       </c>
@@ -12633,20 +12633,20 @@
       <c r="E275" t="s">
         <v>1015</v>
       </c>
-      <c r="F275" t="s">
+      <c r="G275" t="s">
+        <v>235</v>
+      </c>
+      <c r="H275" t="s">
         <v>1016</v>
       </c>
-      <c r="G275" t="s">
+      <c r="I275" t="s">
         <v>1017</v>
       </c>
-      <c r="I275" t="s">
-        <v>237</v>
-      </c>
-      <c r="J275" t="s">
+      <c r="K275" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
         <v>1029</v>
       </c>
@@ -12662,20 +12662,20 @@
       <c r="E276" t="s">
         <v>1015</v>
       </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
+        <v>235</v>
+      </c>
+      <c r="H276" t="s">
         <v>1016</v>
       </c>
-      <c r="G276" t="s">
+      <c r="I276" t="s">
         <v>1017</v>
       </c>
-      <c r="I276" t="s">
-        <v>237</v>
-      </c>
-      <c r="J276" t="s">
+      <c r="K276" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
         <v>1032</v>
       </c>
@@ -12691,20 +12691,20 @@
       <c r="E277" t="s">
         <v>1015</v>
       </c>
-      <c r="F277" t="s">
+      <c r="G277" t="s">
+        <v>235</v>
+      </c>
+      <c r="H277" t="s">
         <v>1016</v>
       </c>
-      <c r="G277" t="s">
+      <c r="I277" t="s">
         <v>1017</v>
       </c>
-      <c r="I277" t="s">
-        <v>237</v>
-      </c>
-      <c r="J277" t="s">
+      <c r="K277" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>1035</v>
       </c>
@@ -12720,20 +12720,20 @@
       <c r="E278" t="s">
         <v>420</v>
       </c>
-      <c r="F278" t="s">
+      <c r="G278" t="s">
+        <v>378</v>
+      </c>
+      <c r="H278" t="s">
         <v>1038</v>
       </c>
-      <c r="G278" t="s">
-        <v>422</v>
-      </c>
       <c r="I278" t="s">
-        <v>379</v>
-      </c>
-      <c r="J278" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>1040</v>
       </c>
@@ -12749,20 +12749,20 @@
       <c r="E279" t="s">
         <v>92</v>
       </c>
-      <c r="F279" t="s">
+      <c r="G279" t="s">
+        <v>59</v>
+      </c>
+      <c r="H279" t="s">
         <v>1038</v>
       </c>
-      <c r="G279" t="s">
-        <v>94</v>
-      </c>
       <c r="I279" t="s">
-        <v>60</v>
-      </c>
-      <c r="J279" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>1043</v>
       </c>
@@ -12778,20 +12778,20 @@
       <c r="E280" t="s">
         <v>15</v>
       </c>
-      <c r="F280" t="s">
-        <v>1038</v>
-      </c>
       <c r="G280" t="s">
         <v>17</v>
       </c>
+      <c r="H280" t="s">
+        <v>1038</v>
+      </c>
       <c r="I280" t="s">
-        <v>19</v>
-      </c>
-      <c r="J280" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>1046</v>
       </c>
@@ -12807,20 +12807,20 @@
       <c r="E281" t="s">
         <v>352</v>
       </c>
-      <c r="F281" t="s">
+      <c r="G281" t="s">
+        <v>235</v>
+      </c>
+      <c r="H281" t="s">
         <v>1038</v>
       </c>
-      <c r="G281" t="s">
+      <c r="I281" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K281" t="s">
         <v>353</v>
       </c>
-      <c r="I281" t="s">
-        <v>237</v>
-      </c>
-      <c r="J281" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>1049</v>
       </c>
@@ -12836,20 +12836,20 @@
       <c r="E282" t="s">
         <v>253</v>
       </c>
-      <c r="F282" t="s">
-        <v>1038</v>
-      </c>
       <c r="G282" t="s">
         <v>254</v>
       </c>
+      <c r="H282" t="s">
+        <v>1038</v>
+      </c>
       <c r="I282" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K282" t="s">
         <v>255</v>
       </c>
-      <c r="J282" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>1052</v>
       </c>
@@ -12865,20 +12865,20 @@
       <c r="E283" t="s">
         <v>892</v>
       </c>
-      <c r="F283" t="s">
+      <c r="G283" t="s">
+        <v>338</v>
+      </c>
+      <c r="H283" t="s">
         <v>1055</v>
       </c>
-      <c r="G283" t="s">
-        <v>803</v>
-      </c>
       <c r="I283" t="s">
-        <v>339</v>
-      </c>
-      <c r="J283" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>1057</v>
       </c>
@@ -12894,20 +12894,20 @@
       <c r="E284" t="s">
         <v>253</v>
       </c>
-      <c r="F284" t="s">
-        <v>1060</v>
-      </c>
       <c r="G284" t="s">
         <v>254</v>
       </c>
+      <c r="H284" t="s">
+        <v>1060</v>
+      </c>
       <c r="I284" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K284" t="s">
         <v>255</v>
       </c>
-      <c r="J284" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10">
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>1062</v>
       </c>
@@ -12920,20 +12920,20 @@
       <c r="E285" t="s">
         <v>352</v>
       </c>
-      <c r="F285" t="s">
+      <c r="G285" t="s">
+        <v>235</v>
+      </c>
+      <c r="H285" t="s">
         <v>1064</v>
       </c>
-      <c r="G285" t="s">
+      <c r="I285" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K285" t="s">
         <v>353</v>
       </c>
-      <c r="I285" t="s">
-        <v>237</v>
-      </c>
-      <c r="J285" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>1066</v>
       </c>
@@ -12949,20 +12949,20 @@
       <c r="E286" t="s">
         <v>981</v>
       </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
+        <v>378</v>
+      </c>
+      <c r="H286" t="s">
         <v>1069</v>
       </c>
-      <c r="G286" t="s">
+      <c r="I286" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K286" t="s">
         <v>982</v>
       </c>
-      <c r="I286" t="s">
-        <v>379</v>
-      </c>
-      <c r="J286" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>1071</v>
       </c>
@@ -12978,20 +12978,20 @@
       <c r="E287" t="s">
         <v>981</v>
       </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
+        <v>378</v>
+      </c>
+      <c r="H287" t="s">
         <v>1069</v>
       </c>
-      <c r="G287" t="s">
+      <c r="I287" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K287" t="s">
         <v>982</v>
       </c>
-      <c r="I287" t="s">
-        <v>379</v>
-      </c>
-      <c r="J287" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10">
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>1074</v>
       </c>
@@ -13007,20 +13007,20 @@
       <c r="E288" t="s">
         <v>75</v>
       </c>
-      <c r="F288" t="s">
+      <c r="G288" t="s">
+        <v>17</v>
+      </c>
+      <c r="H288" t="s">
         <v>1069</v>
       </c>
-      <c r="G288" t="s">
+      <c r="I288" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K288" t="s">
         <v>76</v>
       </c>
-      <c r="I288" t="s">
-        <v>19</v>
-      </c>
-      <c r="J288" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>1077</v>
       </c>
@@ -13036,20 +13036,20 @@
       <c r="E289" t="s">
         <v>58</v>
       </c>
-      <c r="F289" t="s">
-        <v>1069</v>
-      </c>
       <c r="G289" t="s">
         <v>59</v>
       </c>
+      <c r="H289" t="s">
+        <v>1069</v>
+      </c>
       <c r="I289" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K289" t="s">
         <v>60</v>
       </c>
-      <c r="J289" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10">
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>1080</v>
       </c>
@@ -13065,20 +13065,20 @@
       <c r="E290" t="s">
         <v>58</v>
       </c>
-      <c r="F290" t="s">
-        <v>1069</v>
-      </c>
       <c r="G290" t="s">
         <v>59</v>
       </c>
+      <c r="H290" t="s">
+        <v>1069</v>
+      </c>
       <c r="I290" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K290" t="s">
         <v>60</v>
       </c>
-      <c r="J290" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10">
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>1083</v>
       </c>
@@ -13094,20 +13094,20 @@
       <c r="E291" t="s">
         <v>352</v>
       </c>
-      <c r="F291" t="s">
+      <c r="G291" t="s">
+        <v>235</v>
+      </c>
+      <c r="H291" t="s">
         <v>1069</v>
       </c>
-      <c r="G291" t="s">
+      <c r="I291" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K291" t="s">
         <v>353</v>
       </c>
-      <c r="I291" t="s">
-        <v>237</v>
-      </c>
-      <c r="J291" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10">
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>1086</v>
       </c>
@@ -13123,20 +13123,20 @@
       <c r="E292" t="s">
         <v>352</v>
       </c>
-      <c r="F292" t="s">
+      <c r="G292" t="s">
+        <v>235</v>
+      </c>
+      <c r="H292" t="s">
         <v>1069</v>
       </c>
-      <c r="G292" t="s">
+      <c r="I292" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K292" t="s">
         <v>353</v>
       </c>
-      <c r="I292" t="s">
-        <v>237</v>
-      </c>
-      <c r="J292" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10">
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>1089</v>
       </c>
@@ -13152,20 +13152,20 @@
       <c r="E293" t="s">
         <v>352</v>
       </c>
-      <c r="F293" t="s">
+      <c r="G293" t="s">
+        <v>235</v>
+      </c>
+      <c r="H293" t="s">
         <v>1069</v>
       </c>
-      <c r="G293" t="s">
+      <c r="I293" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K293" t="s">
         <v>353</v>
       </c>
-      <c r="I293" t="s">
-        <v>237</v>
-      </c>
-      <c r="J293" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10">
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>1092</v>
       </c>
@@ -13181,20 +13181,20 @@
       <c r="E294" t="s">
         <v>352</v>
       </c>
-      <c r="F294" t="s">
+      <c r="G294" t="s">
+        <v>235</v>
+      </c>
+      <c r="H294" t="s">
         <v>1069</v>
       </c>
-      <c r="G294" t="s">
+      <c r="I294" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K294" t="s">
         <v>353</v>
       </c>
-      <c r="I294" t="s">
-        <v>237</v>
-      </c>
-      <c r="J294" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10">
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>1095</v>
       </c>
@@ -13210,20 +13210,20 @@
       <c r="E295" t="s">
         <v>352</v>
       </c>
-      <c r="F295" t="s">
+      <c r="G295" t="s">
+        <v>235</v>
+      </c>
+      <c r="H295" t="s">
         <v>1098</v>
       </c>
-      <c r="G295" t="s">
+      <c r="I295" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K295" t="s">
         <v>353</v>
       </c>
-      <c r="I295" t="s">
-        <v>237</v>
-      </c>
-      <c r="J295" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>1100</v>
       </c>
@@ -13239,17 +13239,17 @@
       <c r="E296" t="s">
         <v>352</v>
       </c>
-      <c r="F296" t="s">
+      <c r="G296" t="s">
+        <v>235</v>
+      </c>
+      <c r="H296" t="s">
         <v>1098</v>
       </c>
-      <c r="G296" t="s">
+      <c r="I296" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K296" t="s">
         <v>353</v>
-      </c>
-      <c r="I296" t="s">
-        <v>237</v>
-      </c>
-      <c r="J296" t="s">
-        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/en/SectorCOFOG.xlsx
+++ b/api/2/xlsx/en/SectorCOFOG.xlsx
@@ -28,27 +28,27 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-group</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-group</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>09.8 - Education n.e.c.</t>
+  </si>
+  <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
-    <t>09.8 - Education n.e.c.</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Educational buildings, equipment, materials; subsidiary services to education (boarding facilities, staff housing); language training; colloquia, seminars, lectures, etc.</t>
   </si>
   <si>
+    <t>09.6 - Subsidiary services to education</t>
+  </si>
+  <si>
     <t>09.6.0 - Subsidiary services to education (IS)</t>
   </si>
   <si>
-    <t>09.6 - Subsidiary services to education</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Research and studies on education effectiveness, relevance and quality; systematic evaluation and monitoring.</t>
   </si>
   <si>
+    <t>09.7 - R&amp;D Education</t>
+  </si>
+  <si>
     <t>09.7.0 - R&amp;D Education (CS)</t>
   </si>
   <si>
-    <t>09.7 - R&amp;D Education</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
@@ -130,18 +130,18 @@
     <t>Formal and non-formal primary education for children; all elementary and first cycle systematic instruction; provision of learning materials.</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>09.1 - Pre‐primary and primary education</t>
+  </si>
+  <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
     <t>09.1.2 - Primary education (IS)</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
-    <t>09.1 - Pre‐primary and primary education</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -190,15 +190,15 @@
     <t>Provision of meals or snacks at school; other uses of food for the achievement of educational outcomes including 'take-home' food rations provided as economic incentives to families (or foster families, or other child care institutions) in return for a child's regular attendance at school; food provided to adults or youth who attend literacy or vocational training programmes; food for pre-school activities with an educational component. These activities may help reduce children's hunger during the school day if provision of food/meals contains bioavailable nutrients to address specific nutrition needs and have nutrition expected outcomes in school children, or if the rationale mainstream nutrition or expected outcome is nutrition-linked.</t>
   </si>
   <si>
+    <t>07.4 - Public health services</t>
+  </si>
+  <si>
+    <t>07 - Health</t>
+  </si>
+  <si>
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
-    <t>07 - Health</t>
-  </si>
-  <si>
-    <t>07.4 - Public health services</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Second cycle systematic instruction at junior level.</t>
   </si>
   <si>
+    <t>09.2 - Secondary education</t>
+  </si>
+  <si>
     <t>09.2.1 - Lower‐secondary education (IS)</t>
   </si>
   <si>
-    <t>09.2 - Secondary education</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
@@ -223,15 +223,15 @@
     <t>Second cycle systematic instruction at senior levels.</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Secondary Education</t>
+  </si>
+  <si>
     <t>09.2.2 - Upper‐secondary education (IS)</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Secondary Education</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Elementary vocational training and secondary level technical education; on-the job training; apprenticeships; including informal vocational training.</t>
   </si>
   <si>
+    <t>09.5 - Education not definable by level</t>
+  </si>
+  <si>
     <t>09.5.0 - Education not definable by level (IS)</t>
   </si>
   <si>
-    <t>09.5 - Education not definable by level</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
@@ -256,18 +256,18 @@
     <t>Degree and diploma programmes at universities, colleges and polytechnics; scholarships.</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>09.4 - Tertiary education</t>
+  </si>
+  <si>
+    <t>Post-Secondary Education</t>
+  </si>
+  <si>
     <t>09.4.1 - First stage of tertiary education (IS)</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Post-Secondary Education</t>
-  </si>
-  <si>
-    <t>09.4 - Tertiary education</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Professional-level vocational training programmes and in-service training.</t>
   </si>
   <si>
+    <t>09.3 - Post‐secondary non‐tertiary education</t>
+  </si>
+  <si>
     <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
   </si>
   <si>
-    <t>09.3 - Post‐secondary non‐tertiary education</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
@@ -292,24 +292,24 @@
     <t>Health sector policy, planning and programmes; aid to health ministries, public health administration; institution capacity building and advice; medical insurance programmes; including health system strengthening and health governance; unspecified health activities.</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>07.6 - Health n.e.c.</t>
+  </si>
+  <si>
+    <t>Health, General</t>
+  </si>
+  <si>
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
     <t>Health</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>General medical research (excluding basic health research and research for prevention and control of NCDs (12382)).</t>
   </si>
   <si>
+    <t>07.5 - R&amp;D Health</t>
+  </si>
+  <si>
     <t>07.5.0 - R&amp;D Health (CS)</t>
   </si>
   <si>
-    <t>07.5 - R&amp;D Health</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Laboratories, specialised clinics and hospitals (including equipment and supplies); ambulances; dental services; medical rehabilitation. Excludes noncommunicable diseases (123xx).</t>
   </si>
   <si>
+    <t>07.2 - Outpatient services</t>
+  </si>
+  <si>
     <t>07.2.1 - General medical services (IS)</t>
   </si>
   <si>
-    <t>07.2 - Outpatient services</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>District-level hospitals, clinics and dispensaries and related medical equipment; excluding specialised hospitals and clinics (12191).</t>
   </si>
   <si>
+    <t>07.3 - Hospital services</t>
+  </si>
+  <si>
     <t>07.3.1 - General hospital services (IS)</t>
   </si>
   <si>
-    <t>07.3 - Hospital services</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -580,21 +580,21 @@
     <t>Water sector policy and governance, including legislation, regulation, planning and management as well as transboundary management of water; institutional capacity development; activities supporting the Integrated Water Resource Management approach (IWRM: see box below).</t>
   </si>
   <si>
+    <t>06.3 - Water supply</t>
+  </si>
+  <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
     <t>140</t>
   </si>
   <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
-    <t>06.3 - Water supply</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -604,15 +604,15 @@
     <t>Collection and usage of quantitative and qualitative data on water resources; creation and sharing of water knowledge; conservation and rehabilitation of inland surface waters (rivers, lakes etc.), ground water and coastal waters; prevention of water contamination.</t>
   </si>
   <si>
+    <t>05.6 - Environmental protection n.e.c.</t>
+  </si>
+  <si>
+    <t>05 - Environmental protection</t>
+  </si>
+  <si>
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>05 - Environmental protection</t>
-  </si>
-  <si>
-    <t>05.6 - Environmental protection n.e.c.</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>Large scale sewerage including trunk sewers and sewage pumping stations; domestic and industrial waste water treatment plants.</t>
   </si>
   <si>
+    <t>05.2 - Waste water management</t>
+  </si>
+  <si>
     <t>05.2.0 - Waste water management (CS)</t>
   </si>
   <si>
-    <t>05.2 - Waste water management</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -691,12 +691,12 @@
     <t>Municipal and industrial solid waste management, including hazardous and toxic waste; collection, disposal and treatment; landfill areas; composting and reuse.</t>
   </si>
   <si>
+    <t>05.1 - Waste management</t>
+  </si>
+  <si>
     <t>05.1.0 - Waste management (CS)</t>
   </si>
   <si>
-    <t>05.1 - Waste management</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
@@ -715,27 +715,27 @@
     <t>Institution-building assistance to strengthen core public sector management systems and capacities. This includes general public policy management, co-ordination, planning and reform; human resource management; organisational development; civil service reform; e-government; development planning, monitoring and evaluation; support to ministries involved in aid co-ordination; other ministries and government departments when sector cannot be specified. (Use specific sector codes for development of systems and capacities in sector ministries. For macro-economic policy use code 15142. For public procurement use code 15125.)</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>01.3 - General services</t>
+  </si>
+  <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
-    <t>01.3 - General services</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Fiscal policy and planning; support to ministries of finance; strengthening financial and managerial accountability; public expenditure management; improving financial management systems; budget drafting; inter-governmental fiscal relations, public audit, public debt. (Use code 15114 for domestic revenue mobilisation and code 33120 for customs).</t>
   </si>
   <si>
+    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
+  </si>
+  <si>
     <t>01.1.2 - Financial and fiscal affairs (CS)</t>
   </si>
   <si>
-    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
@@ -760,12 +760,12 @@
     <t>Decentralisation processes (including political, administrative and fiscal dimensions); intergovernmental relations and federalism; strengthening departments of regional and local government, regional and local authorities and their national associations. (Use specific sector codes for decentralisation of sector management and services.)</t>
   </si>
   <si>
+    <t>01.8 - Transfers of a general character between different levels of government</t>
+  </si>
+  <si>
     <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
   </si>
   <si>
-    <t>01.8 - Transfers of a general character between different levels of government</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
@@ -775,15 +775,15 @@
     <t>Specialised organisations, institutions and frameworks for the prevention of and combat against corruption, bribery, money-laundering and other aspects of organised crime, with or without law enforcement powers, e.g. anti-corruption commissions and monitoring bodies, special investigation services, institutions and initiatives of integrity and ethics oversight, specialised NGOs, other civil society and citizens' organisations directly concerned with corruption.</t>
   </si>
   <si>
+    <t>03.6 - Public order and safety n.e.c.</t>
+  </si>
+  <si>
+    <t>03 - Public order and safety</t>
+  </si>
+  <si>
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
-    <t>03 - Public order and safety</t>
-  </si>
-  <si>
-    <t>03.6 - Public order and safety n.e.c.</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -859,12 +859,12 @@
     <t>Support to administration of developing countries' foreign aid (including triangular and south-south cooperation).</t>
   </si>
   <si>
+    <t>01.2 - Foreign economic aid</t>
+  </si>
+  <si>
     <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
   </si>
   <si>
-    <t>01.2 - Foreign economic aid</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -943,12 +943,12 @@
     <t>Judicial law and order sectors; policy development within ministries of justice or equivalents.</t>
   </si>
   <si>
+    <t>03.3 - Law courts</t>
+  </si>
+  <si>
     <t>03.3.0 - Law courts (CS)</t>
   </si>
   <si>
-    <t>03.3 - Law courts</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
@@ -958,12 +958,12 @@
     <t>Police affairs and services.</t>
   </si>
   <si>
+    <t>03.1 - Police services</t>
+  </si>
+  <si>
     <t>03.1.0 - Police services (CS)</t>
   </si>
   <si>
-    <t>03.1 - Police services</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
@@ -973,12 +973,12 @@
     <t>Fire-prevention and fire-fighting affairs and services.</t>
   </si>
   <si>
+    <t>03.2 - Fire‐protection services</t>
+  </si>
+  <si>
     <t>03.2.0 - Fire‐protection services (CS)</t>
   </si>
   <si>
-    <t>03.2 - Fire‐protection services</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -1012,12 +1012,12 @@
     <t>Prisons</t>
   </si>
   <si>
+    <t>03.4 - Prisons</t>
+  </si>
+  <si>
     <t>03.4.0 - Prisons (CS)</t>
   </si>
   <si>
-    <t>03.4 - Prisons</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
@@ -1027,15 +1027,15 @@
     <t>Support to macroeconomic stability, debt sustainability and structural reforms. Includes technical assistance for strategic formulation of policies, laws and regulation; capacity building to enhance public sector development; policy-based funding. For fiscal policy and domestic revenue mobilisation use codes 15111 and 15114.</t>
   </si>
   <si>
+    <t>04.1 - General economic, commercial and labour affairs</t>
+  </si>
+  <si>
+    <t>04 - Economic affairs</t>
+  </si>
+  <si>
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
-    <t>04 - Economic affairs</t>
-  </si>
-  <si>
-    <t>04.1 - General economic, commercial and labour affairs</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -1072,12 +1072,12 @@
     <t>Electoral management bodies and processes, election observation, voters' education. (Use code 15230 when in the context of an international peacekeeping operation.)</t>
   </si>
   <si>
+    <t>01.6 - General public services n.e.c.</t>
+  </si>
+  <si>
     <t>01.6.0 - General public services n.e.c. (CS)</t>
   </si>
   <si>
-    <t>01.6 - General public services n.e.c.</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -1099,12 +1099,12 @@
     <t>Activities that support free and uncensored flow of information on public issues; activities that increase the editorial and technical skills and the integrity of the print and broadcast media, e.g. training of journalists. (Use codes 22010-22040 for provision of equipment and capital assistance to media.)</t>
   </si>
   <si>
+    <t>04.6 - Communication</t>
+  </si>
+  <si>
     <t>04.6.0 - Communication (CS)</t>
   </si>
   <si>
-    <t>04.6 - Communication</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -1147,15 +1147,15 @@
     <t>Support for feminist, women-led and women's rights organisations and movements, and institutions (governmental and non-govermental) at all levels to enhance their effectiveness, influence and substainability (activities and core-funding). These organisations exist to bring about transformative change for gender equality and/or the rights of women and girls in developing countries. Their activities include agenda-setting, advocacy, policy dialogue, capacity development, awareness raising and prevention, service provision, conflict-prevention and peacebuilding, research, organising, and alliance and network building</t>
   </si>
   <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
-    <t>10 - Social protection</t>
-  </si>
-  <si>
-    <t>10.7 - Social exclusion n.e.c.</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -1192,12 +1192,12 @@
     <t>Collection, production, management and dissemination of statistics and data related to Government &amp; Civil Society. Includes macroeconomic statistics, government finance, fiscal and public sector statistics, support to development of administrative data infrastructure, civil society surveys.</t>
   </si>
   <si>
+    <t>01.5 - R&amp;D General public services</t>
+  </si>
+  <si>
     <t>01.5.0 - R&amp;D General public services (CS)</t>
   </si>
   <si>
-    <t>01.5 - R&amp;D General public services</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -1231,15 +1231,15 @@
     <t>Bilateral participation in peacekeeping operations mandated or authorised by the United Nations (UN) through Security Council resolutions, and conducted by international organisations, e.g. UN, NATO, the European Union (Security and Defence Policy security-related operations), or regional groupings of developing countries. Direct contributions to the UN Department for Peacekeeping Operations (UNDPKO) budget are excluded from bilateral ODA (they are reportable in part as multilateral ODA, see Annex 9). The activities that can be reported as bilateral ODA under this code are limited to: human rights and election monitoring; reintegration of demobilised soldiers; rehabilitation of basic national infrastructure; monitoring or retraining of civil administrators and police forces; security sector reform and other rule of law-related activities; training in customs and border control procedures; advice or training in fiscal or macroeconomic stabilisation policy; repatriation and demobilisation of armed factions, and disposal of their weapons; explosive mine removal. The enforcement aspects of international peacekeeping operations are not reportable as ODA. ODA-eligible bilateral participation in peacekeeping operations can take the form of financing or provision of equipment or military or civilian personnel (e.g. police officers). The reportable cost is calculated as the excess over what the personnel and equipment would have cost to maintain had they not been assigned to take part in a peace operation. Costs for military contingents participating in UNDPKO peacekeeping operations are not reportable as ODA. International peacekeeping operations may include humanitarian-type activities (contributions to the form of equipment or personnel), as described in codes 7xxxx. These should be included under code 15230 if they are an integrated part of the activities above, otherwise they should be reported as humanitarian aid. NB: When using this code, indicate the name of the operation in the short description of the activity reported.</t>
   </si>
   <si>
+    <t>02.3 - Foreign military aid</t>
+  </si>
+  <si>
+    <t>02 - Defence</t>
+  </si>
+  <si>
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
-    <t>02 - Defence</t>
-  </si>
-  <si>
-    <t>02.3 - Foreign military aid</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -1276,6 +1276,9 @@
     <t>Social protection or social security strategies, legislation and administration; institution capacity building and advice; social security and other social schemes; support programmes, cash benefits, pensions and special programmes for older persons, orphans, persons with disabilities, children, mothers with newborns, those living in poverty, without jobs and other vulnerable groups; social dimensions of structural adjustment.</t>
   </si>
   <si>
+    <t>10.9 - Social protection n.e.c.</t>
+  </si>
+  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
@@ -1285,9 +1288,6 @@
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
-    <t>10.9 - Social protection n.e.c.</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Social protection schemes in the form of cash or in-kind benefits, including pensions, against the risks linked to old age.</t>
   </si>
   <si>
+    <t>10.2 - Old age</t>
+  </si>
+  <si>
     <t>10.2.0 - Old age (IS)</t>
   </si>
   <si>
-    <t>10.2 - Old age</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -1348,12 +1348,12 @@
     <t>Employment policy and planning; institution capacity building and advice; employment creation and income generation programmes; including activities specifically designed for the needs of vulnerable groups.</t>
   </si>
   <si>
+    <t>10.5 - Unemployment</t>
+  </si>
+  <si>
     <t>10.5.0 - Unemployment (IS)</t>
   </si>
   <si>
-    <t>10.5 - Unemployment</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
@@ -1363,12 +1363,12 @@
     <t>Housing sector policy, planning and programmes; excluding low-cost housing and slum clearance (16040).</t>
   </si>
   <si>
+    <t>06.6 - Housing and community amenities n.e.c.</t>
+  </si>
+  <si>
     <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
   </si>
   <si>
-    <t>06.6 - Housing and community amenities n.e.c.</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
@@ -1378,12 +1378,12 @@
     <t>Including slum clearance.</t>
   </si>
   <si>
+    <t>06.1 - Housing development</t>
+  </si>
+  <si>
     <t>06.1.0 - Housing development (CS)</t>
   </si>
   <si>
-    <t>06.1 - Housing development</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
@@ -1402,15 +1402,15 @@
     <t>Including libraries and museums.</t>
   </si>
   <si>
+    <t>08.2 - Cultural services</t>
+  </si>
+  <si>
+    <t>08 - Recreation, culture and religion</t>
+  </si>
+  <si>
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
-    <t>08 - Recreation, culture and religion</t>
-  </si>
-  <si>
-    <t>08.2 - Cultural services</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -1444,12 +1444,12 @@
     <t>Recreation and sport</t>
   </si>
   <si>
+    <t>08.1 - Recreational and sporting services</t>
+  </si>
+  <si>
     <t>08.1.0 - Recreational and sporting services (IS)</t>
   </si>
   <si>
-    <t>08.1 - Recreational and sporting services</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -1528,12 +1528,12 @@
     <t>Road infrastructure, road vehicles; passenger road transport, motor passenger cars.</t>
   </si>
   <si>
+    <t>04.5 - Transport</t>
+  </si>
+  <si>
     <t>04.5.1 - Road transport (CS)</t>
   </si>
   <si>
-    <t>04.5 - Transport</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -1615,12 +1615,12 @@
     <t>Whether or not related to transportation. Whenever possible, report storage projects under the sector of the resource being stored.</t>
   </si>
   <si>
+    <t>04.7 - Other industries</t>
+  </si>
+  <si>
     <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
   </si>
   <si>
-    <t>04.7 - Other industries</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -1684,12 +1684,12 @@
     <t>Radio and TV links, equipment; newspapers; printing and publishing.</t>
   </si>
   <si>
+    <t>08.3 - Broadcasting and publishing services</t>
+  </si>
+  <si>
     <t>08.3.0 - Broadcasting and publishing services (CS)</t>
   </si>
   <si>
-    <t>08.3 - Broadcasting and publishing services</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
@@ -1708,24 +1708,24 @@
     <t>Energy sector policy, planning; aid to energy ministries and other governmental or nongovernmental institutions for activities related to the SDG7; institution capacity building and advice; tariffs, market building, unspecified energy activities; energy activities for which a more specific code cannot be assigned.</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>04.3 - Fuel and energy</t>
+  </si>
+  <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -1741,12 +1741,12 @@
     <t>Regulation of the energy sector, including wholesale and retail electricity provision.</t>
   </si>
   <si>
+    <t>04.8 - R&amp;D Economic affairs</t>
+  </si>
+  <si>
     <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
   </si>
   <si>
-    <t>04.8 - R&amp;D Economic affairs</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>See note regarding ODA eligibility of nuclear energy.</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>04.3.3 - Nuclear fuel (CS)</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
@@ -2131,24 +2131,24 @@
     <t>Agricultural sector policy, planning and programmes; aid to agricultural ministries; institution capacity building and advice; unspecified agriculture.</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>310</t>
   </si>
   <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -2311,15 +2311,15 @@
     <t>Forestry sector policy, planning and programmes; institution capacity building and advice; forest surveys; unspecified forestry and agro-forestry activities.</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
     <t>04.2.2 - Forestry (CS)</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -2368,15 +2368,15 @@
     <t>Fishing sector policy, planning and programmes; institution capacity building and advice; ocean and coastal fishing; marine and freshwater fish surveys and prospecting; fishing boats/equipment; unspecified fishing activities.</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
     <t>04.2.3 - Fishing and hunting (CS)</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>Fishing</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -2419,24 +2419,24 @@
     <t>Industrial sector policy, planning and programmes; institution capacity building and advice; unspecified industrial activities; manufacturing of goods not specified below.</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -2593,15 +2593,15 @@
     <t>Mineral and mining sector policy, planning and programmes; mining legislation, mining cadastre, mineral resources inventory, information systems, institution capacity building and advice; unspecified mineral resources exploitation.</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>Mineral Resources &amp; Mining</t>
+  </si>
+  <si>
     <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>Mineral Resources &amp; Mining</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -2692,15 +2692,15 @@
     <t>Construction sector policy and planning; excluding construction activities within specific sectors (e.g., hospital or school construction).</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
     <t>04.4.3 - Construction (CS)</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
@@ -2713,12 +2713,12 @@
     <t>331</t>
   </si>
   <si>
+    <t>Trade Policies &amp; Regulations</t>
+  </si>
+  <si>
     <t>330</t>
   </si>
   <si>
-    <t>Trade Policies &amp; Regulations</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -2770,15 +2770,15 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
     <t>04.7.3 - Tourism (CS)</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>Tourism</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -2812,12 +2812,12 @@
     <t>Including natural reserves and actions in the surrounding areas; other measures to protect endangered or vulnerable species and their habitats (e.g. wetlands preservation).</t>
   </si>
   <si>
+    <t>05.4 - Protection of biodiversity and landscape</t>
+  </si>
+  <si>
     <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
   </si>
   <si>
-    <t>05.4 - Protection of biodiversity and landscape</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -2848,6 +2848,9 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>04.9 - Economic affairs n.e.c.</t>
+  </si>
+  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
@@ -2857,9 +2860,6 @@
     <t>Other Multisector</t>
   </si>
   <si>
-    <t>04.9 - Economic affairs n.e.c.</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -2878,12 +2878,12 @@
     <t>Urban development and planning; urban management, land information systems.</t>
   </si>
   <si>
+    <t>06.2 - Community development</t>
+  </si>
+  <si>
     <t>06.2.0 - Community development (CS)</t>
   </si>
   <si>
-    <t>06.2 - Community development</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -2935,12 +2935,12 @@
     <t>Disaster risk reduction activities if not sector specific. Comprises risk assessments, structural prevention measures (e.g. flood prevention infrastructure), preparedness measures (e.g. early warning systems) normative prevention measures (e.g. building codes, land-use planning), and risk transfer systems (e.g. insurance schemes, risk funds). Also includes building local and national capacities and supporting the establishment of efficient and sustainable national structures able to promote disaster risk reduction.</t>
   </si>
   <si>
+    <t>02.2 - Civil defence</t>
+  </si>
+  <si>
     <t>02.2.0 - Civil defence (CS)</t>
   </si>
   <si>
-    <t>02.2 - Civil defence</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
@@ -2959,12 +2959,12 @@
     <t>Short or longer term household food security programmes and activities that improve the access of households to nutritionally adequate diets (excluding any cash transfers within broader social welfare programmes that do not have a specific food security, food acquisition or nutrition focus which should be reported under code 16010).</t>
   </si>
   <si>
+    <t>10.4 - Family and children</t>
+  </si>
+  <si>
     <t>10.4.0 - Family and children (IS)</t>
   </si>
   <si>
-    <t>10.4 - Family and children</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -2992,12 +2992,12 @@
     <t>When sector cannot be identified.</t>
   </si>
   <si>
+    <t>01.4 - Basic research</t>
+  </si>
+  <si>
     <t>01.4.0 - Basic research (CS)</t>
   </si>
   <si>
-    <t>01.4 - Basic research</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -3061,6 +3061,9 @@
     <t>Actions falling outside the code headings below.</t>
   </si>
   <si>
+    <t>01.7 - Public debt transactions</t>
+  </si>
+  <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
   </si>
   <si>
@@ -3068,9 +3071,6 @@
   </si>
   <si>
     <t>Action Relating to Debt</t>
-  </si>
-  <si>
-    <t>01.7 - Public debt transactions</t>
   </si>
   <si>
     <t>60020</t>
@@ -3744,10 +3744,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -3756,13 +3756,13 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3814,10 +3814,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3826,13 +3826,13 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3858,16 +3858,16 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3884,22 +3884,22 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -3928,16 +3928,16 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3963,16 +3963,16 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3989,7 +3989,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -3998,16 +3998,16 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4024,25 +4024,25 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4059,25 +4059,25 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4097,22 +4097,22 @@
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4129,25 +4129,25 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4173,16 +4173,16 @@
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4199,25 +4199,25 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4304,10 +4304,10 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
       </c>
       <c r="G19" t="s">
         <v>59</v>
@@ -4316,13 +4316,13 @@
         <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
         <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4339,10 +4339,10 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
         <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
       </c>
       <c r="G20" t="s">
         <v>59</v>
@@ -4351,13 +4351,13 @@
         <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="J20" t="s">
         <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4409,25 +4409,25 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
       </c>
       <c r="G22" t="s">
         <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4444,25 +4444,25 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
         <v>122</v>
-      </c>
-      <c r="F23" t="s">
-        <v>117</v>
       </c>
       <c r="G23" t="s">
         <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4479,25 +4479,25 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
         <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4514,25 +4514,25 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
         <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
       </c>
       <c r="G25" t="s">
         <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4549,25 +4549,25 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
         <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>117</v>
       </c>
       <c r="G26" t="s">
         <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4584,25 +4584,25 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
         <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
       </c>
       <c r="G27" t="s">
         <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4619,25 +4619,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
         <v>58</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
       </c>
       <c r="G28" t="s">
         <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4654,25 +4654,25 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
         <v>58</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
       </c>
       <c r="G29" t="s">
         <v>59</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4689,22 +4689,22 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
         <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
         <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
         <v>97</v>
@@ -4724,25 +4724,25 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
         <v>58</v>
-      </c>
-      <c r="F31" t="s">
-        <v>148</v>
       </c>
       <c r="G31" t="s">
         <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4759,25 +4759,25 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
         <v>58</v>
-      </c>
-      <c r="F32" t="s">
-        <v>148</v>
       </c>
       <c r="G32" t="s">
         <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4794,25 +4794,25 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" t="s">
         <v>58</v>
-      </c>
-      <c r="F33" t="s">
-        <v>148</v>
       </c>
       <c r="G33" t="s">
         <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4829,25 +4829,25 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" t="s">
         <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>148</v>
       </c>
       <c r="G34" t="s">
         <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4864,25 +4864,25 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
         <v>58</v>
-      </c>
-      <c r="F35" t="s">
-        <v>148</v>
       </c>
       <c r="G35" t="s">
         <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4899,25 +4899,25 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" t="s">
         <v>104</v>
-      </c>
-      <c r="F36" t="s">
-        <v>148</v>
       </c>
       <c r="G36" t="s">
         <v>59</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4933,20 +4933,20 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>58</v>
       </c>
       <c r="G37" t="s">
         <v>59</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
         <v>168</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>169</v>
-      </c>
-      <c r="K37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4962,20 +4962,20 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>58</v>
       </c>
       <c r="G38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" t="s">
         <v>168</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>169</v>
-      </c>
-      <c r="K38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4991,20 +4991,20 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>58</v>
       </c>
       <c r="G39" t="s">
         <v>59</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
         <v>168</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>169</v>
-      </c>
-      <c r="K39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5020,20 +5020,20 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>58</v>
       </c>
       <c r="G40" t="s">
         <v>59</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s">
         <v>168</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>169</v>
-      </c>
-      <c r="K40" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5049,20 +5049,20 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" t="s">
-        <v>92</v>
+      <c r="F41" t="s">
+        <v>93</v>
       </c>
       <c r="G41" t="s">
         <v>59</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" t="s">
         <v>168</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>169</v>
-      </c>
-      <c r="K41" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5078,20 +5078,20 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>104</v>
       </c>
       <c r="G42" t="s">
         <v>59</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" t="s">
         <v>168</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>169</v>
-      </c>
-      <c r="K42" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5107,16 +5107,16 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>188</v>
       </c>
       <c r="G43" t="s">
         <v>189</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>190</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>191</v>
       </c>
       <c r="K43" t="s">
@@ -5136,20 +5136,20 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>196</v>
       </c>
       <c r="G44" t="s">
         <v>197</v>
       </c>
-      <c r="H44" t="s">
-        <v>190</v>
-      </c>
       <c r="I44" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" t="s">
         <v>191</v>
       </c>
       <c r="K44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5165,16 +5165,16 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>188</v>
       </c>
       <c r="G45" t="s">
         <v>189</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>190</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>191</v>
       </c>
       <c r="K45" t="s">
@@ -5194,16 +5194,16 @@
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>188</v>
       </c>
       <c r="G46" t="s">
         <v>189</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>190</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>191</v>
       </c>
       <c r="K46" t="s">
@@ -5223,20 +5223,20 @@
       <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>208</v>
       </c>
       <c r="G47" t="s">
         <v>197</v>
       </c>
-      <c r="H47" t="s">
-        <v>190</v>
-      </c>
       <c r="I47" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" t="s">
         <v>191</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5252,16 +5252,16 @@
       <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>188</v>
       </c>
       <c r="G48" t="s">
         <v>189</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>190</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>191</v>
       </c>
       <c r="K48" t="s">
@@ -5281,16 +5281,16 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>188</v>
       </c>
       <c r="G49" t="s">
         <v>189</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>190</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>191</v>
       </c>
       <c r="K49" t="s">
@@ -5310,20 +5310,20 @@
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>208</v>
       </c>
       <c r="G50" t="s">
         <v>197</v>
       </c>
-      <c r="H50" t="s">
-        <v>190</v>
-      </c>
       <c r="I50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" t="s">
         <v>191</v>
       </c>
       <c r="K50" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5339,16 +5339,16 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>188</v>
       </c>
       <c r="G51" t="s">
         <v>189</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>190</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>191</v>
       </c>
       <c r="K51" t="s">
@@ -5368,20 +5368,20 @@
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>225</v>
       </c>
       <c r="G52" t="s">
         <v>197</v>
       </c>
-      <c r="H52" t="s">
-        <v>190</v>
-      </c>
       <c r="I52" t="s">
+        <v>226</v>
+      </c>
+      <c r="J52" t="s">
         <v>191</v>
       </c>
       <c r="K52" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5397,20 +5397,20 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
-        <v>15</v>
+      <c r="F53" t="s">
+        <v>16</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
-      <c r="H53" t="s">
-        <v>190</v>
-      </c>
       <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
         <v>191</v>
       </c>
       <c r="K53" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5462,10 +5462,10 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" t="s">
         <v>243</v>
-      </c>
-      <c r="F55" t="s">
-        <v>234</v>
       </c>
       <c r="G55" t="s">
         <v>235</v>
@@ -5474,13 +5474,13 @@
         <v>236</v>
       </c>
       <c r="I55" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J55" t="s">
         <v>238</v>
       </c>
       <c r="K55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5497,10 +5497,10 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" t="s">
         <v>248</v>
-      </c>
-      <c r="F56" t="s">
-        <v>234</v>
       </c>
       <c r="G56" t="s">
         <v>235</v>
@@ -5509,13 +5509,13 @@
         <v>236</v>
       </c>
       <c r="I56" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J56" t="s">
         <v>238</v>
       </c>
       <c r="K56" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5532,10 +5532,10 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" t="s">
         <v>253</v>
-      </c>
-      <c r="F57" t="s">
-        <v>234</v>
       </c>
       <c r="G57" t="s">
         <v>254</v>
@@ -5544,13 +5544,13 @@
         <v>236</v>
       </c>
       <c r="I57" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J57" t="s">
         <v>238</v>
       </c>
       <c r="K57" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5567,10 +5567,10 @@
         <v>14</v>
       </c>
       <c r="E58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
         <v>243</v>
-      </c>
-      <c r="F58" t="s">
-        <v>234</v>
       </c>
       <c r="G58" t="s">
         <v>235</v>
@@ -5579,13 +5579,13 @@
         <v>236</v>
       </c>
       <c r="I58" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J58" t="s">
         <v>238</v>
       </c>
       <c r="K58" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5602,10 +5602,10 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" t="s">
         <v>243</v>
-      </c>
-      <c r="F59" t="s">
-        <v>234</v>
       </c>
       <c r="G59" t="s">
         <v>235</v>
@@ -5614,13 +5614,13 @@
         <v>236</v>
       </c>
       <c r="I59" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J59" t="s">
         <v>238</v>
       </c>
       <c r="K59" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5637,10 +5637,10 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" t="s">
         <v>243</v>
-      </c>
-      <c r="F60" t="s">
-        <v>234</v>
       </c>
       <c r="G60" t="s">
         <v>235</v>
@@ -5649,13 +5649,13 @@
         <v>236</v>
       </c>
       <c r="I60" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J60" t="s">
         <v>238</v>
       </c>
       <c r="K60" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5672,10 +5672,10 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" t="s">
         <v>243</v>
-      </c>
-      <c r="F61" t="s">
-        <v>234</v>
       </c>
       <c r="G61" t="s">
         <v>235</v>
@@ -5684,13 +5684,13 @@
         <v>236</v>
       </c>
       <c r="I61" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J61" t="s">
         <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5707,10 +5707,10 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" t="s">
         <v>243</v>
-      </c>
-      <c r="F62" t="s">
-        <v>234</v>
       </c>
       <c r="G62" t="s">
         <v>235</v>
@@ -5719,13 +5719,13 @@
         <v>236</v>
       </c>
       <c r="I62" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J62" t="s">
         <v>238</v>
       </c>
       <c r="K62" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5742,10 +5742,10 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="F63" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G63" t="s">
         <v>235</v>
@@ -5754,13 +5754,13 @@
         <v>236</v>
       </c>
       <c r="I63" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="J63" t="s">
         <v>238</v>
       </c>
       <c r="K63" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5777,10 +5777,10 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
         <v>235</v>
@@ -5789,13 +5789,13 @@
         <v>236</v>
       </c>
       <c r="I64" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="J64" t="s">
         <v>238</v>
       </c>
       <c r="K64" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5812,10 +5812,10 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" t="s">
         <v>281</v>
-      </c>
-      <c r="F65" t="s">
-        <v>234</v>
       </c>
       <c r="G65" t="s">
         <v>235</v>
@@ -5824,13 +5824,13 @@
         <v>236</v>
       </c>
       <c r="I65" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="J65" t="s">
         <v>238</v>
       </c>
       <c r="K65" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5882,10 +5882,10 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" t="s">
         <v>243</v>
-      </c>
-      <c r="F67" t="s">
-        <v>234</v>
       </c>
       <c r="G67" t="s">
         <v>235</v>
@@ -5894,13 +5894,13 @@
         <v>236</v>
       </c>
       <c r="I67" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J67" t="s">
         <v>238</v>
       </c>
       <c r="K67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5917,7 +5917,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="F68" t="s">
         <v>234</v>
@@ -5929,7 +5929,7 @@
         <v>236</v>
       </c>
       <c r="I68" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="J68" t="s">
         <v>238</v>
@@ -5952,7 +5952,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="F69" t="s">
         <v>234</v>
@@ -5964,7 +5964,7 @@
         <v>236</v>
       </c>
       <c r="I69" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="J69" t="s">
         <v>238</v>
@@ -5987,10 +5987,10 @@
         <v>14</v>
       </c>
       <c r="E70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" t="s">
         <v>248</v>
-      </c>
-      <c r="F70" t="s">
-        <v>234</v>
       </c>
       <c r="G70" t="s">
         <v>235</v>
@@ -5999,13 +5999,13 @@
         <v>236</v>
       </c>
       <c r="I70" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J70" t="s">
         <v>238</v>
       </c>
       <c r="K70" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6022,10 +6022,10 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" t="s">
         <v>248</v>
-      </c>
-      <c r="F71" t="s">
-        <v>234</v>
       </c>
       <c r="G71" t="s">
         <v>235</v>
@@ -6034,13 +6034,13 @@
         <v>236</v>
       </c>
       <c r="I71" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J71" t="s">
         <v>238</v>
       </c>
       <c r="K71" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6092,10 +6092,10 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" t="s">
         <v>309</v>
-      </c>
-      <c r="F73" t="s">
-        <v>234</v>
       </c>
       <c r="G73" t="s">
         <v>254</v>
@@ -6104,13 +6104,13 @@
         <v>236</v>
       </c>
       <c r="I73" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="J73" t="s">
         <v>238</v>
       </c>
       <c r="K73" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6127,10 +6127,10 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
+        <v>233</v>
+      </c>
+      <c r="F74" t="s">
         <v>314</v>
-      </c>
-      <c r="F74" t="s">
-        <v>234</v>
       </c>
       <c r="G74" t="s">
         <v>254</v>
@@ -6139,13 +6139,13 @@
         <v>236</v>
       </c>
       <c r="I74" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="J74" t="s">
         <v>238</v>
       </c>
       <c r="K74" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6162,10 +6162,10 @@
         <v>14</v>
       </c>
       <c r="E75" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" t="s">
         <v>319</v>
-      </c>
-      <c r="F75" t="s">
-        <v>234</v>
       </c>
       <c r="G75" t="s">
         <v>254</v>
@@ -6174,13 +6174,13 @@
         <v>236</v>
       </c>
       <c r="I75" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="J75" t="s">
         <v>238</v>
       </c>
       <c r="K75" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6197,10 +6197,10 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" t="s">
         <v>309</v>
-      </c>
-      <c r="F76" t="s">
-        <v>234</v>
       </c>
       <c r="G76" t="s">
         <v>254</v>
@@ -6209,13 +6209,13 @@
         <v>236</v>
       </c>
       <c r="I76" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="J76" t="s">
         <v>238</v>
       </c>
       <c r="K76" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6232,10 +6232,10 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" t="s">
         <v>309</v>
-      </c>
-      <c r="F77" t="s">
-        <v>234</v>
       </c>
       <c r="G77" t="s">
         <v>254</v>
@@ -6244,13 +6244,13 @@
         <v>236</v>
       </c>
       <c r="I77" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="J77" t="s">
         <v>238</v>
       </c>
       <c r="K77" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6267,10 +6267,10 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" t="s">
         <v>314</v>
-      </c>
-      <c r="F78" t="s">
-        <v>234</v>
       </c>
       <c r="G78" t="s">
         <v>254</v>
@@ -6279,13 +6279,13 @@
         <v>236</v>
       </c>
       <c r="I78" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="J78" t="s">
         <v>238</v>
       </c>
       <c r="K78" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6299,10 +6299,10 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" t="s">
         <v>332</v>
-      </c>
-      <c r="F79" t="s">
-        <v>234</v>
       </c>
       <c r="G79" t="s">
         <v>254</v>
@@ -6311,13 +6311,13 @@
         <v>236</v>
       </c>
       <c r="I79" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="J79" t="s">
         <v>238</v>
       </c>
       <c r="K79" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6334,10 +6334,10 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" t="s">
         <v>337</v>
-      </c>
-      <c r="F80" t="s">
-        <v>234</v>
       </c>
       <c r="G80" t="s">
         <v>338</v>
@@ -6346,13 +6346,13 @@
         <v>236</v>
       </c>
       <c r="I80" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="J80" t="s">
         <v>238</v>
       </c>
       <c r="K80" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6369,10 +6369,10 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" t="s">
         <v>337</v>
-      </c>
-      <c r="F81" t="s">
-        <v>234</v>
       </c>
       <c r="G81" t="s">
         <v>338</v>
@@ -6381,13 +6381,13 @@
         <v>236</v>
       </c>
       <c r="I81" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="J81" t="s">
         <v>238</v>
       </c>
       <c r="K81" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6404,10 +6404,10 @@
         <v>14</v>
       </c>
       <c r="E82" t="s">
+        <v>233</v>
+      </c>
+      <c r="F82" t="s">
         <v>337</v>
-      </c>
-      <c r="F82" t="s">
-        <v>234</v>
       </c>
       <c r="G82" t="s">
         <v>338</v>
@@ -6416,13 +6416,13 @@
         <v>236</v>
       </c>
       <c r="I82" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="J82" t="s">
         <v>238</v>
       </c>
       <c r="K82" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6439,7 +6439,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="F83" t="s">
         <v>234</v>
@@ -6451,7 +6451,7 @@
         <v>236</v>
       </c>
       <c r="I83" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="J83" t="s">
         <v>238</v>
@@ -6474,10 +6474,10 @@
         <v>14</v>
       </c>
       <c r="E84" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" t="s">
         <v>352</v>
-      </c>
-      <c r="F84" t="s">
-        <v>234</v>
       </c>
       <c r="G84" t="s">
         <v>235</v>
@@ -6486,13 +6486,13 @@
         <v>236</v>
       </c>
       <c r="I84" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="J84" t="s">
         <v>238</v>
       </c>
       <c r="K84" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6509,10 +6509,10 @@
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="F85" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G85" t="s">
         <v>235</v>
@@ -6521,13 +6521,13 @@
         <v>236</v>
       </c>
       <c r="I85" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="J85" t="s">
         <v>238</v>
       </c>
       <c r="K85" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6544,10 +6544,10 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
+        <v>233</v>
+      </c>
+      <c r="F86" t="s">
         <v>361</v>
-      </c>
-      <c r="F86" t="s">
-        <v>234</v>
       </c>
       <c r="G86" t="s">
         <v>338</v>
@@ -6556,13 +6556,13 @@
         <v>236</v>
       </c>
       <c r="I86" t="s">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="J86" t="s">
         <v>238</v>
       </c>
       <c r="K86" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6579,10 +6579,10 @@
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="F87" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G87" t="s">
         <v>235</v>
@@ -6591,13 +6591,13 @@
         <v>236</v>
       </c>
       <c r="I87" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="J87" t="s">
         <v>238</v>
       </c>
       <c r="K87" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6611,10 +6611,10 @@
         <v>14</v>
       </c>
       <c r="E88" t="s">
+        <v>233</v>
+      </c>
+      <c r="F88" t="s">
         <v>243</v>
-      </c>
-      <c r="F88" t="s">
-        <v>234</v>
       </c>
       <c r="G88" t="s">
         <v>235</v>
@@ -6623,13 +6623,13 @@
         <v>236</v>
       </c>
       <c r="I88" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J88" t="s">
         <v>238</v>
       </c>
       <c r="K88" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6646,10 +6646,10 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" t="s">
         <v>243</v>
-      </c>
-      <c r="F89" t="s">
-        <v>234</v>
       </c>
       <c r="G89" t="s">
         <v>235</v>
@@ -6658,13 +6658,13 @@
         <v>236</v>
       </c>
       <c r="I89" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J89" t="s">
         <v>238</v>
       </c>
       <c r="K89" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6681,10 +6681,10 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
+        <v>233</v>
+      </c>
+      <c r="F90" t="s">
         <v>253</v>
-      </c>
-      <c r="F90" t="s">
-        <v>234</v>
       </c>
       <c r="G90" t="s">
         <v>254</v>
@@ -6693,13 +6693,13 @@
         <v>236</v>
       </c>
       <c r="I90" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J90" t="s">
         <v>238</v>
       </c>
       <c r="K90" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6716,10 +6716,10 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91" t="s">
         <v>377</v>
-      </c>
-      <c r="F91" t="s">
-        <v>234</v>
       </c>
       <c r="G91" t="s">
         <v>378</v>
@@ -6728,13 +6728,13 @@
         <v>236</v>
       </c>
       <c r="I91" t="s">
-        <v>237</v>
+        <v>379</v>
       </c>
       <c r="J91" t="s">
         <v>238</v>
       </c>
       <c r="K91" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6751,10 +6751,10 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
+        <v>233</v>
+      </c>
+      <c r="F92" t="s">
         <v>253</v>
-      </c>
-      <c r="F92" t="s">
-        <v>234</v>
       </c>
       <c r="G92" t="s">
         <v>254</v>
@@ -6763,13 +6763,13 @@
         <v>236</v>
       </c>
       <c r="I92" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J92" t="s">
         <v>238</v>
       </c>
       <c r="K92" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -6786,10 +6786,10 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
+        <v>233</v>
+      </c>
+      <c r="F93" t="s">
         <v>248</v>
-      </c>
-      <c r="F93" t="s">
-        <v>234</v>
       </c>
       <c r="G93" t="s">
         <v>235</v>
@@ -6798,13 +6798,13 @@
         <v>236</v>
       </c>
       <c r="I93" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J93" t="s">
         <v>238</v>
       </c>
       <c r="K93" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -6821,10 +6821,10 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
+        <v>233</v>
+      </c>
+      <c r="F94" t="s">
         <v>253</v>
-      </c>
-      <c r="F94" t="s">
-        <v>234</v>
       </c>
       <c r="G94" t="s">
         <v>254</v>
@@ -6833,13 +6833,13 @@
         <v>236</v>
       </c>
       <c r="I94" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J94" t="s">
         <v>238</v>
       </c>
       <c r="K94" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -6856,10 +6856,10 @@
         <v>14</v>
       </c>
       <c r="E95" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" t="s">
         <v>392</v>
-      </c>
-      <c r="F95" t="s">
-        <v>234</v>
       </c>
       <c r="G95" t="s">
         <v>235</v>
@@ -6868,13 +6868,13 @@
         <v>236</v>
       </c>
       <c r="I95" t="s">
-        <v>237</v>
+        <v>393</v>
       </c>
       <c r="J95" t="s">
         <v>238</v>
       </c>
       <c r="K95" t="s">
-        <v>393</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -6891,25 +6891,25 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
+        <v>397</v>
+      </c>
+      <c r="F96" t="s">
         <v>253</v>
-      </c>
-      <c r="F96" t="s">
-        <v>397</v>
       </c>
       <c r="G96" t="s">
         <v>254</v>
       </c>
       <c r="H96" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="I96" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J96" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="K96" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6926,25 +6926,25 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
+        <v>397</v>
+      </c>
+      <c r="F97" t="s">
         <v>253</v>
-      </c>
-      <c r="F97" t="s">
-        <v>397</v>
       </c>
       <c r="G97" t="s">
         <v>254</v>
       </c>
       <c r="H97" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="I97" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J97" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="K97" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6961,25 +6961,25 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
+        <v>397</v>
+      </c>
+      <c r="F98" t="s">
         <v>405</v>
-      </c>
-      <c r="F98" t="s">
-        <v>397</v>
       </c>
       <c r="G98" t="s">
         <v>406</v>
       </c>
       <c r="H98" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="I98" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J98" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="K98" t="s">
-        <v>407</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6996,25 +6996,25 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99" t="s">
         <v>253</v>
-      </c>
-      <c r="F99" t="s">
-        <v>397</v>
       </c>
       <c r="G99" t="s">
         <v>254</v>
       </c>
       <c r="H99" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="I99" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J99" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="K99" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7031,25 +7031,25 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
+        <v>397</v>
+      </c>
+      <c r="F100" t="s">
         <v>319</v>
-      </c>
-      <c r="F100" t="s">
-        <v>397</v>
       </c>
       <c r="G100" t="s">
         <v>254</v>
       </c>
       <c r="H100" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="I100" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="J100" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="K100" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7066,25 +7066,25 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
+        <v>397</v>
+      </c>
+      <c r="F101" t="s">
         <v>253</v>
-      </c>
-      <c r="F101" t="s">
-        <v>397</v>
       </c>
       <c r="G101" t="s">
         <v>254</v>
       </c>
       <c r="H101" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="I101" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J101" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="K101" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7100,16 +7100,16 @@
       <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>420</v>
       </c>
       <c r="G102" t="s">
         <v>378</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>421</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>422</v>
       </c>
       <c r="K102" t="s">
@@ -7129,16 +7129,16 @@
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>420</v>
       </c>
       <c r="G103" t="s">
         <v>378</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>421</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>422</v>
       </c>
       <c r="K103" t="s">
@@ -7158,16 +7158,16 @@
       <c r="D104" t="s">
         <v>14</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>420</v>
       </c>
       <c r="G104" t="s">
         <v>378</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>421</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>422</v>
       </c>
       <c r="K104" t="s">
@@ -7187,20 +7187,20 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>433</v>
       </c>
       <c r="G105" t="s">
         <v>378</v>
       </c>
-      <c r="H105" t="s">
-        <v>421</v>
-      </c>
       <c r="I105" t="s">
+        <v>434</v>
+      </c>
+      <c r="J105" t="s">
         <v>422</v>
       </c>
       <c r="K105" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7216,16 +7216,16 @@
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>420</v>
       </c>
       <c r="G106" t="s">
         <v>378</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>421</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>422</v>
       </c>
       <c r="K106" t="s">
@@ -7245,20 +7245,20 @@
       <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>377</v>
       </c>
       <c r="G107" t="s">
         <v>378</v>
       </c>
-      <c r="H107" t="s">
-        <v>421</v>
-      </c>
       <c r="I107" t="s">
+        <v>379</v>
+      </c>
+      <c r="J107" t="s">
         <v>422</v>
       </c>
       <c r="K107" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7274,20 +7274,20 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>444</v>
       </c>
       <c r="G108" t="s">
         <v>378</v>
       </c>
-      <c r="H108" t="s">
-        <v>421</v>
-      </c>
       <c r="I108" t="s">
+        <v>445</v>
+      </c>
+      <c r="J108" t="s">
         <v>422</v>
       </c>
       <c r="K108" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7303,20 +7303,20 @@
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>449</v>
       </c>
       <c r="G109" t="s">
         <v>189</v>
       </c>
-      <c r="H109" t="s">
-        <v>421</v>
-      </c>
       <c r="I109" t="s">
+        <v>450</v>
+      </c>
+      <c r="J109" t="s">
         <v>422</v>
       </c>
       <c r="K109" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7332,20 +7332,20 @@
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>454</v>
       </c>
       <c r="G110" t="s">
         <v>189</v>
       </c>
-      <c r="H110" t="s">
-        <v>421</v>
-      </c>
       <c r="I110" t="s">
+        <v>455</v>
+      </c>
+      <c r="J110" t="s">
         <v>422</v>
       </c>
       <c r="K110" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7361,16 +7361,16 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>420</v>
       </c>
       <c r="G111" t="s">
         <v>378</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>421</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>422</v>
       </c>
       <c r="K111" t="s">
@@ -7390,20 +7390,20 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>462</v>
       </c>
       <c r="G112" t="s">
         <v>463</v>
       </c>
-      <c r="H112" t="s">
-        <v>421</v>
-      </c>
       <c r="I112" t="s">
+        <v>464</v>
+      </c>
+      <c r="J112" t="s">
         <v>422</v>
       </c>
       <c r="K112" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -7419,20 +7419,20 @@
       <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="E113" t="s">
-        <v>296</v>
+      <c r="F113" t="s">
+        <v>234</v>
       </c>
       <c r="G113" t="s">
         <v>235</v>
       </c>
-      <c r="H113" t="s">
-        <v>421</v>
-      </c>
       <c r="I113" t="s">
+        <v>296</v>
+      </c>
+      <c r="J113" t="s">
         <v>422</v>
       </c>
       <c r="K113" t="s">
-        <v>239</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -7448,20 +7448,20 @@
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>314</v>
       </c>
       <c r="G114" t="s">
         <v>254</v>
       </c>
-      <c r="H114" t="s">
-        <v>421</v>
-      </c>
       <c r="I114" t="s">
+        <v>315</v>
+      </c>
+      <c r="J114" t="s">
         <v>422</v>
       </c>
       <c r="K114" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -7477,20 +7477,20 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>377</v>
       </c>
       <c r="G115" t="s">
         <v>378</v>
       </c>
-      <c r="H115" t="s">
-        <v>421</v>
-      </c>
       <c r="I115" t="s">
+        <v>379</v>
+      </c>
+      <c r="J115" t="s">
         <v>422</v>
       </c>
       <c r="K115" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -7503,20 +7503,20 @@
       <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>476</v>
       </c>
       <c r="G116" t="s">
         <v>463</v>
       </c>
-      <c r="H116" t="s">
-        <v>421</v>
-      </c>
       <c r="I116" t="s">
+        <v>477</v>
+      </c>
+      <c r="J116" t="s">
         <v>422</v>
       </c>
       <c r="K116" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -7529,20 +7529,20 @@
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>462</v>
       </c>
       <c r="G117" t="s">
         <v>463</v>
       </c>
-      <c r="H117" t="s">
-        <v>421</v>
-      </c>
       <c r="I117" t="s">
+        <v>464</v>
+      </c>
+      <c r="J117" t="s">
         <v>422</v>
       </c>
       <c r="K117" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -7558,20 +7558,20 @@
       <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="E118" t="s">
-        <v>483</v>
+      <c r="F118" t="s">
+        <v>337</v>
       </c>
       <c r="G118" t="s">
         <v>338</v>
       </c>
-      <c r="H118" t="s">
-        <v>421</v>
-      </c>
       <c r="I118" t="s">
+        <v>483</v>
+      </c>
+      <c r="J118" t="s">
         <v>422</v>
       </c>
       <c r="K118" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -7587,20 +7587,20 @@
       <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>377</v>
       </c>
       <c r="G119" t="s">
         <v>378</v>
       </c>
-      <c r="H119" t="s">
-        <v>421</v>
-      </c>
       <c r="I119" t="s">
+        <v>379</v>
+      </c>
+      <c r="J119" t="s">
         <v>422</v>
       </c>
       <c r="K119" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -7616,20 +7616,20 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>352</v>
       </c>
       <c r="G120" t="s">
         <v>235</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
+        <v>353</v>
+      </c>
+      <c r="J120" t="s">
         <v>490</v>
       </c>
-      <c r="I120" t="s">
+      <c r="K120" t="s">
         <v>491</v>
-      </c>
-      <c r="K120" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -7645,20 +7645,20 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="E121" t="s">
-        <v>296</v>
+      <c r="F121" t="s">
+        <v>234</v>
       </c>
       <c r="G121" t="s">
         <v>235</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
+        <v>296</v>
+      </c>
+      <c r="J121" t="s">
         <v>490</v>
       </c>
-      <c r="I121" t="s">
+      <c r="K121" t="s">
         <v>491</v>
-      </c>
-      <c r="K121" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -7674,20 +7674,20 @@
       <c r="D122" t="s">
         <v>14</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>352</v>
       </c>
       <c r="G122" t="s">
         <v>235</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
+        <v>353</v>
+      </c>
+      <c r="J122" t="s">
         <v>490</v>
       </c>
-      <c r="I122" t="s">
+      <c r="K122" t="s">
         <v>491</v>
-      </c>
-      <c r="K122" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -7703,20 +7703,20 @@
       <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>352</v>
       </c>
       <c r="G123" t="s">
         <v>235</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
+        <v>353</v>
+      </c>
+      <c r="J123" t="s">
         <v>490</v>
       </c>
-      <c r="I123" t="s">
+      <c r="K123" t="s">
         <v>491</v>
-      </c>
-      <c r="K123" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -7732,20 +7732,20 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>504</v>
       </c>
       <c r="G124" t="s">
         <v>338</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
+        <v>505</v>
+      </c>
+      <c r="J124" t="s">
         <v>490</v>
       </c>
-      <c r="I124" t="s">
+      <c r="K124" t="s">
         <v>491</v>
-      </c>
-      <c r="K124" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -7761,20 +7761,20 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>504</v>
       </c>
       <c r="G125" t="s">
         <v>338</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
+        <v>505</v>
+      </c>
+      <c r="J125" t="s">
         <v>490</v>
       </c>
-      <c r="I125" t="s">
+      <c r="K125" t="s">
         <v>491</v>
-      </c>
-      <c r="K125" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -7790,20 +7790,20 @@
       <c r="D126" t="s">
         <v>14</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>504</v>
       </c>
       <c r="G126" t="s">
         <v>338</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
+        <v>505</v>
+      </c>
+      <c r="J126" t="s">
         <v>490</v>
       </c>
-      <c r="I126" t="s">
+      <c r="K126" t="s">
         <v>491</v>
-      </c>
-      <c r="K126" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -7819,20 +7819,20 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>504</v>
       </c>
       <c r="G127" t="s">
         <v>338</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
+        <v>505</v>
+      </c>
+      <c r="J127" t="s">
         <v>490</v>
       </c>
-      <c r="I127" t="s">
+      <c r="K127" t="s">
         <v>491</v>
-      </c>
-      <c r="K127" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -7848,20 +7848,20 @@
       <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>504</v>
       </c>
       <c r="G128" t="s">
         <v>338</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
+        <v>505</v>
+      </c>
+      <c r="J128" t="s">
         <v>490</v>
       </c>
-      <c r="I128" t="s">
+      <c r="K128" t="s">
         <v>491</v>
-      </c>
-      <c r="K128" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -7877,20 +7877,20 @@
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="E129" t="s">
-        <v>521</v>
+      <c r="F129" t="s">
+        <v>504</v>
       </c>
       <c r="G129" t="s">
         <v>338</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
+        <v>521</v>
+      </c>
+      <c r="J129" t="s">
         <v>490</v>
       </c>
-      <c r="I129" t="s">
+      <c r="K129" t="s">
         <v>491</v>
-      </c>
-      <c r="K129" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7906,20 +7906,20 @@
       <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="E130" t="s">
-        <v>525</v>
+      <c r="F130" t="s">
+        <v>504</v>
       </c>
       <c r="G130" t="s">
         <v>338</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
+        <v>525</v>
+      </c>
+      <c r="J130" t="s">
         <v>490</v>
       </c>
-      <c r="I130" t="s">
+      <c r="K130" t="s">
         <v>491</v>
-      </c>
-      <c r="K130" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7935,20 +7935,20 @@
       <c r="D131" t="s">
         <v>14</v>
       </c>
-      <c r="E131" t="s">
-        <v>529</v>
+      <c r="F131" t="s">
+        <v>504</v>
       </c>
       <c r="G131" t="s">
         <v>338</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
+        <v>529</v>
+      </c>
+      <c r="J131" t="s">
         <v>490</v>
       </c>
-      <c r="I131" t="s">
+      <c r="K131" t="s">
         <v>491</v>
-      </c>
-      <c r="K131" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7964,20 +7964,20 @@
       <c r="D132" t="s">
         <v>14</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>533</v>
       </c>
       <c r="G132" t="s">
         <v>338</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
+        <v>534</v>
+      </c>
+      <c r="J132" t="s">
         <v>490</v>
       </c>
-      <c r="I132" t="s">
+      <c r="K132" t="s">
         <v>491</v>
-      </c>
-      <c r="K132" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7990,20 +7990,20 @@
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>392</v>
       </c>
       <c r="G133" t="s">
         <v>235</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
+        <v>393</v>
+      </c>
+      <c r="J133" t="s">
         <v>490</v>
       </c>
-      <c r="I133" t="s">
+      <c r="K133" t="s">
         <v>491</v>
-      </c>
-      <c r="K133" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8019,20 +8019,20 @@
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>361</v>
       </c>
       <c r="G134" t="s">
         <v>338</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
+        <v>362</v>
+      </c>
+      <c r="J134" t="s">
         <v>540</v>
       </c>
-      <c r="I134" t="s">
+      <c r="K134" t="s">
         <v>541</v>
-      </c>
-      <c r="K134" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8045,20 +8045,20 @@
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>361</v>
       </c>
       <c r="G135" t="s">
         <v>338</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
+        <v>362</v>
+      </c>
+      <c r="J135" t="s">
         <v>540</v>
       </c>
-      <c r="I135" t="s">
+      <c r="K135" t="s">
         <v>541</v>
-      </c>
-      <c r="K135" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8074,20 +8074,20 @@
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>361</v>
       </c>
       <c r="G136" t="s">
         <v>338</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
+        <v>362</v>
+      </c>
+      <c r="J136" t="s">
         <v>540</v>
       </c>
-      <c r="I136" t="s">
+      <c r="K136" t="s">
         <v>541</v>
-      </c>
-      <c r="K136" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8103,20 +8103,20 @@
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>361</v>
       </c>
       <c r="G137" t="s">
         <v>338</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
+        <v>362</v>
+      </c>
+      <c r="J137" t="s">
         <v>540</v>
       </c>
-      <c r="I137" t="s">
+      <c r="K137" t="s">
         <v>541</v>
-      </c>
-      <c r="K137" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8132,20 +8132,20 @@
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>361</v>
       </c>
       <c r="G138" t="s">
         <v>338</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
+        <v>362</v>
+      </c>
+      <c r="J138" t="s">
         <v>540</v>
       </c>
-      <c r="I138" t="s">
+      <c r="K138" t="s">
         <v>541</v>
-      </c>
-      <c r="K138" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8161,20 +8161,20 @@
       <c r="D139" t="s">
         <v>14</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>556</v>
       </c>
       <c r="G139" t="s">
         <v>463</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
+        <v>557</v>
+      </c>
+      <c r="J139" t="s">
         <v>540</v>
       </c>
-      <c r="I139" t="s">
+      <c r="K139" t="s">
         <v>541</v>
-      </c>
-      <c r="K139" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8190,20 +8190,20 @@
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>361</v>
       </c>
       <c r="G140" t="s">
         <v>338</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
+        <v>362</v>
+      </c>
+      <c r="J140" t="s">
         <v>540</v>
       </c>
-      <c r="I140" t="s">
+      <c r="K140" t="s">
         <v>541</v>
-      </c>
-      <c r="K140" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8287,10 +8287,10 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
+        <v>564</v>
+      </c>
+      <c r="F143" t="s">
         <v>575</v>
-      </c>
-      <c r="F143" t="s">
-        <v>565</v>
       </c>
       <c r="G143" t="s">
         <v>338</v>
@@ -8299,13 +8299,13 @@
         <v>566</v>
       </c>
       <c r="I143" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="J143" t="s">
         <v>568</v>
       </c>
       <c r="K143" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -8322,10 +8322,10 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
+        <v>564</v>
+      </c>
+      <c r="F144" t="s">
         <v>575</v>
-      </c>
-      <c r="F144" t="s">
-        <v>565</v>
       </c>
       <c r="G144" t="s">
         <v>338</v>
@@ -8334,13 +8334,13 @@
         <v>566</v>
       </c>
       <c r="I144" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="J144" t="s">
         <v>568</v>
       </c>
       <c r="K144" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8357,10 +8357,10 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
+        <v>564</v>
+      </c>
+      <c r="F145" t="s">
         <v>575</v>
-      </c>
-      <c r="F145" t="s">
-        <v>565</v>
       </c>
       <c r="G145" t="s">
         <v>338</v>
@@ -8369,13 +8369,13 @@
         <v>566</v>
       </c>
       <c r="I145" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="J145" t="s">
         <v>568</v>
       </c>
       <c r="K145" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -8427,22 +8427,22 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F147" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G147" t="s">
         <v>338</v>
       </c>
       <c r="H147" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I147" t="s">
         <v>567</v>
       </c>
       <c r="J147" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K147" t="s">
         <v>569</v>
@@ -8462,22 +8462,22 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F148" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G148" t="s">
         <v>338</v>
       </c>
       <c r="H148" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I148" t="s">
         <v>567</v>
       </c>
       <c r="J148" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K148" t="s">
         <v>569</v>
@@ -8497,22 +8497,22 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F149" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G149" t="s">
         <v>338</v>
       </c>
       <c r="H149" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I149" t="s">
         <v>567</v>
       </c>
       <c r="J149" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K149" t="s">
         <v>569</v>
@@ -8532,22 +8532,22 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F150" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G150" t="s">
         <v>338</v>
       </c>
       <c r="H150" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I150" t="s">
         <v>567</v>
       </c>
       <c r="J150" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K150" t="s">
         <v>569</v>
@@ -8567,22 +8567,22 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F151" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G151" t="s">
         <v>338</v>
       </c>
       <c r="H151" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I151" t="s">
         <v>567</v>
       </c>
       <c r="J151" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K151" t="s">
         <v>569</v>
@@ -8602,22 +8602,22 @@
         <v>14</v>
       </c>
       <c r="E152" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F152" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G152" t="s">
         <v>338</v>
       </c>
       <c r="H152" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I152" t="s">
         <v>567</v>
       </c>
       <c r="J152" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K152" t="s">
         <v>569</v>
@@ -8637,22 +8637,22 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F153" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G153" t="s">
         <v>338</v>
       </c>
       <c r="H153" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I153" t="s">
         <v>567</v>
       </c>
       <c r="J153" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K153" t="s">
         <v>569</v>
@@ -8672,22 +8672,22 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F154" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G154" t="s">
         <v>338</v>
       </c>
       <c r="H154" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I154" t="s">
         <v>567</v>
       </c>
       <c r="J154" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K154" t="s">
         <v>569</v>
@@ -8707,22 +8707,22 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F155" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G155" t="s">
         <v>338</v>
       </c>
       <c r="H155" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="I155" t="s">
         <v>567</v>
       </c>
       <c r="J155" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K155" t="s">
         <v>569</v>
@@ -8742,22 +8742,22 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F156" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G156" t="s">
         <v>338</v>
       </c>
       <c r="H156" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="I156" t="s">
         <v>567</v>
       </c>
       <c r="J156" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="K156" t="s">
         <v>569</v>
@@ -8777,22 +8777,22 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F157" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G157" t="s">
         <v>338</v>
       </c>
       <c r="H157" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="I157" t="s">
-        <v>567</v>
+        <v>623</v>
       </c>
       <c r="J157" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="K157" t="s">
         <v>569</v>
@@ -8812,22 +8812,22 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F158" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G158" t="s">
         <v>338</v>
       </c>
       <c r="H158" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="I158" t="s">
         <v>567</v>
       </c>
       <c r="J158" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="K158" t="s">
         <v>569</v>
@@ -8847,22 +8847,22 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F159" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G159" t="s">
         <v>338</v>
       </c>
       <c r="H159" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="I159" t="s">
         <v>567</v>
       </c>
       <c r="J159" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="K159" t="s">
         <v>569</v>
@@ -8882,22 +8882,22 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F160" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G160" t="s">
         <v>338</v>
       </c>
       <c r="H160" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="I160" t="s">
         <v>567</v>
       </c>
       <c r="J160" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="K160" t="s">
         <v>569</v>
@@ -8917,22 +8917,22 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="F161" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="G161" t="s">
         <v>338</v>
       </c>
       <c r="H161" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="I161" t="s">
         <v>567</v>
       </c>
       <c r="J161" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="K161" t="s">
         <v>569</v>
@@ -8952,22 +8952,22 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="F162" t="s">
-        <v>639</v>
+        <v>565</v>
       </c>
       <c r="G162" t="s">
         <v>338</v>
       </c>
       <c r="H162" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="I162" t="s">
         <v>567</v>
       </c>
       <c r="J162" t="s">
-        <v>640</v>
+        <v>568</v>
       </c>
       <c r="K162" t="s">
         <v>569</v>
@@ -8990,19 +8990,19 @@
         <v>644</v>
       </c>
       <c r="F163" t="s">
-        <v>645</v>
+        <v>565</v>
       </c>
       <c r="G163" t="s">
         <v>338</v>
       </c>
       <c r="H163" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="I163" t="s">
-        <v>567</v>
+        <v>645</v>
       </c>
       <c r="J163" t="s">
-        <v>642</v>
+        <v>568</v>
       </c>
       <c r="K163" t="s">
         <v>569</v>
@@ -9022,22 +9022,22 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F164" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G164" t="s">
         <v>338</v>
       </c>
       <c r="H164" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="I164" t="s">
         <v>567</v>
       </c>
       <c r="J164" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="K164" t="s">
         <v>569</v>
@@ -9057,22 +9057,22 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F165" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G165" t="s">
         <v>338</v>
       </c>
       <c r="H165" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="I165" t="s">
         <v>567</v>
       </c>
       <c r="J165" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="K165" t="s">
         <v>569</v>
@@ -9092,22 +9092,22 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F166" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G166" t="s">
         <v>338</v>
       </c>
       <c r="H166" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="I166" t="s">
         <v>567</v>
       </c>
       <c r="J166" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="K166" t="s">
         <v>569</v>
@@ -9127,22 +9127,22 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F167" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G167" t="s">
         <v>338</v>
       </c>
       <c r="H167" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="I167" t="s">
         <v>567</v>
       </c>
       <c r="J167" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="K167" t="s">
         <v>569</v>
@@ -9162,22 +9162,22 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F168" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G168" t="s">
         <v>338</v>
       </c>
       <c r="H168" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="I168" t="s">
-        <v>567</v>
+        <v>663</v>
       </c>
       <c r="J168" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="K168" t="s">
         <v>569</v>
@@ -9194,22 +9194,22 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F169" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G169" t="s">
         <v>338</v>
       </c>
       <c r="H169" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="I169" t="s">
-        <v>567</v>
+        <v>663</v>
       </c>
       <c r="J169" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="K169" t="s">
         <v>569</v>
@@ -9229,22 +9229,22 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="F170" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G170" t="s">
         <v>338</v>
       </c>
       <c r="H170" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="I170" t="s">
         <v>567</v>
       </c>
       <c r="J170" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="K170" t="s">
         <v>569</v>
@@ -9263,20 +9263,20 @@
       <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>337</v>
       </c>
       <c r="G171" t="s">
         <v>338</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
+        <v>339</v>
+      </c>
+      <c r="J171" t="s">
         <v>672</v>
       </c>
-      <c r="I171" t="s">
+      <c r="K171" t="s">
         <v>673</v>
-      </c>
-      <c r="K171" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9292,20 +9292,20 @@
       <c r="D172" t="s">
         <v>14</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>243</v>
       </c>
       <c r="G172" t="s">
         <v>235</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
+        <v>244</v>
+      </c>
+      <c r="J172" t="s">
         <v>672</v>
       </c>
-      <c r="I172" t="s">
+      <c r="K172" t="s">
         <v>673</v>
-      </c>
-      <c r="K172" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9321,20 +9321,20 @@
       <c r="D173" t="s">
         <v>14</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>337</v>
       </c>
       <c r="G173" t="s">
         <v>338</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
+        <v>339</v>
+      </c>
+      <c r="J173" t="s">
         <v>672</v>
       </c>
-      <c r="I173" t="s">
+      <c r="K173" t="s">
         <v>673</v>
-      </c>
-      <c r="K173" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9350,20 +9350,20 @@
       <c r="D174" t="s">
         <v>14</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>337</v>
       </c>
       <c r="G174" t="s">
         <v>338</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
+        <v>339</v>
+      </c>
+      <c r="J174" t="s">
         <v>672</v>
       </c>
-      <c r="I174" t="s">
+      <c r="K174" t="s">
         <v>673</v>
-      </c>
-      <c r="K174" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9379,20 +9379,20 @@
       <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>337</v>
       </c>
       <c r="G175" t="s">
         <v>338</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
+        <v>339</v>
+      </c>
+      <c r="J175" t="s">
         <v>672</v>
       </c>
-      <c r="I175" t="s">
+      <c r="K175" t="s">
         <v>673</v>
-      </c>
-      <c r="K175" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9405,20 +9405,20 @@
       <c r="D176" t="s">
         <v>14</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>337</v>
       </c>
       <c r="G176" t="s">
         <v>338</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
+        <v>339</v>
+      </c>
+      <c r="J176" t="s">
         <v>672</v>
       </c>
-      <c r="I176" t="s">
+      <c r="K176" t="s">
         <v>673</v>
-      </c>
-      <c r="K176" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9434,20 +9434,20 @@
       <c r="D177" t="s">
         <v>14</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>337</v>
       </c>
       <c r="G177" t="s">
         <v>338</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
+        <v>339</v>
+      </c>
+      <c r="J177" t="s">
         <v>691</v>
       </c>
-      <c r="I177" t="s">
+      <c r="K177" t="s">
         <v>692</v>
-      </c>
-      <c r="K177" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9463,20 +9463,20 @@
       <c r="D178" t="s">
         <v>14</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>337</v>
       </c>
       <c r="G178" t="s">
         <v>338</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
+        <v>339</v>
+      </c>
+      <c r="J178" t="s">
         <v>691</v>
       </c>
-      <c r="I178" t="s">
+      <c r="K178" t="s">
         <v>692</v>
-      </c>
-      <c r="K178" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -9492,20 +9492,20 @@
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>337</v>
       </c>
       <c r="G179" t="s">
         <v>338</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
+        <v>339</v>
+      </c>
+      <c r="J179" t="s">
         <v>691</v>
       </c>
-      <c r="I179" t="s">
+      <c r="K179" t="s">
         <v>692</v>
-      </c>
-      <c r="K179" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -9521,20 +9521,20 @@
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>337</v>
       </c>
       <c r="G180" t="s">
         <v>338</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
+        <v>339</v>
+      </c>
+      <c r="J180" t="s">
         <v>691</v>
       </c>
-      <c r="I180" t="s">
+      <c r="K180" t="s">
         <v>692</v>
-      </c>
-      <c r="K180" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -9968,10 +9968,10 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="F193" t="s">
-        <v>706</v>
+        <v>575</v>
       </c>
       <c r="G193" t="s">
         <v>338</v>
@@ -9980,13 +9980,13 @@
         <v>707</v>
       </c>
       <c r="I193" t="s">
-        <v>708</v>
+        <v>746</v>
       </c>
       <c r="J193" t="s">
         <v>709</v>
       </c>
       <c r="K193" t="s">
-        <v>576</v>
+        <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -10181,19 +10181,19 @@
         <v>765</v>
       </c>
       <c r="F199" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="G199" t="s">
         <v>338</v>
       </c>
       <c r="H199" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I199" t="s">
-        <v>708</v>
+        <v>767</v>
       </c>
       <c r="J199" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="K199" t="s">
         <v>710</v>
@@ -10216,19 +10216,19 @@
         <v>765</v>
       </c>
       <c r="F200" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="G200" t="s">
         <v>338</v>
       </c>
       <c r="H200" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I200" t="s">
-        <v>708</v>
+        <v>767</v>
       </c>
       <c r="J200" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="K200" t="s">
         <v>710</v>
@@ -10251,19 +10251,19 @@
         <v>765</v>
       </c>
       <c r="F201" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="G201" t="s">
         <v>338</v>
       </c>
       <c r="H201" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I201" t="s">
-        <v>708</v>
+        <v>767</v>
       </c>
       <c r="J201" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="K201" t="s">
         <v>710</v>
@@ -10283,19 +10283,19 @@
         <v>765</v>
       </c>
       <c r="F202" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="G202" t="s">
         <v>338</v>
       </c>
       <c r="H202" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I202" t="s">
-        <v>708</v>
+        <v>767</v>
       </c>
       <c r="J202" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="K202" t="s">
         <v>710</v>
@@ -10315,25 +10315,25 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="F203" t="s">
-        <v>766</v>
+        <v>575</v>
       </c>
       <c r="G203" t="s">
         <v>338</v>
       </c>
       <c r="H203" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I203" t="s">
-        <v>708</v>
+        <v>746</v>
       </c>
       <c r="J203" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="K203" t="s">
-        <v>576</v>
+        <v>710</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10350,19 +10350,19 @@
         <v>765</v>
       </c>
       <c r="F204" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="G204" t="s">
         <v>338</v>
       </c>
       <c r="H204" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="I204" t="s">
-        <v>708</v>
+        <v>767</v>
       </c>
       <c r="J204" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="K204" t="s">
         <v>710</v>
@@ -10385,19 +10385,19 @@
         <v>784</v>
       </c>
       <c r="F205" t="s">
-        <v>785</v>
+        <v>706</v>
       </c>
       <c r="G205" t="s">
         <v>338</v>
       </c>
       <c r="H205" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I205" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="J205" t="s">
-        <v>786</v>
+        <v>709</v>
       </c>
       <c r="K205" t="s">
         <v>710</v>
@@ -10420,19 +10420,19 @@
         <v>784</v>
       </c>
       <c r="F206" t="s">
-        <v>785</v>
+        <v>706</v>
       </c>
       <c r="G206" t="s">
         <v>338</v>
       </c>
       <c r="H206" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I206" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="J206" t="s">
-        <v>786</v>
+        <v>709</v>
       </c>
       <c r="K206" t="s">
         <v>710</v>
@@ -10452,19 +10452,19 @@
         <v>784</v>
       </c>
       <c r="F207" t="s">
-        <v>785</v>
+        <v>706</v>
       </c>
       <c r="G207" t="s">
         <v>338</v>
       </c>
       <c r="H207" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I207" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="J207" t="s">
-        <v>786</v>
+        <v>709</v>
       </c>
       <c r="K207" t="s">
         <v>710</v>
@@ -10484,25 +10484,25 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="F208" t="s">
-        <v>785</v>
+        <v>575</v>
       </c>
       <c r="G208" t="s">
         <v>338</v>
       </c>
       <c r="H208" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I208" t="s">
-        <v>708</v>
+        <v>746</v>
       </c>
       <c r="J208" t="s">
-        <v>786</v>
+        <v>709</v>
       </c>
       <c r="K208" t="s">
-        <v>576</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -10522,19 +10522,19 @@
         <v>784</v>
       </c>
       <c r="F209" t="s">
-        <v>785</v>
+        <v>706</v>
       </c>
       <c r="G209" t="s">
         <v>338</v>
       </c>
       <c r="H209" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="I209" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="J209" t="s">
-        <v>786</v>
+        <v>709</v>
       </c>
       <c r="K209" t="s">
         <v>710</v>
@@ -10723,10 +10723,10 @@
         <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="F215" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
       <c r="G215" t="s">
         <v>338</v>
@@ -10735,13 +10735,13 @@
         <v>803</v>
       </c>
       <c r="I215" t="s">
-        <v>804</v>
+        <v>767</v>
       </c>
       <c r="J215" t="s">
         <v>805</v>
       </c>
       <c r="K215" t="s">
-        <v>710</v>
+        <v>806</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -10892,10 +10892,10 @@
         <v>14</v>
       </c>
       <c r="E220" t="s">
-        <v>663</v>
+        <v>801</v>
       </c>
       <c r="F220" t="s">
-        <v>802</v>
+        <v>565</v>
       </c>
       <c r="G220" t="s">
         <v>338</v>
@@ -10904,13 +10904,13 @@
         <v>803</v>
       </c>
       <c r="I220" t="s">
-        <v>804</v>
+        <v>663</v>
       </c>
       <c r="J220" t="s">
         <v>805</v>
       </c>
       <c r="K220" t="s">
-        <v>569</v>
+        <v>806</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -11099,10 +11099,10 @@
         <v>14</v>
       </c>
       <c r="E226" t="s">
+        <v>801</v>
+      </c>
+      <c r="F226" t="s">
         <v>575</v>
-      </c>
-      <c r="F226" t="s">
-        <v>802</v>
       </c>
       <c r="G226" t="s">
         <v>338</v>
@@ -11111,13 +11111,13 @@
         <v>803</v>
       </c>
       <c r="I226" t="s">
-        <v>804</v>
+        <v>576</v>
       </c>
       <c r="J226" t="s">
         <v>805</v>
       </c>
       <c r="K226" t="s">
-        <v>576</v>
+        <v>806</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -11169,10 +11169,10 @@
         <v>14</v>
       </c>
       <c r="E228" t="s">
+        <v>801</v>
+      </c>
+      <c r="F228" t="s">
         <v>337</v>
-      </c>
-      <c r="F228" t="s">
-        <v>802</v>
       </c>
       <c r="G228" t="s">
         <v>338</v>
@@ -11181,13 +11181,13 @@
         <v>803</v>
       </c>
       <c r="I228" t="s">
-        <v>804</v>
+        <v>339</v>
       </c>
       <c r="J228" t="s">
         <v>805</v>
       </c>
       <c r="K228" t="s">
-        <v>339</v>
+        <v>806</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -11207,19 +11207,19 @@
         <v>859</v>
       </c>
       <c r="F229" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G229" t="s">
         <v>338</v>
       </c>
       <c r="H229" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I229" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J229" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K229" t="s">
         <v>806</v>
@@ -11242,19 +11242,19 @@
         <v>859</v>
       </c>
       <c r="F230" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G230" t="s">
         <v>338</v>
       </c>
       <c r="H230" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I230" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J230" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K230" t="s">
         <v>806</v>
@@ -11274,25 +11274,25 @@
         <v>14</v>
       </c>
       <c r="E231" t="s">
-        <v>623</v>
+        <v>859</v>
       </c>
       <c r="F231" t="s">
-        <v>860</v>
+        <v>565</v>
       </c>
       <c r="G231" t="s">
         <v>338</v>
       </c>
       <c r="H231" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I231" t="s">
-        <v>804</v>
+        <v>623</v>
       </c>
       <c r="J231" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K231" t="s">
-        <v>569</v>
+        <v>806</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11309,25 +11309,25 @@
         <v>14</v>
       </c>
       <c r="E232" t="s">
-        <v>663</v>
+        <v>859</v>
       </c>
       <c r="F232" t="s">
-        <v>860</v>
+        <v>565</v>
       </c>
       <c r="G232" t="s">
         <v>338</v>
       </c>
       <c r="H232" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I232" t="s">
-        <v>804</v>
+        <v>663</v>
       </c>
       <c r="J232" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K232" t="s">
-        <v>569</v>
+        <v>806</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -11347,19 +11347,19 @@
         <v>859</v>
       </c>
       <c r="F233" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G233" t="s">
         <v>338</v>
       </c>
       <c r="H233" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I233" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J233" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K233" t="s">
         <v>806</v>
@@ -11382,19 +11382,19 @@
         <v>859</v>
       </c>
       <c r="F234" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G234" t="s">
         <v>338</v>
       </c>
       <c r="H234" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I234" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J234" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K234" t="s">
         <v>806</v>
@@ -11417,19 +11417,19 @@
         <v>859</v>
       </c>
       <c r="F235" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G235" t="s">
         <v>338</v>
       </c>
       <c r="H235" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I235" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J235" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K235" t="s">
         <v>806</v>
@@ -11452,19 +11452,19 @@
         <v>859</v>
       </c>
       <c r="F236" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G236" t="s">
         <v>338</v>
       </c>
       <c r="H236" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I236" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J236" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K236" t="s">
         <v>806</v>
@@ -11487,19 +11487,19 @@
         <v>859</v>
       </c>
       <c r="F237" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G237" t="s">
         <v>338</v>
       </c>
       <c r="H237" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I237" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J237" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K237" t="s">
         <v>806</v>
@@ -11522,19 +11522,19 @@
         <v>859</v>
       </c>
       <c r="F238" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
       <c r="G238" t="s">
         <v>338</v>
       </c>
       <c r="H238" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="I238" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J238" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="K238" t="s">
         <v>806</v>
@@ -11557,19 +11557,19 @@
         <v>892</v>
       </c>
       <c r="F239" t="s">
-        <v>893</v>
+        <v>802</v>
       </c>
       <c r="G239" t="s">
         <v>338</v>
       </c>
       <c r="H239" t="s">
-        <v>803</v>
+        <v>893</v>
       </c>
       <c r="I239" t="s">
-        <v>804</v>
+        <v>894</v>
       </c>
       <c r="J239" t="s">
-        <v>894</v>
+        <v>805</v>
       </c>
       <c r="K239" t="s">
         <v>806</v>
@@ -11589,10 +11589,10 @@
         <v>14</v>
       </c>
       <c r="E240" t="s">
+        <v>898</v>
+      </c>
+      <c r="F240" t="s">
         <v>337</v>
-      </c>
-      <c r="F240" t="s">
-        <v>898</v>
       </c>
       <c r="G240" t="s">
         <v>338</v>
@@ -11601,13 +11601,13 @@
         <v>899</v>
       </c>
       <c r="I240" t="s">
-        <v>900</v>
+        <v>339</v>
       </c>
       <c r="J240" t="s">
         <v>900</v>
       </c>
       <c r="K240" t="s">
-        <v>339</v>
+        <v>899</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -11624,10 +11624,10 @@
         <v>14</v>
       </c>
       <c r="E241" t="s">
+        <v>898</v>
+      </c>
+      <c r="F241" t="s">
         <v>337</v>
-      </c>
-      <c r="F241" t="s">
-        <v>898</v>
       </c>
       <c r="G241" t="s">
         <v>338</v>
@@ -11636,13 +11636,13 @@
         <v>899</v>
       </c>
       <c r="I241" t="s">
-        <v>900</v>
+        <v>339</v>
       </c>
       <c r="J241" t="s">
         <v>900</v>
       </c>
       <c r="K241" t="s">
-        <v>339</v>
+        <v>899</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -11659,10 +11659,10 @@
         <v>14</v>
       </c>
       <c r="E242" t="s">
+        <v>898</v>
+      </c>
+      <c r="F242" t="s">
         <v>337</v>
-      </c>
-      <c r="F242" t="s">
-        <v>898</v>
       </c>
       <c r="G242" t="s">
         <v>338</v>
@@ -11671,13 +11671,13 @@
         <v>899</v>
       </c>
       <c r="I242" t="s">
-        <v>900</v>
+        <v>339</v>
       </c>
       <c r="J242" t="s">
         <v>900</v>
       </c>
       <c r="K242" t="s">
-        <v>339</v>
+        <v>899</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -11694,10 +11694,10 @@
         <v>14</v>
       </c>
       <c r="E243" t="s">
+        <v>898</v>
+      </c>
+      <c r="F243" t="s">
         <v>337</v>
-      </c>
-      <c r="F243" t="s">
-        <v>898</v>
       </c>
       <c r="G243" t="s">
         <v>338</v>
@@ -11706,13 +11706,13 @@
         <v>899</v>
       </c>
       <c r="I243" t="s">
-        <v>900</v>
+        <v>339</v>
       </c>
       <c r="J243" t="s">
         <v>900</v>
       </c>
       <c r="K243" t="s">
-        <v>339</v>
+        <v>899</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -11729,10 +11729,10 @@
         <v>14</v>
       </c>
       <c r="E244" t="s">
+        <v>898</v>
+      </c>
+      <c r="F244" t="s">
         <v>337</v>
-      </c>
-      <c r="F244" t="s">
-        <v>898</v>
       </c>
       <c r="G244" t="s">
         <v>338</v>
@@ -11741,13 +11741,13 @@
         <v>899</v>
       </c>
       <c r="I244" t="s">
-        <v>900</v>
+        <v>339</v>
       </c>
       <c r="J244" t="s">
         <v>900</v>
       </c>
       <c r="K244" t="s">
-        <v>339</v>
+        <v>899</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -11764,10 +11764,10 @@
         <v>14</v>
       </c>
       <c r="E245" t="s">
+        <v>898</v>
+      </c>
+      <c r="F245" t="s">
         <v>337</v>
-      </c>
-      <c r="F245" t="s">
-        <v>898</v>
       </c>
       <c r="G245" t="s">
         <v>338</v>
@@ -11776,13 +11776,13 @@
         <v>899</v>
       </c>
       <c r="I245" t="s">
-        <v>900</v>
+        <v>339</v>
       </c>
       <c r="J245" t="s">
         <v>900</v>
       </c>
       <c r="K245" t="s">
-        <v>339</v>
+        <v>899</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -11799,22 +11799,22 @@
         <v>918</v>
       </c>
       <c r="F246" t="s">
-        <v>919</v>
+        <v>533</v>
       </c>
       <c r="G246" t="s">
         <v>338</v>
       </c>
       <c r="H246" t="s">
+        <v>919</v>
+      </c>
+      <c r="I246" t="s">
+        <v>920</v>
+      </c>
+      <c r="J246" t="s">
+        <v>900</v>
+      </c>
+      <c r="K246" t="s">
         <v>899</v>
-      </c>
-      <c r="I246" t="s">
-        <v>900</v>
-      </c>
-      <c r="J246" t="s">
-        <v>920</v>
-      </c>
-      <c r="K246" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -11830,20 +11830,20 @@
       <c r="D247" t="s">
         <v>14</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>196</v>
       </c>
       <c r="G247" t="s">
         <v>197</v>
       </c>
-      <c r="H247" t="s">
+      <c r="I247" t="s">
+        <v>198</v>
+      </c>
+      <c r="J247" t="s">
         <v>924</v>
       </c>
-      <c r="I247" t="s">
+      <c r="K247" t="s">
         <v>925</v>
-      </c>
-      <c r="K247" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -11859,20 +11859,20 @@
       <c r="D248" t="s">
         <v>14</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>196</v>
       </c>
       <c r="G248" t="s">
         <v>197</v>
       </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
+        <v>198</v>
+      </c>
+      <c r="J248" t="s">
         <v>924</v>
       </c>
-      <c r="I248" t="s">
+      <c r="K248" t="s">
         <v>925</v>
-      </c>
-      <c r="K248" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -11888,20 +11888,20 @@
       <c r="D249" t="s">
         <v>14</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>932</v>
       </c>
       <c r="G249" t="s">
         <v>197</v>
       </c>
-      <c r="H249" t="s">
+      <c r="I249" t="s">
+        <v>933</v>
+      </c>
+      <c r="J249" t="s">
         <v>924</v>
       </c>
-      <c r="I249" t="s">
+      <c r="K249" t="s">
         <v>925</v>
-      </c>
-      <c r="K249" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -11917,20 +11917,20 @@
       <c r="D250" t="s">
         <v>14</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>196</v>
       </c>
       <c r="G250" t="s">
         <v>197</v>
       </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
+        <v>198</v>
+      </c>
+      <c r="J250" t="s">
         <v>924</v>
       </c>
-      <c r="I250" t="s">
+      <c r="K250" t="s">
         <v>925</v>
-      </c>
-      <c r="K250" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -11943,20 +11943,20 @@
       <c r="D251" t="s">
         <v>14</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>196</v>
       </c>
       <c r="G251" t="s">
         <v>197</v>
       </c>
-      <c r="H251" t="s">
+      <c r="I251" t="s">
+        <v>198</v>
+      </c>
+      <c r="J251" t="s">
         <v>924</v>
       </c>
-      <c r="I251" t="s">
+      <c r="K251" t="s">
         <v>925</v>
-      </c>
-      <c r="K251" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -11972,20 +11972,20 @@
       <c r="D252" t="s">
         <v>14</v>
       </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>196</v>
       </c>
       <c r="G252" t="s">
         <v>197</v>
       </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
+        <v>198</v>
+      </c>
+      <c r="J252" t="s">
         <v>924</v>
       </c>
-      <c r="I252" t="s">
+      <c r="K252" t="s">
         <v>925</v>
-      </c>
-      <c r="K252" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -11998,16 +11998,16 @@
       <c r="D253" t="s">
         <v>14</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>944</v>
       </c>
       <c r="G253" t="s">
         <v>338</v>
       </c>
-      <c r="H253" t="s">
+      <c r="I253" t="s">
         <v>945</v>
       </c>
-      <c r="I253" t="s">
+      <c r="J253" t="s">
         <v>946</v>
       </c>
       <c r="K253" t="s">
@@ -12027,20 +12027,20 @@
       <c r="D254" t="s">
         <v>14</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>454</v>
       </c>
       <c r="G254" t="s">
         <v>189</v>
       </c>
-      <c r="H254" t="s">
-        <v>945</v>
-      </c>
       <c r="I254" t="s">
+        <v>455</v>
+      </c>
+      <c r="J254" t="s">
         <v>946</v>
       </c>
       <c r="K254" t="s">
-        <v>455</v>
+        <v>947</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -12056,20 +12056,20 @@
       <c r="D255" t="s">
         <v>14</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
         <v>954</v>
       </c>
       <c r="G255" t="s">
         <v>189</v>
       </c>
-      <c r="H255" t="s">
-        <v>945</v>
-      </c>
       <c r="I255" t="s">
+        <v>955</v>
+      </c>
+      <c r="J255" t="s">
         <v>946</v>
       </c>
       <c r="K255" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -12085,20 +12085,20 @@
       <c r="D256" t="s">
         <v>14</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
         <v>954</v>
       </c>
       <c r="G256" t="s">
         <v>189</v>
       </c>
-      <c r="H256" t="s">
-        <v>945</v>
-      </c>
       <c r="I256" t="s">
+        <v>955</v>
+      </c>
+      <c r="J256" t="s">
         <v>946</v>
       </c>
       <c r="K256" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -12114,20 +12114,20 @@
       <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>954</v>
       </c>
       <c r="G257" t="s">
         <v>189</v>
       </c>
-      <c r="H257" t="s">
-        <v>945</v>
-      </c>
       <c r="I257" t="s">
+        <v>955</v>
+      </c>
+      <c r="J257" t="s">
         <v>946</v>
       </c>
       <c r="K257" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -12143,20 +12143,20 @@
       <c r="D258" t="s">
         <v>14</v>
       </c>
-      <c r="E258" t="s">
-        <v>705</v>
+      <c r="F258" t="s">
+        <v>706</v>
       </c>
       <c r="G258" t="s">
         <v>338</v>
       </c>
-      <c r="H258" t="s">
-        <v>945</v>
-      </c>
       <c r="I258" t="s">
+        <v>708</v>
+      </c>
+      <c r="J258" t="s">
         <v>946</v>
       </c>
       <c r="K258" t="s">
-        <v>710</v>
+        <v>947</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -12172,20 +12172,20 @@
       <c r="D259" t="s">
         <v>14</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>954</v>
       </c>
       <c r="G259" t="s">
         <v>189</v>
       </c>
-      <c r="H259" t="s">
-        <v>945</v>
-      </c>
       <c r="I259" t="s">
+        <v>955</v>
+      </c>
+      <c r="J259" t="s">
         <v>946</v>
       </c>
       <c r="K259" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -12201,20 +12201,20 @@
       <c r="D260" t="s">
         <v>14</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>337</v>
       </c>
       <c r="G260" t="s">
         <v>338</v>
       </c>
-      <c r="H260" t="s">
-        <v>945</v>
-      </c>
       <c r="I260" t="s">
+        <v>339</v>
+      </c>
+      <c r="J260" t="s">
         <v>946</v>
       </c>
       <c r="K260" t="s">
-        <v>339</v>
+        <v>947</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -12230,20 +12230,20 @@
       <c r="D261" t="s">
         <v>14</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>973</v>
       </c>
       <c r="G261" t="s">
         <v>406</v>
       </c>
-      <c r="H261" t="s">
-        <v>945</v>
-      </c>
       <c r="I261" t="s">
+        <v>974</v>
+      </c>
+      <c r="J261" t="s">
         <v>946</v>
       </c>
       <c r="K261" t="s">
-        <v>974</v>
+        <v>947</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -12259,20 +12259,20 @@
       <c r="D262" t="s">
         <v>14</v>
       </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>337</v>
       </c>
       <c r="G262" t="s">
         <v>338</v>
       </c>
-      <c r="H262" t="s">
-        <v>945</v>
-      </c>
       <c r="I262" t="s">
+        <v>339</v>
+      </c>
+      <c r="J262" t="s">
         <v>946</v>
       </c>
       <c r="K262" t="s">
-        <v>339</v>
+        <v>947</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -12288,20 +12288,20 @@
       <c r="D263" t="s">
         <v>14</v>
       </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>981</v>
       </c>
       <c r="G263" t="s">
         <v>378</v>
       </c>
-      <c r="H263" t="s">
-        <v>945</v>
-      </c>
       <c r="I263" t="s">
+        <v>982</v>
+      </c>
+      <c r="J263" t="s">
         <v>946</v>
       </c>
       <c r="K263" t="s">
-        <v>982</v>
+        <v>947</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -12317,20 +12317,20 @@
       <c r="D264" t="s">
         <v>14</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>58</v>
       </c>
       <c r="G264" t="s">
         <v>59</v>
       </c>
-      <c r="H264" t="s">
-        <v>945</v>
-      </c>
       <c r="I264" t="s">
+        <v>60</v>
+      </c>
+      <c r="J264" t="s">
         <v>946</v>
       </c>
       <c r="K264" t="s">
-        <v>60</v>
+        <v>947</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -12346,20 +12346,20 @@
       <c r="D265" t="s">
         <v>14</v>
       </c>
-      <c r="E265" t="s">
-        <v>15</v>
+      <c r="F265" t="s">
+        <v>16</v>
       </c>
       <c r="G265" t="s">
         <v>17</v>
       </c>
-      <c r="H265" t="s">
-        <v>945</v>
-      </c>
       <c r="I265" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265" t="s">
         <v>946</v>
       </c>
       <c r="K265" t="s">
-        <v>21</v>
+        <v>947</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -12375,20 +12375,20 @@
       <c r="D266" t="s">
         <v>14</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
         <v>992</v>
       </c>
       <c r="G266" t="s">
         <v>235</v>
       </c>
-      <c r="H266" t="s">
-        <v>945</v>
-      </c>
       <c r="I266" t="s">
+        <v>993</v>
+      </c>
+      <c r="J266" t="s">
         <v>946</v>
       </c>
       <c r="K266" t="s">
-        <v>993</v>
+        <v>947</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -12404,20 +12404,20 @@
       <c r="D267" t="s">
         <v>14</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>243</v>
       </c>
       <c r="G267" t="s">
         <v>235</v>
       </c>
-      <c r="H267" t="s">
+      <c r="I267" t="s">
+        <v>244</v>
+      </c>
+      <c r="J267" t="s">
         <v>997</v>
       </c>
-      <c r="I267" t="s">
+      <c r="K267" t="s">
         <v>998</v>
-      </c>
-      <c r="K267" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -12433,20 +12433,20 @@
       <c r="D268" t="s">
         <v>14</v>
       </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>420</v>
       </c>
       <c r="G268" t="s">
         <v>378</v>
       </c>
-      <c r="H268" t="s">
+      <c r="I268" t="s">
+        <v>421</v>
+      </c>
+      <c r="J268" t="s">
         <v>1002</v>
       </c>
-      <c r="I268" t="s">
+      <c r="K268" t="s">
         <v>1003</v>
-      </c>
-      <c r="K268" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -12462,20 +12462,20 @@
       <c r="D269" t="s">
         <v>14</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>243</v>
       </c>
       <c r="G269" t="s">
         <v>235</v>
       </c>
-      <c r="H269" t="s">
+      <c r="I269" t="s">
+        <v>244</v>
+      </c>
+      <c r="J269" t="s">
         <v>1007</v>
       </c>
-      <c r="I269" t="s">
+      <c r="K269" t="s">
         <v>1008</v>
-      </c>
-      <c r="K269" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -12491,20 +12491,20 @@
       <c r="D270" t="s">
         <v>14</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>243</v>
       </c>
       <c r="G270" t="s">
         <v>235</v>
       </c>
-      <c r="H270" t="s">
+      <c r="I270" t="s">
+        <v>244</v>
+      </c>
+      <c r="J270" t="s">
         <v>1007</v>
       </c>
-      <c r="I270" t="s">
+      <c r="K270" t="s">
         <v>1008</v>
-      </c>
-      <c r="K270" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -12520,16 +12520,16 @@
       <c r="D271" t="s">
         <v>14</v>
       </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>1015</v>
       </c>
       <c r="G271" t="s">
         <v>235</v>
       </c>
-      <c r="H271" t="s">
+      <c r="I271" t="s">
         <v>1016</v>
       </c>
-      <c r="I271" t="s">
+      <c r="J271" t="s">
         <v>1017</v>
       </c>
       <c r="K271" t="s">
@@ -12546,16 +12546,16 @@
       <c r="D272" t="s">
         <v>14</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>1015</v>
       </c>
       <c r="G272" t="s">
         <v>235</v>
       </c>
-      <c r="H272" t="s">
+      <c r="I272" t="s">
         <v>1016</v>
       </c>
-      <c r="I272" t="s">
+      <c r="J272" t="s">
         <v>1017</v>
       </c>
       <c r="K272" t="s">
@@ -12575,16 +12575,16 @@
       <c r="D273" t="s">
         <v>14</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>1015</v>
       </c>
       <c r="G273" t="s">
         <v>235</v>
       </c>
-      <c r="H273" t="s">
+      <c r="I273" t="s">
         <v>1016</v>
       </c>
-      <c r="I273" t="s">
+      <c r="J273" t="s">
         <v>1017</v>
       </c>
       <c r="K273" t="s">
@@ -12601,16 +12601,16 @@
       <c r="D274" t="s">
         <v>14</v>
       </c>
-      <c r="E274" t="s">
+      <c r="F274" t="s">
         <v>1015</v>
       </c>
       <c r="G274" t="s">
         <v>235</v>
       </c>
-      <c r="H274" t="s">
+      <c r="I274" t="s">
         <v>1016</v>
       </c>
-      <c r="I274" t="s">
+      <c r="J274" t="s">
         <v>1017</v>
       </c>
       <c r="K274" t="s">
@@ -12630,16 +12630,16 @@
       <c r="D275" t="s">
         <v>14</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>1015</v>
       </c>
       <c r="G275" t="s">
         <v>235</v>
       </c>
-      <c r="H275" t="s">
+      <c r="I275" t="s">
         <v>1016</v>
       </c>
-      <c r="I275" t="s">
+      <c r="J275" t="s">
         <v>1017</v>
       </c>
       <c r="K275" t="s">
@@ -12659,16 +12659,16 @@
       <c r="D276" t="s">
         <v>14</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>1015</v>
       </c>
       <c r="G276" t="s">
         <v>235</v>
       </c>
-      <c r="H276" t="s">
+      <c r="I276" t="s">
         <v>1016</v>
       </c>
-      <c r="I276" t="s">
+      <c r="J276" t="s">
         <v>1017</v>
       </c>
       <c r="K276" t="s">
@@ -12688,16 +12688,16 @@
       <c r="D277" t="s">
         <v>14</v>
       </c>
-      <c r="E277" t="s">
+      <c r="F277" t="s">
         <v>1015</v>
       </c>
       <c r="G277" t="s">
         <v>235</v>
       </c>
-      <c r="H277" t="s">
+      <c r="I277" t="s">
         <v>1016</v>
       </c>
-      <c r="I277" t="s">
+      <c r="J277" t="s">
         <v>1017</v>
       </c>
       <c r="K277" t="s">
@@ -12717,20 +12717,20 @@
       <c r="D278" t="s">
         <v>14</v>
       </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>420</v>
       </c>
       <c r="G278" t="s">
         <v>378</v>
       </c>
-      <c r="H278" t="s">
+      <c r="I278" t="s">
+        <v>421</v>
+      </c>
+      <c r="J278" t="s">
         <v>1038</v>
       </c>
-      <c r="I278" t="s">
+      <c r="K278" t="s">
         <v>1039</v>
-      </c>
-      <c r="K278" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -12746,20 +12746,20 @@
       <c r="D279" t="s">
         <v>14</v>
       </c>
-      <c r="E279" t="s">
-        <v>92</v>
+      <c r="F279" t="s">
+        <v>93</v>
       </c>
       <c r="G279" t="s">
         <v>59</v>
       </c>
-      <c r="H279" t="s">
+      <c r="I279" t="s">
+        <v>95</v>
+      </c>
+      <c r="J279" t="s">
         <v>1038</v>
       </c>
-      <c r="I279" t="s">
+      <c r="K279" t="s">
         <v>1039</v>
-      </c>
-      <c r="K279" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -12775,20 +12775,20 @@
       <c r="D280" t="s">
         <v>14</v>
       </c>
-      <c r="E280" t="s">
-        <v>15</v>
+      <c r="F280" t="s">
+        <v>16</v>
       </c>
       <c r="G280" t="s">
         <v>17</v>
       </c>
-      <c r="H280" t="s">
+      <c r="I280" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280" t="s">
         <v>1038</v>
       </c>
-      <c r="I280" t="s">
+      <c r="K280" t="s">
         <v>1039</v>
-      </c>
-      <c r="K280" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -12804,20 +12804,20 @@
       <c r="D281" t="s">
         <v>14</v>
       </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
         <v>352</v>
       </c>
       <c r="G281" t="s">
         <v>235</v>
       </c>
-      <c r="H281" t="s">
+      <c r="I281" t="s">
+        <v>353</v>
+      </c>
+      <c r="J281" t="s">
         <v>1038</v>
       </c>
-      <c r="I281" t="s">
+      <c r="K281" t="s">
         <v>1039</v>
-      </c>
-      <c r="K281" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -12833,20 +12833,20 @@
       <c r="D282" t="s">
         <v>14</v>
       </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
         <v>253</v>
       </c>
       <c r="G282" t="s">
         <v>254</v>
       </c>
-      <c r="H282" t="s">
+      <c r="I282" t="s">
+        <v>255</v>
+      </c>
+      <c r="J282" t="s">
         <v>1038</v>
       </c>
-      <c r="I282" t="s">
+      <c r="K282" t="s">
         <v>1039</v>
-      </c>
-      <c r="K282" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -12862,20 +12862,20 @@
       <c r="D283" t="s">
         <v>14</v>
       </c>
-      <c r="E283" t="s">
-        <v>892</v>
+      <c r="F283" t="s">
+        <v>802</v>
       </c>
       <c r="G283" t="s">
         <v>338</v>
       </c>
-      <c r="H283" t="s">
+      <c r="I283" t="s">
+        <v>894</v>
+      </c>
+      <c r="J283" t="s">
         <v>1055</v>
       </c>
-      <c r="I283" t="s">
+      <c r="K283" t="s">
         <v>1056</v>
-      </c>
-      <c r="K283" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -12891,20 +12891,20 @@
       <c r="D284" t="s">
         <v>14</v>
       </c>
-      <c r="E284" t="s">
+      <c r="F284" t="s">
         <v>253</v>
       </c>
       <c r="G284" t="s">
         <v>254</v>
       </c>
-      <c r="H284" t="s">
+      <c r="I284" t="s">
+        <v>255</v>
+      </c>
+      <c r="J284" t="s">
         <v>1060</v>
       </c>
-      <c r="I284" t="s">
+      <c r="K284" t="s">
         <v>1061</v>
-      </c>
-      <c r="K284" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -12917,20 +12917,20 @@
       <c r="D285" t="s">
         <v>14</v>
       </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
         <v>352</v>
       </c>
       <c r="G285" t="s">
         <v>235</v>
       </c>
-      <c r="H285" t="s">
+      <c r="I285" t="s">
+        <v>353</v>
+      </c>
+      <c r="J285" t="s">
         <v>1064</v>
       </c>
-      <c r="I285" t="s">
+      <c r="K285" t="s">
         <v>1065</v>
-      </c>
-      <c r="K285" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12946,20 +12946,20 @@
       <c r="D286" t="s">
         <v>14</v>
       </c>
-      <c r="E286" t="s">
+      <c r="F286" t="s">
         <v>981</v>
       </c>
       <c r="G286" t="s">
         <v>378</v>
       </c>
-      <c r="H286" t="s">
+      <c r="I286" t="s">
+        <v>982</v>
+      </c>
+      <c r="J286" t="s">
         <v>1069</v>
       </c>
-      <c r="I286" t="s">
+      <c r="K286" t="s">
         <v>1070</v>
-      </c>
-      <c r="K286" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12975,20 +12975,20 @@
       <c r="D287" t="s">
         <v>14</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>981</v>
       </c>
       <c r="G287" t="s">
         <v>378</v>
       </c>
-      <c r="H287" t="s">
+      <c r="I287" t="s">
+        <v>982</v>
+      </c>
+      <c r="J287" t="s">
         <v>1069</v>
       </c>
-      <c r="I287" t="s">
+      <c r="K287" t="s">
         <v>1070</v>
-      </c>
-      <c r="K287" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -13004,20 +13004,20 @@
       <c r="D288" t="s">
         <v>14</v>
       </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
         <v>75</v>
       </c>
       <c r="G288" t="s">
         <v>17</v>
       </c>
-      <c r="H288" t="s">
+      <c r="I288" t="s">
+        <v>76</v>
+      </c>
+      <c r="J288" t="s">
         <v>1069</v>
       </c>
-      <c r="I288" t="s">
+      <c r="K288" t="s">
         <v>1070</v>
-      </c>
-      <c r="K288" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -13033,20 +13033,20 @@
       <c r="D289" t="s">
         <v>14</v>
       </c>
-      <c r="E289" t="s">
+      <c r="F289" t="s">
         <v>58</v>
       </c>
       <c r="G289" t="s">
         <v>59</v>
       </c>
-      <c r="H289" t="s">
+      <c r="I289" t="s">
+        <v>60</v>
+      </c>
+      <c r="J289" t="s">
         <v>1069</v>
       </c>
-      <c r="I289" t="s">
+      <c r="K289" t="s">
         <v>1070</v>
-      </c>
-      <c r="K289" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -13062,20 +13062,20 @@
       <c r="D290" t="s">
         <v>14</v>
       </c>
-      <c r="E290" t="s">
+      <c r="F290" t="s">
         <v>58</v>
       </c>
       <c r="G290" t="s">
         <v>59</v>
       </c>
-      <c r="H290" t="s">
+      <c r="I290" t="s">
+        <v>60</v>
+      </c>
+      <c r="J290" t="s">
         <v>1069</v>
       </c>
-      <c r="I290" t="s">
+      <c r="K290" t="s">
         <v>1070</v>
-      </c>
-      <c r="K290" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -13091,20 +13091,20 @@
       <c r="D291" t="s">
         <v>14</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>352</v>
       </c>
       <c r="G291" t="s">
         <v>235</v>
       </c>
-      <c r="H291" t="s">
+      <c r="I291" t="s">
+        <v>353</v>
+      </c>
+      <c r="J291" t="s">
         <v>1069</v>
       </c>
-      <c r="I291" t="s">
+      <c r="K291" t="s">
         <v>1070</v>
-      </c>
-      <c r="K291" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -13120,20 +13120,20 @@
       <c r="D292" t="s">
         <v>14</v>
       </c>
-      <c r="E292" t="s">
+      <c r="F292" t="s">
         <v>352</v>
       </c>
       <c r="G292" t="s">
         <v>235</v>
       </c>
-      <c r="H292" t="s">
+      <c r="I292" t="s">
+        <v>353</v>
+      </c>
+      <c r="J292" t="s">
         <v>1069</v>
       </c>
-      <c r="I292" t="s">
+      <c r="K292" t="s">
         <v>1070</v>
-      </c>
-      <c r="K292" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -13149,20 +13149,20 @@
       <c r="D293" t="s">
         <v>14</v>
       </c>
-      <c r="E293" t="s">
+      <c r="F293" t="s">
         <v>352</v>
       </c>
       <c r="G293" t="s">
         <v>235</v>
       </c>
-      <c r="H293" t="s">
+      <c r="I293" t="s">
+        <v>353</v>
+      </c>
+      <c r="J293" t="s">
         <v>1069</v>
       </c>
-      <c r="I293" t="s">
+      <c r="K293" t="s">
         <v>1070</v>
-      </c>
-      <c r="K293" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -13178,20 +13178,20 @@
       <c r="D294" t="s">
         <v>14</v>
       </c>
-      <c r="E294" t="s">
+      <c r="F294" t="s">
         <v>352</v>
       </c>
       <c r="G294" t="s">
         <v>235</v>
       </c>
-      <c r="H294" t="s">
+      <c r="I294" t="s">
+        <v>353</v>
+      </c>
+      <c r="J294" t="s">
         <v>1069</v>
       </c>
-      <c r="I294" t="s">
+      <c r="K294" t="s">
         <v>1070</v>
-      </c>
-      <c r="K294" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -13207,20 +13207,20 @@
       <c r="D295" t="s">
         <v>14</v>
       </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
         <v>352</v>
       </c>
       <c r="G295" t="s">
         <v>235</v>
       </c>
-      <c r="H295" t="s">
+      <c r="I295" t="s">
+        <v>353</v>
+      </c>
+      <c r="J295" t="s">
         <v>1098</v>
       </c>
-      <c r="I295" t="s">
+      <c r="K295" t="s">
         <v>1099</v>
-      </c>
-      <c r="K295" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -13236,20 +13236,20 @@
       <c r="D296" t="s">
         <v>14</v>
       </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
         <v>352</v>
       </c>
       <c r="G296" t="s">
         <v>235</v>
       </c>
-      <c r="H296" t="s">
+      <c r="I296" t="s">
+        <v>353</v>
+      </c>
+      <c r="J296" t="s">
         <v>1098</v>
       </c>
-      <c r="I296" t="s">
+      <c r="K296" t="s">
         <v>1099</v>
-      </c>
-      <c r="K296" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/en/SectorCOFOG.xlsx
+++ b/api/2/xlsx/en/SectorCOFOG.xlsx
@@ -28,27 +28,27 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-class</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-group</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-class</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -61,27 +61,27 @@
     <t>active</t>
   </si>
   <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
+    <t>09.8.0 - Education n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>09.8 - Education n.e.c.</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
-    <t>09.8.0 - Education n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Educational buildings, equipment, materials; subsidiary services to education (boarding facilities, staff housing); language training; colloquia, seminars, lectures, etc.</t>
   </si>
   <si>
+    <t>09.6.0 - Subsidiary services to education (IS)</t>
+  </si>
+  <si>
     <t>09.6 - Subsidiary services to education</t>
   </si>
   <si>
-    <t>09.6.0 - Subsidiary services to education (IS)</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Research and studies on education effectiveness, relevance and quality; systematic evaluation and monitoring.</t>
   </si>
   <si>
+    <t>09.7.0 - R&amp;D Education (CS)</t>
+  </si>
+  <si>
     <t>09.7 - R&amp;D Education</t>
   </si>
   <si>
-    <t>09.7.0 - R&amp;D Education (CS)</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
@@ -133,15 +133,15 @@
     <t>112</t>
   </si>
   <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
+    <t>09.1.2 - Primary education (IS)</t>
+  </si>
+  <si>
     <t>09.1 - Pre‐primary and primary education</t>
   </si>
   <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
-    <t>09.1.2 - Primary education (IS)</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -190,15 +190,15 @@
     <t>Provision of meals or snacks at school; other uses of food for the achievement of educational outcomes including 'take-home' food rations provided as economic incentives to families (or foster families, or other child care institutions) in return for a child's regular attendance at school; food provided to adults or youth who attend literacy or vocational training programmes; food for pre-school activities with an educational component. These activities may help reduce children's hunger during the school day if provision of food/meals contains bioavailable nutrients to address specific nutrition needs and have nutrition expected outcomes in school children, or if the rationale mainstream nutrition or expected outcome is nutrition-linked.</t>
   </si>
   <si>
+    <t>07 - Health</t>
+  </si>
+  <si>
+    <t>07.4.0 - Public health services (IS)</t>
+  </si>
+  <si>
     <t>07.4 - Public health services</t>
   </si>
   <si>
-    <t>07 - Health</t>
-  </si>
-  <si>
-    <t>07.4.0 - Public health services (IS)</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Second cycle systematic instruction at junior level.</t>
   </si>
   <si>
+    <t>09.2.1 - Lower‐secondary education (IS)</t>
+  </si>
+  <si>
     <t>09.2 - Secondary education</t>
   </si>
   <si>
-    <t>09.2.1 - Lower‐secondary education (IS)</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Elementary vocational training and secondary level technical education; on-the job training; apprenticeships; including informal vocational training.</t>
   </si>
   <si>
+    <t>09.5.0 - Education not definable by level (IS)</t>
+  </si>
+  <si>
     <t>09.5 - Education not definable by level</t>
   </si>
   <si>
-    <t>09.5.0 - Education not definable by level (IS)</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>114</t>
   </si>
   <si>
+    <t>Post-Secondary Education</t>
+  </si>
+  <si>
+    <t>09.4.1 - First stage of tertiary education (IS)</t>
+  </si>
+  <si>
     <t>09.4 - Tertiary education</t>
   </si>
   <si>
-    <t>Post-Secondary Education</t>
-  </si>
-  <si>
-    <t>09.4.1 - First stage of tertiary education (IS)</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Professional-level vocational training programmes and in-service training.</t>
   </si>
   <si>
+    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
+  </si>
+  <si>
     <t>09.3 - Post‐secondary non‐tertiary education</t>
   </si>
   <si>
-    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
@@ -295,21 +295,21 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Health, General</t>
+  </si>
+  <si>
+    <t>07.6.0 - Health n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
     <t>07.6 - Health n.e.c.</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
-    <t>07.6.0 - Health n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>General medical research (excluding basic health research and research for prevention and control of NCDs (12382)).</t>
   </si>
   <si>
+    <t>07.5.0 - R&amp;D Health (CS)</t>
+  </si>
+  <si>
     <t>07.5 - R&amp;D Health</t>
   </si>
   <si>
-    <t>07.5.0 - R&amp;D Health (CS)</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Laboratories, specialised clinics and hospitals (including equipment and supplies); ambulances; dental services; medical rehabilitation. Excludes noncommunicable diseases (123xx).</t>
   </si>
   <si>
+    <t>07.2.1 - General medical services (IS)</t>
+  </si>
+  <si>
     <t>07.2 - Outpatient services</t>
   </si>
   <si>
-    <t>07.2.1 - General medical services (IS)</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>District-level hospitals, clinics and dispensaries and related medical equipment; excluding specialised hospitals and clinics (12191).</t>
   </si>
   <si>
+    <t>07.3.1 - General hospital services (IS)</t>
+  </si>
+  <si>
     <t>07.3 - Hospital services</t>
   </si>
   <si>
-    <t>07.3.1 - General hospital services (IS)</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -580,21 +580,21 @@
     <t>Water sector policy and governance, including legislation, regulation, planning and management as well as transboundary management of water; institutional capacity development; activities supporting the Integrated Water Resource Management approach (IWRM: see box below).</t>
   </si>
   <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>06.3.0 - Water supply (CS)</t>
+  </si>
+  <si>
+    <t>Water Supply &amp; Sanitation</t>
+  </si>
+  <si>
     <t>06.3 - Water supply</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
-    <t>06.3.0 - Water supply (CS)</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Water Supply &amp; Sanitation</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -604,15 +604,15 @@
     <t>Collection and usage of quantitative and qualitative data on water resources; creation and sharing of water knowledge; conservation and rehabilitation of inland surface waters (rivers, lakes etc.), ground water and coastal waters; prevention of water contamination.</t>
   </si>
   <si>
+    <t>05 - Environmental protection</t>
+  </si>
+  <si>
+    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>05.6 - Environmental protection n.e.c.</t>
   </si>
   <si>
-    <t>05 - Environmental protection</t>
-  </si>
-  <si>
-    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>Large scale sewerage including trunk sewers and sewage pumping stations; domestic and industrial waste water treatment plants.</t>
   </si>
   <si>
+    <t>05.2.0 - Waste water management (CS)</t>
+  </si>
+  <si>
     <t>05.2 - Waste water management</t>
   </si>
   <si>
-    <t>05.2.0 - Waste water management (CS)</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -691,12 +691,12 @@
     <t>Municipal and industrial solid waste management, including hazardous and toxic waste; collection, disposal and treatment; landfill areas; composting and reuse.</t>
   </si>
   <si>
+    <t>05.1.0 - Waste management (CS)</t>
+  </si>
+  <si>
     <t>05.1 - Waste management</t>
   </si>
   <si>
-    <t>05.1.0 - Waste management (CS)</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
@@ -715,27 +715,27 @@
     <t>Institution-building assistance to strengthen core public sector management systems and capacities. This includes general public policy management, co-ordination, planning and reform; human resource management; organisational development; civil service reform; e-government; development planning, monitoring and evaluation; support to ministries involved in aid co-ordination; other ministries and government departments when sector cannot be specified. (Use specific sector codes for development of systems and capacities in sector ministries. For macro-economic policy use code 15142. For public procurement use code 15125.)</t>
   </si>
   <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
+    <t>01.3.1 - General personnel services (CS)</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
     <t>01.3 - General services</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
-    <t>01.3.1 - General personnel services (CS)</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Fiscal policy and planning; support to ministries of finance; strengthening financial and managerial accountability; public expenditure management; improving financial management systems; budget drafting; inter-governmental fiscal relations, public audit, public debt. (Use code 15114 for domestic revenue mobilisation and code 33120 for customs).</t>
   </si>
   <si>
+    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
+  </si>
+  <si>
     <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
   </si>
   <si>
-    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
@@ -760,12 +760,12 @@
     <t>Decentralisation processes (including political, administrative and fiscal dimensions); intergovernmental relations and federalism; strengthening departments of regional and local government, regional and local authorities and their national associations. (Use specific sector codes for decentralisation of sector management and services.)</t>
   </si>
   <si>
+    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
+  </si>
+  <si>
     <t>01.8 - Transfers of a general character between different levels of government</t>
   </si>
   <si>
-    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
@@ -775,15 +775,15 @@
     <t>Specialised organisations, institutions and frameworks for the prevention of and combat against corruption, bribery, money-laundering and other aspects of organised crime, with or without law enforcement powers, e.g. anti-corruption commissions and monitoring bodies, special investigation services, institutions and initiatives of integrity and ethics oversight, specialised NGOs, other civil society and citizens' organisations directly concerned with corruption.</t>
   </si>
   <si>
+    <t>03 - Public order and safety</t>
+  </si>
+  <si>
+    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>03.6 - Public order and safety n.e.c.</t>
   </si>
   <si>
-    <t>03 - Public order and safety</t>
-  </si>
-  <si>
-    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -859,12 +859,12 @@
     <t>Support to administration of developing countries' foreign aid (including triangular and south-south cooperation).</t>
   </si>
   <si>
+    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
+  </si>
+  <si>
     <t>01.2 - Foreign economic aid</t>
   </si>
   <si>
-    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -943,12 +943,12 @@
     <t>Judicial law and order sectors; policy development within ministries of justice or equivalents.</t>
   </si>
   <si>
+    <t>03.3.0 - Law courts (CS)</t>
+  </si>
+  <si>
     <t>03.3 - Law courts</t>
   </si>
   <si>
-    <t>03.3.0 - Law courts (CS)</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
@@ -958,12 +958,12 @@
     <t>Police affairs and services.</t>
   </si>
   <si>
+    <t>03.1.0 - Police services (CS)</t>
+  </si>
+  <si>
     <t>03.1 - Police services</t>
   </si>
   <si>
-    <t>03.1.0 - Police services (CS)</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
@@ -973,12 +973,12 @@
     <t>Fire-prevention and fire-fighting affairs and services.</t>
   </si>
   <si>
+    <t>03.2.0 - Fire‐protection services (CS)</t>
+  </si>
+  <si>
     <t>03.2 - Fire‐protection services</t>
   </si>
   <si>
-    <t>03.2.0 - Fire‐protection services (CS)</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -1012,12 +1012,12 @@
     <t>Prisons</t>
   </si>
   <si>
+    <t>03.4.0 - Prisons (CS)</t>
+  </si>
+  <si>
     <t>03.4 - Prisons</t>
   </si>
   <si>
-    <t>03.4.0 - Prisons (CS)</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
@@ -1027,15 +1027,15 @@
     <t>Support to macroeconomic stability, debt sustainability and structural reforms. Includes technical assistance for strategic formulation of policies, laws and regulation; capacity building to enhance public sector development; policy-based funding. For fiscal policy and domestic revenue mobilisation use codes 15111 and 15114.</t>
   </si>
   <si>
+    <t>04 - Economic affairs</t>
+  </si>
+  <si>
+    <t>04.1.1 - General economic and commercial affairs (CS)</t>
+  </si>
+  <si>
     <t>04.1 - General economic, commercial and labour affairs</t>
   </si>
   <si>
-    <t>04 - Economic affairs</t>
-  </si>
-  <si>
-    <t>04.1.1 - General economic and commercial affairs (CS)</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -1072,12 +1072,12 @@
     <t>Electoral management bodies and processes, election observation, voters' education. (Use code 15230 when in the context of an international peacekeeping operation.)</t>
   </si>
   <si>
+    <t>01.6.0 - General public services n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>01.6 - General public services n.e.c.</t>
   </si>
   <si>
-    <t>01.6.0 - General public services n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -1099,12 +1099,12 @@
     <t>Activities that support free and uncensored flow of information on public issues; activities that increase the editorial and technical skills and the integrity of the print and broadcast media, e.g. training of journalists. (Use codes 22010-22040 for provision of equipment and capital assistance to media.)</t>
   </si>
   <si>
+    <t>04.6.0 - Communication (CS)</t>
+  </si>
+  <si>
     <t>04.6 - Communication</t>
   </si>
   <si>
-    <t>04.6.0 - Communication (CS)</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -1147,15 +1147,15 @@
     <t>Support for feminist, women-led and women's rights organisations and movements, and institutions (governmental and non-govermental) at all levels to enhance their effectiveness, influence and substainability (activities and core-funding). These organisations exist to bring about transformative change for gender equality and/or the rights of women and girls in developing countries. Their activities include agenda-setting, advocacy, policy dialogue, capacity development, awareness raising and prevention, service provision, conflict-prevention and peacebuilding, research, organising, and alliance and network building</t>
   </si>
   <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
+    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
+  </si>
+  <si>
     <t>10.7 - Social exclusion n.e.c.</t>
   </si>
   <si>
-    <t>10 - Social protection</t>
-  </si>
-  <si>
-    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -1192,12 +1192,12 @@
     <t>Collection, production, management and dissemination of statistics and data related to Government &amp; Civil Society. Includes macroeconomic statistics, government finance, fiscal and public sector statistics, support to development of administrative data infrastructure, civil society surveys.</t>
   </si>
   <si>
+    <t>01.5.0 - R&amp;D General public services (CS)</t>
+  </si>
+  <si>
     <t>01.5 - R&amp;D General public services</t>
   </si>
   <si>
-    <t>01.5.0 - R&amp;D General public services (CS)</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -1231,15 +1231,15 @@
     <t>Bilateral participation in peacekeeping operations mandated or authorised by the United Nations (UN) through Security Council resolutions, and conducted by international organisations, e.g. UN, NATO, the European Union (Security and Defence Policy security-related operations), or regional groupings of developing countries. Direct contributions to the UN Department for Peacekeeping Operations (UNDPKO) budget are excluded from bilateral ODA (they are reportable in part as multilateral ODA, see Annex 9). The activities that can be reported as bilateral ODA under this code are limited to: human rights and election monitoring; reintegration of demobilised soldiers; rehabilitation of basic national infrastructure; monitoring or retraining of civil administrators and police forces; security sector reform and other rule of law-related activities; training in customs and border control procedures; advice or training in fiscal or macroeconomic stabilisation policy; repatriation and demobilisation of armed factions, and disposal of their weapons; explosive mine removal. The enforcement aspects of international peacekeeping operations are not reportable as ODA. ODA-eligible bilateral participation in peacekeeping operations can take the form of financing or provision of equipment or military or civilian personnel (e.g. police officers). The reportable cost is calculated as the excess over what the personnel and equipment would have cost to maintain had they not been assigned to take part in a peace operation. Costs for military contingents participating in UNDPKO peacekeeping operations are not reportable as ODA. International peacekeeping operations may include humanitarian-type activities (contributions to the form of equipment or personnel), as described in codes 7xxxx. These should be included under code 15230 if they are an integrated part of the activities above, otherwise they should be reported as humanitarian aid. NB: When using this code, indicate the name of the operation in the short description of the activity reported.</t>
   </si>
   <si>
+    <t>02 - Defence</t>
+  </si>
+  <si>
+    <t>02.3.0 - Foreign military aid (CS)</t>
+  </si>
+  <si>
     <t>02.3 - Foreign military aid</t>
   </si>
   <si>
-    <t>02 - Defence</t>
-  </si>
-  <si>
-    <t>02.3.0 - Foreign military aid (CS)</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -1276,18 +1276,18 @@
     <t>Social protection or social security strategies, legislation and administration; institution capacity building and advice; social security and other social schemes; support programmes, cash benefits, pensions and special programmes for older persons, orphans, persons with disabilities, children, mothers with newborns, those living in poverty, without jobs and other vulnerable groups; social dimensions of structural adjustment.</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>10.9.0 - Social protection n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Other Social Infrastructure &amp; Services</t>
+  </si>
+  <si>
     <t>10.9 - Social protection n.e.c.</t>
   </si>
   <si>
-    <t>10.9.0 - Social protection n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Other Social Infrastructure &amp; Services</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -1315,12 +1315,12 @@
     <t>Social protection schemes in the form of cash or in-kind benefits, including pensions, against the risks linked to old age.</t>
   </si>
   <si>
+    <t>10.2.0 - Old age (IS)</t>
+  </si>
+  <si>
     <t>10.2 - Old age</t>
   </si>
   <si>
-    <t>10.2.0 - Old age (IS)</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -1348,12 +1348,12 @@
     <t>Employment policy and planning; institution capacity building and advice; employment creation and income generation programmes; including activities specifically designed for the needs of vulnerable groups.</t>
   </si>
   <si>
+    <t>10.5.0 - Unemployment (IS)</t>
+  </si>
+  <si>
     <t>10.5 - Unemployment</t>
   </si>
   <si>
-    <t>10.5.0 - Unemployment (IS)</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
@@ -1363,12 +1363,12 @@
     <t>Housing sector policy, planning and programmes; excluding low-cost housing and slum clearance (16040).</t>
   </si>
   <si>
+    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>06.6 - Housing and community amenities n.e.c.</t>
   </si>
   <si>
-    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
@@ -1378,12 +1378,12 @@
     <t>Including slum clearance.</t>
   </si>
   <si>
+    <t>06.1.0 - Housing development (CS)</t>
+  </si>
+  <si>
     <t>06.1 - Housing development</t>
   </si>
   <si>
-    <t>06.1.0 - Housing development (CS)</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
@@ -1402,15 +1402,15 @@
     <t>Including libraries and museums.</t>
   </si>
   <si>
+    <t>08 - Recreation, culture and religion</t>
+  </si>
+  <si>
+    <t>08.2.0 - Cultural services (IS)</t>
+  </si>
+  <si>
     <t>08.2 - Cultural services</t>
   </si>
   <si>
-    <t>08 - Recreation, culture and religion</t>
-  </si>
-  <si>
-    <t>08.2.0 - Cultural services (IS)</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -1444,12 +1444,12 @@
     <t>Recreation and sport</t>
   </si>
   <si>
+    <t>08.1.0 - Recreational and sporting services (IS)</t>
+  </si>
+  <si>
     <t>08.1 - Recreational and sporting services</t>
   </si>
   <si>
-    <t>08.1.0 - Recreational and sporting services (IS)</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -1528,12 +1528,12 @@
     <t>Road infrastructure, road vehicles; passenger road transport, motor passenger cars.</t>
   </si>
   <si>
+    <t>04.5.1 - Road transport (CS)</t>
+  </si>
+  <si>
     <t>04.5 - Transport</t>
   </si>
   <si>
-    <t>04.5.1 - Road transport (CS)</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -1615,12 +1615,12 @@
     <t>Whether or not related to transportation. Whenever possible, report storage projects under the sector of the resource being stored.</t>
   </si>
   <si>
+    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
+  </si>
+  <si>
     <t>04.7 - Other industries</t>
   </si>
   <si>
-    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -1684,12 +1684,12 @@
     <t>Radio and TV links, equipment; newspapers; printing and publishing.</t>
   </si>
   <si>
+    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
+  </si>
+  <si>
     <t>08.3 - Broadcasting and publishing services</t>
   </si>
   <si>
-    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
@@ -1711,21 +1711,21 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
+    <t>04.3.5 - Electricity (CS)</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>04.3 - Fuel and energy</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
-    <t>04.3.5 - Electricity (CS)</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -1741,12 +1741,12 @@
     <t>Regulation of the energy sector, including wholesale and retail electricity provision.</t>
   </si>
   <si>
+    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
+  </si>
+  <si>
     <t>04.8 - R&amp;D Economic affairs</t>
   </si>
   <si>
-    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -2134,21 +2134,21 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>04.2.1 - Agriculture (CS)</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
     <t>04.2 - Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>04.2.1 - Agriculture (CS)</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Agriculture, Forestry, Fishing</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -2422,21 +2422,21 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>04.4.2 - Manufacturing (CS)</t>
+  </si>
+  <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
     <t>04.4 - Mining, manufacturing and construction</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>04.4.2 - Manufacturing (CS)</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>Industry, Mining, Construction</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -2713,12 +2713,12 @@
     <t>331</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -2812,12 +2812,12 @@
     <t>Including natural reserves and actions in the surrounding areas; other measures to protect endangered or vulnerable species and their habitats (e.g. wetlands preservation).</t>
   </si>
   <si>
+    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
+  </si>
+  <si>
     <t>05.4 - Protection of biodiversity and landscape</t>
   </si>
   <si>
-    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -2848,18 +2848,18 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>Other Multisector</t>
+  </si>
+  <si>
     <t>04.9 - Economic affairs n.e.c.</t>
   </si>
   <si>
-    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>Other Multisector</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -2878,12 +2878,12 @@
     <t>Urban development and planning; urban management, land information systems.</t>
   </si>
   <si>
+    <t>06.2.0 - Community development (CS)</t>
+  </si>
+  <si>
     <t>06.2 - Community development</t>
   </si>
   <si>
-    <t>06.2.0 - Community development (CS)</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -2935,12 +2935,12 @@
     <t>Disaster risk reduction activities if not sector specific. Comprises risk assessments, structural prevention measures (e.g. flood prevention infrastructure), preparedness measures (e.g. early warning systems) normative prevention measures (e.g. building codes, land-use planning), and risk transfer systems (e.g. insurance schemes, risk funds). Also includes building local and national capacities and supporting the establishment of efficient and sustainable national structures able to promote disaster risk reduction.</t>
   </si>
   <si>
+    <t>02.2.0 - Civil defence (CS)</t>
+  </si>
+  <si>
     <t>02.2 - Civil defence</t>
   </si>
   <si>
-    <t>02.2.0 - Civil defence (CS)</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
@@ -2959,12 +2959,12 @@
     <t>Short or longer term household food security programmes and activities that improve the access of households to nutritionally adequate diets (excluding any cash transfers within broader social welfare programmes that do not have a specific food security, food acquisition or nutrition focus which should be reported under code 16010).</t>
   </si>
   <si>
+    <t>10.4.0 - Family and children (IS)</t>
+  </si>
+  <si>
     <t>10.4 - Family and children</t>
   </si>
   <si>
-    <t>10.4.0 - Family and children (IS)</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -2992,12 +2992,12 @@
     <t>When sector cannot be identified.</t>
   </si>
   <si>
+    <t>01.4.0 - Basic research (CS)</t>
+  </si>
+  <si>
     <t>01.4 - Basic research</t>
   </si>
   <si>
-    <t>01.4.0 - Basic research (CS)</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -3061,16 +3061,16 @@
     <t>Actions falling outside the code headings below.</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>01.7.0 - Public debt transactions (CS)</t>
+  </si>
+  <si>
+    <t>Action Relating to Debt</t>
+  </si>
+  <si>
     <t>01.7 - Public debt transactions</t>
-  </si>
-  <si>
-    <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>Action Relating to Debt</t>
   </si>
   <si>
     <t>60020</t>
@@ -3747,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -3756,13 +3756,13 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3817,7 +3817,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3826,13 +3826,13 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3849,25 +3849,25 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3884,16 +3884,16 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -3919,25 +3919,25 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3954,25 +3954,25 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3989,16 +3989,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
@@ -4007,7 +4007,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4024,25 +4024,25 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
         <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4059,25 +4059,25 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4094,10 +4094,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -4112,7 +4112,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4129,10 +4129,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -4141,13 +4141,13 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4164,25 +4164,25 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
         <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4199,25 +4199,25 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4234,13 +4234,13 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>94</v>
@@ -4304,25 +4304,25 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>92</v>
       </c>
-      <c r="F19" t="s">
-        <v>104</v>
-      </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
         <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
         <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4339,25 +4339,25 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
         <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
         <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4374,13 +4374,13 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
         <v>92</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>93</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>94</v>
@@ -4409,25 +4409,25 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
         <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
         <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4444,25 +4444,25 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" t="s">
-        <v>122</v>
-      </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
         <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J23" t="s">
         <v>96</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4479,25 +4479,25 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
         <v>117</v>
       </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
         <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
         <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4514,25 +4514,25 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
         <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4549,25 +4549,25 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
         <v>117</v>
       </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
         <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4584,25 +4584,25 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" t="s">
-        <v>58</v>
-      </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
         <v>118</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>96</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4619,25 +4619,25 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
         <v>117</v>
       </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
         <v>118</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
         <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4654,25 +4654,25 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
         <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
         <v>96</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4689,13 +4689,13 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>117</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>93</v>
-      </c>
-      <c r="G30" t="s">
-        <v>59</v>
       </c>
       <c r="H30" t="s">
         <v>118</v>
@@ -4724,25 +4724,25 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>148</v>
       </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
         <v>149</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
         <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4759,25 +4759,25 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>148</v>
       </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
         <v>149</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" t="s">
         <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4794,25 +4794,25 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
         <v>149</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" t="s">
         <v>96</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4829,25 +4829,25 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
         <v>148</v>
       </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
         <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
         <v>96</v>
       </c>
       <c r="K34" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4864,25 +4864,25 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
         <v>148</v>
       </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
         <v>149</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
         <v>96</v>
       </c>
       <c r="K35" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4899,25 +4899,25 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
         <v>148</v>
       </c>
-      <c r="F36" t="s">
-        <v>104</v>
-      </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
         <v>149</v>
       </c>
       <c r="I36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J36" t="s">
         <v>96</v>
       </c>
       <c r="K36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4933,20 +4933,20 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>58</v>
       </c>
       <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" t="s">
         <v>59</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s">
         <v>60</v>
-      </c>
-      <c r="J37" t="s">
-        <v>168</v>
-      </c>
-      <c r="K37" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4962,20 +4962,20 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>58</v>
       </c>
       <c r="G38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" t="s">
         <v>59</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
         <v>60</v>
-      </c>
-      <c r="J38" t="s">
-        <v>168</v>
-      </c>
-      <c r="K38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4991,20 +4991,20 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
         <v>58</v>
       </c>
       <c r="G39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" t="s">
         <v>59</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" t="s">
         <v>60</v>
-      </c>
-      <c r="J39" t="s">
-        <v>168</v>
-      </c>
-      <c r="K39" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5020,20 +5020,20 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
         <v>58</v>
       </c>
       <c r="G40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" t="s">
         <v>59</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" t="s">
         <v>60</v>
-      </c>
-      <c r="J40" t="s">
-        <v>168</v>
-      </c>
-      <c r="K40" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5049,20 +5049,20 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="F41" t="s">
-        <v>93</v>
+      <c r="E41" t="s">
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="I41" t="s">
         <v>95</v>
       </c>
       <c r="J41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5078,20 +5078,20 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" t="s">
         <v>104</v>
       </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s">
         <v>105</v>
-      </c>
-      <c r="J42" t="s">
-        <v>168</v>
-      </c>
-      <c r="K42" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5107,7 +5107,7 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>188</v>
       </c>
       <c r="G43" t="s">
@@ -5136,20 +5136,20 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
         <v>196</v>
       </c>
       <c r="G44" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" t="s">
         <v>197</v>
-      </c>
-      <c r="I44" t="s">
-        <v>198</v>
       </c>
       <c r="J44" t="s">
         <v>191</v>
       </c>
       <c r="K44" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5165,7 +5165,7 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
         <v>188</v>
       </c>
       <c r="G45" t="s">
@@ -5194,7 +5194,7 @@
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
         <v>188</v>
       </c>
       <c r="G46" t="s">
@@ -5223,20 +5223,20 @@
       <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" t="s">
         <v>208</v>
-      </c>
-      <c r="G47" t="s">
-        <v>197</v>
-      </c>
-      <c r="I47" t="s">
-        <v>209</v>
       </c>
       <c r="J47" t="s">
         <v>191</v>
       </c>
       <c r="K47" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5252,7 +5252,7 @@
       <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>188</v>
       </c>
       <c r="G48" t="s">
@@ -5281,7 +5281,7 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>188</v>
       </c>
       <c r="G49" t="s">
@@ -5310,20 +5310,20 @@
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" t="s">
+        <v>189</v>
+      </c>
+      <c r="I50" t="s">
         <v>208</v>
-      </c>
-      <c r="G50" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" t="s">
-        <v>209</v>
       </c>
       <c r="J50" t="s">
         <v>191</v>
       </c>
       <c r="K50" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5339,7 +5339,7 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" t="s">
         <v>188</v>
       </c>
       <c r="G51" t="s">
@@ -5368,20 +5368,20 @@
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" t="s">
         <v>225</v>
-      </c>
-      <c r="G52" t="s">
-        <v>197</v>
-      </c>
-      <c r="I52" t="s">
-        <v>226</v>
       </c>
       <c r="J52" t="s">
         <v>191</v>
       </c>
       <c r="K52" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5397,11 +5397,11 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="F53" t="s">
-        <v>16</v>
+      <c r="E53" t="s">
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="I53" t="s">
         <v>19</v>
@@ -5410,7 +5410,7 @@
         <v>191</v>
       </c>
       <c r="K53" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5465,7 +5465,7 @@
         <v>233</v>
       </c>
       <c r="F55" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G55" t="s">
         <v>235</v>
@@ -5474,13 +5474,13 @@
         <v>236</v>
       </c>
       <c r="I55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J55" t="s">
         <v>238</v>
       </c>
       <c r="K55" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5500,7 +5500,7 @@
         <v>233</v>
       </c>
       <c r="F56" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G56" t="s">
         <v>235</v>
@@ -5509,13 +5509,13 @@
         <v>236</v>
       </c>
       <c r="I56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J56" t="s">
         <v>238</v>
       </c>
       <c r="K56" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5532,25 +5532,25 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F57" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H57" t="s">
         <v>236</v>
       </c>
       <c r="I57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J57" t="s">
         <v>238</v>
       </c>
       <c r="K57" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5570,7 +5570,7 @@
         <v>233</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
         <v>235</v>
@@ -5579,13 +5579,13 @@
         <v>236</v>
       </c>
       <c r="I58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J58" t="s">
         <v>238</v>
       </c>
       <c r="K58" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5605,7 +5605,7 @@
         <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G59" t="s">
         <v>235</v>
@@ -5614,13 +5614,13 @@
         <v>236</v>
       </c>
       <c r="I59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J59" t="s">
         <v>238</v>
       </c>
       <c r="K59" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5640,7 +5640,7 @@
         <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G60" t="s">
         <v>235</v>
@@ -5649,13 +5649,13 @@
         <v>236</v>
       </c>
       <c r="I60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J60" t="s">
         <v>238</v>
       </c>
       <c r="K60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5675,7 +5675,7 @@
         <v>233</v>
       </c>
       <c r="F61" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G61" t="s">
         <v>235</v>
@@ -5684,13 +5684,13 @@
         <v>236</v>
       </c>
       <c r="I61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J61" t="s">
         <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5710,7 +5710,7 @@
         <v>233</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G62" t="s">
         <v>235</v>
@@ -5719,13 +5719,13 @@
         <v>236</v>
       </c>
       <c r="I62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J62" t="s">
         <v>238</v>
       </c>
       <c r="K62" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5745,7 +5745,7 @@
         <v>233</v>
       </c>
       <c r="F63" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G63" t="s">
         <v>235</v>
@@ -5760,7 +5760,7 @@
         <v>238</v>
       </c>
       <c r="K63" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5780,7 +5780,7 @@
         <v>233</v>
       </c>
       <c r="F64" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G64" t="s">
         <v>235</v>
@@ -5795,7 +5795,7 @@
         <v>238</v>
       </c>
       <c r="K64" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5815,7 +5815,7 @@
         <v>233</v>
       </c>
       <c r="F65" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="G65" t="s">
         <v>235</v>
@@ -5824,13 +5824,13 @@
         <v>236</v>
       </c>
       <c r="I65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J65" t="s">
         <v>238</v>
       </c>
       <c r="K65" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5885,7 +5885,7 @@
         <v>233</v>
       </c>
       <c r="F67" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G67" t="s">
         <v>235</v>
@@ -5894,13 +5894,13 @@
         <v>236</v>
       </c>
       <c r="I67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J67" t="s">
         <v>238</v>
       </c>
       <c r="K67" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5990,7 +5990,7 @@
         <v>233</v>
       </c>
       <c r="F70" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G70" t="s">
         <v>235</v>
@@ -5999,13 +5999,13 @@
         <v>236</v>
       </c>
       <c r="I70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J70" t="s">
         <v>238</v>
       </c>
       <c r="K70" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6025,7 +6025,7 @@
         <v>233</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G71" t="s">
         <v>235</v>
@@ -6034,13 +6034,13 @@
         <v>236</v>
       </c>
       <c r="I71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J71" t="s">
         <v>238</v>
       </c>
       <c r="K71" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6092,25 +6092,25 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F73" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="G73" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H73" t="s">
         <v>236</v>
       </c>
       <c r="I73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J73" t="s">
         <v>238</v>
       </c>
       <c r="K73" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6127,25 +6127,25 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="G74" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H74" t="s">
         <v>236</v>
       </c>
       <c r="I74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J74" t="s">
         <v>238</v>
       </c>
       <c r="K74" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6162,25 +6162,25 @@
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="G75" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H75" t="s">
         <v>236</v>
       </c>
       <c r="I75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J75" t="s">
         <v>238</v>
       </c>
       <c r="K75" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6197,25 +6197,25 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F76" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="G76" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H76" t="s">
         <v>236</v>
       </c>
       <c r="I76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J76" t="s">
         <v>238</v>
       </c>
       <c r="K76" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6232,25 +6232,25 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H77" t="s">
         <v>236</v>
       </c>
       <c r="I77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J77" t="s">
         <v>238</v>
       </c>
       <c r="K77" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6267,25 +6267,25 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F78" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="G78" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H78" t="s">
         <v>236</v>
       </c>
       <c r="I78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J78" t="s">
         <v>238</v>
       </c>
       <c r="K78" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6299,25 +6299,25 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="G79" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H79" t="s">
         <v>236</v>
       </c>
       <c r="I79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J79" t="s">
         <v>238</v>
       </c>
       <c r="K79" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6334,25 +6334,25 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F80" t="s">
-        <v>337</v>
+        <v>234</v>
       </c>
       <c r="G80" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="H80" t="s">
         <v>236</v>
       </c>
       <c r="I80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J80" t="s">
         <v>238</v>
       </c>
       <c r="K80" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6369,25 +6369,25 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F81" t="s">
-        <v>337</v>
+        <v>234</v>
       </c>
       <c r="G81" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="H81" t="s">
         <v>236</v>
       </c>
       <c r="I81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J81" t="s">
         <v>238</v>
       </c>
       <c r="K81" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6404,25 +6404,25 @@
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F82" t="s">
-        <v>337</v>
+        <v>234</v>
       </c>
       <c r="G82" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="H82" t="s">
         <v>236</v>
       </c>
       <c r="I82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J82" t="s">
         <v>238</v>
       </c>
       <c r="K82" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6477,7 +6477,7 @@
         <v>233</v>
       </c>
       <c r="F84" t="s">
-        <v>352</v>
+        <v>234</v>
       </c>
       <c r="G84" t="s">
         <v>235</v>
@@ -6486,13 +6486,13 @@
         <v>236</v>
       </c>
       <c r="I84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J84" t="s">
         <v>238</v>
       </c>
       <c r="K84" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6512,7 +6512,7 @@
         <v>233</v>
       </c>
       <c r="F85" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G85" t="s">
         <v>235</v>
@@ -6527,7 +6527,7 @@
         <v>238</v>
       </c>
       <c r="K85" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6544,25 +6544,25 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="F86" t="s">
-        <v>361</v>
+        <v>234</v>
       </c>
       <c r="G86" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="H86" t="s">
         <v>236</v>
       </c>
       <c r="I86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J86" t="s">
         <v>238</v>
       </c>
       <c r="K86" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6582,7 +6582,7 @@
         <v>233</v>
       </c>
       <c r="F87" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G87" t="s">
         <v>235</v>
@@ -6597,7 +6597,7 @@
         <v>238</v>
       </c>
       <c r="K87" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6614,7 +6614,7 @@
         <v>233</v>
       </c>
       <c r="F88" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G88" t="s">
         <v>235</v>
@@ -6623,13 +6623,13 @@
         <v>236</v>
       </c>
       <c r="I88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J88" t="s">
         <v>238</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6649,7 +6649,7 @@
         <v>233</v>
       </c>
       <c r="F89" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G89" t="s">
         <v>235</v>
@@ -6658,13 +6658,13 @@
         <v>236</v>
       </c>
       <c r="I89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J89" t="s">
         <v>238</v>
       </c>
       <c r="K89" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6681,25 +6681,25 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H90" t="s">
         <v>236</v>
       </c>
       <c r="I90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J90" t="s">
         <v>238</v>
       </c>
       <c r="K90" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6716,25 +6716,25 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="F91" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="G91" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="H91" t="s">
         <v>236</v>
       </c>
       <c r="I91" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J91" t="s">
         <v>238</v>
       </c>
       <c r="K91" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6751,25 +6751,25 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F92" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G92" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H92" t="s">
         <v>236</v>
       </c>
       <c r="I92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J92" t="s">
         <v>238</v>
       </c>
       <c r="K92" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -6789,7 +6789,7 @@
         <v>233</v>
       </c>
       <c r="F93" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G93" t="s">
         <v>235</v>
@@ -6798,13 +6798,13 @@
         <v>236</v>
       </c>
       <c r="I93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J93" t="s">
         <v>238</v>
       </c>
       <c r="K93" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -6821,25 +6821,25 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F94" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G94" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H94" t="s">
         <v>236</v>
       </c>
       <c r="I94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J94" t="s">
         <v>238</v>
       </c>
       <c r="K94" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -6859,7 +6859,7 @@
         <v>233</v>
       </c>
       <c r="F95" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="G95" t="s">
         <v>235</v>
@@ -6868,13 +6868,13 @@
         <v>236</v>
       </c>
       <c r="I95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J95" t="s">
         <v>238</v>
       </c>
       <c r="K95" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -6891,25 +6891,25 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" t="s">
         <v>397</v>
       </c>
-      <c r="F96" t="s">
-        <v>253</v>
-      </c>
       <c r="G96" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H96" t="s">
         <v>398</v>
       </c>
       <c r="I96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J96" t="s">
         <v>238</v>
       </c>
       <c r="K96" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6926,25 +6926,25 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" t="s">
         <v>397</v>
       </c>
-      <c r="F97" t="s">
-        <v>253</v>
-      </c>
       <c r="G97" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H97" t="s">
         <v>398</v>
       </c>
       <c r="I97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J97" t="s">
         <v>238</v>
       </c>
       <c r="K97" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6961,25 +6961,25 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
+        <v>405</v>
+      </c>
+      <c r="F98" t="s">
         <v>397</v>
       </c>
-      <c r="F98" t="s">
-        <v>405</v>
-      </c>
       <c r="G98" t="s">
-        <v>406</v>
+        <v>235</v>
       </c>
       <c r="H98" t="s">
         <v>398</v>
       </c>
       <c r="I98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J98" t="s">
         <v>238</v>
       </c>
       <c r="K98" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6996,25 +6996,25 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" t="s">
         <v>397</v>
       </c>
-      <c r="F99" t="s">
-        <v>253</v>
-      </c>
       <c r="G99" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H99" t="s">
         <v>398</v>
       </c>
       <c r="I99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J99" t="s">
         <v>238</v>
       </c>
       <c r="K99" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7031,25 +7031,25 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" t="s">
         <v>397</v>
       </c>
-      <c r="F100" t="s">
-        <v>319</v>
-      </c>
       <c r="G100" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H100" t="s">
         <v>398</v>
       </c>
       <c r="I100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J100" t="s">
         <v>238</v>
       </c>
       <c r="K100" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7066,25 +7066,25 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" t="s">
         <v>397</v>
       </c>
-      <c r="F101" t="s">
-        <v>253</v>
-      </c>
       <c r="G101" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H101" t="s">
         <v>398</v>
       </c>
       <c r="I101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J101" t="s">
         <v>238</v>
       </c>
       <c r="K101" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7100,11 +7100,11 @@
       <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="F102" t="s">
+      <c r="E102" t="s">
+        <v>377</v>
+      </c>
+      <c r="G102" t="s">
         <v>420</v>
-      </c>
-      <c r="G102" t="s">
-        <v>378</v>
       </c>
       <c r="I102" t="s">
         <v>421</v>
@@ -7129,11 +7129,11 @@
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="F103" t="s">
+      <c r="E103" t="s">
+        <v>377</v>
+      </c>
+      <c r="G103" t="s">
         <v>420</v>
-      </c>
-      <c r="G103" t="s">
-        <v>378</v>
       </c>
       <c r="I103" t="s">
         <v>421</v>
@@ -7158,11 +7158,11 @@
       <c r="D104" t="s">
         <v>14</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E104" t="s">
+        <v>377</v>
+      </c>
+      <c r="G104" t="s">
         <v>420</v>
-      </c>
-      <c r="G104" t="s">
-        <v>378</v>
       </c>
       <c r="I104" t="s">
         <v>421</v>
@@ -7187,20 +7187,20 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-      <c r="F105" t="s">
+      <c r="E105" t="s">
+        <v>377</v>
+      </c>
+      <c r="G105" t="s">
+        <v>420</v>
+      </c>
+      <c r="I105" t="s">
         <v>433</v>
-      </c>
-      <c r="G105" t="s">
-        <v>378</v>
-      </c>
-      <c r="I105" t="s">
-        <v>434</v>
       </c>
       <c r="J105" t="s">
         <v>422</v>
       </c>
       <c r="K105" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7216,11 +7216,11 @@
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="F106" t="s">
+      <c r="E106" t="s">
+        <v>377</v>
+      </c>
+      <c r="G106" t="s">
         <v>420</v>
-      </c>
-      <c r="G106" t="s">
-        <v>378</v>
       </c>
       <c r="I106" t="s">
         <v>421</v>
@@ -7245,20 +7245,20 @@
       <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="F107" t="s">
+      <c r="E107" t="s">
         <v>377</v>
       </c>
       <c r="G107" t="s">
+        <v>420</v>
+      </c>
+      <c r="I107" t="s">
         <v>378</v>
-      </c>
-      <c r="I107" t="s">
-        <v>379</v>
       </c>
       <c r="J107" t="s">
         <v>422</v>
       </c>
       <c r="K107" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7274,20 +7274,20 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-      <c r="F108" t="s">
+      <c r="E108" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" t="s">
+        <v>420</v>
+      </c>
+      <c r="I108" t="s">
         <v>444</v>
-      </c>
-      <c r="G108" t="s">
-        <v>378</v>
-      </c>
-      <c r="I108" t="s">
-        <v>445</v>
       </c>
       <c r="J108" t="s">
         <v>422</v>
       </c>
       <c r="K108" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7303,20 +7303,20 @@
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="F109" t="s">
+      <c r="E109" t="s">
+        <v>188</v>
+      </c>
+      <c r="G109" t="s">
+        <v>420</v>
+      </c>
+      <c r="I109" t="s">
         <v>449</v>
-      </c>
-      <c r="G109" t="s">
-        <v>189</v>
-      </c>
-      <c r="I109" t="s">
-        <v>450</v>
       </c>
       <c r="J109" t="s">
         <v>422</v>
       </c>
       <c r="K109" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7332,20 +7332,20 @@
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="F110" t="s">
+      <c r="E110" t="s">
+        <v>188</v>
+      </c>
+      <c r="G110" t="s">
+        <v>420</v>
+      </c>
+      <c r="I110" t="s">
         <v>454</v>
-      </c>
-      <c r="G110" t="s">
-        <v>189</v>
-      </c>
-      <c r="I110" t="s">
-        <v>455</v>
       </c>
       <c r="J110" t="s">
         <v>422</v>
       </c>
       <c r="K110" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7361,11 +7361,11 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="F111" t="s">
+      <c r="E111" t="s">
+        <v>377</v>
+      </c>
+      <c r="G111" t="s">
         <v>420</v>
-      </c>
-      <c r="G111" t="s">
-        <v>378</v>
       </c>
       <c r="I111" t="s">
         <v>421</v>
@@ -7390,20 +7390,20 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="F112" t="s">
+      <c r="E112" t="s">
         <v>462</v>
       </c>
       <c r="G112" t="s">
+        <v>420</v>
+      </c>
+      <c r="I112" t="s">
         <v>463</v>
-      </c>
-      <c r="I112" t="s">
-        <v>464</v>
       </c>
       <c r="J112" t="s">
         <v>422</v>
       </c>
       <c r="K112" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -7419,11 +7419,11 @@
       <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="F113" t="s">
-        <v>234</v>
+      <c r="E113" t="s">
+        <v>233</v>
       </c>
       <c r="G113" t="s">
-        <v>235</v>
+        <v>420</v>
       </c>
       <c r="I113" t="s">
         <v>296</v>
@@ -7432,7 +7432,7 @@
         <v>422</v>
       </c>
       <c r="K113" t="s">
-        <v>423</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -7448,20 +7448,20 @@
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="F114" t="s">
+      <c r="E114" t="s">
+        <v>253</v>
+      </c>
+      <c r="G114" t="s">
+        <v>420</v>
+      </c>
+      <c r="I114" t="s">
         <v>314</v>
-      </c>
-      <c r="G114" t="s">
-        <v>254</v>
-      </c>
-      <c r="I114" t="s">
-        <v>315</v>
       </c>
       <c r="J114" t="s">
         <v>422</v>
       </c>
       <c r="K114" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -7477,20 +7477,20 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="F115" t="s">
+      <c r="E115" t="s">
         <v>377</v>
       </c>
       <c r="G115" t="s">
+        <v>420</v>
+      </c>
+      <c r="I115" t="s">
         <v>378</v>
-      </c>
-      <c r="I115" t="s">
-        <v>379</v>
       </c>
       <c r="J115" t="s">
         <v>422</v>
       </c>
       <c r="K115" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -7503,20 +7503,20 @@
       <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="F116" t="s">
+      <c r="E116" t="s">
+        <v>462</v>
+      </c>
+      <c r="G116" t="s">
+        <v>420</v>
+      </c>
+      <c r="I116" t="s">
         <v>476</v>
-      </c>
-      <c r="G116" t="s">
-        <v>463</v>
-      </c>
-      <c r="I116" t="s">
-        <v>477</v>
       </c>
       <c r="J116" t="s">
         <v>422</v>
       </c>
       <c r="K116" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -7529,20 +7529,20 @@
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="F117" t="s">
+      <c r="E117" t="s">
         <v>462</v>
       </c>
       <c r="G117" t="s">
+        <v>420</v>
+      </c>
+      <c r="I117" t="s">
         <v>463</v>
-      </c>
-      <c r="I117" t="s">
-        <v>464</v>
       </c>
       <c r="J117" t="s">
         <v>422</v>
       </c>
       <c r="K117" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -7558,11 +7558,11 @@
       <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="F118" t="s">
+      <c r="E118" t="s">
         <v>337</v>
       </c>
       <c r="G118" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="I118" t="s">
         <v>483</v>
@@ -7571,7 +7571,7 @@
         <v>422</v>
       </c>
       <c r="K118" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -7587,20 +7587,20 @@
       <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="F119" t="s">
+      <c r="E119" t="s">
         <v>377</v>
       </c>
       <c r="G119" t="s">
+        <v>420</v>
+      </c>
+      <c r="I119" t="s">
         <v>378</v>
-      </c>
-      <c r="I119" t="s">
-        <v>379</v>
       </c>
       <c r="J119" t="s">
         <v>422</v>
       </c>
       <c r="K119" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -7616,20 +7616,20 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="F120" t="s">
+      <c r="E120" t="s">
+        <v>233</v>
+      </c>
+      <c r="G120" t="s">
+        <v>490</v>
+      </c>
+      <c r="I120" t="s">
         <v>352</v>
       </c>
-      <c r="G120" t="s">
-        <v>235</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
+        <v>491</v>
+      </c>
+      <c r="K120" t="s">
         <v>353</v>
-      </c>
-      <c r="J120" t="s">
-        <v>490</v>
-      </c>
-      <c r="K120" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -7645,20 +7645,20 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="F121" t="s">
-        <v>234</v>
+      <c r="E121" t="s">
+        <v>233</v>
       </c>
       <c r="G121" t="s">
-        <v>235</v>
+        <v>490</v>
       </c>
       <c r="I121" t="s">
         <v>296</v>
       </c>
       <c r="J121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K121" t="s">
-        <v>491</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -7674,20 +7674,20 @@
       <c r="D122" t="s">
         <v>14</v>
       </c>
-      <c r="F122" t="s">
+      <c r="E122" t="s">
+        <v>233</v>
+      </c>
+      <c r="G122" t="s">
+        <v>490</v>
+      </c>
+      <c r="I122" t="s">
         <v>352</v>
       </c>
-      <c r="G122" t="s">
-        <v>235</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
+        <v>491</v>
+      </c>
+      <c r="K122" t="s">
         <v>353</v>
-      </c>
-      <c r="J122" t="s">
-        <v>490</v>
-      </c>
-      <c r="K122" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -7703,20 +7703,20 @@
       <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="F123" t="s">
+      <c r="E123" t="s">
+        <v>233</v>
+      </c>
+      <c r="G123" t="s">
+        <v>490</v>
+      </c>
+      <c r="I123" t="s">
         <v>352</v>
       </c>
-      <c r="G123" t="s">
-        <v>235</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
+        <v>491</v>
+      </c>
+      <c r="K123" t="s">
         <v>353</v>
-      </c>
-      <c r="J123" t="s">
-        <v>490</v>
-      </c>
-      <c r="K123" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -7732,20 +7732,20 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="F124" t="s">
+      <c r="E124" t="s">
+        <v>337</v>
+      </c>
+      <c r="G124" t="s">
+        <v>490</v>
+      </c>
+      <c r="I124" t="s">
         <v>504</v>
       </c>
-      <c r="G124" t="s">
-        <v>338</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
+        <v>491</v>
+      </c>
+      <c r="K124" t="s">
         <v>505</v>
-      </c>
-      <c r="J124" t="s">
-        <v>490</v>
-      </c>
-      <c r="K124" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -7761,20 +7761,20 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="F125" t="s">
+      <c r="E125" t="s">
+        <v>337</v>
+      </c>
+      <c r="G125" t="s">
+        <v>490</v>
+      </c>
+      <c r="I125" t="s">
         <v>504</v>
       </c>
-      <c r="G125" t="s">
-        <v>338</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
+        <v>491</v>
+      </c>
+      <c r="K125" t="s">
         <v>505</v>
-      </c>
-      <c r="J125" t="s">
-        <v>490</v>
-      </c>
-      <c r="K125" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -7790,20 +7790,20 @@
       <c r="D126" t="s">
         <v>14</v>
       </c>
-      <c r="F126" t="s">
+      <c r="E126" t="s">
+        <v>337</v>
+      </c>
+      <c r="G126" t="s">
+        <v>490</v>
+      </c>
+      <c r="I126" t="s">
         <v>504</v>
       </c>
-      <c r="G126" t="s">
-        <v>338</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
+        <v>491</v>
+      </c>
+      <c r="K126" t="s">
         <v>505</v>
-      </c>
-      <c r="J126" t="s">
-        <v>490</v>
-      </c>
-      <c r="K126" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -7819,20 +7819,20 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
-      <c r="F127" t="s">
+      <c r="E127" t="s">
+        <v>337</v>
+      </c>
+      <c r="G127" t="s">
+        <v>490</v>
+      </c>
+      <c r="I127" t="s">
         <v>504</v>
       </c>
-      <c r="G127" t="s">
-        <v>338</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
+        <v>491</v>
+      </c>
+      <c r="K127" t="s">
         <v>505</v>
-      </c>
-      <c r="J127" t="s">
-        <v>490</v>
-      </c>
-      <c r="K127" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -7848,20 +7848,20 @@
       <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="F128" t="s">
+      <c r="E128" t="s">
+        <v>337</v>
+      </c>
+      <c r="G128" t="s">
+        <v>490</v>
+      </c>
+      <c r="I128" t="s">
         <v>504</v>
       </c>
-      <c r="G128" t="s">
-        <v>338</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
+        <v>491</v>
+      </c>
+      <c r="K128" t="s">
         <v>505</v>
-      </c>
-      <c r="J128" t="s">
-        <v>490</v>
-      </c>
-      <c r="K128" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -7877,20 +7877,20 @@
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="F129" t="s">
-        <v>504</v>
+      <c r="E129" t="s">
+        <v>337</v>
       </c>
       <c r="G129" t="s">
-        <v>338</v>
+        <v>490</v>
       </c>
       <c r="I129" t="s">
         <v>521</v>
       </c>
       <c r="J129" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K129" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7906,20 +7906,20 @@
       <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="F130" t="s">
-        <v>504</v>
+      <c r="E130" t="s">
+        <v>337</v>
       </c>
       <c r="G130" t="s">
-        <v>338</v>
+        <v>490</v>
       </c>
       <c r="I130" t="s">
         <v>525</v>
       </c>
       <c r="J130" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K130" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7935,20 +7935,20 @@
       <c r="D131" t="s">
         <v>14</v>
       </c>
-      <c r="F131" t="s">
-        <v>504</v>
+      <c r="E131" t="s">
+        <v>337</v>
       </c>
       <c r="G131" t="s">
-        <v>338</v>
+        <v>490</v>
       </c>
       <c r="I131" t="s">
         <v>529</v>
       </c>
       <c r="J131" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K131" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7964,20 +7964,20 @@
       <c r="D132" t="s">
         <v>14</v>
       </c>
-      <c r="F132" t="s">
+      <c r="E132" t="s">
+        <v>337</v>
+      </c>
+      <c r="G132" t="s">
+        <v>490</v>
+      </c>
+      <c r="I132" t="s">
         <v>533</v>
       </c>
-      <c r="G132" t="s">
-        <v>338</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
+        <v>491</v>
+      </c>
+      <c r="K132" t="s">
         <v>534</v>
-      </c>
-      <c r="J132" t="s">
-        <v>490</v>
-      </c>
-      <c r="K132" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7990,20 +7990,20 @@
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="F133" t="s">
+      <c r="E133" t="s">
+        <v>233</v>
+      </c>
+      <c r="G133" t="s">
+        <v>490</v>
+      </c>
+      <c r="I133" t="s">
         <v>392</v>
       </c>
-      <c r="G133" t="s">
-        <v>235</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
+        <v>491</v>
+      </c>
+      <c r="K133" t="s">
         <v>393</v>
-      </c>
-      <c r="J133" t="s">
-        <v>490</v>
-      </c>
-      <c r="K133" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8019,20 +8019,20 @@
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="F134" t="s">
+      <c r="E134" t="s">
+        <v>337</v>
+      </c>
+      <c r="G134" t="s">
+        <v>540</v>
+      </c>
+      <c r="I134" t="s">
         <v>361</v>
       </c>
-      <c r="G134" t="s">
-        <v>338</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
+        <v>541</v>
+      </c>
+      <c r="K134" t="s">
         <v>362</v>
-      </c>
-      <c r="J134" t="s">
-        <v>540</v>
-      </c>
-      <c r="K134" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8045,20 +8045,20 @@
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="F135" t="s">
+      <c r="E135" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" t="s">
+        <v>540</v>
+      </c>
+      <c r="I135" t="s">
         <v>361</v>
       </c>
-      <c r="G135" t="s">
-        <v>338</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
+        <v>541</v>
+      </c>
+      <c r="K135" t="s">
         <v>362</v>
-      </c>
-      <c r="J135" t="s">
-        <v>540</v>
-      </c>
-      <c r="K135" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8074,20 +8074,20 @@
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="F136" t="s">
+      <c r="E136" t="s">
+        <v>337</v>
+      </c>
+      <c r="G136" t="s">
+        <v>540</v>
+      </c>
+      <c r="I136" t="s">
         <v>361</v>
       </c>
-      <c r="G136" t="s">
-        <v>338</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
+        <v>541</v>
+      </c>
+      <c r="K136" t="s">
         <v>362</v>
-      </c>
-      <c r="J136" t="s">
-        <v>540</v>
-      </c>
-      <c r="K136" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8103,20 +8103,20 @@
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="F137" t="s">
+      <c r="E137" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" t="s">
+        <v>540</v>
+      </c>
+      <c r="I137" t="s">
         <v>361</v>
       </c>
-      <c r="G137" t="s">
-        <v>338</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
+        <v>541</v>
+      </c>
+      <c r="K137" t="s">
         <v>362</v>
-      </c>
-      <c r="J137" t="s">
-        <v>540</v>
-      </c>
-      <c r="K137" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8132,20 +8132,20 @@
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="F138" t="s">
+      <c r="E138" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" t="s">
+        <v>540</v>
+      </c>
+      <c r="I138" t="s">
         <v>361</v>
       </c>
-      <c r="G138" t="s">
-        <v>338</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
+        <v>541</v>
+      </c>
+      <c r="K138" t="s">
         <v>362</v>
-      </c>
-      <c r="J138" t="s">
-        <v>540</v>
-      </c>
-      <c r="K138" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8161,20 +8161,20 @@
       <c r="D139" t="s">
         <v>14</v>
       </c>
-      <c r="F139" t="s">
+      <c r="E139" t="s">
+        <v>462</v>
+      </c>
+      <c r="G139" t="s">
+        <v>540</v>
+      </c>
+      <c r="I139" t="s">
         <v>556</v>
       </c>
-      <c r="G139" t="s">
-        <v>463</v>
-      </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
+        <v>541</v>
+      </c>
+      <c r="K139" t="s">
         <v>557</v>
-      </c>
-      <c r="J139" t="s">
-        <v>540</v>
-      </c>
-      <c r="K139" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8190,20 +8190,20 @@
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="F140" t="s">
+      <c r="E140" t="s">
+        <v>337</v>
+      </c>
+      <c r="G140" t="s">
+        <v>540</v>
+      </c>
+      <c r="I140" t="s">
         <v>361</v>
       </c>
-      <c r="G140" t="s">
-        <v>338</v>
-      </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
+        <v>541</v>
+      </c>
+      <c r="K140" t="s">
         <v>362</v>
-      </c>
-      <c r="J140" t="s">
-        <v>540</v>
-      </c>
-      <c r="K140" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8220,13 +8220,13 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
+        <v>337</v>
+      </c>
+      <c r="F141" t="s">
         <v>564</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>565</v>
-      </c>
-      <c r="G141" t="s">
-        <v>338</v>
       </c>
       <c r="H141" t="s">
         <v>566</v>
@@ -8252,13 +8252,13 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
+        <v>337</v>
+      </c>
+      <c r="F142" t="s">
         <v>564</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>565</v>
-      </c>
-      <c r="G142" t="s">
-        <v>338</v>
       </c>
       <c r="H142" t="s">
         <v>566</v>
@@ -8287,25 +8287,25 @@
         <v>14</v>
       </c>
       <c r="E143" t="s">
+        <v>337</v>
+      </c>
+      <c r="F143" t="s">
         <v>564</v>
       </c>
-      <c r="F143" t="s">
-        <v>575</v>
-      </c>
       <c r="G143" t="s">
-        <v>338</v>
+        <v>565</v>
       </c>
       <c r="H143" t="s">
         <v>566</v>
       </c>
       <c r="I143" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J143" t="s">
         <v>568</v>
       </c>
       <c r="K143" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -8322,25 +8322,25 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
+        <v>337</v>
+      </c>
+      <c r="F144" t="s">
         <v>564</v>
       </c>
-      <c r="F144" t="s">
-        <v>575</v>
-      </c>
       <c r="G144" t="s">
-        <v>338</v>
+        <v>565</v>
       </c>
       <c r="H144" t="s">
         <v>566</v>
       </c>
       <c r="I144" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J144" t="s">
         <v>568</v>
       </c>
       <c r="K144" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8357,25 +8357,25 @@
         <v>14</v>
       </c>
       <c r="E145" t="s">
+        <v>337</v>
+      </c>
+      <c r="F145" t="s">
         <v>564</v>
       </c>
-      <c r="F145" t="s">
-        <v>575</v>
-      </c>
       <c r="G145" t="s">
-        <v>338</v>
+        <v>565</v>
       </c>
       <c r="H145" t="s">
         <v>566</v>
       </c>
       <c r="I145" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J145" t="s">
         <v>568</v>
       </c>
       <c r="K145" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -8392,13 +8392,13 @@
         <v>14</v>
       </c>
       <c r="E146" t="s">
+        <v>337</v>
+      </c>
+      <c r="F146" t="s">
         <v>564</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>565</v>
-      </c>
-      <c r="G146" t="s">
-        <v>338</v>
       </c>
       <c r="H146" t="s">
         <v>566</v>
@@ -8427,13 +8427,13 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
+        <v>337</v>
+      </c>
+      <c r="F147" t="s">
         <v>589</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>565</v>
-      </c>
-      <c r="G147" t="s">
-        <v>338</v>
       </c>
       <c r="H147" t="s">
         <v>590</v>
@@ -8462,13 +8462,13 @@
         <v>14</v>
       </c>
       <c r="E148" t="s">
+        <v>337</v>
+      </c>
+      <c r="F148" t="s">
         <v>589</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>565</v>
-      </c>
-      <c r="G148" t="s">
-        <v>338</v>
       </c>
       <c r="H148" t="s">
         <v>590</v>
@@ -8497,13 +8497,13 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
+        <v>337</v>
+      </c>
+      <c r="F149" t="s">
         <v>589</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>565</v>
-      </c>
-      <c r="G149" t="s">
-        <v>338</v>
       </c>
       <c r="H149" t="s">
         <v>590</v>
@@ -8532,13 +8532,13 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
+        <v>337</v>
+      </c>
+      <c r="F150" t="s">
         <v>589</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>565</v>
-      </c>
-      <c r="G150" t="s">
-        <v>338</v>
       </c>
       <c r="H150" t="s">
         <v>590</v>
@@ -8567,13 +8567,13 @@
         <v>14</v>
       </c>
       <c r="E151" t="s">
+        <v>337</v>
+      </c>
+      <c r="F151" t="s">
         <v>589</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>565</v>
-      </c>
-      <c r="G151" t="s">
-        <v>338</v>
       </c>
       <c r="H151" t="s">
         <v>590</v>
@@ -8602,13 +8602,13 @@
         <v>14</v>
       </c>
       <c r="E152" t="s">
+        <v>337</v>
+      </c>
+      <c r="F152" t="s">
         <v>589</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>565</v>
-      </c>
-      <c r="G152" t="s">
-        <v>338</v>
       </c>
       <c r="H152" t="s">
         <v>590</v>
@@ -8637,13 +8637,13 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
+        <v>337</v>
+      </c>
+      <c r="F153" t="s">
         <v>589</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>565</v>
-      </c>
-      <c r="G153" t="s">
-        <v>338</v>
       </c>
       <c r="H153" t="s">
         <v>590</v>
@@ -8672,13 +8672,13 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
+        <v>337</v>
+      </c>
+      <c r="F154" t="s">
         <v>589</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>565</v>
-      </c>
-      <c r="G154" t="s">
-        <v>338</v>
       </c>
       <c r="H154" t="s">
         <v>590</v>
@@ -8707,13 +8707,13 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
+        <v>337</v>
+      </c>
+      <c r="F155" t="s">
         <v>589</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>565</v>
-      </c>
-      <c r="G155" t="s">
-        <v>338</v>
       </c>
       <c r="H155" t="s">
         <v>590</v>
@@ -8742,13 +8742,13 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
+        <v>337</v>
+      </c>
+      <c r="F156" t="s">
         <v>618</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>565</v>
-      </c>
-      <c r="G156" t="s">
-        <v>338</v>
       </c>
       <c r="H156" t="s">
         <v>619</v>
@@ -8777,13 +8777,13 @@
         <v>14</v>
       </c>
       <c r="E157" t="s">
+        <v>337</v>
+      </c>
+      <c r="F157" t="s">
         <v>618</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>565</v>
-      </c>
-      <c r="G157" t="s">
-        <v>338</v>
       </c>
       <c r="H157" t="s">
         <v>619</v>
@@ -8812,13 +8812,13 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
+        <v>337</v>
+      </c>
+      <c r="F158" t="s">
         <v>618</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>565</v>
-      </c>
-      <c r="G158" t="s">
-        <v>338</v>
       </c>
       <c r="H158" t="s">
         <v>619</v>
@@ -8847,13 +8847,13 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
+        <v>337</v>
+      </c>
+      <c r="F159" t="s">
         <v>618</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>565</v>
-      </c>
-      <c r="G159" t="s">
-        <v>338</v>
       </c>
       <c r="H159" t="s">
         <v>619</v>
@@ -8882,13 +8882,13 @@
         <v>14</v>
       </c>
       <c r="E160" t="s">
+        <v>337</v>
+      </c>
+      <c r="F160" t="s">
         <v>618</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>565</v>
-      </c>
-      <c r="G160" t="s">
-        <v>338</v>
       </c>
       <c r="H160" t="s">
         <v>619</v>
@@ -8917,13 +8917,13 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
+        <v>337</v>
+      </c>
+      <c r="F161" t="s">
         <v>618</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>565</v>
-      </c>
-      <c r="G161" t="s">
-        <v>338</v>
       </c>
       <c r="H161" t="s">
         <v>619</v>
@@ -8952,13 +8952,13 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
+        <v>337</v>
+      </c>
+      <c r="F162" t="s">
         <v>639</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>565</v>
-      </c>
-      <c r="G162" t="s">
-        <v>338</v>
       </c>
       <c r="H162" t="s">
         <v>640</v>
@@ -8987,13 +8987,13 @@
         <v>14</v>
       </c>
       <c r="E163" t="s">
+        <v>337</v>
+      </c>
+      <c r="F163" t="s">
         <v>644</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>565</v>
-      </c>
-      <c r="G163" t="s">
-        <v>338</v>
       </c>
       <c r="H163" t="s">
         <v>642</v>
@@ -9022,13 +9022,13 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
+        <v>337</v>
+      </c>
+      <c r="F164" t="s">
         <v>649</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>565</v>
-      </c>
-      <c r="G164" t="s">
-        <v>338</v>
       </c>
       <c r="H164" t="s">
         <v>650</v>
@@ -9057,13 +9057,13 @@
         <v>14</v>
       </c>
       <c r="E165" t="s">
+        <v>337</v>
+      </c>
+      <c r="F165" t="s">
         <v>649</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>565</v>
-      </c>
-      <c r="G165" t="s">
-        <v>338</v>
       </c>
       <c r="H165" t="s">
         <v>650</v>
@@ -9092,13 +9092,13 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
+        <v>337</v>
+      </c>
+      <c r="F166" t="s">
         <v>649</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>565</v>
-      </c>
-      <c r="G166" t="s">
-        <v>338</v>
       </c>
       <c r="H166" t="s">
         <v>650</v>
@@ -9127,13 +9127,13 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
+        <v>337</v>
+      </c>
+      <c r="F167" t="s">
         <v>649</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>565</v>
-      </c>
-      <c r="G167" t="s">
-        <v>338</v>
       </c>
       <c r="H167" t="s">
         <v>650</v>
@@ -9162,13 +9162,13 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
+        <v>337</v>
+      </c>
+      <c r="F168" t="s">
         <v>649</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>565</v>
-      </c>
-      <c r="G168" t="s">
-        <v>338</v>
       </c>
       <c r="H168" t="s">
         <v>650</v>
@@ -9194,13 +9194,13 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" t="s">
         <v>649</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>565</v>
-      </c>
-      <c r="G169" t="s">
-        <v>338</v>
       </c>
       <c r="H169" t="s">
         <v>650</v>
@@ -9229,13 +9229,13 @@
         <v>14</v>
       </c>
       <c r="E170" t="s">
+        <v>337</v>
+      </c>
+      <c r="F170" t="s">
         <v>649</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>565</v>
-      </c>
-      <c r="G170" t="s">
-        <v>338</v>
       </c>
       <c r="H170" t="s">
         <v>650</v>
@@ -9263,20 +9263,20 @@
       <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="F171" t="s">
+      <c r="E171" t="s">
         <v>337</v>
       </c>
       <c r="G171" t="s">
+        <v>672</v>
+      </c>
+      <c r="I171" t="s">
         <v>338</v>
       </c>
-      <c r="I171" t="s">
+      <c r="J171" t="s">
+        <v>673</v>
+      </c>
+      <c r="K171" t="s">
         <v>339</v>
-      </c>
-      <c r="J171" t="s">
-        <v>672</v>
-      </c>
-      <c r="K171" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9292,20 +9292,20 @@
       <c r="D172" t="s">
         <v>14</v>
       </c>
-      <c r="F172" t="s">
+      <c r="E172" t="s">
+        <v>233</v>
+      </c>
+      <c r="G172" t="s">
+        <v>672</v>
+      </c>
+      <c r="I172" t="s">
         <v>243</v>
       </c>
-      <c r="G172" t="s">
-        <v>235</v>
-      </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
+        <v>673</v>
+      </c>
+      <c r="K172" t="s">
         <v>244</v>
-      </c>
-      <c r="J172" t="s">
-        <v>672</v>
-      </c>
-      <c r="K172" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9321,20 +9321,20 @@
       <c r="D173" t="s">
         <v>14</v>
       </c>
-      <c r="F173" t="s">
+      <c r="E173" t="s">
         <v>337</v>
       </c>
       <c r="G173" t="s">
+        <v>672</v>
+      </c>
+      <c r="I173" t="s">
         <v>338</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
+        <v>673</v>
+      </c>
+      <c r="K173" t="s">
         <v>339</v>
-      </c>
-      <c r="J173" t="s">
-        <v>672</v>
-      </c>
-      <c r="K173" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9350,20 +9350,20 @@
       <c r="D174" t="s">
         <v>14</v>
       </c>
-      <c r="F174" t="s">
+      <c r="E174" t="s">
         <v>337</v>
       </c>
       <c r="G174" t="s">
+        <v>672</v>
+      </c>
+      <c r="I174" t="s">
         <v>338</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
+        <v>673</v>
+      </c>
+      <c r="K174" t="s">
         <v>339</v>
-      </c>
-      <c r="J174" t="s">
-        <v>672</v>
-      </c>
-      <c r="K174" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9379,20 +9379,20 @@
       <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="F175" t="s">
+      <c r="E175" t="s">
         <v>337</v>
       </c>
       <c r="G175" t="s">
+        <v>672</v>
+      </c>
+      <c r="I175" t="s">
         <v>338</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
+        <v>673</v>
+      </c>
+      <c r="K175" t="s">
         <v>339</v>
-      </c>
-      <c r="J175" t="s">
-        <v>672</v>
-      </c>
-      <c r="K175" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9405,20 +9405,20 @@
       <c r="D176" t="s">
         <v>14</v>
       </c>
-      <c r="F176" t="s">
+      <c r="E176" t="s">
         <v>337</v>
       </c>
       <c r="G176" t="s">
+        <v>672</v>
+      </c>
+      <c r="I176" t="s">
         <v>338</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
+        <v>673</v>
+      </c>
+      <c r="K176" t="s">
         <v>339</v>
-      </c>
-      <c r="J176" t="s">
-        <v>672</v>
-      </c>
-      <c r="K176" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9434,20 +9434,20 @@
       <c r="D177" t="s">
         <v>14</v>
       </c>
-      <c r="F177" t="s">
+      <c r="E177" t="s">
         <v>337</v>
       </c>
       <c r="G177" t="s">
+        <v>691</v>
+      </c>
+      <c r="I177" t="s">
         <v>338</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
+        <v>692</v>
+      </c>
+      <c r="K177" t="s">
         <v>339</v>
-      </c>
-      <c r="J177" t="s">
-        <v>691</v>
-      </c>
-      <c r="K177" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9463,20 +9463,20 @@
       <c r="D178" t="s">
         <v>14</v>
       </c>
-      <c r="F178" t="s">
+      <c r="E178" t="s">
         <v>337</v>
       </c>
       <c r="G178" t="s">
+        <v>691</v>
+      </c>
+      <c r="I178" t="s">
         <v>338</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
+        <v>692</v>
+      </c>
+      <c r="K178" t="s">
         <v>339</v>
-      </c>
-      <c r="J178" t="s">
-        <v>691</v>
-      </c>
-      <c r="K178" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -9492,20 +9492,20 @@
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="F179" t="s">
+      <c r="E179" t="s">
         <v>337</v>
       </c>
       <c r="G179" t="s">
+        <v>691</v>
+      </c>
+      <c r="I179" t="s">
         <v>338</v>
       </c>
-      <c r="I179" t="s">
+      <c r="J179" t="s">
+        <v>692</v>
+      </c>
+      <c r="K179" t="s">
         <v>339</v>
-      </c>
-      <c r="J179" t="s">
-        <v>691</v>
-      </c>
-      <c r="K179" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -9521,20 +9521,20 @@
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="F180" t="s">
+      <c r="E180" t="s">
         <v>337</v>
       </c>
       <c r="G180" t="s">
+        <v>691</v>
+      </c>
+      <c r="I180" t="s">
         <v>338</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180" t="s">
+        <v>692</v>
+      </c>
+      <c r="K180" t="s">
         <v>339</v>
-      </c>
-      <c r="J180" t="s">
-        <v>691</v>
-      </c>
-      <c r="K180" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -9551,13 +9551,13 @@
         <v>14</v>
       </c>
       <c r="E181" t="s">
+        <v>337</v>
+      </c>
+      <c r="F181" t="s">
         <v>705</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>706</v>
-      </c>
-      <c r="G181" t="s">
-        <v>338</v>
       </c>
       <c r="H181" t="s">
         <v>707</v>
@@ -9586,13 +9586,13 @@
         <v>14</v>
       </c>
       <c r="E182" t="s">
+        <v>337</v>
+      </c>
+      <c r="F182" t="s">
         <v>705</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>706</v>
-      </c>
-      <c r="G182" t="s">
-        <v>338</v>
       </c>
       <c r="H182" t="s">
         <v>707</v>
@@ -9621,13 +9621,13 @@
         <v>14</v>
       </c>
       <c r="E183" t="s">
+        <v>337</v>
+      </c>
+      <c r="F183" t="s">
         <v>705</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>706</v>
-      </c>
-      <c r="G183" t="s">
-        <v>338</v>
       </c>
       <c r="H183" t="s">
         <v>707</v>
@@ -9656,13 +9656,13 @@
         <v>14</v>
       </c>
       <c r="E184" t="s">
+        <v>337</v>
+      </c>
+      <c r="F184" t="s">
         <v>705</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>706</v>
-      </c>
-      <c r="G184" t="s">
-        <v>338</v>
       </c>
       <c r="H184" t="s">
         <v>707</v>
@@ -9691,13 +9691,13 @@
         <v>14</v>
       </c>
       <c r="E185" t="s">
+        <v>337</v>
+      </c>
+      <c r="F185" t="s">
         <v>705</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>706</v>
-      </c>
-      <c r="G185" t="s">
-        <v>338</v>
       </c>
       <c r="H185" t="s">
         <v>707</v>
@@ -9726,13 +9726,13 @@
         <v>14</v>
       </c>
       <c r="E186" t="s">
+        <v>337</v>
+      </c>
+      <c r="F186" t="s">
         <v>705</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>706</v>
-      </c>
-      <c r="G186" t="s">
-        <v>338</v>
       </c>
       <c r="H186" t="s">
         <v>707</v>
@@ -9761,13 +9761,13 @@
         <v>14</v>
       </c>
       <c r="E187" t="s">
+        <v>337</v>
+      </c>
+      <c r="F187" t="s">
         <v>705</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>706</v>
-      </c>
-      <c r="G187" t="s">
-        <v>338</v>
       </c>
       <c r="H187" t="s">
         <v>707</v>
@@ -9796,13 +9796,13 @@
         <v>14</v>
       </c>
       <c r="E188" t="s">
+        <v>337</v>
+      </c>
+      <c r="F188" t="s">
         <v>705</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>706</v>
-      </c>
-      <c r="G188" t="s">
-        <v>338</v>
       </c>
       <c r="H188" t="s">
         <v>707</v>
@@ -9831,13 +9831,13 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
+        <v>337</v>
+      </c>
+      <c r="F189" t="s">
         <v>705</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>706</v>
-      </c>
-      <c r="G189" t="s">
-        <v>338</v>
       </c>
       <c r="H189" t="s">
         <v>707</v>
@@ -9866,13 +9866,13 @@
         <v>14</v>
       </c>
       <c r="E190" t="s">
+        <v>337</v>
+      </c>
+      <c r="F190" t="s">
         <v>705</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>706</v>
-      </c>
-      <c r="G190" t="s">
-        <v>338</v>
       </c>
       <c r="H190" t="s">
         <v>707</v>
@@ -9901,13 +9901,13 @@
         <v>14</v>
       </c>
       <c r="E191" t="s">
+        <v>337</v>
+      </c>
+      <c r="F191" t="s">
         <v>705</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>706</v>
-      </c>
-      <c r="G191" t="s">
-        <v>338</v>
       </c>
       <c r="H191" t="s">
         <v>707</v>
@@ -9933,13 +9933,13 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
+        <v>337</v>
+      </c>
+      <c r="F192" t="s">
         <v>705</v>
       </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
         <v>706</v>
-      </c>
-      <c r="G192" t="s">
-        <v>338</v>
       </c>
       <c r="H192" t="s">
         <v>707</v>
@@ -9968,13 +9968,13 @@
         <v>14</v>
       </c>
       <c r="E193" t="s">
+        <v>337</v>
+      </c>
+      <c r="F193" t="s">
         <v>705</v>
       </c>
-      <c r="F193" t="s">
-        <v>575</v>
-      </c>
       <c r="G193" t="s">
-        <v>338</v>
+        <v>706</v>
       </c>
       <c r="H193" t="s">
         <v>707</v>
@@ -9986,7 +9986,7 @@
         <v>709</v>
       </c>
       <c r="K193" t="s">
-        <v>710</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -10003,13 +10003,13 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
+        <v>337</v>
+      </c>
+      <c r="F194" t="s">
         <v>705</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>706</v>
-      </c>
-      <c r="G194" t="s">
-        <v>338</v>
       </c>
       <c r="H194" t="s">
         <v>707</v>
@@ -10038,13 +10038,13 @@
         <v>14</v>
       </c>
       <c r="E195" t="s">
+        <v>337</v>
+      </c>
+      <c r="F195" t="s">
         <v>705</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
         <v>706</v>
-      </c>
-      <c r="G195" t="s">
-        <v>338</v>
       </c>
       <c r="H195" t="s">
         <v>707</v>
@@ -10073,13 +10073,13 @@
         <v>14</v>
       </c>
       <c r="E196" t="s">
+        <v>337</v>
+      </c>
+      <c r="F196" t="s">
         <v>705</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>706</v>
-      </c>
-      <c r="G196" t="s">
-        <v>338</v>
       </c>
       <c r="H196" t="s">
         <v>707</v>
@@ -10108,13 +10108,13 @@
         <v>14</v>
       </c>
       <c r="E197" t="s">
+        <v>337</v>
+      </c>
+      <c r="F197" t="s">
         <v>705</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>706</v>
-      </c>
-      <c r="G197" t="s">
-        <v>338</v>
       </c>
       <c r="H197" t="s">
         <v>707</v>
@@ -10143,13 +10143,13 @@
         <v>14</v>
       </c>
       <c r="E198" t="s">
+        <v>337</v>
+      </c>
+      <c r="F198" t="s">
         <v>705</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>706</v>
-      </c>
-      <c r="G198" t="s">
-        <v>338</v>
       </c>
       <c r="H198" t="s">
         <v>707</v>
@@ -10178,13 +10178,13 @@
         <v>14</v>
       </c>
       <c r="E199" t="s">
+        <v>337</v>
+      </c>
+      <c r="F199" t="s">
         <v>765</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>706</v>
-      </c>
-      <c r="G199" t="s">
-        <v>338</v>
       </c>
       <c r="H199" t="s">
         <v>766</v>
@@ -10213,13 +10213,13 @@
         <v>14</v>
       </c>
       <c r="E200" t="s">
+        <v>337</v>
+      </c>
+      <c r="F200" t="s">
         <v>765</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="s">
         <v>706</v>
-      </c>
-      <c r="G200" t="s">
-        <v>338</v>
       </c>
       <c r="H200" t="s">
         <v>766</v>
@@ -10248,13 +10248,13 @@
         <v>14</v>
       </c>
       <c r="E201" t="s">
+        <v>337</v>
+      </c>
+      <c r="F201" t="s">
         <v>765</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>706</v>
-      </c>
-      <c r="G201" t="s">
-        <v>338</v>
       </c>
       <c r="H201" t="s">
         <v>766</v>
@@ -10280,13 +10280,13 @@
         <v>14</v>
       </c>
       <c r="E202" t="s">
+        <v>337</v>
+      </c>
+      <c r="F202" t="s">
         <v>765</v>
       </c>
-      <c r="F202" t="s">
+      <c r="G202" t="s">
         <v>706</v>
-      </c>
-      <c r="G202" t="s">
-        <v>338</v>
       </c>
       <c r="H202" t="s">
         <v>766</v>
@@ -10315,13 +10315,13 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
+        <v>337</v>
+      </c>
+      <c r="F203" t="s">
         <v>765</v>
       </c>
-      <c r="F203" t="s">
-        <v>575</v>
-      </c>
       <c r="G203" t="s">
-        <v>338</v>
+        <v>706</v>
       </c>
       <c r="H203" t="s">
         <v>766</v>
@@ -10333,7 +10333,7 @@
         <v>709</v>
       </c>
       <c r="K203" t="s">
-        <v>710</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10347,13 +10347,13 @@
         <v>14</v>
       </c>
       <c r="E204" t="s">
+        <v>337</v>
+      </c>
+      <c r="F204" t="s">
         <v>765</v>
       </c>
-      <c r="F204" t="s">
+      <c r="G204" t="s">
         <v>706</v>
-      </c>
-      <c r="G204" t="s">
-        <v>338</v>
       </c>
       <c r="H204" t="s">
         <v>766</v>
@@ -10382,13 +10382,13 @@
         <v>14</v>
       </c>
       <c r="E205" t="s">
+        <v>337</v>
+      </c>
+      <c r="F205" t="s">
         <v>784</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G205" t="s">
         <v>706</v>
-      </c>
-      <c r="G205" t="s">
-        <v>338</v>
       </c>
       <c r="H205" t="s">
         <v>785</v>
@@ -10417,13 +10417,13 @@
         <v>14</v>
       </c>
       <c r="E206" t="s">
+        <v>337</v>
+      </c>
+      <c r="F206" t="s">
         <v>784</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>706</v>
-      </c>
-      <c r="G206" t="s">
-        <v>338</v>
       </c>
       <c r="H206" t="s">
         <v>785</v>
@@ -10449,13 +10449,13 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
+        <v>337</v>
+      </c>
+      <c r="F207" t="s">
         <v>784</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>706</v>
-      </c>
-      <c r="G207" t="s">
-        <v>338</v>
       </c>
       <c r="H207" t="s">
         <v>785</v>
@@ -10484,13 +10484,13 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
+        <v>337</v>
+      </c>
+      <c r="F208" t="s">
         <v>784</v>
       </c>
-      <c r="F208" t="s">
-        <v>575</v>
-      </c>
       <c r="G208" t="s">
-        <v>338</v>
+        <v>706</v>
       </c>
       <c r="H208" t="s">
         <v>785</v>
@@ -10502,7 +10502,7 @@
         <v>709</v>
       </c>
       <c r="K208" t="s">
-        <v>710</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -10519,13 +10519,13 @@
         <v>14</v>
       </c>
       <c r="E209" t="s">
+        <v>337</v>
+      </c>
+      <c r="F209" t="s">
         <v>784</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>706</v>
-      </c>
-      <c r="G209" t="s">
-        <v>338</v>
       </c>
       <c r="H209" t="s">
         <v>785</v>
@@ -10554,13 +10554,13 @@
         <v>14</v>
       </c>
       <c r="E210" t="s">
+        <v>337</v>
+      </c>
+      <c r="F210" t="s">
         <v>801</v>
       </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>802</v>
-      </c>
-      <c r="G210" t="s">
-        <v>338</v>
       </c>
       <c r="H210" t="s">
         <v>803</v>
@@ -10586,13 +10586,13 @@
         <v>14</v>
       </c>
       <c r="E211" t="s">
+        <v>337</v>
+      </c>
+      <c r="F211" t="s">
         <v>801</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>802</v>
-      </c>
-      <c r="G211" t="s">
-        <v>338</v>
       </c>
       <c r="H211" t="s">
         <v>803</v>
@@ -10621,13 +10621,13 @@
         <v>14</v>
       </c>
       <c r="E212" t="s">
+        <v>337</v>
+      </c>
+      <c r="F212" t="s">
         <v>801</v>
       </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
         <v>802</v>
-      </c>
-      <c r="G212" t="s">
-        <v>338</v>
       </c>
       <c r="H212" t="s">
         <v>803</v>
@@ -10653,13 +10653,13 @@
         <v>14</v>
       </c>
       <c r="E213" t="s">
+        <v>337</v>
+      </c>
+      <c r="F213" t="s">
         <v>801</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>802</v>
-      </c>
-      <c r="G213" t="s">
-        <v>338</v>
       </c>
       <c r="H213" t="s">
         <v>803</v>
@@ -10688,13 +10688,13 @@
         <v>14</v>
       </c>
       <c r="E214" t="s">
+        <v>337</v>
+      </c>
+      <c r="F214" t="s">
         <v>801</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>802</v>
-      </c>
-      <c r="G214" t="s">
-        <v>338</v>
       </c>
       <c r="H214" t="s">
         <v>803</v>
@@ -10723,13 +10723,13 @@
         <v>14</v>
       </c>
       <c r="E215" t="s">
+        <v>337</v>
+      </c>
+      <c r="F215" t="s">
         <v>801</v>
       </c>
-      <c r="F215" t="s">
-        <v>706</v>
-      </c>
       <c r="G215" t="s">
-        <v>338</v>
+        <v>802</v>
       </c>
       <c r="H215" t="s">
         <v>803</v>
@@ -10741,7 +10741,7 @@
         <v>805</v>
       </c>
       <c r="K215" t="s">
-        <v>806</v>
+        <v>710</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -10758,13 +10758,13 @@
         <v>14</v>
       </c>
       <c r="E216" t="s">
+        <v>337</v>
+      </c>
+      <c r="F216" t="s">
         <v>801</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>802</v>
-      </c>
-      <c r="G216" t="s">
-        <v>338</v>
       </c>
       <c r="H216" t="s">
         <v>803</v>
@@ -10793,13 +10793,13 @@
         <v>14</v>
       </c>
       <c r="E217" t="s">
+        <v>337</v>
+      </c>
+      <c r="F217" t="s">
         <v>801</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>802</v>
-      </c>
-      <c r="G217" t="s">
-        <v>338</v>
       </c>
       <c r="H217" t="s">
         <v>803</v>
@@ -10825,13 +10825,13 @@
         <v>14</v>
       </c>
       <c r="E218" t="s">
+        <v>337</v>
+      </c>
+      <c r="F218" t="s">
         <v>801</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>802</v>
-      </c>
-      <c r="G218" t="s">
-        <v>338</v>
       </c>
       <c r="H218" t="s">
         <v>803</v>
@@ -10857,13 +10857,13 @@
         <v>14</v>
       </c>
       <c r="E219" t="s">
+        <v>337</v>
+      </c>
+      <c r="F219" t="s">
         <v>801</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>802</v>
-      </c>
-      <c r="G219" t="s">
-        <v>338</v>
       </c>
       <c r="H219" t="s">
         <v>803</v>
@@ -10892,13 +10892,13 @@
         <v>14</v>
       </c>
       <c r="E220" t="s">
+        <v>337</v>
+      </c>
+      <c r="F220" t="s">
         <v>801</v>
       </c>
-      <c r="F220" t="s">
-        <v>565</v>
-      </c>
       <c r="G220" t="s">
-        <v>338</v>
+        <v>802</v>
       </c>
       <c r="H220" t="s">
         <v>803</v>
@@ -10910,7 +10910,7 @@
         <v>805</v>
       </c>
       <c r="K220" t="s">
-        <v>806</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -10927,13 +10927,13 @@
         <v>14</v>
       </c>
       <c r="E221" t="s">
+        <v>337</v>
+      </c>
+      <c r="F221" t="s">
         <v>801</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>802</v>
-      </c>
-      <c r="G221" t="s">
-        <v>338</v>
       </c>
       <c r="H221" t="s">
         <v>803</v>
@@ -10962,13 +10962,13 @@
         <v>14</v>
       </c>
       <c r="E222" t="s">
+        <v>337</v>
+      </c>
+      <c r="F222" t="s">
         <v>801</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>802</v>
-      </c>
-      <c r="G222" t="s">
-        <v>338</v>
       </c>
       <c r="H222" t="s">
         <v>803</v>
@@ -10994,13 +10994,13 @@
         <v>14</v>
       </c>
       <c r="E223" t="s">
+        <v>337</v>
+      </c>
+      <c r="F223" t="s">
         <v>801</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>802</v>
-      </c>
-      <c r="G223" t="s">
-        <v>338</v>
       </c>
       <c r="H223" t="s">
         <v>803</v>
@@ -11029,13 +11029,13 @@
         <v>14</v>
       </c>
       <c r="E224" t="s">
+        <v>337</v>
+      </c>
+      <c r="F224" t="s">
         <v>801</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>802</v>
-      </c>
-      <c r="G224" t="s">
-        <v>338</v>
       </c>
       <c r="H224" t="s">
         <v>803</v>
@@ -11064,13 +11064,13 @@
         <v>14</v>
       </c>
       <c r="E225" t="s">
+        <v>337</v>
+      </c>
+      <c r="F225" t="s">
         <v>801</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>802</v>
-      </c>
-      <c r="G225" t="s">
-        <v>338</v>
       </c>
       <c r="H225" t="s">
         <v>803</v>
@@ -11099,25 +11099,25 @@
         <v>14</v>
       </c>
       <c r="E226" t="s">
+        <v>337</v>
+      </c>
+      <c r="F226" t="s">
         <v>801</v>
       </c>
-      <c r="F226" t="s">
-        <v>575</v>
-      </c>
       <c r="G226" t="s">
-        <v>338</v>
+        <v>802</v>
       </c>
       <c r="H226" t="s">
         <v>803</v>
       </c>
       <c r="I226" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J226" t="s">
         <v>805</v>
       </c>
       <c r="K226" t="s">
-        <v>806</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -11134,13 +11134,13 @@
         <v>14</v>
       </c>
       <c r="E227" t="s">
+        <v>337</v>
+      </c>
+      <c r="F227" t="s">
         <v>801</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>802</v>
-      </c>
-      <c r="G227" t="s">
-        <v>338</v>
       </c>
       <c r="H227" t="s">
         <v>803</v>
@@ -11169,25 +11169,25 @@
         <v>14</v>
       </c>
       <c r="E228" t="s">
+        <v>337</v>
+      </c>
+      <c r="F228" t="s">
         <v>801</v>
       </c>
-      <c r="F228" t="s">
-        <v>337</v>
-      </c>
       <c r="G228" t="s">
-        <v>338</v>
+        <v>802</v>
       </c>
       <c r="H228" t="s">
         <v>803</v>
       </c>
       <c r="I228" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J228" t="s">
         <v>805</v>
       </c>
       <c r="K228" t="s">
-        <v>806</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -11204,13 +11204,13 @@
         <v>14</v>
       </c>
       <c r="E229" t="s">
+        <v>337</v>
+      </c>
+      <c r="F229" t="s">
         <v>859</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>802</v>
-      </c>
-      <c r="G229" t="s">
-        <v>338</v>
       </c>
       <c r="H229" t="s">
         <v>860</v>
@@ -11239,13 +11239,13 @@
         <v>14</v>
       </c>
       <c r="E230" t="s">
+        <v>337</v>
+      </c>
+      <c r="F230" t="s">
         <v>859</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>802</v>
-      </c>
-      <c r="G230" t="s">
-        <v>338</v>
       </c>
       <c r="H230" t="s">
         <v>860</v>
@@ -11274,13 +11274,13 @@
         <v>14</v>
       </c>
       <c r="E231" t="s">
+        <v>337</v>
+      </c>
+      <c r="F231" t="s">
         <v>859</v>
       </c>
-      <c r="F231" t="s">
-        <v>565</v>
-      </c>
       <c r="G231" t="s">
-        <v>338</v>
+        <v>802</v>
       </c>
       <c r="H231" t="s">
         <v>860</v>
@@ -11292,7 +11292,7 @@
         <v>805</v>
       </c>
       <c r="K231" t="s">
-        <v>806</v>
+        <v>569</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11309,13 +11309,13 @@
         <v>14</v>
       </c>
       <c r="E232" t="s">
+        <v>337</v>
+      </c>
+      <c r="F232" t="s">
         <v>859</v>
       </c>
-      <c r="F232" t="s">
-        <v>565</v>
-      </c>
       <c r="G232" t="s">
-        <v>338</v>
+        <v>802</v>
       </c>
       <c r="H232" t="s">
         <v>860</v>
@@ -11327,7 +11327,7 @@
         <v>805</v>
       </c>
       <c r="K232" t="s">
-        <v>806</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -11344,13 +11344,13 @@
         <v>14</v>
       </c>
       <c r="E233" t="s">
+        <v>337</v>
+      </c>
+      <c r="F233" t="s">
         <v>859</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>802</v>
-      </c>
-      <c r="G233" t="s">
-        <v>338</v>
       </c>
       <c r="H233" t="s">
         <v>860</v>
@@ -11379,13 +11379,13 @@
         <v>14</v>
       </c>
       <c r="E234" t="s">
+        <v>337</v>
+      </c>
+      <c r="F234" t="s">
         <v>859</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>802</v>
-      </c>
-      <c r="G234" t="s">
-        <v>338</v>
       </c>
       <c r="H234" t="s">
         <v>860</v>
@@ -11414,13 +11414,13 @@
         <v>14</v>
       </c>
       <c r="E235" t="s">
+        <v>337</v>
+      </c>
+      <c r="F235" t="s">
         <v>859</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>802</v>
-      </c>
-      <c r="G235" t="s">
-        <v>338</v>
       </c>
       <c r="H235" t="s">
         <v>860</v>
@@ -11449,13 +11449,13 @@
         <v>14</v>
       </c>
       <c r="E236" t="s">
+        <v>337</v>
+      </c>
+      <c r="F236" t="s">
         <v>859</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>802</v>
-      </c>
-      <c r="G236" t="s">
-        <v>338</v>
       </c>
       <c r="H236" t="s">
         <v>860</v>
@@ -11484,13 +11484,13 @@
         <v>14</v>
       </c>
       <c r="E237" t="s">
+        <v>337</v>
+      </c>
+      <c r="F237" t="s">
         <v>859</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>802</v>
-      </c>
-      <c r="G237" t="s">
-        <v>338</v>
       </c>
       <c r="H237" t="s">
         <v>860</v>
@@ -11519,13 +11519,13 @@
         <v>14</v>
       </c>
       <c r="E238" t="s">
+        <v>337</v>
+      </c>
+      <c r="F238" t="s">
         <v>859</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="s">
         <v>802</v>
-      </c>
-      <c r="G238" t="s">
-        <v>338</v>
       </c>
       <c r="H238" t="s">
         <v>860</v>
@@ -11554,13 +11554,13 @@
         <v>14</v>
       </c>
       <c r="E239" t="s">
+        <v>337</v>
+      </c>
+      <c r="F239" t="s">
         <v>892</v>
       </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>802</v>
-      </c>
-      <c r="G239" t="s">
-        <v>338</v>
       </c>
       <c r="H239" t="s">
         <v>893</v>
@@ -11589,25 +11589,25 @@
         <v>14</v>
       </c>
       <c r="E240" t="s">
+        <v>337</v>
+      </c>
+      <c r="F240" t="s">
         <v>898</v>
       </c>
-      <c r="F240" t="s">
-        <v>337</v>
-      </c>
       <c r="G240" t="s">
+        <v>899</v>
+      </c>
+      <c r="H240" t="s">
+        <v>900</v>
+      </c>
+      <c r="I240" t="s">
         <v>338</v>
-      </c>
-      <c r="H240" t="s">
-        <v>899</v>
-      </c>
-      <c r="I240" t="s">
-        <v>339</v>
       </c>
       <c r="J240" t="s">
         <v>900</v>
       </c>
       <c r="K240" t="s">
-        <v>899</v>
+        <v>339</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -11624,25 +11624,25 @@
         <v>14</v>
       </c>
       <c r="E241" t="s">
+        <v>337</v>
+      </c>
+      <c r="F241" t="s">
         <v>898</v>
       </c>
-      <c r="F241" t="s">
-        <v>337</v>
-      </c>
       <c r="G241" t="s">
+        <v>899</v>
+      </c>
+      <c r="H241" t="s">
+        <v>900</v>
+      </c>
+      <c r="I241" t="s">
         <v>338</v>
-      </c>
-      <c r="H241" t="s">
-        <v>899</v>
-      </c>
-      <c r="I241" t="s">
-        <v>339</v>
       </c>
       <c r="J241" t="s">
         <v>900</v>
       </c>
       <c r="K241" t="s">
-        <v>899</v>
+        <v>339</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -11659,25 +11659,25 @@
         <v>14</v>
       </c>
       <c r="E242" t="s">
+        <v>337</v>
+      </c>
+      <c r="F242" t="s">
         <v>898</v>
       </c>
-      <c r="F242" t="s">
-        <v>337</v>
-      </c>
       <c r="G242" t="s">
+        <v>899</v>
+      </c>
+      <c r="H242" t="s">
+        <v>900</v>
+      </c>
+      <c r="I242" t="s">
         <v>338</v>
-      </c>
-      <c r="H242" t="s">
-        <v>899</v>
-      </c>
-      <c r="I242" t="s">
-        <v>339</v>
       </c>
       <c r="J242" t="s">
         <v>900</v>
       </c>
       <c r="K242" t="s">
-        <v>899</v>
+        <v>339</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -11694,25 +11694,25 @@
         <v>14</v>
       </c>
       <c r="E243" t="s">
+        <v>337</v>
+      </c>
+      <c r="F243" t="s">
         <v>898</v>
       </c>
-      <c r="F243" t="s">
-        <v>337</v>
-      </c>
       <c r="G243" t="s">
+        <v>899</v>
+      </c>
+      <c r="H243" t="s">
+        <v>900</v>
+      </c>
+      <c r="I243" t="s">
         <v>338</v>
-      </c>
-      <c r="H243" t="s">
-        <v>899</v>
-      </c>
-      <c r="I243" t="s">
-        <v>339</v>
       </c>
       <c r="J243" t="s">
         <v>900</v>
       </c>
       <c r="K243" t="s">
-        <v>899</v>
+        <v>339</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -11729,25 +11729,25 @@
         <v>14</v>
       </c>
       <c r="E244" t="s">
+        <v>337</v>
+      </c>
+      <c r="F244" t="s">
         <v>898</v>
       </c>
-      <c r="F244" t="s">
-        <v>337</v>
-      </c>
       <c r="G244" t="s">
+        <v>899</v>
+      </c>
+      <c r="H244" t="s">
+        <v>900</v>
+      </c>
+      <c r="I244" t="s">
         <v>338</v>
-      </c>
-      <c r="H244" t="s">
-        <v>899</v>
-      </c>
-      <c r="I244" t="s">
-        <v>339</v>
       </c>
       <c r="J244" t="s">
         <v>900</v>
       </c>
       <c r="K244" t="s">
-        <v>899</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -11764,25 +11764,25 @@
         <v>14</v>
       </c>
       <c r="E245" t="s">
+        <v>337</v>
+      </c>
+      <c r="F245" t="s">
         <v>898</v>
       </c>
-      <c r="F245" t="s">
-        <v>337</v>
-      </c>
       <c r="G245" t="s">
+        <v>899</v>
+      </c>
+      <c r="H245" t="s">
+        <v>900</v>
+      </c>
+      <c r="I245" t="s">
         <v>338</v>
-      </c>
-      <c r="H245" t="s">
-        <v>899</v>
-      </c>
-      <c r="I245" t="s">
-        <v>339</v>
       </c>
       <c r="J245" t="s">
         <v>900</v>
       </c>
       <c r="K245" t="s">
-        <v>899</v>
+        <v>339</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -11796,13 +11796,13 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
+        <v>337</v>
+      </c>
+      <c r="F246" t="s">
         <v>918</v>
       </c>
-      <c r="F246" t="s">
-        <v>533</v>
-      </c>
       <c r="G246" t="s">
-        <v>338</v>
+        <v>899</v>
       </c>
       <c r="H246" t="s">
         <v>919</v>
@@ -11814,7 +11814,7 @@
         <v>900</v>
       </c>
       <c r="K246" t="s">
-        <v>899</v>
+        <v>534</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -11830,20 +11830,20 @@
       <c r="D247" t="s">
         <v>14</v>
       </c>
-      <c r="F247" t="s">
+      <c r="E247" t="s">
         <v>196</v>
       </c>
       <c r="G247" t="s">
+        <v>924</v>
+      </c>
+      <c r="I247" t="s">
         <v>197</v>
       </c>
-      <c r="I247" t="s">
+      <c r="J247" t="s">
+        <v>925</v>
+      </c>
+      <c r="K247" t="s">
         <v>198</v>
-      </c>
-      <c r="J247" t="s">
-        <v>924</v>
-      </c>
-      <c r="K247" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -11859,20 +11859,20 @@
       <c r="D248" t="s">
         <v>14</v>
       </c>
-      <c r="F248" t="s">
+      <c r="E248" t="s">
         <v>196</v>
       </c>
       <c r="G248" t="s">
+        <v>924</v>
+      </c>
+      <c r="I248" t="s">
         <v>197</v>
       </c>
-      <c r="I248" t="s">
+      <c r="J248" t="s">
+        <v>925</v>
+      </c>
+      <c r="K248" t="s">
         <v>198</v>
-      </c>
-      <c r="J248" t="s">
-        <v>924</v>
-      </c>
-      <c r="K248" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -11888,20 +11888,20 @@
       <c r="D249" t="s">
         <v>14</v>
       </c>
-      <c r="F249" t="s">
+      <c r="E249" t="s">
+        <v>196</v>
+      </c>
+      <c r="G249" t="s">
+        <v>924</v>
+      </c>
+      <c r="I249" t="s">
         <v>932</v>
       </c>
-      <c r="G249" t="s">
-        <v>197</v>
-      </c>
-      <c r="I249" t="s">
+      <c r="J249" t="s">
+        <v>925</v>
+      </c>
+      <c r="K249" t="s">
         <v>933</v>
-      </c>
-      <c r="J249" t="s">
-        <v>924</v>
-      </c>
-      <c r="K249" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -11917,20 +11917,20 @@
       <c r="D250" t="s">
         <v>14</v>
       </c>
-      <c r="F250" t="s">
+      <c r="E250" t="s">
         <v>196</v>
       </c>
       <c r="G250" t="s">
+        <v>924</v>
+      </c>
+      <c r="I250" t="s">
         <v>197</v>
       </c>
-      <c r="I250" t="s">
+      <c r="J250" t="s">
+        <v>925</v>
+      </c>
+      <c r="K250" t="s">
         <v>198</v>
-      </c>
-      <c r="J250" t="s">
-        <v>924</v>
-      </c>
-      <c r="K250" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -11943,20 +11943,20 @@
       <c r="D251" t="s">
         <v>14</v>
       </c>
-      <c r="F251" t="s">
+      <c r="E251" t="s">
         <v>196</v>
       </c>
       <c r="G251" t="s">
+        <v>924</v>
+      </c>
+      <c r="I251" t="s">
         <v>197</v>
       </c>
-      <c r="I251" t="s">
+      <c r="J251" t="s">
+        <v>925</v>
+      </c>
+      <c r="K251" t="s">
         <v>198</v>
-      </c>
-      <c r="J251" t="s">
-        <v>924</v>
-      </c>
-      <c r="K251" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -11972,20 +11972,20 @@
       <c r="D252" t="s">
         <v>14</v>
       </c>
-      <c r="F252" t="s">
+      <c r="E252" t="s">
         <v>196</v>
       </c>
       <c r="G252" t="s">
+        <v>924</v>
+      </c>
+      <c r="I252" t="s">
         <v>197</v>
       </c>
-      <c r="I252" t="s">
+      <c r="J252" t="s">
+        <v>925</v>
+      </c>
+      <c r="K252" t="s">
         <v>198</v>
-      </c>
-      <c r="J252" t="s">
-        <v>924</v>
-      </c>
-      <c r="K252" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -11998,11 +11998,11 @@
       <c r="D253" t="s">
         <v>14</v>
       </c>
-      <c r="F253" t="s">
+      <c r="E253" t="s">
+        <v>337</v>
+      </c>
+      <c r="G253" t="s">
         <v>944</v>
-      </c>
-      <c r="G253" t="s">
-        <v>338</v>
       </c>
       <c r="I253" t="s">
         <v>945</v>
@@ -12027,20 +12027,20 @@
       <c r="D254" t="s">
         <v>14</v>
       </c>
-      <c r="F254" t="s">
+      <c r="E254" t="s">
+        <v>188</v>
+      </c>
+      <c r="G254" t="s">
+        <v>944</v>
+      </c>
+      <c r="I254" t="s">
         <v>454</v>
-      </c>
-      <c r="G254" t="s">
-        <v>189</v>
-      </c>
-      <c r="I254" t="s">
-        <v>455</v>
       </c>
       <c r="J254" t="s">
         <v>946</v>
       </c>
       <c r="K254" t="s">
-        <v>947</v>
+        <v>455</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -12056,20 +12056,20 @@
       <c r="D255" t="s">
         <v>14</v>
       </c>
-      <c r="F255" t="s">
+      <c r="E255" t="s">
+        <v>188</v>
+      </c>
+      <c r="G255" t="s">
+        <v>944</v>
+      </c>
+      <c r="I255" t="s">
         <v>954</v>
-      </c>
-      <c r="G255" t="s">
-        <v>189</v>
-      </c>
-      <c r="I255" t="s">
-        <v>955</v>
       </c>
       <c r="J255" t="s">
         <v>946</v>
       </c>
       <c r="K255" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -12085,20 +12085,20 @@
       <c r="D256" t="s">
         <v>14</v>
       </c>
-      <c r="F256" t="s">
+      <c r="E256" t="s">
+        <v>188</v>
+      </c>
+      <c r="G256" t="s">
+        <v>944</v>
+      </c>
+      <c r="I256" t="s">
         <v>954</v>
-      </c>
-      <c r="G256" t="s">
-        <v>189</v>
-      </c>
-      <c r="I256" t="s">
-        <v>955</v>
       </c>
       <c r="J256" t="s">
         <v>946</v>
       </c>
       <c r="K256" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -12114,20 +12114,20 @@
       <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="F257" t="s">
+      <c r="E257" t="s">
+        <v>188</v>
+      </c>
+      <c r="G257" t="s">
+        <v>944</v>
+      </c>
+      <c r="I257" t="s">
         <v>954</v>
-      </c>
-      <c r="G257" t="s">
-        <v>189</v>
-      </c>
-      <c r="I257" t="s">
-        <v>955</v>
       </c>
       <c r="J257" t="s">
         <v>946</v>
       </c>
       <c r="K257" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -12143,11 +12143,11 @@
       <c r="D258" t="s">
         <v>14</v>
       </c>
-      <c r="F258" t="s">
-        <v>706</v>
+      <c r="E258" t="s">
+        <v>337</v>
       </c>
       <c r="G258" t="s">
-        <v>338</v>
+        <v>944</v>
       </c>
       <c r="I258" t="s">
         <v>708</v>
@@ -12156,7 +12156,7 @@
         <v>946</v>
       </c>
       <c r="K258" t="s">
-        <v>947</v>
+        <v>710</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -12172,20 +12172,20 @@
       <c r="D259" t="s">
         <v>14</v>
       </c>
-      <c r="F259" t="s">
+      <c r="E259" t="s">
+        <v>188</v>
+      </c>
+      <c r="G259" t="s">
+        <v>944</v>
+      </c>
+      <c r="I259" t="s">
         <v>954</v>
-      </c>
-      <c r="G259" t="s">
-        <v>189</v>
-      </c>
-      <c r="I259" t="s">
-        <v>955</v>
       </c>
       <c r="J259" t="s">
         <v>946</v>
       </c>
       <c r="K259" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -12201,20 +12201,20 @@
       <c r="D260" t="s">
         <v>14</v>
       </c>
-      <c r="F260" t="s">
+      <c r="E260" t="s">
         <v>337</v>
       </c>
       <c r="G260" t="s">
+        <v>944</v>
+      </c>
+      <c r="I260" t="s">
         <v>338</v>
-      </c>
-      <c r="I260" t="s">
-        <v>339</v>
       </c>
       <c r="J260" t="s">
         <v>946</v>
       </c>
       <c r="K260" t="s">
-        <v>947</v>
+        <v>339</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -12230,20 +12230,20 @@
       <c r="D261" t="s">
         <v>14</v>
       </c>
-      <c r="F261" t="s">
+      <c r="E261" t="s">
+        <v>405</v>
+      </c>
+      <c r="G261" t="s">
+        <v>944</v>
+      </c>
+      <c r="I261" t="s">
         <v>973</v>
-      </c>
-      <c r="G261" t="s">
-        <v>406</v>
-      </c>
-      <c r="I261" t="s">
-        <v>974</v>
       </c>
       <c r="J261" t="s">
         <v>946</v>
       </c>
       <c r="K261" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -12259,20 +12259,20 @@
       <c r="D262" t="s">
         <v>14</v>
       </c>
-      <c r="F262" t="s">
+      <c r="E262" t="s">
         <v>337</v>
       </c>
       <c r="G262" t="s">
+        <v>944</v>
+      </c>
+      <c r="I262" t="s">
         <v>338</v>
-      </c>
-      <c r="I262" t="s">
-        <v>339</v>
       </c>
       <c r="J262" t="s">
         <v>946</v>
       </c>
       <c r="K262" t="s">
-        <v>947</v>
+        <v>339</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -12288,20 +12288,20 @@
       <c r="D263" t="s">
         <v>14</v>
       </c>
-      <c r="F263" t="s">
+      <c r="E263" t="s">
+        <v>377</v>
+      </c>
+      <c r="G263" t="s">
+        <v>944</v>
+      </c>
+      <c r="I263" t="s">
         <v>981</v>
-      </c>
-      <c r="G263" t="s">
-        <v>378</v>
-      </c>
-      <c r="I263" t="s">
-        <v>982</v>
       </c>
       <c r="J263" t="s">
         <v>946</v>
       </c>
       <c r="K263" t="s">
-        <v>947</v>
+        <v>982</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -12317,20 +12317,20 @@
       <c r="D264" t="s">
         <v>14</v>
       </c>
-      <c r="F264" t="s">
+      <c r="E264" t="s">
         <v>58</v>
       </c>
       <c r="G264" t="s">
+        <v>944</v>
+      </c>
+      <c r="I264" t="s">
         <v>59</v>
-      </c>
-      <c r="I264" t="s">
-        <v>60</v>
       </c>
       <c r="J264" t="s">
         <v>946</v>
       </c>
       <c r="K264" t="s">
-        <v>947</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -12346,11 +12346,11 @@
       <c r="D265" t="s">
         <v>14</v>
       </c>
-      <c r="F265" t="s">
-        <v>16</v>
+      <c r="E265" t="s">
+        <v>15</v>
       </c>
       <c r="G265" t="s">
-        <v>17</v>
+        <v>944</v>
       </c>
       <c r="I265" t="s">
         <v>19</v>
@@ -12359,7 +12359,7 @@
         <v>946</v>
       </c>
       <c r="K265" t="s">
-        <v>947</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -12375,20 +12375,20 @@
       <c r="D266" t="s">
         <v>14</v>
       </c>
-      <c r="F266" t="s">
+      <c r="E266" t="s">
+        <v>233</v>
+      </c>
+      <c r="G266" t="s">
+        <v>944</v>
+      </c>
+      <c r="I266" t="s">
         <v>992</v>
-      </c>
-      <c r="G266" t="s">
-        <v>235</v>
-      </c>
-      <c r="I266" t="s">
-        <v>993</v>
       </c>
       <c r="J266" t="s">
         <v>946</v>
       </c>
       <c r="K266" t="s">
-        <v>947</v>
+        <v>993</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -12404,20 +12404,20 @@
       <c r="D267" t="s">
         <v>14</v>
       </c>
-      <c r="F267" t="s">
+      <c r="E267" t="s">
+        <v>233</v>
+      </c>
+      <c r="G267" t="s">
+        <v>997</v>
+      </c>
+      <c r="I267" t="s">
         <v>243</v>
       </c>
-      <c r="G267" t="s">
-        <v>235</v>
-      </c>
-      <c r="I267" t="s">
+      <c r="J267" t="s">
+        <v>998</v>
+      </c>
+      <c r="K267" t="s">
         <v>244</v>
-      </c>
-      <c r="J267" t="s">
-        <v>997</v>
-      </c>
-      <c r="K267" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -12433,20 +12433,20 @@
       <c r="D268" t="s">
         <v>14</v>
       </c>
-      <c r="F268" t="s">
-        <v>420</v>
+      <c r="E268" t="s">
+        <v>377</v>
       </c>
       <c r="G268" t="s">
-        <v>378</v>
+        <v>1002</v>
       </c>
       <c r="I268" t="s">
         <v>421</v>
       </c>
       <c r="J268" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="K268" t="s">
-        <v>1003</v>
+        <v>423</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -12462,20 +12462,20 @@
       <c r="D269" t="s">
         <v>14</v>
       </c>
-      <c r="F269" t="s">
+      <c r="E269" t="s">
+        <v>233</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I269" t="s">
         <v>243</v>
       </c>
-      <c r="G269" t="s">
-        <v>235</v>
-      </c>
-      <c r="I269" t="s">
+      <c r="J269" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K269" t="s">
         <v>244</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K269" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -12491,20 +12491,20 @@
       <c r="D270" t="s">
         <v>14</v>
       </c>
-      <c r="F270" t="s">
+      <c r="E270" t="s">
+        <v>233</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I270" t="s">
         <v>243</v>
       </c>
-      <c r="G270" t="s">
-        <v>235</v>
-      </c>
-      <c r="I270" t="s">
+      <c r="J270" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K270" t="s">
         <v>244</v>
-      </c>
-      <c r="J270" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K270" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -12520,11 +12520,11 @@
       <c r="D271" t="s">
         <v>14</v>
       </c>
-      <c r="F271" t="s">
+      <c r="E271" t="s">
+        <v>233</v>
+      </c>
+      <c r="G271" t="s">
         <v>1015</v>
-      </c>
-      <c r="G271" t="s">
-        <v>235</v>
       </c>
       <c r="I271" t="s">
         <v>1016</v>
@@ -12546,11 +12546,11 @@
       <c r="D272" t="s">
         <v>14</v>
       </c>
-      <c r="F272" t="s">
+      <c r="E272" t="s">
+        <v>233</v>
+      </c>
+      <c r="G272" t="s">
         <v>1015</v>
-      </c>
-      <c r="G272" t="s">
-        <v>235</v>
       </c>
       <c r="I272" t="s">
         <v>1016</v>
@@ -12575,11 +12575,11 @@
       <c r="D273" t="s">
         <v>14</v>
       </c>
-      <c r="F273" t="s">
+      <c r="E273" t="s">
+        <v>233</v>
+      </c>
+      <c r="G273" t="s">
         <v>1015</v>
-      </c>
-      <c r="G273" t="s">
-        <v>235</v>
       </c>
       <c r="I273" t="s">
         <v>1016</v>
@@ -12601,11 +12601,11 @@
       <c r="D274" t="s">
         <v>14</v>
       </c>
-      <c r="F274" t="s">
+      <c r="E274" t="s">
+        <v>233</v>
+      </c>
+      <c r="G274" t="s">
         <v>1015</v>
-      </c>
-      <c r="G274" t="s">
-        <v>235</v>
       </c>
       <c r="I274" t="s">
         <v>1016</v>
@@ -12630,11 +12630,11 @@
       <c r="D275" t="s">
         <v>14</v>
       </c>
-      <c r="F275" t="s">
+      <c r="E275" t="s">
+        <v>233</v>
+      </c>
+      <c r="G275" t="s">
         <v>1015</v>
-      </c>
-      <c r="G275" t="s">
-        <v>235</v>
       </c>
       <c r="I275" t="s">
         <v>1016</v>
@@ -12659,11 +12659,11 @@
       <c r="D276" t="s">
         <v>14</v>
       </c>
-      <c r="F276" t="s">
+      <c r="E276" t="s">
+        <v>233</v>
+      </c>
+      <c r="G276" t="s">
         <v>1015</v>
-      </c>
-      <c r="G276" t="s">
-        <v>235</v>
       </c>
       <c r="I276" t="s">
         <v>1016</v>
@@ -12688,11 +12688,11 @@
       <c r="D277" t="s">
         <v>14</v>
       </c>
-      <c r="F277" t="s">
+      <c r="E277" t="s">
+        <v>233</v>
+      </c>
+      <c r="G277" t="s">
         <v>1015</v>
-      </c>
-      <c r="G277" t="s">
-        <v>235</v>
       </c>
       <c r="I277" t="s">
         <v>1016</v>
@@ -12717,20 +12717,20 @@
       <c r="D278" t="s">
         <v>14</v>
       </c>
-      <c r="F278" t="s">
-        <v>420</v>
+      <c r="E278" t="s">
+        <v>377</v>
       </c>
       <c r="G278" t="s">
-        <v>378</v>
+        <v>1038</v>
       </c>
       <c r="I278" t="s">
         <v>421</v>
       </c>
       <c r="J278" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K278" t="s">
-        <v>1039</v>
+        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -12746,20 +12746,20 @@
       <c r="D279" t="s">
         <v>14</v>
       </c>
-      <c r="F279" t="s">
-        <v>93</v>
+      <c r="E279" t="s">
+        <v>58</v>
       </c>
       <c r="G279" t="s">
-        <v>59</v>
+        <v>1038</v>
       </c>
       <c r="I279" t="s">
         <v>95</v>
       </c>
       <c r="J279" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K279" t="s">
-        <v>1039</v>
+        <v>97</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -12775,20 +12775,20 @@
       <c r="D280" t="s">
         <v>14</v>
       </c>
-      <c r="F280" t="s">
-        <v>16</v>
+      <c r="E280" t="s">
+        <v>15</v>
       </c>
       <c r="G280" t="s">
-        <v>17</v>
+        <v>1038</v>
       </c>
       <c r="I280" t="s">
         <v>19</v>
       </c>
       <c r="J280" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K280" t="s">
-        <v>1039</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -12804,20 +12804,20 @@
       <c r="D281" t="s">
         <v>14</v>
       </c>
-      <c r="F281" t="s">
+      <c r="E281" t="s">
+        <v>233</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I281" t="s">
         <v>352</v>
       </c>
-      <c r="G281" t="s">
-        <v>235</v>
-      </c>
-      <c r="I281" t="s">
+      <c r="J281" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K281" t="s">
         <v>353</v>
-      </c>
-      <c r="J281" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K281" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -12833,20 +12833,20 @@
       <c r="D282" t="s">
         <v>14</v>
       </c>
-      <c r="F282" t="s">
+      <c r="E282" t="s">
         <v>253</v>
       </c>
       <c r="G282" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I282" t="s">
         <v>254</v>
       </c>
-      <c r="I282" t="s">
+      <c r="J282" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K282" t="s">
         <v>255</v>
-      </c>
-      <c r="J282" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K282" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -12862,20 +12862,20 @@
       <c r="D283" t="s">
         <v>14</v>
       </c>
-      <c r="F283" t="s">
-        <v>802</v>
+      <c r="E283" t="s">
+        <v>337</v>
       </c>
       <c r="G283" t="s">
-        <v>338</v>
+        <v>1055</v>
       </c>
       <c r="I283" t="s">
         <v>894</v>
       </c>
       <c r="J283" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="K283" t="s">
-        <v>1056</v>
+        <v>806</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -12891,20 +12891,20 @@
       <c r="D284" t="s">
         <v>14</v>
       </c>
-      <c r="F284" t="s">
+      <c r="E284" t="s">
         <v>253</v>
       </c>
       <c r="G284" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I284" t="s">
         <v>254</v>
       </c>
-      <c r="I284" t="s">
+      <c r="J284" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K284" t="s">
         <v>255</v>
-      </c>
-      <c r="J284" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K284" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -12917,20 +12917,20 @@
       <c r="D285" t="s">
         <v>14</v>
       </c>
-      <c r="F285" t="s">
+      <c r="E285" t="s">
+        <v>233</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I285" t="s">
         <v>352</v>
       </c>
-      <c r="G285" t="s">
-        <v>235</v>
-      </c>
-      <c r="I285" t="s">
+      <c r="J285" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K285" t="s">
         <v>353</v>
-      </c>
-      <c r="J285" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K285" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -12946,20 +12946,20 @@
       <c r="D286" t="s">
         <v>14</v>
       </c>
-      <c r="F286" t="s">
+      <c r="E286" t="s">
+        <v>377</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I286" t="s">
         <v>981</v>
       </c>
-      <c r="G286" t="s">
-        <v>378</v>
-      </c>
-      <c r="I286" t="s">
+      <c r="J286" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K286" t="s">
         <v>982</v>
-      </c>
-      <c r="J286" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K286" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -12975,20 +12975,20 @@
       <c r="D287" t="s">
         <v>14</v>
       </c>
-      <c r="F287" t="s">
+      <c r="E287" t="s">
+        <v>377</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I287" t="s">
         <v>981</v>
       </c>
-      <c r="G287" t="s">
-        <v>378</v>
-      </c>
-      <c r="I287" t="s">
+      <c r="J287" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K287" t="s">
         <v>982</v>
-      </c>
-      <c r="J287" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K287" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -13004,20 +13004,20 @@
       <c r="D288" t="s">
         <v>14</v>
       </c>
-      <c r="F288" t="s">
+      <c r="E288" t="s">
+        <v>15</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I288" t="s">
         <v>75</v>
       </c>
-      <c r="G288" t="s">
-        <v>17</v>
-      </c>
-      <c r="I288" t="s">
+      <c r="J288" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K288" t="s">
         <v>76</v>
-      </c>
-      <c r="J288" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K288" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -13033,20 +13033,20 @@
       <c r="D289" t="s">
         <v>14</v>
       </c>
-      <c r="F289" t="s">
+      <c r="E289" t="s">
         <v>58</v>
       </c>
       <c r="G289" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I289" t="s">
         <v>59</v>
       </c>
-      <c r="I289" t="s">
+      <c r="J289" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K289" t="s">
         <v>60</v>
-      </c>
-      <c r="J289" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K289" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -13062,20 +13062,20 @@
       <c r="D290" t="s">
         <v>14</v>
       </c>
-      <c r="F290" t="s">
+      <c r="E290" t="s">
         <v>58</v>
       </c>
       <c r="G290" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I290" t="s">
         <v>59</v>
       </c>
-      <c r="I290" t="s">
+      <c r="J290" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K290" t="s">
         <v>60</v>
-      </c>
-      <c r="J290" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K290" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -13091,20 +13091,20 @@
       <c r="D291" t="s">
         <v>14</v>
       </c>
-      <c r="F291" t="s">
+      <c r="E291" t="s">
+        <v>233</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I291" t="s">
         <v>352</v>
       </c>
-      <c r="G291" t="s">
-        <v>235</v>
-      </c>
-      <c r="I291" t="s">
+      <c r="J291" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K291" t="s">
         <v>353</v>
-      </c>
-      <c r="J291" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K291" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -13120,20 +13120,20 @@
       <c r="D292" t="s">
         <v>14</v>
       </c>
-      <c r="F292" t="s">
+      <c r="E292" t="s">
+        <v>233</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I292" t="s">
         <v>352</v>
       </c>
-      <c r="G292" t="s">
-        <v>235</v>
-      </c>
-      <c r="I292" t="s">
+      <c r="J292" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K292" t="s">
         <v>353</v>
-      </c>
-      <c r="J292" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K292" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -13149,20 +13149,20 @@
       <c r="D293" t="s">
         <v>14</v>
       </c>
-      <c r="F293" t="s">
+      <c r="E293" t="s">
+        <v>233</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I293" t="s">
         <v>352</v>
       </c>
-      <c r="G293" t="s">
-        <v>235</v>
-      </c>
-      <c r="I293" t="s">
+      <c r="J293" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K293" t="s">
         <v>353</v>
-      </c>
-      <c r="J293" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K293" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -13178,20 +13178,20 @@
       <c r="D294" t="s">
         <v>14</v>
       </c>
-      <c r="F294" t="s">
+      <c r="E294" t="s">
+        <v>233</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I294" t="s">
         <v>352</v>
       </c>
-      <c r="G294" t="s">
-        <v>235</v>
-      </c>
-      <c r="I294" t="s">
+      <c r="J294" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K294" t="s">
         <v>353</v>
-      </c>
-      <c r="J294" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K294" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -13207,20 +13207,20 @@
       <c r="D295" t="s">
         <v>14</v>
       </c>
-      <c r="F295" t="s">
+      <c r="E295" t="s">
+        <v>233</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I295" t="s">
         <v>352</v>
       </c>
-      <c r="G295" t="s">
-        <v>235</v>
-      </c>
-      <c r="I295" t="s">
+      <c r="J295" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K295" t="s">
         <v>353</v>
-      </c>
-      <c r="J295" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K295" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -13236,20 +13236,20 @@
       <c r="D296" t="s">
         <v>14</v>
       </c>
-      <c r="F296" t="s">
+      <c r="E296" t="s">
+        <v>233</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I296" t="s">
         <v>352</v>
       </c>
-      <c r="G296" t="s">
-        <v>235</v>
-      </c>
-      <c r="I296" t="s">
+      <c r="J296" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K296" t="s">
         <v>353</v>
-      </c>
-      <c r="J296" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K296" t="s">
-        <v>1099</v>
       </c>
     </row>
   </sheetData>
